--- a/문서 관리/01. 요구사항명세서.xlsx
+++ b/문서 관리/01. 요구사항명세서.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\teamproject\문서 관리\01. 요구사항명세서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BIG603-04\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20625" windowHeight="9735" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="299">
   <si>
     <t>시스템 운영상 교육이 필요하다고 판단되어 발주기관이 교육요구 시 협의를 통해 교육 시행</t>
   </si>
@@ -46,9 +46,6 @@
     <t>발주기관은 본 사업의 공기 준수 및 품질 수준 극대화를 위해 사업 진행 상황에 대한 감리 및 검사를 시행할 수 있으며, 이 경우 감리 및 검사 요원은 발주기관이 지정하는 기관과 직원으로 함</t>
   </si>
   <si>
-    <t>신청 주문 정보를 기반으로 신청 유형(이동지원/식사지원/주거편의)에 따른 알맞은 전문 업체 배정</t>
-  </si>
-  <si>
     <t>실시간으로 처리 시 오류가 발생한 즉시 사용자에게 관련 메세지를 알려주도록 설계/구현 하여야 함</t>
   </si>
   <si>
@@ -73,9 +70,6 @@
     <t>버전</t>
   </si>
   <si>
-    <t>로그인</t>
-  </si>
-  <si>
     <t>작성자</t>
   </si>
   <si>
@@ -100,9 +94,6 @@
     <t>요구사항 내용</t>
   </si>
   <si>
-    <t>검색 기능</t>
-  </si>
-  <si>
     <t>업무 모듈화</t>
   </si>
   <si>
@@ -127,33 +118,12 @@
     <t>시험운영</t>
   </si>
   <si>
-    <t>돌봄서비스
-신청 주문 관리
-(이동지원/식사지원/주거편의)</t>
-  </si>
-  <si>
-    <t>프로세스 처리현황
-리포팅</t>
-  </si>
-  <si>
-    <t>서비스 요청자
-정보 관리</t>
-  </si>
-  <si>
     <t>작     성     자</t>
   </si>
   <si>
     <t>대     외     비</t>
   </si>
   <si>
-    <t>전문 사회적 기업
-매칭 관리</t>
-  </si>
-  <si>
-    <t>전문 사회적 기업
-정보 관리</t>
-  </si>
-  <si>
     <t>보            안</t>
   </si>
   <si>
@@ -200,15 +170,6 @@
   </si>
   <si>
     <t>요구사항 ID</t>
-  </si>
-  <si>
-    <t>개인정보 개별항목 DB 암호화</t>
-  </si>
-  <si>
-    <t>서비스 요청자 정보 수정/삭제 기능</t>
-  </si>
-  <si>
-    <t>담당인력을 통해 접수된 서비스 신청을 전문 기업에 매칭 처리</t>
   </si>
   <si>
     <t>개인정보보호에 관한 법률에 의거 개인정보보호지침을 준수해야 함</t>
@@ -236,9 +197,6 @@
     <t>데이터 형식 오류 응답시간</t>
   </si>
   <si>
-    <t>서비스 신청 검색 기능</t>
-  </si>
-  <si>
     <t>아. 프로젝트관리 요구사항</t>
   </si>
   <si>
@@ -257,12 +215,6 @@
     <t>본 사업의 수행과정에서 발생하는 제반 안전사고의 책임 및 행적적, 기술적 제반 비용과 문제처리는 계약상대자가 부담하는 것을 원칙으로 함</t>
   </si>
   <si>
-    <t>기간별 검색 기능</t>
-  </si>
-  <si>
-    <t>상태별 검색 기능</t>
-  </si>
-  <si>
     <t>다. 성능 요구사항</t>
   </si>
   <si>
@@ -302,9 +254,6 @@
     <t>삭제, 입력정보 완료 또는 미완료 후 저장 등과 같이 사용자의 수행 활동에 관한 확인 메세지를 제공하도록 설계/구현 하여야 함</t>
   </si>
   <si>
-    <t>배정 정보는 배정 업체 관리자 이메일과 시스템내 알림 기능을 이용해 통보</t>
-  </si>
-  <si>
     <t>권한</t>
   </si>
   <si>
@@ -317,58 +266,11 @@
     <t>시스템의 운영, 사용자 및 관리자 사용법 교육</t>
   </si>
   <si>
-    <t>서비스 제공업체 삭제시 서비스 세부항목도 같이 삭제됨</t>
-  </si>
-  <si>
     <t>미인증 회원일 시 마이페이지에서 내 정보 수정만 가능</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>사용자 그룹(통합관리자, 중간조직관리자, 업체)에 따른 가입페이지 별도  구현</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>로그인 화면 제공, 기존 페이지 유지</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>탈퇴신청 계정으로 로그인 시 복구 여부 확인 경고(유예기간 7일)</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>서비스 제공업체 생성 기능</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>업체 제공 서비스별 고유번호 부여</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>요청자 정보 삭제시 블랙리스트 정보는 6개월 유지</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문 처리시 서비스 요청자 정보 자동 생성(요청자 고유번호 8자리 부여)</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>서비스 리포팅 조회 기능</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>서비스 리포팅 등록 기능</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>서비스 제공종료 1시간후 리포팅 작성 페이지 활성화</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>이메일 리포팅 기능 구현</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자가 서비스 요청자 정보 검색 기능</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -392,9 +294,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>FUR-002</t>
-  </si>
-  <si>
     <t>FUR-005</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -451,59 +350,15 @@
     <t>COR-005</t>
   </si>
   <si>
-    <t>통합 주문 정보 수정/삭제 기능</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>패스워드는 특수문자, 숫자 등을 포함하여 8자리 이상, 15자의 이하로 구성되고, 양식에 맞지 않을 경우 입력창 아래 문구 표시</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입 후에 인증 전에는 서비스 이용 부분적 제한(기업들의 인증)</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>회원가입시 아이디 중복체크 기능</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>회원 ID는 고유번호로 지정</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입, 아이디 저장, 아이디/비밀번호 찾기 기능</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>회원가입 시 제공한 개인정보는 개별 암호화하여 저장</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>사용자 그룹별 권한 차등 부여</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>블랙리스트 계정으로 로그인시 1:1문의를 제외한 기능 이용 불가</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">로그인 5회 이상 실패시 보안문자 입력 후 재로그인 기능 </t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>ID(고유번호), PW 등을 통한 웹사이트 형태의 보안 로그인 구현</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>통합 주문 입력 기능</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>통합 주문 정보 조회 기능</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>통합 주문 상태 변경 처리 기능</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -779,10 +634,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>리포트 작성하라고 알림 기능</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>COR-006</t>
   </si>
   <si>
@@ -803,22 +654,6 @@
   </si>
   <si>
     <t>PSR-003</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입 시 필수 입력사항을 입력하지 않았을 시, 입력란 우측에 메세지 출력</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 실패시 로그인창 하단에 실패원인 메세지 출력</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>통합/개별 주문 신청시 입력사항</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -845,15 +680,86 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
+    <t>FUR-004</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약상대자는 공공기관의 개인정보보호에 관한 법률 등 기관의 정보보안 정책 및 규정을 준수하고,본 사업과 관련하여 취득한 일체의 정보를 유출 또는 누설하여서는 안되며,</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>시험운영은 발주기관이 정한 기간 내에 수행하여야 하고 정한 기간 내에 보완이 완료되지 못하면 서로가 정한 계약조건에 따른 조치와 보완 완료 시까지 책임을 져야함.</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 경우 추가 비용에 대하여는 주관계약상대자에게 책임이 있음</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>이의 위반으로 인한 문제 발생 시 민∙형사상의 모든 책임을 짐</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 개발 중 작성된 SQL문에 대하여 충분히 성능 테스트를 수행하며 성능 지연이 발생하지 않도록 조정해야 함</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입, 아이디 저장, 자동 로그인, 아이디/비밀번호 찾기 기능</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 시도 5회 실패 시 본인인증 후 로그인 가능</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>회원가입 시 개인정보 수집</t>
+    </r>
     <r>
       <rPr>
         <sz val="9"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <rFont val="굴림체"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>•</t>
+      <t>〮</t>
     </r>
     <r>
       <rPr>
@@ -863,20 +769,33 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve"> 공통 : 아이디, 패스워드, 패스워드 확인, 이메일, 전화번호, 주소</t>
+      <t>이용</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="9"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <rFont val="굴림체"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>•</t>
+      <t xml:space="preserve"> 동의 및 본인 확인 절차 필요</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>회원가입 시 ID, 비밀번호, 비밀번호 확인, 이름, 성별, 내</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>〮</t>
     </r>
     <r>
       <rPr>
@@ -886,20 +805,125 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve"> 관리자 : 관리자명, 직책</t>
+      <t>외국인</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="9"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <rFont val="굴림체"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>•</t>
+      <t>, 연락처, 생년월일, 이메일, 주소, 학교명 필수 입력</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호는 특수문자, 숫자 등을 포함하여 8자리 이상, 15자의 이하로 구성되고, 양식에 맞지 않을 경우 입력창 아래 '비밀번호가 맞지 않습니다' 문구 출력</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입시 해당 전화번호로 본인인증 수행 (* 이메일 인증으로 대체 가능)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 아이디는 고유번호로 지정</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 시 필수 입력사항을 입력하지 않았을 시, 입력란 우측에 '* 필수입력사항 입니다' 문구 출력</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 실패시 로그인창 하단에 실패원인 메세지 출력</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>본인인증 미완료시 서비스 이용 부분 제한</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>없는 계정으로 로그인 시 '등록되지 않은 계정입니다. 회원가입 후 이용해주세요.' 팝업창 출력</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID/PW 찾기</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 찾기는 아이디 및 이메일 입력 후 본인인증 절차를 거쳐 새 비밀번호 등록 페이지로 이동</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력 비밀번호 5회 실패 시 이메일 인증을 통한 새 비밀번호 지정 가능</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 페이지</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 페이지</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 위(Wee)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>상담 신청</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 상담</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>마음건강검사</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>마음건강정보</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>스윗(WeeT)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wee-Network</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>챗봇(FAQ)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리지역기관찾기</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>통계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>〮</t>
     </r>
     <r>
       <rPr>
@@ -909,20 +933,89 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve"> 기업 : 기업명, 사업자등록번호</t>
+      <t>현</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="9"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <rFont val="굴림체"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>•</t>
+      <t>황 관리</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객지원</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원탈퇴</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이드바</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNS</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>유관기관</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인정보 조회 및 수정 기능 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 계정의 경우 외부 접속을 차단하며, 교육청 내부망의 지정 IP에서만 접근 허용</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 인증 또는 휴대폰 인증번호 입력을 통해 아이디, 비밀번호 초기화 기능 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 인증을 통한 로그인 기능 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존 비밀번호 입력 후 새 비밀번호, 새 비밀번호 확인란 입력 후 수정 버튼 입력 시 비밀번호 변경</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>본인의 상담 내역 및 신청 현황 조회 시 상담 누계 회기(회기수, 일시, 장소, 시간, 상담사명) 정보 확인</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>상담 신청 확정 건만 회기별 상담 예약 내용 확인 가능</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>매회기 상담 예약 시 확인증 확인 및 상담 확인증 발급 기능 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>상담 완료 건에 한해 상담 만족도 검사 실시</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>전문상담(교사) 회원에 한해 스윗(Sweet) 확인, 닉네임 등록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>〮</t>
     </r>
     <r>
       <rPr>
@@ -932,84 +1025,73 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve"> 식사지원 : 식사횟수, 식사시간, 유의사항</t>
+      <t>수정</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입 시 입력사항</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>지정한 서비스 세부항목을 확인할 수 있는 기능</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>지정한 서비스 세부항목을 수정할 수 있는 기능</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>생성된 서비스 제공업체가 있을때 수정/삭제할 수 있는 기능</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정/삭제 버튼 클릭시 팝업메세지 출력</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>배정 업체는 수락/거절을 진행할 수 있으며, 거절 시 돌봄센터 담당 인력은 다른 전문 사회적 기업에 재요청할 수 있도록 구성</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자의 서비스 신청자 정보 조회 기능, 업체 정보(고유번호, 이름 등) 조회 기능, 요청자 정보(고유번호, 이름 등) 조회 기능</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>서비스 이용 내역에 따라 요청자별 서비스 등급 관리(블랙리스트,일반)</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>본인정보 조회 기능 (본인정보 수정/삭제를 위한 조회)</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUR-004</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUR-003</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>페이지 이탈시 팝업메세지 출력</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>계약상대자는 공공기관의 개인정보보호에 관한 법률 등 기관의 정보보안 정책 및 규정을 준수하고,본 사업과 관련하여 취득한 일체의 정보를 유출 또는 누설하여서는 안되며,</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>시험운영은 발주기관이 정한 기간 내에 수행하여야 하고 정한 기간 내에 보완이 완료되지 못하면 서로가 정한 계약조건에 따른 조치와 보완 완료 시까지 책임을 져야함.</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 경우 추가 비용에 대하여는 주관계약상대자에게 책임이 있음</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>이의 위반으로 인한 문제 발생 시 민∙형사상의 모든 책임을 짐</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="9"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <rFont val="굴림체"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>•</t>
+      <t>, 작성 게시글/댓글 확인 기능 제공</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>본인이 작성한 게시글 및 답변글 확인 및 수정 기능</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 재확인 등의 본인확인 후 회원정보 수정 가능</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>본인의 자가진단검사 결과 확인 가능</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>접속 계정, 접속일시, 접속IP, 작업 종류 및 시간에 해당하는 접속 로그 기록 보관</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 접속 로그 및 이벤트 로그 1년 이상 보관</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 및 사용자 계정 5회 이상 실패 시 계정 이용 중지 조치</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 정보 및 현황 조회/검색 기능, 가입/탈퇴회원 현황 조회 기능 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템에 이용되는 각종 알림, 문구, 게시글 관리 권한 부여</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템을 사용하는 사용자 유형에 따라 등록, 수정, 삭제, 조회, 비밀번호 초기화 기능 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>내담자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>〮</t>
     </r>
     <r>
       <rPr>
@@ -1019,20 +1101,53 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve"> 이동지원 : 출발지, 도착지, 이동수단</t>
+      <t>보호자</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="9"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <rFont val="굴림체"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>•</t>
+      <t xml:space="preserve"> 상담동의서, 상담 확정 안내 전송 관리</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오톡 채널을 통해 자주 묻는 질문에 대한 답변 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>바로가기 메뉴에 등록된 질문 선택 시 질문에 대한 답변 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색결과로 나타난 기관의 위치 클릭 시 기관 상세 정보 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역별 카테고리에서 특정 지역 선택 시 해당 지역에 위치한 센터의 위치정보를 지도 형태로 출력</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>유입 통계에서 방문자, 가입자, 접속자의 유입경로(시간, 메뉴) 통계 정보 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>상담 통계에서 전체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>〮</t>
     </r>
     <r>
       <rPr>
@@ -1042,80 +1157,667 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve"> 주거편의 : 간단한 집안 수리, 청소, 시설점검</t>
+      <t>센터의</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>생성된 서비스 제공업체가 없을때 새로 생성하는 기능</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>시스템 개발 중 작성된 SQL문에 대하여 충분히 성능 테스트를 수행하며 성능 지연이 발생하지 않도록 조정해야 함</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인에 성공 시 팝업메세지 출력</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>기업</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>요청자</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>요청자</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>기업</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>요청자</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="9"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <rFont val="굴림체"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>•</t>
+      <t xml:space="preserve"> 신청자, 내담자, 게시판 상담, 상담 만족도 검사 상담 통계 정보 제공</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 대상으로 검사사용 현황(검사/연령/상황별) 및 마음건강검사 통계 정보 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색 키워드 및 조회수 관련 마음건강정보 통계 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>유튜브 및 카카오톡 채널로 연결하는 링크 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">심리상담 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">· </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">생명존중 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">· </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">성 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">· </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">중독 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">· </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>도박</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아동·청소년</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관련</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 기관의 기관명, 연락처 제공</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>배너 클릭 시 해당 유관기관 사이트로 이동</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 위(Wee) 센터 교육·연수·행사·기타 등록/접수/현황 관리 기능</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>전문상담</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>교</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사 회원은 닉네임 등록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정 기능 제공</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>게시글 목록은 최신순</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추천순 등 보기 방식을 변경하여 조회 가능</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>게시글마다 첨부파일 업로드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다운로드 기능</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>전문상담</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>교</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사 권한의 계정만 접근가능 게시판</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교 업무 공유 게시판, 상담 전문성 공유 게시판, 서식 공유 게시판, 자유 게시판의 하위 메뉴로 구성</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자간 양방향 소통(댓글, 대댓글) 기능 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>좋아요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유익해요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>재밌어요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추천해요 등 이모티콘 활용 가능</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>전국에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 위치한 Wee-Network의 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">위치를 지도 형태로 제공, 지도 선택 시 기관 소개 내용 및 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">URL 등 상세 정보 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제공</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항에 기관별, 제목, 내용 검색 기능 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAQ, 자주찾는질문에 대한 답변 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>QnA 메뉴를 통해 서비스 관련 1대1 문의 기능</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스 이용 불만사항 건의 및 불량 사용자에 대한 신고 기능 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>통계 항목에 대한 엑셀 및 그래프, 파일 다운로드 기능</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>마음건강정보 자료 중 카드뉴스 형식의 콘텐츠는 추천 글로 지정</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류별, 키워드별, 검색항목별 검색기능 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>심리검사 결과에 따라 관련 마음건강정보 콘텐츠를 바로 이용할 수 있도록 구현</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞춤형 검사는 사용자가 원하는 검사 선택 시 관련 검사 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>초등〮중고등〮성인 선택 시 해당 연령별 관련 검사 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>제시된 상황 선택 시 관련 검사 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>비회원의 경우 개인정보 수집 및 활용 동의 후 심리검사 서비스 이용 가능</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>상담 매체별 상담 이용안내 소개</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>비회원의 경우 서비스 이용 불가</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>내담자가 14세 미만인 경우 보호자 상담동의서 선택 기능</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>상담 희망일시 등록 시 수업시간일 경우 '수업시간 내 상담 희망' 체크 기능</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈퇴 신청 회원의 경우 개인정보 30일 보관 이후 영구 삭제</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 탈퇴 계정과 동일 아이디로 재회원가입 제한</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀵 메뉴 및 바로가기 아이콘 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>최근 방문한 페이지 목록을 최대 4개까지 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 탈퇴 버튼 입력 시 '회원을 탈퇴하시겠습니까?' 확인 팝업 메시지 출력</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>금칙어 포함시, 센터별관리자에게 게시글 삭제와 메시지 표시 기능 권한 부여</t>
+  </si>
+  <si>
+    <t>신청자가 지정한 위(Wee) 센터(24개소) 변경 권한을 센터별 관리자에게 부여</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이아웃에 따라 개별적으로 콘텐츠 관리 기능</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 생애주기, 관심 키워드, 심리상담 주제 선택시 사용자 맞춤 서비스 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지 형식은 일러스트 형식 적용</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>기획</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디자인 콘텐츠는 카드뉴스 형식으로 구현</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>위</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">(Wee), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>위네트워크</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(Wee-Network)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를 탭으로 구성</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>센터별 교육</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>〮</t>
     </r>
     <r>
       <rPr>
@@ -1125,24 +1827,364 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve"> 공통 : 이름, 계좌번호, 주민등록번호, 주소, 전화번호, 이용인원, 서비스대상자 정보 (이름, 나이, 성별, 주소, 특이사항), 이용날짜&amp;시간</t>
+      <t>연수</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 일정 정보 제공</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판별 연계가 가능하여 모든 게시판에서 확인 가능</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>위(Wee) 센터별(23개소) 게시판 상담 관리 기능</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>서울</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 위(Wee) 센터 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>위치를 지도화하여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지도 선택시 위</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(Wee)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">센터 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>26</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개소의 소개 및 내용 제공</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항에 전체·26개소에 따른 교육·연수·행사·기타 등록 및 신청자 접수 기능 구현</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>접수 신청시 기한 및 인원수 제한을 두어 공고 마감 기능</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>서울 위플</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">(Weepl) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>앱 서비스 관련 문의 응대</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>마음건강검사 페이지 이동</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>상담신청 페이지 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>서울 위</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">(Wee) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>센터 관련 문의 응대</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리는 대인관계〮학교생활〮마음건강〮위기〮일탈로 구분하여 선택 시 상세 콘텐츠 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 위플(Weepl) 로고 및 마스코트 캐릭터 소개 페이지 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞춤 서비스, 마음건강정보 추천글, 통합검색, 공지사항, 우리 지역 기관 찾기, 챗봇(FAQ), SNS, 유관기관 서비스로 구성</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>위(Wee) 프로젝트 사업소개 및 추진 체계 정보 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청자와 내담자가 동일한 경우 회원가입 정보를 연동하되, 다른 경우 내담자의 정보를 작성할 수 있도록 구현</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 상담별 게시판마다 신청자가 직접 비밀번호를 설정하여 비밀번호 입력 후 게시판 조회 가능</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 상담은 비대면 상담 신청과 별도로 분리하여 신청</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUR-003</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUR-003</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUR-003</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUR-007</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 페이지</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 페이지</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID/PW 찾기 페이지</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인페이지</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 위(Wee) 페이지</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>상담신청 페이지</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원(신청자)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸터</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤더</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이드바</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원탈퇴 페이지</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객지원 페이지</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>통계현황 페이지</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 위(Wee) 페이지</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wee-Net 페이지</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>상담(교)사</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>마음건강정보</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>스윗(Sweet) 페이지</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>마음건강정보</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>상담게시판</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원(신청자)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀵 메뉴는 챗봇, SNS, 유관기관으로 연결</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -1150,7 +2192,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1306,6 +2348,20 @@
       <color rgb="FF000000"/>
       <name val="굴림체"/>
       <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -1573,7 +2629,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1763,23 +2819,11 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1787,25 +2831,43 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1820,10 +2882,19 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1835,10 +2906,34 @@
     <xf numFmtId="0" fontId="17" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1850,29 +2945,26 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3323,13 +4415,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3394,13 +4486,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3465,13 +4557,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3536,13 +4628,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3607,13 +4699,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3678,13 +4770,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3749,13 +4841,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3820,13 +4912,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3891,13 +4983,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3962,13 +5054,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4033,13 +5125,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4104,13 +5196,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4175,13 +5267,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4246,13 +5338,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4317,13 +5409,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4388,13 +5480,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4459,13 +5551,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4530,13 +5622,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4601,13 +5693,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4672,13 +5764,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4743,13 +5835,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4814,13 +5906,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4885,13 +5977,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4956,13 +6048,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5027,13 +6119,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5098,13 +6190,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5169,13 +6261,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5240,13 +6332,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5311,13 +6403,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5382,13 +6474,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5453,13 +6545,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5524,13 +6616,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5595,13 +6687,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5666,13 +6758,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5737,13 +6829,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5808,13 +6900,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5879,13 +6971,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5950,13 +7042,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6021,13 +7113,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6092,13 +7184,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6163,13 +7255,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6234,13 +7326,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6305,13 +7397,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6376,13 +7468,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6447,13 +7539,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6518,13 +7610,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6589,13 +7681,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6660,13 +7752,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6731,13 +7823,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6802,13 +7894,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6873,13 +7965,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6944,13 +8036,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7015,13 +8107,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7086,13 +8178,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7157,13 +8249,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7228,13 +8320,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7299,13 +8391,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7370,13 +8462,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7441,13 +8533,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7512,13 +8604,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7583,13 +8675,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7654,13 +8746,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7725,13 +8817,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7796,13 +8888,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8177,12 +9269,12 @@
     </row>
     <row r="9" spans="1:7" ht="33.75">
       <c r="B9" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="33.75">
       <c r="B10" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -8196,7 +9288,7 @@
     </row>
     <row r="15" spans="1:7" ht="20.25">
       <c r="B15" s="5" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -8210,7 +9302,7 @@
     </row>
     <row r="21" spans="1:12" ht="18.75">
       <c r="B21" s="6" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -8258,7 +9350,7 @@
     <row r="29" spans="1:12" ht="17.25" customHeight="1">
       <c r="A29" s="7"/>
       <c r="B29" s="8" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="7"/>
@@ -8274,7 +9366,7 @@
     <row r="30" spans="1:12" ht="17.25" customHeight="1">
       <c r="A30" s="7"/>
       <c r="B30" s="9" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="7"/>
@@ -8282,7 +9374,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
@@ -8292,7 +9384,7 @@
     <row r="31" spans="1:12" ht="17.25" customHeight="1">
       <c r="A31" s="7"/>
       <c r="B31" s="9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="7"/>
@@ -8308,10 +9400,10 @@
     <row r="32" spans="1:12" ht="17.25" customHeight="1">
       <c r="A32" s="7"/>
       <c r="B32" s="9" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -8408,44 +9500,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" customHeight="1">
-      <c r="A1" s="79" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
+      <c r="A1" s="81" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
     </row>
     <row r="2" spans="1:4" ht="21" customHeight="1">
-      <c r="A2" s="78" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="80" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="80"/>
+      <c r="A2" s="80" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="80"/>
+      <c r="C2" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="82"/>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>14</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="18" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D4" s="17"/>
     </row>
@@ -8573,10 +9665,10 @@
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H146"/>
+  <dimension ref="A1:H189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21" customHeight="1"/>
@@ -8592,2055 +9684,2797 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="89" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
+      <c r="A1" s="102" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
     </row>
     <row r="2" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="91" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="A2" s="104" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="104"/>
+      <c r="C2" s="103" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
       <c r="G2" s="19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1" thickTop="1">
       <c r="A3" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="67" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="84">
-        <v>3</v>
-      </c>
-      <c r="B4" s="84" t="s">
-        <v>184</v>
-      </c>
-      <c r="C4" s="95" t="s">
-        <v>165</v>
-      </c>
-      <c r="D4" s="65" t="s">
-        <v>174</v>
-      </c>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84" t="s">
-        <v>197</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="64" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="51">
+        <v>1</v>
+      </c>
+      <c r="B4" s="89" t="s">
+        <v>260</v>
+      </c>
+      <c r="C4" s="86" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="89" t="s">
+        <v>266</v>
+      </c>
+      <c r="F4" s="89" t="s">
+        <v>134</v>
       </c>
       <c r="G4" s="51"/>
       <c r="H4" s="51"/>
     </row>
     <row r="5" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="85"/>
-      <c r="B5" s="85"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="64" t="s">
-        <v>170</v>
-      </c>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
+      <c r="A5" s="51">
+        <v>2</v>
+      </c>
+      <c r="B5" s="90"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
       <c r="G5" s="39"/>
       <c r="H5" s="52"/>
     </row>
     <row r="6" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="85"/>
-      <c r="B6" s="85"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="64" t="s">
-        <v>171</v>
-      </c>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
+      <c r="A6" s="51">
+        <v>3</v>
+      </c>
+      <c r="B6" s="90"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
       <c r="G6" s="39"/>
       <c r="H6" s="52"/>
     </row>
     <row r="7" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="86"/>
-      <c r="B7" s="85"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="63" t="s">
-        <v>172</v>
-      </c>
-      <c r="E7" s="86"/>
-      <c r="F7" s="85"/>
+      <c r="A7" s="51">
+        <v>4</v>
+      </c>
+      <c r="B7" s="90"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
       <c r="G7" s="39"/>
       <c r="H7" s="52"/>
     </row>
     <row r="8" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="29">
-        <v>4</v>
-      </c>
-      <c r="B8" s="85"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="66" t="s">
-        <v>166</v>
-      </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="85"/>
+      <c r="A8" s="51">
+        <v>5</v>
+      </c>
+      <c r="B8" s="90"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
       <c r="G8" s="30"/>
       <c r="H8" s="32"/>
     </row>
     <row r="9" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="51">
-        <v>5</v>
-      </c>
-      <c r="B9" s="85"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="85"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="90"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
       <c r="G9" s="30"/>
       <c r="H9" s="32"/>
     </row>
     <row r="10" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A10" s="51">
-        <v>6</v>
-      </c>
-      <c r="B10" s="85"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="85"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="90"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
       <c r="G10" s="30"/>
       <c r="H10" s="32"/>
     </row>
     <row r="11" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A11" s="51">
-        <v>7</v>
-      </c>
-      <c r="B11" s="85"/>
-      <c r="C11" s="96"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="90"/>
+      <c r="C11" s="87"/>
       <c r="D11" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="85"/>
+        <v>102</v>
+      </c>
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
       <c r="G11" s="30"/>
       <c r="H11" s="32"/>
     </row>
     <row r="12" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A12" s="51">
-        <v>8</v>
-      </c>
-      <c r="B12" s="85"/>
-      <c r="C12" s="96"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="90"/>
+      <c r="C12" s="87"/>
       <c r="D12" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="85"/>
+        <v>79</v>
+      </c>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
       <c r="G12" s="30"/>
       <c r="H12" s="32"/>
     </row>
     <row r="13" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A13" s="51">
-        <v>9</v>
-      </c>
-      <c r="B13" s="85"/>
-      <c r="C13" s="96"/>
-      <c r="D13" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="85"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="90"/>
+      <c r="D13" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
       <c r="G13" s="30"/>
       <c r="H13" s="32"/>
     </row>
     <row r="14" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A14" s="51">
-        <v>10</v>
-      </c>
-      <c r="B14" s="85"/>
-      <c r="C14" s="96"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="89" t="s">
+        <v>261</v>
+      </c>
+      <c r="C14" s="86" t="s">
+        <v>140</v>
+      </c>
       <c r="D14" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="85"/>
+        <v>141</v>
+      </c>
+      <c r="E14" s="92" t="s">
+        <v>265</v>
+      </c>
+      <c r="F14" s="83" t="s">
+        <v>132</v>
+      </c>
       <c r="G14" s="30"/>
       <c r="H14" s="32"/>
     </row>
     <row r="15" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A15" s="51">
-        <v>11</v>
-      </c>
-      <c r="B15" s="85"/>
-      <c r="C15" s="96"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="90"/>
+      <c r="C15" s="87"/>
       <c r="D15" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="85"/>
+        <v>80</v>
+      </c>
+      <c r="E15" s="93"/>
+      <c r="F15" s="84"/>
       <c r="G15" s="30"/>
       <c r="H15" s="32"/>
     </row>
     <row r="16" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A16" s="51">
-        <v>12</v>
-      </c>
-      <c r="B16" s="86"/>
-      <c r="C16" s="97"/>
-      <c r="D16" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="86"/>
+        <v>13</v>
+      </c>
+      <c r="B16" s="90"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="E16" s="93"/>
+      <c r="F16" s="84"/>
       <c r="G16" s="30"/>
       <c r="H16" s="32"/>
     </row>
     <row r="17" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A17" s="51">
-        <v>13</v>
-      </c>
-      <c r="B17" s="84" t="s">
-        <v>184</v>
-      </c>
-      <c r="C17" s="88" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="E17" s="87"/>
-      <c r="F17" s="81" t="s">
-        <v>195</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B17" s="90"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="E17" s="93"/>
+      <c r="F17" s="84"/>
       <c r="G17" s="30"/>
       <c r="H17" s="32"/>
     </row>
     <row r="18" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A18" s="51">
-        <v>14</v>
-      </c>
-      <c r="B18" s="85"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="E18" s="87"/>
-      <c r="F18" s="83"/>
+        <v>15</v>
+      </c>
+      <c r="B18" s="90"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="E18" s="93"/>
+      <c r="F18" s="84"/>
       <c r="G18" s="30"/>
       <c r="H18" s="32"/>
     </row>
     <row r="19" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A19" s="51">
-        <v>15</v>
-      </c>
-      <c r="B19" s="85"/>
-      <c r="C19" s="88"/>
-      <c r="D19" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="E19" s="87"/>
-      <c r="F19" s="82"/>
+        <v>16</v>
+      </c>
+      <c r="B19" s="90"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="93"/>
+      <c r="F19" s="84"/>
       <c r="G19" s="30"/>
       <c r="H19" s="32"/>
     </row>
     <row r="20" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A20" s="51">
-        <v>16</v>
-      </c>
-      <c r="B20" s="85"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="E20" s="87"/>
-      <c r="F20" s="62" t="s">
-        <v>198</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B20" s="90"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="E20" s="93"/>
+      <c r="F20" s="84"/>
       <c r="G20" s="30"/>
       <c r="H20" s="32"/>
     </row>
     <row r="21" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A21" s="51">
-        <v>17</v>
-      </c>
-      <c r="B21" s="85"/>
+        <v>18</v>
+      </c>
+      <c r="B21" s="91"/>
       <c r="C21" s="88"/>
-      <c r="D21" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="E21" s="87"/>
-      <c r="F21" s="81" t="s">
-        <v>199</v>
-      </c>
+      <c r="D21" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="E21" s="94"/>
+      <c r="F21" s="84"/>
       <c r="G21" s="30"/>
       <c r="H21" s="32"/>
     </row>
     <row r="22" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A22" s="51">
-        <v>18</v>
-      </c>
-      <c r="B22" s="85"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="E22" s="87"/>
-      <c r="F22" s="83"/>
+        <v>19</v>
+      </c>
+      <c r="B22" s="89" t="s">
+        <v>262</v>
+      </c>
+      <c r="C22" s="86" t="s">
+        <v>152</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="E22" s="86" t="s">
+        <v>267</v>
+      </c>
+      <c r="F22" s="83" t="s">
+        <v>268</v>
+      </c>
       <c r="G22" s="30"/>
       <c r="H22" s="32"/>
     </row>
     <row r="23" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A23" s="51">
-        <v>19</v>
-      </c>
-      <c r="B23" s="85"/>
-      <c r="C23" s="88"/>
+        <v>20</v>
+      </c>
+      <c r="B23" s="90"/>
+      <c r="C23" s="87"/>
       <c r="D23" s="25" t="s">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="E23" s="87"/>
-      <c r="F23" s="83"/>
+      <c r="F23" s="84"/>
       <c r="G23" s="30"/>
       <c r="H23" s="32"/>
     </row>
     <row r="24" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A24" s="51">
-        <v>20</v>
-      </c>
-      <c r="B24" s="86"/>
+        <v>21</v>
+      </c>
+      <c r="B24" s="91"/>
       <c r="C24" s="88"/>
-      <c r="D24" s="68" t="s">
-        <v>139</v>
-      </c>
-      <c r="E24" s="87"/>
-      <c r="F24" s="82"/>
+      <c r="D24" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="E24" s="88"/>
+      <c r="F24" s="85"/>
       <c r="G24" s="30"/>
       <c r="H24" s="32"/>
     </row>
     <row r="25" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A25" s="84">
-        <v>21</v>
-      </c>
-      <c r="B25" s="95" t="s">
-        <v>183</v>
-      </c>
-      <c r="C25" s="92" t="s">
-        <v>33</v>
+      <c r="A25" s="51">
+        <v>22</v>
+      </c>
+      <c r="B25" s="86" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="100" t="s">
+        <v>155</v>
       </c>
       <c r="D25" s="71" t="s">
-        <v>168</v>
-      </c>
-      <c r="E25" s="93"/>
-      <c r="F25" s="81" t="s">
-        <v>202</v>
+        <v>174</v>
+      </c>
+      <c r="E25" s="101" t="s">
+        <v>269</v>
+      </c>
+      <c r="F25" s="83" t="s">
+        <v>264</v>
       </c>
       <c r="G25" s="30"/>
       <c r="H25" s="32"/>
     </row>
     <row r="26" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A26" s="85"/>
-      <c r="B26" s="96"/>
-      <c r="C26" s="92"/>
-      <c r="D26" s="72" t="s">
-        <v>207</v>
-      </c>
-      <c r="E26" s="93"/>
-      <c r="F26" s="83"/>
+      <c r="A26" s="51">
+        <v>23</v>
+      </c>
+      <c r="B26" s="87"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="E26" s="101"/>
+      <c r="F26" s="84"/>
       <c r="G26" s="39"/>
       <c r="H26" s="52"/>
     </row>
     <row r="27" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A27" s="85"/>
-      <c r="B27" s="96"/>
-      <c r="C27" s="92"/>
-      <c r="D27" s="73" t="s">
-        <v>190</v>
-      </c>
-      <c r="E27" s="93"/>
-      <c r="F27" s="83"/>
+      <c r="A27" s="51">
+        <v>24</v>
+      </c>
+      <c r="B27" s="87"/>
+      <c r="C27" s="100"/>
+      <c r="D27" s="72" t="s">
+        <v>178</v>
+      </c>
+      <c r="E27" s="101"/>
+      <c r="F27" s="84"/>
       <c r="G27" s="39"/>
       <c r="H27" s="52"/>
     </row>
     <row r="28" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A28" s="85"/>
-      <c r="B28" s="96"/>
-      <c r="C28" s="92"/>
-      <c r="D28" s="73" t="s">
-        <v>173</v>
-      </c>
-      <c r="E28" s="93"/>
-      <c r="F28" s="83"/>
+      <c r="A28" s="51">
+        <v>25</v>
+      </c>
+      <c r="B28" s="87"/>
+      <c r="C28" s="100"/>
+      <c r="D28" s="71" t="s">
+        <v>179</v>
+      </c>
+      <c r="E28" s="101"/>
+      <c r="F28" s="84"/>
       <c r="G28" s="39"/>
       <c r="H28" s="52"/>
     </row>
     <row r="29" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A29" s="86"/>
-      <c r="B29" s="96"/>
-      <c r="C29" s="92"/>
-      <c r="D29" s="74" t="s">
-        <v>191</v>
-      </c>
-      <c r="E29" s="93"/>
-      <c r="F29" s="83"/>
+      <c r="A29" s="51">
+        <v>26</v>
+      </c>
+      <c r="B29" s="87"/>
+      <c r="C29" s="100"/>
+      <c r="D29" s="71" t="s">
+        <v>180</v>
+      </c>
+      <c r="E29" s="101"/>
+      <c r="F29" s="84"/>
       <c r="G29" s="39"/>
       <c r="H29" s="52"/>
     </row>
     <row r="30" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A30" s="51">
-        <v>22</v>
-      </c>
-      <c r="B30" s="96"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="E30" s="93"/>
-      <c r="F30" s="83"/>
+        <v>27</v>
+      </c>
+      <c r="B30" s="87"/>
+      <c r="C30" s="100"/>
+      <c r="D30" s="71" t="s">
+        <v>181</v>
+      </c>
+      <c r="E30" s="101"/>
+      <c r="F30" s="84"/>
       <c r="G30" s="39"/>
       <c r="H30" s="52"/>
     </row>
     <row r="31" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A31" s="51">
-        <v>23</v>
-      </c>
-      <c r="B31" s="96"/>
-      <c r="C31" s="88"/>
-      <c r="D31" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="E31" s="87"/>
-      <c r="F31" s="82"/>
+        <v>28</v>
+      </c>
+      <c r="B31" s="87"/>
+      <c r="C31" s="95"/>
+      <c r="D31" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="E31" s="99"/>
+      <c r="F31" s="84"/>
       <c r="G31" s="30"/>
       <c r="H31" s="32"/>
     </row>
     <row r="32" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A32" s="51">
-        <v>24</v>
-      </c>
-      <c r="B32" s="96"/>
-      <c r="C32" s="88"/>
-      <c r="D32" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="E32" s="87"/>
-      <c r="F32" s="81" t="s">
-        <v>200</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B32" s="87"/>
+      <c r="C32" s="95"/>
+      <c r="D32" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="E32" s="99"/>
+      <c r="F32" s="84"/>
       <c r="G32" s="30"/>
       <c r="H32" s="32"/>
     </row>
     <row r="33" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A33" s="51">
-        <v>25</v>
-      </c>
-      <c r="B33" s="96"/>
-      <c r="C33" s="88"/>
-      <c r="D33" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="E33" s="87"/>
-      <c r="F33" s="82"/>
+        <v>30</v>
+      </c>
+      <c r="B33" s="87"/>
+      <c r="C33" s="95"/>
+      <c r="D33" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="E33" s="99"/>
+      <c r="F33" s="84"/>
       <c r="G33" s="30"/>
       <c r="H33" s="32"/>
     </row>
     <row r="34" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A34" s="51">
-        <v>26</v>
-      </c>
-      <c r="B34" s="97"/>
-      <c r="C34" s="88"/>
-      <c r="D34" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="E34" s="87"/>
-      <c r="F34" s="75" t="s">
-        <v>203</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B34" s="88"/>
+      <c r="C34" s="95"/>
+      <c r="D34" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="E34" s="99"/>
+      <c r="F34" s="85"/>
       <c r="G34" s="30"/>
       <c r="H34" s="32"/>
     </row>
     <row r="35" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A35" s="51">
-        <v>27</v>
-      </c>
-      <c r="B35" s="95" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="88" t="s">
-        <v>39</v>
+        <v>32</v>
+      </c>
+      <c r="B35" s="86" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="95" t="s">
+        <v>156</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="E35" s="87"/>
-      <c r="F35" s="81" t="s">
-        <v>204</v>
+        <v>188</v>
+      </c>
+      <c r="E35" s="99" t="s">
+        <v>272</v>
+      </c>
+      <c r="F35" s="83" t="s">
+        <v>270</v>
       </c>
       <c r="G35" s="30"/>
       <c r="H35" s="32"/>
     </row>
     <row r="36" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A36" s="51">
-        <v>28</v>
-      </c>
-      <c r="B36" s="96"/>
-      <c r="C36" s="88"/>
+        <v>33</v>
+      </c>
+      <c r="B36" s="87"/>
+      <c r="C36" s="95"/>
       <c r="D36" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="E36" s="87"/>
-      <c r="F36" s="83"/>
+        <v>189</v>
+      </c>
+      <c r="E36" s="99"/>
+      <c r="F36" s="84"/>
       <c r="G36" s="30"/>
       <c r="H36" s="32"/>
     </row>
     <row r="37" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A37" s="51">
-        <v>29</v>
-      </c>
-      <c r="B37" s="96"/>
-      <c r="C37" s="88"/>
+        <v>34</v>
+      </c>
+      <c r="B37" s="87"/>
+      <c r="C37" s="95"/>
       <c r="D37" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="E37" s="87"/>
-      <c r="F37" s="83"/>
+        <v>190</v>
+      </c>
+      <c r="E37" s="99"/>
+      <c r="F37" s="84"/>
       <c r="G37" s="30"/>
       <c r="H37" s="32"/>
     </row>
     <row r="38" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A38" s="51">
-        <v>30</v>
-      </c>
-      <c r="B38" s="96"/>
-      <c r="C38" s="88"/>
+        <v>35</v>
+      </c>
+      <c r="B38" s="87"/>
+      <c r="C38" s="95"/>
       <c r="D38" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="E38" s="87"/>
-      <c r="F38" s="83"/>
+        <v>191</v>
+      </c>
+      <c r="E38" s="99"/>
+      <c r="F38" s="84"/>
       <c r="G38" s="30"/>
       <c r="H38" s="32"/>
     </row>
     <row r="39" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A39" s="51">
-        <v>31</v>
-      </c>
-      <c r="B39" s="96"/>
-      <c r="C39" s="88"/>
+        <v>36</v>
+      </c>
+      <c r="B39" s="87"/>
+      <c r="C39" s="95"/>
       <c r="D39" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="E39" s="87"/>
-      <c r="F39" s="83"/>
+        <v>194</v>
+      </c>
+      <c r="E39" s="99"/>
+      <c r="F39" s="84"/>
       <c r="G39" s="30"/>
       <c r="H39" s="32"/>
     </row>
     <row r="40" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A40" s="51">
-        <v>32</v>
-      </c>
-      <c r="B40" s="96"/>
-      <c r="C40" s="88"/>
+        <v>37</v>
+      </c>
+      <c r="B40" s="87"/>
+      <c r="C40" s="95"/>
       <c r="D40" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="E40" s="87"/>
-      <c r="F40" s="83"/>
+        <v>192</v>
+      </c>
+      <c r="E40" s="99"/>
+      <c r="F40" s="84"/>
       <c r="G40" s="30"/>
       <c r="H40" s="32"/>
     </row>
     <row r="41" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A41" s="51">
-        <v>33</v>
-      </c>
-      <c r="B41" s="96"/>
-      <c r="C41" s="88"/>
+        <v>38</v>
+      </c>
+      <c r="B41" s="87"/>
+      <c r="C41" s="95"/>
       <c r="D41" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="E41" s="87"/>
-      <c r="F41" s="83"/>
+        <v>193</v>
+      </c>
+      <c r="E41" s="99"/>
+      <c r="F41" s="84"/>
       <c r="G41" s="30"/>
       <c r="H41" s="32"/>
     </row>
     <row r="42" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A42" s="51">
-        <v>34</v>
-      </c>
-      <c r="B42" s="96"/>
-      <c r="C42" s="88"/>
-      <c r="D42" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="E42" s="87"/>
-      <c r="F42" s="82"/>
+        <v>39</v>
+      </c>
+      <c r="B42" s="86" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="95" t="s">
+        <v>157</v>
+      </c>
+      <c r="D42" s="73" t="s">
+        <v>238</v>
+      </c>
+      <c r="E42" s="99" t="s">
+        <v>273</v>
+      </c>
+      <c r="F42" s="83" t="s">
+        <v>271</v>
+      </c>
       <c r="G42" s="30"/>
       <c r="H42" s="32"/>
     </row>
     <row r="43" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A43" s="51">
-        <v>35</v>
-      </c>
-      <c r="B43" s="97"/>
-      <c r="C43" s="88"/>
-      <c r="D43" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="E43" s="87"/>
-      <c r="F43" s="62" t="s">
-        <v>201</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B43" s="87"/>
+      <c r="C43" s="95"/>
+      <c r="D43" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="E43" s="99"/>
+      <c r="F43" s="84"/>
       <c r="G43" s="30"/>
       <c r="H43" s="32"/>
     </row>
     <row r="44" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A44" s="51">
-        <v>36</v>
-      </c>
-      <c r="B44" s="95" t="s">
-        <v>113</v>
-      </c>
-      <c r="C44" s="88" t="s">
-        <v>35</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B44" s="87"/>
+      <c r="C44" s="95"/>
       <c r="D44" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="E44" s="87"/>
-      <c r="F44" s="62" t="s">
-        <v>196</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="E44" s="99"/>
+      <c r="F44" s="84"/>
       <c r="G44" s="30"/>
       <c r="H44" s="32"/>
     </row>
     <row r="45" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A45" s="51">
-        <v>37</v>
-      </c>
-      <c r="B45" s="96"/>
-      <c r="C45" s="88"/>
-      <c r="D45" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="E45" s="87"/>
-      <c r="F45" s="81" t="s">
-        <v>205</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B45" s="88"/>
+      <c r="C45" s="95"/>
+      <c r="D45" s="73" t="s">
+        <v>255</v>
+      </c>
+      <c r="E45" s="99"/>
+      <c r="F45" s="85"/>
       <c r="G45" s="30"/>
       <c r="H45" s="32"/>
     </row>
     <row r="46" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A46" s="51">
-        <v>38</v>
-      </c>
-      <c r="B46" s="96"/>
-      <c r="C46" s="88"/>
-      <c r="D46" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="E46" s="87"/>
-      <c r="F46" s="83"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="32"/>
+        <v>43</v>
+      </c>
+      <c r="B46" s="86" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" s="86" t="s">
+        <v>158</v>
+      </c>
+      <c r="D46" s="74" t="s">
+        <v>256</v>
+      </c>
+      <c r="E46" s="83" t="s">
+        <v>274</v>
+      </c>
+      <c r="F46" s="83" t="s">
+        <v>271</v>
+      </c>
+      <c r="G46" s="70"/>
+      <c r="H46" s="52"/>
     </row>
     <row r="47" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A47" s="51">
-        <v>39</v>
-      </c>
-      <c r="B47" s="96"/>
-      <c r="C47" s="88"/>
-      <c r="D47" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="E47" s="87"/>
-      <c r="F47" s="83"/>
+        <v>44</v>
+      </c>
+      <c r="B47" s="87"/>
+      <c r="C47" s="87"/>
+      <c r="D47" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="E47" s="84"/>
+      <c r="F47" s="84"/>
       <c r="G47" s="30"/>
       <c r="H47" s="32"/>
     </row>
     <row r="48" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A48" s="51">
-        <v>22</v>
-      </c>
-      <c r="B48" s="96"/>
-      <c r="C48" s="88"/>
-      <c r="D48" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="E48" s="87"/>
-      <c r="F48" s="83"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="52"/>
+        <v>45</v>
+      </c>
+      <c r="B48" s="87"/>
+      <c r="C48" s="87"/>
+      <c r="D48" s="73" t="s">
+        <v>246</v>
+      </c>
+      <c r="E48" s="84"/>
+      <c r="F48" s="84"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="32"/>
     </row>
     <row r="49" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A49" s="51">
-        <v>23</v>
-      </c>
-      <c r="B49" s="96"/>
-      <c r="C49" s="88"/>
+        <v>46</v>
+      </c>
+      <c r="B49" s="87"/>
+      <c r="C49" s="87"/>
       <c r="D49" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="E49" s="87"/>
-      <c r="F49" s="83"/>
+        <v>247</v>
+      </c>
+      <c r="E49" s="84"/>
+      <c r="F49" s="84"/>
       <c r="G49" s="30"/>
       <c r="H49" s="32"/>
     </row>
     <row r="50" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A50" s="51">
-        <v>24</v>
-      </c>
-      <c r="B50" s="97"/>
-      <c r="C50" s="88"/>
-      <c r="D50" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="E50" s="87"/>
-      <c r="F50" s="82"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="32"/>
+        <v>47</v>
+      </c>
+      <c r="B50" s="87"/>
+      <c r="C50" s="87"/>
+      <c r="D50" s="73" t="s">
+        <v>248</v>
+      </c>
+      <c r="E50" s="84"/>
+      <c r="F50" s="84"/>
+      <c r="G50" s="69"/>
+      <c r="H50" s="52"/>
     </row>
     <row r="51" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A51" s="51">
-        <v>25</v>
-      </c>
-      <c r="B51" s="95" t="s">
-        <v>114</v>
-      </c>
-      <c r="C51" s="88" t="s">
-        <v>38</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B51" s="87"/>
+      <c r="C51" s="88"/>
       <c r="D51" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="E51" s="87"/>
-      <c r="F51" s="81" t="s">
-        <v>200</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="E51" s="84"/>
+      <c r="F51" s="84"/>
       <c r="G51" s="30"/>
       <c r="H51" s="32"/>
     </row>
-    <row r="52" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+    <row r="52" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A52" s="51">
-        <v>26</v>
-      </c>
-      <c r="B52" s="96"/>
-      <c r="C52" s="88"/>
+        <v>49</v>
+      </c>
+      <c r="B52" s="86" t="s">
+        <v>88</v>
+      </c>
+      <c r="C52" s="95" t="s">
+        <v>159</v>
+      </c>
       <c r="D52" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="E52" s="87"/>
-      <c r="F52" s="83"/>
+        <v>227</v>
+      </c>
+      <c r="E52" s="99" t="s">
+        <v>275</v>
+      </c>
+      <c r="F52" s="83" t="s">
+        <v>276</v>
+      </c>
       <c r="G52" s="30"/>
       <c r="H52" s="32"/>
     </row>
-    <row r="53" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+    <row r="53" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A53" s="51">
-        <v>27</v>
-      </c>
-      <c r="B53" s="96"/>
-      <c r="C53" s="88"/>
-      <c r="D53" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="E53" s="87"/>
-      <c r="F53" s="83"/>
+        <v>50</v>
+      </c>
+      <c r="B53" s="87"/>
+      <c r="C53" s="95"/>
+      <c r="D53" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="E53" s="99"/>
+      <c r="F53" s="84"/>
       <c r="G53" s="30"/>
       <c r="H53" s="32"/>
     </row>
-    <row r="54" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+    <row r="54" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A54" s="51">
-        <v>28</v>
-      </c>
-      <c r="B54" s="97"/>
-      <c r="C54" s="88"/>
-      <c r="D54" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="E54" s="87"/>
-      <c r="F54" s="82"/>
+        <v>51</v>
+      </c>
+      <c r="B54" s="87"/>
+      <c r="C54" s="95"/>
+      <c r="D54" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="E54" s="99"/>
+      <c r="F54" s="84"/>
       <c r="G54" s="30"/>
       <c r="H54" s="32"/>
     </row>
-    <row r="55" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+    <row r="55" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A55" s="51">
-        <v>29</v>
-      </c>
-      <c r="B55" s="95" t="s">
-        <v>115</v>
-      </c>
-      <c r="C55" s="88" t="s">
-        <v>34</v>
-      </c>
-      <c r="D55" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="E55" s="87"/>
-      <c r="F55" s="62" t="s">
-        <v>200</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B55" s="87"/>
+      <c r="C55" s="95"/>
+      <c r="D55" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="E55" s="99"/>
+      <c r="F55" s="84"/>
       <c r="G55" s="30"/>
       <c r="H55" s="32"/>
     </row>
     <row r="56" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A56" s="51">
-        <v>30</v>
-      </c>
-      <c r="B56" s="96"/>
-      <c r="C56" s="88"/>
-      <c r="D56" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="E56" s="87"/>
-      <c r="F56" s="62" t="s">
-        <v>204</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B56" s="88"/>
+      <c r="C56" s="95"/>
+      <c r="D56" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="E56" s="99"/>
+      <c r="F56" s="85"/>
       <c r="G56" s="30"/>
       <c r="H56" s="32"/>
     </row>
     <row r="57" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A57" s="51">
-        <v>31</v>
-      </c>
-      <c r="B57" s="96"/>
-      <c r="C57" s="88"/>
-      <c r="D57" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="E57" s="87"/>
-      <c r="F57" s="81" t="s">
-        <v>196</v>
-      </c>
-      <c r="G57" s="30"/>
-      <c r="H57" s="32"/>
+        <v>54</v>
+      </c>
+      <c r="B57" s="86" t="s">
+        <v>263</v>
+      </c>
+      <c r="C57" s="86" t="s">
+        <v>160</v>
+      </c>
+      <c r="D57" s="74" t="s">
+        <v>236</v>
+      </c>
+      <c r="E57" s="83" t="s">
+        <v>296</v>
+      </c>
+      <c r="F57" s="83" t="s">
+        <v>297</v>
+      </c>
+      <c r="G57" s="69"/>
+      <c r="H57" s="52"/>
     </row>
     <row r="58" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A58" s="51">
-        <v>32</v>
-      </c>
-      <c r="B58" s="96"/>
-      <c r="C58" s="88"/>
-      <c r="D58" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="E58" s="87"/>
-      <c r="F58" s="83"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="32"/>
+        <v>55</v>
+      </c>
+      <c r="B58" s="87"/>
+      <c r="C58" s="87"/>
+      <c r="D58" s="74" t="s">
+        <v>237</v>
+      </c>
+      <c r="E58" s="84"/>
+      <c r="F58" s="84"/>
+      <c r="G58" s="69"/>
+      <c r="H58" s="52"/>
     </row>
     <row r="59" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A59" s="51">
-        <v>33</v>
-      </c>
-      <c r="B59" s="97"/>
-      <c r="C59" s="88"/>
-      <c r="D59" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="E59" s="87"/>
-      <c r="F59" s="82"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="32"/>
-    </row>
-    <row r="60" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+        <v>56</v>
+      </c>
+      <c r="B59" s="87"/>
+      <c r="C59" s="87"/>
+      <c r="D59" s="74" t="s">
+        <v>245</v>
+      </c>
+      <c r="E59" s="84"/>
+      <c r="F59" s="84"/>
+      <c r="G59" s="69"/>
+      <c r="H59" s="52"/>
+    </row>
+    <row r="60" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A60" s="51">
-        <v>34</v>
-      </c>
-      <c r="B60" s="95" t="s">
-        <v>116</v>
-      </c>
-      <c r="C60" s="88" t="s">
-        <v>24</v>
-      </c>
-      <c r="D60" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="E60" s="87"/>
-      <c r="F60" s="81" t="s">
-        <v>195</v>
-      </c>
-      <c r="G60" s="30"/>
-      <c r="H60" s="32"/>
-    </row>
-    <row r="61" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+        <v>57</v>
+      </c>
+      <c r="B60" s="87"/>
+      <c r="C60" s="87"/>
+      <c r="D60" s="43" t="s">
+        <v>258</v>
+      </c>
+      <c r="E60" s="84"/>
+      <c r="F60" s="84"/>
+      <c r="G60" s="69"/>
+      <c r="H60" s="52"/>
+    </row>
+    <row r="61" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A61" s="51">
-        <v>35</v>
-      </c>
-      <c r="B61" s="96"/>
-      <c r="C61" s="88"/>
-      <c r="D61" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="E61" s="87"/>
-      <c r="F61" s="83"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="32"/>
-    </row>
-    <row r="62" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+        <v>58</v>
+      </c>
+      <c r="B61" s="88"/>
+      <c r="C61" s="87"/>
+      <c r="D61" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="E61" s="85"/>
+      <c r="F61" s="85"/>
+      <c r="G61" s="69"/>
+      <c r="H61" s="52"/>
+    </row>
+    <row r="62" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A62" s="51">
-        <v>36</v>
-      </c>
-      <c r="B62" s="96"/>
-      <c r="C62" s="88"/>
+        <v>59</v>
+      </c>
+      <c r="B62" s="86"/>
+      <c r="C62" s="97" t="s">
+        <v>167</v>
+      </c>
       <c r="D62" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="E62" s="87"/>
-      <c r="F62" s="83"/>
-      <c r="G62" s="30"/>
-      <c r="H62" s="32"/>
-    </row>
-    <row r="63" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+        <v>243</v>
+      </c>
+      <c r="E62" s="83" t="s">
+        <v>294</v>
+      </c>
+      <c r="F62" s="83" t="s">
+        <v>295</v>
+      </c>
+      <c r="G62" s="69"/>
+      <c r="H62" s="52"/>
+    </row>
+    <row r="63" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A63" s="51">
-        <v>37</v>
-      </c>
-      <c r="B63" s="96"/>
-      <c r="C63" s="88"/>
+        <v>60</v>
+      </c>
+      <c r="B63" s="87"/>
+      <c r="C63" s="98"/>
       <c r="D63" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="E63" s="87"/>
-      <c r="F63" s="82"/>
-      <c r="G63" s="30"/>
-      <c r="H63" s="32"/>
+        <v>244</v>
+      </c>
+      <c r="E63" s="84"/>
+      <c r="F63" s="84"/>
+      <c r="G63" s="69"/>
+      <c r="H63" s="52"/>
     </row>
     <row r="64" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A64" s="51">
-        <v>38</v>
-      </c>
-      <c r="B64" s="97"/>
-      <c r="C64" s="88"/>
-      <c r="D64" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="E64" s="87"/>
-      <c r="F64" s="62" t="s">
-        <v>206</v>
-      </c>
-      <c r="G64" s="30"/>
-      <c r="H64" s="32"/>
-    </row>
-    <row r="65" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A65" s="29"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="94" t="s">
-        <v>76</v>
-      </c>
-      <c r="D65" s="94"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="62"/>
-      <c r="G65" s="30"/>
-      <c r="H65" s="27"/>
-    </row>
-    <row r="66" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A66" s="29">
-        <v>39</v>
-      </c>
-      <c r="B66" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="C66" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="D66" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="E66" s="31"/>
-      <c r="F66" s="62" t="s">
-        <v>196</v>
-      </c>
-      <c r="G66" s="30"/>
-      <c r="H66" s="27"/>
-    </row>
-    <row r="67" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A67" s="84">
-        <v>40</v>
-      </c>
-      <c r="B67" s="95" t="s">
-        <v>118</v>
-      </c>
-      <c r="C67" s="88" t="s">
+      <c r="B64" s="88"/>
+      <c r="C64" s="98"/>
+      <c r="D64" s="73" t="s">
+        <v>242</v>
+      </c>
+      <c r="E64" s="85"/>
+      <c r="F64" s="85"/>
+      <c r="G64" s="69"/>
+      <c r="H64" s="52"/>
+    </row>
+    <row r="65" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A65" s="51">
+        <v>62</v>
+      </c>
+      <c r="B65" s="86"/>
+      <c r="C65" s="86" t="s">
+        <v>161</v>
+      </c>
+      <c r="D65" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="E65" s="83" t="s">
+        <v>293</v>
+      </c>
+      <c r="F65" s="83" t="s">
+        <v>268</v>
+      </c>
+      <c r="G65" s="69"/>
+      <c r="H65" s="52"/>
+    </row>
+    <row r="66" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A66" s="51">
+        <v>63</v>
+      </c>
+      <c r="B66" s="87"/>
+      <c r="C66" s="87"/>
+      <c r="D66" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="E66" s="84"/>
+      <c r="F66" s="84"/>
+      <c r="G66" s="69"/>
+      <c r="H66" s="52"/>
+    </row>
+    <row r="67" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A67" s="51">
+        <v>64</v>
+      </c>
+      <c r="B67" s="87"/>
+      <c r="C67" s="87"/>
+      <c r="D67" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="E67" s="84"/>
+      <c r="F67" s="84"/>
+      <c r="G67" s="69"/>
+      <c r="H67" s="52"/>
+    </row>
+    <row r="68" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A68" s="51">
+        <v>65</v>
+      </c>
+      <c r="B68" s="87"/>
+      <c r="C68" s="87"/>
+      <c r="D68" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="E68" s="84"/>
+      <c r="F68" s="84"/>
+      <c r="G68" s="69"/>
+      <c r="H68" s="52"/>
+    </row>
+    <row r="69" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A69" s="51">
         <v>66</v>
       </c>
-      <c r="D67" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="E67" s="87"/>
-      <c r="F67" s="81" t="s">
-        <v>208</v>
-      </c>
-      <c r="G67" s="30"/>
-      <c r="H67" s="27"/>
-    </row>
-    <row r="68" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A68" s="86"/>
-      <c r="B68" s="97"/>
-      <c r="C68" s="88"/>
-      <c r="D68" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="E68" s="87"/>
-      <c r="F68" s="82"/>
-      <c r="G68" s="30"/>
-      <c r="H68" s="27"/>
-    </row>
-    <row r="69" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A69" s="29">
-        <v>41</v>
-      </c>
-      <c r="B69" s="95" t="s">
-        <v>119</v>
-      </c>
-      <c r="C69" s="88" t="s">
-        <v>77</v>
-      </c>
-      <c r="D69" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="E69" s="87"/>
-      <c r="F69" s="81" t="s">
-        <v>196</v>
-      </c>
-      <c r="G69" s="30"/>
-      <c r="H69" s="27"/>
-    </row>
-    <row r="70" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A70" s="29">
-        <v>42</v>
-      </c>
-      <c r="B70" s="97"/>
-      <c r="C70" s="88"/>
-      <c r="D70" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E70" s="87"/>
-      <c r="F70" s="82"/>
-      <c r="G70" s="30"/>
-      <c r="H70" s="27"/>
+      <c r="B69" s="88"/>
+      <c r="C69" s="88"/>
+      <c r="D69" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="E69" s="85"/>
+      <c r="F69" s="85"/>
+      <c r="G69" s="69"/>
+      <c r="H69" s="52"/>
+    </row>
+    <row r="70" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A70" s="51">
+        <v>67</v>
+      </c>
+      <c r="B70" s="86"/>
+      <c r="C70" s="86" t="s">
+        <v>162</v>
+      </c>
+      <c r="D70" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="E70" s="83" t="s">
+        <v>290</v>
+      </c>
+      <c r="F70" s="83" t="s">
+        <v>292</v>
+      </c>
+      <c r="G70" s="69"/>
+      <c r="H70" s="52"/>
     </row>
     <row r="71" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A71" s="29">
-        <v>43</v>
-      </c>
-      <c r="B71" s="95" t="s">
-        <v>120</v>
-      </c>
-      <c r="C71" s="88" t="s">
-        <v>62</v>
-      </c>
-      <c r="D71" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="E71" s="87"/>
-      <c r="F71" s="81" t="s">
-        <v>196</v>
-      </c>
-      <c r="G71" s="30"/>
-      <c r="H71" s="32"/>
+      <c r="A71" s="51">
+        <v>68</v>
+      </c>
+      <c r="B71" s="87"/>
+      <c r="C71" s="87"/>
+      <c r="D71" s="73" t="s">
+        <v>241</v>
+      </c>
+      <c r="E71" s="84"/>
+      <c r="F71" s="84"/>
+      <c r="G71" s="70"/>
+      <c r="H71" s="52"/>
     </row>
     <row r="72" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A72" s="51">
-        <v>44</v>
-      </c>
-      <c r="B72" s="96"/>
-      <c r="C72" s="88"/>
-      <c r="D72" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="E72" s="87"/>
-      <c r="F72" s="83"/>
-      <c r="G72" s="30"/>
-      <c r="H72" s="32"/>
+        <v>69</v>
+      </c>
+      <c r="B72" s="87"/>
+      <c r="C72" s="87"/>
+      <c r="D72" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="E72" s="84"/>
+      <c r="F72" s="84"/>
+      <c r="G72" s="69"/>
+      <c r="H72" s="52"/>
     </row>
     <row r="73" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A73" s="51">
-        <v>45</v>
-      </c>
-      <c r="B73" s="97"/>
+        <v>70</v>
+      </c>
+      <c r="B73" s="88"/>
       <c r="C73" s="88"/>
-      <c r="D73" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="E73" s="87"/>
-      <c r="F73" s="82"/>
-      <c r="G73" s="30"/>
-      <c r="H73" s="32"/>
+      <c r="D73" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="E73" s="85"/>
+      <c r="F73" s="85"/>
+      <c r="G73" s="70"/>
+      <c r="H73" s="52"/>
     </row>
     <row r="74" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A74" s="29"/>
-      <c r="B74" s="25"/>
-      <c r="C74" s="94" t="s">
-        <v>80</v>
-      </c>
-      <c r="D74" s="94"/>
-      <c r="E74" s="25"/>
-      <c r="F74" s="62"/>
-      <c r="G74" s="30"/>
-      <c r="H74" s="32"/>
+      <c r="A74" s="51">
+        <v>71</v>
+      </c>
+      <c r="B74" s="86"/>
+      <c r="C74" s="86" t="s">
+        <v>163</v>
+      </c>
+      <c r="D74" s="74" t="s">
+        <v>210</v>
+      </c>
+      <c r="E74" s="83" t="s">
+        <v>291</v>
+      </c>
+      <c r="F74" s="83" t="s">
+        <v>289</v>
+      </c>
+      <c r="G74" s="69"/>
+      <c r="H74" s="52"/>
     </row>
     <row r="75" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A75" s="29">
-        <v>46</v>
-      </c>
-      <c r="B75" s="95" t="s">
-        <v>121</v>
-      </c>
-      <c r="C75" s="88" t="s">
-        <v>78</v>
-      </c>
-      <c r="D75" s="25" t="s">
+      <c r="A75" s="51">
         <v>72</v>
       </c>
-      <c r="E75" s="87"/>
-      <c r="F75" s="81" t="s">
-        <v>209</v>
-      </c>
-      <c r="G75" s="30"/>
-      <c r="H75" s="32"/>
+      <c r="B75" s="87"/>
+      <c r="C75" s="87"/>
+      <c r="D75" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="E75" s="84"/>
+      <c r="F75" s="84"/>
+      <c r="G75" s="69"/>
+      <c r="H75" s="52"/>
     </row>
     <row r="76" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A76" s="51">
-        <v>47</v>
-      </c>
-      <c r="B76" s="96"/>
-      <c r="C76" s="88"/>
-      <c r="D76" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="E76" s="87"/>
-      <c r="F76" s="83"/>
-      <c r="G76" s="30"/>
-      <c r="H76" s="32"/>
+        <v>73</v>
+      </c>
+      <c r="B76" s="87"/>
+      <c r="C76" s="87"/>
+      <c r="D76" s="74" t="s">
+        <v>207</v>
+      </c>
+      <c r="E76" s="84"/>
+      <c r="F76" s="84"/>
+      <c r="G76" s="69"/>
+      <c r="H76" s="52"/>
     </row>
     <row r="77" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A77" s="51">
-        <v>48</v>
-      </c>
-      <c r="B77" s="96"/>
-      <c r="C77" s="88"/>
-      <c r="D77" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="E77" s="87"/>
-      <c r="F77" s="83"/>
-      <c r="G77" s="30"/>
-      <c r="H77" s="32"/>
+        <v>74</v>
+      </c>
+      <c r="B77" s="87"/>
+      <c r="C77" s="87"/>
+      <c r="D77" s="74" t="s">
+        <v>208</v>
+      </c>
+      <c r="E77" s="84"/>
+      <c r="F77" s="84"/>
+      <c r="G77" s="69"/>
+      <c r="H77" s="52"/>
     </row>
     <row r="78" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A78" s="51">
-        <v>49</v>
-      </c>
-      <c r="B78" s="97"/>
-      <c r="C78" s="88"/>
-      <c r="D78" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="E78" s="87"/>
-      <c r="F78" s="82"/>
-      <c r="G78" s="30"/>
-      <c r="H78" s="32"/>
+        <v>75</v>
+      </c>
+      <c r="B78" s="87"/>
+      <c r="C78" s="87"/>
+      <c r="D78" s="74" t="s">
+        <v>209</v>
+      </c>
+      <c r="E78" s="84"/>
+      <c r="F78" s="84"/>
+      <c r="G78" s="69"/>
+      <c r="H78" s="52"/>
     </row>
     <row r="79" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A79" s="51">
+        <v>76</v>
+      </c>
+      <c r="B79" s="87"/>
+      <c r="C79" s="87"/>
+      <c r="D79" s="74" t="s">
+        <v>212</v>
+      </c>
+      <c r="E79" s="84"/>
+      <c r="F79" s="84"/>
+      <c r="G79" s="69"/>
+      <c r="H79" s="52"/>
+    </row>
+    <row r="80" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A80" s="51">
+        <v>77</v>
+      </c>
+      <c r="B80" s="88"/>
+      <c r="C80" s="88"/>
+      <c r="D80" s="74" t="s">
+        <v>213</v>
+      </c>
+      <c r="E80" s="85"/>
+      <c r="F80" s="85"/>
+      <c r="G80" s="69"/>
+      <c r="H80" s="52"/>
+    </row>
+    <row r="81" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A81" s="51">
+        <v>78</v>
+      </c>
+      <c r="B81" s="86"/>
+      <c r="C81" s="86" t="s">
+        <v>164</v>
+      </c>
+      <c r="D81" s="73" t="s">
+        <v>214</v>
+      </c>
+      <c r="E81" s="83" t="s">
+        <v>288</v>
+      </c>
+      <c r="F81" s="83" t="s">
+        <v>268</v>
+      </c>
+      <c r="G81" s="69"/>
+      <c r="H81" s="52"/>
+    </row>
+    <row r="82" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A82" s="51">
+        <v>79</v>
+      </c>
+      <c r="B82" s="88"/>
+      <c r="C82" s="88"/>
+      <c r="D82" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="E82" s="85"/>
+      <c r="F82" s="85"/>
+      <c r="G82" s="69"/>
+      <c r="H82" s="52"/>
+    </row>
+    <row r="83" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A83" s="51">
+        <v>80</v>
+      </c>
+      <c r="B83" s="86"/>
+      <c r="C83" s="86" t="s">
+        <v>166</v>
+      </c>
+      <c r="D83" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="E83" s="83" t="s">
+        <v>287</v>
+      </c>
+      <c r="F83" s="83" t="s">
+        <v>268</v>
+      </c>
+      <c r="G83" s="69"/>
+      <c r="H83" s="52"/>
+    </row>
+    <row r="84" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A84" s="51">
+        <v>81</v>
+      </c>
+      <c r="B84" s="88"/>
+      <c r="C84" s="88"/>
+      <c r="D84" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="E84" s="85"/>
+      <c r="F84" s="85"/>
+      <c r="G84" s="69"/>
+      <c r="H84" s="52"/>
+    </row>
+    <row r="85" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A85" s="51">
+        <v>82</v>
+      </c>
+      <c r="B85" s="86"/>
+      <c r="C85" s="86" t="s">
+        <v>168</v>
+      </c>
+      <c r="D85" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="E85" s="83" t="s">
+        <v>285</v>
+      </c>
+      <c r="F85" s="83" t="s">
+        <v>286</v>
+      </c>
+      <c r="G85" s="69"/>
+      <c r="H85" s="52"/>
+    </row>
+    <row r="86" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A86" s="51">
+        <v>83</v>
+      </c>
+      <c r="B86" s="87"/>
+      <c r="C86" s="87"/>
+      <c r="D86" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="E86" s="84"/>
+      <c r="F86" s="84"/>
+      <c r="G86" s="69"/>
+      <c r="H86" s="52"/>
+    </row>
+    <row r="87" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A87" s="51">
+        <v>84</v>
+      </c>
+      <c r="B87" s="87"/>
+      <c r="C87" s="87"/>
+      <c r="D87" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="E87" s="84"/>
+      <c r="F87" s="84"/>
+      <c r="G87" s="69"/>
+      <c r="H87" s="52"/>
+    </row>
+    <row r="88" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A88" s="51">
+        <v>85</v>
+      </c>
+      <c r="B88" s="87"/>
+      <c r="C88" s="87"/>
+      <c r="D88" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="E88" s="84"/>
+      <c r="F88" s="84"/>
+      <c r="G88" s="69"/>
+      <c r="H88" s="52"/>
+    </row>
+    <row r="89" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A89" s="51">
+        <v>86</v>
+      </c>
+      <c r="B89" s="88"/>
+      <c r="C89" s="88"/>
+      <c r="D89" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="E89" s="85"/>
+      <c r="F89" s="85"/>
+      <c r="G89" s="69"/>
+      <c r="H89" s="52"/>
+    </row>
+    <row r="90" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A90" s="51">
+        <v>87</v>
+      </c>
+      <c r="B90" s="86"/>
+      <c r="C90" s="86" t="s">
+        <v>169</v>
+      </c>
+      <c r="D90" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="E90" s="83" t="s">
+        <v>284</v>
+      </c>
+      <c r="F90" s="83" t="s">
+        <v>283</v>
+      </c>
+      <c r="G90" s="69"/>
+      <c r="H90" s="52"/>
+    </row>
+    <row r="91" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A91" s="51">
+        <v>88</v>
+      </c>
+      <c r="B91" s="87"/>
+      <c r="C91" s="87"/>
+      <c r="D91" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="E91" s="84"/>
+      <c r="F91" s="84"/>
+      <c r="G91" s="69"/>
+      <c r="H91" s="52"/>
+    </row>
+    <row r="92" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A92" s="51">
+        <v>89</v>
+      </c>
+      <c r="B92" s="88"/>
+      <c r="C92" s="87"/>
+      <c r="D92" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="E92" s="85"/>
+      <c r="F92" s="85"/>
+      <c r="G92" s="69"/>
+      <c r="H92" s="52"/>
+    </row>
+    <row r="93" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A93" s="51">
+        <v>90</v>
+      </c>
+      <c r="B93" s="86"/>
+      <c r="C93" s="86" t="s">
+        <v>170</v>
+      </c>
+      <c r="D93" s="43" t="s">
+        <v>235</v>
+      </c>
+      <c r="E93" s="83" t="s">
+        <v>282</v>
+      </c>
+      <c r="F93" s="83" t="s">
+        <v>283</v>
+      </c>
+      <c r="G93" s="69"/>
+      <c r="H93" s="52"/>
+    </row>
+    <row r="94" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A94" s="51">
+        <v>91</v>
+      </c>
+      <c r="B94" s="87"/>
+      <c r="C94" s="87"/>
+      <c r="D94" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="E94" s="84"/>
+      <c r="F94" s="84"/>
+      <c r="G94" s="69"/>
+      <c r="H94" s="52"/>
+    </row>
+    <row r="95" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A95" s="51">
+        <v>92</v>
+      </c>
+      <c r="B95" s="88"/>
+      <c r="C95" s="87"/>
+      <c r="D95" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="E95" s="85"/>
+      <c r="F95" s="85"/>
+      <c r="G95" s="69"/>
+      <c r="H95" s="52"/>
+    </row>
+    <row r="96" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A96" s="51">
+        <v>93</v>
+      </c>
+      <c r="B96" s="86"/>
+      <c r="C96" s="86" t="s">
+        <v>171</v>
+      </c>
+      <c r="D96" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="E96" s="83" t="s">
+        <v>281</v>
+      </c>
+      <c r="F96" s="83" t="s">
+        <v>279</v>
+      </c>
+      <c r="G96" s="69"/>
+      <c r="H96" s="52"/>
+    </row>
+    <row r="97" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A97" s="51">
+        <v>94</v>
+      </c>
+      <c r="B97" s="87"/>
+      <c r="C97" s="87"/>
+      <c r="D97" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="E97" s="84"/>
+      <c r="F97" s="84"/>
+      <c r="G97" s="69"/>
+      <c r="H97" s="52"/>
+    </row>
+    <row r="98" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A98" s="51">
+        <v>95</v>
+      </c>
+      <c r="B98" s="88"/>
+      <c r="C98" s="88"/>
+      <c r="D98" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="E98" s="85"/>
+      <c r="F98" s="85"/>
+      <c r="G98" s="77"/>
+      <c r="H98" s="52"/>
+    </row>
+    <row r="99" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A99" s="51">
+        <v>96</v>
+      </c>
+      <c r="B99" s="107"/>
+      <c r="C99" s="86" t="s">
+        <v>165</v>
+      </c>
+      <c r="D99" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="E99" s="75"/>
+      <c r="F99" s="75"/>
+      <c r="G99" s="77"/>
+      <c r="H99" s="52"/>
+    </row>
+    <row r="100" spans="1:8" s="43" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A100" s="51">
+        <v>97</v>
+      </c>
+      <c r="B100" s="108"/>
+      <c r="C100" s="87"/>
+      <c r="D100" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="E100" s="75"/>
+      <c r="F100" s="75"/>
+      <c r="G100" s="77"/>
+      <c r="H100" s="52"/>
+    </row>
+    <row r="101" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A101" s="51">
+        <v>98</v>
+      </c>
+      <c r="B101" s="108"/>
+      <c r="C101" s="87"/>
+      <c r="D101" s="74" t="s">
+        <v>249</v>
+      </c>
+      <c r="E101" s="75"/>
+      <c r="F101" s="75"/>
+      <c r="G101" s="77"/>
+      <c r="H101" s="52"/>
+    </row>
+    <row r="102" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A102" s="51">
+        <v>99</v>
+      </c>
+      <c r="B102" s="108"/>
+      <c r="C102" s="87"/>
+      <c r="D102" s="74" t="s">
+        <v>251</v>
+      </c>
+      <c r="E102" s="75"/>
+      <c r="F102" s="75"/>
+      <c r="G102" s="77"/>
+      <c r="H102" s="52"/>
+    </row>
+    <row r="103" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A103" s="51">
+        <v>100</v>
+      </c>
+      <c r="B103" s="108"/>
+      <c r="C103" s="87"/>
+      <c r="D103" s="74" t="s">
+        <v>250</v>
+      </c>
+      <c r="E103" s="75"/>
+      <c r="F103" s="75"/>
+      <c r="G103" s="77"/>
+      <c r="H103" s="52"/>
+    </row>
+    <row r="104" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A104" s="51">
+        <v>101</v>
+      </c>
+      <c r="B104" s="109"/>
+      <c r="C104" s="87"/>
+      <c r="D104" s="74" t="s">
+        <v>252</v>
+      </c>
+      <c r="E104" s="75"/>
+      <c r="F104" s="75"/>
+      <c r="G104" s="77"/>
+      <c r="H104" s="52"/>
+    </row>
+    <row r="105" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A105" s="51">
+        <v>102</v>
+      </c>
+      <c r="B105" s="79"/>
+      <c r="C105" s="78" t="s">
+        <v>172</v>
+      </c>
+      <c r="D105" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="E105" s="76" t="s">
+        <v>278</v>
+      </c>
+      <c r="F105" s="76" t="s">
+        <v>280</v>
+      </c>
+      <c r="G105" s="77"/>
+      <c r="H105" s="52"/>
+    </row>
+    <row r="106" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A106" s="51">
+        <v>103</v>
+      </c>
+      <c r="B106" s="92"/>
+      <c r="C106" s="86" t="s">
+        <v>173</v>
+      </c>
+      <c r="D106" s="73" t="s">
+        <v>204</v>
+      </c>
+      <c r="E106" s="83" t="s">
+        <v>277</v>
+      </c>
+      <c r="F106" s="83" t="s">
+        <v>279</v>
+      </c>
+      <c r="G106" s="77"/>
+      <c r="H106" s="52"/>
+    </row>
+    <row r="107" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A107" s="51">
+        <v>104</v>
+      </c>
+      <c r="B107" s="94"/>
+      <c r="C107" s="88"/>
+      <c r="D107" s="73" t="s">
+        <v>205</v>
+      </c>
+      <c r="E107" s="85"/>
+      <c r="F107" s="85"/>
+      <c r="G107" s="77"/>
+      <c r="H107" s="52"/>
+    </row>
+    <row r="108" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A108" s="51"/>
+      <c r="B108" s="25"/>
+      <c r="C108" s="110" t="s">
+        <v>62</v>
+      </c>
+      <c r="D108" s="111"/>
+      <c r="E108" s="76"/>
+      <c r="F108" s="76"/>
+      <c r="G108" s="77"/>
+      <c r="H108" s="27"/>
+    </row>
+    <row r="109" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A109" s="51">
+        <v>105</v>
+      </c>
+      <c r="B109" s="77" t="s">
+        <v>89</v>
+      </c>
+      <c r="C109" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="B79" s="30" t="s">
+      <c r="D109" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="E109" s="76"/>
+      <c r="F109" s="76" t="s">
+        <v>133</v>
+      </c>
+      <c r="G109" s="77"/>
+      <c r="H109" s="27"/>
+    </row>
+    <row r="110" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A110" s="89">
+        <v>106</v>
+      </c>
+      <c r="B110" s="86" t="s">
+        <v>90</v>
+      </c>
+      <c r="C110" s="95" t="s">
+        <v>55</v>
+      </c>
+      <c r="D110" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="E110" s="99"/>
+      <c r="F110" s="83" t="s">
+        <v>135</v>
+      </c>
+      <c r="G110" s="30"/>
+      <c r="H110" s="27"/>
+    </row>
+    <row r="111" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A111" s="91"/>
+      <c r="B111" s="88"/>
+      <c r="C111" s="95"/>
+      <c r="D111" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="E111" s="99"/>
+      <c r="F111" s="85"/>
+      <c r="G111" s="30"/>
+      <c r="H111" s="27"/>
+    </row>
+    <row r="112" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A112" s="29">
+        <v>107</v>
+      </c>
+      <c r="B112" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="C112" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="D112" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E112" s="99"/>
+      <c r="F112" s="83" t="s">
+        <v>133</v>
+      </c>
+      <c r="G112" s="30"/>
+      <c r="H112" s="27"/>
+    </row>
+    <row r="113" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A113" s="29">
+        <v>108</v>
+      </c>
+      <c r="B113" s="88"/>
+      <c r="C113" s="95"/>
+      <c r="D113" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E113" s="99"/>
+      <c r="F113" s="85"/>
+      <c r="G113" s="30"/>
+      <c r="H113" s="27"/>
+    </row>
+    <row r="114" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A114" s="29">
+        <v>109</v>
+      </c>
+      <c r="B114" s="86" t="s">
+        <v>92</v>
+      </c>
+      <c r="C114" s="95" t="s">
+        <v>51</v>
+      </c>
+      <c r="D114" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E114" s="99"/>
+      <c r="F114" s="83" t="s">
+        <v>133</v>
+      </c>
+      <c r="G114" s="30"/>
+      <c r="H114" s="32"/>
+    </row>
+    <row r="115" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A115" s="51">
+        <v>110</v>
+      </c>
+      <c r="B115" s="87"/>
+      <c r="C115" s="95"/>
+      <c r="D115" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E115" s="99"/>
+      <c r="F115" s="84"/>
+      <c r="G115" s="30"/>
+      <c r="H115" s="32"/>
+    </row>
+    <row r="116" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A116" s="51">
+        <v>111</v>
+      </c>
+      <c r="B116" s="88"/>
+      <c r="C116" s="95"/>
+      <c r="D116" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E116" s="99"/>
+      <c r="F116" s="85"/>
+      <c r="G116" s="30"/>
+      <c r="H116" s="32"/>
+    </row>
+    <row r="117" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A117" s="29"/>
+      <c r="B117" s="25"/>
+      <c r="C117" s="96" t="s">
+        <v>66</v>
+      </c>
+      <c r="D117" s="96"/>
+      <c r="E117" s="25"/>
+      <c r="F117" s="62"/>
+      <c r="G117" s="30"/>
+      <c r="H117" s="32"/>
+    </row>
+    <row r="118" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A118" s="29">
+        <v>112</v>
+      </c>
+      <c r="B118" s="86" t="s">
+        <v>93</v>
+      </c>
+      <c r="C118" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="D118" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E118" s="99"/>
+      <c r="F118" s="83" t="s">
+        <v>136</v>
+      </c>
+      <c r="G118" s="30"/>
+      <c r="H118" s="32"/>
+    </row>
+    <row r="119" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A119" s="51">
+        <v>113</v>
+      </c>
+      <c r="B119" s="87"/>
+      <c r="C119" s="95"/>
+      <c r="D119" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="E119" s="99"/>
+      <c r="F119" s="84"/>
+      <c r="G119" s="30"/>
+      <c r="H119" s="32"/>
+    </row>
+    <row r="120" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A120" s="51">
+        <v>114</v>
+      </c>
+      <c r="B120" s="87"/>
+      <c r="C120" s="95"/>
+      <c r="D120" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="E120" s="99"/>
+      <c r="F120" s="84"/>
+      <c r="G120" s="30"/>
+      <c r="H120" s="32"/>
+    </row>
+    <row r="121" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A121" s="51">
+        <v>115</v>
+      </c>
+      <c r="B121" s="88"/>
+      <c r="C121" s="95"/>
+      <c r="D121" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="E121" s="99"/>
+      <c r="F121" s="85"/>
+      <c r="G121" s="30"/>
+      <c r="H121" s="32"/>
+    </row>
+    <row r="122" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A122" s="51">
+        <v>116</v>
+      </c>
+      <c r="B122" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C122" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D122" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E122" s="25"/>
+      <c r="F122" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="G122" s="30"/>
+      <c r="H122" s="32"/>
+    </row>
+    <row r="123" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A123" s="25"/>
+      <c r="B123" s="25"/>
+      <c r="C123" s="96" t="s">
+        <v>67</v>
+      </c>
+      <c r="D123" s="96"/>
+      <c r="E123" s="25"/>
+      <c r="F123" s="62"/>
+      <c r="G123" s="30"/>
+      <c r="H123" s="32"/>
+    </row>
+    <row r="124" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A124" s="31">
+        <v>117</v>
+      </c>
+      <c r="B124" s="86" t="s">
+        <v>95</v>
+      </c>
+      <c r="C124" s="95" t="s">
+        <v>69</v>
+      </c>
+      <c r="D124" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="E124" s="99"/>
+      <c r="F124" s="83" t="s">
+        <v>136</v>
+      </c>
+      <c r="G124" s="30"/>
+      <c r="H124" s="32"/>
+    </row>
+    <row r="125" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A125" s="40">
+        <v>118</v>
+      </c>
+      <c r="B125" s="87"/>
+      <c r="C125" s="95"/>
+      <c r="D125" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E125" s="99"/>
+      <c r="F125" s="84"/>
+      <c r="G125" s="30"/>
+      <c r="H125" s="32"/>
+    </row>
+    <row r="126" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A126" s="40">
+        <v>119</v>
+      </c>
+      <c r="B126" s="88"/>
+      <c r="C126" s="95"/>
+      <c r="D126" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E126" s="99"/>
+      <c r="F126" s="85"/>
+      <c r="G126" s="30"/>
+      <c r="H126" s="32"/>
+    </row>
+    <row r="127" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A127" s="40">
+        <v>120</v>
+      </c>
+      <c r="B127" s="86" t="s">
+        <v>96</v>
+      </c>
+      <c r="C127" s="95" t="s">
+        <v>71</v>
+      </c>
+      <c r="D127" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="E127" s="99"/>
+      <c r="F127" s="83" t="s">
+        <v>133</v>
+      </c>
+      <c r="G127" s="30"/>
+      <c r="H127" s="32"/>
+    </row>
+    <row r="128" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A128" s="83">
+        <v>121</v>
+      </c>
+      <c r="B128" s="87"/>
+      <c r="C128" s="100"/>
+      <c r="D128" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="E128" s="101"/>
+      <c r="F128" s="84"/>
+      <c r="G128" s="30"/>
+      <c r="H128" s="32"/>
+    </row>
+    <row r="129" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A129" s="85"/>
+      <c r="B129" s="87"/>
+      <c r="C129" s="100"/>
+      <c r="D129" s="65" t="s">
+        <v>130</v>
+      </c>
+      <c r="E129" s="101"/>
+      <c r="F129" s="84"/>
+      <c r="G129" s="39"/>
+      <c r="H129" s="52"/>
+    </row>
+    <row r="130" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A130" s="31">
         <v>122</v>
       </c>
-      <c r="C79" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="D79" s="25" t="s">
+      <c r="B130" s="87"/>
+      <c r="C130" s="95"/>
+      <c r="D130" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="E130" s="99"/>
+      <c r="F130" s="84"/>
+      <c r="G130" s="30"/>
+      <c r="H130" s="32"/>
+    </row>
+    <row r="131" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A131" s="31">
+        <v>123</v>
+      </c>
+      <c r="B131" s="88"/>
+      <c r="C131" s="95"/>
+      <c r="D131" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E131" s="99"/>
+      <c r="F131" s="85"/>
+      <c r="G131" s="30"/>
+      <c r="H131" s="32"/>
+    </row>
+    <row r="132" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A132" s="25"/>
+      <c r="B132" s="25"/>
+      <c r="C132" s="96" t="s">
+        <v>26</v>
+      </c>
+      <c r="D132" s="96"/>
+      <c r="E132" s="25"/>
+      <c r="F132" s="62"/>
+      <c r="G132" s="30"/>
+      <c r="H132" s="32"/>
+    </row>
+    <row r="133" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A133" s="31">
+        <v>124</v>
+      </c>
+      <c r="B133" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C133" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D133" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E133" s="25"/>
+      <c r="F133" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="G133" s="30"/>
+      <c r="H133" s="32"/>
+    </row>
+    <row r="134" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A134" s="31">
+        <v>125</v>
+      </c>
+      <c r="B134" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C134" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D134" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E134" s="25"/>
+      <c r="F134" s="62" t="s">
+        <v>133</v>
+      </c>
+      <c r="G134" s="30"/>
+      <c r="H134" s="32"/>
+    </row>
+    <row r="135" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A135" s="83">
+        <v>126</v>
+      </c>
+      <c r="B135" s="86" t="s">
+        <v>99</v>
+      </c>
+      <c r="C135" s="95" t="s">
+        <v>68</v>
+      </c>
+      <c r="D135" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E135" s="99"/>
+      <c r="F135" s="83" t="s">
+        <v>133</v>
+      </c>
+      <c r="G135" s="30"/>
+      <c r="H135" s="32"/>
+    </row>
+    <row r="136" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A136" s="85"/>
+      <c r="B136" s="88"/>
+      <c r="C136" s="95"/>
+      <c r="D136" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="E136" s="99"/>
+      <c r="F136" s="85"/>
+      <c r="G136" s="30"/>
+      <c r="H136" s="32"/>
+    </row>
+    <row r="137" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A137" s="31">
+        <v>127</v>
+      </c>
+      <c r="B137" s="86" t="s">
+        <v>100</v>
+      </c>
+      <c r="C137" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="D137" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E137" s="99"/>
+      <c r="F137" s="83" t="s">
+        <v>133</v>
+      </c>
+      <c r="G137" s="30"/>
+      <c r="H137" s="32"/>
+    </row>
+    <row r="138" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A138" s="31">
+        <v>128</v>
+      </c>
+      <c r="B138" s="88"/>
+      <c r="C138" s="95"/>
+      <c r="D138" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="E138" s="99"/>
+      <c r="F138" s="85"/>
+      <c r="G138" s="30"/>
+      <c r="H138" s="32"/>
+    </row>
+    <row r="139" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A139" s="83">
+        <v>129</v>
+      </c>
+      <c r="B139" s="86" t="s">
+        <v>119</v>
+      </c>
+      <c r="C139" s="100" t="s">
+        <v>29</v>
+      </c>
+      <c r="D139" s="66" t="s">
+        <v>128</v>
+      </c>
+      <c r="E139" s="101"/>
+      <c r="F139" s="83" t="s">
+        <v>133</v>
+      </c>
+      <c r="G139" s="30"/>
+      <c r="H139" s="32"/>
+    </row>
+    <row r="140" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A140" s="85"/>
+      <c r="B140" s="87"/>
+      <c r="C140" s="100"/>
+      <c r="D140" s="65" t="s">
+        <v>129</v>
+      </c>
+      <c r="E140" s="101"/>
+      <c r="F140" s="84"/>
+      <c r="G140" s="39"/>
+      <c r="H140" s="52"/>
+    </row>
+    <row r="141" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A141" s="83">
+        <v>130</v>
+      </c>
+      <c r="B141" s="87"/>
+      <c r="C141" s="95"/>
+      <c r="D141" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="E141" s="99"/>
+      <c r="F141" s="84"/>
+      <c r="G141" s="30"/>
+      <c r="H141" s="32"/>
+    </row>
+    <row r="142" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A142" s="84"/>
+      <c r="B142" s="87"/>
+      <c r="C142" s="95"/>
+      <c r="D142" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="E142" s="99"/>
+      <c r="F142" s="84"/>
+      <c r="G142" s="30"/>
+      <c r="H142" s="32"/>
+    </row>
+    <row r="143" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A143" s="84"/>
+      <c r="B143" s="87"/>
+      <c r="C143" s="95"/>
+      <c r="D143" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="E143" s="99"/>
+      <c r="F143" s="84"/>
+      <c r="G143" s="30"/>
+      <c r="H143" s="32"/>
+    </row>
+    <row r="144" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A144" s="84"/>
+      <c r="B144" s="87"/>
+      <c r="C144" s="95"/>
+      <c r="D144" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="E144" s="99"/>
+      <c r="F144" s="84"/>
+      <c r="G144" s="30"/>
+      <c r="H144" s="32"/>
+    </row>
+    <row r="145" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A145" s="84"/>
+      <c r="B145" s="87"/>
+      <c r="C145" s="95"/>
+      <c r="D145" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E145" s="99"/>
+      <c r="F145" s="84"/>
+      <c r="G145" s="30"/>
+      <c r="H145" s="32"/>
+    </row>
+    <row r="146" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A146" s="85"/>
+      <c r="B146" s="88"/>
+      <c r="C146" s="95"/>
+      <c r="D146" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="E146" s="99"/>
+      <c r="F146" s="85"/>
+      <c r="G146" s="30"/>
+      <c r="H146" s="32"/>
+    </row>
+    <row r="147" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A147" s="83">
+        <v>131</v>
+      </c>
+      <c r="B147" s="86" t="s">
+        <v>120</v>
+      </c>
+      <c r="C147" s="95" t="s">
+        <v>27</v>
+      </c>
+      <c r="D147" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E147" s="99"/>
+      <c r="F147" s="83" t="s">
+        <v>135</v>
+      </c>
+      <c r="G147" s="30"/>
+      <c r="H147" s="32"/>
+    </row>
+    <row r="148" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A148" s="85"/>
+      <c r="B148" s="88"/>
+      <c r="C148" s="95"/>
+      <c r="D148" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E148" s="99"/>
+      <c r="F148" s="85"/>
+      <c r="G148" s="30"/>
+      <c r="H148" s="32"/>
+    </row>
+    <row r="149" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A149" s="22"/>
+      <c r="B149" s="30"/>
+      <c r="C149" s="96" t="s">
+        <v>56</v>
+      </c>
+      <c r="D149" s="96"/>
+      <c r="E149" s="22"/>
+      <c r="F149" s="62"/>
+      <c r="G149" s="30"/>
+      <c r="H149" s="32"/>
+    </row>
+    <row r="150" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A150" s="31">
+        <v>132</v>
+      </c>
+      <c r="B150" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C150" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D150" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E150" s="25"/>
+      <c r="F150" s="62" t="s">
+        <v>137</v>
+      </c>
+      <c r="G150" s="30"/>
+      <c r="H150" s="32"/>
+    </row>
+    <row r="151" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A151" s="31">
+        <v>133</v>
+      </c>
+      <c r="B151" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="C151" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D151" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E151" s="25"/>
+      <c r="F151" s="62" t="s">
+        <v>133</v>
+      </c>
+      <c r="G151" s="30"/>
+      <c r="H151" s="32"/>
+    </row>
+    <row r="152" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A152" s="31">
+        <v>134</v>
+      </c>
+      <c r="B152" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C152" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D152" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E79" s="25"/>
-      <c r="F79" s="62" t="s">
-        <v>208</v>
-      </c>
-      <c r="G79" s="30"/>
-      <c r="H79" s="32"/>
-    </row>
-    <row r="80" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A80" s="25"/>
-      <c r="B80" s="25"/>
-      <c r="C80" s="94" t="s">
-        <v>81</v>
-      </c>
-      <c r="D80" s="94"/>
-      <c r="E80" s="25"/>
-      <c r="F80" s="62"/>
-      <c r="G80" s="30"/>
-      <c r="H80" s="32"/>
-    </row>
-    <row r="81" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A81" s="31">
-        <v>51</v>
-      </c>
-      <c r="B81" s="95" t="s">
-        <v>123</v>
-      </c>
-      <c r="C81" s="88" t="s">
-        <v>83</v>
-      </c>
-      <c r="D81" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="E81" s="87"/>
-      <c r="F81" s="81" t="s">
-        <v>209</v>
-      </c>
-      <c r="G81" s="30"/>
-      <c r="H81" s="32"/>
-    </row>
-    <row r="82" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A82" s="40">
+      <c r="E152" s="25"/>
+      <c r="F152" s="62" t="s">
+        <v>133</v>
+      </c>
+      <c r="G152" s="30"/>
+      <c r="H152" s="32"/>
+    </row>
+    <row r="153" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A153" s="31">
+        <v>135</v>
+      </c>
+      <c r="B153" s="86" t="s">
+        <v>124</v>
+      </c>
+      <c r="C153" s="95" t="s">
+        <v>24</v>
+      </c>
+      <c r="D153" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B82" s="96"/>
-      <c r="C82" s="88"/>
-      <c r="D82" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E82" s="87"/>
-      <c r="F82" s="83"/>
-      <c r="G82" s="30"/>
-      <c r="H82" s="32"/>
-    </row>
-    <row r="83" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A83" s="40">
-        <v>53</v>
-      </c>
-      <c r="B83" s="97"/>
-      <c r="C83" s="88"/>
-      <c r="D83" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="E83" s="87"/>
-      <c r="F83" s="82"/>
-      <c r="G83" s="30"/>
-      <c r="H83" s="32"/>
-    </row>
-    <row r="84" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A84" s="40">
-        <v>54</v>
-      </c>
-      <c r="B84" s="95" t="s">
-        <v>124</v>
-      </c>
-      <c r="C84" s="88" t="s">
-        <v>85</v>
-      </c>
-      <c r="D84" s="70" t="s">
-        <v>8</v>
-      </c>
-      <c r="E84" s="87"/>
-      <c r="F84" s="81" t="s">
-        <v>196</v>
-      </c>
-      <c r="G84" s="30"/>
-      <c r="H84" s="32"/>
-    </row>
-    <row r="85" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A85" s="81">
-        <v>55</v>
-      </c>
-      <c r="B85" s="96"/>
-      <c r="C85" s="92"/>
-      <c r="D85" s="70" t="s">
-        <v>186</v>
-      </c>
-      <c r="E85" s="93"/>
-      <c r="F85" s="83"/>
-      <c r="G85" s="30"/>
-      <c r="H85" s="32"/>
-    </row>
-    <row r="86" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A86" s="82"/>
-      <c r="B86" s="96"/>
-      <c r="C86" s="92"/>
-      <c r="D86" s="69" t="s">
-        <v>189</v>
-      </c>
-      <c r="E86" s="93"/>
-      <c r="F86" s="83"/>
-      <c r="G86" s="39"/>
-      <c r="H86" s="52"/>
-    </row>
-    <row r="87" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A87" s="31">
-        <v>56</v>
-      </c>
-      <c r="B87" s="96"/>
-      <c r="C87" s="88"/>
-      <c r="D87" s="69" t="s">
-        <v>4</v>
-      </c>
-      <c r="E87" s="87"/>
-      <c r="F87" s="83"/>
-      <c r="G87" s="30"/>
-      <c r="H87" s="32"/>
-    </row>
-    <row r="88" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A88" s="31">
-        <v>57</v>
-      </c>
-      <c r="B88" s="97"/>
-      <c r="C88" s="88"/>
-      <c r="D88" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="E88" s="87"/>
-      <c r="F88" s="82"/>
-      <c r="G88" s="30"/>
-      <c r="H88" s="32"/>
-    </row>
-    <row r="89" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A89" s="25"/>
-      <c r="B89" s="25"/>
-      <c r="C89" s="94" t="s">
-        <v>29</v>
-      </c>
-      <c r="D89" s="94"/>
-      <c r="E89" s="25"/>
-      <c r="F89" s="62"/>
-      <c r="G89" s="30"/>
-      <c r="H89" s="32"/>
-    </row>
-    <row r="90" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A90" s="31">
-        <v>58</v>
-      </c>
-      <c r="B90" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="C90" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="D90" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="E90" s="25"/>
-      <c r="F90" s="62" t="s">
-        <v>209</v>
-      </c>
-      <c r="G90" s="30"/>
-      <c r="H90" s="32"/>
-    </row>
-    <row r="91" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A91" s="31">
-        <v>59</v>
-      </c>
-      <c r="B91" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="C91" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="D91" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E91" s="25"/>
-      <c r="F91" s="62" t="s">
-        <v>196</v>
-      </c>
-      <c r="G91" s="30"/>
-      <c r="H91" s="32"/>
-    </row>
-    <row r="92" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A92" s="81">
-        <v>60</v>
-      </c>
-      <c r="B92" s="95" t="s">
-        <v>127</v>
-      </c>
-      <c r="C92" s="88" t="s">
-        <v>82</v>
-      </c>
-      <c r="D92" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="E92" s="87"/>
-      <c r="F92" s="81" t="s">
-        <v>196</v>
-      </c>
-      <c r="G92" s="30"/>
-      <c r="H92" s="32"/>
-    </row>
-    <row r="93" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A93" s="82"/>
-      <c r="B93" s="97"/>
-      <c r="C93" s="88"/>
-      <c r="D93" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="E93" s="87"/>
-      <c r="F93" s="82"/>
-      <c r="G93" s="30"/>
-      <c r="H93" s="32"/>
-    </row>
-    <row r="94" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A94" s="31">
-        <v>61</v>
-      </c>
-      <c r="B94" s="95" t="s">
-        <v>128</v>
-      </c>
-      <c r="C94" s="88" t="s">
-        <v>26</v>
-      </c>
-      <c r="D94" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E94" s="87"/>
-      <c r="F94" s="81" t="s">
-        <v>196</v>
-      </c>
-      <c r="G94" s="30"/>
-      <c r="H94" s="32"/>
-    </row>
-    <row r="95" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A95" s="31">
-        <v>62</v>
-      </c>
-      <c r="B95" s="97"/>
-      <c r="C95" s="88"/>
-      <c r="D95" s="70" t="s">
-        <v>91</v>
-      </c>
-      <c r="E95" s="87"/>
-      <c r="F95" s="82"/>
-      <c r="G95" s="30"/>
-      <c r="H95" s="32"/>
-    </row>
-    <row r="96" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A96" s="81">
-        <v>63</v>
-      </c>
-      <c r="B96" s="95" t="s">
-        <v>159</v>
-      </c>
-      <c r="C96" s="92" t="s">
-        <v>32</v>
-      </c>
-      <c r="D96" s="70" t="s">
-        <v>187</v>
-      </c>
-      <c r="E96" s="93"/>
-      <c r="F96" s="81" t="s">
-        <v>196</v>
-      </c>
-      <c r="G96" s="30"/>
-      <c r="H96" s="32"/>
-    </row>
-    <row r="97" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A97" s="82"/>
-      <c r="B97" s="96"/>
-      <c r="C97" s="92"/>
-      <c r="D97" s="69" t="s">
-        <v>188</v>
-      </c>
-      <c r="E97" s="93"/>
-      <c r="F97" s="83"/>
-      <c r="G97" s="39"/>
-      <c r="H97" s="52"/>
-    </row>
-    <row r="98" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A98" s="81">
-        <v>64</v>
-      </c>
-      <c r="B98" s="96"/>
-      <c r="C98" s="88"/>
-      <c r="D98" s="69" t="s">
-        <v>9</v>
-      </c>
-      <c r="E98" s="87"/>
-      <c r="F98" s="83"/>
-      <c r="G98" s="30"/>
-      <c r="H98" s="32"/>
-    </row>
-    <row r="99" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A99" s="83"/>
-      <c r="B99" s="96"/>
-      <c r="C99" s="88"/>
-      <c r="D99" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="E99" s="87"/>
-      <c r="F99" s="83"/>
-      <c r="G99" s="30"/>
-      <c r="H99" s="32"/>
-    </row>
-    <row r="100" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A100" s="83"/>
-      <c r="B100" s="96"/>
-      <c r="C100" s="88"/>
-      <c r="D100" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="E100" s="87"/>
-      <c r="F100" s="83"/>
-      <c r="G100" s="30"/>
-      <c r="H100" s="32"/>
-    </row>
-    <row r="101" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A101" s="83"/>
-      <c r="B101" s="96"/>
-      <c r="C101" s="88"/>
-      <c r="D101" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="E101" s="87"/>
-      <c r="F101" s="83"/>
-      <c r="G101" s="30"/>
-      <c r="H101" s="32"/>
-    </row>
-    <row r="102" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A102" s="83"/>
-      <c r="B102" s="96"/>
-      <c r="C102" s="88"/>
-      <c r="D102" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="E102" s="87"/>
-      <c r="F102" s="83"/>
-      <c r="G102" s="30"/>
-      <c r="H102" s="32"/>
-    </row>
-    <row r="103" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A103" s="82"/>
-      <c r="B103" s="97"/>
-      <c r="C103" s="88"/>
-      <c r="D103" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="E103" s="87"/>
-      <c r="F103" s="82"/>
-      <c r="G103" s="30"/>
-      <c r="H103" s="32"/>
-    </row>
-    <row r="104" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A104" s="81">
-        <v>65</v>
-      </c>
-      <c r="B104" s="95" t="s">
-        <v>160</v>
-      </c>
-      <c r="C104" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="D104" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E104" s="87"/>
-      <c r="F104" s="81" t="s">
-        <v>208</v>
-      </c>
-      <c r="G104" s="30"/>
-      <c r="H104" s="32"/>
-    </row>
-    <row r="105" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A105" s="82"/>
-      <c r="B105" s="97"/>
-      <c r="C105" s="88"/>
-      <c r="D105" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="E105" s="87"/>
-      <c r="F105" s="82"/>
-      <c r="G105" s="30"/>
-      <c r="H105" s="32"/>
-    </row>
-    <row r="106" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A106" s="22"/>
-      <c r="B106" s="30"/>
-      <c r="C106" s="94" t="s">
-        <v>68</v>
-      </c>
-      <c r="D106" s="94"/>
-      <c r="E106" s="22"/>
-      <c r="F106" s="62"/>
-      <c r="G106" s="30"/>
-      <c r="H106" s="32"/>
-    </row>
-    <row r="107" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A107" s="31">
-        <v>66</v>
-      </c>
-      <c r="B107" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="C107" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="D107" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E107" s="25"/>
-      <c r="F107" s="62" t="s">
-        <v>210</v>
-      </c>
-      <c r="G107" s="30"/>
-      <c r="H107" s="32"/>
-    </row>
-    <row r="108" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A108" s="31">
-        <v>67</v>
-      </c>
-      <c r="B108" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="C108" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="D108" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="E108" s="25"/>
-      <c r="F108" s="62" t="s">
-        <v>196</v>
-      </c>
-      <c r="G108" s="30"/>
-      <c r="H108" s="32"/>
-    </row>
-    <row r="109" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A109" s="31">
-        <v>68</v>
-      </c>
-      <c r="B109" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="C109" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="D109" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E109" s="25"/>
-      <c r="F109" s="62" t="s">
-        <v>196</v>
-      </c>
-      <c r="G109" s="30"/>
-      <c r="H109" s="32"/>
-    </row>
-    <row r="110" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A110" s="31">
-        <v>69</v>
-      </c>
-      <c r="B110" s="95" t="s">
-        <v>164</v>
-      </c>
-      <c r="C110" s="88" t="s">
-        <v>27</v>
-      </c>
-      <c r="D110" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="E110" s="87"/>
-      <c r="F110" s="81" t="s">
-        <v>211</v>
-      </c>
-      <c r="G110" s="30"/>
-      <c r="H110" s="32"/>
-    </row>
-    <row r="111" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A111" s="31">
-        <v>70</v>
-      </c>
-      <c r="B111" s="96"/>
-      <c r="C111" s="88"/>
-      <c r="D111" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="E111" s="87"/>
-      <c r="F111" s="83"/>
-      <c r="G111" s="30"/>
-      <c r="H111" s="32"/>
-    </row>
-    <row r="112" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A112" s="31">
-        <v>71</v>
-      </c>
-      <c r="B112" s="96"/>
-      <c r="C112" s="88"/>
-      <c r="D112" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="E112" s="87"/>
-      <c r="F112" s="83"/>
-      <c r="G112" s="30"/>
-      <c r="H112" s="32"/>
-    </row>
-    <row r="113" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A113" s="31">
-        <v>72</v>
-      </c>
-      <c r="B113" s="97"/>
-      <c r="C113" s="88"/>
-      <c r="D113" s="25" t="s">
+      <c r="E153" s="99"/>
+      <c r="F153" s="83" t="s">
+        <v>138</v>
+      </c>
+      <c r="G153" s="30"/>
+      <c r="H153" s="32"/>
+    </row>
+    <row r="154" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A154" s="31">
+        <v>136</v>
+      </c>
+      <c r="B154" s="87"/>
+      <c r="C154" s="95"/>
+      <c r="D154" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E154" s="99"/>
+      <c r="F154" s="84"/>
+      <c r="G154" s="30"/>
+      <c r="H154" s="32"/>
+    </row>
+    <row r="155" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A155" s="31">
+        <v>137</v>
+      </c>
+      <c r="B155" s="87"/>
+      <c r="C155" s="95"/>
+      <c r="D155" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E155" s="99"/>
+      <c r="F155" s="84"/>
+      <c r="G155" s="30"/>
+      <c r="H155" s="32"/>
+    </row>
+    <row r="156" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A156" s="31">
+        <v>138</v>
+      </c>
+      <c r="B156" s="88"/>
+      <c r="C156" s="95"/>
+      <c r="D156" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E113" s="87"/>
-      <c r="F113" s="82"/>
-      <c r="G113" s="30"/>
-      <c r="H113" s="32"/>
-    </row>
-    <row r="114" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A114" s="53"/>
-      <c r="B114" s="54"/>
-      <c r="C114" s="55"/>
-      <c r="D114" s="56"/>
-      <c r="E114" s="56"/>
-      <c r="F114" s="53"/>
-      <c r="G114" s="54"/>
-      <c r="H114" s="54"/>
-    </row>
-    <row r="115" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A115" s="53"/>
-      <c r="B115" s="54"/>
-      <c r="C115" s="55"/>
-      <c r="D115" s="56"/>
-      <c r="E115" s="56"/>
-      <c r="F115" s="53"/>
-      <c r="G115" s="54"/>
-      <c r="H115" s="54"/>
-    </row>
-    <row r="116" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A116" s="53"/>
-      <c r="B116" s="54"/>
-      <c r="C116" s="55"/>
-      <c r="D116" s="56"/>
-      <c r="E116" s="56"/>
-      <c r="F116" s="53"/>
-      <c r="G116" s="54"/>
-      <c r="H116" s="54"/>
-    </row>
-    <row r="117" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A117" s="53"/>
-      <c r="B117" s="54"/>
-      <c r="C117" s="55"/>
-      <c r="D117" s="56"/>
-      <c r="E117" s="56"/>
-      <c r="F117" s="53"/>
-      <c r="G117" s="54"/>
-      <c r="H117" s="54"/>
-    </row>
-    <row r="118" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A118" s="53"/>
-      <c r="B118" s="54"/>
-      <c r="C118" s="55"/>
-      <c r="D118" s="56"/>
-      <c r="E118" s="56"/>
-      <c r="F118" s="53"/>
-      <c r="G118" s="54"/>
-      <c r="H118" s="54"/>
-    </row>
-    <row r="119" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A119" s="53"/>
-      <c r="B119" s="54"/>
-      <c r="C119" s="55"/>
-      <c r="D119" s="56"/>
-      <c r="E119" s="56"/>
-      <c r="F119" s="53"/>
-      <c r="G119" s="54"/>
-      <c r="H119" s="54"/>
-    </row>
-    <row r="120" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A120" s="53"/>
-      <c r="B120" s="54"/>
-      <c r="C120" s="55"/>
-      <c r="D120" s="57"/>
-      <c r="E120" s="56"/>
-      <c r="F120" s="53"/>
-      <c r="G120" s="54"/>
-      <c r="H120" s="54"/>
-    </row>
-    <row r="121" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A121" s="53"/>
-      <c r="B121" s="54"/>
-      <c r="C121" s="55"/>
-      <c r="D121" s="56"/>
-      <c r="E121" s="56"/>
-      <c r="F121" s="53"/>
-      <c r="G121" s="54"/>
-      <c r="H121" s="54"/>
-    </row>
-    <row r="122" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A122" s="53"/>
-      <c r="B122" s="54"/>
-      <c r="C122" s="55"/>
-      <c r="D122" s="59"/>
-      <c r="E122" s="56"/>
-      <c r="F122" s="53"/>
-      <c r="G122" s="54"/>
-      <c r="H122" s="54"/>
-    </row>
-    <row r="123" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A123" s="53"/>
-      <c r="B123" s="54"/>
-      <c r="C123" s="55"/>
-      <c r="D123" s="60"/>
-      <c r="E123" s="56"/>
-      <c r="F123" s="53"/>
-      <c r="G123" s="54"/>
-      <c r="H123" s="54"/>
-    </row>
-    <row r="124" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A124" s="53"/>
-      <c r="B124" s="54"/>
-      <c r="C124" s="55"/>
-      <c r="D124" s="55"/>
-      <c r="E124" s="56"/>
-      <c r="F124" s="53"/>
-      <c r="G124" s="54"/>
-      <c r="H124" s="54"/>
-    </row>
-    <row r="125" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A125" s="53"/>
-      <c r="B125" s="54"/>
-      <c r="C125" s="55"/>
-      <c r="D125" s="56"/>
-      <c r="E125" s="56"/>
-      <c r="F125" s="53"/>
-      <c r="G125" s="54"/>
-      <c r="H125" s="54"/>
-    </row>
-    <row r="126" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A126" s="53"/>
-      <c r="B126" s="54"/>
-      <c r="C126" s="55"/>
-      <c r="D126" s="55"/>
-      <c r="E126" s="56"/>
-      <c r="F126" s="53"/>
-      <c r="G126" s="54"/>
-      <c r="H126" s="54"/>
-    </row>
-    <row r="127" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A127" s="53"/>
-      <c r="B127" s="54"/>
-      <c r="C127" s="55"/>
-      <c r="D127" s="55"/>
-      <c r="E127" s="56"/>
-      <c r="F127" s="53"/>
-      <c r="G127" s="54"/>
-      <c r="H127" s="54"/>
-    </row>
-    <row r="128" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A128" s="53"/>
-      <c r="B128" s="54"/>
-      <c r="C128" s="58"/>
-      <c r="D128" s="56"/>
-      <c r="E128" s="53"/>
-      <c r="F128" s="53"/>
-      <c r="G128" s="54"/>
-      <c r="H128" s="54"/>
-    </row>
-    <row r="129" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A129" s="55"/>
-      <c r="B129" s="55"/>
-      <c r="C129" s="55"/>
-      <c r="D129" s="61"/>
-      <c r="E129" s="55"/>
-      <c r="F129" s="58"/>
-      <c r="G129" s="55"/>
-      <c r="H129" s="55"/>
-    </row>
-    <row r="130" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="C130" s="55"/>
-      <c r="D130" s="45"/>
-      <c r="F130" s="76"/>
-    </row>
-    <row r="131" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="C131" s="55"/>
-      <c r="D131" s="45"/>
-      <c r="F131" s="76"/>
-    </row>
-    <row r="132" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="C132" s="55"/>
-      <c r="D132" s="45"/>
-      <c r="F132" s="76"/>
-    </row>
-    <row r="133" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="C133" s="55"/>
-      <c r="D133" s="45"/>
-      <c r="F133" s="76"/>
-    </row>
-    <row r="134" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="D134" s="45"/>
-      <c r="F134" s="76"/>
-    </row>
-    <row r="135" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="D135" s="45"/>
-      <c r="F135" s="76"/>
-    </row>
-    <row r="136" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="D136" s="45"/>
-      <c r="F136" s="76"/>
-    </row>
-    <row r="137" spans="1:8" s="44" customFormat="1" ht="26.25" customHeight="1">
-      <c r="D137" s="45"/>
-      <c r="F137" s="76"/>
-    </row>
-    <row r="138" spans="1:8" s="44" customFormat="1" ht="26.25" customHeight="1">
-      <c r="D138" s="45"/>
-      <c r="F138" s="76"/>
-    </row>
-    <row r="139" spans="1:8" s="44" customFormat="1" ht="26.25" customHeight="1">
-      <c r="D139" s="45"/>
-      <c r="F139" s="76"/>
-    </row>
-    <row r="140" spans="1:8" s="44" customFormat="1" ht="26.25" customHeight="1">
-      <c r="D140" s="45"/>
-      <c r="F140" s="76"/>
-    </row>
-    <row r="141" spans="1:8" s="44" customFormat="1" ht="26.25" customHeight="1">
-      <c r="D141" s="45"/>
-      <c r="F141" s="76"/>
-    </row>
-    <row r="142" spans="1:8" s="44" customFormat="1" ht="26.25" customHeight="1">
-      <c r="D142" s="45"/>
-      <c r="F142" s="76"/>
-    </row>
-    <row r="143" spans="1:8" s="46" customFormat="1" ht="26.25" customHeight="1">
-      <c r="D143" s="47"/>
-      <c r="F143" s="77"/>
-    </row>
-    <row r="144" spans="1:8" s="44" customFormat="1" ht="26.25" customHeight="1">
-      <c r="D144" s="45"/>
-      <c r="F144" s="76"/>
-    </row>
-    <row r="145" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
-      <c r="D145" s="45"/>
-      <c r="F145" s="76"/>
-    </row>
-    <row r="146" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
-      <c r="D146" s="45"/>
-      <c r="F146" s="76"/>
+      <c r="E156" s="99"/>
+      <c r="F156" s="85"/>
+      <c r="G156" s="30"/>
+      <c r="H156" s="32"/>
+    </row>
+    <row r="157" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="A157" s="53"/>
+      <c r="B157" s="54"/>
+      <c r="C157" s="55"/>
+      <c r="D157" s="56"/>
+      <c r="E157" s="56"/>
+      <c r="F157" s="53"/>
+      <c r="G157" s="54"/>
+      <c r="H157" s="54"/>
+    </row>
+    <row r="158" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="A158" s="53"/>
+      <c r="B158" s="54"/>
+      <c r="C158" s="55"/>
+      <c r="D158" s="56"/>
+      <c r="E158" s="56"/>
+      <c r="F158" s="53"/>
+      <c r="G158" s="54"/>
+      <c r="H158" s="54"/>
+    </row>
+    <row r="159" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="A159" s="53"/>
+      <c r="B159" s="54"/>
+      <c r="C159" s="55"/>
+      <c r="D159" s="56"/>
+      <c r="E159" s="56"/>
+      <c r="F159" s="53"/>
+      <c r="G159" s="54"/>
+      <c r="H159" s="54"/>
+    </row>
+    <row r="160" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="A160" s="53"/>
+      <c r="B160" s="54"/>
+      <c r="C160" s="55"/>
+      <c r="D160" s="56"/>
+      <c r="E160" s="56"/>
+      <c r="F160" s="53"/>
+      <c r="G160" s="54"/>
+      <c r="H160" s="54"/>
+    </row>
+    <row r="161" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="A161" s="53"/>
+      <c r="B161" s="54"/>
+      <c r="C161" s="55"/>
+      <c r="D161" s="56"/>
+      <c r="E161" s="56"/>
+      <c r="F161" s="53"/>
+      <c r="G161" s="54"/>
+      <c r="H161" s="54"/>
+    </row>
+    <row r="162" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="A162" s="53"/>
+      <c r="B162" s="54"/>
+      <c r="C162" s="55"/>
+      <c r="D162" s="56"/>
+      <c r="E162" s="56"/>
+      <c r="F162" s="53"/>
+      <c r="G162" s="54"/>
+      <c r="H162" s="54"/>
+    </row>
+    <row r="163" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="A163" s="53"/>
+      <c r="B163" s="54"/>
+      <c r="C163" s="55"/>
+      <c r="D163" s="57"/>
+      <c r="E163" s="56"/>
+      <c r="F163" s="53"/>
+      <c r="G163" s="54"/>
+      <c r="H163" s="54"/>
+    </row>
+    <row r="164" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="A164" s="53"/>
+      <c r="B164" s="54"/>
+      <c r="C164" s="55"/>
+      <c r="D164" s="56"/>
+      <c r="E164" s="56"/>
+      <c r="F164" s="53"/>
+      <c r="G164" s="54"/>
+      <c r="H164" s="54"/>
+    </row>
+    <row r="165" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="A165" s="53"/>
+      <c r="B165" s="54"/>
+      <c r="C165" s="55"/>
+      <c r="D165" s="59"/>
+      <c r="E165" s="56"/>
+      <c r="F165" s="53"/>
+      <c r="G165" s="54"/>
+      <c r="H165" s="54"/>
+    </row>
+    <row r="166" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="A166" s="53"/>
+      <c r="B166" s="54"/>
+      <c r="C166" s="55"/>
+      <c r="D166" s="60"/>
+      <c r="E166" s="56"/>
+      <c r="F166" s="53"/>
+      <c r="G166" s="54"/>
+      <c r="H166" s="54"/>
+    </row>
+    <row r="167" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="A167" s="53"/>
+      <c r="B167" s="54"/>
+      <c r="C167" s="55"/>
+      <c r="D167" s="55"/>
+      <c r="E167" s="56"/>
+      <c r="F167" s="53"/>
+      <c r="G167" s="54"/>
+      <c r="H167" s="54"/>
+    </row>
+    <row r="168" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="A168" s="53"/>
+      <c r="B168" s="54"/>
+      <c r="C168" s="55"/>
+      <c r="D168" s="56"/>
+      <c r="E168" s="56"/>
+      <c r="F168" s="53"/>
+      <c r="G168" s="54"/>
+      <c r="H168" s="54"/>
+    </row>
+    <row r="169" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="A169" s="53"/>
+      <c r="B169" s="54"/>
+      <c r="C169" s="55"/>
+      <c r="D169" s="55"/>
+      <c r="E169" s="56"/>
+      <c r="F169" s="53"/>
+      <c r="G169" s="54"/>
+      <c r="H169" s="54"/>
+    </row>
+    <row r="170" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="A170" s="53"/>
+      <c r="B170" s="54"/>
+      <c r="C170" s="55"/>
+      <c r="D170" s="55"/>
+      <c r="E170" s="56"/>
+      <c r="F170" s="53"/>
+      <c r="G170" s="54"/>
+      <c r="H170" s="54"/>
+    </row>
+    <row r="171" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="A171" s="53"/>
+      <c r="B171" s="54"/>
+      <c r="C171" s="58"/>
+      <c r="D171" s="56"/>
+      <c r="E171" s="53"/>
+      <c r="F171" s="53"/>
+      <c r="G171" s="54"/>
+      <c r="H171" s="54"/>
+    </row>
+    <row r="172" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="A172" s="55"/>
+      <c r="B172" s="55"/>
+      <c r="C172" s="55"/>
+      <c r="D172" s="61"/>
+      <c r="E172" s="55"/>
+      <c r="F172" s="58"/>
+      <c r="G172" s="55"/>
+      <c r="H172" s="55"/>
+    </row>
+    <row r="173" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="C173" s="55"/>
+      <c r="D173" s="45"/>
+      <c r="F173" s="67"/>
+    </row>
+    <row r="174" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="C174" s="55"/>
+      <c r="D174" s="45"/>
+      <c r="F174" s="67"/>
+    </row>
+    <row r="175" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="C175" s="55"/>
+      <c r="D175" s="45"/>
+      <c r="F175" s="67"/>
+    </row>
+    <row r="176" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="C176" s="55"/>
+      <c r="D176" s="45"/>
+      <c r="F176" s="67"/>
+    </row>
+    <row r="177" spans="4:6" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="D177" s="45"/>
+      <c r="F177" s="67"/>
+    </row>
+    <row r="178" spans="4:6" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="D178" s="45"/>
+      <c r="F178" s="67"/>
+    </row>
+    <row r="179" spans="4:6" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="D179" s="45"/>
+      <c r="F179" s="67"/>
+    </row>
+    <row r="180" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
+      <c r="D180" s="45"/>
+      <c r="F180" s="67"/>
+    </row>
+    <row r="181" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
+      <c r="D181" s="45"/>
+      <c r="F181" s="67"/>
+    </row>
+    <row r="182" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
+      <c r="D182" s="45"/>
+      <c r="F182" s="67"/>
+    </row>
+    <row r="183" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
+      <c r="D183" s="45"/>
+      <c r="F183" s="67"/>
+    </row>
+    <row r="184" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
+      <c r="D184" s="45"/>
+      <c r="F184" s="67"/>
+    </row>
+    <row r="185" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
+      <c r="D185" s="45"/>
+      <c r="F185" s="67"/>
+    </row>
+    <row r="186" spans="4:6" s="46" customFormat="1" ht="26.25" customHeight="1">
+      <c r="D186" s="47"/>
+      <c r="F186" s="68"/>
+    </row>
+    <row r="187" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
+      <c r="D187" s="45"/>
+      <c r="F187" s="67"/>
+    </row>
+    <row r="188" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
+      <c r="D188" s="45"/>
+      <c r="F188" s="67"/>
+    </row>
+    <row r="189" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
+      <c r="D189" s="45"/>
+      <c r="F189" s="67"/>
     </row>
   </sheetData>
-  <mergeCells count="94">
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A98:A103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="B35:B43"/>
-    <mergeCell ref="B44:B50"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="B55:B59"/>
-    <mergeCell ref="B60:B64"/>
-    <mergeCell ref="B4:B16"/>
-    <mergeCell ref="B17:B24"/>
-    <mergeCell ref="B25:B34"/>
-    <mergeCell ref="C110:C113"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="C75:C78"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="C4:C16"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B84:B88"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="B96:B103"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="B110:B113"/>
-    <mergeCell ref="E84:E88"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="E96:E103"/>
-    <mergeCell ref="E25:E34"/>
-    <mergeCell ref="C44:C50"/>
-    <mergeCell ref="E44:E50"/>
-    <mergeCell ref="C55:C59"/>
-    <mergeCell ref="C60:C64"/>
-    <mergeCell ref="C35:C43"/>
-    <mergeCell ref="E60:E64"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="E110:E113"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="E17:E24"/>
+  <mergeCells count="139">
+    <mergeCell ref="F147:F148"/>
+    <mergeCell ref="F153:F156"/>
+    <mergeCell ref="F124:F126"/>
+    <mergeCell ref="F127:F131"/>
+    <mergeCell ref="F135:F136"/>
+    <mergeCell ref="F137:F138"/>
+    <mergeCell ref="F139:F146"/>
+    <mergeCell ref="F110:F111"/>
+    <mergeCell ref="F112:F113"/>
+    <mergeCell ref="F114:F116"/>
+    <mergeCell ref="F118:F121"/>
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="E51:E54"/>
-    <mergeCell ref="E55:E59"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="C17:C24"/>
-    <mergeCell ref="E35:E43"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="E35:E41"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C25:C34"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="C84:C88"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="C96:C103"/>
-    <mergeCell ref="E71:E73"/>
-    <mergeCell ref="E75:E78"/>
-    <mergeCell ref="E81:E83"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="F4:F16"/>
-    <mergeCell ref="F35:F42"/>
-    <mergeCell ref="F45:F50"/>
-    <mergeCell ref="F51:F54"/>
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="F21:F24"/>
-    <mergeCell ref="F25:F31"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F104:F105"/>
-    <mergeCell ref="F110:F113"/>
-    <mergeCell ref="F81:F83"/>
-    <mergeCell ref="F84:F88"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="F94:F95"/>
-    <mergeCell ref="F96:F103"/>
-    <mergeCell ref="F60:F63"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="F71:F73"/>
-    <mergeCell ref="F75:F78"/>
+    <mergeCell ref="F35:F41"/>
+    <mergeCell ref="F42:F45"/>
+    <mergeCell ref="C4:C12"/>
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="B93:B95"/>
+    <mergeCell ref="B96:B98"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="B14:B21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="F52:F56"/>
+    <mergeCell ref="F57:F61"/>
+    <mergeCell ref="F62:F64"/>
+    <mergeCell ref="F65:F69"/>
+    <mergeCell ref="F70:F73"/>
+    <mergeCell ref="F74:F80"/>
+    <mergeCell ref="B46:B51"/>
+    <mergeCell ref="C99:C104"/>
+    <mergeCell ref="E147:E148"/>
+    <mergeCell ref="E153:E156"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="C127:C131"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="C139:C146"/>
+    <mergeCell ref="E114:E116"/>
+    <mergeCell ref="E118:E121"/>
+    <mergeCell ref="E124:E126"/>
+    <mergeCell ref="E127:E131"/>
+    <mergeCell ref="E135:E136"/>
+    <mergeCell ref="E137:E138"/>
+    <mergeCell ref="E139:E146"/>
+    <mergeCell ref="E52:E56"/>
+    <mergeCell ref="E57:E61"/>
+    <mergeCell ref="E62:E64"/>
+    <mergeCell ref="E65:E69"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="E74:E80"/>
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="B35:B41"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="C46:C51"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="B74:B80"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="B85:B89"/>
+    <mergeCell ref="B90:B92"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="B153:B156"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="B124:B126"/>
+    <mergeCell ref="B127:B131"/>
+    <mergeCell ref="C153:C156"/>
+    <mergeCell ref="C114:C116"/>
+    <mergeCell ref="C118:C121"/>
+    <mergeCell ref="C124:C126"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="C149:D149"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="B139:B146"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="A141:A146"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="C14:C21"/>
+    <mergeCell ref="C57:C61"/>
+    <mergeCell ref="B25:B34"/>
+    <mergeCell ref="C52:C56"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="C96:C98"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="C85:C89"/>
+    <mergeCell ref="C90:C92"/>
+    <mergeCell ref="C93:C95"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="C74:C80"/>
+    <mergeCell ref="C65:C69"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="B65:B69"/>
+    <mergeCell ref="E4:E13"/>
+    <mergeCell ref="F4:F13"/>
+    <mergeCell ref="E14:E21"/>
+    <mergeCell ref="F14:F21"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="F25:F34"/>
+    <mergeCell ref="F46:F51"/>
+    <mergeCell ref="E46:E51"/>
+    <mergeCell ref="C35:C41"/>
+    <mergeCell ref="E25:E34"/>
+    <mergeCell ref="E96:E98"/>
+    <mergeCell ref="F96:F98"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="E85:E89"/>
+    <mergeCell ref="F85:F89"/>
+    <mergeCell ref="E90:E92"/>
+    <mergeCell ref="F90:F92"/>
+    <mergeCell ref="E93:E95"/>
+    <mergeCell ref="F93:F95"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -10676,59 +12510,59 @@
   <sheetData>
     <row r="7" spans="4:5" ht="12.75" thickBot="1">
       <c r="D7" s="35" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="4:5" ht="13.5" customHeight="1" thickTop="1">
       <c r="D8" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="E8" s="98" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="E8" s="105" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="4:5">
       <c r="D9" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="E9" s="98"/>
+        <v>112</v>
+      </c>
+      <c r="E9" s="105"/>
     </row>
     <row r="10" spans="4:5">
       <c r="D10" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="E10" s="99"/>
+        <v>113</v>
+      </c>
+      <c r="E10" s="106"/>
     </row>
     <row r="14" spans="4:5" ht="12.75" thickBot="1">
       <c r="D14" s="35" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="4:5" ht="12.75" thickTop="1">
       <c r="D15" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="E15" s="98" t="s">
-        <v>110</v>
+        <v>125</v>
+      </c>
+      <c r="E15" s="105" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="4:5">
       <c r="D16" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="E16" s="98"/>
+        <v>84</v>
+      </c>
+      <c r="E16" s="105"/>
     </row>
     <row r="17" spans="4:5">
       <c r="D17" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="E17" s="99"/>
+        <v>114</v>
+      </c>
+      <c r="E17" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/문서 관리/01. 요구사항명세서.xlsx
+++ b/문서 관리/01. 요구사항명세서.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="301">
   <si>
     <t>시스템 운영상 교육이 필요하다고 판단되어 발주기관이 교육요구 시 협의를 통해 교육 시행</t>
   </si>
@@ -2185,6 +2185,14 @@
   </si>
   <si>
     <t>퀵 메뉴는 챗봇, SNS, 유관기관으로 연결</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>챗봇</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -2629,7 +2637,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2855,9 +2863,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2869,6 +2874,15 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2882,10 +2896,28 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2894,31 +2926,25 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2927,22 +2953,16 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2950,21 +2970,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -9500,22 +9505,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" customHeight="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
     </row>
     <row r="2" spans="1:4" ht="21" customHeight="1">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="82" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="82"/>
+      <c r="D2" s="84"/>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="15" t="s">
@@ -9668,7 +9673,7 @@
   <dimension ref="A1:H189"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="B4" sqref="B4:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21" customHeight="1"/>
@@ -9684,28 +9689,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
     </row>
     <row r="2" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="103" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="90" t="s">
         <v>187</v>
       </c>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="19" t="s">
         <v>14</v>
       </c>
@@ -9741,19 +9746,19 @@
       <c r="A4" s="51">
         <v>1</v>
       </c>
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="96" t="s">
         <v>260</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="94" t="s">
         <v>139</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="E4" s="89" t="s">
+      <c r="E4" s="96" t="s">
         <v>266</v>
       </c>
-      <c r="F4" s="89" t="s">
+      <c r="F4" s="96" t="s">
         <v>134</v>
       </c>
       <c r="G4" s="51"/>
@@ -9763,13 +9768,13 @@
       <c r="A5" s="51">
         <v>2</v>
       </c>
-      <c r="B5" s="90"/>
-      <c r="C5" s="87"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="95"/>
       <c r="D5" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
       <c r="G5" s="39"/>
       <c r="H5" s="52"/>
     </row>
@@ -9777,13 +9782,13 @@
       <c r="A6" s="51">
         <v>3</v>
       </c>
-      <c r="B6" s="90"/>
-      <c r="C6" s="87"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="95"/>
       <c r="D6" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
       <c r="G6" s="39"/>
       <c r="H6" s="52"/>
     </row>
@@ -9791,13 +9796,13 @@
       <c r="A7" s="51">
         <v>4</v>
       </c>
-      <c r="B7" s="90"/>
-      <c r="C7" s="87"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="95"/>
       <c r="D7" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
       <c r="G7" s="39"/>
       <c r="H7" s="52"/>
     </row>
@@ -9805,13 +9810,13 @@
       <c r="A8" s="51">
         <v>5</v>
       </c>
-      <c r="B8" s="90"/>
-      <c r="C8" s="87"/>
+      <c r="B8" s="97"/>
+      <c r="C8" s="95"/>
       <c r="D8" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
       <c r="G8" s="30"/>
       <c r="H8" s="32"/>
     </row>
@@ -9819,13 +9824,13 @@
       <c r="A9" s="51">
         <v>6</v>
       </c>
-      <c r="B9" s="90"/>
-      <c r="C9" s="87"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="95"/>
       <c r="D9" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
       <c r="G9" s="30"/>
       <c r="H9" s="32"/>
     </row>
@@ -9833,13 +9838,13 @@
       <c r="A10" s="51">
         <v>7</v>
       </c>
-      <c r="B10" s="90"/>
-      <c r="C10" s="87"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="95"/>
       <c r="D10" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="97"/>
       <c r="G10" s="30"/>
       <c r="H10" s="32"/>
     </row>
@@ -9847,13 +9852,13 @@
       <c r="A11" s="51">
         <v>8</v>
       </c>
-      <c r="B11" s="90"/>
-      <c r="C11" s="87"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="95"/>
       <c r="D11" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="97"/>
       <c r="G11" s="30"/>
       <c r="H11" s="32"/>
     </row>
@@ -9861,13 +9866,13 @@
       <c r="A12" s="51">
         <v>9</v>
       </c>
-      <c r="B12" s="90"/>
-      <c r="C12" s="87"/>
+      <c r="B12" s="97"/>
+      <c r="C12" s="95"/>
       <c r="D12" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
       <c r="G12" s="30"/>
       <c r="H12" s="32"/>
     </row>
@@ -9875,12 +9880,12 @@
       <c r="A13" s="51">
         <v>10</v>
       </c>
-      <c r="B13" s="90"/>
+      <c r="B13" s="97"/>
       <c r="D13" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="101"/>
       <c r="G13" s="30"/>
       <c r="H13" s="32"/>
     </row>
@@ -9888,19 +9893,19 @@
       <c r="A14" s="51">
         <v>11</v>
       </c>
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="96" t="s">
         <v>261</v>
       </c>
-      <c r="C14" s="86" t="s">
+      <c r="C14" s="94" t="s">
         <v>140</v>
       </c>
       <c r="D14" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="E14" s="92" t="s">
+      <c r="E14" s="99" t="s">
         <v>265</v>
       </c>
-      <c r="F14" s="83" t="s">
+      <c r="F14" s="85" t="s">
         <v>132</v>
       </c>
       <c r="G14" s="30"/>
@@ -9910,13 +9915,13 @@
       <c r="A15" s="51">
         <v>12</v>
       </c>
-      <c r="B15" s="90"/>
-      <c r="C15" s="87"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="95"/>
       <c r="D15" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="E15" s="93"/>
-      <c r="F15" s="84"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="87"/>
       <c r="G15" s="30"/>
       <c r="H15" s="32"/>
     </row>
@@ -9924,13 +9929,13 @@
       <c r="A16" s="51">
         <v>13</v>
       </c>
-      <c r="B16" s="90"/>
-      <c r="C16" s="87"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="95"/>
       <c r="D16" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="E16" s="93"/>
-      <c r="F16" s="84"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="87"/>
       <c r="G16" s="30"/>
       <c r="H16" s="32"/>
     </row>
@@ -9938,13 +9943,13 @@
       <c r="A17" s="51">
         <v>14</v>
       </c>
-      <c r="B17" s="90"/>
-      <c r="C17" s="87"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="95"/>
       <c r="D17" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="E17" s="93"/>
-      <c r="F17" s="84"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="87"/>
       <c r="G17" s="30"/>
       <c r="H17" s="32"/>
     </row>
@@ -9952,13 +9957,13 @@
       <c r="A18" s="51">
         <v>15</v>
       </c>
-      <c r="B18" s="90"/>
-      <c r="C18" s="87"/>
+      <c r="B18" s="97"/>
+      <c r="C18" s="95"/>
       <c r="D18" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="E18" s="93"/>
-      <c r="F18" s="84"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="87"/>
       <c r="G18" s="30"/>
       <c r="H18" s="32"/>
     </row>
@@ -9966,13 +9971,13 @@
       <c r="A19" s="51">
         <v>16</v>
       </c>
-      <c r="B19" s="90"/>
-      <c r="C19" s="87"/>
+      <c r="B19" s="97"/>
+      <c r="C19" s="95"/>
       <c r="D19" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="E19" s="93"/>
-      <c r="F19" s="84"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="87"/>
       <c r="G19" s="30"/>
       <c r="H19" s="32"/>
     </row>
@@ -9980,13 +9985,13 @@
       <c r="A20" s="51">
         <v>17</v>
       </c>
-      <c r="B20" s="90"/>
-      <c r="C20" s="87"/>
+      <c r="B20" s="97"/>
+      <c r="C20" s="95"/>
       <c r="D20" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="E20" s="93"/>
-      <c r="F20" s="84"/>
+      <c r="E20" s="108"/>
+      <c r="F20" s="87"/>
       <c r="G20" s="30"/>
       <c r="H20" s="32"/>
     </row>
@@ -9994,13 +9999,13 @@
       <c r="A21" s="51">
         <v>18</v>
       </c>
-      <c r="B21" s="91"/>
-      <c r="C21" s="88"/>
+      <c r="B21" s="101"/>
+      <c r="C21" s="98"/>
       <c r="D21" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="E21" s="94"/>
-      <c r="F21" s="84"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="87"/>
       <c r="G21" s="30"/>
       <c r="H21" s="32"/>
     </row>
@@ -10008,19 +10013,19 @@
       <c r="A22" s="51">
         <v>19</v>
       </c>
-      <c r="B22" s="89" t="s">
+      <c r="B22" s="96" t="s">
         <v>262</v>
       </c>
-      <c r="C22" s="86" t="s">
+      <c r="C22" s="94" t="s">
         <v>152</v>
       </c>
       <c r="D22" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="E22" s="86" t="s">
+      <c r="E22" s="94" t="s">
         <v>267</v>
       </c>
-      <c r="F22" s="83" t="s">
+      <c r="F22" s="85" t="s">
         <v>268</v>
       </c>
       <c r="G22" s="30"/>
@@ -10030,13 +10035,13 @@
       <c r="A23" s="51">
         <v>20</v>
       </c>
-      <c r="B23" s="90"/>
-      <c r="C23" s="87"/>
+      <c r="B23" s="97"/>
+      <c r="C23" s="95"/>
       <c r="D23" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="E23" s="87"/>
-      <c r="F23" s="84"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="87"/>
       <c r="G23" s="30"/>
       <c r="H23" s="32"/>
     </row>
@@ -10044,13 +10049,13 @@
       <c r="A24" s="51">
         <v>21</v>
       </c>
-      <c r="B24" s="91"/>
-      <c r="C24" s="88"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="98"/>
       <c r="D24" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="E24" s="88"/>
-      <c r="F24" s="85"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="86"/>
       <c r="G24" s="30"/>
       <c r="H24" s="32"/>
     </row>
@@ -10058,19 +10063,19 @@
       <c r="A25" s="51">
         <v>22</v>
       </c>
-      <c r="B25" s="86" t="s">
+      <c r="B25" s="94" t="s">
         <v>126</v>
       </c>
-      <c r="C25" s="100" t="s">
+      <c r="C25" s="92" t="s">
         <v>155</v>
       </c>
       <c r="D25" s="71" t="s">
         <v>174</v>
       </c>
-      <c r="E25" s="101" t="s">
+      <c r="E25" s="102" t="s">
         <v>269</v>
       </c>
-      <c r="F25" s="83" t="s">
+      <c r="F25" s="85" t="s">
         <v>264</v>
       </c>
       <c r="G25" s="30"/>
@@ -10080,13 +10085,13 @@
       <c r="A26" s="51">
         <v>23</v>
       </c>
-      <c r="B26" s="87"/>
-      <c r="C26" s="100"/>
+      <c r="B26" s="95"/>
+      <c r="C26" s="92"/>
       <c r="D26" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="E26" s="101"/>
-      <c r="F26" s="84"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="87"/>
       <c r="G26" s="39"/>
       <c r="H26" s="52"/>
     </row>
@@ -10094,13 +10099,13 @@
       <c r="A27" s="51">
         <v>24</v>
       </c>
-      <c r="B27" s="87"/>
-      <c r="C27" s="100"/>
+      <c r="B27" s="95"/>
+      <c r="C27" s="92"/>
       <c r="D27" s="72" t="s">
         <v>178</v>
       </c>
-      <c r="E27" s="101"/>
-      <c r="F27" s="84"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="87"/>
       <c r="G27" s="39"/>
       <c r="H27" s="52"/>
     </row>
@@ -10108,13 +10113,13 @@
       <c r="A28" s="51">
         <v>25</v>
       </c>
-      <c r="B28" s="87"/>
-      <c r="C28" s="100"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="92"/>
       <c r="D28" s="71" t="s">
         <v>179</v>
       </c>
-      <c r="E28" s="101"/>
-      <c r="F28" s="84"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="87"/>
       <c r="G28" s="39"/>
       <c r="H28" s="52"/>
     </row>
@@ -10122,13 +10127,13 @@
       <c r="A29" s="51">
         <v>26</v>
       </c>
-      <c r="B29" s="87"/>
-      <c r="C29" s="100"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="92"/>
       <c r="D29" s="71" t="s">
         <v>180</v>
       </c>
-      <c r="E29" s="101"/>
-      <c r="F29" s="84"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="87"/>
       <c r="G29" s="39"/>
       <c r="H29" s="52"/>
     </row>
@@ -10136,13 +10141,13 @@
       <c r="A30" s="51">
         <v>27</v>
       </c>
-      <c r="B30" s="87"/>
-      <c r="C30" s="100"/>
+      <c r="B30" s="95"/>
+      <c r="C30" s="92"/>
       <c r="D30" s="71" t="s">
         <v>181</v>
       </c>
-      <c r="E30" s="101"/>
-      <c r="F30" s="84"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="87"/>
       <c r="G30" s="39"/>
       <c r="H30" s="52"/>
     </row>
@@ -10150,13 +10155,13 @@
       <c r="A31" s="51">
         <v>28</v>
       </c>
-      <c r="B31" s="87"/>
-      <c r="C31" s="95"/>
+      <c r="B31" s="95"/>
+      <c r="C31" s="93"/>
       <c r="D31" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="E31" s="99"/>
-      <c r="F31" s="84"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="87"/>
       <c r="G31" s="30"/>
       <c r="H31" s="32"/>
     </row>
@@ -10164,13 +10169,13 @@
       <c r="A32" s="51">
         <v>29</v>
       </c>
-      <c r="B32" s="87"/>
-      <c r="C32" s="95"/>
+      <c r="B32" s="95"/>
+      <c r="C32" s="93"/>
       <c r="D32" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="E32" s="99"/>
-      <c r="F32" s="84"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="87"/>
       <c r="G32" s="30"/>
       <c r="H32" s="32"/>
     </row>
@@ -10178,13 +10183,13 @@
       <c r="A33" s="51">
         <v>30</v>
       </c>
-      <c r="B33" s="87"/>
-      <c r="C33" s="95"/>
+      <c r="B33" s="95"/>
+      <c r="C33" s="93"/>
       <c r="D33" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="E33" s="99"/>
-      <c r="F33" s="84"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="87"/>
       <c r="G33" s="30"/>
       <c r="H33" s="32"/>
     </row>
@@ -10192,13 +10197,13 @@
       <c r="A34" s="51">
         <v>31</v>
       </c>
-      <c r="B34" s="88"/>
-      <c r="C34" s="95"/>
+      <c r="B34" s="98"/>
+      <c r="C34" s="93"/>
       <c r="D34" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="E34" s="99"/>
-      <c r="F34" s="85"/>
+      <c r="E34" s="89"/>
+      <c r="F34" s="86"/>
       <c r="G34" s="30"/>
       <c r="H34" s="32"/>
     </row>
@@ -10206,19 +10211,19 @@
       <c r="A35" s="51">
         <v>32</v>
       </c>
-      <c r="B35" s="86" t="s">
+      <c r="B35" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="C35" s="95" t="s">
+      <c r="C35" s="93" t="s">
         <v>156</v>
       </c>
       <c r="D35" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="E35" s="99" t="s">
+      <c r="E35" s="89" t="s">
         <v>272</v>
       </c>
-      <c r="F35" s="83" t="s">
+      <c r="F35" s="85" t="s">
         <v>270</v>
       </c>
       <c r="G35" s="30"/>
@@ -10228,13 +10233,13 @@
       <c r="A36" s="51">
         <v>33</v>
       </c>
-      <c r="B36" s="87"/>
-      <c r="C36" s="95"/>
+      <c r="B36" s="95"/>
+      <c r="C36" s="93"/>
       <c r="D36" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="E36" s="99"/>
-      <c r="F36" s="84"/>
+      <c r="E36" s="89"/>
+      <c r="F36" s="87"/>
       <c r="G36" s="30"/>
       <c r="H36" s="32"/>
     </row>
@@ -10242,13 +10247,13 @@
       <c r="A37" s="51">
         <v>34</v>
       </c>
-      <c r="B37" s="87"/>
-      <c r="C37" s="95"/>
+      <c r="B37" s="95"/>
+      <c r="C37" s="93"/>
       <c r="D37" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="E37" s="99"/>
-      <c r="F37" s="84"/>
+      <c r="E37" s="89"/>
+      <c r="F37" s="87"/>
       <c r="G37" s="30"/>
       <c r="H37" s="32"/>
     </row>
@@ -10256,13 +10261,13 @@
       <c r="A38" s="51">
         <v>35</v>
       </c>
-      <c r="B38" s="87"/>
-      <c r="C38" s="95"/>
+      <c r="B38" s="95"/>
+      <c r="C38" s="93"/>
       <c r="D38" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="E38" s="99"/>
-      <c r="F38" s="84"/>
+      <c r="E38" s="89"/>
+      <c r="F38" s="87"/>
       <c r="G38" s="30"/>
       <c r="H38" s="32"/>
     </row>
@@ -10270,13 +10275,13 @@
       <c r="A39" s="51">
         <v>36</v>
       </c>
-      <c r="B39" s="87"/>
-      <c r="C39" s="95"/>
+      <c r="B39" s="95"/>
+      <c r="C39" s="93"/>
       <c r="D39" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="E39" s="99"/>
-      <c r="F39" s="84"/>
+      <c r="E39" s="89"/>
+      <c r="F39" s="87"/>
       <c r="G39" s="30"/>
       <c r="H39" s="32"/>
     </row>
@@ -10284,13 +10289,13 @@
       <c r="A40" s="51">
         <v>37</v>
       </c>
-      <c r="B40" s="87"/>
-      <c r="C40" s="95"/>
+      <c r="B40" s="95"/>
+      <c r="C40" s="93"/>
       <c r="D40" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="E40" s="99"/>
-      <c r="F40" s="84"/>
+      <c r="E40" s="89"/>
+      <c r="F40" s="87"/>
       <c r="G40" s="30"/>
       <c r="H40" s="32"/>
     </row>
@@ -10298,13 +10303,13 @@
       <c r="A41" s="51">
         <v>38</v>
       </c>
-      <c r="B41" s="87"/>
-      <c r="C41" s="95"/>
+      <c r="B41" s="95"/>
+      <c r="C41" s="93"/>
       <c r="D41" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="E41" s="99"/>
-      <c r="F41" s="84"/>
+      <c r="E41" s="89"/>
+      <c r="F41" s="87"/>
       <c r="G41" s="30"/>
       <c r="H41" s="32"/>
     </row>
@@ -10312,19 +10317,19 @@
       <c r="A42" s="51">
         <v>39</v>
       </c>
-      <c r="B42" s="86" t="s">
+      <c r="B42" s="94" t="s">
         <v>86</v>
       </c>
-      <c r="C42" s="95" t="s">
+      <c r="C42" s="93" t="s">
         <v>157</v>
       </c>
       <c r="D42" s="73" t="s">
         <v>238</v>
       </c>
-      <c r="E42" s="99" t="s">
+      <c r="E42" s="89" t="s">
         <v>273</v>
       </c>
-      <c r="F42" s="83" t="s">
+      <c r="F42" s="85" t="s">
         <v>271</v>
       </c>
       <c r="G42" s="30"/>
@@ -10334,13 +10339,13 @@
       <c r="A43" s="51">
         <v>40</v>
       </c>
-      <c r="B43" s="87"/>
-      <c r="C43" s="95"/>
+      <c r="B43" s="95"/>
+      <c r="C43" s="93"/>
       <c r="D43" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="E43" s="99"/>
-      <c r="F43" s="84"/>
+      <c r="E43" s="89"/>
+      <c r="F43" s="87"/>
       <c r="G43" s="30"/>
       <c r="H43" s="32"/>
     </row>
@@ -10348,13 +10353,13 @@
       <c r="A44" s="51">
         <v>41</v>
       </c>
-      <c r="B44" s="87"/>
-      <c r="C44" s="95"/>
+      <c r="B44" s="95"/>
+      <c r="C44" s="93"/>
       <c r="D44" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="E44" s="99"/>
-      <c r="F44" s="84"/>
+      <c r="E44" s="89"/>
+      <c r="F44" s="87"/>
       <c r="G44" s="30"/>
       <c r="H44" s="32"/>
     </row>
@@ -10362,13 +10367,13 @@
       <c r="A45" s="51">
         <v>42</v>
       </c>
-      <c r="B45" s="88"/>
-      <c r="C45" s="95"/>
+      <c r="B45" s="98"/>
+      <c r="C45" s="93"/>
       <c r="D45" s="73" t="s">
         <v>255</v>
       </c>
-      <c r="E45" s="99"/>
-      <c r="F45" s="85"/>
+      <c r="E45" s="89"/>
+      <c r="F45" s="86"/>
       <c r="G45" s="30"/>
       <c r="H45" s="32"/>
     </row>
@@ -10376,19 +10381,19 @@
       <c r="A46" s="51">
         <v>43</v>
       </c>
-      <c r="B46" s="86" t="s">
+      <c r="B46" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="C46" s="86" t="s">
+      <c r="C46" s="94" t="s">
         <v>158</v>
       </c>
       <c r="D46" s="74" t="s">
         <v>256</v>
       </c>
-      <c r="E46" s="83" t="s">
+      <c r="E46" s="85" t="s">
         <v>274</v>
       </c>
-      <c r="F46" s="83" t="s">
+      <c r="F46" s="85" t="s">
         <v>271</v>
       </c>
       <c r="G46" s="70"/>
@@ -10398,13 +10403,13 @@
       <c r="A47" s="51">
         <v>44</v>
       </c>
-      <c r="B47" s="87"/>
-      <c r="C47" s="87"/>
+      <c r="B47" s="95"/>
+      <c r="C47" s="95"/>
       <c r="D47" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="E47" s="84"/>
-      <c r="F47" s="84"/>
+      <c r="E47" s="87"/>
+      <c r="F47" s="87"/>
       <c r="G47" s="30"/>
       <c r="H47" s="32"/>
     </row>
@@ -10412,13 +10417,13 @@
       <c r="A48" s="51">
         <v>45</v>
       </c>
-      <c r="B48" s="87"/>
-      <c r="C48" s="87"/>
+      <c r="B48" s="95"/>
+      <c r="C48" s="95"/>
       <c r="D48" s="73" t="s">
         <v>246</v>
       </c>
-      <c r="E48" s="84"/>
-      <c r="F48" s="84"/>
+      <c r="E48" s="87"/>
+      <c r="F48" s="87"/>
       <c r="G48" s="30"/>
       <c r="H48" s="32"/>
     </row>
@@ -10426,13 +10431,13 @@
       <c r="A49" s="51">
         <v>46</v>
       </c>
-      <c r="B49" s="87"/>
-      <c r="C49" s="87"/>
+      <c r="B49" s="95"/>
+      <c r="C49" s="95"/>
       <c r="D49" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="E49" s="84"/>
-      <c r="F49" s="84"/>
+      <c r="E49" s="87"/>
+      <c r="F49" s="87"/>
       <c r="G49" s="30"/>
       <c r="H49" s="32"/>
     </row>
@@ -10440,13 +10445,13 @@
       <c r="A50" s="51">
         <v>47</v>
       </c>
-      <c r="B50" s="87"/>
-      <c r="C50" s="87"/>
+      <c r="B50" s="95"/>
+      <c r="C50" s="95"/>
       <c r="D50" s="73" t="s">
         <v>248</v>
       </c>
-      <c r="E50" s="84"/>
-      <c r="F50" s="84"/>
+      <c r="E50" s="87"/>
+      <c r="F50" s="87"/>
       <c r="G50" s="69"/>
       <c r="H50" s="52"/>
     </row>
@@ -10454,13 +10459,13 @@
       <c r="A51" s="51">
         <v>48</v>
       </c>
-      <c r="B51" s="87"/>
-      <c r="C51" s="88"/>
+      <c r="B51" s="95"/>
+      <c r="C51" s="98"/>
       <c r="D51" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="E51" s="84"/>
-      <c r="F51" s="84"/>
+      <c r="E51" s="87"/>
+      <c r="F51" s="87"/>
       <c r="G51" s="30"/>
       <c r="H51" s="32"/>
     </row>
@@ -10468,19 +10473,19 @@
       <c r="A52" s="51">
         <v>49</v>
       </c>
-      <c r="B52" s="86" t="s">
+      <c r="B52" s="94" t="s">
         <v>88</v>
       </c>
-      <c r="C52" s="95" t="s">
+      <c r="C52" s="93" t="s">
         <v>159</v>
       </c>
       <c r="D52" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="E52" s="99" t="s">
+      <c r="E52" s="89" t="s">
         <v>275</v>
       </c>
-      <c r="F52" s="83" t="s">
+      <c r="F52" s="85" t="s">
         <v>276</v>
       </c>
       <c r="G52" s="30"/>
@@ -10490,13 +10495,13 @@
       <c r="A53" s="51">
         <v>50</v>
       </c>
-      <c r="B53" s="87"/>
-      <c r="C53" s="95"/>
+      <c r="B53" s="95"/>
+      <c r="C53" s="93"/>
       <c r="D53" s="42" t="s">
         <v>228</v>
       </c>
-      <c r="E53" s="99"/>
-      <c r="F53" s="84"/>
+      <c r="E53" s="89"/>
+      <c r="F53" s="87"/>
       <c r="G53" s="30"/>
       <c r="H53" s="32"/>
     </row>
@@ -10504,13 +10509,13 @@
       <c r="A54" s="51">
         <v>51</v>
       </c>
-      <c r="B54" s="87"/>
-      <c r="C54" s="95"/>
+      <c r="B54" s="95"/>
+      <c r="C54" s="93"/>
       <c r="D54" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="E54" s="99"/>
-      <c r="F54" s="84"/>
+      <c r="E54" s="89"/>
+      <c r="F54" s="87"/>
       <c r="G54" s="30"/>
       <c r="H54" s="32"/>
     </row>
@@ -10518,13 +10523,13 @@
       <c r="A55" s="51">
         <v>52</v>
       </c>
-      <c r="B55" s="87"/>
-      <c r="C55" s="95"/>
+      <c r="B55" s="95"/>
+      <c r="C55" s="93"/>
       <c r="D55" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="E55" s="99"/>
-      <c r="F55" s="84"/>
+      <c r="E55" s="89"/>
+      <c r="F55" s="87"/>
       <c r="G55" s="30"/>
       <c r="H55" s="32"/>
     </row>
@@ -10532,13 +10537,13 @@
       <c r="A56" s="51">
         <v>53</v>
       </c>
-      <c r="B56" s="88"/>
-      <c r="C56" s="95"/>
+      <c r="B56" s="98"/>
+      <c r="C56" s="93"/>
       <c r="D56" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="E56" s="99"/>
-      <c r="F56" s="85"/>
+      <c r="E56" s="89"/>
+      <c r="F56" s="86"/>
       <c r="G56" s="30"/>
       <c r="H56" s="32"/>
     </row>
@@ -10546,19 +10551,19 @@
       <c r="A57" s="51">
         <v>54</v>
       </c>
-      <c r="B57" s="86" t="s">
+      <c r="B57" s="94" t="s">
         <v>263</v>
       </c>
-      <c r="C57" s="86" t="s">
+      <c r="C57" s="94" t="s">
         <v>160</v>
       </c>
       <c r="D57" s="74" t="s">
         <v>236</v>
       </c>
-      <c r="E57" s="83" t="s">
+      <c r="E57" s="85" t="s">
         <v>296</v>
       </c>
-      <c r="F57" s="83" t="s">
+      <c r="F57" s="85" t="s">
         <v>297</v>
       </c>
       <c r="G57" s="69"/>
@@ -10568,13 +10573,13 @@
       <c r="A58" s="51">
         <v>55</v>
       </c>
-      <c r="B58" s="87"/>
-      <c r="C58" s="87"/>
+      <c r="B58" s="95"/>
+      <c r="C58" s="95"/>
       <c r="D58" s="74" t="s">
         <v>237</v>
       </c>
-      <c r="E58" s="84"/>
-      <c r="F58" s="84"/>
+      <c r="E58" s="87"/>
+      <c r="F58" s="87"/>
       <c r="G58" s="69"/>
       <c r="H58" s="52"/>
     </row>
@@ -10582,13 +10587,13 @@
       <c r="A59" s="51">
         <v>56</v>
       </c>
-      <c r="B59" s="87"/>
-      <c r="C59" s="87"/>
+      <c r="B59" s="95"/>
+      <c r="C59" s="95"/>
       <c r="D59" s="74" t="s">
         <v>245</v>
       </c>
-      <c r="E59" s="84"/>
-      <c r="F59" s="84"/>
+      <c r="E59" s="87"/>
+      <c r="F59" s="87"/>
       <c r="G59" s="69"/>
       <c r="H59" s="52"/>
     </row>
@@ -10596,13 +10601,13 @@
       <c r="A60" s="51">
         <v>57</v>
       </c>
-      <c r="B60" s="87"/>
-      <c r="C60" s="87"/>
+      <c r="B60" s="95"/>
+      <c r="C60" s="95"/>
       <c r="D60" s="43" t="s">
         <v>258</v>
       </c>
-      <c r="E60" s="84"/>
-      <c r="F60" s="84"/>
+      <c r="E60" s="87"/>
+      <c r="F60" s="87"/>
       <c r="G60" s="69"/>
       <c r="H60" s="52"/>
     </row>
@@ -10610,13 +10615,13 @@
       <c r="A61" s="51">
         <v>58</v>
       </c>
-      <c r="B61" s="88"/>
-      <c r="C61" s="87"/>
+      <c r="B61" s="98"/>
+      <c r="C61" s="95"/>
       <c r="D61" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="E61" s="85"/>
-      <c r="F61" s="85"/>
+      <c r="E61" s="86"/>
+      <c r="F61" s="86"/>
       <c r="G61" s="69"/>
       <c r="H61" s="52"/>
     </row>
@@ -10624,17 +10629,17 @@
       <c r="A62" s="51">
         <v>59</v>
       </c>
-      <c r="B62" s="86"/>
-      <c r="C62" s="97" t="s">
+      <c r="B62" s="94"/>
+      <c r="C62" s="103" t="s">
         <v>167</v>
       </c>
       <c r="D62" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="E62" s="83" t="s">
+      <c r="E62" s="85" t="s">
         <v>294</v>
       </c>
-      <c r="F62" s="83" t="s">
+      <c r="F62" s="85" t="s">
         <v>295</v>
       </c>
       <c r="G62" s="69"/>
@@ -10644,13 +10649,13 @@
       <c r="A63" s="51">
         <v>60</v>
       </c>
-      <c r="B63" s="87"/>
-      <c r="C63" s="98"/>
+      <c r="B63" s="95"/>
+      <c r="C63" s="104"/>
       <c r="D63" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="E63" s="84"/>
-      <c r="F63" s="84"/>
+      <c r="E63" s="87"/>
+      <c r="F63" s="87"/>
       <c r="G63" s="69"/>
       <c r="H63" s="52"/>
     </row>
@@ -10658,13 +10663,13 @@
       <c r="A64" s="51">
         <v>61</v>
       </c>
-      <c r="B64" s="88"/>
-      <c r="C64" s="98"/>
+      <c r="B64" s="98"/>
+      <c r="C64" s="104"/>
       <c r="D64" s="73" t="s">
         <v>242</v>
       </c>
-      <c r="E64" s="85"/>
-      <c r="F64" s="85"/>
+      <c r="E64" s="86"/>
+      <c r="F64" s="86"/>
       <c r="G64" s="69"/>
       <c r="H64" s="52"/>
     </row>
@@ -10672,17 +10677,17 @@
       <c r="A65" s="51">
         <v>62</v>
       </c>
-      <c r="B65" s="86"/>
-      <c r="C65" s="86" t="s">
+      <c r="B65" s="94"/>
+      <c r="C65" s="94" t="s">
         <v>161</v>
       </c>
       <c r="D65" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="E65" s="83" t="s">
+      <c r="E65" s="85" t="s">
         <v>293</v>
       </c>
-      <c r="F65" s="83" t="s">
+      <c r="F65" s="85" t="s">
         <v>268</v>
       </c>
       <c r="G65" s="69"/>
@@ -10692,13 +10697,13 @@
       <c r="A66" s="51">
         <v>63</v>
       </c>
-      <c r="B66" s="87"/>
-      <c r="C66" s="87"/>
+      <c r="B66" s="95"/>
+      <c r="C66" s="95"/>
       <c r="D66" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="E66" s="84"/>
-      <c r="F66" s="84"/>
+      <c r="E66" s="87"/>
+      <c r="F66" s="87"/>
       <c r="G66" s="69"/>
       <c r="H66" s="52"/>
     </row>
@@ -10706,13 +10711,13 @@
       <c r="A67" s="51">
         <v>64</v>
       </c>
-      <c r="B67" s="87"/>
-      <c r="C67" s="87"/>
+      <c r="B67" s="95"/>
+      <c r="C67" s="95"/>
       <c r="D67" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="E67" s="84"/>
-      <c r="F67" s="84"/>
+      <c r="E67" s="87"/>
+      <c r="F67" s="87"/>
       <c r="G67" s="69"/>
       <c r="H67" s="52"/>
     </row>
@@ -10720,13 +10725,13 @@
       <c r="A68" s="51">
         <v>65</v>
       </c>
-      <c r="B68" s="87"/>
-      <c r="C68" s="87"/>
+      <c r="B68" s="95"/>
+      <c r="C68" s="95"/>
       <c r="D68" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="E68" s="84"/>
-      <c r="F68" s="84"/>
+      <c r="E68" s="87"/>
+      <c r="F68" s="87"/>
       <c r="G68" s="69"/>
       <c r="H68" s="52"/>
     </row>
@@ -10734,13 +10739,13 @@
       <c r="A69" s="51">
         <v>66</v>
       </c>
-      <c r="B69" s="88"/>
-      <c r="C69" s="88"/>
+      <c r="B69" s="98"/>
+      <c r="C69" s="98"/>
       <c r="D69" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="E69" s="85"/>
-      <c r="F69" s="85"/>
+      <c r="E69" s="86"/>
+      <c r="F69" s="86"/>
       <c r="G69" s="69"/>
       <c r="H69" s="52"/>
     </row>
@@ -10748,17 +10753,17 @@
       <c r="A70" s="51">
         <v>67</v>
       </c>
-      <c r="B70" s="86"/>
-      <c r="C70" s="86" t="s">
+      <c r="B70" s="94"/>
+      <c r="C70" s="94" t="s">
         <v>162</v>
       </c>
       <c r="D70" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="E70" s="83" t="s">
+      <c r="E70" s="85" t="s">
         <v>290</v>
       </c>
-      <c r="F70" s="83" t="s">
+      <c r="F70" s="85" t="s">
         <v>292</v>
       </c>
       <c r="G70" s="69"/>
@@ -10768,13 +10773,13 @@
       <c r="A71" s="51">
         <v>68</v>
       </c>
-      <c r="B71" s="87"/>
-      <c r="C71" s="87"/>
+      <c r="B71" s="95"/>
+      <c r="C71" s="95"/>
       <c r="D71" s="73" t="s">
         <v>241</v>
       </c>
-      <c r="E71" s="84"/>
-      <c r="F71" s="84"/>
+      <c r="E71" s="87"/>
+      <c r="F71" s="87"/>
       <c r="G71" s="70"/>
       <c r="H71" s="52"/>
     </row>
@@ -10782,13 +10787,13 @@
       <c r="A72" s="51">
         <v>69</v>
       </c>
-      <c r="B72" s="87"/>
-      <c r="C72" s="87"/>
+      <c r="B72" s="95"/>
+      <c r="C72" s="95"/>
       <c r="D72" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="E72" s="84"/>
-      <c r="F72" s="84"/>
+      <c r="E72" s="87"/>
+      <c r="F72" s="87"/>
       <c r="G72" s="69"/>
       <c r="H72" s="52"/>
     </row>
@@ -10796,13 +10801,13 @@
       <c r="A73" s="51">
         <v>70</v>
       </c>
-      <c r="B73" s="88"/>
-      <c r="C73" s="88"/>
+      <c r="B73" s="98"/>
+      <c r="C73" s="98"/>
       <c r="D73" s="24" t="s">
         <v>253</v>
       </c>
-      <c r="E73" s="85"/>
-      <c r="F73" s="85"/>
+      <c r="E73" s="86"/>
+      <c r="F73" s="86"/>
       <c r="G73" s="70"/>
       <c r="H73" s="52"/>
     </row>
@@ -10810,17 +10815,17 @@
       <c r="A74" s="51">
         <v>71</v>
       </c>
-      <c r="B74" s="86"/>
-      <c r="C74" s="86" t="s">
+      <c r="B74" s="94"/>
+      <c r="C74" s="94" t="s">
         <v>163</v>
       </c>
       <c r="D74" s="74" t="s">
         <v>210</v>
       </c>
-      <c r="E74" s="83" t="s">
+      <c r="E74" s="85" t="s">
         <v>291</v>
       </c>
-      <c r="F74" s="83" t="s">
+      <c r="F74" s="85" t="s">
         <v>289</v>
       </c>
       <c r="G74" s="69"/>
@@ -10830,13 +10835,13 @@
       <c r="A75" s="51">
         <v>72</v>
       </c>
-      <c r="B75" s="87"/>
-      <c r="C75" s="87"/>
+      <c r="B75" s="95"/>
+      <c r="C75" s="95"/>
       <c r="D75" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="E75" s="84"/>
-      <c r="F75" s="84"/>
+      <c r="E75" s="87"/>
+      <c r="F75" s="87"/>
       <c r="G75" s="69"/>
       <c r="H75" s="52"/>
     </row>
@@ -10844,13 +10849,13 @@
       <c r="A76" s="51">
         <v>73</v>
       </c>
-      <c r="B76" s="87"/>
-      <c r="C76" s="87"/>
+      <c r="B76" s="95"/>
+      <c r="C76" s="95"/>
       <c r="D76" s="74" t="s">
         <v>207</v>
       </c>
-      <c r="E76" s="84"/>
-      <c r="F76" s="84"/>
+      <c r="E76" s="87"/>
+      <c r="F76" s="87"/>
       <c r="G76" s="69"/>
       <c r="H76" s="52"/>
     </row>
@@ -10858,13 +10863,13 @@
       <c r="A77" s="51">
         <v>74</v>
       </c>
-      <c r="B77" s="87"/>
-      <c r="C77" s="87"/>
+      <c r="B77" s="95"/>
+      <c r="C77" s="95"/>
       <c r="D77" s="74" t="s">
         <v>208</v>
       </c>
-      <c r="E77" s="84"/>
-      <c r="F77" s="84"/>
+      <c r="E77" s="87"/>
+      <c r="F77" s="87"/>
       <c r="G77" s="69"/>
       <c r="H77" s="52"/>
     </row>
@@ -10872,13 +10877,13 @@
       <c r="A78" s="51">
         <v>75</v>
       </c>
-      <c r="B78" s="87"/>
-      <c r="C78" s="87"/>
+      <c r="B78" s="95"/>
+      <c r="C78" s="95"/>
       <c r="D78" s="74" t="s">
         <v>209</v>
       </c>
-      <c r="E78" s="84"/>
-      <c r="F78" s="84"/>
+      <c r="E78" s="87"/>
+      <c r="F78" s="87"/>
       <c r="G78" s="69"/>
       <c r="H78" s="52"/>
     </row>
@@ -10886,13 +10891,13 @@
       <c r="A79" s="51">
         <v>76</v>
       </c>
-      <c r="B79" s="87"/>
-      <c r="C79" s="87"/>
+      <c r="B79" s="95"/>
+      <c r="C79" s="95"/>
       <c r="D79" s="74" t="s">
         <v>212</v>
       </c>
-      <c r="E79" s="84"/>
-      <c r="F79" s="84"/>
+      <c r="E79" s="87"/>
+      <c r="F79" s="87"/>
       <c r="G79" s="69"/>
       <c r="H79" s="52"/>
     </row>
@@ -10900,13 +10905,13 @@
       <c r="A80" s="51">
         <v>77</v>
       </c>
-      <c r="B80" s="88"/>
-      <c r="C80" s="88"/>
+      <c r="B80" s="98"/>
+      <c r="C80" s="98"/>
       <c r="D80" s="74" t="s">
         <v>213</v>
       </c>
-      <c r="E80" s="85"/>
-      <c r="F80" s="85"/>
+      <c r="E80" s="86"/>
+      <c r="F80" s="86"/>
       <c r="G80" s="69"/>
       <c r="H80" s="52"/>
     </row>
@@ -10914,17 +10919,17 @@
       <c r="A81" s="51">
         <v>78</v>
       </c>
-      <c r="B81" s="86"/>
-      <c r="C81" s="86" t="s">
+      <c r="B81" s="94"/>
+      <c r="C81" s="94" t="s">
         <v>164</v>
       </c>
       <c r="D81" s="73" t="s">
         <v>214</v>
       </c>
-      <c r="E81" s="83" t="s">
+      <c r="E81" s="85" t="s">
         <v>288</v>
       </c>
-      <c r="F81" s="83" t="s">
+      <c r="F81" s="85" t="s">
         <v>268</v>
       </c>
       <c r="G81" s="69"/>
@@ -10934,13 +10939,13 @@
       <c r="A82" s="51">
         <v>79</v>
       </c>
-      <c r="B82" s="88"/>
-      <c r="C82" s="88"/>
+      <c r="B82" s="98"/>
+      <c r="C82" s="98"/>
       <c r="D82" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="E82" s="85"/>
-      <c r="F82" s="85"/>
+      <c r="E82" s="86"/>
+      <c r="F82" s="86"/>
       <c r="G82" s="69"/>
       <c r="H82" s="52"/>
     </row>
@@ -10948,17 +10953,17 @@
       <c r="A83" s="51">
         <v>80</v>
       </c>
-      <c r="B83" s="86"/>
-      <c r="C83" s="86" t="s">
+      <c r="B83" s="94"/>
+      <c r="C83" s="94" t="s">
         <v>166</v>
       </c>
       <c r="D83" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="E83" s="83" t="s">
+      <c r="E83" s="85" t="s">
         <v>287</v>
       </c>
-      <c r="F83" s="83" t="s">
+      <c r="F83" s="85" t="s">
         <v>268</v>
       </c>
       <c r="G83" s="69"/>
@@ -10968,13 +10973,13 @@
       <c r="A84" s="51">
         <v>81</v>
       </c>
-      <c r="B84" s="88"/>
-      <c r="C84" s="88"/>
+      <c r="B84" s="98"/>
+      <c r="C84" s="98"/>
       <c r="D84" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="E84" s="85"/>
-      <c r="F84" s="85"/>
+      <c r="E84" s="86"/>
+      <c r="F84" s="86"/>
       <c r="G84" s="69"/>
       <c r="H84" s="52"/>
     </row>
@@ -10982,17 +10987,17 @@
       <c r="A85" s="51">
         <v>82</v>
       </c>
-      <c r="B85" s="86"/>
-      <c r="C85" s="86" t="s">
+      <c r="B85" s="94"/>
+      <c r="C85" s="94" t="s">
         <v>168</v>
       </c>
       <c r="D85" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="E85" s="83" t="s">
+      <c r="E85" s="85" t="s">
         <v>285</v>
       </c>
-      <c r="F85" s="83" t="s">
+      <c r="F85" s="85" t="s">
         <v>286</v>
       </c>
       <c r="G85" s="69"/>
@@ -11002,13 +11007,13 @@
       <c r="A86" s="51">
         <v>83</v>
       </c>
-      <c r="B86" s="87"/>
-      <c r="C86" s="87"/>
+      <c r="B86" s="95"/>
+      <c r="C86" s="95"/>
       <c r="D86" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="E86" s="84"/>
-      <c r="F86" s="84"/>
+      <c r="E86" s="87"/>
+      <c r="F86" s="87"/>
       <c r="G86" s="69"/>
       <c r="H86" s="52"/>
     </row>
@@ -11016,13 +11021,13 @@
       <c r="A87" s="51">
         <v>84</v>
       </c>
-      <c r="B87" s="87"/>
-      <c r="C87" s="87"/>
+      <c r="B87" s="95"/>
+      <c r="C87" s="95"/>
       <c r="D87" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="E87" s="84"/>
-      <c r="F87" s="84"/>
+      <c r="E87" s="87"/>
+      <c r="F87" s="87"/>
       <c r="G87" s="69"/>
       <c r="H87" s="52"/>
     </row>
@@ -11030,13 +11035,13 @@
       <c r="A88" s="51">
         <v>85</v>
       </c>
-      <c r="B88" s="87"/>
-      <c r="C88" s="87"/>
+      <c r="B88" s="95"/>
+      <c r="C88" s="95"/>
       <c r="D88" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="E88" s="84"/>
-      <c r="F88" s="84"/>
+      <c r="E88" s="87"/>
+      <c r="F88" s="87"/>
       <c r="G88" s="69"/>
       <c r="H88" s="52"/>
     </row>
@@ -11044,13 +11049,13 @@
       <c r="A89" s="51">
         <v>86</v>
       </c>
-      <c r="B89" s="88"/>
-      <c r="C89" s="88"/>
+      <c r="B89" s="98"/>
+      <c r="C89" s="98"/>
       <c r="D89" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="E89" s="85"/>
-      <c r="F89" s="85"/>
+      <c r="E89" s="86"/>
+      <c r="F89" s="86"/>
       <c r="G89" s="69"/>
       <c r="H89" s="52"/>
     </row>
@@ -11058,17 +11063,17 @@
       <c r="A90" s="51">
         <v>87</v>
       </c>
-      <c r="B90" s="86"/>
-      <c r="C90" s="86" t="s">
+      <c r="B90" s="94"/>
+      <c r="C90" s="94" t="s">
         <v>169</v>
       </c>
       <c r="D90" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="E90" s="83" t="s">
+      <c r="E90" s="85" t="s">
         <v>284</v>
       </c>
-      <c r="F90" s="83" t="s">
+      <c r="F90" s="85" t="s">
         <v>283</v>
       </c>
       <c r="G90" s="69"/>
@@ -11078,13 +11083,13 @@
       <c r="A91" s="51">
         <v>88</v>
       </c>
-      <c r="B91" s="87"/>
-      <c r="C91" s="87"/>
+      <c r="B91" s="95"/>
+      <c r="C91" s="95"/>
       <c r="D91" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="E91" s="84"/>
-      <c r="F91" s="84"/>
+      <c r="E91" s="87"/>
+      <c r="F91" s="87"/>
       <c r="G91" s="69"/>
       <c r="H91" s="52"/>
     </row>
@@ -11092,13 +11097,13 @@
       <c r="A92" s="51">
         <v>89</v>
       </c>
-      <c r="B92" s="88"/>
-      <c r="C92" s="87"/>
+      <c r="B92" s="98"/>
+      <c r="C92" s="95"/>
       <c r="D92" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="E92" s="85"/>
-      <c r="F92" s="85"/>
+      <c r="E92" s="86"/>
+      <c r="F92" s="86"/>
       <c r="G92" s="69"/>
       <c r="H92" s="52"/>
     </row>
@@ -11106,17 +11111,17 @@
       <c r="A93" s="51">
         <v>90</v>
       </c>
-      <c r="B93" s="86"/>
-      <c r="C93" s="86" t="s">
+      <c r="B93" s="94"/>
+      <c r="C93" s="94" t="s">
         <v>170</v>
       </c>
       <c r="D93" s="43" t="s">
         <v>235</v>
       </c>
-      <c r="E93" s="83" t="s">
+      <c r="E93" s="85" t="s">
         <v>282</v>
       </c>
-      <c r="F93" s="83" t="s">
+      <c r="F93" s="85" t="s">
         <v>283</v>
       </c>
       <c r="G93" s="69"/>
@@ -11126,13 +11131,13 @@
       <c r="A94" s="51">
         <v>91</v>
       </c>
-      <c r="B94" s="87"/>
-      <c r="C94" s="87"/>
+      <c r="B94" s="95"/>
+      <c r="C94" s="95"/>
       <c r="D94" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="E94" s="84"/>
-      <c r="F94" s="84"/>
+      <c r="E94" s="87"/>
+      <c r="F94" s="87"/>
       <c r="G94" s="69"/>
       <c r="H94" s="52"/>
     </row>
@@ -11140,13 +11145,13 @@
       <c r="A95" s="51">
         <v>92</v>
       </c>
-      <c r="B95" s="88"/>
-      <c r="C95" s="87"/>
+      <c r="B95" s="98"/>
+      <c r="C95" s="95"/>
       <c r="D95" s="24" t="s">
         <v>232</v>
       </c>
-      <c r="E95" s="85"/>
-      <c r="F95" s="85"/>
+      <c r="E95" s="86"/>
+      <c r="F95" s="86"/>
       <c r="G95" s="69"/>
       <c r="H95" s="52"/>
     </row>
@@ -11154,17 +11159,17 @@
       <c r="A96" s="51">
         <v>93</v>
       </c>
-      <c r="B96" s="86"/>
-      <c r="C96" s="86" t="s">
+      <c r="B96" s="94"/>
+      <c r="C96" s="94" t="s">
         <v>171</v>
       </c>
       <c r="D96" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="E96" s="83" t="s">
+      <c r="E96" s="85" t="s">
         <v>281</v>
       </c>
-      <c r="F96" s="83" t="s">
+      <c r="F96" s="85" t="s">
         <v>279</v>
       </c>
       <c r="G96" s="69"/>
@@ -11174,13 +11179,13 @@
       <c r="A97" s="51">
         <v>94</v>
       </c>
-      <c r="B97" s="87"/>
-      <c r="C97" s="87"/>
+      <c r="B97" s="95"/>
+      <c r="C97" s="95"/>
       <c r="D97" s="24" t="s">
         <v>298</v>
       </c>
-      <c r="E97" s="84"/>
-      <c r="F97" s="84"/>
+      <c r="E97" s="87"/>
+      <c r="F97" s="87"/>
       <c r="G97" s="69"/>
       <c r="H97" s="52"/>
     </row>
@@ -11188,217 +11193,221 @@
       <c r="A98" s="51">
         <v>95</v>
       </c>
-      <c r="B98" s="88"/>
-      <c r="C98" s="88"/>
+      <c r="B98" s="98"/>
+      <c r="C98" s="98"/>
       <c r="D98" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="E98" s="85"/>
-      <c r="F98" s="85"/>
-      <c r="G98" s="77"/>
+      <c r="E98" s="86"/>
+      <c r="F98" s="86"/>
+      <c r="G98" s="76"/>
       <c r="H98" s="52"/>
     </row>
     <row r="99" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A99" s="51">
         <v>96</v>
       </c>
-      <c r="B99" s="107"/>
-      <c r="C99" s="86" t="s">
+      <c r="B99" s="79"/>
+      <c r="C99" s="94" t="s">
         <v>165</v>
       </c>
       <c r="D99" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="E99" s="75"/>
-      <c r="F99" s="75"/>
-      <c r="G99" s="77"/>
+      <c r="E99" s="85" t="s">
+        <v>299</v>
+      </c>
+      <c r="F99" s="85" t="s">
+        <v>300</v>
+      </c>
+      <c r="G99" s="76"/>
       <c r="H99" s="52"/>
     </row>
     <row r="100" spans="1:8" s="43" customFormat="1" ht="16.5" customHeight="1">
       <c r="A100" s="51">
         <v>97</v>
       </c>
-      <c r="B100" s="108"/>
-      <c r="C100" s="87"/>
+      <c r="B100" s="80"/>
+      <c r="C100" s="95"/>
       <c r="D100" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="E100" s="75"/>
-      <c r="F100" s="75"/>
-      <c r="G100" s="77"/>
+      <c r="E100" s="87"/>
+      <c r="F100" s="87"/>
+      <c r="G100" s="76"/>
       <c r="H100" s="52"/>
     </row>
     <row r="101" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A101" s="51">
         <v>98</v>
       </c>
-      <c r="B101" s="108"/>
-      <c r="C101" s="87"/>
+      <c r="B101" s="80"/>
+      <c r="C101" s="95"/>
       <c r="D101" s="74" t="s">
         <v>249</v>
       </c>
-      <c r="E101" s="75"/>
-      <c r="F101" s="75"/>
-      <c r="G101" s="77"/>
+      <c r="E101" s="87"/>
+      <c r="F101" s="87"/>
+      <c r="G101" s="76"/>
       <c r="H101" s="52"/>
     </row>
     <row r="102" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A102" s="51">
         <v>99</v>
       </c>
-      <c r="B102" s="108"/>
-      <c r="C102" s="87"/>
+      <c r="B102" s="80"/>
+      <c r="C102" s="95"/>
       <c r="D102" s="74" t="s">
         <v>251</v>
       </c>
-      <c r="E102" s="75"/>
-      <c r="F102" s="75"/>
-      <c r="G102" s="77"/>
+      <c r="E102" s="87"/>
+      <c r="F102" s="87"/>
+      <c r="G102" s="76"/>
       <c r="H102" s="52"/>
     </row>
     <row r="103" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A103" s="51">
         <v>100</v>
       </c>
-      <c r="B103" s="108"/>
-      <c r="C103" s="87"/>
+      <c r="B103" s="80"/>
+      <c r="C103" s="95"/>
       <c r="D103" s="74" t="s">
         <v>250</v>
       </c>
-      <c r="E103" s="75"/>
-      <c r="F103" s="75"/>
-      <c r="G103" s="77"/>
+      <c r="E103" s="87"/>
+      <c r="F103" s="87"/>
+      <c r="G103" s="76"/>
       <c r="H103" s="52"/>
     </row>
     <row r="104" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A104" s="51">
         <v>101</v>
       </c>
-      <c r="B104" s="109"/>
-      <c r="C104" s="87"/>
+      <c r="B104" s="81"/>
+      <c r="C104" s="95"/>
       <c r="D104" s="74" t="s">
         <v>252</v>
       </c>
-      <c r="E104" s="75"/>
-      <c r="F104" s="75"/>
-      <c r="G104" s="77"/>
+      <c r="E104" s="86"/>
+      <c r="F104" s="86"/>
+      <c r="G104" s="76"/>
       <c r="H104" s="52"/>
     </row>
     <row r="105" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A105" s="51">
         <v>102</v>
       </c>
-      <c r="B105" s="79"/>
-      <c r="C105" s="78" t="s">
+      <c r="B105" s="78"/>
+      <c r="C105" s="77" t="s">
         <v>172</v>
       </c>
       <c r="D105" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="E105" s="76" t="s">
+      <c r="E105" s="75" t="s">
         <v>278</v>
       </c>
-      <c r="F105" s="76" t="s">
+      <c r="F105" s="75" t="s">
         <v>280</v>
       </c>
-      <c r="G105" s="77"/>
+      <c r="G105" s="76"/>
       <c r="H105" s="52"/>
     </row>
     <row r="106" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A106" s="51">
         <v>103</v>
       </c>
-      <c r="B106" s="92"/>
-      <c r="C106" s="86" t="s">
+      <c r="B106" s="99"/>
+      <c r="C106" s="94" t="s">
         <v>173</v>
       </c>
       <c r="D106" s="73" t="s">
         <v>204</v>
       </c>
-      <c r="E106" s="83" t="s">
+      <c r="E106" s="85" t="s">
         <v>277</v>
       </c>
-      <c r="F106" s="83" t="s">
+      <c r="F106" s="85" t="s">
         <v>279</v>
       </c>
-      <c r="G106" s="77"/>
+      <c r="G106" s="76"/>
       <c r="H106" s="52"/>
     </row>
     <row r="107" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A107" s="51">
         <v>104</v>
       </c>
-      <c r="B107" s="94"/>
-      <c r="C107" s="88"/>
+      <c r="B107" s="100"/>
+      <c r="C107" s="98"/>
       <c r="D107" s="73" t="s">
         <v>205</v>
       </c>
-      <c r="E107" s="85"/>
-      <c r="F107" s="85"/>
-      <c r="G107" s="77"/>
+      <c r="E107" s="86"/>
+      <c r="F107" s="86"/>
+      <c r="G107" s="76"/>
       <c r="H107" s="52"/>
     </row>
     <row r="108" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A108" s="51"/>
       <c r="B108" s="25"/>
-      <c r="C108" s="110" t="s">
+      <c r="C108" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="D108" s="111"/>
-      <c r="E108" s="76"/>
-      <c r="F108" s="76"/>
-      <c r="G108" s="77"/>
+      <c r="D108" s="106"/>
+      <c r="E108" s="75"/>
+      <c r="F108" s="75"/>
+      <c r="G108" s="76"/>
       <c r="H108" s="27"/>
     </row>
     <row r="109" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A109" s="51">
         <v>105</v>
       </c>
-      <c r="B109" s="77" t="s">
+      <c r="B109" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="C109" s="77" t="s">
+      <c r="C109" s="76" t="s">
         <v>50</v>
       </c>
       <c r="D109" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="E109" s="76"/>
-      <c r="F109" s="76" t="s">
+      <c r="E109" s="75"/>
+      <c r="F109" s="75" t="s">
         <v>133</v>
       </c>
-      <c r="G109" s="77"/>
+      <c r="G109" s="76"/>
       <c r="H109" s="27"/>
     </row>
     <row r="110" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A110" s="89">
+      <c r="A110" s="96">
         <v>106</v>
       </c>
-      <c r="B110" s="86" t="s">
+      <c r="B110" s="94" t="s">
         <v>90</v>
       </c>
-      <c r="C110" s="95" t="s">
+      <c r="C110" s="93" t="s">
         <v>55</v>
       </c>
       <c r="D110" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="E110" s="99"/>
-      <c r="F110" s="83" t="s">
+      <c r="E110" s="89"/>
+      <c r="F110" s="85" t="s">
         <v>135</v>
       </c>
       <c r="G110" s="30"/>
       <c r="H110" s="27"/>
     </row>
     <row r="111" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A111" s="91"/>
-      <c r="B111" s="88"/>
-      <c r="C111" s="95"/>
+      <c r="A111" s="101"/>
+      <c r="B111" s="98"/>
+      <c r="C111" s="93"/>
       <c r="D111" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="E111" s="99"/>
-      <c r="F111" s="85"/>
+      <c r="E111" s="89"/>
+      <c r="F111" s="86"/>
       <c r="G111" s="30"/>
       <c r="H111" s="27"/>
     </row>
@@ -11406,17 +11415,17 @@
       <c r="A112" s="29">
         <v>107</v>
       </c>
-      <c r="B112" s="86" t="s">
+      <c r="B112" s="94" t="s">
         <v>91</v>
       </c>
-      <c r="C112" s="95" t="s">
+      <c r="C112" s="93" t="s">
         <v>63</v>
       </c>
       <c r="D112" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="E112" s="99"/>
-      <c r="F112" s="83" t="s">
+      <c r="E112" s="89"/>
+      <c r="F112" s="85" t="s">
         <v>133</v>
       </c>
       <c r="G112" s="30"/>
@@ -11426,13 +11435,13 @@
       <c r="A113" s="29">
         <v>108</v>
       </c>
-      <c r="B113" s="88"/>
-      <c r="C113" s="95"/>
+      <c r="B113" s="98"/>
+      <c r="C113" s="93"/>
       <c r="D113" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E113" s="99"/>
-      <c r="F113" s="85"/>
+      <c r="E113" s="89"/>
+      <c r="F113" s="86"/>
       <c r="G113" s="30"/>
       <c r="H113" s="27"/>
     </row>
@@ -11440,17 +11449,17 @@
       <c r="A114" s="29">
         <v>109</v>
       </c>
-      <c r="B114" s="86" t="s">
+      <c r="B114" s="94" t="s">
         <v>92</v>
       </c>
-      <c r="C114" s="95" t="s">
+      <c r="C114" s="93" t="s">
         <v>51</v>
       </c>
       <c r="D114" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E114" s="99"/>
-      <c r="F114" s="83" t="s">
+      <c r="E114" s="89"/>
+      <c r="F114" s="85" t="s">
         <v>133</v>
       </c>
       <c r="G114" s="30"/>
@@ -11460,13 +11469,13 @@
       <c r="A115" s="51">
         <v>110</v>
       </c>
-      <c r="B115" s="87"/>
-      <c r="C115" s="95"/>
+      <c r="B115" s="95"/>
+      <c r="C115" s="93"/>
       <c r="D115" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="E115" s="99"/>
-      <c r="F115" s="84"/>
+      <c r="E115" s="89"/>
+      <c r="F115" s="87"/>
       <c r="G115" s="30"/>
       <c r="H115" s="32"/>
     </row>
@@ -11474,23 +11483,23 @@
       <c r="A116" s="51">
         <v>111</v>
       </c>
-      <c r="B116" s="88"/>
-      <c r="C116" s="95"/>
+      <c r="B116" s="98"/>
+      <c r="C116" s="93"/>
       <c r="D116" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="E116" s="99"/>
-      <c r="F116" s="85"/>
+      <c r="E116" s="89"/>
+      <c r="F116" s="86"/>
       <c r="G116" s="30"/>
       <c r="H116" s="32"/>
     </row>
     <row r="117" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A117" s="29"/>
       <c r="B117" s="25"/>
-      <c r="C117" s="96" t="s">
+      <c r="C117" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="D117" s="96"/>
+      <c r="D117" s="107"/>
       <c r="E117" s="25"/>
       <c r="F117" s="62"/>
       <c r="G117" s="30"/>
@@ -11500,17 +11509,17 @@
       <c r="A118" s="29">
         <v>112</v>
       </c>
-      <c r="B118" s="86" t="s">
+      <c r="B118" s="94" t="s">
         <v>93</v>
       </c>
-      <c r="C118" s="95" t="s">
+      <c r="C118" s="93" t="s">
         <v>64</v>
       </c>
       <c r="D118" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="E118" s="99"/>
-      <c r="F118" s="83" t="s">
+      <c r="E118" s="89"/>
+      <c r="F118" s="85" t="s">
         <v>136</v>
       </c>
       <c r="G118" s="30"/>
@@ -11520,13 +11529,13 @@
       <c r="A119" s="51">
         <v>113</v>
       </c>
-      <c r="B119" s="87"/>
-      <c r="C119" s="95"/>
+      <c r="B119" s="95"/>
+      <c r="C119" s="93"/>
       <c r="D119" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="E119" s="99"/>
-      <c r="F119" s="84"/>
+      <c r="E119" s="89"/>
+      <c r="F119" s="87"/>
       <c r="G119" s="30"/>
       <c r="H119" s="32"/>
     </row>
@@ -11534,13 +11543,13 @@
       <c r="A120" s="51">
         <v>114</v>
       </c>
-      <c r="B120" s="87"/>
-      <c r="C120" s="95"/>
+      <c r="B120" s="95"/>
+      <c r="C120" s="93"/>
       <c r="D120" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="E120" s="99"/>
-      <c r="F120" s="84"/>
+      <c r="E120" s="89"/>
+      <c r="F120" s="87"/>
       <c r="G120" s="30"/>
       <c r="H120" s="32"/>
     </row>
@@ -11548,13 +11557,13 @@
       <c r="A121" s="51">
         <v>115</v>
       </c>
-      <c r="B121" s="88"/>
-      <c r="C121" s="95"/>
+      <c r="B121" s="98"/>
+      <c r="C121" s="93"/>
       <c r="D121" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="E121" s="99"/>
-      <c r="F121" s="85"/>
+      <c r="E121" s="89"/>
+      <c r="F121" s="86"/>
       <c r="G121" s="30"/>
       <c r="H121" s="32"/>
     </row>
@@ -11581,10 +11590,10 @@
     <row r="123" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A123" s="25"/>
       <c r="B123" s="25"/>
-      <c r="C123" s="96" t="s">
+      <c r="C123" s="107" t="s">
         <v>67</v>
       </c>
-      <c r="D123" s="96"/>
+      <c r="D123" s="107"/>
       <c r="E123" s="25"/>
       <c r="F123" s="62"/>
       <c r="G123" s="30"/>
@@ -11594,17 +11603,17 @@
       <c r="A124" s="31">
         <v>117</v>
       </c>
-      <c r="B124" s="86" t="s">
+      <c r="B124" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="C124" s="95" t="s">
+      <c r="C124" s="93" t="s">
         <v>69</v>
       </c>
       <c r="D124" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="E124" s="99"/>
-      <c r="F124" s="83" t="s">
+      <c r="E124" s="89"/>
+      <c r="F124" s="85" t="s">
         <v>136</v>
       </c>
       <c r="G124" s="30"/>
@@ -11614,13 +11623,13 @@
       <c r="A125" s="40">
         <v>118</v>
       </c>
-      <c r="B125" s="87"/>
-      <c r="C125" s="95"/>
+      <c r="B125" s="95"/>
+      <c r="C125" s="93"/>
       <c r="D125" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="E125" s="99"/>
-      <c r="F125" s="84"/>
+      <c r="E125" s="89"/>
+      <c r="F125" s="87"/>
       <c r="G125" s="30"/>
       <c r="H125" s="32"/>
     </row>
@@ -11628,13 +11637,13 @@
       <c r="A126" s="40">
         <v>119</v>
       </c>
-      <c r="B126" s="88"/>
-      <c r="C126" s="95"/>
+      <c r="B126" s="98"/>
+      <c r="C126" s="93"/>
       <c r="D126" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="E126" s="99"/>
-      <c r="F126" s="85"/>
+      <c r="E126" s="89"/>
+      <c r="F126" s="86"/>
       <c r="G126" s="30"/>
       <c r="H126" s="32"/>
     </row>
@@ -11642,45 +11651,45 @@
       <c r="A127" s="40">
         <v>120</v>
       </c>
-      <c r="B127" s="86" t="s">
+      <c r="B127" s="94" t="s">
         <v>96</v>
       </c>
-      <c r="C127" s="95" t="s">
+      <c r="C127" s="93" t="s">
         <v>71</v>
       </c>
       <c r="D127" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="E127" s="99"/>
-      <c r="F127" s="83" t="s">
+      <c r="E127" s="89"/>
+      <c r="F127" s="85" t="s">
         <v>133</v>
       </c>
       <c r="G127" s="30"/>
       <c r="H127" s="32"/>
     </row>
     <row r="128" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A128" s="83">
+      <c r="A128" s="85">
         <v>121</v>
       </c>
-      <c r="B128" s="87"/>
-      <c r="C128" s="100"/>
+      <c r="B128" s="95"/>
+      <c r="C128" s="92"/>
       <c r="D128" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="E128" s="101"/>
-      <c r="F128" s="84"/>
+      <c r="E128" s="102"/>
+      <c r="F128" s="87"/>
       <c r="G128" s="30"/>
       <c r="H128" s="32"/>
     </row>
     <row r="129" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A129" s="85"/>
-      <c r="B129" s="87"/>
-      <c r="C129" s="100"/>
+      <c r="A129" s="86"/>
+      <c r="B129" s="95"/>
+      <c r="C129" s="92"/>
       <c r="D129" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="E129" s="101"/>
-      <c r="F129" s="84"/>
+      <c r="E129" s="102"/>
+      <c r="F129" s="87"/>
       <c r="G129" s="39"/>
       <c r="H129" s="52"/>
     </row>
@@ -11688,13 +11697,13 @@
       <c r="A130" s="31">
         <v>122</v>
       </c>
-      <c r="B130" s="87"/>
-      <c r="C130" s="95"/>
+      <c r="B130" s="95"/>
+      <c r="C130" s="93"/>
       <c r="D130" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="E130" s="99"/>
-      <c r="F130" s="84"/>
+      <c r="E130" s="89"/>
+      <c r="F130" s="87"/>
       <c r="G130" s="30"/>
       <c r="H130" s="32"/>
     </row>
@@ -11702,23 +11711,23 @@
       <c r="A131" s="31">
         <v>123</v>
       </c>
-      <c r="B131" s="88"/>
-      <c r="C131" s="95"/>
+      <c r="B131" s="98"/>
+      <c r="C131" s="93"/>
       <c r="D131" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="E131" s="99"/>
-      <c r="F131" s="85"/>
+      <c r="E131" s="89"/>
+      <c r="F131" s="86"/>
       <c r="G131" s="30"/>
       <c r="H131" s="32"/>
     </row>
     <row r="132" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A132" s="25"/>
       <c r="B132" s="25"/>
-      <c r="C132" s="96" t="s">
+      <c r="C132" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="D132" s="96"/>
+      <c r="D132" s="107"/>
       <c r="E132" s="25"/>
       <c r="F132" s="62"/>
       <c r="G132" s="30"/>
@@ -11765,34 +11774,34 @@
       <c r="H134" s="32"/>
     </row>
     <row r="135" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A135" s="83">
+      <c r="A135" s="85">
         <v>126</v>
       </c>
-      <c r="B135" s="86" t="s">
+      <c r="B135" s="94" t="s">
         <v>99</v>
       </c>
-      <c r="C135" s="95" t="s">
+      <c r="C135" s="93" t="s">
         <v>68</v>
       </c>
       <c r="D135" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E135" s="99"/>
-      <c r="F135" s="83" t="s">
+      <c r="E135" s="89"/>
+      <c r="F135" s="85" t="s">
         <v>133</v>
       </c>
       <c r="G135" s="30"/>
       <c r="H135" s="32"/>
     </row>
     <row r="136" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A136" s="85"/>
-      <c r="B136" s="88"/>
-      <c r="C136" s="95"/>
+      <c r="A136" s="86"/>
+      <c r="B136" s="98"/>
+      <c r="C136" s="93"/>
       <c r="D136" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="E136" s="99"/>
-      <c r="F136" s="85"/>
+      <c r="E136" s="89"/>
+      <c r="F136" s="86"/>
       <c r="G136" s="30"/>
       <c r="H136" s="32"/>
     </row>
@@ -11800,17 +11809,17 @@
       <c r="A137" s="31">
         <v>127</v>
       </c>
-      <c r="B137" s="86" t="s">
+      <c r="B137" s="94" t="s">
         <v>100</v>
       </c>
-      <c r="C137" s="95" t="s">
+      <c r="C137" s="93" t="s">
         <v>23</v>
       </c>
       <c r="D137" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E137" s="99"/>
-      <c r="F137" s="83" t="s">
+      <c r="E137" s="89"/>
+      <c r="F137" s="85" t="s">
         <v>133</v>
       </c>
       <c r="G137" s="30"/>
@@ -11820,161 +11829,161 @@
       <c r="A138" s="31">
         <v>128</v>
       </c>
-      <c r="B138" s="88"/>
-      <c r="C138" s="95"/>
+      <c r="B138" s="98"/>
+      <c r="C138" s="93"/>
       <c r="D138" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="E138" s="99"/>
-      <c r="F138" s="85"/>
+      <c r="E138" s="89"/>
+      <c r="F138" s="86"/>
       <c r="G138" s="30"/>
       <c r="H138" s="32"/>
     </row>
     <row r="139" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A139" s="83">
+      <c r="A139" s="85">
         <v>129</v>
       </c>
-      <c r="B139" s="86" t="s">
+      <c r="B139" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="C139" s="100" t="s">
+      <c r="C139" s="92" t="s">
         <v>29</v>
       </c>
       <c r="D139" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="E139" s="101"/>
-      <c r="F139" s="83" t="s">
+      <c r="E139" s="102"/>
+      <c r="F139" s="85" t="s">
         <v>133</v>
       </c>
       <c r="G139" s="30"/>
       <c r="H139" s="32"/>
     </row>
     <row r="140" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A140" s="85"/>
-      <c r="B140" s="87"/>
-      <c r="C140" s="100"/>
+      <c r="A140" s="86"/>
+      <c r="B140" s="95"/>
+      <c r="C140" s="92"/>
       <c r="D140" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="E140" s="101"/>
-      <c r="F140" s="84"/>
+      <c r="E140" s="102"/>
+      <c r="F140" s="87"/>
       <c r="G140" s="39"/>
       <c r="H140" s="52"/>
     </row>
     <row r="141" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A141" s="83">
+      <c r="A141" s="85">
         <v>130</v>
       </c>
-      <c r="B141" s="87"/>
-      <c r="C141" s="95"/>
+      <c r="B141" s="95"/>
+      <c r="C141" s="93"/>
       <c r="D141" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="E141" s="99"/>
-      <c r="F141" s="84"/>
+      <c r="E141" s="89"/>
+      <c r="F141" s="87"/>
       <c r="G141" s="30"/>
       <c r="H141" s="32"/>
     </row>
     <row r="142" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A142" s="84"/>
-      <c r="B142" s="87"/>
-      <c r="C142" s="95"/>
+      <c r="A142" s="87"/>
+      <c r="B142" s="95"/>
+      <c r="C142" s="93"/>
       <c r="D142" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="E142" s="99"/>
-      <c r="F142" s="84"/>
+      <c r="E142" s="89"/>
+      <c r="F142" s="87"/>
       <c r="G142" s="30"/>
       <c r="H142" s="32"/>
     </row>
     <row r="143" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A143" s="84"/>
-      <c r="B143" s="87"/>
-      <c r="C143" s="95"/>
+      <c r="A143" s="87"/>
+      <c r="B143" s="95"/>
+      <c r="C143" s="93"/>
       <c r="D143" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="E143" s="99"/>
-      <c r="F143" s="84"/>
+      <c r="E143" s="89"/>
+      <c r="F143" s="87"/>
       <c r="G143" s="30"/>
       <c r="H143" s="32"/>
     </row>
     <row r="144" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A144" s="84"/>
-      <c r="B144" s="87"/>
-      <c r="C144" s="95"/>
+      <c r="A144" s="87"/>
+      <c r="B144" s="95"/>
+      <c r="C144" s="93"/>
       <c r="D144" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="E144" s="99"/>
-      <c r="F144" s="84"/>
+      <c r="E144" s="89"/>
+      <c r="F144" s="87"/>
       <c r="G144" s="30"/>
       <c r="H144" s="32"/>
     </row>
     <row r="145" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A145" s="84"/>
-      <c r="B145" s="87"/>
-      <c r="C145" s="95"/>
+      <c r="A145" s="87"/>
+      <c r="B145" s="95"/>
+      <c r="C145" s="93"/>
       <c r="D145" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="E145" s="99"/>
-      <c r="F145" s="84"/>
+      <c r="E145" s="89"/>
+      <c r="F145" s="87"/>
       <c r="G145" s="30"/>
       <c r="H145" s="32"/>
     </row>
     <row r="146" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A146" s="85"/>
-      <c r="B146" s="88"/>
-      <c r="C146" s="95"/>
+      <c r="A146" s="86"/>
+      <c r="B146" s="98"/>
+      <c r="C146" s="93"/>
       <c r="D146" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="E146" s="99"/>
-      <c r="F146" s="85"/>
+      <c r="E146" s="89"/>
+      <c r="F146" s="86"/>
       <c r="G146" s="30"/>
       <c r="H146" s="32"/>
     </row>
     <row r="147" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A147" s="83">
+      <c r="A147" s="85">
         <v>131</v>
       </c>
-      <c r="B147" s="86" t="s">
+      <c r="B147" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="C147" s="95" t="s">
+      <c r="C147" s="93" t="s">
         <v>27</v>
       </c>
       <c r="D147" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E147" s="99"/>
-      <c r="F147" s="83" t="s">
+      <c r="E147" s="89"/>
+      <c r="F147" s="85" t="s">
         <v>135</v>
       </c>
       <c r="G147" s="30"/>
       <c r="H147" s="32"/>
     </row>
     <row r="148" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A148" s="85"/>
-      <c r="B148" s="88"/>
-      <c r="C148" s="95"/>
+      <c r="A148" s="86"/>
+      <c r="B148" s="98"/>
+      <c r="C148" s="93"/>
       <c r="D148" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="E148" s="99"/>
-      <c r="F148" s="85"/>
+      <c r="E148" s="89"/>
+      <c r="F148" s="86"/>
       <c r="G148" s="30"/>
       <c r="H148" s="32"/>
     </row>
     <row r="149" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A149" s="22"/>
       <c r="B149" s="30"/>
-      <c r="C149" s="96" t="s">
+      <c r="C149" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="D149" s="96"/>
+      <c r="D149" s="107"/>
       <c r="E149" s="22"/>
       <c r="F149" s="62"/>
       <c r="G149" s="30"/>
@@ -12044,17 +12053,17 @@
       <c r="A153" s="31">
         <v>135</v>
       </c>
-      <c r="B153" s="86" t="s">
+      <c r="B153" s="94" t="s">
         <v>124</v>
       </c>
-      <c r="C153" s="95" t="s">
+      <c r="C153" s="93" t="s">
         <v>24</v>
       </c>
       <c r="D153" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E153" s="99"/>
-      <c r="F153" s="83" t="s">
+      <c r="E153" s="89"/>
+      <c r="F153" s="85" t="s">
         <v>138</v>
       </c>
       <c r="G153" s="30"/>
@@ -12064,13 +12073,13 @@
       <c r="A154" s="31">
         <v>136</v>
       </c>
-      <c r="B154" s="87"/>
-      <c r="C154" s="95"/>
+      <c r="B154" s="95"/>
+      <c r="C154" s="93"/>
       <c r="D154" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="E154" s="99"/>
-      <c r="F154" s="84"/>
+      <c r="E154" s="89"/>
+      <c r="F154" s="87"/>
       <c r="G154" s="30"/>
       <c r="H154" s="32"/>
     </row>
@@ -12078,13 +12087,13 @@
       <c r="A155" s="31">
         <v>137</v>
       </c>
-      <c r="B155" s="87"/>
-      <c r="C155" s="95"/>
+      <c r="B155" s="95"/>
+      <c r="C155" s="93"/>
       <c r="D155" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="E155" s="99"/>
-      <c r="F155" s="84"/>
+      <c r="E155" s="89"/>
+      <c r="F155" s="87"/>
       <c r="G155" s="30"/>
       <c r="H155" s="32"/>
     </row>
@@ -12092,13 +12101,13 @@
       <c r="A156" s="31">
         <v>138</v>
       </c>
-      <c r="B156" s="88"/>
-      <c r="C156" s="95"/>
+      <c r="B156" s="98"/>
+      <c r="C156" s="93"/>
       <c r="D156" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E156" s="99"/>
-      <c r="F156" s="85"/>
+      <c r="E156" s="89"/>
+      <c r="F156" s="86"/>
       <c r="G156" s="30"/>
       <c r="H156" s="32"/>
     </row>
@@ -12335,18 +12344,113 @@
       <c r="F189" s="67"/>
     </row>
   </sheetData>
-  <mergeCells count="139">
-    <mergeCell ref="F147:F148"/>
-    <mergeCell ref="F153:F156"/>
-    <mergeCell ref="F124:F126"/>
-    <mergeCell ref="F127:F131"/>
-    <mergeCell ref="F135:F136"/>
-    <mergeCell ref="F137:F138"/>
-    <mergeCell ref="F139:F146"/>
-    <mergeCell ref="F110:F111"/>
-    <mergeCell ref="F112:F113"/>
-    <mergeCell ref="F114:F116"/>
-    <mergeCell ref="F118:F121"/>
+  <mergeCells count="141">
+    <mergeCell ref="F96:F98"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="E85:E89"/>
+    <mergeCell ref="F85:F89"/>
+    <mergeCell ref="E90:E92"/>
+    <mergeCell ref="F90:F92"/>
+    <mergeCell ref="E93:E95"/>
+    <mergeCell ref="F93:F95"/>
+    <mergeCell ref="E99:E104"/>
+    <mergeCell ref="F99:F104"/>
+    <mergeCell ref="E4:E13"/>
+    <mergeCell ref="F4:F13"/>
+    <mergeCell ref="E14:E21"/>
+    <mergeCell ref="F14:F21"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="F25:F34"/>
+    <mergeCell ref="F46:F51"/>
+    <mergeCell ref="E46:E51"/>
+    <mergeCell ref="E25:E34"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="A141:A146"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="C14:C21"/>
+    <mergeCell ref="C57:C61"/>
+    <mergeCell ref="B25:B34"/>
+    <mergeCell ref="C52:C56"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="C96:C98"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="C85:C89"/>
+    <mergeCell ref="C90:C92"/>
+    <mergeCell ref="C93:C95"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="C74:C80"/>
+    <mergeCell ref="C65:C69"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="B65:B69"/>
+    <mergeCell ref="C35:C41"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="B153:B156"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="B124:B126"/>
+    <mergeCell ref="B127:B131"/>
+    <mergeCell ref="C153:C156"/>
+    <mergeCell ref="C114:C116"/>
+    <mergeCell ref="C118:C121"/>
+    <mergeCell ref="C124:C126"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="C149:D149"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="B139:B146"/>
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="B35:B41"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="C46:C51"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="B74:B80"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="B85:B89"/>
+    <mergeCell ref="B90:B92"/>
+    <mergeCell ref="E147:E148"/>
+    <mergeCell ref="E153:E156"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="C127:C131"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="C139:C146"/>
+    <mergeCell ref="E114:E116"/>
+    <mergeCell ref="E118:E121"/>
+    <mergeCell ref="E124:E126"/>
+    <mergeCell ref="E127:E131"/>
+    <mergeCell ref="E135:E136"/>
+    <mergeCell ref="E137:E138"/>
+    <mergeCell ref="E139:E146"/>
+    <mergeCell ref="E52:E56"/>
+    <mergeCell ref="E57:E61"/>
+    <mergeCell ref="E62:E64"/>
+    <mergeCell ref="E65:E69"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="E74:E80"/>
+    <mergeCell ref="E96:E98"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="E42:E45"/>
     <mergeCell ref="E110:E111"/>
@@ -12371,110 +12475,17 @@
     <mergeCell ref="F74:F80"/>
     <mergeCell ref="B46:B51"/>
     <mergeCell ref="C99:C104"/>
-    <mergeCell ref="E147:E148"/>
-    <mergeCell ref="E153:E156"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="C127:C131"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="C137:C138"/>
-    <mergeCell ref="C139:C146"/>
-    <mergeCell ref="E114:E116"/>
-    <mergeCell ref="E118:E121"/>
-    <mergeCell ref="E124:E126"/>
-    <mergeCell ref="E127:E131"/>
-    <mergeCell ref="E135:E136"/>
-    <mergeCell ref="E137:E138"/>
-    <mergeCell ref="E139:E146"/>
-    <mergeCell ref="E52:E56"/>
-    <mergeCell ref="E57:E61"/>
-    <mergeCell ref="E62:E64"/>
-    <mergeCell ref="E65:E69"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="E74:E80"/>
-    <mergeCell ref="B52:B56"/>
-    <mergeCell ref="B35:B41"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C46:C51"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="B74:B80"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="B85:B89"/>
-    <mergeCell ref="B90:B92"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="B153:B156"/>
-    <mergeCell ref="B118:B121"/>
-    <mergeCell ref="B124:B126"/>
-    <mergeCell ref="B127:B131"/>
-    <mergeCell ref="C153:C156"/>
-    <mergeCell ref="C114:C116"/>
-    <mergeCell ref="C118:C121"/>
-    <mergeCell ref="C124:C126"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="C149:D149"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="B139:B146"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="A141:A146"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="A128:A129"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="C14:C21"/>
-    <mergeCell ref="C57:C61"/>
-    <mergeCell ref="B25:B34"/>
-    <mergeCell ref="C52:C56"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="C96:C98"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="C85:C89"/>
-    <mergeCell ref="C90:C92"/>
-    <mergeCell ref="C93:C95"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="C74:C80"/>
-    <mergeCell ref="C65:C69"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="B65:B69"/>
-    <mergeCell ref="E4:E13"/>
-    <mergeCell ref="F4:F13"/>
-    <mergeCell ref="E14:E21"/>
-    <mergeCell ref="F14:F21"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="F25:F34"/>
-    <mergeCell ref="F46:F51"/>
-    <mergeCell ref="E46:E51"/>
-    <mergeCell ref="C35:C41"/>
-    <mergeCell ref="E25:E34"/>
-    <mergeCell ref="E96:E98"/>
-    <mergeCell ref="F96:F98"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="F106:F107"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="E85:E89"/>
-    <mergeCell ref="F85:F89"/>
-    <mergeCell ref="E90:E92"/>
-    <mergeCell ref="F90:F92"/>
-    <mergeCell ref="E93:E95"/>
-    <mergeCell ref="F93:F95"/>
+    <mergeCell ref="F147:F148"/>
+    <mergeCell ref="F153:F156"/>
+    <mergeCell ref="F124:F126"/>
+    <mergeCell ref="F127:F131"/>
+    <mergeCell ref="F135:F136"/>
+    <mergeCell ref="F137:F138"/>
+    <mergeCell ref="F139:F146"/>
+    <mergeCell ref="F110:F111"/>
+    <mergeCell ref="F112:F113"/>
+    <mergeCell ref="F114:F116"/>
+    <mergeCell ref="F118:F121"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -12520,7 +12531,7 @@
       <c r="D8" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="E8" s="105" t="s">
+      <c r="E8" s="109" t="s">
         <v>83</v>
       </c>
     </row>
@@ -12528,13 +12539,13 @@
       <c r="D9" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="E9" s="105"/>
+      <c r="E9" s="109"/>
     </row>
     <row r="10" spans="4:5">
       <c r="D10" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="E10" s="106"/>
+      <c r="E10" s="110"/>
     </row>
     <row r="14" spans="4:5" ht="12.75" thickBot="1">
       <c r="D14" s="35" t="s">
@@ -12548,7 +12559,7 @@
       <c r="D15" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="E15" s="105" t="s">
+      <c r="E15" s="109" t="s">
         <v>83</v>
       </c>
     </row>
@@ -12556,13 +12567,13 @@
       <c r="D16" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="E16" s="105"/>
+      <c r="E16" s="109"/>
     </row>
     <row r="17" spans="4:5">
       <c r="D17" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="E17" s="106"/>
+      <c r="E17" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/문서 관리/01. 요구사항명세서.xlsx
+++ b/문서 관리/01. 요구사항명세서.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="307">
   <si>
     <t>시스템 운영상 교육이 필요하다고 판단되어 발주기관이 교육요구 시 협의를 통해 교육 시행</t>
   </si>
@@ -748,82 +748,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>회원가입 시 개인정보 수집</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>〮</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림체"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 동의 및 본인 확인 절차 필요</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>회원가입 시 ID, 비밀번호, 비밀번호 확인, 이름, 성별, 내</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>〮</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림체"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>외국인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>, 연락처, 생년월일, 이메일, 주소, 학교명 필수 입력</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호는 특수문자, 숫자 등을 포함하여 8자리 이상, 15자의 이하로 구성되고, 양식에 맞지 않을 경우 입력창 아래 '비밀번호가 맞지 않습니다' 문구 출력</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>회원가입시 해당 전화번호로 본인인증 수행 (* 이메일 인증으로 대체 가능)</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -832,19 +756,11 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>회원가입 시 필수 입력사항을 입력하지 않았을 시, 입력란 우측에 '* 필수입력사항 입니다' 문구 출력</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>로그인 실패시 로그인창 하단에 실패원인 메세지 출력</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>본인인증 미완료시 서비스 이용 부분 제한</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>없는 계정으로 로그인 시 '등록되지 않은 계정입니다. 회원가입 후 이용해주세요.' 팝업창 출력</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -1004,42 +920,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>전문상담(교사) 회원에 한해 스윗(Sweet) 확인, 닉네임 등록</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>〮</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림체"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>, 작성 게시글/댓글 확인 기능 제공</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>본인이 작성한 게시글 및 답변글 확인 및 수정 기능</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1048,10 +928,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>본인의 자가진단검사 결과 확인 가능</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1080,42 +956,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>내담자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>〮</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림체"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>보호자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 상담동의서, 상담 확정 안내 전송 관리</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>카카오톡 채널을 통해 자주 묻는 질문에 대한 답변 제공</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1124,10 +964,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>검색결과로 나타난 기관의 위치 클릭 시 기관 상세 정보 제공</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>지역별 카테고리에서 특정 지역 선택 시 해당 지역에 위치한 센터의 위치정보를 지도 형태로 출력</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1136,42 +972,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>상담 통계에서 전체</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>〮</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림체"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>센터의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 신청자, 내담자, 게시판 상담, 상담 만족도 검사 상담 통계 정보 제공</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>회원 대상으로 검사사용 현황(검사/연령/상황별) 및 마음건강검사 통계 정보 제공</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1184,162 +984,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">심리상담 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">· </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">생명존중 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">· </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">성 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">· </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">중독 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">· </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>도박</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>아동·청소년</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>지원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>관련</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 기관의 기관명, 연락처 제공</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>배너 클릭 시 해당 유관기관 사이트로 이동</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1348,170 +992,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>전문상담</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>교</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사 회원은 닉네임 등록</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수정 기능 제공</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>게시글 목록은 최신순</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>추천순 등 보기 방식을 변경하여 조회 가능</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>게시글마다 첨부파일 업로드</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>다운로드 기능</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>전문상담</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>교</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사 권한의 계정만 접근가능 게시판</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>학교 업무 공유 게시판, 상담 전문성 공유 게시판, 서식 공유 게시판, 자유 게시판의 하위 메뉴로 구성</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1520,118 +1000,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>좋아요</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>유익해요</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>재밌어요</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>추천해요 등 이모티콘 활용 가능</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>전국에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 위치한 Wee-Network의 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">위치를 지도 형태로 제공, 지도 선택 시 기관 소개 내용 및 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">URL 등 상세 정보 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>제공</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>공지사항에 기관별, 제목, 내용 검색 기능 제공</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1640,10 +1008,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>QnA 메뉴를 통해 서비스 관련 1대1 문의 기능</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>서비스 이용 불만사항 건의 및 불량 사용자에 대한 신고 기능 제공</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1672,10 +1036,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>제시된 상황 선택 시 관련 검사 제공</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>비회원의 경우 개인정보 수집 및 활용 동의 후 심리검사 서비스 이용 가능</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1684,10 +1044,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>비회원의 경우 서비스 이용 불가</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>내담자가 14세 미만인 경우 보호자 상담동의서 선택 기능</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1696,14 +1052,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>탈퇴 신청 회원의 경우 개인정보 30일 보관 이후 영구 삭제</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 탈퇴 계정과 동일 아이디로 재회원가입 제한</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>퀵 메뉴 및 바로가기 아이콘 제공</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1735,113 +1083,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>기획</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>디자인 콘텐츠는 카드뉴스 형식으로 구현</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>위</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">(Wee), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>위네트워크</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(Wee-Network)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>를 탭으로 구성</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>센터별 교육</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>〮</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림체"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>연수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 일정 정보 제공</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>게시판별 연계가 가능하여 모든 게시판에서 확인 가능</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1850,92 +1091,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>서울</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 위(Wee) 센터 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>위치를 지도화하여</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>지도 선택시 위</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(Wee)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">센터 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>26</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>개소의 소개 및 내용 제공</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>공지사항에 전체·26개소에 따른 교육·연수·행사·기타 등록 및 신청자 접수 기능 구현</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1944,32 +1099,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>서울 위플</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">(Weepl) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>앱 서비스 관련 문의 응대</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>마음건강검사 페이지 이동</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1978,32 +1107,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>서울 위</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">(Wee) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>센터 관련 문의 응대</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>카테고리는 대인관계〮학교생활〮마음건강〮위기〮일탈로 구분하여 선택 시 상세 콘텐츠 제공</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -2028,10 +1131,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>게시판 상담은 비대면 상담 신청과 별도로 분리하여 신청</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>FUR-003</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -2193,6 +1292,145 @@
   </si>
   <si>
     <t>공통</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호는 특수문자, 숫자 등을 포함하여 8자리 이상, 15자의 이하로 구성되고, 양식에 맞지 않을 경우 입력창 아래 '비밀번호가 맞지 않습니다' 붉은색 문구 출력</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 탈퇴 계정과 동일한 아이디로 일정 기간 회원가입 제한</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈퇴 신청 계정으로 로그인 시도 시 '탈퇴 신청한 계정입니다. 계정을 복구하시겠습니까?' 팝업 창 출력</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 시 개인정보 수집〮이용 동의 및 본인 확인 절차 필요</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>전문상담(교사) 회원에 한해 스윗(Sweet) 확인, 닉네임 등록〮수정, 작성 게시글/댓글 확인 기능 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 위(Wee) 센터 위치를 지도화하여 지도 선택시 위(Wee)센터 26개소의 소개 및 내용 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>센터별 교육〮연수 일정 정보 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>위(Wee), 위네트워크(Wee-Network)를 탭으로 구성</t>
+  </si>
+  <si>
+    <t>전문상담(교)사 회원은 닉네임 등록·수정 기능 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아요, 유익해요, 재밌어요, 추천해요 등 이모티콘 활용 가능</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>전국에 위치한 Wee-Network의 위치를 지도 형태로 제공, 지도 선택 시 기관 소개 내용 및 URL 등 상세 정보 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획·디자인 콘텐츠는 카드뉴스 형식으로 구현</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>내담자〮보호자 상담동의서, 상담 확정 안내 전송 관리</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글마다 첨부파일 업로드·다운로드 기능</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 위(Wee) 센터 관련 문의 응대</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 시 ID, 비밀번호, 비밀번호 확인, 이름, 성별, 내〮외국인, 연락처, 생년월일, 이메일, 주소, 학교명 필수 입력</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 목록은 최신순·추천순 등 보기 방식을 변경하여 조회 가능</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>상담 통계에서 전체〮센터의 신청자, 내담자, 게시판 상담, 상담 만족도 검사 상담 통계 정보 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 위플(Weepl) 앱 서비스 관련 문의에 대한 답변 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 안전도는 한글, 영문만 포함 시 낮음, 한글, 영문, 숫자 포함 시 보통, 한글, 영문, 숫자, 특수문자 포함 시 높음으로 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 시 필수 입력사항을 입력하지 않았을 시, 입력란 우측 또는 하단에 '* 필수입력사항 입니다' 붉은색 문구 출력</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>본인이 참여한 마음건강검사에 대해 자가진단검사 결과 확인 가능</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>비회원의 경우 상담 신청 서비스 이용 불가, '로그인 후 이용해주세요' 팝업 창 출력 후 로그인 페이지로 전환</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>QnA 메뉴를 통해 1대1 문의 기능 구현</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>심리상담·생명존중·성·중독·도박, 아동·청소년 지원 관련 기관의 기관명, 연락처 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈퇴 신청 회원의 경우 개인정보 30일 유예기간 및 기간 내 계정 복구 가능, 30일 이후 해당 계정 영구 삭제</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>상담 신청 현황에 따라 '예약 완료', '예약 취소', '상담 확정', '상담 진행', '상담 중단', '상담 완료'로 구분하여 상담 상태 정보 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>상담 완료' 상태의 상담의 경우 상담 만족도 검사 페이지로 연결되는 버튼 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>키워드 검색, 카테고리별 검색이 가능한 검색 툴 구현</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>전문상담(교)사 권한으로 로그인된 계정만 이용할 수 있도록 구현</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 상담은 비대면 상담 신청과 별도로 분리하여 신청할 수 있도록 구현</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>없는 계정으로 로그인 시 '등록되지 않은 계정입니다. 회원가입 후 이용해주세요.' 팝업 창 출력</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이드 바는 화면 스크롤 위치에 따라 페이지 측면에 항상 위치하도록 구현</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색결과로 나타난 기관의 위치 클릭 시 기관 상세 정보를 해당 위치에서 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>제시된 상황 선택 시 관련 상황별 검사 제공</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -2368,7 +1606,7 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
+      <name val="굴림체"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -2637,7 +1875,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2857,12 +2095,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2884,6 +2116,18 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2896,28 +2140,28 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2926,25 +2170,19 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2959,10 +2197,16 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2970,6 +2214,15 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4420,13 +3673,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4491,13 +3744,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4562,13 +3815,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4633,13 +3886,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4704,13 +3957,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4775,13 +4028,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4846,13 +4099,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4917,13 +4170,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4988,13 +4241,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5059,13 +4312,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5130,13 +4383,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5201,13 +4454,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5272,13 +4525,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5343,13 +4596,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5414,13 +4667,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5485,13 +4738,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5556,13 +4809,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5627,13 +4880,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5698,13 +4951,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5769,13 +5022,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5840,13 +5093,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5911,13 +5164,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5982,13 +5235,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6053,13 +5306,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6124,13 +5377,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6195,13 +5448,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6266,13 +5519,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6337,13 +5590,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6408,13 +5661,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6479,13 +5732,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6550,13 +5803,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6621,13 +5874,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6692,13 +5945,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6763,13 +6016,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6834,13 +6087,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6905,13 +6158,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6976,13 +6229,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7047,13 +6300,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7118,13 +6371,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7189,13 +6442,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7260,13 +6513,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7331,13 +6584,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7402,13 +6655,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7473,13 +6726,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7544,13 +6797,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7615,13 +6868,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7686,13 +6939,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7757,13 +7010,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7828,13 +7081,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7899,13 +7152,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7970,13 +7223,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8041,13 +7294,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8112,13 +7365,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8183,13 +7436,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8254,13 +7507,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8325,13 +7578,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8396,13 +7649,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8467,13 +7720,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8538,13 +7791,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8609,13 +7862,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8680,13 +7933,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8751,13 +8004,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8822,13 +8075,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8893,13 +8146,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9505,22 +8758,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" customHeight="1">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
     </row>
     <row r="2" spans="1:4" ht="21" customHeight="1">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="84" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="84"/>
+      <c r="D2" s="86"/>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="15" t="s">
@@ -9670,10 +8923,10 @@
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H189"/>
+  <dimension ref="A1:H195"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B13"/>
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21" customHeight="1"/>
@@ -9689,28 +8942,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
     </row>
     <row r="2" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="110" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="90" t="s">
-        <v>187</v>
-      </c>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="109" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
       <c r="G2" s="19" t="s">
         <v>14</v>
       </c>
@@ -9746,19 +8999,19 @@
       <c r="A4" s="51">
         <v>1</v>
       </c>
-      <c r="B4" s="96" t="s">
-        <v>260</v>
-      </c>
-      <c r="C4" s="94" t="s">
+      <c r="B4" s="90" t="s">
+        <v>231</v>
+      </c>
+      <c r="C4" s="96" t="s">
         <v>139</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="E4" s="96" t="s">
-        <v>266</v>
-      </c>
-      <c r="F4" s="96" t="s">
+        <v>287</v>
+      </c>
+      <c r="E4" s="90" t="s">
+        <v>237</v>
+      </c>
+      <c r="F4" s="90" t="s">
         <v>134</v>
       </c>
       <c r="G4" s="51"/>
@@ -9768,13 +9021,13 @@
       <c r="A5" s="51">
         <v>2</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="95"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="97"/>
       <c r="D5" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
+        <v>275</v>
+      </c>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
       <c r="G5" s="39"/>
       <c r="H5" s="52"/>
     </row>
@@ -9782,13 +9035,13 @@
       <c r="A6" s="51">
         <v>3</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="95"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="97"/>
       <c r="D6" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
+        <v>292</v>
+      </c>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
       <c r="G6" s="39"/>
       <c r="H6" s="52"/>
     </row>
@@ -9796,13 +9049,13 @@
       <c r="A7" s="51">
         <v>4</v>
       </c>
-      <c r="B7" s="97"/>
-      <c r="C7" s="95"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="97"/>
       <c r="D7" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
       <c r="G7" s="39"/>
       <c r="H7" s="52"/>
     </row>
@@ -9810,13 +9063,13 @@
       <c r="A8" s="51">
         <v>5</v>
       </c>
-      <c r="B8" s="97"/>
-      <c r="C8" s="95"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="97"/>
       <c r="D8" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
+        <v>144</v>
+      </c>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
       <c r="G8" s="30"/>
       <c r="H8" s="32"/>
     </row>
@@ -9824,13 +9077,13 @@
       <c r="A9" s="51">
         <v>6</v>
       </c>
-      <c r="B9" s="97"/>
-      <c r="C9" s="95"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="97"/>
       <c r="D9" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="E9" s="97"/>
-      <c r="F9" s="97"/>
+        <v>143</v>
+      </c>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
       <c r="G9" s="30"/>
       <c r="H9" s="32"/>
     </row>
@@ -9838,2344 +9091,2366 @@
       <c r="A10" s="51">
         <v>7</v>
       </c>
-      <c r="B10" s="97"/>
-      <c r="C10" s="95"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="97"/>
       <c r="D10" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="E10" s="97"/>
-      <c r="F10" s="97"/>
+        <v>272</v>
+      </c>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
       <c r="G10" s="30"/>
       <c r="H10" s="32"/>
     </row>
     <row r="11" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="51">
-        <v>8</v>
-      </c>
-      <c r="B11" s="97"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="E11" s="97"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="32"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="52"/>
     </row>
     <row r="12" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A12" s="51">
-        <v>9</v>
-      </c>
-      <c r="B12" s="97"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="E12" s="97"/>
-      <c r="F12" s="97"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="91"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
       <c r="G12" s="30"/>
       <c r="H12" s="32"/>
     </row>
     <row r="13" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A13" s="51">
-        <v>10</v>
-      </c>
-      <c r="B13" s="97"/>
-      <c r="D13" s="63" t="s">
-        <v>150</v>
-      </c>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="91"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
       <c r="G13" s="30"/>
       <c r="H13" s="32"/>
     </row>
     <row r="14" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A14" s="51">
-        <v>11</v>
-      </c>
-      <c r="B14" s="96" t="s">
-        <v>261</v>
-      </c>
-      <c r="C14" s="94" t="s">
-        <v>140</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="E14" s="99" t="s">
-        <v>265</v>
-      </c>
-      <c r="F14" s="85" t="s">
-        <v>132</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B14" s="91"/>
+      <c r="D14" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
       <c r="G14" s="30"/>
       <c r="H14" s="32"/>
     </row>
     <row r="15" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A15" s="51">
-        <v>12</v>
-      </c>
-      <c r="B15" s="97"/>
-      <c r="C15" s="95"/>
+        <v>11</v>
+      </c>
+      <c r="B15" s="90" t="s">
+        <v>232</v>
+      </c>
+      <c r="C15" s="96" t="s">
+        <v>140</v>
+      </c>
       <c r="D15" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="108"/>
-      <c r="F15" s="87"/>
+        <v>141</v>
+      </c>
+      <c r="E15" s="93" t="s">
+        <v>236</v>
+      </c>
+      <c r="F15" s="87" t="s">
+        <v>132</v>
+      </c>
       <c r="G15" s="30"/>
       <c r="H15" s="32"/>
     </row>
     <row r="16" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A16" s="51">
-        <v>13</v>
-      </c>
-      <c r="B16" s="97"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="E16" s="108"/>
-      <c r="F16" s="87"/>
+        <v>12</v>
+      </c>
+      <c r="B16" s="91"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="94"/>
+      <c r="F16" s="88"/>
       <c r="G16" s="30"/>
       <c r="H16" s="32"/>
     </row>
     <row r="17" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A17" s="51">
-        <v>14</v>
-      </c>
-      <c r="B17" s="97"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="E17" s="108"/>
-      <c r="F17" s="87"/>
+        <v>13</v>
+      </c>
+      <c r="B17" s="91"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="E17" s="94"/>
+      <c r="F17" s="88"/>
       <c r="G17" s="30"/>
       <c r="H17" s="32"/>
     </row>
     <row r="18" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A18" s="51">
-        <v>15</v>
-      </c>
-      <c r="B18" s="97"/>
-      <c r="C18" s="95"/>
+        <v>14</v>
+      </c>
+      <c r="B18" s="91"/>
+      <c r="C18" s="97"/>
       <c r="D18" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="E18" s="108"/>
-      <c r="F18" s="87"/>
+        <v>142</v>
+      </c>
+      <c r="E18" s="94"/>
+      <c r="F18" s="88"/>
       <c r="G18" s="30"/>
       <c r="H18" s="32"/>
     </row>
     <row r="19" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A19" s="51">
-        <v>16</v>
-      </c>
-      <c r="B19" s="97"/>
-      <c r="C19" s="95"/>
-      <c r="D19" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="E19" s="108"/>
-      <c r="F19" s="87"/>
+        <v>15</v>
+      </c>
+      <c r="B19" s="91"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="E19" s="94"/>
+      <c r="F19" s="88"/>
       <c r="G19" s="30"/>
       <c r="H19" s="32"/>
     </row>
     <row r="20" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A20" s="51">
-        <v>17</v>
-      </c>
-      <c r="B20" s="97"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="E20" s="108"/>
-      <c r="F20" s="87"/>
+        <v>16</v>
+      </c>
+      <c r="B20" s="91"/>
+      <c r="C20" s="97"/>
+      <c r="D20" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="94"/>
+      <c r="F20" s="88"/>
       <c r="G20" s="30"/>
       <c r="H20" s="32"/>
     </row>
     <row r="21" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A21" s="51">
-        <v>18</v>
-      </c>
-      <c r="B21" s="101"/>
-      <c r="C21" s="98"/>
+        <v>17</v>
+      </c>
+      <c r="B21" s="91"/>
+      <c r="C21" s="97"/>
       <c r="D21" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="E21" s="100"/>
-      <c r="F21" s="87"/>
+        <v>172</v>
+      </c>
+      <c r="E21" s="94"/>
+      <c r="F21" s="88"/>
       <c r="G21" s="30"/>
       <c r="H21" s="32"/>
     </row>
     <row r="22" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A22" s="51">
-        <v>19</v>
-      </c>
-      <c r="B22" s="96" t="s">
-        <v>262</v>
-      </c>
-      <c r="C22" s="94" t="s">
-        <v>152</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B22" s="92"/>
+      <c r="C22" s="98"/>
       <c r="D22" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="E22" s="94" t="s">
-        <v>267</v>
-      </c>
-      <c r="F22" s="85" t="s">
-        <v>268</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="E22" s="95"/>
+      <c r="F22" s="88"/>
       <c r="G22" s="30"/>
       <c r="H22" s="32"/>
     </row>
     <row r="23" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A23" s="51">
-        <v>20</v>
-      </c>
-      <c r="B23" s="97"/>
-      <c r="C23" s="95"/>
-      <c r="D23" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="E23" s="95"/>
-      <c r="F23" s="87"/>
+        <v>19</v>
+      </c>
+      <c r="B23" s="90" t="s">
+        <v>233</v>
+      </c>
+      <c r="C23" s="96" t="s">
+        <v>147</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="E23" s="96" t="s">
+        <v>238</v>
+      </c>
+      <c r="F23" s="87" t="s">
+        <v>239</v>
+      </c>
       <c r="G23" s="30"/>
       <c r="H23" s="32"/>
     </row>
     <row r="24" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A24" s="51">
-        <v>21</v>
-      </c>
-      <c r="B24" s="101"/>
-      <c r="C24" s="98"/>
-      <c r="D24" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="E24" s="98"/>
-      <c r="F24" s="86"/>
+        <v>20</v>
+      </c>
+      <c r="B24" s="91"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="E24" s="97"/>
+      <c r="F24" s="88"/>
       <c r="G24" s="30"/>
       <c r="H24" s="32"/>
     </row>
     <row r="25" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A25" s="51">
-        <v>22</v>
-      </c>
-      <c r="B25" s="94" t="s">
-        <v>126</v>
-      </c>
-      <c r="C25" s="92" t="s">
-        <v>155</v>
-      </c>
-      <c r="D25" s="71" t="s">
-        <v>174</v>
-      </c>
-      <c r="E25" s="102" t="s">
-        <v>269</v>
-      </c>
-      <c r="F25" s="85" t="s">
-        <v>264</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B25" s="92"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="E25" s="98"/>
+      <c r="F25" s="89"/>
       <c r="G25" s="30"/>
       <c r="H25" s="32"/>
     </row>
     <row r="26" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A26" s="51">
-        <v>23</v>
-      </c>
-      <c r="B26" s="95"/>
-      <c r="C26" s="92"/>
-      <c r="D26" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="E26" s="102"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="52"/>
+        <v>22</v>
+      </c>
+      <c r="B26" s="96" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="107" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26" s="71" t="s">
+        <v>169</v>
+      </c>
+      <c r="E26" s="99" t="s">
+        <v>240</v>
+      </c>
+      <c r="F26" s="87" t="s">
+        <v>235</v>
+      </c>
+      <c r="G26" s="30"/>
+      <c r="H26" s="32"/>
     </row>
     <row r="27" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A27" s="51">
-        <v>24</v>
-      </c>
-      <c r="B27" s="95"/>
-      <c r="C27" s="92"/>
-      <c r="D27" s="72" t="s">
-        <v>178</v>
-      </c>
-      <c r="E27" s="102"/>
-      <c r="F27" s="87"/>
+        <v>23</v>
+      </c>
+      <c r="B27" s="97"/>
+      <c r="C27" s="107"/>
+      <c r="D27" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="E27" s="99"/>
+      <c r="F27" s="88"/>
       <c r="G27" s="39"/>
       <c r="H27" s="52"/>
     </row>
     <row r="28" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A28" s="51">
-        <v>25</v>
-      </c>
-      <c r="B28" s="95"/>
-      <c r="C28" s="92"/>
-      <c r="D28" s="71" t="s">
-        <v>179</v>
-      </c>
-      <c r="E28" s="102"/>
-      <c r="F28" s="87"/>
+        <v>24</v>
+      </c>
+      <c r="B28" s="97"/>
+      <c r="C28" s="107"/>
+      <c r="D28" s="72" t="s">
+        <v>173</v>
+      </c>
+      <c r="E28" s="99"/>
+      <c r="F28" s="88"/>
       <c r="G28" s="39"/>
       <c r="H28" s="52"/>
     </row>
     <row r="29" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A29" s="51">
-        <v>26</v>
-      </c>
-      <c r="B29" s="95"/>
-      <c r="C29" s="92"/>
+        <v>25</v>
+      </c>
+      <c r="B29" s="97"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="71" t="s">
-        <v>180</v>
-      </c>
-      <c r="E29" s="102"/>
-      <c r="F29" s="87"/>
+        <v>174</v>
+      </c>
+      <c r="E29" s="99"/>
+      <c r="F29" s="88"/>
       <c r="G29" s="39"/>
       <c r="H29" s="52"/>
     </row>
     <row r="30" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A30" s="51">
-        <v>27</v>
-      </c>
-      <c r="B30" s="95"/>
-      <c r="C30" s="92"/>
+        <v>26</v>
+      </c>
+      <c r="B30" s="97"/>
+      <c r="C30" s="107"/>
       <c r="D30" s="71" t="s">
-        <v>181</v>
-      </c>
-      <c r="E30" s="102"/>
-      <c r="F30" s="87"/>
+        <v>175</v>
+      </c>
+      <c r="E30" s="99"/>
+      <c r="F30" s="88"/>
       <c r="G30" s="39"/>
       <c r="H30" s="52"/>
     </row>
     <row r="31" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A31" s="51">
-        <v>28</v>
-      </c>
-      <c r="B31" s="95"/>
-      <c r="C31" s="93"/>
-      <c r="D31" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="E31" s="89"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="32"/>
+        <v>27</v>
+      </c>
+      <c r="B31" s="97"/>
+      <c r="C31" s="107"/>
+      <c r="D31" s="71" t="s">
+        <v>176</v>
+      </c>
+      <c r="E31" s="99"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="52"/>
     </row>
     <row r="32" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A32" s="51">
-        <v>29</v>
-      </c>
-      <c r="B32" s="95"/>
-      <c r="C32" s="93"/>
-      <c r="D32" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="E32" s="89"/>
-      <c r="F32" s="87"/>
+        <v>28</v>
+      </c>
+      <c r="B32" s="97"/>
+      <c r="C32" s="101"/>
+      <c r="D32" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="E32" s="100"/>
+      <c r="F32" s="88"/>
       <c r="G32" s="30"/>
       <c r="H32" s="32"/>
     </row>
     <row r="33" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A33" s="51">
-        <v>30</v>
-      </c>
-      <c r="B33" s="95"/>
-      <c r="C33" s="93"/>
-      <c r="D33" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="E33" s="89"/>
-      <c r="F33" s="87"/>
+        <v>29</v>
+      </c>
+      <c r="B33" s="97"/>
+      <c r="C33" s="101"/>
+      <c r="D33" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="E33" s="100"/>
+      <c r="F33" s="88"/>
       <c r="G33" s="30"/>
       <c r="H33" s="32"/>
     </row>
     <row r="34" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A34" s="51">
-        <v>31</v>
-      </c>
-      <c r="B34" s="98"/>
-      <c r="C34" s="93"/>
+        <v>30</v>
+      </c>
+      <c r="B34" s="97"/>
+      <c r="C34" s="101"/>
       <c r="D34" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="E34" s="89"/>
-      <c r="F34" s="86"/>
+        <v>293</v>
+      </c>
+      <c r="E34" s="100"/>
+      <c r="F34" s="88"/>
       <c r="G34" s="30"/>
       <c r="H34" s="32"/>
     </row>
     <row r="35" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A35" s="51">
-        <v>32</v>
-      </c>
-      <c r="B35" s="94" t="s">
-        <v>85</v>
-      </c>
-      <c r="C35" s="93" t="s">
-        <v>156</v>
-      </c>
-      <c r="D35" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="E35" s="89" t="s">
-        <v>272</v>
-      </c>
-      <c r="F35" s="85" t="s">
-        <v>270</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B35" s="98"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="E35" s="100"/>
+      <c r="F35" s="89"/>
       <c r="G35" s="30"/>
       <c r="H35" s="32"/>
     </row>
     <row r="36" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A36" s="51">
-        <v>33</v>
-      </c>
-      <c r="B36" s="95"/>
-      <c r="C36" s="93"/>
+        <v>32</v>
+      </c>
+      <c r="B36" s="96" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="101" t="s">
+        <v>151</v>
+      </c>
       <c r="D36" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="E36" s="89"/>
-      <c r="F36" s="87"/>
+        <v>181</v>
+      </c>
+      <c r="E36" s="100" t="s">
+        <v>243</v>
+      </c>
+      <c r="F36" s="87" t="s">
+        <v>241</v>
+      </c>
       <c r="G36" s="30"/>
       <c r="H36" s="32"/>
     </row>
     <row r="37" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A37" s="51">
-        <v>34</v>
-      </c>
-      <c r="B37" s="95"/>
-      <c r="C37" s="93"/>
+        <v>33</v>
+      </c>
+      <c r="B37" s="97"/>
+      <c r="C37" s="101"/>
       <c r="D37" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="E37" s="89"/>
-      <c r="F37" s="87"/>
+        <v>182</v>
+      </c>
+      <c r="E37" s="100"/>
+      <c r="F37" s="88"/>
       <c r="G37" s="30"/>
       <c r="H37" s="32"/>
     </row>
     <row r="38" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A38" s="51">
-        <v>35</v>
-      </c>
-      <c r="B38" s="95"/>
-      <c r="C38" s="93"/>
+        <v>34</v>
+      </c>
+      <c r="B38" s="97"/>
+      <c r="C38" s="101"/>
       <c r="D38" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="E38" s="89"/>
-      <c r="F38" s="87"/>
+        <v>183</v>
+      </c>
+      <c r="E38" s="100"/>
+      <c r="F38" s="88"/>
       <c r="G38" s="30"/>
       <c r="H38" s="32"/>
     </row>
     <row r="39" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A39" s="51">
-        <v>36</v>
-      </c>
-      <c r="B39" s="95"/>
-      <c r="C39" s="93"/>
+        <v>35</v>
+      </c>
+      <c r="B39" s="97"/>
+      <c r="C39" s="101"/>
       <c r="D39" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="E39" s="89"/>
-      <c r="F39" s="87"/>
+        <v>184</v>
+      </c>
+      <c r="E39" s="100"/>
+      <c r="F39" s="88"/>
       <c r="G39" s="30"/>
       <c r="H39" s="32"/>
     </row>
     <row r="40" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A40" s="51">
-        <v>37</v>
-      </c>
-      <c r="B40" s="95"/>
-      <c r="C40" s="93"/>
+        <v>36</v>
+      </c>
+      <c r="B40" s="97"/>
+      <c r="C40" s="101"/>
       <c r="D40" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="E40" s="89"/>
-      <c r="F40" s="87"/>
+        <v>284</v>
+      </c>
+      <c r="E40" s="100"/>
+      <c r="F40" s="88"/>
       <c r="G40" s="30"/>
       <c r="H40" s="32"/>
     </row>
     <row r="41" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A41" s="51">
-        <v>38</v>
-      </c>
-      <c r="B41" s="95"/>
-      <c r="C41" s="93"/>
+        <v>37</v>
+      </c>
+      <c r="B41" s="97"/>
+      <c r="C41" s="101"/>
       <c r="D41" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="E41" s="89"/>
-      <c r="F41" s="87"/>
+        <v>185</v>
+      </c>
+      <c r="E41" s="100"/>
+      <c r="F41" s="88"/>
       <c r="G41" s="30"/>
       <c r="H41" s="32"/>
     </row>
     <row r="42" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A42" s="51">
-        <v>39</v>
-      </c>
-      <c r="B42" s="94" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" s="93" t="s">
-        <v>157</v>
-      </c>
-      <c r="D42" s="73" t="s">
-        <v>238</v>
-      </c>
-      <c r="E42" s="89" t="s">
-        <v>273</v>
-      </c>
-      <c r="F42" s="85" t="s">
-        <v>271</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B42" s="97"/>
+      <c r="C42" s="101"/>
+      <c r="D42" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="E42" s="100"/>
+      <c r="F42" s="88"/>
       <c r="G42" s="30"/>
       <c r="H42" s="32"/>
     </row>
     <row r="43" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A43" s="51">
-        <v>40</v>
-      </c>
-      <c r="B43" s="95"/>
-      <c r="C43" s="93"/>
-      <c r="D43" s="25" t="s">
-        <v>239</v>
-      </c>
-      <c r="E43" s="89"/>
-      <c r="F43" s="87"/>
+        <v>39</v>
+      </c>
+      <c r="B43" s="96" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="96" t="s">
+        <v>152</v>
+      </c>
+      <c r="D43" s="113" t="s">
+        <v>216</v>
+      </c>
+      <c r="E43" s="100" t="s">
+        <v>244</v>
+      </c>
+      <c r="F43" s="87" t="s">
+        <v>242</v>
+      </c>
       <c r="G43" s="30"/>
       <c r="H43" s="32"/>
     </row>
     <row r="44" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A44" s="51">
-        <v>41</v>
-      </c>
-      <c r="B44" s="95"/>
-      <c r="C44" s="93"/>
+        <v>40</v>
+      </c>
+      <c r="B44" s="97"/>
+      <c r="C44" s="97"/>
       <c r="D44" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="E44" s="89"/>
-      <c r="F44" s="87"/>
+        <v>217</v>
+      </c>
+      <c r="E44" s="100"/>
+      <c r="F44" s="88"/>
       <c r="G44" s="30"/>
       <c r="H44" s="32"/>
     </row>
     <row r="45" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A45" s="51">
-        <v>42</v>
-      </c>
-      <c r="B45" s="98"/>
-      <c r="C45" s="93"/>
-      <c r="D45" s="73" t="s">
-        <v>255</v>
-      </c>
-      <c r="E45" s="89"/>
-      <c r="F45" s="86"/>
+        <v>41</v>
+      </c>
+      <c r="B45" s="97"/>
+      <c r="C45" s="97"/>
+      <c r="D45" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="E45" s="100"/>
+      <c r="F45" s="88"/>
       <c r="G45" s="30"/>
       <c r="H45" s="32"/>
     </row>
     <row r="46" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A46" s="51">
-        <v>43</v>
-      </c>
-      <c r="B46" s="94" t="s">
-        <v>87</v>
-      </c>
-      <c r="C46" s="94" t="s">
-        <v>158</v>
-      </c>
-      <c r="D46" s="74" t="s">
-        <v>256</v>
-      </c>
-      <c r="E46" s="85" t="s">
-        <v>274</v>
-      </c>
-      <c r="F46" s="85" t="s">
-        <v>271</v>
-      </c>
-      <c r="G46" s="70"/>
-      <c r="H46" s="52"/>
+        <v>42</v>
+      </c>
+      <c r="B46" s="97"/>
+      <c r="C46" s="97"/>
+      <c r="D46" s="114" t="s">
+        <v>227</v>
+      </c>
+      <c r="E46" s="100"/>
+      <c r="F46" s="89"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="32"/>
     </row>
     <row r="47" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A47" s="51">
-        <v>44</v>
-      </c>
-      <c r="B47" s="95"/>
-      <c r="C47" s="95"/>
-      <c r="D47" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="E47" s="87"/>
-      <c r="F47" s="87"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="32"/>
+        <v>43</v>
+      </c>
+      <c r="B47" s="98"/>
+      <c r="C47" s="98"/>
+      <c r="D47" s="114" t="s">
+        <v>300</v>
+      </c>
+      <c r="E47" s="80"/>
+      <c r="F47" s="81"/>
+      <c r="G47" s="83"/>
+      <c r="H47" s="52"/>
     </row>
     <row r="48" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A48" s="51">
-        <v>45</v>
-      </c>
-      <c r="B48" s="95"/>
-      <c r="C48" s="95"/>
-      <c r="D48" s="73" t="s">
-        <v>246</v>
-      </c>
-      <c r="E48" s="87"/>
-      <c r="F48" s="87"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="32"/>
+        <v>44</v>
+      </c>
+      <c r="B48" s="96" t="s">
+        <v>87</v>
+      </c>
+      <c r="C48" s="96" t="s">
+        <v>153</v>
+      </c>
+      <c r="D48" s="114" t="s">
+        <v>228</v>
+      </c>
+      <c r="E48" s="87" t="s">
+        <v>245</v>
+      </c>
+      <c r="F48" s="87" t="s">
+        <v>242</v>
+      </c>
+      <c r="G48" s="70"/>
+      <c r="H48" s="52"/>
     </row>
     <row r="49" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A49" s="51">
-        <v>46</v>
-      </c>
-      <c r="B49" s="95"/>
-      <c r="C49" s="95"/>
+        <v>45</v>
+      </c>
+      <c r="B49" s="97"/>
+      <c r="C49" s="97"/>
       <c r="D49" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="E49" s="87"/>
-      <c r="F49" s="87"/>
+        <v>195</v>
+      </c>
+      <c r="E49" s="88"/>
+      <c r="F49" s="88"/>
       <c r="G49" s="30"/>
       <c r="H49" s="32"/>
     </row>
     <row r="50" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A50" s="51">
-        <v>47</v>
-      </c>
-      <c r="B50" s="95"/>
-      <c r="C50" s="95"/>
-      <c r="D50" s="73" t="s">
-        <v>248</v>
-      </c>
-      <c r="E50" s="87"/>
-      <c r="F50" s="87"/>
-      <c r="G50" s="69"/>
-      <c r="H50" s="52"/>
+        <v>46</v>
+      </c>
+      <c r="B50" s="97"/>
+      <c r="C50" s="97"/>
+      <c r="D50" s="113" t="s">
+        <v>277</v>
+      </c>
+      <c r="E50" s="88"/>
+      <c r="F50" s="88"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="32"/>
     </row>
     <row r="51" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A51" s="51">
-        <v>48</v>
-      </c>
-      <c r="B51" s="95"/>
-      <c r="C51" s="98"/>
+        <v>47</v>
+      </c>
+      <c r="B51" s="97"/>
+      <c r="C51" s="97"/>
       <c r="D51" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="E51" s="87"/>
-      <c r="F51" s="87"/>
+        <v>221</v>
+      </c>
+      <c r="E51" s="88"/>
+      <c r="F51" s="88"/>
       <c r="G51" s="30"/>
       <c r="H51" s="32"/>
     </row>
-    <row r="52" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+    <row r="52" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A52" s="51">
+        <v>48</v>
+      </c>
+      <c r="B52" s="97"/>
+      <c r="C52" s="97"/>
+      <c r="D52" s="113" t="s">
+        <v>222</v>
+      </c>
+      <c r="E52" s="88"/>
+      <c r="F52" s="88"/>
+      <c r="G52" s="69"/>
+      <c r="H52" s="52"/>
+    </row>
+    <row r="53" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A53" s="51">
         <v>49</v>
       </c>
-      <c r="B52" s="94" t="s">
-        <v>88</v>
-      </c>
-      <c r="C52" s="93" t="s">
-        <v>159</v>
-      </c>
-      <c r="D52" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="E52" s="89" t="s">
-        <v>275</v>
-      </c>
-      <c r="F52" s="85" t="s">
-        <v>276</v>
-      </c>
-      <c r="G52" s="30"/>
-      <c r="H52" s="32"/>
-    </row>
-    <row r="53" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A53" s="51">
-        <v>50</v>
-      </c>
-      <c r="B53" s="95"/>
-      <c r="C53" s="93"/>
-      <c r="D53" s="42" t="s">
-        <v>228</v>
-      </c>
-      <c r="E53" s="89"/>
-      <c r="F53" s="87"/>
+      <c r="B53" s="97"/>
+      <c r="C53" s="98"/>
+      <c r="D53" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="E53" s="88"/>
+      <c r="F53" s="88"/>
       <c r="G53" s="30"/>
       <c r="H53" s="32"/>
     </row>
     <row r="54" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A54" s="51">
-        <v>51</v>
-      </c>
-      <c r="B54" s="95"/>
-      <c r="C54" s="93"/>
+        <v>50</v>
+      </c>
+      <c r="B54" s="96" t="s">
+        <v>88</v>
+      </c>
+      <c r="C54" s="96" t="s">
+        <v>154</v>
+      </c>
       <c r="D54" s="25" t="s">
-        <v>257</v>
-      </c>
-      <c r="E54" s="89"/>
-      <c r="F54" s="87"/>
+        <v>208</v>
+      </c>
+      <c r="E54" s="100" t="s">
+        <v>246</v>
+      </c>
+      <c r="F54" s="87" t="s">
+        <v>247</v>
+      </c>
       <c r="G54" s="30"/>
       <c r="H54" s="32"/>
     </row>
     <row r="55" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A55" s="51">
-        <v>52</v>
-      </c>
-      <c r="B55" s="95"/>
-      <c r="C55" s="93"/>
-      <c r="D55" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="E55" s="89"/>
-      <c r="F55" s="87"/>
+        <v>51</v>
+      </c>
+      <c r="B55" s="97"/>
+      <c r="C55" s="97"/>
+      <c r="D55" s="42" t="s">
+        <v>294</v>
+      </c>
+      <c r="E55" s="100"/>
+      <c r="F55" s="88"/>
       <c r="G55" s="30"/>
       <c r="H55" s="32"/>
     </row>
-    <row r="56" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+    <row r="56" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A56" s="51">
-        <v>53</v>
-      </c>
-      <c r="B56" s="98"/>
-      <c r="C56" s="93"/>
-      <c r="D56" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="E56" s="89"/>
-      <c r="F56" s="86"/>
+        <v>52</v>
+      </c>
+      <c r="B56" s="97"/>
+      <c r="C56" s="97"/>
+      <c r="D56" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="E56" s="100"/>
+      <c r="F56" s="88"/>
       <c r="G56" s="30"/>
       <c r="H56" s="32"/>
     </row>
-    <row r="57" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+    <row r="57" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A57" s="51">
-        <v>54</v>
-      </c>
-      <c r="B57" s="94" t="s">
-        <v>263</v>
-      </c>
-      <c r="C57" s="94" t="s">
-        <v>160</v>
-      </c>
-      <c r="D57" s="74" t="s">
-        <v>236</v>
-      </c>
-      <c r="E57" s="85" t="s">
-        <v>296</v>
-      </c>
-      <c r="F57" s="85" t="s">
-        <v>297</v>
-      </c>
-      <c r="G57" s="69"/>
-      <c r="H57" s="52"/>
+        <v>53</v>
+      </c>
+      <c r="B57" s="97"/>
+      <c r="C57" s="97"/>
+      <c r="D57" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="E57" s="100"/>
+      <c r="F57" s="88"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="32"/>
     </row>
     <row r="58" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A58" s="51">
-        <v>55</v>
-      </c>
-      <c r="B58" s="95"/>
-      <c r="C58" s="95"/>
-      <c r="D58" s="74" t="s">
-        <v>237</v>
-      </c>
-      <c r="E58" s="87"/>
-      <c r="F58" s="87"/>
-      <c r="G58" s="69"/>
-      <c r="H58" s="52"/>
+        <v>54</v>
+      </c>
+      <c r="B58" s="97"/>
+      <c r="C58" s="97"/>
+      <c r="D58" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="E58" s="100"/>
+      <c r="F58" s="89"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="32"/>
     </row>
     <row r="59" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A59" s="51">
-        <v>56</v>
-      </c>
-      <c r="B59" s="95"/>
-      <c r="C59" s="95"/>
-      <c r="D59" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="E59" s="87"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="69"/>
+        <v>55</v>
+      </c>
+      <c r="B59" s="97"/>
+      <c r="C59" s="97"/>
+      <c r="D59" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="E59" s="80"/>
+      <c r="F59" s="81"/>
+      <c r="G59" s="83"/>
       <c r="H59" s="52"/>
     </row>
     <row r="60" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A60" s="51">
-        <v>57</v>
-      </c>
-      <c r="B60" s="95"/>
-      <c r="C60" s="95"/>
-      <c r="D60" s="43" t="s">
-        <v>258</v>
-      </c>
-      <c r="E60" s="87"/>
-      <c r="F60" s="87"/>
-      <c r="G60" s="69"/>
+        <v>56</v>
+      </c>
+      <c r="B60" s="98"/>
+      <c r="C60" s="98"/>
+      <c r="D60" s="115" t="s">
+        <v>299</v>
+      </c>
+      <c r="E60" s="80"/>
+      <c r="F60" s="81"/>
+      <c r="G60" s="83"/>
       <c r="H60" s="52"/>
     </row>
     <row r="61" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A61" s="51">
-        <v>58</v>
-      </c>
-      <c r="B61" s="98"/>
-      <c r="C61" s="95"/>
-      <c r="D61" s="24" t="s">
-        <v>259</v>
-      </c>
-      <c r="E61" s="86"/>
-      <c r="F61" s="86"/>
+        <v>57</v>
+      </c>
+      <c r="B61" s="96" t="s">
+        <v>234</v>
+      </c>
+      <c r="C61" s="96" t="s">
+        <v>155</v>
+      </c>
+      <c r="D61" s="114" t="s">
+        <v>214</v>
+      </c>
+      <c r="E61" s="87" t="s">
+        <v>267</v>
+      </c>
+      <c r="F61" s="87" t="s">
+        <v>268</v>
+      </c>
       <c r="G61" s="69"/>
       <c r="H61" s="52"/>
     </row>
     <row r="62" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A62" s="51">
-        <v>59</v>
-      </c>
-      <c r="B62" s="94"/>
-      <c r="C62" s="103" t="s">
-        <v>167</v>
-      </c>
-      <c r="D62" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="E62" s="85" t="s">
-        <v>294</v>
-      </c>
-      <c r="F62" s="85" t="s">
-        <v>295</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B62" s="97"/>
+      <c r="C62" s="97"/>
+      <c r="D62" s="114" t="s">
+        <v>215</v>
+      </c>
+      <c r="E62" s="88"/>
+      <c r="F62" s="88"/>
       <c r="G62" s="69"/>
       <c r="H62" s="52"/>
     </row>
     <row r="63" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A63" s="51">
-        <v>60</v>
-      </c>
-      <c r="B63" s="95"/>
-      <c r="C63" s="104"/>
-      <c r="D63" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="E63" s="87"/>
-      <c r="F63" s="87"/>
+        <v>59</v>
+      </c>
+      <c r="B63" s="97"/>
+      <c r="C63" s="97"/>
+      <c r="D63" s="114" t="s">
+        <v>220</v>
+      </c>
+      <c r="E63" s="88"/>
+      <c r="F63" s="88"/>
       <c r="G63" s="69"/>
       <c r="H63" s="52"/>
     </row>
     <row r="64" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A64" s="51">
-        <v>61</v>
-      </c>
-      <c r="B64" s="98"/>
-      <c r="C64" s="104"/>
-      <c r="D64" s="73" t="s">
-        <v>242</v>
-      </c>
-      <c r="E64" s="86"/>
-      <c r="F64" s="86"/>
+        <v>60</v>
+      </c>
+      <c r="B64" s="97"/>
+      <c r="C64" s="97"/>
+      <c r="D64" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="E64" s="88"/>
+      <c r="F64" s="88"/>
       <c r="G64" s="69"/>
       <c r="H64" s="52"/>
     </row>
     <row r="65" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A65" s="51">
-        <v>62</v>
-      </c>
-      <c r="B65" s="94"/>
-      <c r="C65" s="94" t="s">
-        <v>161</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="B65" s="98"/>
+      <c r="C65" s="97"/>
       <c r="D65" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="E65" s="85" t="s">
-        <v>293</v>
-      </c>
-      <c r="F65" s="85" t="s">
-        <v>268</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="E65" s="89"/>
+      <c r="F65" s="89"/>
       <c r="G65" s="69"/>
       <c r="H65" s="52"/>
     </row>
     <row r="66" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A66" s="51">
-        <v>63</v>
-      </c>
-      <c r="B66" s="95"/>
-      <c r="C66" s="95"/>
-      <c r="D66" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="E66" s="87"/>
-      <c r="F66" s="87"/>
+        <v>62</v>
+      </c>
+      <c r="B66" s="96"/>
+      <c r="C66" s="103" t="s">
+        <v>162</v>
+      </c>
+      <c r="D66" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="E66" s="87" t="s">
+        <v>265</v>
+      </c>
+      <c r="F66" s="87" t="s">
+        <v>266</v>
+      </c>
       <c r="G66" s="69"/>
       <c r="H66" s="52"/>
     </row>
     <row r="67" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A67" s="51">
-        <v>64</v>
-      </c>
-      <c r="B67" s="95"/>
-      <c r="C67" s="95"/>
-      <c r="D67" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="E67" s="87"/>
-      <c r="F67" s="87"/>
+        <v>63</v>
+      </c>
+      <c r="B67" s="97"/>
+      <c r="C67" s="104"/>
+      <c r="D67" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="E67" s="88"/>
+      <c r="F67" s="88"/>
       <c r="G67" s="69"/>
       <c r="H67" s="52"/>
     </row>
     <row r="68" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A68" s="51">
-        <v>65</v>
-      </c>
-      <c r="B68" s="95"/>
-      <c r="C68" s="95"/>
-      <c r="D68" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="E68" s="87"/>
-      <c r="F68" s="87"/>
+        <v>64</v>
+      </c>
+      <c r="B68" s="98"/>
+      <c r="C68" s="104"/>
+      <c r="D68" s="113" t="s">
+        <v>279</v>
+      </c>
+      <c r="E68" s="89"/>
+      <c r="F68" s="89"/>
       <c r="G68" s="69"/>
       <c r="H68" s="52"/>
     </row>
     <row r="69" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A69" s="51">
-        <v>66</v>
-      </c>
-      <c r="B69" s="98"/>
-      <c r="C69" s="98"/>
+        <v>65</v>
+      </c>
+      <c r="B69" s="96"/>
+      <c r="C69" s="96" t="s">
+        <v>156</v>
+      </c>
       <c r="D69" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="E69" s="86"/>
-      <c r="F69" s="86"/>
+        <v>205</v>
+      </c>
+      <c r="E69" s="87" t="s">
+        <v>264</v>
+      </c>
+      <c r="F69" s="87" t="s">
+        <v>239</v>
+      </c>
       <c r="G69" s="69"/>
       <c r="H69" s="52"/>
     </row>
     <row r="70" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A70" s="51">
-        <v>67</v>
-      </c>
-      <c r="B70" s="94"/>
-      <c r="C70" s="94" t="s">
-        <v>162</v>
-      </c>
-      <c r="D70" s="24" t="s">
-        <v>220</v>
-      </c>
-      <c r="E70" s="85" t="s">
-        <v>290</v>
-      </c>
-      <c r="F70" s="85" t="s">
-        <v>292</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B70" s="97"/>
+      <c r="C70" s="97"/>
+      <c r="D70" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="E70" s="88"/>
+      <c r="F70" s="88"/>
       <c r="G70" s="69"/>
       <c r="H70" s="52"/>
     </row>
     <row r="71" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A71" s="51">
-        <v>68</v>
-      </c>
-      <c r="B71" s="95"/>
-      <c r="C71" s="95"/>
-      <c r="D71" s="73" t="s">
-        <v>241</v>
-      </c>
-      <c r="E71" s="87"/>
-      <c r="F71" s="87"/>
-      <c r="G71" s="70"/>
+        <v>67</v>
+      </c>
+      <c r="B71" s="97"/>
+      <c r="C71" s="97"/>
+      <c r="D71" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="E71" s="88"/>
+      <c r="F71" s="88"/>
+      <c r="G71" s="69"/>
       <c r="H71" s="52"/>
     </row>
     <row r="72" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A72" s="51">
-        <v>69</v>
-      </c>
-      <c r="B72" s="95"/>
-      <c r="C72" s="95"/>
+        <v>68</v>
+      </c>
+      <c r="B72" s="97"/>
+      <c r="C72" s="97"/>
       <c r="D72" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="E72" s="87"/>
-      <c r="F72" s="87"/>
+        <v>207</v>
+      </c>
+      <c r="E72" s="88"/>
+      <c r="F72" s="88"/>
       <c r="G72" s="69"/>
       <c r="H72" s="52"/>
     </row>
     <row r="73" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A73" s="51">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B73" s="98"/>
       <c r="C73" s="98"/>
       <c r="D73" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="E73" s="86"/>
-      <c r="F73" s="86"/>
-      <c r="G73" s="70"/>
+        <v>204</v>
+      </c>
+      <c r="E73" s="89"/>
+      <c r="F73" s="89"/>
+      <c r="G73" s="69"/>
       <c r="H73" s="52"/>
     </row>
     <row r="74" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A74" s="51">
-        <v>71</v>
-      </c>
-      <c r="B74" s="94"/>
-      <c r="C74" s="94" t="s">
-        <v>163</v>
-      </c>
-      <c r="D74" s="74" t="s">
-        <v>210</v>
-      </c>
-      <c r="E74" s="85" t="s">
-        <v>291</v>
-      </c>
-      <c r="F74" s="85" t="s">
-        <v>289</v>
+        <v>70</v>
+      </c>
+      <c r="B74" s="96"/>
+      <c r="C74" s="96" t="s">
+        <v>157</v>
+      </c>
+      <c r="D74" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="E74" s="87" t="s">
+        <v>261</v>
+      </c>
+      <c r="F74" s="87" t="s">
+        <v>263</v>
       </c>
       <c r="G74" s="69"/>
       <c r="H74" s="52"/>
     </row>
     <row r="75" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A75" s="51">
-        <v>72</v>
-      </c>
-      <c r="B75" s="95"/>
-      <c r="C75" s="95"/>
-      <c r="D75" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="E75" s="87"/>
-      <c r="F75" s="87"/>
-      <c r="G75" s="69"/>
+        <v>71</v>
+      </c>
+      <c r="B75" s="97"/>
+      <c r="C75" s="97"/>
+      <c r="D75" s="113" t="s">
+        <v>283</v>
+      </c>
+      <c r="E75" s="88"/>
+      <c r="F75" s="88"/>
+      <c r="G75" s="70"/>
       <c r="H75" s="52"/>
     </row>
     <row r="76" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A76" s="51">
-        <v>73</v>
-      </c>
-      <c r="B76" s="95"/>
-      <c r="C76" s="95"/>
-      <c r="D76" s="74" t="s">
-        <v>207</v>
-      </c>
-      <c r="E76" s="87"/>
-      <c r="F76" s="87"/>
+        <v>72</v>
+      </c>
+      <c r="B76" s="97"/>
+      <c r="C76" s="97"/>
+      <c r="D76" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="E76" s="88"/>
+      <c r="F76" s="88"/>
       <c r="G76" s="69"/>
       <c r="H76" s="52"/>
     </row>
     <row r="77" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A77" s="51">
-        <v>74</v>
-      </c>
-      <c r="B77" s="95"/>
-      <c r="C77" s="95"/>
-      <c r="D77" s="74" t="s">
-        <v>208</v>
-      </c>
-      <c r="E77" s="87"/>
-      <c r="F77" s="87"/>
-      <c r="G77" s="69"/>
+        <v>73</v>
+      </c>
+      <c r="B77" s="98"/>
+      <c r="C77" s="98"/>
+      <c r="D77" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="E77" s="89"/>
+      <c r="F77" s="89"/>
+      <c r="G77" s="70"/>
       <c r="H77" s="52"/>
     </row>
     <row r="78" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A78" s="51">
-        <v>75</v>
-      </c>
-      <c r="B78" s="95"/>
-      <c r="C78" s="95"/>
-      <c r="D78" s="74" t="s">
-        <v>209</v>
-      </c>
-      <c r="E78" s="87"/>
-      <c r="F78" s="87"/>
+        <v>74</v>
+      </c>
+      <c r="B78" s="96"/>
+      <c r="C78" s="96" t="s">
+        <v>158</v>
+      </c>
+      <c r="D78" s="114" t="s">
+        <v>301</v>
+      </c>
+      <c r="E78" s="87" t="s">
+        <v>262</v>
+      </c>
+      <c r="F78" s="87" t="s">
+        <v>260</v>
+      </c>
       <c r="G78" s="69"/>
       <c r="H78" s="52"/>
     </row>
     <row r="79" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A79" s="51">
-        <v>76</v>
-      </c>
-      <c r="B79" s="95"/>
-      <c r="C79" s="95"/>
-      <c r="D79" s="74" t="s">
-        <v>212</v>
-      </c>
-      <c r="E79" s="87"/>
-      <c r="F79" s="87"/>
+        <v>75</v>
+      </c>
+      <c r="B79" s="97"/>
+      <c r="C79" s="97"/>
+      <c r="D79" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="E79" s="88"/>
+      <c r="F79" s="88"/>
       <c r="G79" s="69"/>
       <c r="H79" s="52"/>
     </row>
     <row r="80" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A80" s="51">
-        <v>77</v>
-      </c>
-      <c r="B80" s="98"/>
-      <c r="C80" s="98"/>
-      <c r="D80" s="74" t="s">
-        <v>213</v>
-      </c>
-      <c r="E80" s="86"/>
-      <c r="F80" s="86"/>
+        <v>76</v>
+      </c>
+      <c r="B80" s="97"/>
+      <c r="C80" s="97"/>
+      <c r="D80" s="114" t="s">
+        <v>280</v>
+      </c>
+      <c r="E80" s="88"/>
+      <c r="F80" s="88"/>
       <c r="G80" s="69"/>
       <c r="H80" s="52"/>
     </row>
     <row r="81" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A81" s="51">
-        <v>78</v>
-      </c>
-      <c r="B81" s="94"/>
-      <c r="C81" s="94" t="s">
-        <v>164</v>
-      </c>
-      <c r="D81" s="73" t="s">
-        <v>214</v>
-      </c>
-      <c r="E81" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="B81" s="97"/>
+      <c r="C81" s="97"/>
+      <c r="D81" s="114" t="s">
         <v>288</v>
       </c>
-      <c r="F81" s="85" t="s">
-        <v>268</v>
-      </c>
+      <c r="E81" s="88"/>
+      <c r="F81" s="88"/>
       <c r="G81" s="69"/>
       <c r="H81" s="52"/>
     </row>
     <row r="82" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A82" s="51">
-        <v>79</v>
-      </c>
-      <c r="B82" s="98"/>
-      <c r="C82" s="98"/>
-      <c r="D82" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="E82" s="86"/>
-      <c r="F82" s="86"/>
+        <v>78</v>
+      </c>
+      <c r="B82" s="97"/>
+      <c r="C82" s="97"/>
+      <c r="D82" s="114" t="s">
+        <v>285</v>
+      </c>
+      <c r="E82" s="88"/>
+      <c r="F82" s="88"/>
       <c r="G82" s="69"/>
       <c r="H82" s="52"/>
     </row>
     <row r="83" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A83" s="51">
-        <v>80</v>
-      </c>
-      <c r="B83" s="94"/>
-      <c r="C83" s="94" t="s">
-        <v>166</v>
-      </c>
-      <c r="D83" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="E83" s="85" t="s">
-        <v>287</v>
-      </c>
-      <c r="F83" s="85" t="s">
-        <v>268</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B83" s="97"/>
+      <c r="C83" s="97"/>
+      <c r="D83" s="114" t="s">
+        <v>197</v>
+      </c>
+      <c r="E83" s="88"/>
+      <c r="F83" s="88"/>
       <c r="G83" s="69"/>
       <c r="H83" s="52"/>
     </row>
     <row r="84" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A84" s="51">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B84" s="98"/>
       <c r="C84" s="98"/>
-      <c r="D84" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="E84" s="86"/>
-      <c r="F84" s="86"/>
+      <c r="D84" s="114" t="s">
+        <v>281</v>
+      </c>
+      <c r="E84" s="89"/>
+      <c r="F84" s="89"/>
       <c r="G84" s="69"/>
       <c r="H84" s="52"/>
     </row>
     <row r="85" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A85" s="51">
-        <v>82</v>
-      </c>
-      <c r="B85" s="94"/>
-      <c r="C85" s="94" t="s">
-        <v>168</v>
-      </c>
-      <c r="D85" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="E85" s="85" t="s">
-        <v>285</v>
-      </c>
-      <c r="F85" s="85" t="s">
-        <v>286</v>
+        <v>81</v>
+      </c>
+      <c r="B85" s="96"/>
+      <c r="C85" s="96" t="s">
+        <v>159</v>
+      </c>
+      <c r="D85" s="113" t="s">
+        <v>282</v>
+      </c>
+      <c r="E85" s="87" t="s">
+        <v>259</v>
+      </c>
+      <c r="F85" s="87" t="s">
+        <v>239</v>
       </c>
       <c r="G85" s="69"/>
       <c r="H85" s="52"/>
     </row>
     <row r="86" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A86" s="51">
-        <v>83</v>
-      </c>
-      <c r="B86" s="95"/>
-      <c r="C86" s="95"/>
+        <v>82</v>
+      </c>
+      <c r="B86" s="98"/>
+      <c r="C86" s="98"/>
       <c r="D86" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="E86" s="87"/>
-      <c r="F86" s="87"/>
+        <v>198</v>
+      </c>
+      <c r="E86" s="89"/>
+      <c r="F86" s="89"/>
       <c r="G86" s="69"/>
       <c r="H86" s="52"/>
     </row>
     <row r="87" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A87" s="51">
-        <v>84</v>
-      </c>
-      <c r="B87" s="95"/>
-      <c r="C87" s="95"/>
+        <v>83</v>
+      </c>
+      <c r="B87" s="96"/>
+      <c r="C87" s="96" t="s">
+        <v>161</v>
+      </c>
       <c r="D87" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="E87" s="87"/>
-      <c r="F87" s="87"/>
+        <v>189</v>
+      </c>
+      <c r="E87" s="87" t="s">
+        <v>258</v>
+      </c>
+      <c r="F87" s="87" t="s">
+        <v>239</v>
+      </c>
       <c r="G87" s="69"/>
       <c r="H87" s="52"/>
     </row>
     <row r="88" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A88" s="51">
-        <v>85</v>
-      </c>
-      <c r="B88" s="95"/>
-      <c r="C88" s="95"/>
+        <v>84</v>
+      </c>
+      <c r="B88" s="98"/>
+      <c r="C88" s="98"/>
       <c r="D88" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="E88" s="87"/>
-      <c r="F88" s="87"/>
+        <v>305</v>
+      </c>
+      <c r="E88" s="89"/>
+      <c r="F88" s="89"/>
       <c r="G88" s="69"/>
       <c r="H88" s="52"/>
     </row>
     <row r="89" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A89" s="51">
-        <v>86</v>
-      </c>
-      <c r="B89" s="98"/>
-      <c r="C89" s="98"/>
+        <v>85</v>
+      </c>
+      <c r="B89" s="96"/>
+      <c r="C89" s="96" t="s">
+        <v>163</v>
+      </c>
       <c r="D89" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="E89" s="86"/>
-      <c r="F89" s="86"/>
+        <v>190</v>
+      </c>
+      <c r="E89" s="87" t="s">
+        <v>256</v>
+      </c>
+      <c r="F89" s="87" t="s">
+        <v>257</v>
+      </c>
       <c r="G89" s="69"/>
       <c r="H89" s="52"/>
     </row>
     <row r="90" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A90" s="51">
-        <v>87</v>
-      </c>
-      <c r="B90" s="94"/>
-      <c r="C90" s="94" t="s">
-        <v>169</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="B90" s="97"/>
+      <c r="C90" s="97"/>
       <c r="D90" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="E90" s="85" t="s">
-        <v>284</v>
-      </c>
-      <c r="F90" s="85" t="s">
-        <v>283</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="E90" s="88"/>
+      <c r="F90" s="88"/>
       <c r="G90" s="69"/>
       <c r="H90" s="52"/>
     </row>
     <row r="91" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A91" s="51">
-        <v>88</v>
-      </c>
-      <c r="B91" s="95"/>
-      <c r="C91" s="95"/>
+        <v>87</v>
+      </c>
+      <c r="B91" s="97"/>
+      <c r="C91" s="97"/>
       <c r="D91" s="24" t="s">
-        <v>217</v>
-      </c>
-      <c r="E91" s="87"/>
-      <c r="F91" s="87"/>
+        <v>191</v>
+      </c>
+      <c r="E91" s="88"/>
+      <c r="F91" s="88"/>
       <c r="G91" s="69"/>
       <c r="H91" s="52"/>
     </row>
     <row r="92" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A92" s="51">
-        <v>89</v>
-      </c>
-      <c r="B92" s="98"/>
-      <c r="C92" s="95"/>
+        <v>88</v>
+      </c>
+      <c r="B92" s="97"/>
+      <c r="C92" s="97"/>
       <c r="D92" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="E92" s="86"/>
-      <c r="F92" s="86"/>
+        <v>192</v>
+      </c>
+      <c r="E92" s="88"/>
+      <c r="F92" s="88"/>
       <c r="G92" s="69"/>
       <c r="H92" s="52"/>
     </row>
     <row r="93" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A93" s="51">
-        <v>90</v>
-      </c>
-      <c r="B93" s="94"/>
-      <c r="C93" s="94" t="s">
-        <v>170</v>
-      </c>
-      <c r="D93" s="43" t="s">
-        <v>235</v>
-      </c>
-      <c r="E93" s="85" t="s">
-        <v>282</v>
-      </c>
-      <c r="F93" s="85" t="s">
-        <v>283</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B93" s="98"/>
+      <c r="C93" s="98"/>
+      <c r="D93" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="E93" s="89"/>
+      <c r="F93" s="89"/>
       <c r="G93" s="69"/>
       <c r="H93" s="52"/>
     </row>
     <row r="94" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A94" s="51">
-        <v>91</v>
-      </c>
-      <c r="B94" s="95"/>
-      <c r="C94" s="95"/>
+        <v>90</v>
+      </c>
+      <c r="B94" s="96"/>
+      <c r="C94" s="96" t="s">
+        <v>164</v>
+      </c>
       <c r="D94" s="24" t="s">
-        <v>231</v>
-      </c>
-      <c r="E94" s="87"/>
-      <c r="F94" s="87"/>
+        <v>199</v>
+      </c>
+      <c r="E94" s="87" t="s">
+        <v>255</v>
+      </c>
+      <c r="F94" s="87" t="s">
+        <v>254</v>
+      </c>
       <c r="G94" s="69"/>
       <c r="H94" s="52"/>
     </row>
     <row r="95" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A95" s="51">
-        <v>92</v>
-      </c>
-      <c r="B95" s="98"/>
-      <c r="C95" s="95"/>
+        <v>91</v>
+      </c>
+      <c r="B95" s="97"/>
+      <c r="C95" s="97"/>
       <c r="D95" s="24" t="s">
-        <v>232</v>
-      </c>
-      <c r="E95" s="86"/>
-      <c r="F95" s="86"/>
+        <v>295</v>
+      </c>
+      <c r="E95" s="88"/>
+      <c r="F95" s="88"/>
       <c r="G95" s="69"/>
       <c r="H95" s="52"/>
     </row>
     <row r="96" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A96" s="51">
-        <v>93</v>
-      </c>
-      <c r="B96" s="94"/>
-      <c r="C96" s="94" t="s">
-        <v>171</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="B96" s="98"/>
+      <c r="C96" s="97"/>
       <c r="D96" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="E96" s="85" t="s">
-        <v>281</v>
-      </c>
-      <c r="F96" s="85" t="s">
-        <v>279</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="E96" s="89"/>
+      <c r="F96" s="89"/>
       <c r="G96" s="69"/>
       <c r="H96" s="52"/>
     </row>
     <row r="97" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A97" s="51">
-        <v>94</v>
-      </c>
-      <c r="B97" s="95"/>
-      <c r="C97" s="95"/>
-      <c r="D97" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="E97" s="87"/>
-      <c r="F97" s="87"/>
+        <v>93</v>
+      </c>
+      <c r="B97" s="96"/>
+      <c r="C97" s="96" t="s">
+        <v>165</v>
+      </c>
+      <c r="D97" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="E97" s="87" t="s">
+        <v>253</v>
+      </c>
+      <c r="F97" s="87" t="s">
+        <v>254</v>
+      </c>
       <c r="G97" s="69"/>
       <c r="H97" s="52"/>
     </row>
     <row r="98" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A98" s="51">
-        <v>95</v>
-      </c>
-      <c r="B98" s="98"/>
-      <c r="C98" s="98"/>
+        <v>94</v>
+      </c>
+      <c r="B98" s="97"/>
+      <c r="C98" s="97"/>
       <c r="D98" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="E98" s="86"/>
-      <c r="F98" s="86"/>
-      <c r="G98" s="76"/>
+        <v>297</v>
+      </c>
+      <c r="E98" s="88"/>
+      <c r="F98" s="88"/>
+      <c r="G98" s="69"/>
       <c r="H98" s="52"/>
     </row>
     <row r="99" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A99" s="51">
+        <v>95</v>
+      </c>
+      <c r="B99" s="97"/>
+      <c r="C99" s="97"/>
+      <c r="D99" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="E99" s="88"/>
+      <c r="F99" s="88"/>
+      <c r="G99" s="83"/>
+      <c r="H99" s="52"/>
+    </row>
+    <row r="100" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A100" s="51">
         <v>96</v>
       </c>
-      <c r="B99" s="79"/>
-      <c r="C99" s="94" t="s">
-        <v>165</v>
-      </c>
-      <c r="D99" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="E99" s="85" t="s">
-        <v>299</v>
-      </c>
-      <c r="F99" s="85" t="s">
-        <v>300</v>
-      </c>
-      <c r="G99" s="76"/>
-      <c r="H99" s="52"/>
-    </row>
-    <row r="100" spans="1:8" s="43" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A100" s="51">
-        <v>97</v>
-      </c>
-      <c r="B100" s="80"/>
-      <c r="C100" s="95"/>
+      <c r="B100" s="98"/>
+      <c r="C100" s="97"/>
       <c r="D100" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="E100" s="87"/>
-      <c r="F100" s="87"/>
-      <c r="G100" s="76"/>
+        <v>273</v>
+      </c>
+      <c r="E100" s="89"/>
+      <c r="F100" s="89"/>
+      <c r="G100" s="69"/>
       <c r="H100" s="52"/>
     </row>
     <row r="101" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A101" s="51">
-        <v>98</v>
-      </c>
-      <c r="B101" s="80"/>
-      <c r="C101" s="95"/>
-      <c r="D101" s="74" t="s">
-        <v>249</v>
-      </c>
-      <c r="E101" s="87"/>
-      <c r="F101" s="87"/>
-      <c r="G101" s="76"/>
+        <v>97</v>
+      </c>
+      <c r="B101" s="96"/>
+      <c r="C101" s="96" t="s">
+        <v>166</v>
+      </c>
+      <c r="D101" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="E101" s="87" t="s">
+        <v>252</v>
+      </c>
+      <c r="F101" s="87" t="s">
+        <v>250</v>
+      </c>
+      <c r="G101" s="69"/>
       <c r="H101" s="52"/>
     </row>
     <row r="102" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A102" s="51">
-        <v>99</v>
-      </c>
-      <c r="B102" s="80"/>
-      <c r="C102" s="95"/>
-      <c r="D102" s="74" t="s">
-        <v>251</v>
-      </c>
-      <c r="E102" s="87"/>
-      <c r="F102" s="87"/>
-      <c r="G102" s="76"/>
+        <v>98</v>
+      </c>
+      <c r="B102" s="97"/>
+      <c r="C102" s="97"/>
+      <c r="D102" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="E102" s="88"/>
+      <c r="F102" s="88"/>
+      <c r="G102" s="69"/>
       <c r="H102" s="52"/>
     </row>
     <row r="103" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A103" s="51">
-        <v>100</v>
-      </c>
-      <c r="B103" s="80"/>
-      <c r="C103" s="95"/>
-      <c r="D103" s="74" t="s">
-        <v>250</v>
-      </c>
-      <c r="E103" s="87"/>
-      <c r="F103" s="87"/>
-      <c r="G103" s="76"/>
+        <v>99</v>
+      </c>
+      <c r="B103" s="97"/>
+      <c r="C103" s="97"/>
+      <c r="D103" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="E103" s="89"/>
+      <c r="F103" s="89"/>
+      <c r="G103" s="74"/>
       <c r="H103" s="52"/>
     </row>
     <row r="104" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A104" s="51">
-        <v>101</v>
-      </c>
-      <c r="B104" s="81"/>
-      <c r="C104" s="95"/>
-      <c r="D104" s="74" t="s">
-        <v>252</v>
-      </c>
-      <c r="E104" s="86"/>
-      <c r="F104" s="86"/>
-      <c r="G104" s="76"/>
+        <v>100</v>
+      </c>
+      <c r="B104" s="98"/>
+      <c r="C104" s="98"/>
+      <c r="D104" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="E104" s="81"/>
+      <c r="F104" s="81"/>
+      <c r="G104" s="83"/>
       <c r="H104" s="52"/>
     </row>
     <row r="105" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A105" s="51">
+        <v>101</v>
+      </c>
+      <c r="B105" s="77"/>
+      <c r="C105" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="D105" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="E105" s="87" t="s">
+        <v>270</v>
+      </c>
+      <c r="F105" s="87" t="s">
+        <v>271</v>
+      </c>
+      <c r="G105" s="74"/>
+      <c r="H105" s="52"/>
+    </row>
+    <row r="106" spans="1:8" s="43" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A106" s="51">
         <v>102</v>
       </c>
-      <c r="B105" s="78"/>
-      <c r="C105" s="77" t="s">
-        <v>172</v>
-      </c>
-      <c r="D105" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="E105" s="75" t="s">
-        <v>278</v>
-      </c>
-      <c r="F105" s="75" t="s">
-        <v>280</v>
-      </c>
-      <c r="G105" s="76"/>
-      <c r="H105" s="52"/>
-    </row>
-    <row r="106" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A106" s="51">
-        <v>103</v>
-      </c>
-      <c r="B106" s="99"/>
-      <c r="C106" s="94" t="s">
-        <v>173</v>
-      </c>
-      <c r="D106" s="73" t="s">
-        <v>204</v>
-      </c>
-      <c r="E106" s="85" t="s">
-        <v>277</v>
-      </c>
-      <c r="F106" s="85" t="s">
-        <v>279</v>
-      </c>
-      <c r="G106" s="76"/>
+      <c r="B106" s="78"/>
+      <c r="C106" s="97"/>
+      <c r="D106" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="E106" s="88"/>
+      <c r="F106" s="88"/>
+      <c r="G106" s="74"/>
       <c r="H106" s="52"/>
     </row>
     <row r="107" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A107" s="51">
+        <v>103</v>
+      </c>
+      <c r="B107" s="78"/>
+      <c r="C107" s="97"/>
+      <c r="D107" s="114" t="s">
+        <v>290</v>
+      </c>
+      <c r="E107" s="88"/>
+      <c r="F107" s="88"/>
+      <c r="G107" s="74"/>
+      <c r="H107" s="52"/>
+    </row>
+    <row r="108" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A108" s="51">
         <v>104</v>
       </c>
-      <c r="B107" s="100"/>
-      <c r="C107" s="98"/>
-      <c r="D107" s="73" t="s">
-        <v>205</v>
-      </c>
-      <c r="E107" s="86"/>
-      <c r="F107" s="86"/>
-      <c r="G107" s="76"/>
-      <c r="H107" s="52"/>
-    </row>
-    <row r="108" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A108" s="51"/>
-      <c r="B108" s="25"/>
-      <c r="C108" s="105" t="s">
-        <v>62</v>
-      </c>
-      <c r="D108" s="106"/>
-      <c r="E108" s="75"/>
-      <c r="F108" s="75"/>
-      <c r="G108" s="76"/>
-      <c r="H108" s="27"/>
-    </row>
-    <row r="109" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="B108" s="78"/>
+      <c r="C108" s="97"/>
+      <c r="D108" s="114" t="s">
+        <v>224</v>
+      </c>
+      <c r="E108" s="88"/>
+      <c r="F108" s="88"/>
+      <c r="G108" s="74"/>
+      <c r="H108" s="52"/>
+    </row>
+    <row r="109" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A109" s="51">
         <v>105</v>
       </c>
-      <c r="B109" s="76" t="s">
+      <c r="B109" s="78"/>
+      <c r="C109" s="97"/>
+      <c r="D109" s="114" t="s">
+        <v>223</v>
+      </c>
+      <c r="E109" s="88"/>
+      <c r="F109" s="88"/>
+      <c r="G109" s="74"/>
+      <c r="H109" s="52"/>
+    </row>
+    <row r="110" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A110" s="51">
+        <v>106</v>
+      </c>
+      <c r="B110" s="79"/>
+      <c r="C110" s="97"/>
+      <c r="D110" s="114" t="s">
+        <v>286</v>
+      </c>
+      <c r="E110" s="89"/>
+      <c r="F110" s="89"/>
+      <c r="G110" s="74"/>
+      <c r="H110" s="52"/>
+    </row>
+    <row r="111" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A111" s="51">
+        <v>107</v>
+      </c>
+      <c r="B111" s="76"/>
+      <c r="C111" s="75" t="s">
+        <v>167</v>
+      </c>
+      <c r="D111" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="E111" s="73" t="s">
+        <v>249</v>
+      </c>
+      <c r="F111" s="73" t="s">
+        <v>251</v>
+      </c>
+      <c r="G111" s="74"/>
+      <c r="H111" s="52"/>
+    </row>
+    <row r="112" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A112" s="51">
+        <v>108</v>
+      </c>
+      <c r="B112" s="93"/>
+      <c r="C112" s="96" t="s">
+        <v>168</v>
+      </c>
+      <c r="D112" s="113" t="s">
+        <v>296</v>
+      </c>
+      <c r="E112" s="87" t="s">
+        <v>248</v>
+      </c>
+      <c r="F112" s="87" t="s">
+        <v>250</v>
+      </c>
+      <c r="G112" s="74"/>
+      <c r="H112" s="52"/>
+    </row>
+    <row r="113" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A113" s="51">
+        <v>109</v>
+      </c>
+      <c r="B113" s="95"/>
+      <c r="C113" s="98"/>
+      <c r="D113" s="114" t="s">
+        <v>194</v>
+      </c>
+      <c r="E113" s="89"/>
+      <c r="F113" s="89"/>
+      <c r="G113" s="74"/>
+      <c r="H113" s="52"/>
+    </row>
+    <row r="114" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A114" s="51"/>
+      <c r="B114" s="25"/>
+      <c r="C114" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="D114" s="106"/>
+      <c r="E114" s="73"/>
+      <c r="F114" s="73"/>
+      <c r="G114" s="74"/>
+      <c r="H114" s="27"/>
+    </row>
+    <row r="115" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A115" s="51">
+        <v>108</v>
+      </c>
+      <c r="B115" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="C109" s="76" t="s">
+      <c r="C115" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="D109" s="25" t="s">
+      <c r="D115" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="E109" s="75"/>
-      <c r="F109" s="75" t="s">
+      <c r="E115" s="73"/>
+      <c r="F115" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="G109" s="76"/>
-      <c r="H109" s="27"/>
-    </row>
-    <row r="110" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A110" s="96">
-        <v>106</v>
-      </c>
-      <c r="B110" s="94" t="s">
+      <c r="G115" s="74"/>
+      <c r="H115" s="27"/>
+    </row>
+    <row r="116" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A116" s="90">
+        <v>109</v>
+      </c>
+      <c r="B116" s="96" t="s">
         <v>90</v>
       </c>
-      <c r="C110" s="93" t="s">
+      <c r="C116" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="D110" s="25" t="s">
+      <c r="D116" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="E110" s="89"/>
-      <c r="F110" s="85" t="s">
+      <c r="E116" s="100"/>
+      <c r="F116" s="87" t="s">
         <v>135</v>
       </c>
-      <c r="G110" s="30"/>
-      <c r="H110" s="27"/>
-    </row>
-    <row r="111" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A111" s="101"/>
-      <c r="B111" s="98"/>
-      <c r="C111" s="93"/>
-      <c r="D111" s="33" t="s">
+      <c r="G116" s="30"/>
+      <c r="H116" s="27"/>
+    </row>
+    <row r="117" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A117" s="92"/>
+      <c r="B117" s="98"/>
+      <c r="C117" s="101"/>
+      <c r="D117" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="E111" s="89"/>
-      <c r="F111" s="86"/>
-      <c r="G111" s="30"/>
-      <c r="H111" s="27"/>
-    </row>
-    <row r="112" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A112" s="29">
-        <v>107</v>
-      </c>
-      <c r="B112" s="94" t="s">
+      <c r="E117" s="100"/>
+      <c r="F117" s="89"/>
+      <c r="G117" s="30"/>
+      <c r="H117" s="27"/>
+    </row>
+    <row r="118" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A118" s="29">
+        <v>110</v>
+      </c>
+      <c r="B118" s="96" t="s">
         <v>91</v>
       </c>
-      <c r="C112" s="93" t="s">
+      <c r="C118" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="D112" s="25" t="s">
+      <c r="D118" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="E112" s="89"/>
-      <c r="F112" s="85" t="s">
+      <c r="E118" s="100"/>
+      <c r="F118" s="87" t="s">
         <v>133</v>
       </c>
-      <c r="G112" s="30"/>
-      <c r="H112" s="27"/>
-    </row>
-    <row r="113" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A113" s="29">
-        <v>108</v>
-      </c>
-      <c r="B113" s="98"/>
-      <c r="C113" s="93"/>
-      <c r="D113" s="25" t="s">
+      <c r="G118" s="30"/>
+      <c r="H118" s="27"/>
+    </row>
+    <row r="119" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A119" s="29">
+        <v>111</v>
+      </c>
+      <c r="B119" s="98"/>
+      <c r="C119" s="101"/>
+      <c r="D119" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E113" s="89"/>
-      <c r="F113" s="86"/>
-      <c r="G113" s="30"/>
-      <c r="H113" s="27"/>
-    </row>
-    <row r="114" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A114" s="29">
-        <v>109</v>
-      </c>
-      <c r="B114" s="94" t="s">
-        <v>92</v>
-      </c>
-      <c r="C114" s="93" t="s">
-        <v>51</v>
-      </c>
-      <c r="D114" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E114" s="89"/>
-      <c r="F114" s="85" t="s">
-        <v>133</v>
-      </c>
-      <c r="G114" s="30"/>
-      <c r="H114" s="32"/>
-    </row>
-    <row r="115" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A115" s="51">
-        <v>110</v>
-      </c>
-      <c r="B115" s="95"/>
-      <c r="C115" s="93"/>
-      <c r="D115" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="E115" s="89"/>
-      <c r="F115" s="87"/>
-      <c r="G115" s="30"/>
-      <c r="H115" s="32"/>
-    </row>
-    <row r="116" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A116" s="51">
-        <v>111</v>
-      </c>
-      <c r="B116" s="98"/>
-      <c r="C116" s="93"/>
-      <c r="D116" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="E116" s="89"/>
-      <c r="F116" s="86"/>
-      <c r="G116" s="30"/>
-      <c r="H116" s="32"/>
-    </row>
-    <row r="117" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A117" s="29"/>
-      <c r="B117" s="25"/>
-      <c r="C117" s="107" t="s">
-        <v>66</v>
-      </c>
-      <c r="D117" s="107"/>
-      <c r="E117" s="25"/>
-      <c r="F117" s="62"/>
-      <c r="G117" s="30"/>
-      <c r="H117" s="32"/>
-    </row>
-    <row r="118" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A118" s="29">
-        <v>112</v>
-      </c>
-      <c r="B118" s="94" t="s">
-        <v>93</v>
-      </c>
-      <c r="C118" s="93" t="s">
-        <v>64</v>
-      </c>
-      <c r="D118" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="E118" s="89"/>
-      <c r="F118" s="85" t="s">
-        <v>136</v>
-      </c>
-      <c r="G118" s="30"/>
-      <c r="H118" s="32"/>
-    </row>
-    <row r="119" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A119" s="51">
-        <v>113</v>
-      </c>
-      <c r="B119" s="95"/>
-      <c r="C119" s="93"/>
-      <c r="D119" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="E119" s="89"/>
-      <c r="F119" s="87"/>
+      <c r="E119" s="100"/>
+      <c r="F119" s="89"/>
       <c r="G119" s="30"/>
-      <c r="H119" s="32"/>
+      <c r="H119" s="27"/>
     </row>
     <row r="120" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A120" s="51">
-        <v>114</v>
-      </c>
-      <c r="B120" s="95"/>
-      <c r="C120" s="93"/>
-      <c r="D120" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="E120" s="89"/>
-      <c r="F120" s="87"/>
+        <v>112</v>
+      </c>
+      <c r="B120" s="96" t="s">
+        <v>92</v>
+      </c>
+      <c r="C120" s="101" t="s">
+        <v>51</v>
+      </c>
+      <c r="D120" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E120" s="100"/>
+      <c r="F120" s="87" t="s">
+        <v>133</v>
+      </c>
       <c r="G120" s="30"/>
       <c r="H120" s="32"/>
     </row>
     <row r="121" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A121" s="51">
-        <v>115</v>
-      </c>
-      <c r="B121" s="98"/>
-      <c r="C121" s="93"/>
+        <v>113</v>
+      </c>
+      <c r="B121" s="97"/>
+      <c r="C121" s="101"/>
       <c r="D121" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="E121" s="89"/>
-      <c r="F121" s="86"/>
+        <v>33</v>
+      </c>
+      <c r="E121" s="100"/>
+      <c r="F121" s="88"/>
       <c r="G121" s="30"/>
       <c r="H121" s="32"/>
     </row>
     <row r="122" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A122" s="51">
-        <v>116</v>
-      </c>
-      <c r="B122" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="C122" s="30" t="s">
-        <v>65</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="B122" s="98"/>
+      <c r="C122" s="101"/>
       <c r="D122" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E122" s="25"/>
-      <c r="F122" s="62" t="s">
-        <v>135</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="E122" s="100"/>
+      <c r="F122" s="89"/>
       <c r="G122" s="30"/>
       <c r="H122" s="32"/>
     </row>
     <row r="123" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A123" s="25"/>
+      <c r="A123" s="29"/>
       <c r="B123" s="25"/>
-      <c r="C123" s="107" t="s">
-        <v>67</v>
-      </c>
-      <c r="D123" s="107"/>
+      <c r="C123" s="102" t="s">
+        <v>66</v>
+      </c>
+      <c r="D123" s="102"/>
       <c r="E123" s="25"/>
       <c r="F123" s="62"/>
       <c r="G123" s="30"/>
       <c r="H123" s="32"/>
     </row>
-    <row r="124" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A124" s="31">
-        <v>117</v>
-      </c>
-      <c r="B124" s="94" t="s">
-        <v>95</v>
-      </c>
-      <c r="C124" s="93" t="s">
-        <v>69</v>
+    <row r="124" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A124" s="29">
+        <v>115</v>
+      </c>
+      <c r="B124" s="96" t="s">
+        <v>93</v>
+      </c>
+      <c r="C124" s="101" t="s">
+        <v>64</v>
       </c>
       <c r="D124" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="E124" s="89"/>
-      <c r="F124" s="85" t="s">
+        <v>60</v>
+      </c>
+      <c r="E124" s="100"/>
+      <c r="F124" s="87" t="s">
         <v>136</v>
       </c>
       <c r="G124" s="30"/>
       <c r="H124" s="32"/>
     </row>
-    <row r="125" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A125" s="40">
-        <v>118</v>
-      </c>
-      <c r="B125" s="95"/>
-      <c r="C125" s="93"/>
+    <row r="125" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A125" s="51">
+        <v>116</v>
+      </c>
+      <c r="B125" s="97"/>
+      <c r="C125" s="101"/>
       <c r="D125" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E125" s="89"/>
-      <c r="F125" s="87"/>
+        <v>117</v>
+      </c>
+      <c r="E125" s="100"/>
+      <c r="F125" s="88"/>
       <c r="G125" s="30"/>
       <c r="H125" s="32"/>
     </row>
-    <row r="126" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A126" s="40">
-        <v>119</v>
-      </c>
-      <c r="B126" s="98"/>
-      <c r="C126" s="93"/>
-      <c r="D126" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="E126" s="89"/>
-      <c r="F126" s="86"/>
+    <row r="126" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A126" s="51">
+        <v>117</v>
+      </c>
+      <c r="B126" s="97"/>
+      <c r="C126" s="101"/>
+      <c r="D126" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="E126" s="100"/>
+      <c r="F126" s="88"/>
       <c r="G126" s="30"/>
       <c r="H126" s="32"/>
     </row>
-    <row r="127" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A127" s="40">
-        <v>120</v>
-      </c>
-      <c r="B127" s="94" t="s">
-        <v>96</v>
-      </c>
-      <c r="C127" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="D127" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="E127" s="89"/>
-      <c r="F127" s="85" t="s">
-        <v>133</v>
-      </c>
+    <row r="127" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A127" s="51">
+        <v>118</v>
+      </c>
+      <c r="B127" s="98"/>
+      <c r="C127" s="101"/>
+      <c r="D127" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="E127" s="100"/>
+      <c r="F127" s="89"/>
       <c r="G127" s="30"/>
       <c r="H127" s="32"/>
     </row>
-    <row r="128" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A128" s="85">
-        <v>121</v>
-      </c>
-      <c r="B128" s="95"/>
-      <c r="C128" s="92"/>
-      <c r="D128" s="66" t="s">
-        <v>127</v>
-      </c>
-      <c r="E128" s="102"/>
-      <c r="F128" s="87"/>
+    <row r="128" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A128" s="51">
+        <v>119</v>
+      </c>
+      <c r="B128" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C128" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D128" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E128" s="25"/>
+      <c r="F128" s="62" t="s">
+        <v>135</v>
+      </c>
       <c r="G128" s="30"/>
       <c r="H128" s="32"/>
     </row>
-    <row r="129" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A129" s="86"/>
-      <c r="B129" s="95"/>
-      <c r="C129" s="92"/>
-      <c r="D129" s="65" t="s">
-        <v>130</v>
-      </c>
-      <c r="E129" s="102"/>
-      <c r="F129" s="87"/>
-      <c r="G129" s="39"/>
-      <c r="H129" s="52"/>
+    <row r="129" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A129" s="25"/>
+      <c r="B129" s="25"/>
+      <c r="C129" s="102" t="s">
+        <v>67</v>
+      </c>
+      <c r="D129" s="102"/>
+      <c r="E129" s="25"/>
+      <c r="F129" s="62"/>
+      <c r="G129" s="30"/>
+      <c r="H129" s="32"/>
     </row>
     <row r="130" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A130" s="31">
-        <v>122</v>
-      </c>
-      <c r="B130" s="95"/>
-      <c r="C130" s="93"/>
-      <c r="D130" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="E130" s="89"/>
-      <c r="F130" s="87"/>
+        <v>120</v>
+      </c>
+      <c r="B130" s="96" t="s">
+        <v>95</v>
+      </c>
+      <c r="C130" s="101" t="s">
+        <v>69</v>
+      </c>
+      <c r="D130" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="E130" s="100"/>
+      <c r="F130" s="87" t="s">
+        <v>136</v>
+      </c>
       <c r="G130" s="30"/>
       <c r="H130" s="32"/>
     </row>
     <row r="131" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A131" s="31">
-        <v>123</v>
-      </c>
-      <c r="B131" s="98"/>
-      <c r="C131" s="93"/>
+      <c r="A131" s="40">
+        <v>121</v>
+      </c>
+      <c r="B131" s="97"/>
+      <c r="C131" s="101"/>
       <c r="D131" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="E131" s="89"/>
-      <c r="F131" s="86"/>
+        <v>1</v>
+      </c>
+      <c r="E131" s="100"/>
+      <c r="F131" s="88"/>
       <c r="G131" s="30"/>
       <c r="H131" s="32"/>
     </row>
     <row r="132" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A132" s="25"/>
-      <c r="B132" s="25"/>
-      <c r="C132" s="107" t="s">
-        <v>26</v>
-      </c>
-      <c r="D132" s="107"/>
-      <c r="E132" s="25"/>
-      <c r="F132" s="62"/>
+      <c r="A132" s="82">
+        <v>122</v>
+      </c>
+      <c r="B132" s="98"/>
+      <c r="C132" s="101"/>
+      <c r="D132" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E132" s="100"/>
+      <c r="F132" s="89"/>
       <c r="G132" s="30"/>
       <c r="H132" s="32"/>
     </row>
     <row r="133" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A133" s="31">
-        <v>124</v>
-      </c>
-      <c r="B133" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="C133" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D133" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="E133" s="25"/>
-      <c r="F133" s="62" t="s">
-        <v>136</v>
+      <c r="A133" s="82">
+        <v>123</v>
+      </c>
+      <c r="B133" s="96" t="s">
+        <v>96</v>
+      </c>
+      <c r="C133" s="101" t="s">
+        <v>71</v>
+      </c>
+      <c r="D133" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="E133" s="100"/>
+      <c r="F133" s="87" t="s">
+        <v>133</v>
       </c>
       <c r="G133" s="30"/>
       <c r="H133" s="32"/>
     </row>
     <row r="134" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A134" s="31">
-        <v>125</v>
-      </c>
-      <c r="B134" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="C134" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="D134" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="E134" s="25"/>
-      <c r="F134" s="62" t="s">
-        <v>133</v>
-      </c>
+      <c r="A134" s="87">
+        <v>124</v>
+      </c>
+      <c r="B134" s="97"/>
+      <c r="C134" s="107"/>
+      <c r="D134" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="E134" s="99"/>
+      <c r="F134" s="88"/>
       <c r="G134" s="30"/>
       <c r="H134" s="32"/>
     </row>
     <row r="135" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A135" s="85">
-        <v>126</v>
-      </c>
-      <c r="B135" s="94" t="s">
-        <v>99</v>
-      </c>
-      <c r="C135" s="93" t="s">
-        <v>68</v>
-      </c>
-      <c r="D135" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="E135" s="89"/>
-      <c r="F135" s="85" t="s">
-        <v>133</v>
-      </c>
-      <c r="G135" s="30"/>
-      <c r="H135" s="32"/>
+      <c r="A135" s="89"/>
+      <c r="B135" s="97"/>
+      <c r="C135" s="107"/>
+      <c r="D135" s="65" t="s">
+        <v>130</v>
+      </c>
+      <c r="E135" s="99"/>
+      <c r="F135" s="88"/>
+      <c r="G135" s="39"/>
+      <c r="H135" s="52"/>
     </row>
     <row r="136" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A136" s="86"/>
-      <c r="B136" s="98"/>
-      <c r="C136" s="93"/>
-      <c r="D136" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="E136" s="89"/>
-      <c r="F136" s="86"/>
+      <c r="A136" s="31">
+        <v>125</v>
+      </c>
+      <c r="B136" s="97"/>
+      <c r="C136" s="101"/>
+      <c r="D136" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="E136" s="100"/>
+      <c r="F136" s="88"/>
       <c r="G136" s="30"/>
       <c r="H136" s="32"/>
     </row>
     <row r="137" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A137" s="31">
-        <v>127</v>
-      </c>
-      <c r="B137" s="94" t="s">
-        <v>100</v>
-      </c>
-      <c r="C137" s="93" t="s">
-        <v>23</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="B137" s="98"/>
+      <c r="C137" s="101"/>
       <c r="D137" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E137" s="89"/>
-      <c r="F137" s="85" t="s">
-        <v>133</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="E137" s="100"/>
+      <c r="F137" s="89"/>
       <c r="G137" s="30"/>
       <c r="H137" s="32"/>
     </row>
     <row r="138" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A138" s="31">
-        <v>128</v>
-      </c>
-      <c r="B138" s="98"/>
-      <c r="C138" s="93"/>
-      <c r="D138" s="66" t="s">
-        <v>76</v>
-      </c>
-      <c r="E138" s="89"/>
-      <c r="F138" s="86"/>
+      <c r="A138" s="25"/>
+      <c r="B138" s="25"/>
+      <c r="C138" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="D138" s="102"/>
+      <c r="E138" s="25"/>
+      <c r="F138" s="62"/>
       <c r="G138" s="30"/>
       <c r="H138" s="32"/>
     </row>
     <row r="139" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A139" s="85">
-        <v>129</v>
-      </c>
-      <c r="B139" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C139" s="92" t="s">
-        <v>29</v>
-      </c>
-      <c r="D139" s="66" t="s">
-        <v>128</v>
-      </c>
-      <c r="E139" s="102"/>
-      <c r="F139" s="85" t="s">
-        <v>133</v>
+      <c r="A139" s="31">
+        <v>127</v>
+      </c>
+      <c r="B139" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C139" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D139" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E139" s="25"/>
+      <c r="F139" s="62" t="s">
+        <v>136</v>
       </c>
       <c r="G139" s="30"/>
       <c r="H139" s="32"/>
     </row>
     <row r="140" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A140" s="86"/>
-      <c r="B140" s="95"/>
-      <c r="C140" s="92"/>
-      <c r="D140" s="65" t="s">
+      <c r="A140" s="31">
+        <v>128</v>
+      </c>
+      <c r="B140" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C140" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D140" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E140" s="25"/>
+      <c r="F140" s="62" t="s">
+        <v>133</v>
+      </c>
+      <c r="G140" s="30"/>
+      <c r="H140" s="32"/>
+    </row>
+    <row r="141" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A141" s="87">
         <v>129</v>
       </c>
-      <c r="E140" s="102"/>
-      <c r="F140" s="87"/>
-      <c r="G140" s="39"/>
-      <c r="H140" s="52"/>
-    </row>
-    <row r="141" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A141" s="85">
-        <v>130</v>
-      </c>
-      <c r="B141" s="95"/>
-      <c r="C141" s="93"/>
-      <c r="D141" s="65" t="s">
-        <v>8</v>
-      </c>
-      <c r="E141" s="89"/>
-      <c r="F141" s="87"/>
+      <c r="B141" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C141" s="101" t="s">
+        <v>68</v>
+      </c>
+      <c r="D141" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E141" s="100"/>
+      <c r="F141" s="87" t="s">
+        <v>133</v>
+      </c>
       <c r="G141" s="30"/>
       <c r="H141" s="32"/>
     </row>
     <row r="142" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A142" s="87"/>
-      <c r="B142" s="95"/>
-      <c r="C142" s="93"/>
-      <c r="D142" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="E142" s="89"/>
-      <c r="F142" s="87"/>
+      <c r="A142" s="89"/>
+      <c r="B142" s="98"/>
+      <c r="C142" s="101"/>
+      <c r="D142" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="E142" s="100"/>
+      <c r="F142" s="89"/>
       <c r="G142" s="30"/>
       <c r="H142" s="32"/>
     </row>
     <row r="143" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A143" s="87"/>
-      <c r="B143" s="95"/>
-      <c r="C143" s="93"/>
+      <c r="A143" s="31">
+        <v>130</v>
+      </c>
+      <c r="B143" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C143" s="101" t="s">
+        <v>23</v>
+      </c>
       <c r="D143" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="E143" s="89"/>
-      <c r="F143" s="87"/>
+        <v>5</v>
+      </c>
+      <c r="E143" s="100"/>
+      <c r="F143" s="87" t="s">
+        <v>133</v>
+      </c>
       <c r="G143" s="30"/>
       <c r="H143" s="32"/>
     </row>
-    <row r="144" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A144" s="87"/>
-      <c r="B144" s="95"/>
-      <c r="C144" s="93"/>
-      <c r="D144" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="E144" s="89"/>
-      <c r="F144" s="87"/>
+    <row r="144" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A144" s="31">
+        <v>131</v>
+      </c>
+      <c r="B144" s="98"/>
+      <c r="C144" s="101"/>
+      <c r="D144" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="E144" s="100"/>
+      <c r="F144" s="89"/>
       <c r="G144" s="30"/>
       <c r="H144" s="32"/>
     </row>
-    <row r="145" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A145" s="87"/>
-      <c r="B145" s="95"/>
-      <c r="C145" s="93"/>
-      <c r="D145" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="E145" s="89"/>
-      <c r="F145" s="87"/>
+    <row r="145" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A145" s="87">
+        <v>132</v>
+      </c>
+      <c r="B145" s="96" t="s">
+        <v>119</v>
+      </c>
+      <c r="C145" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="D145" s="66" t="s">
+        <v>128</v>
+      </c>
+      <c r="E145" s="99"/>
+      <c r="F145" s="87" t="s">
+        <v>133</v>
+      </c>
       <c r="G145" s="30"/>
       <c r="H145" s="32"/>
     </row>
-    <row r="146" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A146" s="86"/>
-      <c r="B146" s="98"/>
-      <c r="C146" s="93"/>
-      <c r="D146" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="E146" s="89"/>
-      <c r="F146" s="86"/>
-      <c r="G146" s="30"/>
-      <c r="H146" s="32"/>
-    </row>
-    <row r="147" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A147" s="85">
-        <v>131</v>
-      </c>
-      <c r="B147" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C147" s="93" t="s">
-        <v>27</v>
-      </c>
-      <c r="D147" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E147" s="89"/>
-      <c r="F147" s="85" t="s">
-        <v>135</v>
-      </c>
+    <row r="146" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A146" s="89"/>
+      <c r="B146" s="97"/>
+      <c r="C146" s="107"/>
+      <c r="D146" s="65" t="s">
+        <v>129</v>
+      </c>
+      <c r="E146" s="99"/>
+      <c r="F146" s="88"/>
+      <c r="G146" s="39"/>
+      <c r="H146" s="52"/>
+    </row>
+    <row r="147" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A147" s="87">
+        <v>133</v>
+      </c>
+      <c r="B147" s="97"/>
+      <c r="C147" s="101"/>
+      <c r="D147" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="E147" s="100"/>
+      <c r="F147" s="88"/>
       <c r="G147" s="30"/>
       <c r="H147" s="32"/>
     </row>
-    <row r="148" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A148" s="86"/>
-      <c r="B148" s="98"/>
-      <c r="C148" s="93"/>
+    <row r="148" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A148" s="88"/>
+      <c r="B148" s="97"/>
+      <c r="C148" s="101"/>
       <c r="D148" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="E148" s="89"/>
-      <c r="F148" s="86"/>
+        <v>105</v>
+      </c>
+      <c r="E148" s="100"/>
+      <c r="F148" s="88"/>
       <c r="G148" s="30"/>
       <c r="H148" s="32"/>
     </row>
-    <row r="149" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A149" s="22"/>
-      <c r="B149" s="30"/>
-      <c r="C149" s="107" t="s">
-        <v>56</v>
-      </c>
-      <c r="D149" s="107"/>
-      <c r="E149" s="22"/>
-      <c r="F149" s="62"/>
+    <row r="149" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A149" s="88"/>
+      <c r="B149" s="97"/>
+      <c r="C149" s="101"/>
+      <c r="D149" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="E149" s="100"/>
+      <c r="F149" s="88"/>
       <c r="G149" s="30"/>
       <c r="H149" s="32"/>
     </row>
     <row r="150" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A150" s="31">
-        <v>132</v>
-      </c>
-      <c r="B150" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="C150" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="D150" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E150" s="25"/>
-      <c r="F150" s="62" t="s">
-        <v>137</v>
-      </c>
+      <c r="A150" s="88"/>
+      <c r="B150" s="97"/>
+      <c r="C150" s="101"/>
+      <c r="D150" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="E150" s="100"/>
+      <c r="F150" s="88"/>
       <c r="G150" s="30"/>
       <c r="H150" s="32"/>
     </row>
     <row r="151" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A151" s="31">
-        <v>133</v>
-      </c>
-      <c r="B151" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="C151" s="30" t="s">
-        <v>72</v>
-      </c>
+      <c r="A151" s="88"/>
+      <c r="B151" s="97"/>
+      <c r="C151" s="101"/>
       <c r="D151" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="E151" s="25"/>
-      <c r="F151" s="62" t="s">
-        <v>133</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="E151" s="100"/>
+      <c r="F151" s="88"/>
       <c r="G151" s="30"/>
       <c r="H151" s="32"/>
     </row>
     <row r="152" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A152" s="31">
-        <v>134</v>
-      </c>
-      <c r="B152" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C152" s="30" t="s">
-        <v>54</v>
-      </c>
+      <c r="A152" s="89"/>
+      <c r="B152" s="98"/>
+      <c r="C152" s="101"/>
       <c r="D152" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E152" s="25"/>
-      <c r="F152" s="62" t="s">
-        <v>133</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="E152" s="100"/>
+      <c r="F152" s="89"/>
       <c r="G152" s="30"/>
       <c r="H152" s="32"/>
     </row>
     <row r="153" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A153" s="31">
+      <c r="A153" s="87">
+        <v>134</v>
+      </c>
+      <c r="B153" s="96" t="s">
+        <v>120</v>
+      </c>
+      <c r="C153" s="101" t="s">
+        <v>27</v>
+      </c>
+      <c r="D153" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E153" s="100"/>
+      <c r="F153" s="87" t="s">
         <v>135</v>
-      </c>
-      <c r="B153" s="94" t="s">
-        <v>124</v>
-      </c>
-      <c r="C153" s="93" t="s">
-        <v>24</v>
-      </c>
-      <c r="D153" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="E153" s="89"/>
-      <c r="F153" s="85" t="s">
-        <v>138</v>
       </c>
       <c r="G153" s="30"/>
       <c r="H153" s="32"/>
     </row>
     <row r="154" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A154" s="31">
-        <v>136</v>
-      </c>
-      <c r="B154" s="95"/>
-      <c r="C154" s="93"/>
+      <c r="A154" s="89"/>
+      <c r="B154" s="98"/>
+      <c r="C154" s="101"/>
       <c r="D154" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="E154" s="89"/>
-      <c r="F154" s="87"/>
+        <v>110</v>
+      </c>
+      <c r="E154" s="100"/>
+      <c r="F154" s="89"/>
       <c r="G154" s="30"/>
       <c r="H154" s="32"/>
     </row>
     <row r="155" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A155" s="31">
-        <v>137</v>
-      </c>
-      <c r="B155" s="95"/>
-      <c r="C155" s="93"/>
-      <c r="D155" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="E155" s="89"/>
-      <c r="F155" s="87"/>
+      <c r="A155" s="22"/>
+      <c r="B155" s="30"/>
+      <c r="C155" s="102" t="s">
+        <v>56</v>
+      </c>
+      <c r="D155" s="102"/>
+      <c r="E155" s="22"/>
+      <c r="F155" s="62"/>
       <c r="G155" s="30"/>
       <c r="H155" s="32"/>
     </row>
     <row r="156" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A156" s="31">
-        <v>138</v>
-      </c>
-      <c r="B156" s="98"/>
-      <c r="C156" s="93"/>
-      <c r="D156" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="E156" s="89"/>
-      <c r="F156" s="86"/>
+        <v>135</v>
+      </c>
+      <c r="B156" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C156" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D156" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E156" s="25"/>
+      <c r="F156" s="62" t="s">
+        <v>137</v>
+      </c>
       <c r="G156" s="30"/>
       <c r="H156" s="32"/>
     </row>
-    <row r="157" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A157" s="53"/>
-      <c r="B157" s="54"/>
-      <c r="C157" s="55"/>
-      <c r="D157" s="56"/>
-      <c r="E157" s="56"/>
-      <c r="F157" s="53"/>
-      <c r="G157" s="54"/>
-      <c r="H157" s="54"/>
-    </row>
-    <row r="158" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A158" s="53"/>
-      <c r="B158" s="54"/>
-      <c r="C158" s="55"/>
-      <c r="D158" s="56"/>
-      <c r="E158" s="56"/>
-      <c r="F158" s="53"/>
-      <c r="G158" s="54"/>
-      <c r="H158" s="54"/>
-    </row>
-    <row r="159" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A159" s="53"/>
-      <c r="B159" s="54"/>
-      <c r="C159" s="55"/>
-      <c r="D159" s="56"/>
-      <c r="E159" s="56"/>
-      <c r="F159" s="53"/>
-      <c r="G159" s="54"/>
-      <c r="H159" s="54"/>
-    </row>
-    <row r="160" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A160" s="53"/>
-      <c r="B160" s="54"/>
-      <c r="C160" s="55"/>
-      <c r="D160" s="56"/>
-      <c r="E160" s="56"/>
-      <c r="F160" s="53"/>
-      <c r="G160" s="54"/>
-      <c r="H160" s="54"/>
-    </row>
-    <row r="161" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A161" s="53"/>
-      <c r="B161" s="54"/>
-      <c r="C161" s="55"/>
-      <c r="D161" s="56"/>
-      <c r="E161" s="56"/>
-      <c r="F161" s="53"/>
-      <c r="G161" s="54"/>
-      <c r="H161" s="54"/>
-    </row>
-    <row r="162" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A162" s="53"/>
-      <c r="B162" s="54"/>
-      <c r="C162" s="55"/>
-      <c r="D162" s="56"/>
-      <c r="E162" s="56"/>
-      <c r="F162" s="53"/>
-      <c r="G162" s="54"/>
-      <c r="H162" s="54"/>
+    <row r="157" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A157" s="31">
+        <v>136</v>
+      </c>
+      <c r="B157" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="C157" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D157" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E157" s="25"/>
+      <c r="F157" s="62" t="s">
+        <v>133</v>
+      </c>
+      <c r="G157" s="30"/>
+      <c r="H157" s="32"/>
+    </row>
+    <row r="158" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A158" s="82">
+        <v>137</v>
+      </c>
+      <c r="B158" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C158" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D158" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E158" s="25"/>
+      <c r="F158" s="62" t="s">
+        <v>133</v>
+      </c>
+      <c r="G158" s="30"/>
+      <c r="H158" s="32"/>
+    </row>
+    <row r="159" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A159" s="82">
+        <v>138</v>
+      </c>
+      <c r="B159" s="96" t="s">
+        <v>124</v>
+      </c>
+      <c r="C159" s="101" t="s">
+        <v>24</v>
+      </c>
+      <c r="D159" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E159" s="100"/>
+      <c r="F159" s="87" t="s">
+        <v>138</v>
+      </c>
+      <c r="G159" s="30"/>
+      <c r="H159" s="32"/>
+    </row>
+    <row r="160" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A160" s="82">
+        <v>139</v>
+      </c>
+      <c r="B160" s="97"/>
+      <c r="C160" s="101"/>
+      <c r="D160" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E160" s="100"/>
+      <c r="F160" s="88"/>
+      <c r="G160" s="30"/>
+      <c r="H160" s="32"/>
+    </row>
+    <row r="161" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A161" s="82">
+        <v>140</v>
+      </c>
+      <c r="B161" s="97"/>
+      <c r="C161" s="101"/>
+      <c r="D161" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E161" s="100"/>
+      <c r="F161" s="88"/>
+      <c r="G161" s="30"/>
+      <c r="H161" s="32"/>
+    </row>
+    <row r="162" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A162" s="82">
+        <v>141</v>
+      </c>
+      <c r="B162" s="98"/>
+      <c r="C162" s="101"/>
+      <c r="D162" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="E162" s="100"/>
+      <c r="F162" s="89"/>
+      <c r="G162" s="30"/>
+      <c r="H162" s="32"/>
     </row>
     <row r="163" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
       <c r="A163" s="53"/>
       <c r="B163" s="54"/>
       <c r="C163" s="55"/>
-      <c r="D163" s="57"/>
+      <c r="D163" s="56"/>
       <c r="E163" s="56"/>
       <c r="F163" s="53"/>
       <c r="G163" s="54"/>
@@ -12195,7 +11470,7 @@
       <c r="A165" s="53"/>
       <c r="B165" s="54"/>
       <c r="C165" s="55"/>
-      <c r="D165" s="59"/>
+      <c r="D165" s="56"/>
       <c r="E165" s="56"/>
       <c r="F165" s="53"/>
       <c r="G165" s="54"/>
@@ -12205,7 +11480,7 @@
       <c r="A166" s="53"/>
       <c r="B166" s="54"/>
       <c r="C166" s="55"/>
-      <c r="D166" s="60"/>
+      <c r="D166" s="56"/>
       <c r="E166" s="56"/>
       <c r="F166" s="53"/>
       <c r="G166" s="54"/>
@@ -12215,7 +11490,7 @@
       <c r="A167" s="53"/>
       <c r="B167" s="54"/>
       <c r="C167" s="55"/>
-      <c r="D167" s="55"/>
+      <c r="D167" s="56"/>
       <c r="E167" s="56"/>
       <c r="F167" s="53"/>
       <c r="G167" s="54"/>
@@ -12235,7 +11510,7 @@
       <c r="A169" s="53"/>
       <c r="B169" s="54"/>
       <c r="C169" s="55"/>
-      <c r="D169" s="55"/>
+      <c r="D169" s="57"/>
       <c r="E169" s="56"/>
       <c r="F169" s="53"/>
       <c r="G169" s="54"/>
@@ -12245,7 +11520,7 @@
       <c r="A170" s="53"/>
       <c r="B170" s="54"/>
       <c r="C170" s="55"/>
-      <c r="D170" s="55"/>
+      <c r="D170" s="56"/>
       <c r="E170" s="56"/>
       <c r="F170" s="53"/>
       <c r="G170" s="54"/>
@@ -12254,238 +11529,298 @@
     <row r="171" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
       <c r="A171" s="53"/>
       <c r="B171" s="54"/>
-      <c r="C171" s="58"/>
-      <c r="D171" s="56"/>
-      <c r="E171" s="53"/>
+      <c r="C171" s="55"/>
+      <c r="D171" s="59"/>
+      <c r="E171" s="56"/>
       <c r="F171" s="53"/>
       <c r="G171" s="54"/>
       <c r="H171" s="54"/>
     </row>
     <row r="172" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A172" s="55"/>
-      <c r="B172" s="55"/>
+      <c r="A172" s="53"/>
+      <c r="B172" s="54"/>
       <c r="C172" s="55"/>
-      <c r="D172" s="61"/>
-      <c r="E172" s="55"/>
-      <c r="F172" s="58"/>
-      <c r="G172" s="55"/>
-      <c r="H172" s="55"/>
+      <c r="D172" s="60"/>
+      <c r="E172" s="56"/>
+      <c r="F172" s="53"/>
+      <c r="G172" s="54"/>
+      <c r="H172" s="54"/>
     </row>
     <row r="173" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="A173" s="53"/>
+      <c r="B173" s="54"/>
       <c r="C173" s="55"/>
-      <c r="D173" s="45"/>
-      <c r="F173" s="67"/>
+      <c r="D173" s="55"/>
+      <c r="E173" s="56"/>
+      <c r="F173" s="53"/>
+      <c r="G173" s="54"/>
+      <c r="H173" s="54"/>
     </row>
     <row r="174" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="A174" s="53"/>
+      <c r="B174" s="54"/>
       <c r="C174" s="55"/>
-      <c r="D174" s="45"/>
-      <c r="F174" s="67"/>
+      <c r="D174" s="56"/>
+      <c r="E174" s="56"/>
+      <c r="F174" s="53"/>
+      <c r="G174" s="54"/>
+      <c r="H174" s="54"/>
     </row>
     <row r="175" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="A175" s="53"/>
+      <c r="B175" s="54"/>
       <c r="C175" s="55"/>
-      <c r="D175" s="45"/>
-      <c r="F175" s="67"/>
+      <c r="D175" s="55"/>
+      <c r="E175" s="56"/>
+      <c r="F175" s="53"/>
+      <c r="G175" s="54"/>
+      <c r="H175" s="54"/>
     </row>
     <row r="176" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="A176" s="53"/>
+      <c r="B176" s="54"/>
       <c r="C176" s="55"/>
-      <c r="D176" s="45"/>
-      <c r="F176" s="67"/>
-    </row>
-    <row r="177" spans="4:6" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="D177" s="45"/>
-      <c r="F177" s="67"/>
-    </row>
-    <row r="178" spans="4:6" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="D178" s="45"/>
-      <c r="F178" s="67"/>
-    </row>
-    <row r="179" spans="4:6" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="D176" s="55"/>
+      <c r="E176" s="56"/>
+      <c r="F176" s="53"/>
+      <c r="G176" s="54"/>
+      <c r="H176" s="54"/>
+    </row>
+    <row r="177" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="A177" s="53"/>
+      <c r="B177" s="54"/>
+      <c r="C177" s="58"/>
+      <c r="D177" s="56"/>
+      <c r="E177" s="53"/>
+      <c r="F177" s="53"/>
+      <c r="G177" s="54"/>
+      <c r="H177" s="54"/>
+    </row>
+    <row r="178" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="A178" s="55"/>
+      <c r="B178" s="55"/>
+      <c r="C178" s="55"/>
+      <c r="D178" s="61"/>
+      <c r="E178" s="55"/>
+      <c r="F178" s="58"/>
+      <c r="G178" s="55"/>
+      <c r="H178" s="55"/>
+    </row>
+    <row r="179" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="C179" s="55"/>
       <c r="D179" s="45"/>
       <c r="F179" s="67"/>
     </row>
-    <row r="180" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
+    <row r="180" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="C180" s="55"/>
       <c r="D180" s="45"/>
       <c r="F180" s="67"/>
     </row>
-    <row r="181" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
+    <row r="181" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="C181" s="55"/>
       <c r="D181" s="45"/>
       <c r="F181" s="67"/>
     </row>
-    <row r="182" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
+    <row r="182" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="C182" s="55"/>
       <c r="D182" s="45"/>
       <c r="F182" s="67"/>
     </row>
-    <row r="183" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
+    <row r="183" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
       <c r="D183" s="45"/>
       <c r="F183" s="67"/>
     </row>
-    <row r="184" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
+    <row r="184" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
       <c r="D184" s="45"/>
       <c r="F184" s="67"/>
     </row>
-    <row r="185" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
+    <row r="185" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
       <c r="D185" s="45"/>
       <c r="F185" s="67"/>
     </row>
-    <row r="186" spans="4:6" s="46" customFormat="1" ht="26.25" customHeight="1">
-      <c r="D186" s="47"/>
-      <c r="F186" s="68"/>
-    </row>
-    <row r="187" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
+    <row r="186" spans="1:8" s="44" customFormat="1" ht="26.25" customHeight="1">
+      <c r="D186" s="45"/>
+      <c r="F186" s="67"/>
+    </row>
+    <row r="187" spans="1:8" s="44" customFormat="1" ht="26.25" customHeight="1">
       <c r="D187" s="45"/>
       <c r="F187" s="67"/>
     </row>
-    <row r="188" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
+    <row r="188" spans="1:8" s="44" customFormat="1" ht="26.25" customHeight="1">
       <c r="D188" s="45"/>
       <c r="F188" s="67"/>
     </row>
-    <row r="189" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
+    <row r="189" spans="1:8" s="44" customFormat="1" ht="26.25" customHeight="1">
       <c r="D189" s="45"/>
       <c r="F189" s="67"/>
     </row>
+    <row r="190" spans="1:8" s="44" customFormat="1" ht="26.25" customHeight="1">
+      <c r="D190" s="45"/>
+      <c r="F190" s="67"/>
+    </row>
+    <row r="191" spans="1:8" s="44" customFormat="1" ht="26.25" customHeight="1">
+      <c r="D191" s="45"/>
+      <c r="F191" s="67"/>
+    </row>
+    <row r="192" spans="1:8" s="46" customFormat="1" ht="26.25" customHeight="1">
+      <c r="D192" s="47"/>
+      <c r="F192" s="68"/>
+    </row>
+    <row r="193" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
+      <c r="D193" s="45"/>
+      <c r="F193" s="67"/>
+    </row>
+    <row r="194" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
+      <c r="D194" s="45"/>
+      <c r="F194" s="67"/>
+    </row>
+    <row r="195" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
+      <c r="D195" s="45"/>
+      <c r="F195" s="67"/>
+    </row>
   </sheetData>
   <mergeCells count="141">
-    <mergeCell ref="F96:F98"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="F106:F107"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="E85:E89"/>
-    <mergeCell ref="F85:F89"/>
-    <mergeCell ref="E90:E92"/>
-    <mergeCell ref="F90:F92"/>
-    <mergeCell ref="E93:E95"/>
-    <mergeCell ref="F93:F95"/>
-    <mergeCell ref="E99:E104"/>
-    <mergeCell ref="F99:F104"/>
-    <mergeCell ref="E4:E13"/>
-    <mergeCell ref="F4:F13"/>
-    <mergeCell ref="E14:E21"/>
-    <mergeCell ref="F14:F21"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="F25:F34"/>
-    <mergeCell ref="F46:F51"/>
-    <mergeCell ref="E46:E51"/>
-    <mergeCell ref="E25:E34"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="A141:A146"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="A128:A129"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="C14:C21"/>
-    <mergeCell ref="C57:C61"/>
-    <mergeCell ref="B25:B34"/>
-    <mergeCell ref="C52:C56"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="C96:C98"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="C85:C89"/>
-    <mergeCell ref="C90:C92"/>
-    <mergeCell ref="C93:C95"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="C74:C80"/>
-    <mergeCell ref="C65:C69"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="B65:B69"/>
-    <mergeCell ref="C35:C41"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="B153:B156"/>
-    <mergeCell ref="B118:B121"/>
-    <mergeCell ref="B124:B126"/>
-    <mergeCell ref="B127:B131"/>
-    <mergeCell ref="C153:C156"/>
-    <mergeCell ref="C114:C116"/>
-    <mergeCell ref="C118:C121"/>
-    <mergeCell ref="C124:C126"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="C149:D149"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="B139:B146"/>
-    <mergeCell ref="B52:B56"/>
-    <mergeCell ref="B35:B41"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C46:C51"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="B74:B80"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="B85:B89"/>
-    <mergeCell ref="B90:B92"/>
-    <mergeCell ref="E147:E148"/>
-    <mergeCell ref="E153:E156"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="C127:C131"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="C137:C138"/>
-    <mergeCell ref="C139:C146"/>
-    <mergeCell ref="E114:E116"/>
-    <mergeCell ref="E118:E121"/>
-    <mergeCell ref="E124:E126"/>
-    <mergeCell ref="E127:E131"/>
-    <mergeCell ref="E135:E136"/>
-    <mergeCell ref="E137:E138"/>
-    <mergeCell ref="E139:E146"/>
-    <mergeCell ref="E52:E56"/>
-    <mergeCell ref="E57:E61"/>
-    <mergeCell ref="E62:E64"/>
-    <mergeCell ref="E65:E69"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="E74:E80"/>
-    <mergeCell ref="E96:E98"/>
+    <mergeCell ref="B54:B60"/>
+    <mergeCell ref="C54:C60"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="B101:B104"/>
+    <mergeCell ref="C101:C104"/>
+    <mergeCell ref="F153:F154"/>
+    <mergeCell ref="F159:F162"/>
+    <mergeCell ref="F130:F132"/>
+    <mergeCell ref="F133:F137"/>
+    <mergeCell ref="F141:F142"/>
+    <mergeCell ref="F143:F144"/>
+    <mergeCell ref="F145:F152"/>
+    <mergeCell ref="F116:F117"/>
+    <mergeCell ref="F118:F119"/>
+    <mergeCell ref="F120:F122"/>
+    <mergeCell ref="F124:F127"/>
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="E35:E41"/>
+    <mergeCell ref="E43:E46"/>
+    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="E36:E42"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C25:C34"/>
-    <mergeCell ref="F35:F41"/>
-    <mergeCell ref="F42:F45"/>
-    <mergeCell ref="C4:C12"/>
-    <mergeCell ref="B4:B13"/>
-    <mergeCell ref="B93:B95"/>
-    <mergeCell ref="B96:B98"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="B14:B21"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="F52:F56"/>
-    <mergeCell ref="F57:F61"/>
-    <mergeCell ref="F62:F64"/>
-    <mergeCell ref="F65:F69"/>
-    <mergeCell ref="F70:F73"/>
-    <mergeCell ref="F74:F80"/>
-    <mergeCell ref="B46:B51"/>
-    <mergeCell ref="C99:C104"/>
-    <mergeCell ref="F147:F148"/>
-    <mergeCell ref="F153:F156"/>
-    <mergeCell ref="F124:F126"/>
-    <mergeCell ref="F127:F131"/>
-    <mergeCell ref="F135:F136"/>
-    <mergeCell ref="F137:F138"/>
-    <mergeCell ref="F139:F146"/>
-    <mergeCell ref="F110:F111"/>
+    <mergeCell ref="C26:C35"/>
+    <mergeCell ref="F36:F42"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="C4:C13"/>
+    <mergeCell ref="B4:B14"/>
+    <mergeCell ref="B97:B100"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="B15:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="F54:F58"/>
+    <mergeCell ref="F61:F65"/>
+    <mergeCell ref="F66:F68"/>
+    <mergeCell ref="F69:F73"/>
+    <mergeCell ref="F74:F77"/>
+    <mergeCell ref="F78:F84"/>
+    <mergeCell ref="B48:B53"/>
+    <mergeCell ref="C105:C110"/>
+    <mergeCell ref="E153:E154"/>
+    <mergeCell ref="E159:E162"/>
+    <mergeCell ref="C153:C154"/>
+    <mergeCell ref="E118:E119"/>
+    <mergeCell ref="C133:C137"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="C145:C152"/>
+    <mergeCell ref="E120:E122"/>
+    <mergeCell ref="E124:E127"/>
+    <mergeCell ref="E130:E132"/>
+    <mergeCell ref="E133:E137"/>
+    <mergeCell ref="E141:E142"/>
+    <mergeCell ref="E143:E144"/>
+    <mergeCell ref="E145:E152"/>
+    <mergeCell ref="E54:E58"/>
+    <mergeCell ref="E61:E65"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="E69:E73"/>
+    <mergeCell ref="E74:E77"/>
+    <mergeCell ref="E78:E84"/>
+    <mergeCell ref="E101:E103"/>
+    <mergeCell ref="B36:B42"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="C48:C53"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="B78:B84"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="B89:B93"/>
+    <mergeCell ref="B94:B96"/>
+    <mergeCell ref="B153:B154"/>
+    <mergeCell ref="B159:B162"/>
+    <mergeCell ref="B124:B127"/>
+    <mergeCell ref="B130:B132"/>
+    <mergeCell ref="B133:B137"/>
+    <mergeCell ref="C159:C162"/>
+    <mergeCell ref="C120:C122"/>
+    <mergeCell ref="C124:C127"/>
+    <mergeCell ref="C130:C132"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="B145:B152"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A147:A152"/>
+    <mergeCell ref="A153:A154"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C15:C22"/>
+    <mergeCell ref="C61:C65"/>
+    <mergeCell ref="B26:B35"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="C89:C93"/>
+    <mergeCell ref="C94:C96"/>
+    <mergeCell ref="C97:C100"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="C78:C84"/>
+    <mergeCell ref="C69:C73"/>
+    <mergeCell ref="B61:B65"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="C36:C42"/>
+    <mergeCell ref="E4:E14"/>
+    <mergeCell ref="F4:F14"/>
+    <mergeCell ref="E15:E22"/>
+    <mergeCell ref="F15:F22"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="F26:F35"/>
+    <mergeCell ref="F48:F53"/>
+    <mergeCell ref="E48:E53"/>
+    <mergeCell ref="E26:E35"/>
+    <mergeCell ref="F101:F103"/>
+    <mergeCell ref="E112:E113"/>
     <mergeCell ref="F112:F113"/>
-    <mergeCell ref="F114:F116"/>
-    <mergeCell ref="F118:F121"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="E89:E93"/>
+    <mergeCell ref="F89:F93"/>
+    <mergeCell ref="E94:E96"/>
+    <mergeCell ref="F94:F96"/>
+    <mergeCell ref="E97:E100"/>
+    <mergeCell ref="F97:F100"/>
+    <mergeCell ref="E105:E110"/>
+    <mergeCell ref="F105:F110"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -12531,7 +11866,7 @@
       <c r="D8" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="E8" s="109" t="s">
+      <c r="E8" s="111" t="s">
         <v>83</v>
       </c>
     </row>
@@ -12539,13 +11874,13 @@
       <c r="D9" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="E9" s="109"/>
+      <c r="E9" s="111"/>
     </row>
     <row r="10" spans="4:5">
       <c r="D10" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="E10" s="110"/>
+      <c r="E10" s="112"/>
     </row>
     <row r="14" spans="4:5" ht="12.75" thickBot="1">
       <c r="D14" s="35" t="s">
@@ -12559,7 +11894,7 @@
       <c r="D15" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="E15" s="109" t="s">
+      <c r="E15" s="111" t="s">
         <v>83</v>
       </c>
     </row>
@@ -12567,13 +11902,13 @@
       <c r="D16" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="E16" s="109"/>
+      <c r="E16" s="111"/>
     </row>
     <row r="17" spans="4:5">
       <c r="D17" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="E17" s="110"/>
+      <c r="E17" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/문서 관리/01. 요구사항명세서.xlsx
+++ b/문서 관리/01. 요구사항명세서.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20625" windowHeight="9735" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20625" windowHeight="9735" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="310">
   <si>
     <t>시스템 운영상 교육이 필요하다고 판단되어 발주기관이 교육요구 시 협의를 통해 교육 시행</t>
   </si>
@@ -176,9 +176,6 @@
   </si>
   <si>
     <t>유연성, 확장성을 확보할 수 있도록 기능을 모듈화 하여야 함</t>
-  </si>
-  <si>
-    <t>화면 전환, 응답시간 기준 준수</t>
   </si>
   <si>
     <t>사용자 편의성을 고려한
@@ -219,9 +216,6 @@
   </si>
   <si>
     <t>확인 메세지 제공</t>
-  </si>
-  <si>
-    <t>데이터베이스의 설계</t>
   </si>
   <si>
     <t>데이터 정합성 검증</t>
@@ -700,10 +694,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>시스템 개발 중 작성된 SQL문에 대하여 충분히 성능 테스트를 수행하며 성능 지연이 발생하지 않도록 조정해야 함</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>공통</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -744,86 +734,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>로그인 시도 5회 실패 시 본인인증 후 로그인 가능</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>회원가입 시 개인정보 수집</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>〮</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림체"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 동의 및 본인 확인 절차 필요</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>회원가입 시 ID, 비밀번호, 비밀번호 확인, 이름, 성별, 내</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>〮</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림체"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>외국인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>, 연락처, 생년월일, 이메일, 주소, 학교명 필수 입력</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호는 특수문자, 숫자 등을 포함하여 8자리 이상, 15자의 이하로 구성되고, 양식에 맞지 않을 경우 입력창 아래 '비밀번호가 맞지 않습니다' 문구 출력</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>회원가입시 해당 전화번호로 본인인증 수행 (* 이메일 인증으로 대체 가능)</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -832,22 +742,10 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>회원가입 시 필수 입력사항을 입력하지 않았을 시, 입력란 우측에 '* 필수입력사항 입니다' 문구 출력</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 실패시 로그인창 하단에 실패원인 메세지 출력</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>본인인증 미완료시 서비스 이용 부분 제한</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>없는 계정으로 로그인 시 '등록되지 않은 계정입니다. 회원가입 후 이용해주세요.' 팝업창 출력</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>ID/PW 찾기</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -889,10 +787,6 @@
   </si>
   <si>
     <t>마음건강정보</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>스윗(WeeT)</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -1004,42 +898,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>전문상담(교사) 회원에 한해 스윗(Sweet) 확인, 닉네임 등록</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>〮</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림체"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>, 작성 게시글/댓글 확인 기능 제공</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>본인이 작성한 게시글 및 답변글 확인 및 수정 기능</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1048,14 +906,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>본인의 자가진단검사 결과 확인 가능</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>접속 계정, 접속일시, 접속IP, 작업 종류 및 시간에 해당하는 접속 로그 기록 보관</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1080,42 +930,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>내담자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>〮</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림체"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>보호자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 상담동의서, 상담 확정 안내 전송 관리</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>카카오톡 채널을 통해 자주 묻는 질문에 대한 답변 제공</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1124,10 +938,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>검색결과로 나타난 기관의 위치 클릭 시 기관 상세 정보 제공</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>지역별 카테고리에서 특정 지역 선택 시 해당 지역에 위치한 센터의 위치정보를 지도 형태로 출력</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1136,42 +946,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>상담 통계에서 전체</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>〮</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림체"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>센터의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 신청자, 내담자, 게시판 상담, 상담 만족도 검사 상담 통계 정보 제공</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>회원 대상으로 검사사용 현황(검사/연령/상황별) 및 마음건강검사 통계 정보 제공</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1184,162 +958,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">심리상담 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">· </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">생명존중 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">· </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">성 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">· </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">중독 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">· </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>도박</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>아동·청소년</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>지원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>관련</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 기관의 기관명, 연락처 제공</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>배너 클릭 시 해당 유관기관 사이트로 이동</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1348,170 +966,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>전문상담</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>교</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사 회원은 닉네임 등록</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수정 기능 제공</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>게시글 목록은 최신순</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>추천순 등 보기 방식을 변경하여 조회 가능</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>게시글마다 첨부파일 업로드</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>다운로드 기능</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>전문상담</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>교</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사 권한의 계정만 접근가능 게시판</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>학교 업무 공유 게시판, 상담 전문성 공유 게시판, 서식 공유 게시판, 자유 게시판의 하위 메뉴로 구성</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1520,118 +974,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>좋아요</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>유익해요</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>재밌어요</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>추천해요 등 이모티콘 활용 가능</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>전국에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 위치한 Wee-Network의 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">위치를 지도 형태로 제공, 지도 선택 시 기관 소개 내용 및 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">URL 등 상세 정보 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>제공</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>공지사항에 기관별, 제목, 내용 검색 기능 제공</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1640,10 +982,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>QnA 메뉴를 통해 서비스 관련 1대1 문의 기능</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>서비스 이용 불만사항 건의 및 불량 사용자에 대한 신고 기능 제공</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1660,10 +998,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>심리검사 결과에 따라 관련 마음건강정보 콘텐츠를 바로 이용할 수 있도록 구현</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>맞춤형 검사는 사용자가 원하는 검사 선택 시 관련 검사 제공</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1672,10 +1006,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>제시된 상황 선택 시 관련 검사 제공</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>비회원의 경우 개인정보 수집 및 활용 동의 후 심리검사 서비스 이용 가능</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1684,10 +1014,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>비회원의 경우 서비스 이용 불가</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>내담자가 14세 미만인 경우 보호자 상담동의서 선택 기능</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1696,14 +1022,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>탈퇴 신청 회원의 경우 개인정보 30일 보관 이후 영구 삭제</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 탈퇴 계정과 동일 아이디로 재회원가입 제한</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>퀵 메뉴 및 바로가기 아이콘 제공</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1731,117 +1049,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>페이지 형식은 일러스트 형식 적용</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>기획</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>디자인 콘텐츠는 카드뉴스 형식으로 구현</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>위</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">(Wee), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>위네트워크</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(Wee-Network)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>를 탭으로 구성</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>센터별 교육</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>〮</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림체"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>연수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 일정 정보 제공</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>게시판별 연계가 가능하여 모든 게시판에서 확인 가능</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1850,92 +1057,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>서울</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 위(Wee) 센터 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>위치를 지도화하여</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>지도 선택시 위</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(Wee)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">센터 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>26</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>개소의 소개 및 내용 제공</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>공지사항에 전체·26개소에 따른 교육·연수·행사·기타 등록 및 신청자 접수 기능 구현</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1944,32 +1065,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>서울 위플</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">(Weepl) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>앱 서비스 관련 문의 응대</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>마음건강검사 페이지 이동</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1978,32 +1073,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>서울 위</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">(Wee) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>센터 관련 문의 응대</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>카테고리는 대인관계〮학교생활〮마음건강〮위기〮일탈로 구분하여 선택 시 상세 콘텐츠 제공</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -2028,10 +1097,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>게시판 상담은 비대면 상담 신청과 별도로 분리하여 신청</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>FUR-003</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -2185,6 +1250,201 @@
   </si>
   <si>
     <t>퀵 메뉴는 챗봇, SNS, 유관기관으로 연결</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>챗봇</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호는 특수문자, 숫자 등을 포함하여 8자리 이상, 15자의 이하로 구성되고, 양식에 맞지 않을 경우 입력창 아래 '비밀번호가 맞지 않습니다' 붉은색 문구 출력</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 탈퇴 계정과 동일한 아이디로 일정 기간 회원가입 제한</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈퇴 신청 계정으로 로그인 시도 시 '탈퇴 신청한 계정입니다. 계정을 복구하시겠습니까?' 팝업 창 출력</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 시 개인정보 수집〮이용 동의 및 본인 확인 절차 필요</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>전문상담(교사) 회원에 한해 스윗(Sweet) 확인, 닉네임 등록〮수정, 작성 게시글/댓글 확인 기능 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 위(Wee) 센터 위치를 지도화하여 지도 선택시 위(Wee)센터 26개소의 소개 및 내용 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>센터별 교육〮연수 일정 정보 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>위(Wee), 위네트워크(Wee-Network)를 탭으로 구성</t>
+  </si>
+  <si>
+    <t>전문상담(교)사 회원은 닉네임 등록·수정 기능 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아요, 유익해요, 재밌어요, 추천해요 등 이모티콘 활용 가능</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>전국에 위치한 Wee-Network의 위치를 지도 형태로 제공, 지도 선택 시 기관 소개 내용 및 URL 등 상세 정보 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획·디자인 콘텐츠는 카드뉴스 형식으로 구현</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>내담자〮보호자 상담동의서, 상담 확정 안내 전송 관리</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글마다 첨부파일 업로드·다운로드 기능</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 위(Wee) 센터 관련 문의 응대</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 시 ID, 비밀번호, 비밀번호 확인, 이름, 성별, 내〮외국인, 연락처, 생년월일, 이메일, 주소, 학교명 필수 입력</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 목록은 최신순·추천순 등 보기 방식을 변경하여 조회 가능</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>상담 통계에서 전체〮센터의 신청자, 내담자, 게시판 상담, 상담 만족도 검사 상담 통계 정보 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 위플(Weepl) 앱 서비스 관련 문의에 대한 답변 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 안전도는 한글, 영문만 포함 시 낮음, 한글, 영문, 숫자 포함 시 보통, 한글, 영문, 숫자, 특수문자 포함 시 높음으로 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 시 필수 입력사항을 입력하지 않았을 시, 입력란 우측 또는 하단에 '* 필수입력사항 입니다' 붉은색 문구 출력</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>본인이 참여한 마음건강검사에 대해 자가진단검사 결과 확인 가능</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>비회원의 경우 상담 신청 서비스 이용 불가, '로그인 후 이용해주세요' 팝업 창 출력 후 로그인 페이지로 전환</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>심리상담·생명존중·성·중독·도박, 아동·청소년 지원 관련 기관의 기관명, 연락처 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈퇴 신청 회원의 경우 개인정보 30일 유예기간 및 기간 내 계정 복구 가능, 30일 이후 해당 계정 영구 삭제</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>상담 완료' 상태의 상담의 경우 상담 만족도 검사 페이지로 연결되는 버튼 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>키워드 검색, 카테고리별 검색이 가능한 검색 툴 구현</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>전문상담(교)사 권한으로 로그인된 계정만 이용할 수 있도록 구현</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 상담은 비대면 상담 신청과 별도로 분리하여 신청할 수 있도록 구현</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>없는 계정으로 로그인 시 '등록되지 않은 계정입니다. 회원가입 후 이용해주세요.' 팝업 창 출력</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이드 바는 화면 스크롤 위치에 따라 페이지 측면에 항상 위치하도록 구현</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색결과로 나타난 기관의 위치 클릭 시 기관 상세 정보를 해당 위치에서 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>제시된 상황 선택 시 관련 상황별 검사 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>심리검사 결과에 따라 관련 '마음건강정보' 콘텐츠 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>일러스트 형식을 적용하여 페이지 구성</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 시도 5 회 실패 시 본인인증 후 로그인 가능</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.05.03</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 실패시 로그인창 하단에 실패 원인 메세지 출력</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>QnA 메뉴를 통해 1대 1 문의 기능 구현</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 입력 시 '@' 를 포함하지 않으면 '이메일 형태가 올바르지 않습니다.' 붉은색 문구 출력</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>상담 신청 현황에 따라 '예약 완료', '예약 취소', '상담 확정', '상담 진행', '상담 중단', '상담 완료'로 구분하여 상담 상태 정보 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터베이스 구축</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템의 평균 응답 및 처리 시간</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템이 정상 상태에서 사용자의 건별 요청에 대한 처리를 로딩속도(3초 이내) 규정 준수</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>스윗(SWeeT)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 위(Wee) 프로젝트 통합 플랫폼</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>최제윤</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -2360,7 +1620,7 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
+      <name val="굴림체"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -2629,7 +1889,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2849,15 +2109,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2868,6 +2119,27 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2888,15 +2160,6 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2915,6 +2178,21 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2927,13 +2205,13 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2951,20 +2229,14 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4415,13 +3687,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4486,13 +3758,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4557,13 +3829,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4628,13 +3900,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4699,13 +3971,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4770,13 +4042,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4841,13 +4113,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4912,13 +4184,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4983,13 +4255,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5054,13 +4326,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5125,13 +4397,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5196,13 +4468,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5267,13 +4539,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5338,13 +4610,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5409,13 +4681,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5480,13 +4752,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5551,13 +4823,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5622,13 +4894,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5693,13 +4965,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5764,13 +5036,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5835,13 +5107,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5906,13 +5178,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5977,13 +5249,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6048,13 +5320,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6119,13 +5391,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6190,13 +5462,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6261,13 +5533,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6332,13 +5604,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6403,13 +5675,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6474,13 +5746,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6545,13 +5817,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6616,13 +5888,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6687,13 +5959,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6758,13 +6030,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6829,13 +6101,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6900,13 +6172,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6971,13 +6243,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7042,13 +6314,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7113,13 +6385,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7184,13 +6456,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7255,13 +6527,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7326,13 +6598,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7397,13 +6669,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7468,13 +6740,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7539,13 +6811,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7610,13 +6882,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7681,13 +6953,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7752,13 +7024,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7823,13 +7095,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7894,13 +7166,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7965,13 +7237,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8036,13 +7308,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8107,13 +7379,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8178,13 +7450,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8249,13 +7521,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8320,13 +7592,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8391,13 +7663,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8462,13 +7734,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8533,13 +7805,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8604,13 +7876,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8675,13 +7947,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8746,13 +8018,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8817,13 +8089,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8888,13 +8160,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9248,8 +8520,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A8:L36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.5"/>
@@ -9304,6 +8576,9 @@
       <c r="B21" s="6" t="s">
         <v>44</v>
       </c>
+      <c r="C21" s="2" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="7"/>
@@ -9368,7 +8643,9 @@
       <c r="B30" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="8"/>
+      <c r="C30" s="8">
+        <v>1000084691</v>
+      </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
@@ -9500,22 +8777,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" customHeight="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
     </row>
     <row r="2" spans="1:4" ht="21" customHeight="1">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="82" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="82"/>
+      <c r="D2" s="86"/>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="15" t="s">
@@ -9665,17 +8942,17 @@
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H189"/>
+  <dimension ref="A1:H196"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.33203125" style="48" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" style="49" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" style="49" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="49" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="126.109375" style="50" customWidth="1"/>
     <col min="5" max="5" width="15.77734375" style="48" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="16.33203125" style="48" customWidth="1"/>
@@ -9684,32 +8961,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
     </row>
     <row r="2" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="110" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="103" t="s">
-        <v>187</v>
-      </c>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="109" t="s">
+        <v>308</v>
+      </c>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
       <c r="G2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="28"/>
+      <c r="H2" s="28" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="3" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1" thickTop="1">
       <c r="A3" s="21" t="s">
@@ -9728,7 +9007,7 @@
         <v>40</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G3" s="21" t="s">
         <v>34</v>
@@ -9741,20 +9020,20 @@
       <c r="A4" s="51">
         <v>1</v>
       </c>
-      <c r="B4" s="89" t="s">
-        <v>260</v>
-      </c>
-      <c r="C4" s="86" t="s">
-        <v>139</v>
+      <c r="B4" s="90" t="s">
+        <v>222</v>
+      </c>
+      <c r="C4" s="96" t="s">
+        <v>136</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="E4" s="89" t="s">
-        <v>266</v>
-      </c>
-      <c r="F4" s="89" t="s">
-        <v>134</v>
+        <v>278</v>
+      </c>
+      <c r="E4" s="90" t="s">
+        <v>228</v>
+      </c>
+      <c r="F4" s="90" t="s">
+        <v>131</v>
       </c>
       <c r="G4" s="51"/>
       <c r="H4" s="51"/>
@@ -9763,13 +9042,13 @@
       <c r="A5" s="51">
         <v>2</v>
       </c>
-      <c r="B5" s="90"/>
-      <c r="C5" s="87"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="97"/>
       <c r="D5" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
+        <v>266</v>
+      </c>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
       <c r="G5" s="39"/>
       <c r="H5" s="52"/>
     </row>
@@ -9777,13 +9056,13 @@
       <c r="A6" s="51">
         <v>3</v>
       </c>
-      <c r="B6" s="90"/>
-      <c r="C6" s="87"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="97"/>
       <c r="D6" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
+        <v>283</v>
+      </c>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
       <c r="G6" s="39"/>
       <c r="H6" s="52"/>
     </row>
@@ -9791,13 +9070,13 @@
       <c r="A7" s="51">
         <v>4</v>
       </c>
-      <c r="B7" s="90"/>
-      <c r="C7" s="87"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="97"/>
       <c r="D7" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
+        <v>99</v>
+      </c>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
       <c r="G7" s="39"/>
       <c r="H7" s="52"/>
     </row>
@@ -9805,13 +9084,13 @@
       <c r="A8" s="51">
         <v>5</v>
       </c>
-      <c r="B8" s="90"/>
-      <c r="C8" s="87"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="97"/>
       <c r="D8" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
+        <v>140</v>
+      </c>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
       <c r="G8" s="30"/>
       <c r="H8" s="32"/>
     </row>
@@ -9819,13 +9098,13 @@
       <c r="A9" s="51">
         <v>6</v>
       </c>
-      <c r="B9" s="90"/>
-      <c r="C9" s="87"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="97"/>
       <c r="D9" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
+        <v>139</v>
+      </c>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
       <c r="G9" s="30"/>
       <c r="H9" s="32"/>
     </row>
@@ -9833,13 +9112,13 @@
       <c r="A10" s="51">
         <v>7</v>
       </c>
-      <c r="B10" s="90"/>
-      <c r="C10" s="87"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="97"/>
       <c r="D10" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
+        <v>263</v>
+      </c>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
       <c r="G10" s="30"/>
       <c r="H10" s="32"/>
     </row>
@@ -9847,37 +9126,38 @@
       <c r="A11" s="51">
         <v>8</v>
       </c>
-      <c r="B11" s="90"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="32"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="25" t="s">
+        <v>282</v>
+      </c>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="52"/>
     </row>
     <row r="12" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A12" s="51">
         <v>9</v>
       </c>
-      <c r="B12" s="90"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="32"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="52"/>
     </row>
     <row r="13" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A13" s="51">
         <v>10</v>
       </c>
-      <c r="B13" s="90"/>
-      <c r="D13" s="63" t="s">
-        <v>150</v>
+      <c r="B13" s="91"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="26" t="s">
+        <v>100</v>
       </c>
       <c r="E13" s="91"/>
       <c r="F13" s="91"/>
@@ -9888,21 +9168,13 @@
       <c r="A14" s="51">
         <v>11</v>
       </c>
-      <c r="B14" s="89" t="s">
-        <v>261</v>
-      </c>
-      <c r="C14" s="86" t="s">
-        <v>140</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="E14" s="92" t="s">
-        <v>265</v>
-      </c>
-      <c r="F14" s="83" t="s">
-        <v>132</v>
-      </c>
+      <c r="B14" s="91"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
       <c r="G14" s="30"/>
       <c r="H14" s="32"/>
     </row>
@@ -9910,13 +9182,13 @@
       <c r="A15" s="51">
         <v>12</v>
       </c>
-      <c r="B15" s="90"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="93"/>
-      <c r="F15" s="84"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="63" t="s">
+        <v>141</v>
+      </c>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
       <c r="G15" s="30"/>
       <c r="H15" s="32"/>
     </row>
@@ -9924,13 +9196,21 @@
       <c r="A16" s="51">
         <v>13</v>
       </c>
-      <c r="B16" s="90"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="E16" s="93"/>
-      <c r="F16" s="84"/>
+      <c r="B16" s="90" t="s">
+        <v>223</v>
+      </c>
+      <c r="C16" s="96" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="E16" s="93" t="s">
+        <v>227</v>
+      </c>
+      <c r="F16" s="87" t="s">
+        <v>129</v>
+      </c>
       <c r="G16" s="30"/>
       <c r="H16" s="32"/>
     </row>
@@ -9938,13 +9218,13 @@
       <c r="A17" s="51">
         <v>14</v>
       </c>
-      <c r="B17" s="90"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="E17" s="93"/>
-      <c r="F17" s="84"/>
+      <c r="B17" s="91"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="94"/>
+      <c r="F17" s="88"/>
       <c r="G17" s="30"/>
       <c r="H17" s="32"/>
     </row>
@@ -9952,13 +9232,13 @@
       <c r="A18" s="51">
         <v>15</v>
       </c>
-      <c r="B18" s="90"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="E18" s="93"/>
-      <c r="F18" s="84"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="E18" s="94"/>
+      <c r="F18" s="88"/>
       <c r="G18" s="30"/>
       <c r="H18" s="32"/>
     </row>
@@ -9966,13 +9246,13 @@
       <c r="A19" s="51">
         <v>16</v>
       </c>
-      <c r="B19" s="90"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="E19" s="93"/>
-      <c r="F19" s="84"/>
+      <c r="B19" s="91"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="E19" s="94"/>
+      <c r="F19" s="88"/>
       <c r="G19" s="30"/>
       <c r="H19" s="32"/>
     </row>
@@ -9980,13 +9260,13 @@
       <c r="A20" s="51">
         <v>17</v>
       </c>
-      <c r="B20" s="90"/>
-      <c r="C20" s="87"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="97"/>
       <c r="D20" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="E20" s="93"/>
-      <c r="F20" s="84"/>
+        <v>292</v>
+      </c>
+      <c r="E20" s="94"/>
+      <c r="F20" s="88"/>
       <c r="G20" s="30"/>
       <c r="H20" s="32"/>
     </row>
@@ -9995,12 +9275,12 @@
         <v>18</v>
       </c>
       <c r="B21" s="91"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="23" t="s">
-        <v>175</v>
+      <c r="C21" s="97"/>
+      <c r="D21" s="26" t="s">
+        <v>101</v>
       </c>
       <c r="E21" s="94"/>
-      <c r="F21" s="84"/>
+      <c r="F21" s="88"/>
       <c r="G21" s="30"/>
       <c r="H21" s="32"/>
     </row>
@@ -10008,21 +9288,13 @@
       <c r="A22" s="51">
         <v>19</v>
       </c>
-      <c r="B22" s="89" t="s">
-        <v>262</v>
-      </c>
-      <c r="C22" s="86" t="s">
-        <v>152</v>
-      </c>
+      <c r="B22" s="91"/>
+      <c r="C22" s="97"/>
       <c r="D22" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="E22" s="86" t="s">
-        <v>267</v>
-      </c>
-      <c r="F22" s="83" t="s">
-        <v>268</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="E22" s="94"/>
+      <c r="F22" s="88"/>
       <c r="G22" s="30"/>
       <c r="H22" s="32"/>
     </row>
@@ -10030,13 +9302,13 @@
       <c r="A23" s="51">
         <v>20</v>
       </c>
-      <c r="B23" s="90"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="E23" s="87"/>
-      <c r="F23" s="84"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="E23" s="95"/>
+      <c r="F23" s="88"/>
       <c r="G23" s="30"/>
       <c r="H23" s="32"/>
     </row>
@@ -10044,13 +9316,21 @@
       <c r="A24" s="51">
         <v>21</v>
       </c>
-      <c r="B24" s="91"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="E24" s="88"/>
-      <c r="F24" s="85"/>
+      <c r="B24" s="90" t="s">
+        <v>224</v>
+      </c>
+      <c r="C24" s="96" t="s">
+        <v>142</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="E24" s="96" t="s">
+        <v>229</v>
+      </c>
+      <c r="F24" s="87" t="s">
+        <v>230</v>
+      </c>
       <c r="G24" s="30"/>
       <c r="H24" s="32"/>
     </row>
@@ -10058,21 +9338,13 @@
       <c r="A25" s="51">
         <v>22</v>
       </c>
-      <c r="B25" s="86" t="s">
-        <v>126</v>
-      </c>
-      <c r="C25" s="100" t="s">
-        <v>155</v>
-      </c>
-      <c r="D25" s="71" t="s">
-        <v>174</v>
-      </c>
-      <c r="E25" s="101" t="s">
-        <v>269</v>
-      </c>
-      <c r="F25" s="83" t="s">
-        <v>264</v>
-      </c>
+      <c r="B25" s="91"/>
+      <c r="C25" s="97"/>
+      <c r="D25" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="E25" s="97"/>
+      <c r="F25" s="88"/>
       <c r="G25" s="30"/>
       <c r="H25" s="32"/>
     </row>
@@ -10080,41 +9352,49 @@
       <c r="A26" s="51">
         <v>23</v>
       </c>
-      <c r="B26" s="87"/>
-      <c r="C26" s="100"/>
-      <c r="D26" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="E26" s="101"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="52"/>
+      <c r="B26" s="92"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26" s="98"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="32"/>
     </row>
     <row r="27" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A27" s="51">
         <v>24</v>
       </c>
-      <c r="B27" s="87"/>
-      <c r="C27" s="100"/>
-      <c r="D27" s="72" t="s">
-        <v>178</v>
-      </c>
-      <c r="E27" s="101"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="52"/>
+      <c r="B27" s="96" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" s="107" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27" s="71" t="s">
+        <v>163</v>
+      </c>
+      <c r="E27" s="99" t="s">
+        <v>231</v>
+      </c>
+      <c r="F27" s="87" t="s">
+        <v>226</v>
+      </c>
+      <c r="G27" s="30"/>
+      <c r="H27" s="32"/>
     </row>
     <row r="28" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A28" s="51">
         <v>25</v>
       </c>
-      <c r="B28" s="87"/>
-      <c r="C28" s="100"/>
-      <c r="D28" s="71" t="s">
-        <v>179</v>
-      </c>
-      <c r="E28" s="101"/>
-      <c r="F28" s="84"/>
+      <c r="B28" s="97"/>
+      <c r="C28" s="107"/>
+      <c r="D28" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="E28" s="99"/>
+      <c r="F28" s="88"/>
       <c r="G28" s="39"/>
       <c r="H28" s="52"/>
     </row>
@@ -10122,13 +9402,13 @@
       <c r="A29" s="51">
         <v>26</v>
       </c>
-      <c r="B29" s="87"/>
-      <c r="C29" s="100"/>
-      <c r="D29" s="71" t="s">
-        <v>180</v>
-      </c>
-      <c r="E29" s="101"/>
-      <c r="F29" s="84"/>
+      <c r="B29" s="97"/>
+      <c r="C29" s="107"/>
+      <c r="D29" s="72" t="s">
+        <v>167</v>
+      </c>
+      <c r="E29" s="99"/>
+      <c r="F29" s="88"/>
       <c r="G29" s="39"/>
       <c r="H29" s="52"/>
     </row>
@@ -10136,13 +9416,13 @@
       <c r="A30" s="51">
         <v>27</v>
       </c>
-      <c r="B30" s="87"/>
-      <c r="C30" s="100"/>
+      <c r="B30" s="97"/>
+      <c r="C30" s="107"/>
       <c r="D30" s="71" t="s">
-        <v>181</v>
-      </c>
-      <c r="E30" s="101"/>
-      <c r="F30" s="84"/>
+        <v>168</v>
+      </c>
+      <c r="E30" s="99"/>
+      <c r="F30" s="88"/>
       <c r="G30" s="39"/>
       <c r="H30" s="52"/>
     </row>
@@ -10150,41 +9430,41 @@
       <c r="A31" s="51">
         <v>28</v>
       </c>
-      <c r="B31" s="87"/>
-      <c r="C31" s="95"/>
-      <c r="D31" s="24" t="s">
-        <v>182</v>
+      <c r="B31" s="97"/>
+      <c r="C31" s="107"/>
+      <c r="D31" s="71" t="s">
+        <v>169</v>
       </c>
       <c r="E31" s="99"/>
-      <c r="F31" s="84"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="32"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="52"/>
     </row>
     <row r="32" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A32" s="51">
         <v>29</v>
       </c>
-      <c r="B32" s="87"/>
-      <c r="C32" s="95"/>
-      <c r="D32" s="25" t="s">
-        <v>184</v>
+      <c r="B32" s="97"/>
+      <c r="C32" s="107"/>
+      <c r="D32" s="71" t="s">
+        <v>170</v>
       </c>
       <c r="E32" s="99"/>
-      <c r="F32" s="84"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="32"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="52"/>
     </row>
     <row r="33" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A33" s="51">
         <v>30</v>
       </c>
-      <c r="B33" s="87"/>
-      <c r="C33" s="95"/>
-      <c r="D33" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="E33" s="99"/>
-      <c r="F33" s="84"/>
+      <c r="B33" s="97"/>
+      <c r="C33" s="101"/>
+      <c r="D33" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="E33" s="100"/>
+      <c r="F33" s="88"/>
       <c r="G33" s="30"/>
       <c r="H33" s="32"/>
     </row>
@@ -10192,13 +9472,13 @@
       <c r="A34" s="51">
         <v>31</v>
       </c>
-      <c r="B34" s="88"/>
-      <c r="C34" s="95"/>
-      <c r="D34" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="E34" s="99"/>
-      <c r="F34" s="85"/>
+      <c r="B34" s="97"/>
+      <c r="C34" s="101"/>
+      <c r="D34" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="E34" s="100"/>
+      <c r="F34" s="88"/>
       <c r="G34" s="30"/>
       <c r="H34" s="32"/>
     </row>
@@ -10206,21 +9486,13 @@
       <c r="A35" s="51">
         <v>32</v>
       </c>
-      <c r="B35" s="86" t="s">
-        <v>85</v>
-      </c>
-      <c r="C35" s="95" t="s">
-        <v>156</v>
-      </c>
-      <c r="D35" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="E35" s="99" t="s">
-        <v>272</v>
-      </c>
-      <c r="F35" s="83" t="s">
-        <v>270</v>
-      </c>
+      <c r="B35" s="97"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="E35" s="100"/>
+      <c r="F35" s="88"/>
       <c r="G35" s="30"/>
       <c r="H35" s="32"/>
     </row>
@@ -10228,13 +9500,13 @@
       <c r="A36" s="51">
         <v>33</v>
       </c>
-      <c r="B36" s="87"/>
-      <c r="C36" s="95"/>
-      <c r="D36" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="E36" s="99"/>
-      <c r="F36" s="84"/>
+      <c r="B36" s="98"/>
+      <c r="C36" s="101"/>
+      <c r="D36" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="E36" s="100"/>
+      <c r="F36" s="89"/>
       <c r="G36" s="30"/>
       <c r="H36" s="32"/>
     </row>
@@ -10242,13 +9514,21 @@
       <c r="A37" s="51">
         <v>34</v>
       </c>
-      <c r="B37" s="87"/>
-      <c r="C37" s="95"/>
+      <c r="B37" s="96" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="101" t="s">
+        <v>146</v>
+      </c>
       <c r="D37" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="E37" s="99"/>
-      <c r="F37" s="84"/>
+        <v>174</v>
+      </c>
+      <c r="E37" s="100" t="s">
+        <v>234</v>
+      </c>
+      <c r="F37" s="87" t="s">
+        <v>232</v>
+      </c>
       <c r="G37" s="30"/>
       <c r="H37" s="32"/>
     </row>
@@ -10256,13 +9536,13 @@
       <c r="A38" s="51">
         <v>35</v>
       </c>
-      <c r="B38" s="87"/>
-      <c r="C38" s="95"/>
+      <c r="B38" s="97"/>
+      <c r="C38" s="101"/>
       <c r="D38" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="E38" s="99"/>
-      <c r="F38" s="84"/>
+        <v>175</v>
+      </c>
+      <c r="E38" s="100"/>
+      <c r="F38" s="88"/>
       <c r="G38" s="30"/>
       <c r="H38" s="32"/>
     </row>
@@ -10270,13 +9550,13 @@
       <c r="A39" s="51">
         <v>36</v>
       </c>
-      <c r="B39" s="87"/>
-      <c r="C39" s="95"/>
+      <c r="B39" s="97"/>
+      <c r="C39" s="101"/>
       <c r="D39" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="E39" s="99"/>
-      <c r="F39" s="84"/>
+        <v>176</v>
+      </c>
+      <c r="E39" s="100"/>
+      <c r="F39" s="88"/>
       <c r="G39" s="30"/>
       <c r="H39" s="32"/>
     </row>
@@ -10284,13 +9564,13 @@
       <c r="A40" s="51">
         <v>37</v>
       </c>
-      <c r="B40" s="87"/>
-      <c r="C40" s="95"/>
+      <c r="B40" s="97"/>
+      <c r="C40" s="101"/>
       <c r="D40" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="E40" s="99"/>
-      <c r="F40" s="84"/>
+        <v>177</v>
+      </c>
+      <c r="E40" s="100"/>
+      <c r="F40" s="88"/>
       <c r="G40" s="30"/>
       <c r="H40" s="32"/>
     </row>
@@ -10298,13 +9578,13 @@
       <c r="A41" s="51">
         <v>38</v>
       </c>
-      <c r="B41" s="87"/>
-      <c r="C41" s="95"/>
+      <c r="B41" s="97"/>
+      <c r="C41" s="101"/>
       <c r="D41" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="E41" s="99"/>
-      <c r="F41" s="84"/>
+        <v>275</v>
+      </c>
+      <c r="E41" s="100"/>
+      <c r="F41" s="88"/>
       <c r="G41" s="30"/>
       <c r="H41" s="32"/>
     </row>
@@ -10312,21 +9592,13 @@
       <c r="A42" s="51">
         <v>39</v>
       </c>
-      <c r="B42" s="86" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" s="95" t="s">
-        <v>157</v>
-      </c>
-      <c r="D42" s="73" t="s">
-        <v>238</v>
-      </c>
-      <c r="E42" s="99" t="s">
-        <v>273</v>
-      </c>
-      <c r="F42" s="83" t="s">
-        <v>271</v>
-      </c>
+      <c r="B42" s="97"/>
+      <c r="C42" s="101"/>
+      <c r="D42" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="E42" s="100"/>
+      <c r="F42" s="88"/>
       <c r="G42" s="30"/>
       <c r="H42" s="32"/>
     </row>
@@ -10334,13 +9606,13 @@
       <c r="A43" s="51">
         <v>40</v>
       </c>
-      <c r="B43" s="87"/>
-      <c r="C43" s="95"/>
-      <c r="D43" s="25" t="s">
-        <v>239</v>
-      </c>
-      <c r="E43" s="99"/>
-      <c r="F43" s="84"/>
+      <c r="B43" s="97"/>
+      <c r="C43" s="101"/>
+      <c r="D43" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="E43" s="100"/>
+      <c r="F43" s="88"/>
       <c r="G43" s="30"/>
       <c r="H43" s="32"/>
     </row>
@@ -10348,13 +9620,21 @@
       <c r="A44" s="51">
         <v>41</v>
       </c>
-      <c r="B44" s="87"/>
-      <c r="C44" s="95"/>
-      <c r="D44" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="E44" s="99"/>
-      <c r="F44" s="84"/>
+      <c r="B44" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="96" t="s">
+        <v>147</v>
+      </c>
+      <c r="D44" s="113" t="s">
+        <v>208</v>
+      </c>
+      <c r="E44" s="100" t="s">
+        <v>235</v>
+      </c>
+      <c r="F44" s="87" t="s">
+        <v>233</v>
+      </c>
       <c r="G44" s="30"/>
       <c r="H44" s="32"/>
     </row>
@@ -10362,13 +9642,13 @@
       <c r="A45" s="51">
         <v>42</v>
       </c>
-      <c r="B45" s="88"/>
-      <c r="C45" s="95"/>
-      <c r="D45" s="73" t="s">
-        <v>255</v>
-      </c>
-      <c r="E45" s="99"/>
-      <c r="F45" s="85"/>
+      <c r="B45" s="97"/>
+      <c r="C45" s="97"/>
+      <c r="D45" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="E45" s="100"/>
+      <c r="F45" s="88"/>
       <c r="G45" s="30"/>
       <c r="H45" s="32"/>
     </row>
@@ -10376,35 +9656,27 @@
       <c r="A46" s="51">
         <v>43</v>
       </c>
-      <c r="B46" s="86" t="s">
-        <v>87</v>
-      </c>
-      <c r="C46" s="86" t="s">
-        <v>158</v>
-      </c>
-      <c r="D46" s="74" t="s">
-        <v>256</v>
-      </c>
-      <c r="E46" s="83" t="s">
-        <v>274</v>
-      </c>
-      <c r="F46" s="83" t="s">
-        <v>271</v>
-      </c>
-      <c r="G46" s="70"/>
-      <c r="H46" s="52"/>
+      <c r="B46" s="97"/>
+      <c r="C46" s="97"/>
+      <c r="D46" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="E46" s="100"/>
+      <c r="F46" s="88"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="32"/>
     </row>
     <row r="47" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A47" s="51">
         <v>44</v>
       </c>
-      <c r="B47" s="87"/>
-      <c r="C47" s="87"/>
-      <c r="D47" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="E47" s="84"/>
-      <c r="F47" s="84"/>
+      <c r="B47" s="97"/>
+      <c r="C47" s="97"/>
+      <c r="D47" s="114" t="s">
+        <v>218</v>
+      </c>
+      <c r="E47" s="100"/>
+      <c r="F47" s="89"/>
       <c r="G47" s="30"/>
       <c r="H47" s="32"/>
     </row>
@@ -10412,105 +9684,105 @@
       <c r="A48" s="51">
         <v>45</v>
       </c>
-      <c r="B48" s="87"/>
-      <c r="C48" s="87"/>
-      <c r="D48" s="73" t="s">
-        <v>246</v>
-      </c>
-      <c r="E48" s="84"/>
-      <c r="F48" s="84"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="32"/>
+      <c r="B48" s="98"/>
+      <c r="C48" s="98"/>
+      <c r="D48" s="114" t="s">
+        <v>289</v>
+      </c>
+      <c r="E48" s="80"/>
+      <c r="F48" s="81"/>
+      <c r="G48" s="83"/>
+      <c r="H48" s="52"/>
     </row>
     <row r="49" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A49" s="51">
         <v>46</v>
       </c>
-      <c r="B49" s="87"/>
-      <c r="C49" s="87"/>
-      <c r="D49" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="E49" s="84"/>
-      <c r="F49" s="84"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="32"/>
+      <c r="B49" s="96" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="96" t="s">
+        <v>148</v>
+      </c>
+      <c r="D49" s="114" t="s">
+        <v>219</v>
+      </c>
+      <c r="E49" s="87" t="s">
+        <v>236</v>
+      </c>
+      <c r="F49" s="87" t="s">
+        <v>233</v>
+      </c>
+      <c r="G49" s="70"/>
+      <c r="H49" s="52"/>
     </row>
     <row r="50" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A50" s="51">
         <v>47</v>
       </c>
-      <c r="B50" s="87"/>
-      <c r="C50" s="87"/>
-      <c r="D50" s="73" t="s">
-        <v>248</v>
-      </c>
-      <c r="E50" s="84"/>
-      <c r="F50" s="84"/>
-      <c r="G50" s="69"/>
-      <c r="H50" s="52"/>
+      <c r="B50" s="97"/>
+      <c r="C50" s="97"/>
+      <c r="D50" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="E50" s="88"/>
+      <c r="F50" s="88"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="32"/>
     </row>
     <row r="51" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A51" s="51">
         <v>48</v>
       </c>
-      <c r="B51" s="87"/>
-      <c r="C51" s="88"/>
-      <c r="D51" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="E51" s="84"/>
-      <c r="F51" s="84"/>
+      <c r="B51" s="97"/>
+      <c r="C51" s="97"/>
+      <c r="D51" s="113" t="s">
+        <v>268</v>
+      </c>
+      <c r="E51" s="88"/>
+      <c r="F51" s="88"/>
       <c r="G51" s="30"/>
       <c r="H51" s="32"/>
     </row>
-    <row r="52" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+    <row r="52" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A52" s="51">
         <v>49</v>
       </c>
-      <c r="B52" s="86" t="s">
-        <v>88</v>
-      </c>
-      <c r="C52" s="95" t="s">
-        <v>159</v>
-      </c>
+      <c r="B52" s="97"/>
+      <c r="C52" s="97"/>
       <c r="D52" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="E52" s="99" t="s">
-        <v>275</v>
-      </c>
-      <c r="F52" s="83" t="s">
-        <v>276</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="E52" s="88"/>
+      <c r="F52" s="88"/>
       <c r="G52" s="30"/>
       <c r="H52" s="32"/>
     </row>
-    <row r="53" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+    <row r="53" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A53" s="51">
         <v>50</v>
       </c>
-      <c r="B53" s="87"/>
-      <c r="C53" s="95"/>
-      <c r="D53" s="42" t="s">
-        <v>228</v>
-      </c>
-      <c r="E53" s="99"/>
-      <c r="F53" s="84"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="32"/>
-    </row>
-    <row r="54" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="B53" s="97"/>
+      <c r="C53" s="97"/>
+      <c r="D53" s="113" t="s">
+        <v>213</v>
+      </c>
+      <c r="E53" s="88"/>
+      <c r="F53" s="88"/>
+      <c r="G53" s="69"/>
+      <c r="H53" s="52"/>
+    </row>
+    <row r="54" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A54" s="51">
         <v>51</v>
       </c>
-      <c r="B54" s="87"/>
-      <c r="C54" s="95"/>
+      <c r="B54" s="97"/>
+      <c r="C54" s="98"/>
       <c r="D54" s="25" t="s">
-        <v>257</v>
-      </c>
-      <c r="E54" s="99"/>
-      <c r="F54" s="84"/>
+        <v>217</v>
+      </c>
+      <c r="E54" s="88"/>
+      <c r="F54" s="88"/>
       <c r="G54" s="30"/>
       <c r="H54" s="32"/>
     </row>
@@ -10518,124 +9790,126 @@
       <c r="A55" s="51">
         <v>52</v>
       </c>
-      <c r="B55" s="87"/>
-      <c r="C55" s="95"/>
-      <c r="D55" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="E55" s="99"/>
-      <c r="F55" s="84"/>
+      <c r="B55" s="96" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" s="96" t="s">
+        <v>149</v>
+      </c>
+      <c r="D55" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="E55" s="100" t="s">
+        <v>237</v>
+      </c>
+      <c r="F55" s="87" t="s">
+        <v>238</v>
+      </c>
       <c r="G55" s="30"/>
       <c r="H55" s="32"/>
     </row>
-    <row r="56" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+    <row r="56" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A56" s="51">
         <v>53</v>
       </c>
-      <c r="B56" s="88"/>
-      <c r="C56" s="95"/>
-      <c r="D56" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="E56" s="99"/>
-      <c r="F56" s="85"/>
+      <c r="B56" s="97"/>
+      <c r="C56" s="97"/>
+      <c r="D56" s="42" t="s">
+        <v>285</v>
+      </c>
+      <c r="E56" s="100"/>
+      <c r="F56" s="88"/>
       <c r="G56" s="30"/>
       <c r="H56" s="32"/>
     </row>
-    <row r="57" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+    <row r="57" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A57" s="51">
         <v>54</v>
       </c>
-      <c r="B57" s="86" t="s">
-        <v>263</v>
-      </c>
-      <c r="C57" s="86" t="s">
-        <v>160</v>
-      </c>
-      <c r="D57" s="74" t="s">
-        <v>236</v>
-      </c>
-      <c r="E57" s="83" t="s">
-        <v>296</v>
-      </c>
-      <c r="F57" s="83" t="s">
-        <v>297</v>
-      </c>
-      <c r="G57" s="69"/>
-      <c r="H57" s="52"/>
-    </row>
-    <row r="58" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="B57" s="97"/>
+      <c r="C57" s="97"/>
+      <c r="D57" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="E57" s="100"/>
+      <c r="F57" s="88"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="32"/>
+    </row>
+    <row r="58" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A58" s="51">
         <v>55</v>
       </c>
-      <c r="B58" s="87"/>
-      <c r="C58" s="87"/>
-      <c r="D58" s="74" t="s">
-        <v>237</v>
-      </c>
-      <c r="E58" s="84"/>
-      <c r="F58" s="84"/>
-      <c r="G58" s="69"/>
-      <c r="H58" s="52"/>
+      <c r="B58" s="97"/>
+      <c r="C58" s="97"/>
+      <c r="D58" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="E58" s="100"/>
+      <c r="F58" s="88"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="32"/>
     </row>
     <row r="59" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A59" s="51">
         <v>56</v>
       </c>
-      <c r="B59" s="87"/>
-      <c r="C59" s="87"/>
-      <c r="D59" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="E59" s="84"/>
-      <c r="F59" s="84"/>
-      <c r="G59" s="69"/>
-      <c r="H59" s="52"/>
+      <c r="B59" s="97"/>
+      <c r="C59" s="97"/>
+      <c r="D59" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="E59" s="100"/>
+      <c r="F59" s="89"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="32"/>
     </row>
     <row r="60" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A60" s="51">
         <v>57</v>
       </c>
-      <c r="B60" s="87"/>
-      <c r="C60" s="87"/>
-      <c r="D60" s="43" t="s">
-        <v>258</v>
-      </c>
-      <c r="E60" s="84"/>
-      <c r="F60" s="84"/>
-      <c r="G60" s="69"/>
+      <c r="B60" s="97"/>
+      <c r="C60" s="97"/>
+      <c r="D60" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="E60" s="80"/>
+      <c r="F60" s="81"/>
+      <c r="G60" s="83"/>
       <c r="H60" s="52"/>
     </row>
     <row r="61" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A61" s="51">
         <v>58</v>
       </c>
-      <c r="B61" s="88"/>
-      <c r="C61" s="87"/>
-      <c r="D61" s="24" t="s">
-        <v>259</v>
-      </c>
-      <c r="E61" s="85"/>
-      <c r="F61" s="85"/>
-      <c r="G61" s="69"/>
+      <c r="B61" s="98"/>
+      <c r="C61" s="98"/>
+      <c r="D61" s="115" t="s">
+        <v>288</v>
+      </c>
+      <c r="E61" s="80"/>
+      <c r="F61" s="81"/>
+      <c r="G61" s="83"/>
       <c r="H61" s="52"/>
     </row>
     <row r="62" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A62" s="51">
         <v>59</v>
       </c>
-      <c r="B62" s="86"/>
-      <c r="C62" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="D62" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="E62" s="83" t="s">
-        <v>294</v>
-      </c>
-      <c r="F62" s="83" t="s">
-        <v>295</v>
+      <c r="B62" s="96" t="s">
+        <v>225</v>
+      </c>
+      <c r="C62" s="96" t="s">
+        <v>150</v>
+      </c>
+      <c r="D62" s="114" t="s">
+        <v>206</v>
+      </c>
+      <c r="E62" s="87" t="s">
+        <v>258</v>
+      </c>
+      <c r="F62" s="87" t="s">
+        <v>259</v>
       </c>
       <c r="G62" s="69"/>
       <c r="H62" s="52"/>
@@ -10644,13 +9918,13 @@
       <c r="A63" s="51">
         <v>60</v>
       </c>
-      <c r="B63" s="87"/>
-      <c r="C63" s="98"/>
-      <c r="D63" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="E63" s="84"/>
-      <c r="F63" s="84"/>
+      <c r="B63" s="97"/>
+      <c r="C63" s="97"/>
+      <c r="D63" s="114" t="s">
+        <v>207</v>
+      </c>
+      <c r="E63" s="88"/>
+      <c r="F63" s="88"/>
       <c r="G63" s="69"/>
       <c r="H63" s="52"/>
     </row>
@@ -10658,13 +9932,13 @@
       <c r="A64" s="51">
         <v>61</v>
       </c>
-      <c r="B64" s="88"/>
-      <c r="C64" s="98"/>
-      <c r="D64" s="73" t="s">
-        <v>242</v>
-      </c>
-      <c r="E64" s="85"/>
-      <c r="F64" s="85"/>
+      <c r="B64" s="97"/>
+      <c r="C64" s="97"/>
+      <c r="D64" s="114" t="s">
+        <v>211</v>
+      </c>
+      <c r="E64" s="88"/>
+      <c r="F64" s="88"/>
       <c r="G64" s="69"/>
       <c r="H64" s="52"/>
     </row>
@@ -10672,19 +9946,13 @@
       <c r="A65" s="51">
         <v>62</v>
       </c>
-      <c r="B65" s="86"/>
-      <c r="C65" s="86" t="s">
-        <v>161</v>
-      </c>
-      <c r="D65" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="E65" s="83" t="s">
-        <v>293</v>
-      </c>
-      <c r="F65" s="83" t="s">
-        <v>268</v>
-      </c>
+      <c r="B65" s="97"/>
+      <c r="C65" s="97"/>
+      <c r="D65" s="43" t="s">
+        <v>221</v>
+      </c>
+      <c r="E65" s="88"/>
+      <c r="F65" s="88"/>
       <c r="G65" s="69"/>
       <c r="H65" s="52"/>
     </row>
@@ -10692,13 +9960,13 @@
       <c r="A66" s="51">
         <v>63</v>
       </c>
-      <c r="B66" s="87"/>
-      <c r="C66" s="87"/>
-      <c r="D66" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="E66" s="84"/>
-      <c r="F66" s="84"/>
+      <c r="B66" s="98"/>
+      <c r="C66" s="97"/>
+      <c r="D66" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="E66" s="89"/>
+      <c r="F66" s="89"/>
       <c r="G66" s="69"/>
       <c r="H66" s="52"/>
     </row>
@@ -10706,13 +9974,19 @@
       <c r="A67" s="51">
         <v>64</v>
       </c>
-      <c r="B67" s="87"/>
-      <c r="C67" s="87"/>
-      <c r="D67" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="E67" s="84"/>
-      <c r="F67" s="84"/>
+      <c r="B67" s="96"/>
+      <c r="C67" s="103" t="s">
+        <v>156</v>
+      </c>
+      <c r="D67" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="E67" s="87" t="s">
+        <v>256</v>
+      </c>
+      <c r="F67" s="87" t="s">
+        <v>257</v>
+      </c>
       <c r="G67" s="69"/>
       <c r="H67" s="52"/>
     </row>
@@ -10720,13 +9994,13 @@
       <c r="A68" s="51">
         <v>65</v>
       </c>
-      <c r="B68" s="87"/>
-      <c r="C68" s="87"/>
+      <c r="B68" s="97"/>
+      <c r="C68" s="104"/>
       <c r="D68" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="E68" s="84"/>
-      <c r="F68" s="84"/>
+        <v>210</v>
+      </c>
+      <c r="E68" s="88"/>
+      <c r="F68" s="88"/>
       <c r="G68" s="69"/>
       <c r="H68" s="52"/>
     </row>
@@ -10734,13 +10008,13 @@
       <c r="A69" s="51">
         <v>66</v>
       </c>
-      <c r="B69" s="88"/>
-      <c r="C69" s="88"/>
-      <c r="D69" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="E69" s="85"/>
-      <c r="F69" s="85"/>
+      <c r="B69" s="98"/>
+      <c r="C69" s="104"/>
+      <c r="D69" s="113" t="s">
+        <v>270</v>
+      </c>
+      <c r="E69" s="89"/>
+      <c r="F69" s="89"/>
       <c r="G69" s="69"/>
       <c r="H69" s="52"/>
     </row>
@@ -10748,18 +10022,18 @@
       <c r="A70" s="51">
         <v>67</v>
       </c>
-      <c r="B70" s="86"/>
-      <c r="C70" s="86" t="s">
-        <v>162</v>
+      <c r="B70" s="96"/>
+      <c r="C70" s="96" t="s">
+        <v>151</v>
       </c>
       <c r="D70" s="24" t="s">
-        <v>220</v>
-      </c>
-      <c r="E70" s="83" t="s">
-        <v>290</v>
-      </c>
-      <c r="F70" s="83" t="s">
-        <v>292</v>
+        <v>197</v>
+      </c>
+      <c r="E70" s="87" t="s">
+        <v>255</v>
+      </c>
+      <c r="F70" s="87" t="s">
+        <v>230</v>
       </c>
       <c r="G70" s="69"/>
       <c r="H70" s="52"/>
@@ -10768,27 +10042,27 @@
       <c r="A71" s="51">
         <v>68</v>
       </c>
-      <c r="B71" s="87"/>
-      <c r="C71" s="87"/>
-      <c r="D71" s="73" t="s">
-        <v>241</v>
-      </c>
-      <c r="E71" s="84"/>
-      <c r="F71" s="84"/>
-      <c r="G71" s="70"/>
+      <c r="B71" s="97"/>
+      <c r="C71" s="97"/>
+      <c r="D71" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="E71" s="88"/>
+      <c r="F71" s="88"/>
+      <c r="G71" s="69"/>
       <c r="H71" s="52"/>
     </row>
     <row r="72" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A72" s="51">
         <v>69</v>
       </c>
-      <c r="B72" s="87"/>
-      <c r="C72" s="87"/>
-      <c r="D72" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="E72" s="84"/>
-      <c r="F72" s="84"/>
+      <c r="B72" s="97"/>
+      <c r="C72" s="97"/>
+      <c r="D72" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="E72" s="88"/>
+      <c r="F72" s="88"/>
       <c r="G72" s="69"/>
       <c r="H72" s="52"/>
     </row>
@@ -10796,33 +10070,27 @@
       <c r="A73" s="51">
         <v>70</v>
       </c>
-      <c r="B73" s="88"/>
-      <c r="C73" s="88"/>
+      <c r="B73" s="97"/>
+      <c r="C73" s="97"/>
       <c r="D73" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="E73" s="85"/>
-      <c r="F73" s="85"/>
-      <c r="G73" s="70"/>
+        <v>199</v>
+      </c>
+      <c r="E73" s="88"/>
+      <c r="F73" s="88"/>
+      <c r="G73" s="69"/>
       <c r="H73" s="52"/>
     </row>
     <row r="74" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A74" s="51">
         <v>71</v>
       </c>
-      <c r="B74" s="86"/>
-      <c r="C74" s="86" t="s">
-        <v>163</v>
-      </c>
-      <c r="D74" s="74" t="s">
-        <v>210</v>
-      </c>
-      <c r="E74" s="83" t="s">
-        <v>291</v>
-      </c>
-      <c r="F74" s="83" t="s">
-        <v>289</v>
-      </c>
+      <c r="B74" s="98"/>
+      <c r="C74" s="98"/>
+      <c r="D74" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="E74" s="89"/>
+      <c r="F74" s="89"/>
       <c r="G74" s="69"/>
       <c r="H74" s="52"/>
     </row>
@@ -10830,13 +10098,19 @@
       <c r="A75" s="51">
         <v>72</v>
       </c>
-      <c r="B75" s="87"/>
-      <c r="C75" s="87"/>
-      <c r="D75" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="E75" s="84"/>
-      <c r="F75" s="84"/>
+      <c r="B75" s="96"/>
+      <c r="C75" s="96" t="s">
+        <v>152</v>
+      </c>
+      <c r="D75" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="E75" s="87" t="s">
+        <v>252</v>
+      </c>
+      <c r="F75" s="87" t="s">
+        <v>254</v>
+      </c>
       <c r="G75" s="69"/>
       <c r="H75" s="52"/>
     </row>
@@ -10844,27 +10118,27 @@
       <c r="A76" s="51">
         <v>73</v>
       </c>
-      <c r="B76" s="87"/>
-      <c r="C76" s="87"/>
-      <c r="D76" s="74" t="s">
-        <v>207</v>
-      </c>
-      <c r="E76" s="84"/>
-      <c r="F76" s="84"/>
-      <c r="G76" s="69"/>
+      <c r="B76" s="97"/>
+      <c r="C76" s="97"/>
+      <c r="D76" s="113" t="s">
+        <v>274</v>
+      </c>
+      <c r="E76" s="88"/>
+      <c r="F76" s="88"/>
+      <c r="G76" s="70"/>
       <c r="H76" s="52"/>
     </row>
     <row r="77" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A77" s="51">
         <v>74</v>
       </c>
-      <c r="B77" s="87"/>
-      <c r="C77" s="87"/>
-      <c r="D77" s="74" t="s">
-        <v>208</v>
-      </c>
-      <c r="E77" s="84"/>
-      <c r="F77" s="84"/>
+      <c r="B77" s="97"/>
+      <c r="C77" s="97"/>
+      <c r="D77" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="E77" s="88"/>
+      <c r="F77" s="88"/>
       <c r="G77" s="69"/>
       <c r="H77" s="52"/>
     </row>
@@ -10872,27 +10146,33 @@
       <c r="A78" s="51">
         <v>75</v>
       </c>
-      <c r="B78" s="87"/>
-      <c r="C78" s="87"/>
-      <c r="D78" s="74" t="s">
-        <v>209</v>
-      </c>
-      <c r="E78" s="84"/>
-      <c r="F78" s="84"/>
-      <c r="G78" s="69"/>
+      <c r="B78" s="98"/>
+      <c r="C78" s="98"/>
+      <c r="D78" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="E78" s="89"/>
+      <c r="F78" s="89"/>
+      <c r="G78" s="70"/>
       <c r="H78" s="52"/>
     </row>
     <row r="79" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A79" s="51">
         <v>76</v>
       </c>
-      <c r="B79" s="87"/>
-      <c r="C79" s="87"/>
-      <c r="D79" s="74" t="s">
-        <v>212</v>
-      </c>
-      <c r="E79" s="84"/>
-      <c r="F79" s="84"/>
+      <c r="B79" s="96"/>
+      <c r="C79" s="96" t="s">
+        <v>307</v>
+      </c>
+      <c r="D79" s="114" t="s">
+        <v>290</v>
+      </c>
+      <c r="E79" s="87" t="s">
+        <v>253</v>
+      </c>
+      <c r="F79" s="87" t="s">
+        <v>251</v>
+      </c>
       <c r="G79" s="69"/>
       <c r="H79" s="52"/>
     </row>
@@ -10900,13 +10180,13 @@
       <c r="A80" s="51">
         <v>77</v>
       </c>
-      <c r="B80" s="88"/>
-      <c r="C80" s="88"/>
-      <c r="D80" s="74" t="s">
-        <v>213</v>
-      </c>
-      <c r="E80" s="85"/>
-      <c r="F80" s="85"/>
+      <c r="B80" s="97"/>
+      <c r="C80" s="97"/>
+      <c r="D80" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="E80" s="88"/>
+      <c r="F80" s="88"/>
       <c r="G80" s="69"/>
       <c r="H80" s="52"/>
     </row>
@@ -10914,19 +10194,13 @@
       <c r="A81" s="51">
         <v>78</v>
       </c>
-      <c r="B81" s="86"/>
-      <c r="C81" s="86" t="s">
-        <v>164</v>
-      </c>
-      <c r="D81" s="73" t="s">
-        <v>214</v>
-      </c>
-      <c r="E81" s="83" t="s">
-        <v>288</v>
-      </c>
-      <c r="F81" s="83" t="s">
-        <v>268</v>
-      </c>
+      <c r="B81" s="97"/>
+      <c r="C81" s="97"/>
+      <c r="D81" s="114" t="s">
+        <v>271</v>
+      </c>
+      <c r="E81" s="88"/>
+      <c r="F81" s="88"/>
       <c r="G81" s="69"/>
       <c r="H81" s="52"/>
     </row>
@@ -10934,13 +10208,13 @@
       <c r="A82" s="51">
         <v>79</v>
       </c>
-      <c r="B82" s="88"/>
-      <c r="C82" s="88"/>
-      <c r="D82" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="E82" s="85"/>
-      <c r="F82" s="85"/>
+      <c r="B82" s="97"/>
+      <c r="C82" s="97"/>
+      <c r="D82" s="114" t="s">
+        <v>279</v>
+      </c>
+      <c r="E82" s="88"/>
+      <c r="F82" s="88"/>
       <c r="G82" s="69"/>
       <c r="H82" s="52"/>
     </row>
@@ -10948,19 +10222,13 @@
       <c r="A83" s="51">
         <v>80</v>
       </c>
-      <c r="B83" s="86"/>
-      <c r="C83" s="86" t="s">
-        <v>166</v>
-      </c>
-      <c r="D83" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="E83" s="83" t="s">
-        <v>287</v>
-      </c>
-      <c r="F83" s="83" t="s">
-        <v>268</v>
-      </c>
+      <c r="B83" s="97"/>
+      <c r="C83" s="97"/>
+      <c r="D83" s="114" t="s">
+        <v>276</v>
+      </c>
+      <c r="E83" s="88"/>
+      <c r="F83" s="88"/>
       <c r="G83" s="69"/>
       <c r="H83" s="52"/>
     </row>
@@ -10968,13 +10236,13 @@
       <c r="A84" s="51">
         <v>81</v>
       </c>
-      <c r="B84" s="88"/>
-      <c r="C84" s="88"/>
-      <c r="D84" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="E84" s="85"/>
-      <c r="F84" s="85"/>
+      <c r="B84" s="97"/>
+      <c r="C84" s="97"/>
+      <c r="D84" s="114" t="s">
+        <v>190</v>
+      </c>
+      <c r="E84" s="88"/>
+      <c r="F84" s="88"/>
       <c r="G84" s="69"/>
       <c r="H84" s="52"/>
     </row>
@@ -10982,19 +10250,13 @@
       <c r="A85" s="51">
         <v>82</v>
       </c>
-      <c r="B85" s="86"/>
-      <c r="C85" s="86" t="s">
-        <v>168</v>
-      </c>
-      <c r="D85" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="E85" s="83" t="s">
-        <v>285</v>
-      </c>
-      <c r="F85" s="83" t="s">
-        <v>286</v>
-      </c>
+      <c r="B85" s="98"/>
+      <c r="C85" s="98"/>
+      <c r="D85" s="114" t="s">
+        <v>272</v>
+      </c>
+      <c r="E85" s="89"/>
+      <c r="F85" s="89"/>
       <c r="G85" s="69"/>
       <c r="H85" s="52"/>
     </row>
@@ -11002,13 +10264,19 @@
       <c r="A86" s="51">
         <v>83</v>
       </c>
-      <c r="B86" s="87"/>
-      <c r="C86" s="87"/>
-      <c r="D86" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="E86" s="84"/>
-      <c r="F86" s="84"/>
+      <c r="B86" s="96"/>
+      <c r="C86" s="96" t="s">
+        <v>153</v>
+      </c>
+      <c r="D86" s="113" t="s">
+        <v>273</v>
+      </c>
+      <c r="E86" s="87" t="s">
+        <v>250</v>
+      </c>
+      <c r="F86" s="87" t="s">
+        <v>230</v>
+      </c>
       <c r="G86" s="69"/>
       <c r="H86" s="52"/>
     </row>
@@ -11016,13 +10284,13 @@
       <c r="A87" s="51">
         <v>84</v>
       </c>
-      <c r="B87" s="87"/>
-      <c r="C87" s="87"/>
+      <c r="B87" s="98"/>
+      <c r="C87" s="98"/>
       <c r="D87" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="E87" s="84"/>
-      <c r="F87" s="84"/>
+        <v>191</v>
+      </c>
+      <c r="E87" s="89"/>
+      <c r="F87" s="89"/>
       <c r="G87" s="69"/>
       <c r="H87" s="52"/>
     </row>
@@ -11030,13 +10298,19 @@
       <c r="A88" s="51">
         <v>85</v>
       </c>
-      <c r="B88" s="87"/>
-      <c r="C88" s="87"/>
+      <c r="B88" s="96"/>
+      <c r="C88" s="96" t="s">
+        <v>155</v>
+      </c>
       <c r="D88" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="E88" s="84"/>
-      <c r="F88" s="84"/>
+        <v>182</v>
+      </c>
+      <c r="E88" s="87" t="s">
+        <v>249</v>
+      </c>
+      <c r="F88" s="87" t="s">
+        <v>230</v>
+      </c>
       <c r="G88" s="69"/>
       <c r="H88" s="52"/>
     </row>
@@ -11044,13 +10318,13 @@
       <c r="A89" s="51">
         <v>86</v>
       </c>
-      <c r="B89" s="88"/>
-      <c r="C89" s="88"/>
+      <c r="B89" s="98"/>
+      <c r="C89" s="98"/>
       <c r="D89" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="E89" s="85"/>
-      <c r="F89" s="85"/>
+        <v>294</v>
+      </c>
+      <c r="E89" s="89"/>
+      <c r="F89" s="89"/>
       <c r="G89" s="69"/>
       <c r="H89" s="52"/>
     </row>
@@ -11058,18 +10332,18 @@
       <c r="A90" s="51">
         <v>87</v>
       </c>
-      <c r="B90" s="86"/>
-      <c r="C90" s="86" t="s">
-        <v>169</v>
+      <c r="B90" s="96"/>
+      <c r="C90" s="96" t="s">
+        <v>157</v>
       </c>
       <c r="D90" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="E90" s="83" t="s">
-        <v>284</v>
-      </c>
-      <c r="F90" s="83" t="s">
-        <v>283</v>
+        <v>183</v>
+      </c>
+      <c r="E90" s="87" t="s">
+        <v>247</v>
+      </c>
+      <c r="F90" s="87" t="s">
+        <v>248</v>
       </c>
       <c r="G90" s="69"/>
       <c r="H90" s="52"/>
@@ -11078,13 +10352,13 @@
       <c r="A91" s="51">
         <v>88</v>
       </c>
-      <c r="B91" s="87"/>
-      <c r="C91" s="87"/>
+      <c r="B91" s="97"/>
+      <c r="C91" s="97"/>
       <c r="D91" s="24" t="s">
-        <v>217</v>
-      </c>
-      <c r="E91" s="84"/>
-      <c r="F91" s="84"/>
+        <v>280</v>
+      </c>
+      <c r="E91" s="88"/>
+      <c r="F91" s="88"/>
       <c r="G91" s="69"/>
       <c r="H91" s="52"/>
     </row>
@@ -11092,13 +10366,13 @@
       <c r="A92" s="51">
         <v>89</v>
       </c>
-      <c r="B92" s="88"/>
-      <c r="C92" s="87"/>
+      <c r="B92" s="97"/>
+      <c r="C92" s="97"/>
       <c r="D92" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="E92" s="85"/>
-      <c r="F92" s="85"/>
+        <v>184</v>
+      </c>
+      <c r="E92" s="88"/>
+      <c r="F92" s="88"/>
       <c r="G92" s="69"/>
       <c r="H92" s="52"/>
     </row>
@@ -11106,19 +10380,13 @@
       <c r="A93" s="51">
         <v>90</v>
       </c>
-      <c r="B93" s="86"/>
-      <c r="C93" s="86" t="s">
-        <v>170</v>
-      </c>
-      <c r="D93" s="43" t="s">
-        <v>235</v>
-      </c>
-      <c r="E93" s="83" t="s">
-        <v>282</v>
-      </c>
-      <c r="F93" s="83" t="s">
-        <v>283</v>
-      </c>
+      <c r="B93" s="97"/>
+      <c r="C93" s="97"/>
+      <c r="D93" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="E93" s="88"/>
+      <c r="F93" s="88"/>
       <c r="G93" s="69"/>
       <c r="H93" s="52"/>
     </row>
@@ -11126,13 +10394,13 @@
       <c r="A94" s="51">
         <v>91</v>
       </c>
-      <c r="B94" s="87"/>
-      <c r="C94" s="87"/>
+      <c r="B94" s="98"/>
+      <c r="C94" s="98"/>
       <c r="D94" s="24" t="s">
-        <v>231</v>
-      </c>
-      <c r="E94" s="84"/>
-      <c r="F94" s="84"/>
+        <v>194</v>
+      </c>
+      <c r="E94" s="89"/>
+      <c r="F94" s="89"/>
       <c r="G94" s="69"/>
       <c r="H94" s="52"/>
     </row>
@@ -11140,13 +10408,19 @@
       <c r="A95" s="51">
         <v>92</v>
       </c>
-      <c r="B95" s="88"/>
-      <c r="C95" s="87"/>
+      <c r="B95" s="96"/>
+      <c r="C95" s="96" t="s">
+        <v>158</v>
+      </c>
       <c r="D95" s="24" t="s">
-        <v>232</v>
-      </c>
-      <c r="E95" s="85"/>
-      <c r="F95" s="85"/>
+        <v>192</v>
+      </c>
+      <c r="E95" s="87" t="s">
+        <v>246</v>
+      </c>
+      <c r="F95" s="87" t="s">
+        <v>245</v>
+      </c>
       <c r="G95" s="69"/>
       <c r="H95" s="52"/>
     </row>
@@ -11154,19 +10428,13 @@
       <c r="A96" s="51">
         <v>93</v>
       </c>
-      <c r="B96" s="86"/>
-      <c r="C96" s="86" t="s">
-        <v>171</v>
-      </c>
+      <c r="B96" s="97"/>
+      <c r="C96" s="97"/>
       <c r="D96" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="E96" s="83" t="s">
-        <v>281</v>
-      </c>
-      <c r="F96" s="83" t="s">
-        <v>279</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="E96" s="88"/>
+      <c r="F96" s="88"/>
       <c r="G96" s="69"/>
       <c r="H96" s="52"/>
     </row>
@@ -11174,13 +10442,13 @@
       <c r="A97" s="51">
         <v>94</v>
       </c>
-      <c r="B97" s="87"/>
-      <c r="C97" s="87"/>
+      <c r="B97" s="98"/>
+      <c r="C97" s="97"/>
       <c r="D97" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="E97" s="84"/>
-      <c r="F97" s="84"/>
+        <v>193</v>
+      </c>
+      <c r="E97" s="89"/>
+      <c r="F97" s="89"/>
       <c r="G97" s="69"/>
       <c r="H97" s="52"/>
     </row>
@@ -11188,989 +10456,1033 @@
       <c r="A98" s="51">
         <v>95</v>
       </c>
-      <c r="B98" s="88"/>
-      <c r="C98" s="88"/>
-      <c r="D98" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="E98" s="85"/>
-      <c r="F98" s="85"/>
-      <c r="G98" s="77"/>
+      <c r="B98" s="96"/>
+      <c r="C98" s="96" t="s">
+        <v>159</v>
+      </c>
+      <c r="D98" s="43" t="s">
+        <v>205</v>
+      </c>
+      <c r="E98" s="87" t="s">
+        <v>244</v>
+      </c>
+      <c r="F98" s="87" t="s">
+        <v>245</v>
+      </c>
+      <c r="G98" s="69"/>
       <c r="H98" s="52"/>
     </row>
     <row r="99" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A99" s="51">
         <v>96</v>
       </c>
-      <c r="B99" s="107"/>
-      <c r="C99" s="86" t="s">
-        <v>165</v>
-      </c>
+      <c r="B99" s="97"/>
+      <c r="C99" s="97"/>
       <c r="D99" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="E99" s="75"/>
-      <c r="F99" s="75"/>
-      <c r="G99" s="77"/>
+        <v>287</v>
+      </c>
+      <c r="E99" s="88"/>
+      <c r="F99" s="88"/>
+      <c r="G99" s="69"/>
       <c r="H99" s="52"/>
     </row>
-    <row r="100" spans="1:8" s="43" customFormat="1" ht="16.5" customHeight="1">
+    <row r="100" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A100" s="51">
         <v>97</v>
       </c>
-      <c r="B100" s="108"/>
-      <c r="C100" s="87"/>
+      <c r="B100" s="97"/>
+      <c r="C100" s="97"/>
       <c r="D100" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="E100" s="75"/>
-      <c r="F100" s="75"/>
-      <c r="G100" s="77"/>
+        <v>265</v>
+      </c>
+      <c r="E100" s="88"/>
+      <c r="F100" s="88"/>
+      <c r="G100" s="83"/>
       <c r="H100" s="52"/>
     </row>
     <row r="101" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A101" s="51">
         <v>98</v>
       </c>
-      <c r="B101" s="108"/>
-      <c r="C101" s="87"/>
-      <c r="D101" s="74" t="s">
-        <v>249</v>
-      </c>
-      <c r="E101" s="75"/>
-      <c r="F101" s="75"/>
-      <c r="G101" s="77"/>
+      <c r="B101" s="98"/>
+      <c r="C101" s="97"/>
+      <c r="D101" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="E101" s="89"/>
+      <c r="F101" s="89"/>
+      <c r="G101" s="69"/>
       <c r="H101" s="52"/>
     </row>
     <row r="102" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A102" s="51">
         <v>99</v>
       </c>
-      <c r="B102" s="108"/>
-      <c r="C102" s="87"/>
-      <c r="D102" s="74" t="s">
-        <v>251</v>
-      </c>
-      <c r="E102" s="75"/>
-      <c r="F102" s="75"/>
-      <c r="G102" s="77"/>
+      <c r="B102" s="96"/>
+      <c r="C102" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="D102" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="E102" s="87" t="s">
+        <v>243</v>
+      </c>
+      <c r="F102" s="87" t="s">
+        <v>241</v>
+      </c>
+      <c r="G102" s="69"/>
       <c r="H102" s="52"/>
     </row>
     <row r="103" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A103" s="51">
         <v>100</v>
       </c>
-      <c r="B103" s="108"/>
-      <c r="C103" s="87"/>
-      <c r="D103" s="74" t="s">
-        <v>250</v>
-      </c>
-      <c r="E103" s="75"/>
-      <c r="F103" s="75"/>
-      <c r="G103" s="77"/>
+      <c r="B103" s="97"/>
+      <c r="C103" s="97"/>
+      <c r="D103" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="E103" s="88"/>
+      <c r="F103" s="88"/>
+      <c r="G103" s="69"/>
       <c r="H103" s="52"/>
     </row>
     <row r="104" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A104" s="51">
         <v>101</v>
       </c>
-      <c r="B104" s="109"/>
-      <c r="C104" s="87"/>
-      <c r="D104" s="74" t="s">
-        <v>252</v>
-      </c>
-      <c r="E104" s="75"/>
-      <c r="F104" s="75"/>
-      <c r="G104" s="77"/>
+      <c r="B104" s="97"/>
+      <c r="C104" s="97"/>
+      <c r="D104" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="E104" s="89"/>
+      <c r="F104" s="89"/>
+      <c r="G104" s="74"/>
       <c r="H104" s="52"/>
     </row>
     <row r="105" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A105" s="51">
         <v>102</v>
       </c>
-      <c r="B105" s="79"/>
-      <c r="C105" s="78" t="s">
-        <v>172</v>
-      </c>
+      <c r="B105" s="98"/>
+      <c r="C105" s="98"/>
       <c r="D105" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="E105" s="76" t="s">
-        <v>278</v>
-      </c>
-      <c r="F105" s="76" t="s">
-        <v>280</v>
-      </c>
-      <c r="G105" s="77"/>
+        <v>293</v>
+      </c>
+      <c r="E105" s="81"/>
+      <c r="F105" s="81"/>
+      <c r="G105" s="83"/>
       <c r="H105" s="52"/>
     </row>
     <row r="106" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A106" s="51">
         <v>103</v>
       </c>
-      <c r="B106" s="92"/>
-      <c r="C106" s="86" t="s">
-        <v>173</v>
-      </c>
-      <c r="D106" s="73" t="s">
-        <v>204</v>
-      </c>
-      <c r="E106" s="83" t="s">
-        <v>277</v>
-      </c>
-      <c r="F106" s="83" t="s">
-        <v>279</v>
-      </c>
-      <c r="G106" s="77"/>
+      <c r="B106" s="77"/>
+      <c r="C106" s="96" t="s">
+        <v>154</v>
+      </c>
+      <c r="D106" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="E106" s="87" t="s">
+        <v>261</v>
+      </c>
+      <c r="F106" s="87" t="s">
+        <v>262</v>
+      </c>
+      <c r="G106" s="74"/>
       <c r="H106" s="52"/>
     </row>
-    <row r="107" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+    <row r="107" spans="1:8" s="43" customFormat="1" ht="16.5" customHeight="1">
       <c r="A107" s="51">
         <v>104</v>
       </c>
-      <c r="B107" s="94"/>
-      <c r="C107" s="88"/>
-      <c r="D107" s="73" t="s">
-        <v>205</v>
-      </c>
-      <c r="E107" s="85"/>
-      <c r="F107" s="85"/>
-      <c r="G107" s="77"/>
+      <c r="B107" s="78"/>
+      <c r="C107" s="97"/>
+      <c r="D107" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="E107" s="88"/>
+      <c r="F107" s="88"/>
+      <c r="G107" s="74"/>
       <c r="H107" s="52"/>
     </row>
-    <row r="108" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A108" s="51"/>
-      <c r="B108" s="25"/>
-      <c r="C108" s="110" t="s">
+    <row r="108" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A108" s="51">
+        <v>105</v>
+      </c>
+      <c r="B108" s="78"/>
+      <c r="C108" s="97"/>
+      <c r="D108" s="114" t="s">
+        <v>281</v>
+      </c>
+      <c r="E108" s="88"/>
+      <c r="F108" s="88"/>
+      <c r="G108" s="74"/>
+      <c r="H108" s="52"/>
+    </row>
+    <row r="109" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A109" s="51">
+        <v>106</v>
+      </c>
+      <c r="B109" s="78"/>
+      <c r="C109" s="97"/>
+      <c r="D109" s="114" t="s">
+        <v>215</v>
+      </c>
+      <c r="E109" s="88"/>
+      <c r="F109" s="88"/>
+      <c r="G109" s="74"/>
+      <c r="H109" s="52"/>
+    </row>
+    <row r="110" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A110" s="51">
+        <v>107</v>
+      </c>
+      <c r="B110" s="78"/>
+      <c r="C110" s="97"/>
+      <c r="D110" s="114" t="s">
+        <v>214</v>
+      </c>
+      <c r="E110" s="88"/>
+      <c r="F110" s="88"/>
+      <c r="G110" s="74"/>
+      <c r="H110" s="52"/>
+    </row>
+    <row r="111" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A111" s="51">
+        <v>108</v>
+      </c>
+      <c r="B111" s="79"/>
+      <c r="C111" s="97"/>
+      <c r="D111" s="114" t="s">
+        <v>277</v>
+      </c>
+      <c r="E111" s="89"/>
+      <c r="F111" s="89"/>
+      <c r="G111" s="74"/>
+      <c r="H111" s="52"/>
+    </row>
+    <row r="112" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A112" s="51">
+        <v>109</v>
+      </c>
+      <c r="B112" s="76"/>
+      <c r="C112" s="75" t="s">
+        <v>161</v>
+      </c>
+      <c r="D112" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="E112" s="73" t="s">
+        <v>240</v>
+      </c>
+      <c r="F112" s="73" t="s">
+        <v>242</v>
+      </c>
+      <c r="G112" s="74"/>
+      <c r="H112" s="52"/>
+    </row>
+    <row r="113" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A113" s="51">
+        <v>110</v>
+      </c>
+      <c r="B113" s="93"/>
+      <c r="C113" s="96" t="s">
+        <v>162</v>
+      </c>
+      <c r="D113" s="113" t="s">
+        <v>286</v>
+      </c>
+      <c r="E113" s="87" t="s">
+        <v>239</v>
+      </c>
+      <c r="F113" s="87" t="s">
+        <v>241</v>
+      </c>
+      <c r="G113" s="74"/>
+      <c r="H113" s="52"/>
+    </row>
+    <row r="114" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A114" s="51">
+        <v>111</v>
+      </c>
+      <c r="B114" s="95"/>
+      <c r="C114" s="98"/>
+      <c r="D114" s="114" t="s">
+        <v>187</v>
+      </c>
+      <c r="E114" s="89"/>
+      <c r="F114" s="89"/>
+      <c r="G114" s="74"/>
+      <c r="H114" s="52"/>
+    </row>
+    <row r="115" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A115" s="51"/>
+      <c r="B115" s="25"/>
+      <c r="C115" s="105" t="s">
+        <v>61</v>
+      </c>
+      <c r="D115" s="106"/>
+      <c r="E115" s="73"/>
+      <c r="F115" s="73"/>
+      <c r="G115" s="74"/>
+      <c r="H115" s="27"/>
+    </row>
+    <row r="116" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A116" s="51">
+        <v>112</v>
+      </c>
+      <c r="B116" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="C116" s="74" t="s">
+        <v>305</v>
+      </c>
+      <c r="D116" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="E116" s="73"/>
+      <c r="F116" s="73" t="s">
+        <v>130</v>
+      </c>
+      <c r="G116" s="74"/>
+      <c r="H116" s="27"/>
+    </row>
+    <row r="117" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A117" s="90">
+        <v>113</v>
+      </c>
+      <c r="B117" s="96" t="s">
+        <v>88</v>
+      </c>
+      <c r="C117" s="101" t="s">
+        <v>54</v>
+      </c>
+      <c r="D117" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="E117" s="100"/>
+      <c r="F117" s="87" t="s">
+        <v>132</v>
+      </c>
+      <c r="G117" s="30"/>
+      <c r="H117" s="27"/>
+    </row>
+    <row r="118" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A118" s="92"/>
+      <c r="B118" s="98"/>
+      <c r="C118" s="101"/>
+      <c r="D118" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="E118" s="100"/>
+      <c r="F118" s="89"/>
+      <c r="G118" s="30"/>
+      <c r="H118" s="27"/>
+    </row>
+    <row r="119" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A119" s="29">
+        <v>114</v>
+      </c>
+      <c r="B119" s="96" t="s">
+        <v>89</v>
+      </c>
+      <c r="C119" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="D108" s="111"/>
-      <c r="E108" s="76"/>
-      <c r="F108" s="76"/>
-      <c r="G108" s="77"/>
-      <c r="H108" s="27"/>
-    </row>
-    <row r="109" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A109" s="51">
-        <v>105</v>
-      </c>
-      <c r="B109" s="77" t="s">
-        <v>89</v>
-      </c>
-      <c r="C109" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="D109" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="E109" s="76"/>
-      <c r="F109" s="76" t="s">
-        <v>133</v>
-      </c>
-      <c r="G109" s="77"/>
-      <c r="H109" s="27"/>
-    </row>
-    <row r="110" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A110" s="89">
-        <v>106</v>
-      </c>
-      <c r="B110" s="86" t="s">
-        <v>90</v>
-      </c>
-      <c r="C110" s="95" t="s">
-        <v>55</v>
-      </c>
-      <c r="D110" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="E110" s="99"/>
-      <c r="F110" s="83" t="s">
-        <v>135</v>
-      </c>
-      <c r="G110" s="30"/>
-      <c r="H110" s="27"/>
-    </row>
-    <row r="111" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A111" s="91"/>
-      <c r="B111" s="88"/>
-      <c r="C111" s="95"/>
-      <c r="D111" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="E111" s="99"/>
-      <c r="F111" s="85"/>
-      <c r="G111" s="30"/>
-      <c r="H111" s="27"/>
-    </row>
-    <row r="112" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A112" s="29">
-        <v>107</v>
-      </c>
-      <c r="B112" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="C112" s="95" t="s">
-        <v>63</v>
-      </c>
-      <c r="D112" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="E112" s="99"/>
-      <c r="F112" s="83" t="s">
-        <v>133</v>
-      </c>
-      <c r="G112" s="30"/>
-      <c r="H112" s="27"/>
-    </row>
-    <row r="113" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A113" s="29">
-        <v>108</v>
-      </c>
-      <c r="B113" s="88"/>
-      <c r="C113" s="95"/>
-      <c r="D113" s="25" t="s">
+      <c r="D119" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E119" s="100"/>
+      <c r="F119" s="87" t="s">
+        <v>130</v>
+      </c>
+      <c r="G119" s="30"/>
+      <c r="H119" s="27"/>
+    </row>
+    <row r="120" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A120" s="29">
+        <v>115</v>
+      </c>
+      <c r="B120" s="98"/>
+      <c r="C120" s="101"/>
+      <c r="D120" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E113" s="99"/>
-      <c r="F113" s="85"/>
-      <c r="G113" s="30"/>
-      <c r="H113" s="27"/>
-    </row>
-    <row r="114" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A114" s="29">
-        <v>109</v>
-      </c>
-      <c r="B114" s="86" t="s">
-        <v>92</v>
-      </c>
-      <c r="C114" s="95" t="s">
-        <v>51</v>
-      </c>
-      <c r="D114" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E114" s="99"/>
-      <c r="F114" s="83" t="s">
-        <v>133</v>
-      </c>
-      <c r="G114" s="30"/>
-      <c r="H114" s="32"/>
-    </row>
-    <row r="115" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A115" s="51">
-        <v>110</v>
-      </c>
-      <c r="B115" s="87"/>
-      <c r="C115" s="95"/>
-      <c r="D115" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="E115" s="99"/>
-      <c r="F115" s="84"/>
-      <c r="G115" s="30"/>
-      <c r="H115" s="32"/>
-    </row>
-    <row r="116" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A116" s="51">
-        <v>111</v>
-      </c>
-      <c r="B116" s="88"/>
-      <c r="C116" s="95"/>
-      <c r="D116" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="E116" s="99"/>
-      <c r="F116" s="85"/>
-      <c r="G116" s="30"/>
-      <c r="H116" s="32"/>
-    </row>
-    <row r="117" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A117" s="29"/>
-      <c r="B117" s="25"/>
-      <c r="C117" s="96" t="s">
-        <v>66</v>
-      </c>
-      <c r="D117" s="96"/>
-      <c r="E117" s="25"/>
-      <c r="F117" s="62"/>
-      <c r="G117" s="30"/>
-      <c r="H117" s="32"/>
-    </row>
-    <row r="118" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A118" s="29">
-        <v>112</v>
-      </c>
-      <c r="B118" s="86" t="s">
-        <v>93</v>
-      </c>
-      <c r="C118" s="95" t="s">
-        <v>64</v>
-      </c>
-      <c r="D118" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="E118" s="99"/>
-      <c r="F118" s="83" t="s">
-        <v>136</v>
-      </c>
-      <c r="G118" s="30"/>
-      <c r="H118" s="32"/>
-    </row>
-    <row r="119" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A119" s="51">
-        <v>113</v>
-      </c>
-      <c r="B119" s="87"/>
-      <c r="C119" s="95"/>
-      <c r="D119" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="E119" s="99"/>
-      <c r="F119" s="84"/>
-      <c r="G119" s="30"/>
-      <c r="H119" s="32"/>
-    </row>
-    <row r="120" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A120" s="51">
-        <v>114</v>
-      </c>
-      <c r="B120" s="87"/>
-      <c r="C120" s="95"/>
-      <c r="D120" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="E120" s="99"/>
-      <c r="F120" s="84"/>
+      <c r="E120" s="100"/>
+      <c r="F120" s="89"/>
       <c r="G120" s="30"/>
-      <c r="H120" s="32"/>
+      <c r="H120" s="27"/>
     </row>
     <row r="121" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A121" s="51">
-        <v>115</v>
-      </c>
-      <c r="B121" s="88"/>
-      <c r="C121" s="95"/>
+        <v>116</v>
+      </c>
+      <c r="B121" s="96" t="s">
+        <v>90</v>
+      </c>
+      <c r="C121" s="101" t="s">
+        <v>50</v>
+      </c>
       <c r="D121" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="E121" s="99"/>
-      <c r="F121" s="85"/>
+        <v>19</v>
+      </c>
+      <c r="E121" s="100"/>
+      <c r="F121" s="87" t="s">
+        <v>130</v>
+      </c>
       <c r="G121" s="30"/>
       <c r="H121" s="32"/>
     </row>
     <row r="122" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A122" s="51">
-        <v>116</v>
-      </c>
-      <c r="B122" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="C122" s="30" t="s">
-        <v>65</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="B122" s="97"/>
+      <c r="C122" s="101"/>
       <c r="D122" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E122" s="25"/>
-      <c r="F122" s="62" t="s">
-        <v>135</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E122" s="100"/>
+      <c r="F122" s="88"/>
       <c r="G122" s="30"/>
       <c r="H122" s="32"/>
     </row>
     <row r="123" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A123" s="25"/>
-      <c r="B123" s="25"/>
-      <c r="C123" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="D123" s="96"/>
-      <c r="E123" s="25"/>
-      <c r="F123" s="62"/>
+      <c r="A123" s="51">
+        <v>118</v>
+      </c>
+      <c r="B123" s="98"/>
+      <c r="C123" s="101"/>
+      <c r="D123" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E123" s="100"/>
+      <c r="F123" s="89"/>
       <c r="G123" s="30"/>
       <c r="H123" s="32"/>
     </row>
-    <row r="124" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A124" s="31">
-        <v>117</v>
-      </c>
-      <c r="B124" s="86" t="s">
-        <v>95</v>
-      </c>
-      <c r="C124" s="95" t="s">
-        <v>69</v>
-      </c>
-      <c r="D124" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="E124" s="99"/>
-      <c r="F124" s="83" t="s">
-        <v>136</v>
-      </c>
+    <row r="124" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A124" s="29"/>
+      <c r="B124" s="25"/>
+      <c r="C124" s="102" t="s">
+        <v>64</v>
+      </c>
+      <c r="D124" s="102"/>
+      <c r="E124" s="25"/>
+      <c r="F124" s="62"/>
       <c r="G124" s="30"/>
       <c r="H124" s="32"/>
     </row>
-    <row r="125" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A125" s="40">
-        <v>118</v>
-      </c>
-      <c r="B125" s="87"/>
-      <c r="C125" s="95"/>
+    <row r="125" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A125" s="29">
+        <v>119</v>
+      </c>
+      <c r="B125" s="96" t="s">
+        <v>91</v>
+      </c>
+      <c r="C125" s="101" t="s">
+        <v>304</v>
+      </c>
       <c r="D125" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E125" s="99"/>
-      <c r="F125" s="84"/>
+        <v>59</v>
+      </c>
+      <c r="E125" s="100"/>
+      <c r="F125" s="87" t="s">
+        <v>133</v>
+      </c>
       <c r="G125" s="30"/>
       <c r="H125" s="32"/>
     </row>
-    <row r="126" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A126" s="40">
-        <v>119</v>
-      </c>
-      <c r="B126" s="88"/>
-      <c r="C126" s="95"/>
+    <row r="126" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A126" s="51">
+        <v>120</v>
+      </c>
+      <c r="B126" s="97"/>
+      <c r="C126" s="101"/>
       <c r="D126" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="E126" s="99"/>
-      <c r="F126" s="85"/>
+        <v>115</v>
+      </c>
+      <c r="E126" s="100"/>
+      <c r="F126" s="88"/>
       <c r="G126" s="30"/>
       <c r="H126" s="32"/>
     </row>
-    <row r="127" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A127" s="40">
-        <v>120</v>
-      </c>
-      <c r="B127" s="86" t="s">
-        <v>96</v>
-      </c>
-      <c r="C127" s="95" t="s">
-        <v>71</v>
-      </c>
-      <c r="D127" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="E127" s="99"/>
-      <c r="F127" s="83" t="s">
-        <v>133</v>
-      </c>
+    <row r="127" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A127" s="51">
+        <v>121</v>
+      </c>
+      <c r="B127" s="97"/>
+      <c r="C127" s="101"/>
+      <c r="D127" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="E127" s="100"/>
+      <c r="F127" s="88"/>
       <c r="G127" s="30"/>
       <c r="H127" s="32"/>
     </row>
-    <row r="128" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A128" s="83">
-        <v>121</v>
-      </c>
-      <c r="B128" s="87"/>
-      <c r="C128" s="100"/>
-      <c r="D128" s="66" t="s">
-        <v>127</v>
-      </c>
-      <c r="E128" s="101"/>
-      <c r="F128" s="84"/>
+    <row r="128" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A128" s="51">
+        <v>122</v>
+      </c>
+      <c r="B128" s="98"/>
+      <c r="C128" s="101"/>
+      <c r="D128" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="E128" s="100"/>
+      <c r="F128" s="89"/>
       <c r="G128" s="30"/>
       <c r="H128" s="32"/>
     </row>
-    <row r="129" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A129" s="85"/>
-      <c r="B129" s="87"/>
-      <c r="C129" s="100"/>
-      <c r="D129" s="65" t="s">
-        <v>130</v>
-      </c>
-      <c r="E129" s="101"/>
-      <c r="F129" s="84"/>
-      <c r="G129" s="39"/>
-      <c r="H129" s="52"/>
-    </row>
-    <row r="130" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A130" s="31">
-        <v>122</v>
-      </c>
-      <c r="B130" s="87"/>
-      <c r="C130" s="95"/>
-      <c r="D130" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="E130" s="99"/>
-      <c r="F130" s="84"/>
+    <row r="129" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A129" s="51">
+        <v>123</v>
+      </c>
+      <c r="B129" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C129" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D129" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E129" s="25"/>
+      <c r="F129" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="G129" s="30"/>
+      <c r="H129" s="32"/>
+    </row>
+    <row r="130" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A130" s="25"/>
+      <c r="B130" s="25"/>
+      <c r="C130" s="102" t="s">
+        <v>65</v>
+      </c>
+      <c r="D130" s="102"/>
+      <c r="E130" s="25"/>
+      <c r="F130" s="62"/>
       <c r="G130" s="30"/>
       <c r="H130" s="32"/>
     </row>
     <row r="131" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A131" s="31">
-        <v>123</v>
-      </c>
-      <c r="B131" s="88"/>
-      <c r="C131" s="95"/>
+        <v>124</v>
+      </c>
+      <c r="B131" s="96" t="s">
+        <v>93</v>
+      </c>
+      <c r="C131" s="101" t="s">
+        <v>67</v>
+      </c>
       <c r="D131" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="E131" s="99"/>
-      <c r="F131" s="85"/>
+        <v>75</v>
+      </c>
+      <c r="E131" s="100"/>
+      <c r="F131" s="87" t="s">
+        <v>133</v>
+      </c>
       <c r="G131" s="30"/>
       <c r="H131" s="32"/>
     </row>
     <row r="132" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A132" s="25"/>
-      <c r="B132" s="25"/>
-      <c r="C132" s="96" t="s">
-        <v>26</v>
-      </c>
-      <c r="D132" s="96"/>
-      <c r="E132" s="25"/>
-      <c r="F132" s="62"/>
+      <c r="A132" s="40">
+        <v>125</v>
+      </c>
+      <c r="B132" s="97"/>
+      <c r="C132" s="101"/>
+      <c r="D132" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E132" s="100"/>
+      <c r="F132" s="88"/>
       <c r="G132" s="30"/>
       <c r="H132" s="32"/>
     </row>
     <row r="133" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A133" s="31">
-        <v>124</v>
-      </c>
-      <c r="B133" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="C133" s="30" t="s">
-        <v>22</v>
-      </c>
+      <c r="A133" s="82">
+        <v>126</v>
+      </c>
+      <c r="B133" s="98"/>
+      <c r="C133" s="101"/>
       <c r="D133" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="E133" s="25"/>
-      <c r="F133" s="62" t="s">
-        <v>136</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E133" s="100"/>
+      <c r="F133" s="89"/>
       <c r="G133" s="30"/>
       <c r="H133" s="32"/>
     </row>
     <row r="134" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A134" s="31">
-        <v>125</v>
-      </c>
-      <c r="B134" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="C134" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="D134" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="E134" s="25"/>
-      <c r="F134" s="62" t="s">
-        <v>133</v>
+      <c r="A134" s="82">
+        <v>127</v>
+      </c>
+      <c r="B134" s="96" t="s">
+        <v>94</v>
+      </c>
+      <c r="C134" s="101" t="s">
+        <v>69</v>
+      </c>
+      <c r="D134" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="E134" s="100"/>
+      <c r="F134" s="87" t="s">
+        <v>130</v>
       </c>
       <c r="G134" s="30"/>
       <c r="H134" s="32"/>
     </row>
     <row r="135" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A135" s="83">
-        <v>126</v>
-      </c>
-      <c r="B135" s="86" t="s">
-        <v>99</v>
-      </c>
-      <c r="C135" s="95" t="s">
-        <v>68</v>
-      </c>
-      <c r="D135" s="25" t="s">
-        <v>2</v>
+      <c r="A135" s="87">
+        <v>128</v>
+      </c>
+      <c r="B135" s="97"/>
+      <c r="C135" s="107"/>
+      <c r="D135" s="66" t="s">
+        <v>125</v>
       </c>
       <c r="E135" s="99"/>
-      <c r="F135" s="83" t="s">
-        <v>133</v>
-      </c>
+      <c r="F135" s="88"/>
       <c r="G135" s="30"/>
       <c r="H135" s="32"/>
     </row>
     <row r="136" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A136" s="85"/>
-      <c r="B136" s="88"/>
-      <c r="C136" s="95"/>
-      <c r="D136" s="33" t="s">
-        <v>59</v>
+      <c r="A136" s="89"/>
+      <c r="B136" s="97"/>
+      <c r="C136" s="107"/>
+      <c r="D136" s="65" t="s">
+        <v>128</v>
       </c>
       <c r="E136" s="99"/>
-      <c r="F136" s="85"/>
-      <c r="G136" s="30"/>
-      <c r="H136" s="32"/>
+      <c r="F136" s="88"/>
+      <c r="G136" s="39"/>
+      <c r="H136" s="52"/>
     </row>
     <row r="137" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A137" s="31">
-        <v>127</v>
-      </c>
-      <c r="B137" s="86" t="s">
-        <v>100</v>
-      </c>
-      <c r="C137" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="D137" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E137" s="99"/>
-      <c r="F137" s="83" t="s">
-        <v>133</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="B137" s="97"/>
+      <c r="C137" s="101"/>
+      <c r="D137" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="E137" s="100"/>
+      <c r="F137" s="88"/>
       <c r="G137" s="30"/>
       <c r="H137" s="32"/>
     </row>
     <row r="138" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A138" s="31">
-        <v>128</v>
-      </c>
-      <c r="B138" s="88"/>
-      <c r="C138" s="95"/>
-      <c r="D138" s="66" t="s">
-        <v>76</v>
-      </c>
-      <c r="E138" s="99"/>
-      <c r="F138" s="85"/>
+        <v>130</v>
+      </c>
+      <c r="B138" s="98"/>
+      <c r="C138" s="101"/>
+      <c r="D138" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E138" s="100"/>
+      <c r="F138" s="89"/>
       <c r="G138" s="30"/>
       <c r="H138" s="32"/>
     </row>
     <row r="139" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A139" s="83">
-        <v>129</v>
-      </c>
-      <c r="B139" s="86" t="s">
-        <v>119</v>
-      </c>
-      <c r="C139" s="100" t="s">
-        <v>29</v>
-      </c>
-      <c r="D139" s="66" t="s">
-        <v>128</v>
-      </c>
-      <c r="E139" s="101"/>
-      <c r="F139" s="83" t="s">
-        <v>133</v>
-      </c>
+      <c r="A139" s="25"/>
+      <c r="B139" s="25"/>
+      <c r="C139" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="D139" s="102"/>
+      <c r="E139" s="25"/>
+      <c r="F139" s="62"/>
       <c r="G139" s="30"/>
       <c r="H139" s="32"/>
     </row>
     <row r="140" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A140" s="85"/>
-      <c r="B140" s="87"/>
-      <c r="C140" s="100"/>
-      <c r="D140" s="65" t="s">
-        <v>129</v>
-      </c>
-      <c r="E140" s="101"/>
-      <c r="F140" s="84"/>
-      <c r="G140" s="39"/>
-      <c r="H140" s="52"/>
+      <c r="A140" s="31">
+        <v>131</v>
+      </c>
+      <c r="B140" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C140" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D140" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E140" s="25"/>
+      <c r="F140" s="62" t="s">
+        <v>133</v>
+      </c>
+      <c r="G140" s="30"/>
+      <c r="H140" s="32"/>
     </row>
     <row r="141" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A141" s="83">
+      <c r="A141" s="31">
+        <v>132</v>
+      </c>
+      <c r="B141" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C141" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D141" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E141" s="25"/>
+      <c r="F141" s="62" t="s">
         <v>130</v>
       </c>
-      <c r="B141" s="87"/>
-      <c r="C141" s="95"/>
-      <c r="D141" s="65" t="s">
-        <v>8</v>
-      </c>
-      <c r="E141" s="99"/>
-      <c r="F141" s="84"/>
       <c r="G141" s="30"/>
       <c r="H141" s="32"/>
     </row>
     <row r="142" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A142" s="84"/>
-      <c r="B142" s="87"/>
-      <c r="C142" s="95"/>
+      <c r="A142" s="87">
+        <v>133</v>
+      </c>
+      <c r="B142" s="96" t="s">
+        <v>97</v>
+      </c>
+      <c r="C142" s="101" t="s">
+        <v>66</v>
+      </c>
       <c r="D142" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="E142" s="99"/>
-      <c r="F142" s="84"/>
+        <v>2</v>
+      </c>
+      <c r="E142" s="100"/>
+      <c r="F142" s="87" t="s">
+        <v>130</v>
+      </c>
       <c r="G142" s="30"/>
       <c r="H142" s="32"/>
     </row>
     <row r="143" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A143" s="84"/>
-      <c r="B143" s="87"/>
-      <c r="C143" s="95"/>
-      <c r="D143" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="E143" s="99"/>
-      <c r="F143" s="84"/>
+      <c r="A143" s="89"/>
+      <c r="B143" s="98"/>
+      <c r="C143" s="101"/>
+      <c r="D143" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="E143" s="100"/>
+      <c r="F143" s="89"/>
       <c r="G143" s="30"/>
       <c r="H143" s="32"/>
     </row>
-    <row r="144" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A144" s="84"/>
-      <c r="B144" s="87"/>
-      <c r="C144" s="95"/>
+    <row r="144" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A144" s="31">
+        <v>134</v>
+      </c>
+      <c r="B144" s="96" t="s">
+        <v>98</v>
+      </c>
+      <c r="C144" s="101" t="s">
+        <v>23</v>
+      </c>
       <c r="D144" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="E144" s="99"/>
-      <c r="F144" s="84"/>
+        <v>5</v>
+      </c>
+      <c r="E144" s="100"/>
+      <c r="F144" s="87" t="s">
+        <v>130</v>
+      </c>
       <c r="G144" s="30"/>
       <c r="H144" s="32"/>
     </row>
-    <row r="145" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A145" s="84"/>
-      <c r="B145" s="87"/>
-      <c r="C145" s="95"/>
-      <c r="D145" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="E145" s="99"/>
-      <c r="F145" s="84"/>
+    <row r="145" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A145" s="31">
+        <v>135</v>
+      </c>
+      <c r="B145" s="98"/>
+      <c r="C145" s="101"/>
+      <c r="D145" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="E145" s="100"/>
+      <c r="F145" s="89"/>
       <c r="G145" s="30"/>
       <c r="H145" s="32"/>
     </row>
-    <row r="146" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A146" s="85"/>
-      <c r="B146" s="88"/>
-      <c r="C146" s="95"/>
-      <c r="D146" s="25" t="s">
-        <v>109</v>
+    <row r="146" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A146" s="87">
+        <v>136</v>
+      </c>
+      <c r="B146" s="96" t="s">
+        <v>117</v>
+      </c>
+      <c r="C146" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="D146" s="66" t="s">
+        <v>126</v>
       </c>
       <c r="E146" s="99"/>
-      <c r="F146" s="85"/>
+      <c r="F146" s="87" t="s">
+        <v>130</v>
+      </c>
       <c r="G146" s="30"/>
       <c r="H146" s="32"/>
     </row>
-    <row r="147" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A147" s="83">
-        <v>131</v>
-      </c>
-      <c r="B147" s="86" t="s">
-        <v>120</v>
-      </c>
-      <c r="C147" s="95" t="s">
-        <v>27</v>
-      </c>
-      <c r="D147" s="25" t="s">
-        <v>3</v>
+    <row r="147" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A147" s="89"/>
+      <c r="B147" s="97"/>
+      <c r="C147" s="107"/>
+      <c r="D147" s="65" t="s">
+        <v>127</v>
       </c>
       <c r="E147" s="99"/>
-      <c r="F147" s="83" t="s">
-        <v>135</v>
-      </c>
-      <c r="G147" s="30"/>
-      <c r="H147" s="32"/>
-    </row>
-    <row r="148" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A148" s="85"/>
-      <c r="B148" s="88"/>
-      <c r="C148" s="95"/>
-      <c r="D148" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="E148" s="99"/>
-      <c r="F148" s="85"/>
+      <c r="F147" s="88"/>
+      <c r="G147" s="39"/>
+      <c r="H147" s="52"/>
+    </row>
+    <row r="148" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A148" s="87">
+        <v>137</v>
+      </c>
+      <c r="B148" s="97"/>
+      <c r="C148" s="101"/>
+      <c r="D148" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="E148" s="100"/>
+      <c r="F148" s="88"/>
       <c r="G148" s="30"/>
       <c r="H148" s="32"/>
     </row>
-    <row r="149" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A149" s="22"/>
-      <c r="B149" s="30"/>
-      <c r="C149" s="96" t="s">
-        <v>56</v>
-      </c>
-      <c r="D149" s="96"/>
-      <c r="E149" s="22"/>
-      <c r="F149" s="62"/>
+    <row r="149" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A149" s="88"/>
+      <c r="B149" s="97"/>
+      <c r="C149" s="101"/>
+      <c r="D149" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="E149" s="100"/>
+      <c r="F149" s="88"/>
       <c r="G149" s="30"/>
       <c r="H149" s="32"/>
     </row>
-    <row r="150" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A150" s="31">
-        <v>132</v>
-      </c>
-      <c r="B150" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="C150" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="D150" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E150" s="25"/>
-      <c r="F150" s="62" t="s">
-        <v>137</v>
-      </c>
+    <row r="150" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A150" s="88"/>
+      <c r="B150" s="97"/>
+      <c r="C150" s="101"/>
+      <c r="D150" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="E150" s="100"/>
+      <c r="F150" s="88"/>
       <c r="G150" s="30"/>
       <c r="H150" s="32"/>
     </row>
     <row r="151" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A151" s="31">
-        <v>133</v>
-      </c>
-      <c r="B151" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="C151" s="30" t="s">
-        <v>72</v>
-      </c>
+      <c r="A151" s="88"/>
+      <c r="B151" s="97"/>
+      <c r="C151" s="101"/>
       <c r="D151" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="E151" s="25"/>
-      <c r="F151" s="62" t="s">
-        <v>133</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="E151" s="100"/>
+      <c r="F151" s="88"/>
       <c r="G151" s="30"/>
       <c r="H151" s="32"/>
     </row>
     <row r="152" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A152" s="31">
-        <v>134</v>
-      </c>
-      <c r="B152" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C152" s="30" t="s">
-        <v>54</v>
-      </c>
+      <c r="A152" s="88"/>
+      <c r="B152" s="97"/>
+      <c r="C152" s="101"/>
       <c r="D152" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E152" s="25"/>
-      <c r="F152" s="62" t="s">
-        <v>133</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="E152" s="100"/>
+      <c r="F152" s="88"/>
       <c r="G152" s="30"/>
       <c r="H152" s="32"/>
     </row>
     <row r="153" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A153" s="31">
-        <v>135</v>
-      </c>
-      <c r="B153" s="86" t="s">
-        <v>124</v>
-      </c>
-      <c r="C153" s="95" t="s">
-        <v>24</v>
-      </c>
+      <c r="A153" s="89"/>
+      <c r="B153" s="98"/>
+      <c r="C153" s="101"/>
       <c r="D153" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="E153" s="99"/>
-      <c r="F153" s="83" t="s">
-        <v>138</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="E153" s="100"/>
+      <c r="F153" s="89"/>
       <c r="G153" s="30"/>
       <c r="H153" s="32"/>
     </row>
     <row r="154" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A154" s="31">
-        <v>136</v>
-      </c>
-      <c r="B154" s="87"/>
-      <c r="C154" s="95"/>
+      <c r="A154" s="87">
+        <v>138</v>
+      </c>
+      <c r="B154" s="96" t="s">
+        <v>118</v>
+      </c>
+      <c r="C154" s="101" t="s">
+        <v>27</v>
+      </c>
       <c r="D154" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="E154" s="99"/>
-      <c r="F154" s="84"/>
+        <v>3</v>
+      </c>
+      <c r="E154" s="100"/>
+      <c r="F154" s="87" t="s">
+        <v>132</v>
+      </c>
       <c r="G154" s="30"/>
       <c r="H154" s="32"/>
     </row>
     <row r="155" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A155" s="31">
-        <v>137</v>
-      </c>
-      <c r="B155" s="87"/>
-      <c r="C155" s="95"/>
+      <c r="A155" s="89"/>
+      <c r="B155" s="98"/>
+      <c r="C155" s="101"/>
       <c r="D155" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="E155" s="99"/>
-      <c r="F155" s="84"/>
+        <v>108</v>
+      </c>
+      <c r="E155" s="100"/>
+      <c r="F155" s="89"/>
       <c r="G155" s="30"/>
       <c r="H155" s="32"/>
     </row>
     <row r="156" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A156" s="31">
-        <v>138</v>
-      </c>
-      <c r="B156" s="88"/>
-      <c r="C156" s="95"/>
-      <c r="D156" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="E156" s="99"/>
-      <c r="F156" s="85"/>
+      <c r="A156" s="22"/>
+      <c r="B156" s="30"/>
+      <c r="C156" s="102" t="s">
+        <v>55</v>
+      </c>
+      <c r="D156" s="102"/>
+      <c r="E156" s="22"/>
+      <c r="F156" s="62"/>
       <c r="G156" s="30"/>
       <c r="H156" s="32"/>
     </row>
-    <row r="157" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A157" s="53"/>
-      <c r="B157" s="54"/>
-      <c r="C157" s="55"/>
-      <c r="D157" s="56"/>
-      <c r="E157" s="56"/>
-      <c r="F157" s="53"/>
-      <c r="G157" s="54"/>
-      <c r="H157" s="54"/>
-    </row>
-    <row r="158" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A158" s="53"/>
-      <c r="B158" s="54"/>
-      <c r="C158" s="55"/>
-      <c r="D158" s="56"/>
-      <c r="E158" s="56"/>
-      <c r="F158" s="53"/>
-      <c r="G158" s="54"/>
-      <c r="H158" s="54"/>
-    </row>
-    <row r="159" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A159" s="53"/>
-      <c r="B159" s="54"/>
-      <c r="C159" s="55"/>
-      <c r="D159" s="56"/>
-      <c r="E159" s="56"/>
-      <c r="F159" s="53"/>
-      <c r="G159" s="54"/>
-      <c r="H159" s="54"/>
-    </row>
-    <row r="160" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A160" s="53"/>
-      <c r="B160" s="54"/>
-      <c r="C160" s="55"/>
-      <c r="D160" s="56"/>
-      <c r="E160" s="56"/>
-      <c r="F160" s="53"/>
-      <c r="G160" s="54"/>
-      <c r="H160" s="54"/>
-    </row>
-    <row r="161" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A161" s="53"/>
-      <c r="B161" s="54"/>
-      <c r="C161" s="55"/>
-      <c r="D161" s="56"/>
-      <c r="E161" s="56"/>
-      <c r="F161" s="53"/>
-      <c r="G161" s="54"/>
-      <c r="H161" s="54"/>
-    </row>
-    <row r="162" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A162" s="53"/>
-      <c r="B162" s="54"/>
-      <c r="C162" s="55"/>
-      <c r="D162" s="56"/>
-      <c r="E162" s="56"/>
-      <c r="F162" s="53"/>
-      <c r="G162" s="54"/>
-      <c r="H162" s="54"/>
-    </row>
-    <row r="163" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A163" s="53"/>
-      <c r="B163" s="54"/>
-      <c r="C163" s="55"/>
-      <c r="D163" s="57"/>
-      <c r="E163" s="56"/>
-      <c r="F163" s="53"/>
-      <c r="G163" s="54"/>
-      <c r="H163" s="54"/>
+    <row r="157" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A157" s="31">
+        <v>139</v>
+      </c>
+      <c r="B157" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="C157" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D157" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E157" s="25"/>
+      <c r="F157" s="62" t="s">
+        <v>134</v>
+      </c>
+      <c r="G157" s="30"/>
+      <c r="H157" s="32"/>
+    </row>
+    <row r="158" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A158" s="31">
+        <v>140</v>
+      </c>
+      <c r="B158" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="C158" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D158" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E158" s="25"/>
+      <c r="F158" s="62" t="s">
+        <v>130</v>
+      </c>
+      <c r="G158" s="30"/>
+      <c r="H158" s="32"/>
+    </row>
+    <row r="159" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A159" s="82">
+        <v>141</v>
+      </c>
+      <c r="B159" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C159" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D159" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E159" s="25"/>
+      <c r="F159" s="62" t="s">
+        <v>130</v>
+      </c>
+      <c r="G159" s="30"/>
+      <c r="H159" s="32"/>
+    </row>
+    <row r="160" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A160" s="82">
+        <v>142</v>
+      </c>
+      <c r="B160" s="96" t="s">
+        <v>122</v>
+      </c>
+      <c r="C160" s="101" t="s">
+        <v>24</v>
+      </c>
+      <c r="D160" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E160" s="100"/>
+      <c r="F160" s="87" t="s">
+        <v>135</v>
+      </c>
+      <c r="G160" s="30"/>
+      <c r="H160" s="32"/>
+    </row>
+    <row r="161" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A161" s="82">
+        <v>143</v>
+      </c>
+      <c r="B161" s="97"/>
+      <c r="C161" s="101"/>
+      <c r="D161" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E161" s="100"/>
+      <c r="F161" s="88"/>
+      <c r="G161" s="30"/>
+      <c r="H161" s="32"/>
+    </row>
+    <row r="162" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A162" s="82">
+        <v>144</v>
+      </c>
+      <c r="B162" s="97"/>
+      <c r="C162" s="101"/>
+      <c r="D162" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="E162" s="100"/>
+      <c r="F162" s="88"/>
+      <c r="G162" s="30"/>
+      <c r="H162" s="32"/>
+    </row>
+    <row r="163" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A163" s="82">
+        <v>145</v>
+      </c>
+      <c r="B163" s="98"/>
+      <c r="C163" s="101"/>
+      <c r="D163" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="E163" s="100"/>
+      <c r="F163" s="89"/>
+      <c r="G163" s="30"/>
+      <c r="H163" s="32"/>
     </row>
     <row r="164" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
       <c r="A164" s="53"/>
@@ -12186,7 +11498,7 @@
       <c r="A165" s="53"/>
       <c r="B165" s="54"/>
       <c r="C165" s="55"/>
-      <c r="D165" s="59"/>
+      <c r="D165" s="56"/>
       <c r="E165" s="56"/>
       <c r="F165" s="53"/>
       <c r="G165" s="54"/>
@@ -12196,7 +11508,7 @@
       <c r="A166" s="53"/>
       <c r="B166" s="54"/>
       <c r="C166" s="55"/>
-      <c r="D166" s="60"/>
+      <c r="D166" s="56"/>
       <c r="E166" s="56"/>
       <c r="F166" s="53"/>
       <c r="G166" s="54"/>
@@ -12206,7 +11518,7 @@
       <c r="A167" s="53"/>
       <c r="B167" s="54"/>
       <c r="C167" s="55"/>
-      <c r="D167" s="55"/>
+      <c r="D167" s="56"/>
       <c r="E167" s="56"/>
       <c r="F167" s="53"/>
       <c r="G167" s="54"/>
@@ -12226,7 +11538,7 @@
       <c r="A169" s="53"/>
       <c r="B169" s="54"/>
       <c r="C169" s="55"/>
-      <c r="D169" s="55"/>
+      <c r="D169" s="56"/>
       <c r="E169" s="56"/>
       <c r="F169" s="53"/>
       <c r="G169" s="54"/>
@@ -12236,7 +11548,7 @@
       <c r="A170" s="53"/>
       <c r="B170" s="54"/>
       <c r="C170" s="55"/>
-      <c r="D170" s="55"/>
+      <c r="D170" s="57"/>
       <c r="E170" s="56"/>
       <c r="F170" s="53"/>
       <c r="G170" s="54"/>
@@ -12245,236 +11557,308 @@
     <row r="171" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
       <c r="A171" s="53"/>
       <c r="B171" s="54"/>
-      <c r="C171" s="58"/>
+      <c r="C171" s="55"/>
       <c r="D171" s="56"/>
-      <c r="E171" s="53"/>
+      <c r="E171" s="56"/>
       <c r="F171" s="53"/>
       <c r="G171" s="54"/>
       <c r="H171" s="54"/>
     </row>
     <row r="172" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A172" s="55"/>
-      <c r="B172" s="55"/>
+      <c r="A172" s="53"/>
+      <c r="B172" s="54"/>
       <c r="C172" s="55"/>
-      <c r="D172" s="61"/>
-      <c r="E172" s="55"/>
-      <c r="F172" s="58"/>
-      <c r="G172" s="55"/>
-      <c r="H172" s="55"/>
+      <c r="D172" s="59"/>
+      <c r="E172" s="56"/>
+      <c r="F172" s="53"/>
+      <c r="G172" s="54"/>
+      <c r="H172" s="54"/>
     </row>
     <row r="173" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="A173" s="53"/>
+      <c r="B173" s="54"/>
       <c r="C173" s="55"/>
-      <c r="D173" s="45"/>
-      <c r="F173" s="67"/>
+      <c r="D173" s="60"/>
+      <c r="E173" s="56"/>
+      <c r="F173" s="53"/>
+      <c r="G173" s="54"/>
+      <c r="H173" s="54"/>
     </row>
     <row r="174" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="A174" s="53"/>
+      <c r="B174" s="54"/>
       <c r="C174" s="55"/>
-      <c r="D174" s="45"/>
-      <c r="F174" s="67"/>
+      <c r="D174" s="55"/>
+      <c r="E174" s="56"/>
+      <c r="F174" s="53"/>
+      <c r="G174" s="54"/>
+      <c r="H174" s="54"/>
     </row>
     <row r="175" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="A175" s="53"/>
+      <c r="B175" s="54"/>
       <c r="C175" s="55"/>
-      <c r="D175" s="45"/>
-      <c r="F175" s="67"/>
+      <c r="D175" s="56"/>
+      <c r="E175" s="56"/>
+      <c r="F175" s="53"/>
+      <c r="G175" s="54"/>
+      <c r="H175" s="54"/>
     </row>
     <row r="176" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="A176" s="53"/>
+      <c r="B176" s="54"/>
       <c r="C176" s="55"/>
-      <c r="D176" s="45"/>
-      <c r="F176" s="67"/>
-    </row>
-    <row r="177" spans="4:6" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="D177" s="45"/>
-      <c r="F177" s="67"/>
-    </row>
-    <row r="178" spans="4:6" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="D178" s="45"/>
-      <c r="F178" s="67"/>
-    </row>
-    <row r="179" spans="4:6" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="D179" s="45"/>
-      <c r="F179" s="67"/>
-    </row>
-    <row r="180" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
+      <c r="D176" s="55"/>
+      <c r="E176" s="56"/>
+      <c r="F176" s="53"/>
+      <c r="G176" s="54"/>
+      <c r="H176" s="54"/>
+    </row>
+    <row r="177" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="A177" s="53"/>
+      <c r="B177" s="54"/>
+      <c r="C177" s="55"/>
+      <c r="D177" s="55"/>
+      <c r="E177" s="56"/>
+      <c r="F177" s="53"/>
+      <c r="G177" s="54"/>
+      <c r="H177" s="54"/>
+    </row>
+    <row r="178" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="A178" s="53"/>
+      <c r="B178" s="54"/>
+      <c r="C178" s="58"/>
+      <c r="D178" s="56"/>
+      <c r="E178" s="53"/>
+      <c r="F178" s="53"/>
+      <c r="G178" s="54"/>
+      <c r="H178" s="54"/>
+    </row>
+    <row r="179" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="A179" s="55"/>
+      <c r="B179" s="55"/>
+      <c r="C179" s="55"/>
+      <c r="D179" s="61"/>
+      <c r="E179" s="55"/>
+      <c r="F179" s="58"/>
+      <c r="G179" s="55"/>
+      <c r="H179" s="55"/>
+    </row>
+    <row r="180" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="C180" s="55"/>
       <c r="D180" s="45"/>
       <c r="F180" s="67"/>
     </row>
-    <row r="181" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
+    <row r="181" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="C181" s="55"/>
       <c r="D181" s="45"/>
       <c r="F181" s="67"/>
     </row>
-    <row r="182" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
+    <row r="182" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="C182" s="55"/>
       <c r="D182" s="45"/>
       <c r="F182" s="67"/>
     </row>
-    <row r="183" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
+    <row r="183" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="C183" s="55"/>
       <c r="D183" s="45"/>
       <c r="F183" s="67"/>
     </row>
-    <row r="184" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
+    <row r="184" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
       <c r="D184" s="45"/>
       <c r="F184" s="67"/>
     </row>
-    <row r="185" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
+    <row r="185" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
       <c r="D185" s="45"/>
       <c r="F185" s="67"/>
     </row>
-    <row r="186" spans="4:6" s="46" customFormat="1" ht="26.25" customHeight="1">
-      <c r="D186" s="47"/>
-      <c r="F186" s="68"/>
-    </row>
-    <row r="187" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
+    <row r="186" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="D186" s="45"/>
+      <c r="F186" s="67"/>
+    </row>
+    <row r="187" spans="1:8" s="44" customFormat="1" ht="26.25" customHeight="1">
       <c r="D187" s="45"/>
       <c r="F187" s="67"/>
     </row>
-    <row r="188" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
+    <row r="188" spans="1:8" s="44" customFormat="1" ht="26.25" customHeight="1">
       <c r="D188" s="45"/>
       <c r="F188" s="67"/>
     </row>
-    <row r="189" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
+    <row r="189" spans="1:8" s="44" customFormat="1" ht="26.25" customHeight="1">
       <c r="D189" s="45"/>
       <c r="F189" s="67"/>
     </row>
+    <row r="190" spans="1:8" s="44" customFormat="1" ht="26.25" customHeight="1">
+      <c r="D190" s="45"/>
+      <c r="F190" s="67"/>
+    </row>
+    <row r="191" spans="1:8" s="44" customFormat="1" ht="26.25" customHeight="1">
+      <c r="D191" s="45"/>
+      <c r="F191" s="67"/>
+    </row>
+    <row r="192" spans="1:8" s="44" customFormat="1" ht="26.25" customHeight="1">
+      <c r="D192" s="45"/>
+      <c r="F192" s="67"/>
+    </row>
+    <row r="193" spans="4:6" s="46" customFormat="1" ht="26.25" customHeight="1">
+      <c r="D193" s="47"/>
+      <c r="F193" s="68"/>
+    </row>
+    <row r="194" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
+      <c r="D194" s="45"/>
+      <c r="F194" s="67"/>
+    </row>
+    <row r="195" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
+      <c r="D195" s="45"/>
+      <c r="F195" s="67"/>
+    </row>
+    <row r="196" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
+      <c r="D196" s="45"/>
+      <c r="F196" s="67"/>
+    </row>
   </sheetData>
-  <mergeCells count="139">
-    <mergeCell ref="F147:F148"/>
-    <mergeCell ref="F153:F156"/>
-    <mergeCell ref="F124:F126"/>
-    <mergeCell ref="F127:F131"/>
-    <mergeCell ref="F135:F136"/>
-    <mergeCell ref="F137:F138"/>
-    <mergeCell ref="F139:F146"/>
-    <mergeCell ref="F110:F111"/>
-    <mergeCell ref="F112:F113"/>
-    <mergeCell ref="F114:F116"/>
-    <mergeCell ref="F118:F121"/>
+  <mergeCells count="141">
+    <mergeCell ref="B55:B61"/>
+    <mergeCell ref="C55:C61"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="C44:C48"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="C4:C15"/>
+    <mergeCell ref="F154:F155"/>
+    <mergeCell ref="F160:F163"/>
+    <mergeCell ref="F131:F133"/>
+    <mergeCell ref="F134:F138"/>
+    <mergeCell ref="F142:F143"/>
+    <mergeCell ref="F144:F145"/>
+    <mergeCell ref="F146:F153"/>
+    <mergeCell ref="F117:F118"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="F121:F123"/>
+    <mergeCell ref="F125:F128"/>
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="E35:E41"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="E37:E43"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C25:C34"/>
-    <mergeCell ref="F35:F41"/>
-    <mergeCell ref="F42:F45"/>
-    <mergeCell ref="C4:C12"/>
-    <mergeCell ref="B4:B13"/>
-    <mergeCell ref="B93:B95"/>
-    <mergeCell ref="B96:B98"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="B14:B21"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="F52:F56"/>
-    <mergeCell ref="F57:F61"/>
-    <mergeCell ref="F62:F64"/>
-    <mergeCell ref="F65:F69"/>
-    <mergeCell ref="F70:F73"/>
-    <mergeCell ref="F74:F80"/>
-    <mergeCell ref="B46:B51"/>
-    <mergeCell ref="C99:C104"/>
-    <mergeCell ref="E147:E148"/>
-    <mergeCell ref="E153:E156"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="C127:C131"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="C137:C138"/>
-    <mergeCell ref="C139:C146"/>
-    <mergeCell ref="E114:E116"/>
-    <mergeCell ref="E118:E121"/>
-    <mergeCell ref="E124:E126"/>
-    <mergeCell ref="E127:E131"/>
-    <mergeCell ref="E135:E136"/>
-    <mergeCell ref="E137:E138"/>
-    <mergeCell ref="E139:E146"/>
-    <mergeCell ref="E52:E56"/>
-    <mergeCell ref="E57:E61"/>
-    <mergeCell ref="E62:E64"/>
-    <mergeCell ref="E65:E69"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="E74:E80"/>
-    <mergeCell ref="B52:B56"/>
-    <mergeCell ref="B35:B41"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C46:C51"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="B74:B80"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="B85:B89"/>
-    <mergeCell ref="B90:B92"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="B153:B156"/>
-    <mergeCell ref="B118:B121"/>
-    <mergeCell ref="B124:B126"/>
-    <mergeCell ref="B127:B131"/>
-    <mergeCell ref="C153:C156"/>
-    <mergeCell ref="C114:C116"/>
-    <mergeCell ref="C118:C121"/>
-    <mergeCell ref="C124:C126"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="C149:D149"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="B139:B146"/>
+    <mergeCell ref="C27:C36"/>
+    <mergeCell ref="F37:F43"/>
+    <mergeCell ref="F44:F47"/>
+    <mergeCell ref="B4:B15"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="B16:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="F55:F59"/>
+    <mergeCell ref="F62:F66"/>
+    <mergeCell ref="F67:F69"/>
+    <mergeCell ref="F70:F74"/>
+    <mergeCell ref="F75:F78"/>
+    <mergeCell ref="F79:F85"/>
+    <mergeCell ref="B49:B54"/>
+    <mergeCell ref="C106:C111"/>
+    <mergeCell ref="E154:E155"/>
+    <mergeCell ref="E160:E163"/>
+    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="C134:C138"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="C146:C153"/>
+    <mergeCell ref="E121:E123"/>
+    <mergeCell ref="E125:E128"/>
+    <mergeCell ref="E131:E133"/>
+    <mergeCell ref="E134:E138"/>
+    <mergeCell ref="E142:E143"/>
+    <mergeCell ref="E144:E145"/>
+    <mergeCell ref="E146:E153"/>
+    <mergeCell ref="E55:E59"/>
+    <mergeCell ref="E62:E66"/>
+    <mergeCell ref="E67:E69"/>
+    <mergeCell ref="E70:E74"/>
+    <mergeCell ref="E75:E78"/>
+    <mergeCell ref="E79:E85"/>
+    <mergeCell ref="E102:E104"/>
+    <mergeCell ref="B37:B43"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="C75:C78"/>
+    <mergeCell ref="C49:C54"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="B121:B123"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="B79:B85"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="B90:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B154:B155"/>
+    <mergeCell ref="B160:B163"/>
+    <mergeCell ref="B125:B128"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="B134:B138"/>
+    <mergeCell ref="C160:C163"/>
+    <mergeCell ref="C121:C123"/>
+    <mergeCell ref="C125:C128"/>
+    <mergeCell ref="C131:C133"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="C156:D156"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="B144:B145"/>
+    <mergeCell ref="B146:B153"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="A148:A153"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="A146:A147"/>
     <mergeCell ref="A135:A136"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="A141:A146"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="A128:A129"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="C14:C21"/>
-    <mergeCell ref="C57:C61"/>
-    <mergeCell ref="B25:B34"/>
-    <mergeCell ref="C52:C56"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="C96:C98"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="C85:C89"/>
-    <mergeCell ref="C90:C92"/>
-    <mergeCell ref="C93:C95"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="C74:C80"/>
-    <mergeCell ref="C65:C69"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="B65:B69"/>
-    <mergeCell ref="E4:E13"/>
-    <mergeCell ref="F4:F13"/>
-    <mergeCell ref="E14:E21"/>
-    <mergeCell ref="F14:F21"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="F25:F34"/>
-    <mergeCell ref="F46:F51"/>
-    <mergeCell ref="E46:E51"/>
-    <mergeCell ref="C35:C41"/>
-    <mergeCell ref="E25:E34"/>
-    <mergeCell ref="E96:E98"/>
-    <mergeCell ref="F96:F98"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="F106:F107"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="E85:E89"/>
-    <mergeCell ref="F85:F89"/>
-    <mergeCell ref="E90:E92"/>
-    <mergeCell ref="F90:F92"/>
-    <mergeCell ref="E93:E95"/>
-    <mergeCell ref="F93:F95"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C16:C23"/>
+    <mergeCell ref="C62:C66"/>
+    <mergeCell ref="B27:B36"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="C90:C94"/>
+    <mergeCell ref="C95:C97"/>
+    <mergeCell ref="C98:C101"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="C79:C85"/>
+    <mergeCell ref="C70:C74"/>
+    <mergeCell ref="B62:B66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="B70:B74"/>
+    <mergeCell ref="C37:C43"/>
+    <mergeCell ref="E4:E15"/>
+    <mergeCell ref="F4:F15"/>
+    <mergeCell ref="E16:E23"/>
+    <mergeCell ref="F16:F23"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="F27:F36"/>
+    <mergeCell ref="F49:F54"/>
+    <mergeCell ref="E49:E54"/>
+    <mergeCell ref="E27:E36"/>
+    <mergeCell ref="F102:F104"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="E90:E94"/>
+    <mergeCell ref="F90:F94"/>
+    <mergeCell ref="E95:E97"/>
+    <mergeCell ref="F95:F97"/>
+    <mergeCell ref="E98:E101"/>
+    <mergeCell ref="F98:F101"/>
+    <mergeCell ref="E106:E111"/>
+    <mergeCell ref="F106:F111"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -12510,59 +11894,59 @@
   <sheetData>
     <row r="7" spans="4:5" ht="12.75" thickBot="1">
       <c r="D7" s="35" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="4:5" ht="13.5" customHeight="1" thickTop="1">
       <c r="D8" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="E8" s="105" t="s">
-        <v>83</v>
+        <v>109</v>
+      </c>
+      <c r="E8" s="111" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="4:5">
       <c r="D9" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="E9" s="105"/>
+        <v>110</v>
+      </c>
+      <c r="E9" s="111"/>
     </row>
     <row r="10" spans="4:5">
       <c r="D10" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="E10" s="106"/>
+        <v>111</v>
+      </c>
+      <c r="E10" s="112"/>
     </row>
     <row r="14" spans="4:5" ht="12.75" thickBot="1">
       <c r="D14" s="35" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="4:5" ht="12.75" thickTop="1">
       <c r="D15" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="E15" s="105" t="s">
-        <v>83</v>
+        <v>123</v>
+      </c>
+      <c r="E15" s="111" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="4:5">
       <c r="D16" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" s="105"/>
+        <v>82</v>
+      </c>
+      <c r="E16" s="111"/>
     </row>
     <row r="17" spans="4:5">
       <c r="D17" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="E17" s="106"/>
+        <v>112</v>
+      </c>
+      <c r="E17" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/문서 관리/01. 요구사항명세서.xlsx
+++ b/문서 관리/01. 요구사항명세서.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20625" windowHeight="9735" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20625" windowHeight="9735" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="1" r:id="rId1"/>
@@ -26,38 +26,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="307">
-  <si>
-    <t>시스템 운영상 교육이 필요하다고 판단되어 발주기관이 교육요구 시 협의를 통해 교육 시행</t>
-  </si>
-  <si>
-    <t>사용자 인증 정보, 주민등록번호, 계좌번호, 패스워드 등은 소스코드에 직접 하드코딩하지 않음</t>
-  </si>
-  <si>
-    <t>계약상대자가 사업 수행 과정에서 취득 또는 작성하는 성과물 및 산출물 일체에 대한 소유권은 센터에 있음</t>
-  </si>
-  <si>
-    <t>아래의 사항에 대하여 계약을 해지할 수 있으면 계약을 해지함에 있어 수행업체는 이의를 제기할 수 없음</t>
-  </si>
-  <si>
-    <t>계약상대자는 용역에 참여하는 모든 인력에 대하여 보안각서와 제반서류를 제출하고, 사업 수행 대표자는 용역에 투입되는 인력 전체에 대한 보안상 총괄책임을 져야 함</t>
-  </si>
-  <si>
-    <t>발주기관은 본 사업의 공기 준수 및 품질 수준 극대화를 위해 사업 진행 상황에 대한 감리 및 검사를 시행할 수 있으며, 이 경우 감리 및 검사 요원은 발주기관이 지정하는 기관과 직원으로 함</t>
-  </si>
-  <si>
-    <t>실시간으로 처리 시 오류가 발생한 즉시 사용자에게 관련 메세지를 알려주도록 설계/구현 하여야 함</t>
-  </si>
-  <si>
-    <t>정보보호 관련 법령을 시스템 개발에 참여하는 인력 전원이 숙지하고 준수하여야 함</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="354">
   <si>
     <t>계약 상대자는 제반 프로그램이 고품질을 유지할 수 있도록 최선의 노력을 다하여야 함</t>
   </si>
   <si>
-    <t>개발 단계별 추진 일정 및 세부 활동내용 등이 포함된 개발 일정 계획을 제시할 것</t>
-  </si>
-  <si>
     <t>날짜</t>
   </si>
   <si>
@@ -88,36 +61,18 @@
     <t>사용자 정보 접근성 향상을 위한 UI를 지원하도록 설계/구현하여야 함</t>
   </si>
   <si>
-    <t>장애 발생에 대한 처리 및 기타 시스템의 정상적인 운영을 위한 지원</t>
-  </si>
-  <si>
     <t>요구사항 내용</t>
   </si>
   <si>
-    <t>업무 모듈화</t>
-  </si>
-  <si>
-    <t>검사 및 검수</t>
-  </si>
-  <si>
-    <t>교육지원 요건</t>
-  </si>
-  <si>
     <t>요구사항 목록</t>
   </si>
   <si>
     <t>사. 제약사항</t>
   </si>
   <si>
-    <t>해지요건</t>
-  </si>
-  <si>
     <t>요구사항 이름</t>
   </si>
   <si>
-    <t>시험운영</t>
-  </si>
-  <si>
     <t>작     성     자</t>
   </si>
   <si>
@@ -172,58 +127,15 @@
     <t>요구사항 ID</t>
   </si>
   <si>
-    <t>개인정보보호에 관한 법률에 의거 개인정보보호지침을 준수해야 함</t>
-  </si>
-  <si>
-    <t>유연성, 확장성을 확보할 수 있도록 기능을 모듈화 하여야 함</t>
-  </si>
-  <si>
-    <t>화면 전환, 응답시간 기준 준수</t>
-  </si>
-  <si>
-    <t>사용자 편의성을 고려한
-UI 설계</t>
-  </si>
-  <si>
-    <t>교육일정 및 장소, 교재 등 기타 제반사항은 발주기관과 협의하여 결정하여야 하며, 아래의 사항을 포함하여야 함</t>
-  </si>
-  <si>
-    <t>일정 계획 및 세부 활동내용</t>
-  </si>
-  <si>
-    <t>장애 관리 및 백업 요건</t>
-  </si>
-  <si>
-    <t>데이터 형식 오류 응답시간</t>
-  </si>
-  <si>
     <t>아. 프로젝트관리 요구사항</t>
   </si>
   <si>
-    <t>본 과업의 수행에 있어서 제3자의 지적재산권을 침해하여 발주기관을 상대로 손해배상 청구 소송 등이 제기되면 계약상대자는 피해자 측에 합의 배상하여야 함</t>
-  </si>
-  <si>
-    <t>계약상대가 제3자로부터 구매하여 공급한 제품과 자체 개발한 SW를 포함한 전시스템의 하자보증 기간은 최종 검수 완료일로부터 3개월로 함</t>
-  </si>
-  <si>
-    <t>※오류 메세지에 중요정보(서버 설정정보, 세션정보, SQL정보) 등이 노출되지 않도록 적당한 에러 처리 로직 및 에러 화면을 구성</t>
-  </si>
-  <si>
     <t>DB 구조의 설계는 관련 업무 처리 절차를 반영하여 유기적으로 구조화하고, 향후 업무 변동에 따른 확장성을 충분히 고려하여 설계해야 함</t>
   </si>
   <si>
-    <t>본 사업의 수행과정에서 발생하는 제반 안전사고의 책임 및 행적적, 기술적 제반 비용과 문제처리는 계약상대자가 부담하는 것을 원칙으로 함</t>
-  </si>
-  <si>
     <t>다. 성능 요구사항</t>
   </si>
   <si>
-    <t>확인 메세지 제공</t>
-  </si>
-  <si>
-    <t>데이터베이스의 설계</t>
-  </si>
-  <si>
     <t>데이터 정합성 검증</t>
   </si>
   <si>
@@ -233,37 +145,10 @@
     <t>바. 보안 요구사항</t>
   </si>
   <si>
-    <t>성과물의 소유권</t>
-  </si>
-  <si>
-    <t>응용 및 DB보안</t>
-  </si>
-  <si>
-    <t>지적재산권 보호</t>
-  </si>
-  <si>
-    <t>인적 및 물리적 보안</t>
-  </si>
-  <si>
-    <t>하자보증 요건 정의</t>
-  </si>
-  <si>
     <t>사용자가 진행 상태와 결과를 쉽게 볼 수 있고, 향후 수행 활동들을 쉽게 할 수 있도록 목록에서 제공할 정보를 설계해야 함</t>
   </si>
   <si>
-    <t>삭제, 입력정보 완료 또는 미완료 후 저장 등과 같이 사용자의 수행 활동에 관한 확인 메세지를 제공하도록 설계/구현 하여야 함</t>
-  </si>
-  <si>
     <t>권한</t>
-  </si>
-  <si>
-    <t>사업 진행에 대한 감리 및 검사는 제반 작업진척 사항 등을 기준으로 실시하며, 감리 및 검사결과 지적사항에 대해 발주기관의 시정요구가 있을 때 계약상대자는 성실히 이행하여야 함</t>
-  </si>
-  <si>
-    <t>일반 사용자는 직접적으로 DB접근을 할 수 없음</t>
-  </si>
-  <si>
-    <t>시스템의 운영, 사용자 및 관리자 사용법 교육</t>
   </si>
   <si>
     <t>미인증 회원일 시 마이페이지에서 내 정보 수정만 가능</t>
@@ -290,22 +175,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>FUR-001</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUR-005</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUR-006</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUR-009</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>PER-001</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -314,13 +183,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>SIR-001</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>SIR-002</t>
-  </si>
-  <si>
     <t>DAR-001</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -328,21 +190,6 @@
     <t>DAR-002</t>
   </si>
   <si>
-    <t>SER-001</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>SER-002</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>COR-001</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>COR-002</t>
-  </si>
-  <si>
     <t>COR-004</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -359,10 +206,6 @@
   </si>
   <si>
     <t>ID(고유번호), PW 등을 통한 웹사이트 형태의 보안 로그인 구현</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자가 입력한 데이터 형식의 모든 오류는 사용자가 시스템에 정보를 입력한지 5초 이내에 적당한 오류 메세지를 사용자에게 제시함</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -453,53 +296,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve"> 최종 이용자에 대한 최대의 이용 편의성 제공</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <rFont val="굴림체"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>•</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림체"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
       <t xml:space="preserve"> 기타 업무 처리 시 발견된 제반 문제점 보완</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <rFont val="굴림체"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>•</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림체"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 정당한 사유 없이 계약 내용을 성실히 이행하지 아니한 경우</t>
     </r>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -630,33 +427,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>시스템 검수 후 3개월 이내에 집체교육 최소 1회 이상 시행 (업무 담당자들이 완전히 이해하여 활용할 수 있도록 충분히 이우어져야 함)</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>COR-006</t>
-  </si>
-  <si>
-    <t>COR-007</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>PMR-001</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>PSR-001</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>PSR-002</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>PSR-003</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -680,14 +450,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>FUR-004</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>계약상대자는 공공기관의 개인정보보호에 관한 법률 등 기관의 정보보안 정책 및 규정을 준수하고,본 사업과 관련하여 취득한 일체의 정보를 유출 또는 누설하여서는 안되며,</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>시험운영은 발주기관이 정한 기간 내에 수행하여야 하고 정한 기간 내에 보완이 완료되지 못하면 서로가 정한 계약조건에 따른 조치와 보완 완료 시까지 책임을 져야함.</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -696,14 +458,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>이의 위반으로 인한 문제 발생 시 민∙형사상의 모든 책임을 짐</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>시스템 개발 중 작성된 SQL문에 대하여 충분히 성능 테스트를 수행하며 성능 지연이 발생하지 않도록 조정해야 함</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>공통</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -744,10 +498,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>로그인 시도 5회 실패 시 본인인증 후 로그인 가능</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>회원가입시 해당 전화번호로 본인인증 수행 (* 이메일 인증으로 대체 가능)</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -756,10 +506,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>로그인 실패시 로그인창 하단에 실패원인 메세지 출력</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>본인인증 미완료시 서비스 이용 부분 제한</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -801,18 +547,6 @@
   </si>
   <si>
     <t>마음건강검사</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>마음건강정보</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>스윗(WeeT)</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wee-Network</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -928,326 +662,957 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
+    <t>접속 계정, 접속일시, 접속IP, 작업 종류 및 시간에 해당하는 접속 로그 기록 보관</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 접속 로그 및 이벤트 로그 1년 이상 보관</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 및 사용자 계정 5회 이상 실패 시 계정 이용 중지 조치</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 정보 및 현황 조회/검색 기능, 가입/탈퇴회원 현황 조회 기능 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템에 이용되는 각종 알림, 문구, 게시글 관리 권한 부여</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템을 사용하는 사용자 유형에 따라 등록, 수정, 삭제, 조회, 비밀번호 초기화 기능 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오톡 채널을 통해 자주 묻는 질문에 대한 답변 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>바로가기 메뉴에 등록된 질문 선택 시 질문에 대한 답변 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역별 카테고리에서 특정 지역 선택 시 해당 지역에 위치한 센터의 위치정보를 지도 형태로 출력</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>유입 통계에서 방문자, 가입자, 접속자의 유입경로(시간, 메뉴) 통계 정보 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 대상으로 검사사용 현황(검사/연령/상황별) 및 마음건강검사 통계 정보 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색 키워드 및 조회수 관련 마음건강정보 통계 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>유튜브 및 카카오톡 채널로 연결하는 링크 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>배너 클릭 시 해당 유관기관 사이트로 이동</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 위(Wee) 센터 교육·연수·행사·기타 등록/접수/현황 관리 기능</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교 업무 공유 게시판, 상담 전문성 공유 게시판, 서식 공유 게시판, 자유 게시판의 하위 메뉴로 구성</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자간 양방향 소통(댓글, 대댓글) 기능 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항에 기관별, 제목, 내용 검색 기능 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAQ, 자주찾는질문에 대한 답변 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스 이용 불만사항 건의 및 불량 사용자에 대한 신고 기능 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>통계 항목에 대한 엑셀 및 그래프, 파일 다운로드 기능</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>마음건강정보 자료 중 카드뉴스 형식의 콘텐츠는 추천 글로 지정</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류별, 키워드별, 검색항목별 검색기능 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞춤형 검사는 사용자가 원하는 검사 선택 시 관련 검사 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>초등〮중고등〮성인 선택 시 해당 연령별 관련 검사 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>비회원의 경우 개인정보 수집 및 활용 동의 후 심리검사 서비스 이용 가능</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>상담 매체별 상담 이용안내 소개</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>내담자가 14세 미만인 경우 보호자 상담동의서 선택 기능</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>상담 희망일시 등록 시 수업시간일 경우 '수업시간 내 상담 희망' 체크 기능</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀵 메뉴 및 바로가기 아이콘 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>최근 방문한 페이지 목록을 최대 4개까지 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 탈퇴 버튼 입력 시 '회원을 탈퇴하시겠습니까?' 확인 팝업 메시지 출력</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>금칙어 포함시, 센터별관리자에게 게시글 삭제와 메시지 표시 기능 권한 부여</t>
+  </si>
+  <si>
+    <t>신청자가 지정한 위(Wee) 센터(24개소) 변경 권한을 센터별 관리자에게 부여</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이아웃에 따라 개별적으로 콘텐츠 관리 기능</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 생애주기, 관심 키워드, 심리상담 주제 선택시 사용자 맞춤 서비스 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판별 연계가 가능하여 모든 게시판에서 확인 가능</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>위(Wee) 센터별(23개소) 게시판 상담 관리 기능</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항에 전체·26개소에 따른 교육·연수·행사·기타 등록 및 신청자 접수 기능 구현</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>접수 신청시 기한 및 인원수 제한을 두어 공고 마감 기능</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>마음건강검사 페이지 이동</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>상담신청 페이지 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리는 대인관계〮학교생활〮마음건강〮위기〮일탈로 구분하여 선택 시 상세 콘텐츠 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 위플(Weepl) 로고 및 마스코트 캐릭터 소개 페이지 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞춤 서비스, 마음건강정보 추천글, 통합검색, 공지사항, 우리 지역 기관 찾기, 챗봇(FAQ), SNS, 유관기관 서비스로 구성</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>위(Wee) 프로젝트 사업소개 및 추진 체계 정보 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청자와 내담자가 동일한 경우 회원가입 정보를 연동하되, 다른 경우 내담자의 정보를 작성할 수 있도록 구현</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 상담별 게시판마다 신청자가 직접 비밀번호를 설정하여 비밀번호 입력 후 게시판 조회 가능</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 페이지</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 페이지</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID/PW 찾기 페이지</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인페이지</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 위(Wee) 페이지</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>상담신청 페이지</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원(신청자)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸터</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤더</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이드바</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원탈퇴 페이지</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객지원 페이지</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>통계현황 페이지</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 위(Wee) 페이지</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wee-Net 페이지</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>상담(교)사</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>마음건강정보</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>스윗(Sweet) 페이지</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>마음건강정보</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>상담게시판</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원(신청자)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀵 메뉴는 챗봇, SNS, 유관기관으로 연결</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>챗봇</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호는 특수문자, 숫자 등을 포함하여 8자리 이상, 15자의 이하로 구성되고, 양식에 맞지 않을 경우 입력창 아래 '비밀번호가 맞지 않습니다' 붉은색 문구 출력</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 탈퇴 계정과 동일한 아이디로 일정 기간 회원가입 제한</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈퇴 신청 계정으로 로그인 시도 시 '탈퇴 신청한 계정입니다. 계정을 복구하시겠습니까?' 팝업 창 출력</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 시 개인정보 수집〮이용 동의 및 본인 확인 절차 필요</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>전문상담(교사) 회원에 한해 스윗(Sweet) 확인, 닉네임 등록〮수정, 작성 게시글/댓글 확인 기능 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 위(Wee) 센터 위치를 지도화하여 지도 선택시 위(Wee)센터 26개소의 소개 및 내용 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>센터별 교육〮연수 일정 정보 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>위(Wee), 위네트워크(Wee-Network)를 탭으로 구성</t>
+  </si>
+  <si>
+    <t>전문상담(교)사 회원은 닉네임 등록·수정 기능 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아요, 유익해요, 재밌어요, 추천해요 등 이모티콘 활용 가능</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>전국에 위치한 Wee-Network의 위치를 지도 형태로 제공, 지도 선택 시 기관 소개 내용 및 URL 등 상세 정보 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획·디자인 콘텐츠는 카드뉴스 형식으로 구현</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>내담자〮보호자 상담동의서, 상담 확정 안내 전송 관리</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글마다 첨부파일 업로드·다운로드 기능</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 위(Wee) 센터 관련 문의 응대</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 시 ID, 비밀번호, 비밀번호 확인, 이름, 성별, 내〮외국인, 연락처, 생년월일, 이메일, 주소, 학교명 필수 입력</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 목록은 최신순·추천순 등 보기 방식을 변경하여 조회 가능</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>상담 통계에서 전체〮센터의 신청자, 내담자, 게시판 상담, 상담 만족도 검사 상담 통계 정보 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 위플(Weepl) 앱 서비스 관련 문의에 대한 답변 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 안전도는 한글, 영문만 포함 시 낮음, 한글, 영문, 숫자 포함 시 보통, 한글, 영문, 숫자, 특수문자 포함 시 높음으로 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 시 필수 입력사항을 입력하지 않았을 시, 입력란 우측 또는 하단에 '* 필수입력사항 입니다' 붉은색 문구 출력</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>본인이 참여한 마음건강검사에 대해 자가진단검사 결과 확인 가능</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>비회원의 경우 상담 신청 서비스 이용 불가, '로그인 후 이용해주세요' 팝업 창 출력 후 로그인 페이지로 전환</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>심리상담·생명존중·성·중독·도박, 아동·청소년 지원 관련 기관의 기관명, 연락처 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈퇴 신청 회원의 경우 개인정보 30일 유예기간 및 기간 내 계정 복구 가능, 30일 이후 해당 계정 영구 삭제</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>상담 완료' 상태의 상담의 경우 상담 만족도 검사 페이지로 연결되는 버튼 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>키워드 검색, 카테고리별 검색이 가능한 검색 툴 구현</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>전문상담(교)사 권한으로 로그인된 계정만 이용할 수 있도록 구현</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 상담은 비대면 상담 신청과 별도로 분리하여 신청할 수 있도록 구현</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>없는 계정으로 로그인 시 '등록되지 않은 계정입니다. 회원가입 후 이용해주세요.' 팝업 창 출력</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이드 바는 화면 스크롤 위치에 따라 페이지 측면에 항상 위치하도록 구현</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색결과로 나타난 기관의 위치 클릭 시 기관 상세 정보를 해당 위치에서 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>제시된 상황 선택 시 관련 상황별 검사 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>심리검사 결과에 따라 관련 '마음건강정보' 콘텐츠 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>일러스트 형식을 적용하여 페이지 구성</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 시도 5 회 실패 시 본인인증 후 로그인 가능</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.05.03</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 실패시 로그인창 하단에 실패 원인 메세지 출력</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>QnA 메뉴를 통해 1대 1 문의 기능 구현</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 입력 시 '@' 를 포함하지 않으면 '이메일 형태가 올바르지 않습니다.' 붉은색 문구 출력</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>상담 신청 현황에 따라 '예약 완료', '예약 취소', '상담 확정', '상담 진행', '상담 중단', '상담 완료'로 구분하여 상담 상태 정보 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터베이스 구축</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템의 평균 응답 및 처리 시간</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템이 정상 상태에서 사용자의 건별 요청에 대한 처리를 로딩속도(3초 이내) 규정 준수</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>스윗(SWeeT)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 위(Wee) 프로젝트 통합 플랫폼</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>최제윤</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>유연성, 확장성을 확보할 수 있도록 기능을 모듈화 하여야 함</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>저작권, 특허권 및 성과물 보호</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>지식재산권의 소유 및 양도</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약목적물의 지식재산권은 주관기관과 사업자가 공동으로 소유하지만, 다만 개발의 기여도 및 계약목적물의 특수성(국가안전보장, 외교관계, 보안 및 정보보호 등)을 고려하여 
+주관기관, 사업자 및 전문기관간의 협의를 통해 저작권의 귀속주체 등에 대해 공동소유와 달리 정할 수 있음</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로그래밍 언어</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로그래밍 환경은 플랫폼에 독립적인 개방형 언어와 기술을 사용하는 것을 원칙으로 함</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>모듈화 설계 및 개발 표준화</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트웨어 개발은 기능 공통성, 재사용성, 확장성과 유지관리 효율성을 높일 수 있도록 특화된 방법론과 표준화된 절차에 따라 이루어져야 함</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>COR-001</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>COR-002</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SW 개발 보안 가이드 준수</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 페이지는 국내·외 표준을 준수하여 구축</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>COR-003</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>시험운영</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 성능 최적화</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스 응답속도를 보장하기 위해 플랫폼 서버, 개발 아키텍처, 응용프로그램, DB쿼리문 등의 성능점검을 실시하여, 보완 사항을 조치하여야 함</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>시범운영과 안정화 기간에 CPU 사용률을 평가하며, 자원 사용률은 어느 조건 하에서도 평균 70% 이하여야 함</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 편의성을 고려한
+UI 설계</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>플랫폼의 성능이 최적화될 수 있도록 구현 단계부터 지속적으로 검증하여야 함</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인정보보호 및 시스템 보안을 위한 암호화 적용 등에 따른 성능 저하에 대비한 방안을 수립하여 적용하여야 함</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>응용 프로그램 검증</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>PER-003</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIR-001</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIR-001</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>콘텐츠 및 디자인 구성 기본요건</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴 및 디자인은 현 실정에 맞게 구성, 접근성, 편리성 등을 최대한 고려한 사용자 인테페이스(UI) 지원하여야 함</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
     <t>-</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>접속 계정, 접속일시, 접속IP, 작업 종류 및 시간에 해당하는 접속 로그 기록 보관</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 접속 로그 및 이벤트 로그 1년 이상 보관</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자 및 사용자 계정 5회 이상 실패 시 계정 이용 중지 조치</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 정보 및 현황 조회/검색 기능, 가입/탈퇴회원 현황 조회 기능 제공</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>시스템에 이용되는 각종 알림, 문구, 게시글 관리 권한 부여</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>시스템을 사용하는 사용자 유형에 따라 등록, 수정, 삭제, 조회, 비밀번호 초기화 기능 제공</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>카카오톡 채널을 통해 자주 묻는 질문에 대한 답변 제공</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>바로가기 메뉴에 등록된 질문 선택 시 질문에 대한 답변 제공</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>지역별 카테고리에서 특정 지역 선택 시 해당 지역에 위치한 센터의 위치정보를 지도 형태로 출력</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>유입 통계에서 방문자, 가입자, 접속자의 유입경로(시간, 메뉴) 통계 정보 제공</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 대상으로 검사사용 현황(검사/연령/상황별) 및 마음건강검사 통계 정보 제공</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>검색 키워드 및 조회수 관련 마음건강정보 통계 제공</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>유튜브 및 카카오톡 채널로 연결하는 링크 제공</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>배너 클릭 시 해당 유관기관 사이트로 이동</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울 위(Wee) 센터 교육·연수·행사·기타 등록/접수/현황 관리 기능</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>학교 업무 공유 게시판, 상담 전문성 공유 게시판, 서식 공유 게시판, 자유 게시판의 하위 메뉴로 구성</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자간 양방향 소통(댓글, 대댓글) 기능 제공</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지사항에 기관별, 제목, 내용 검색 기능 제공</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>FAQ, 자주찾는질문에 대한 답변 제공</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>서비스 이용 불만사항 건의 및 불량 사용자에 대한 신고 기능 제공</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>통계 항목에 대한 엑셀 및 그래프, 파일 다운로드 기능</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>마음건강정보 자료 중 카드뉴스 형식의 콘텐츠는 추천 글로 지정</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>분류별, 키워드별, 검색항목별 검색기능 제공</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>심리검사 결과에 따라 관련 마음건강정보 콘텐츠를 바로 이용할 수 있도록 구현</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>맞춤형 검사는 사용자가 원하는 검사 선택 시 관련 검사 제공</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>초등〮중고등〮성인 선택 시 해당 연령별 관련 검사 제공</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>비회원의 경우 개인정보 수집 및 활용 동의 후 심리검사 서비스 이용 가능</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>상담 매체별 상담 이용안내 소개</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>내담자가 14세 미만인 경우 보호자 상담동의서 선택 기능</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>상담 희망일시 등록 시 수업시간일 경우 '수업시간 내 상담 희망' 체크 기능</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>퀵 메뉴 및 바로가기 아이콘 제공</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>최근 방문한 페이지 목록을 최대 4개까지 제공</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 탈퇴 버튼 입력 시 '회원을 탈퇴하시겠습니까?' 확인 팝업 메시지 출력</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>금칙어 포함시, 센터별관리자에게 게시글 삭제와 메시지 표시 기능 권한 부여</t>
-  </si>
-  <si>
-    <t>신청자가 지정한 위(Wee) 센터(24개소) 변경 권한을 센터별 관리자에게 부여</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>레이아웃에 따라 개별적으로 콘텐츠 관리 기능</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 생애주기, 관심 키워드, 심리상담 주제 선택시 사용자 맞춤 서비스 제공</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>페이지 형식은 일러스트 형식 적용</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시판별 연계가 가능하여 모든 게시판에서 확인 가능</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>위(Wee) 센터별(23개소) 게시판 상담 관리 기능</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지사항에 전체·26개소에 따른 교육·연수·행사·기타 등록 및 신청자 접수 기능 구현</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>접수 신청시 기한 및 인원수 제한을 두어 공고 마감 기능</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>마음건강검사 페이지 이동</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>상담신청 페이지 제공</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>카테고리는 대인관계〮학교생활〮마음건강〮위기〮일탈로 구분하여 선택 시 상세 콘텐츠 제공</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울 위플(Weepl) 로고 및 마스코트 캐릭터 소개 페이지 제공</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>맞춤 서비스, 마음건강정보 추천글, 통합검색, 공지사항, 우리 지역 기관 찾기, 챗봇(FAQ), SNS, 유관기관 서비스로 구성</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>위(Wee) 프로젝트 사업소개 및 추진 체계 정보 제공</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>신청자와 내담자가 동일한 경우 회원가입 정보를 연동하되, 다른 경우 내담자의 정보를 작성할 수 있도록 구현</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>각 상담별 게시판마다 신청자가 직접 비밀번호를 설정하여 비밀번호 입력 후 게시판 조회 가능</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUR-003</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUR-003</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUR-003</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUR-007</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 페이지</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입 페이지</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID/PW 찾기 페이지</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>마이페이지</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자페이지</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인페이지</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울 위(Wee) 페이지</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>상담신청 페이지</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원(신청자)</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>푸터</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>헤더</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>사이드바</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원탈퇴 페이지</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객지원 페이지</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>통계현황 페이지</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울 위(Wee) 페이지</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wee-Net 페이지</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>상담(교)사</t>
+    <t>개발 프레임워크는 전자정부 표준프레임워크를 기반으로 자바(JAVA)를 기본 사용, 자바(JAVA)의 언어적 특성과 기능을 완벽하게 지원할 수 있어야 함</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>차. 품질 요구사항</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUR-001</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>품질관리 일반사항</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>이해 및 사용 용이성</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUR-002</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>이해 및 사용 용이성, 사용자가 쉽게 시스템을 쉽게 운영하고 제어할 수 있는 직관적인 인터페이스 제공해야 함</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 시스템 기능을 배우는데 필요한 관리자 및 서브 관리자 절차별 상세 매뉴얼을 제공해야 함</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로그램 개발 및 유지 관리, 데이터 관리, 서식 등에 대해 정기적인 표준화 수행, 검수완료(인수)일부터 1년까지 서비스 제공에 결함이 없음을 보증하여야 함</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SER-001</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보화사업 용역업체 
+정보보호 및 보안준수</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용하는 PC는 인터넷 연결을 금지하되, 사업수행 상 연결이 필요한 경우에는 ‘발주기관’의 보안 통제 하에 제한적 허용 함</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업 관련 보안준수사항을 위반하여 발생하는 모든 민·형사상 책임 및 그에 따른 유·무형의 손해배상에 대해 책임소재를 구분하여, 그에 따라 책임을 져야 함</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SER-002</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기 개발 단계부터 ‘소프트웨어 개발보안 가이드(행정안전부)’를 적용하여 모든 응용소프트웨어 개발해야 함</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>응용프로그램 보안 코딩 및
+ 웹 보안</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>OWASP 10대 보안 취약점 및 국가정보원 홈페이지 보안 8대 취약점 등 웹 보안 취약점 사전 점검 및 제거해야 함</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로그램 개발 시 보안을 고려한 소스 코딩으로 어플리케이션 취약점으로 인한 보안문제점이 발생치 않도록 하고, 서비스 오픈 전(前) 전반적인 취약점 진단 후 서비스가 개시될 수 있도록 함</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인정보보호 및 구간 암호화</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인정보보호법에 관한 법률 준수 및 서울특별시교육청 내부관리계획 준수해야 함</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>제대로 된 관리체제를 갖추고 전문 서비스 및 기술지원을 해주는 신뢰할 수 있는 인증기관의 SSL 인증서 적용</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인정보 노출 및 민감정보 노출 가능성 발견 시 즉시 원인분석 후 수정·보완 해야 함</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인정보 및 인증정보 입력 시 사용자 단말기에 노출 방지대책 마련</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 인증 정보, 패스워드 등은 소스코드에 하드코딩 금지</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>보안, 일정지연, 품질저하, 장비 변경에 따르는 예산초과 등 리스크 발생 사전 예방하고, 발생 시 사후 대처방안 제시</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SER-003</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>원격지 개발 장소 보안요구사항</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 계정과 일반 사용자 계정을 분리하고 계정별 권한 부여시 구별하여 접근통제 수행</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>원격지 개발과 관련한 수행내역 및 정보시스템 접속 이력 등 로그를 1년 이상 저장 유지</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>원격지 개발은 용역업체가 자체 구축한 환경을 사용</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SER-004</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>용역수행 관련 보안 관리</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SER-005</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>자체보안점검, 비인가자의 출입관리, PC 보안프로그램 설치(백신, 저장매체 통제 등), 인터넷 통제, 시건장치 설치 등 서울특별시교육청의 보안업무지침 준용하여 관리해야 함</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>노트북 및 PC에 전원기동(CMOS) 패스워드, 윈도우 로그인 패스워드, 화면 보호기(10분 간격) 패스워드를 영문자, 숫자, 특수문자가 조합된 9글자 이상으로 설정하여야 함</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>TER-001</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>TER-003</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>장애관리 및 백업</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템에 이상 발생 시 장애접수 후 4시간 이내에 장애 처리하여야 함</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트웨어 개발 시 사용된 언어 및 개발도구 등을 명확히 제시, 다른 소프트웨어의 컴퓨터 프로그램 저작권 침해하지 않아야 함
+본 사업에 제시하는 솔루션은 라이선스에 대해 구체적인 내용(종류 및 건수, 사용범위, 사용방법 등)을 상세하게 제시하여야 함</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>목표시스템에서 생성·관리되는 응용프로그램과 자료에 대한 백업 및 복구 방안을 문서화하여 결과물로 제시하여야 함</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업수행 기본방침</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>본 용역을 수행함에 있어 최신 기술지식을 사용하여 일반적으로 통용되는 전문적인 기준과 신의와 성실의 원칙에 따라 계약의무 완수하여야 함</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업수행계획서 작성</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMR-002</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMR-001</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업수행 계획은 수행공정간 연계가 보일 수 있도록 하며 품질 보증할 수 있도록 조직, 방법, 절차, 내용 등을 고려하여 상세하게 기술해야 함</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMR-003</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무보고 및 검토계획</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약일로부터 사업완료일까지 착수일 기준 매주·매월 착수계획서에 제시된 사업수행 절차에 따른 현재의 구체적인 공정 및 진행사항, 업무 추진상 문제점 및 대안방안 등에 대한 
+진도 보고서를 작성·제출하여야 함</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업수행 환경 및 작업 장소</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>자. 인터페이스 요구사항</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMR-004</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 전산설비는 자체 설비를 이용하여야 하며, 필요시 ‘발주기관’ 및 직속기관의 승인 하에 관련 설비 이용 가능함</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업의 수행을 위하여 필요한 작업 장소는 상호 협의하여 결정</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <rFont val="굴림체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 최종 이용자에 대한 최대의 이용 편의성 제공</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="굴림체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 필요한 물품, 비품 등 기타 작업환경에 필요한 사항은 사업자가 구비</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFR–004</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFR–004</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFR–004</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFR–004</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFR–005</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFR–006</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFR–007</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFR–008</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFR–009</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -1255,182 +1620,70 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>스윗(Sweet) 페이지</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>마음건강정보</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지사항</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>상담게시판</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원(신청자)</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>퀵 메뉴는 챗봇, SNS, 유관기관으로 연결</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>챗봇</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호는 특수문자, 숫자 등을 포함하여 8자리 이상, 15자의 이하로 구성되고, 양식에 맞지 않을 경우 입력창 아래 '비밀번호가 맞지 않습니다' 붉은색 문구 출력</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 탈퇴 계정과 동일한 아이디로 일정 기간 회원가입 제한</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>탈퇴 신청 계정으로 로그인 시도 시 '탈퇴 신청한 계정입니다. 계정을 복구하시겠습니까?' 팝업 창 출력</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입 시 개인정보 수집〮이용 동의 및 본인 확인 절차 필요</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>전문상담(교사) 회원에 한해 스윗(Sweet) 확인, 닉네임 등록〮수정, 작성 게시글/댓글 확인 기능 제공</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울 위(Wee) 센터 위치를 지도화하여 지도 선택시 위(Wee)센터 26개소의 소개 및 내용 제공</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>센터별 교육〮연수 일정 정보 제공</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>위(Wee), 위네트워크(Wee-Network)를 탭으로 구성</t>
-  </si>
-  <si>
-    <t>전문상담(교)사 회원은 닉네임 등록·수정 기능 제공</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>좋아요, 유익해요, 재밌어요, 추천해요 등 이모티콘 활용 가능</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>전국에 위치한 Wee-Network의 위치를 지도 형태로 제공, 지도 선택 시 기관 소개 내용 및 URL 등 상세 정보 제공</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>기획·디자인 콘텐츠는 카드뉴스 형식으로 구현</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>내담자〮보호자 상담동의서, 상담 확정 안내 전송 관리</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시글마다 첨부파일 업로드·다운로드 기능</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울 위(Wee) 센터 관련 문의 응대</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입 시 ID, 비밀번호, 비밀번호 확인, 이름, 성별, 내〮외국인, 연락처, 생년월일, 이메일, 주소, 학교명 필수 입력</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시글 목록은 최신순·추천순 등 보기 방식을 변경하여 조회 가능</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>상담 통계에서 전체〮센터의 신청자, 내담자, 게시판 상담, 상담 만족도 검사 상담 통계 정보 제공</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울 위플(Weepl) 앱 서비스 관련 문의에 대한 답변 제공</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호 안전도는 한글, 영문만 포함 시 낮음, 한글, 영문, 숫자 포함 시 보통, 한글, 영문, 숫자, 특수문자 포함 시 높음으로 제공</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입 시 필수 입력사항을 입력하지 않았을 시, 입력란 우측 또는 하단에 '* 필수입력사항 입니다' 붉은색 문구 출력</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>본인이 참여한 마음건강검사에 대해 자가진단검사 결과 확인 가능</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>비회원의 경우 상담 신청 서비스 이용 불가, '로그인 후 이용해주세요' 팝업 창 출력 후 로그인 페이지로 전환</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>QnA 메뉴를 통해 1대1 문의 기능 구현</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>심리상담·생명존중·성·중독·도박, 아동·청소년 지원 관련 기관의 기관명, 연락처 제공</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>탈퇴 신청 회원의 경우 개인정보 30일 유예기간 및 기간 내 계정 복구 가능, 30일 이후 해당 계정 영구 삭제</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>상담 신청 현황에 따라 '예약 완료', '예약 취소', '상담 확정', '상담 진행', '상담 중단', '상담 완료'로 구분하여 상담 상태 정보 제공</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>상담 완료' 상태의 상담의 경우 상담 만족도 검사 페이지로 연결되는 버튼 제공</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>키워드 검색, 카테고리별 검색이 가능한 검색 툴 구현</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>전문상담(교)사 권한으로 로그인된 계정만 이용할 수 있도록 구현</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시판 상담은 비대면 상담 신청과 별도로 분리하여 신청할 수 있도록 구현</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>없는 계정으로 로그인 시 '등록되지 않은 계정입니다. 회원가입 후 이용해주세요.' 팝업 창 출력</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>사이드 바는 화면 스크롤 위치에 따라 페이지 측면에 항상 위치하도록 구현</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>검색결과로 나타난 기관의 위치 클릭 시 기관 상세 정보를 해당 위치에서 제공</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>제시된 상황 선택 시 관련 상황별 검사 제공</t>
+    <t>SFR–010</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wee-Network</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFR–011</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFR–012</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFR–013</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFR–014</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFR–015</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFR–019</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFR–013</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFR–014</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFR–018</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="굴림체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 보안 및 현장조사 등과 관련한 작업 시 발주기관’의 의견을 적극 수렴</t>
+    </r>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -1438,7 +1691,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1610,6 +1863,20 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="굴림체"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="굴림체"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1661,7 +1928,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1866,6 +2133,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1875,7 +2153,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2107,19 +2385,22 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2127,6 +2408,15 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2137,33 +2427,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2173,16 +2436,49 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2197,16 +2493,10 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2215,14 +2505,38 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3673,13 +3987,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3744,13 +4058,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3815,13 +4129,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3886,13 +4200,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3957,13 +4271,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4028,13 +4342,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4099,13 +4413,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4170,13 +4484,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4241,13 +4555,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4312,13 +4626,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4383,13 +4697,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4454,13 +4768,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4525,13 +4839,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4596,13 +4910,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4667,13 +4981,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4738,13 +5052,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4809,13 +5123,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4880,13 +5194,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4951,13 +5265,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5022,13 +5336,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5093,13 +5407,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5164,13 +5478,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5235,13 +5549,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5306,13 +5620,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5377,13 +5691,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5448,13 +5762,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5519,13 +5833,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5590,13 +5904,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5661,13 +5975,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5732,13 +6046,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5803,13 +6117,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5874,13 +6188,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5945,13 +6259,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6016,13 +6330,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6087,13 +6401,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6158,13 +6472,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6229,13 +6543,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6300,13 +6614,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6371,13 +6685,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6442,13 +6756,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6513,13 +6827,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6584,13 +6898,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6655,13 +6969,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6726,13 +7040,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6797,13 +7111,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6868,13 +7182,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6939,13 +7253,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7010,13 +7324,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7081,13 +7395,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7152,13 +7466,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7223,13 +7537,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7294,13 +7608,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7365,13 +7679,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7436,13 +7750,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7507,13 +7821,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7578,13 +7892,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7649,13 +7963,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7720,13 +8034,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7791,13 +8105,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7862,13 +8176,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7933,13 +8247,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8004,13 +8318,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8075,13 +8389,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8146,13 +8460,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8213,6 +8527,1062 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="238125" cy="238127"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="Rectangle 200">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C8AC0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noRot="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13868400" y="27603450"/>
+          <a:ext cx="238125" cy="238127"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="36830" tIns="22860" rIns="0" bIns="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" eaLnBrk="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="바탕체"/>
+              <a:ea typeface="바탕체"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" eaLnBrk="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="238125" cy="238127"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="Rectangle 201">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C9AC0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noRot="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13868400" y="27603450"/>
+          <a:ext cx="238125" cy="238127"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="36830" tIns="22860" rIns="0" bIns="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" eaLnBrk="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="바탕체"/>
+              <a:ea typeface="바탕체"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" eaLnBrk="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="238125" cy="238127"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="Rectangle 202">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000CAAC0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noRot="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13868400" y="27603450"/>
+          <a:ext cx="238125" cy="238127"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="36830" tIns="22860" rIns="0" bIns="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" eaLnBrk="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="바탕체"/>
+              <a:ea typeface="바탕체"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" eaLnBrk="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="238125" cy="238127"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="Rectangle 203">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000CBAC0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noRot="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13868400" y="27603450"/>
+          <a:ext cx="238125" cy="238127"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="36830" tIns="22860" rIns="0" bIns="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" eaLnBrk="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="바탕체"/>
+              <a:ea typeface="바탕체"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" eaLnBrk="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="238125" cy="238127"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="Rectangle 204">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000CCAC0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noRot="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13868400" y="27603450"/>
+          <a:ext cx="238125" cy="238127"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="36830" tIns="22860" rIns="0" bIns="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" eaLnBrk="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="바탕체"/>
+              <a:ea typeface="바탕체"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" eaLnBrk="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="238125" cy="238127"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="Rectangle 205">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000CDAC0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noRot="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13868400" y="27603450"/>
+          <a:ext cx="238125" cy="238127"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="36830" tIns="22860" rIns="0" bIns="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" eaLnBrk="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="바탕체"/>
+              <a:ea typeface="바탕체"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" eaLnBrk="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="238125" cy="238127"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="Rectangle 206">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000CEAC0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noRot="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13868400" y="27603450"/>
+          <a:ext cx="238125" cy="238127"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="36830" tIns="22860" rIns="0" bIns="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" eaLnBrk="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="바탕체"/>
+              <a:ea typeface="바탕체"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" eaLnBrk="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="238125" cy="238127"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="Rectangle 207">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000CFAC0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noRot="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13868400" y="27603450"/>
+          <a:ext cx="238125" cy="238127"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="36830" tIns="22860" rIns="0" bIns="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" eaLnBrk="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="바탕체"/>
+              <a:ea typeface="바탕체"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" eaLnBrk="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="238125" cy="238127"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="Rectangle 208">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D0AC0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noRot="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13868400" y="27603450"/>
+          <a:ext cx="238125" cy="238127"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="36830" tIns="22860" rIns="0" bIns="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" eaLnBrk="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="바탕체"/>
+              <a:ea typeface="바탕체"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" eaLnBrk="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="238125" cy="238127"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="Rectangle 209">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D1AC0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noRot="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13868400" y="27603450"/>
+          <a:ext cx="238125" cy="238127"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="36830" tIns="22860" rIns="0" bIns="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" eaLnBrk="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="바탕체"/>
+              <a:ea typeface="바탕체"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" eaLnBrk="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="238125" cy="238127"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="Rectangle 210">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D2AC0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noRot="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13868400" y="27603450"/>
+          <a:ext cx="238125" cy="238127"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="36830" tIns="22860" rIns="0" bIns="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" eaLnBrk="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="바탕체"/>
+              <a:ea typeface="바탕체"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" eaLnBrk="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="238125" cy="238127"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="Rectangle 211">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D3AC0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noRot="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13868400" y="27603450"/>
+          <a:ext cx="238125" cy="238127"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="36830" tIns="22860" rIns="0" bIns="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" eaLnBrk="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="바탕체"/>
+              <a:ea typeface="바탕체"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" eaLnBrk="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="238125" cy="238127"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="Rectangle 212">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D4AC0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noRot="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13868400" y="27603450"/>
+          <a:ext cx="238125" cy="238127"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="36830" tIns="22860" rIns="0" bIns="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" eaLnBrk="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="바탕체"/>
+              <a:ea typeface="바탕체"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" eaLnBrk="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="238125" cy="238127"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="Rectangle 213">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D5AC0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noRot="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13868400" y="27603450"/>
+          <a:ext cx="238125" cy="238127"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="36830" tIns="22860" rIns="0" bIns="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" eaLnBrk="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="바탕체"/>
+              <a:ea typeface="바탕체"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" eaLnBrk="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="238125" cy="238127"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="Rectangle 214">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D6AC0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noRot="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13868400" y="27603450"/>
+          <a:ext cx="238125" cy="238127"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="36830" tIns="22860" rIns="0" bIns="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" eaLnBrk="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="바탕체"/>
+              <a:ea typeface="바탕체"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" eaLnBrk="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="238125" cy="238127"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="Rectangle 215">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D7AC0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noRot="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13868400" y="27603450"/>
+          <a:ext cx="238125" cy="238127"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="overflow" wrap="square" lIns="36830" tIns="22860" rIns="0" bIns="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" eaLnBrk="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="바탕체"/>
+              <a:ea typeface="바탕체"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" eaLnBrk="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8506,8 +9876,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A8:L36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.5"/>
@@ -8527,12 +9897,12 @@
     </row>
     <row r="9" spans="1:7" ht="33.75">
       <c r="B9" s="3" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="33.75">
       <c r="B10" s="4" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -8546,7 +9916,7 @@
     </row>
     <row r="15" spans="1:7" ht="20.25">
       <c r="B15" s="5" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -8560,7 +9930,10 @@
     </row>
     <row r="21" spans="1:12" ht="18.75">
       <c r="B21" s="6" t="s">
-        <v>44</v>
+        <v>29</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -8608,7 +9981,7 @@
     <row r="29" spans="1:12" ht="17.25" customHeight="1">
       <c r="A29" s="7"/>
       <c r="B29" s="8" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="7"/>
@@ -8624,15 +9997,17 @@
     <row r="30" spans="1:12" ht="17.25" customHeight="1">
       <c r="A30" s="7"/>
       <c r="B30" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="C30" s="8">
+        <v>1000084691</v>
+      </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
@@ -8642,7 +10017,7 @@
     <row r="31" spans="1:12" ht="17.25" customHeight="1">
       <c r="A31" s="7"/>
       <c r="B31" s="9" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="7"/>
@@ -8658,10 +10033,10 @@
     <row r="32" spans="1:12" ht="17.25" customHeight="1">
       <c r="A32" s="7"/>
       <c r="B32" s="9" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -8758,44 +10133,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" customHeight="1">
-      <c r="A1" s="85" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
+      <c r="A1" s="89" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
     </row>
     <row r="2" spans="1:4" ht="21" customHeight="1">
-      <c r="A2" s="84" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="86" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="86"/>
+      <c r="A2" s="88" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="88"/>
+      <c r="C2" s="90" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="90"/>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="15" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="16" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="18" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D4" s="17"/>
     </row>
@@ -8923,17 +10298,17 @@
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H195"/>
+  <dimension ref="A1:H207"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+      <selection activeCell="C4" sqref="C4:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.33203125" style="48" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" style="49" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" style="49" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="49" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="126.109375" style="50" customWidth="1"/>
     <col min="5" max="5" width="15.77734375" style="48" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="16.33203125" style="48" customWidth="1"/>
@@ -8942,77 +10317,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="108" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
+      <c r="A1" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
     </row>
     <row r="2" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="110" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="109" t="s">
-        <v>180</v>
-      </c>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
+      <c r="A2" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="100"/>
+      <c r="C2" s="99" t="s">
+        <v>243</v>
+      </c>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
       <c r="G2" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="28"/>
+        <v>5</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="3" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1" thickTop="1">
       <c r="A3" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>21</v>
-      </c>
       <c r="E3" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="20" t="s">
-        <v>75</v>
-      </c>
       <c r="G3" s="21" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="64" customFormat="1" ht="18" customHeight="1">
       <c r="A4" s="51">
         <v>1</v>
       </c>
-      <c r="B4" s="90" t="s">
-        <v>231</v>
-      </c>
-      <c r="C4" s="96" t="s">
-        <v>139</v>
+      <c r="B4" s="103" t="s">
+        <v>346</v>
+      </c>
+      <c r="C4" s="91" t="s">
+        <v>77</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>287</v>
-      </c>
-      <c r="E4" s="90" t="s">
-        <v>237</v>
-      </c>
-      <c r="F4" s="90" t="s">
-        <v>134</v>
+        <v>213</v>
+      </c>
+      <c r="E4" s="103" t="s">
+        <v>163</v>
+      </c>
+      <c r="F4" s="103" t="s">
+        <v>72</v>
       </c>
       <c r="G4" s="51"/>
       <c r="H4" s="51"/>
@@ -9021,13 +10398,13 @@
       <c r="A5" s="51">
         <v>2</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="97"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="92"/>
       <c r="D5" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
+        <v>201</v>
+      </c>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
       <c r="G5" s="39"/>
       <c r="H5" s="52"/>
     </row>
@@ -9035,13 +10412,13 @@
       <c r="A6" s="51">
         <v>3</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="97"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="92"/>
       <c r="D6" s="24" t="s">
-        <v>292</v>
-      </c>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
+        <v>218</v>
+      </c>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
       <c r="G6" s="39"/>
       <c r="H6" s="52"/>
     </row>
@@ -9049,13 +10426,13 @@
       <c r="A7" s="51">
         <v>4</v>
       </c>
-      <c r="B7" s="91"/>
-      <c r="C7" s="97"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="92"/>
       <c r="D7" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="E7" s="91"/>
-      <c r="F7" s="91"/>
+        <v>53</v>
+      </c>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
       <c r="G7" s="39"/>
       <c r="H7" s="52"/>
     </row>
@@ -9063,13 +10440,13 @@
       <c r="A8" s="51">
         <v>5</v>
       </c>
-      <c r="B8" s="91"/>
-      <c r="C8" s="97"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="92"/>
       <c r="D8" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
+        <v>81</v>
+      </c>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
       <c r="G8" s="30"/>
       <c r="H8" s="32"/>
     </row>
@@ -9077,13 +10454,13 @@
       <c r="A9" s="51">
         <v>6</v>
       </c>
-      <c r="B9" s="91"/>
-      <c r="C9" s="97"/>
+      <c r="B9" s="104"/>
+      <c r="C9" s="92"/>
       <c r="D9" s="43" t="s">
-        <v>143</v>
-      </c>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
+        <v>80</v>
+      </c>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
       <c r="G9" s="30"/>
       <c r="H9" s="32"/>
     </row>
@@ -9091,2736 +10468,3017 @@
       <c r="A10" s="51">
         <v>7</v>
       </c>
-      <c r="B10" s="91"/>
-      <c r="C10" s="97"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="92"/>
       <c r="D10" s="25" t="s">
-        <v>272</v>
-      </c>
-      <c r="E10" s="91"/>
-      <c r="F10" s="91"/>
+        <v>198</v>
+      </c>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
       <c r="G10" s="30"/>
       <c r="H10" s="32"/>
     </row>
     <row r="11" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="51"/>
-      <c r="B11" s="91"/>
-      <c r="C11" s="97"/>
+      <c r="A11" s="51">
+        <v>8</v>
+      </c>
+      <c r="B11" s="104"/>
+      <c r="C11" s="92"/>
       <c r="D11" s="25" t="s">
-        <v>291</v>
-      </c>
-      <c r="E11" s="91"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="83"/>
+        <v>217</v>
+      </c>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="78"/>
       <c r="H11" s="52"/>
     </row>
     <row r="12" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A12" s="51">
-        <v>8</v>
-      </c>
-      <c r="B12" s="91"/>
-      <c r="C12" s="97"/>
-      <c r="D12" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="32"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="104"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="52"/>
     </row>
     <row r="13" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A13" s="51">
-        <v>9</v>
-      </c>
-      <c r="B13" s="91"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="104"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
       <c r="G13" s="30"/>
       <c r="H13" s="32"/>
     </row>
     <row r="14" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A14" s="51">
-        <v>10</v>
-      </c>
-      <c r="B14" s="91"/>
-      <c r="D14" s="63" t="s">
-        <v>146</v>
-      </c>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="104"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="104"/>
+      <c r="F14" s="104"/>
       <c r="G14" s="30"/>
       <c r="H14" s="32"/>
     </row>
     <row r="15" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A15" s="51">
-        <v>11</v>
-      </c>
-      <c r="B15" s="90" t="s">
-        <v>232</v>
-      </c>
-      <c r="C15" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="E15" s="93" t="s">
-        <v>236</v>
-      </c>
-      <c r="F15" s="87" t="s">
-        <v>132</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B15" s="104"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="107"/>
+      <c r="F15" s="107"/>
       <c r="G15" s="30"/>
       <c r="H15" s="32"/>
     </row>
     <row r="16" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A16" s="51">
-        <v>12</v>
-      </c>
-      <c r="B16" s="91"/>
-      <c r="C16" s="97"/>
+        <v>13</v>
+      </c>
+      <c r="B16" s="103" t="s">
+        <v>347</v>
+      </c>
+      <c r="C16" s="91" t="s">
+        <v>78</v>
+      </c>
       <c r="D16" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="94"/>
-      <c r="F16" s="88"/>
+        <v>79</v>
+      </c>
+      <c r="E16" s="105" t="s">
+        <v>162</v>
+      </c>
+      <c r="F16" s="94" t="s">
+        <v>70</v>
+      </c>
       <c r="G16" s="30"/>
       <c r="H16" s="32"/>
     </row>
     <row r="17" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A17" s="51">
-        <v>13</v>
-      </c>
-      <c r="B17" s="91"/>
-      <c r="C17" s="97"/>
-      <c r="D17" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="E17" s="94"/>
-      <c r="F17" s="88"/>
+        <v>14</v>
+      </c>
+      <c r="B17" s="104"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="114"/>
+      <c r="F17" s="96"/>
       <c r="G17" s="30"/>
       <c r="H17" s="32"/>
     </row>
     <row r="18" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A18" s="51">
-        <v>14</v>
-      </c>
-      <c r="B18" s="91"/>
-      <c r="C18" s="97"/>
-      <c r="D18" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="E18" s="94"/>
-      <c r="F18" s="88"/>
+        <v>15</v>
+      </c>
+      <c r="B18" s="104"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="E18" s="114"/>
+      <c r="F18" s="96"/>
       <c r="G18" s="30"/>
       <c r="H18" s="32"/>
     </row>
     <row r="19" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A19" s="51">
-        <v>15</v>
-      </c>
-      <c r="B19" s="91"/>
-      <c r="C19" s="97"/>
+        <v>16</v>
+      </c>
+      <c r="B19" s="104"/>
+      <c r="C19" s="92"/>
       <c r="D19" s="23" t="s">
-        <v>303</v>
-      </c>
-      <c r="E19" s="94"/>
-      <c r="F19" s="88"/>
+        <v>233</v>
+      </c>
+      <c r="E19" s="114"/>
+      <c r="F19" s="96"/>
       <c r="G19" s="30"/>
       <c r="H19" s="32"/>
     </row>
     <row r="20" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A20" s="51">
-        <v>16</v>
-      </c>
-      <c r="B20" s="91"/>
-      <c r="C20" s="97"/>
-      <c r="D20" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="E20" s="94"/>
-      <c r="F20" s="88"/>
+        <v>17</v>
+      </c>
+      <c r="B20" s="104"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="E20" s="114"/>
+      <c r="F20" s="96"/>
       <c r="G20" s="30"/>
       <c r="H20" s="32"/>
     </row>
     <row r="21" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A21" s="51">
-        <v>17</v>
-      </c>
-      <c r="B21" s="91"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="E21" s="94"/>
-      <c r="F21" s="88"/>
+        <v>18</v>
+      </c>
+      <c r="B21" s="104"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="114"/>
+      <c r="F21" s="96"/>
       <c r="G21" s="30"/>
       <c r="H21" s="32"/>
     </row>
     <row r="22" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A22" s="51">
-        <v>18</v>
-      </c>
-      <c r="B22" s="92"/>
-      <c r="C22" s="98"/>
+        <v>19</v>
+      </c>
+      <c r="B22" s="104"/>
+      <c r="C22" s="92"/>
       <c r="D22" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="E22" s="95"/>
-      <c r="F22" s="88"/>
+        <v>105</v>
+      </c>
+      <c r="E22" s="114"/>
+      <c r="F22" s="96"/>
       <c r="G22" s="30"/>
       <c r="H22" s="32"/>
     </row>
     <row r="23" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A23" s="51">
-        <v>19</v>
-      </c>
-      <c r="B23" s="90" t="s">
-        <v>233</v>
-      </c>
-      <c r="C23" s="96" t="s">
-        <v>147</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B23" s="107"/>
+      <c r="C23" s="93"/>
       <c r="D23" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="E23" s="96" t="s">
-        <v>238</v>
-      </c>
-      <c r="F23" s="87" t="s">
-        <v>239</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="E23" s="106"/>
+      <c r="F23" s="96"/>
       <c r="G23" s="30"/>
       <c r="H23" s="32"/>
     </row>
     <row r="24" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A24" s="51">
-        <v>20</v>
-      </c>
-      <c r="B24" s="91"/>
-      <c r="C24" s="97"/>
-      <c r="D24" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="E24" s="97"/>
-      <c r="F24" s="88"/>
+        <v>21</v>
+      </c>
+      <c r="B24" s="103" t="s">
+        <v>351</v>
+      </c>
+      <c r="C24" s="91" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="91" t="s">
+        <v>164</v>
+      </c>
+      <c r="F24" s="94" t="s">
+        <v>165</v>
+      </c>
       <c r="G24" s="30"/>
       <c r="H24" s="32"/>
     </row>
     <row r="25" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A25" s="51">
-        <v>21</v>
-      </c>
-      <c r="B25" s="92"/>
-      <c r="C25" s="98"/>
-      <c r="D25" s="43" t="s">
-        <v>149</v>
-      </c>
-      <c r="E25" s="98"/>
-      <c r="F25" s="89"/>
+        <v>22</v>
+      </c>
+      <c r="B25" s="104"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="92"/>
+      <c r="F25" s="96"/>
       <c r="G25" s="30"/>
       <c r="H25" s="32"/>
     </row>
     <row r="26" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A26" s="51">
-        <v>22</v>
-      </c>
-      <c r="B26" s="96" t="s">
-        <v>126</v>
-      </c>
-      <c r="C26" s="107" t="s">
-        <v>150</v>
-      </c>
-      <c r="D26" s="71" t="s">
-        <v>169</v>
-      </c>
-      <c r="E26" s="99" t="s">
-        <v>240</v>
-      </c>
-      <c r="F26" s="87" t="s">
-        <v>235</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B26" s="107"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="93"/>
+      <c r="F26" s="95"/>
       <c r="G26" s="30"/>
       <c r="H26" s="32"/>
     </row>
     <row r="27" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A27" s="51">
-        <v>23</v>
-      </c>
-      <c r="B27" s="97"/>
-      <c r="C27" s="107"/>
-      <c r="D27" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="E27" s="99"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="52"/>
+        <v>24</v>
+      </c>
+      <c r="B27" s="91" t="s">
+        <v>345</v>
+      </c>
+      <c r="C27" s="101" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="71" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" s="108" t="s">
+        <v>166</v>
+      </c>
+      <c r="F27" s="94" t="s">
+        <v>161</v>
+      </c>
+      <c r="G27" s="30"/>
+      <c r="H27" s="32"/>
     </row>
     <row r="28" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A28" s="51">
-        <v>24</v>
-      </c>
-      <c r="B28" s="97"/>
-      <c r="C28" s="107"/>
-      <c r="D28" s="72" t="s">
-        <v>173</v>
-      </c>
-      <c r="E28" s="99"/>
-      <c r="F28" s="88"/>
+        <v>25</v>
+      </c>
+      <c r="B28" s="92"/>
+      <c r="C28" s="101"/>
+      <c r="D28" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="108"/>
+      <c r="F28" s="96"/>
       <c r="G28" s="39"/>
       <c r="H28" s="52"/>
     </row>
     <row r="29" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A29" s="51">
-        <v>25</v>
-      </c>
-      <c r="B29" s="97"/>
-      <c r="C29" s="107"/>
-      <c r="D29" s="71" t="s">
-        <v>174</v>
-      </c>
-      <c r="E29" s="99"/>
-      <c r="F29" s="88"/>
+        <v>26</v>
+      </c>
+      <c r="B29" s="92"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="72" t="s">
+        <v>106</v>
+      </c>
+      <c r="E29" s="108"/>
+      <c r="F29" s="96"/>
       <c r="G29" s="39"/>
       <c r="H29" s="52"/>
     </row>
     <row r="30" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A30" s="51">
-        <v>26</v>
-      </c>
-      <c r="B30" s="97"/>
-      <c r="C30" s="107"/>
+        <v>27</v>
+      </c>
+      <c r="B30" s="92"/>
+      <c r="C30" s="101"/>
       <c r="D30" s="71" t="s">
-        <v>175</v>
-      </c>
-      <c r="E30" s="99"/>
-      <c r="F30" s="88"/>
+        <v>107</v>
+      </c>
+      <c r="E30" s="108"/>
+      <c r="F30" s="96"/>
       <c r="G30" s="39"/>
       <c r="H30" s="52"/>
     </row>
     <row r="31" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A31" s="51">
-        <v>27</v>
-      </c>
-      <c r="B31" s="97"/>
-      <c r="C31" s="107"/>
+        <v>28</v>
+      </c>
+      <c r="B31" s="92"/>
+      <c r="C31" s="101"/>
       <c r="D31" s="71" t="s">
-        <v>176</v>
-      </c>
-      <c r="E31" s="99"/>
-      <c r="F31" s="88"/>
+        <v>108</v>
+      </c>
+      <c r="E31" s="108"/>
+      <c r="F31" s="96"/>
       <c r="G31" s="39"/>
       <c r="H31" s="52"/>
     </row>
     <row r="32" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A32" s="51">
-        <v>28</v>
-      </c>
-      <c r="B32" s="97"/>
+        <v>29</v>
+      </c>
+      <c r="B32" s="92"/>
       <c r="C32" s="101"/>
-      <c r="D32" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="E32" s="100"/>
-      <c r="F32" s="88"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="32"/>
+      <c r="D32" s="71" t="s">
+        <v>109</v>
+      </c>
+      <c r="E32" s="108"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="52"/>
     </row>
     <row r="33" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A33" s="51">
-        <v>29</v>
-      </c>
-      <c r="B33" s="97"/>
-      <c r="C33" s="101"/>
-      <c r="D33" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="E33" s="100"/>
-      <c r="F33" s="88"/>
+        <v>30</v>
+      </c>
+      <c r="B33" s="92"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" s="98"/>
+      <c r="F33" s="96"/>
       <c r="G33" s="30"/>
       <c r="H33" s="32"/>
     </row>
     <row r="34" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A34" s="51">
-        <v>30</v>
-      </c>
-      <c r="B34" s="97"/>
-      <c r="C34" s="101"/>
-      <c r="D34" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="E34" s="100"/>
-      <c r="F34" s="88"/>
+        <v>31</v>
+      </c>
+      <c r="B34" s="92"/>
+      <c r="C34" s="102"/>
+      <c r="D34" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34" s="98"/>
+      <c r="F34" s="96"/>
       <c r="G34" s="30"/>
       <c r="H34" s="32"/>
     </row>
     <row r="35" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A35" s="51">
-        <v>31</v>
-      </c>
-      <c r="B35" s="98"/>
-      <c r="C35" s="101"/>
+        <v>32</v>
+      </c>
+      <c r="B35" s="92"/>
+      <c r="C35" s="102"/>
       <c r="D35" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="E35" s="100"/>
-      <c r="F35" s="89"/>
+        <v>219</v>
+      </c>
+      <c r="E35" s="98"/>
+      <c r="F35" s="96"/>
       <c r="G35" s="30"/>
       <c r="H35" s="32"/>
     </row>
     <row r="36" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A36" s="51">
-        <v>32</v>
-      </c>
-      <c r="B36" s="96" t="s">
-        <v>85</v>
-      </c>
-      <c r="C36" s="101" t="s">
-        <v>151</v>
-      </c>
-      <c r="D36" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="E36" s="100" t="s">
-        <v>243</v>
-      </c>
-      <c r="F36" s="87" t="s">
-        <v>241</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B36" s="93"/>
+      <c r="C36" s="102"/>
+      <c r="D36" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="E36" s="98"/>
+      <c r="F36" s="95"/>
       <c r="G36" s="30"/>
       <c r="H36" s="32"/>
     </row>
     <row r="37" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A37" s="51">
-        <v>33</v>
-      </c>
-      <c r="B37" s="97"/>
-      <c r="C37" s="101"/>
+        <v>34</v>
+      </c>
+      <c r="B37" s="91" t="s">
+        <v>348</v>
+      </c>
+      <c r="C37" s="102" t="s">
+        <v>87</v>
+      </c>
       <c r="D37" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="E37" s="100"/>
-      <c r="F37" s="88"/>
+        <v>113</v>
+      </c>
+      <c r="E37" s="98" t="s">
+        <v>169</v>
+      </c>
+      <c r="F37" s="94" t="s">
+        <v>167</v>
+      </c>
       <c r="G37" s="30"/>
       <c r="H37" s="32"/>
     </row>
     <row r="38" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A38" s="51">
-        <v>34</v>
-      </c>
-      <c r="B38" s="97"/>
-      <c r="C38" s="101"/>
+        <v>35</v>
+      </c>
+      <c r="B38" s="92"/>
+      <c r="C38" s="102"/>
       <c r="D38" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="E38" s="100"/>
-      <c r="F38" s="88"/>
+        <v>114</v>
+      </c>
+      <c r="E38" s="98"/>
+      <c r="F38" s="96"/>
       <c r="G38" s="30"/>
       <c r="H38" s="32"/>
     </row>
     <row r="39" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A39" s="51">
-        <v>35</v>
-      </c>
-      <c r="B39" s="97"/>
-      <c r="C39" s="101"/>
+        <v>36</v>
+      </c>
+      <c r="B39" s="92"/>
+      <c r="C39" s="102"/>
       <c r="D39" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="E39" s="100"/>
-      <c r="F39" s="88"/>
+        <v>115</v>
+      </c>
+      <c r="E39" s="98"/>
+      <c r="F39" s="96"/>
       <c r="G39" s="30"/>
       <c r="H39" s="32"/>
     </row>
     <row r="40" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A40" s="51">
-        <v>36</v>
-      </c>
-      <c r="B40" s="97"/>
-      <c r="C40" s="101"/>
+        <v>37</v>
+      </c>
+      <c r="B40" s="92"/>
+      <c r="C40" s="102"/>
       <c r="D40" s="24" t="s">
-        <v>284</v>
-      </c>
-      <c r="E40" s="100"/>
-      <c r="F40" s="88"/>
+        <v>116</v>
+      </c>
+      <c r="E40" s="98"/>
+      <c r="F40" s="96"/>
       <c r="G40" s="30"/>
       <c r="H40" s="32"/>
     </row>
     <row r="41" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A41" s="51">
-        <v>37</v>
-      </c>
-      <c r="B41" s="97"/>
-      <c r="C41" s="101"/>
+        <v>38</v>
+      </c>
+      <c r="B41" s="92"/>
+      <c r="C41" s="102"/>
       <c r="D41" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="E41" s="100"/>
-      <c r="F41" s="88"/>
+        <v>210</v>
+      </c>
+      <c r="E41" s="98"/>
+      <c r="F41" s="96"/>
       <c r="G41" s="30"/>
       <c r="H41" s="32"/>
     </row>
     <row r="42" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A42" s="51">
-        <v>38</v>
-      </c>
-      <c r="B42" s="97"/>
-      <c r="C42" s="101"/>
+        <v>39</v>
+      </c>
+      <c r="B42" s="92"/>
+      <c r="C42" s="102"/>
       <c r="D42" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="E42" s="100"/>
-      <c r="F42" s="88"/>
+        <v>117</v>
+      </c>
+      <c r="E42" s="98"/>
+      <c r="F42" s="96"/>
       <c r="G42" s="30"/>
       <c r="H42" s="32"/>
     </row>
     <row r="43" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A43" s="51">
-        <v>39</v>
-      </c>
-      <c r="B43" s="96" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" s="96" t="s">
-        <v>152</v>
-      </c>
-      <c r="D43" s="113" t="s">
-        <v>216</v>
-      </c>
-      <c r="E43" s="100" t="s">
-        <v>244</v>
-      </c>
-      <c r="F43" s="87" t="s">
-        <v>242</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B43" s="92"/>
+      <c r="C43" s="102"/>
+      <c r="D43" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="E43" s="98"/>
+      <c r="F43" s="96"/>
       <c r="G43" s="30"/>
       <c r="H43" s="32"/>
     </row>
     <row r="44" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A44" s="51">
-        <v>40</v>
-      </c>
-      <c r="B44" s="97"/>
-      <c r="C44" s="97"/>
-      <c r="D44" s="25" t="s">
-        <v>217</v>
-      </c>
-      <c r="E44" s="100"/>
-      <c r="F44" s="88"/>
+        <v>41</v>
+      </c>
+      <c r="B44" s="91" t="s">
+        <v>333</v>
+      </c>
+      <c r="C44" s="91" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" s="85" t="s">
+        <v>147</v>
+      </c>
+      <c r="E44" s="94" t="s">
+        <v>170</v>
+      </c>
+      <c r="F44" s="94" t="s">
+        <v>168</v>
+      </c>
       <c r="G44" s="30"/>
       <c r="H44" s="32"/>
     </row>
     <row r="45" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A45" s="51">
-        <v>41</v>
-      </c>
-      <c r="B45" s="97"/>
-      <c r="C45" s="97"/>
+        <v>42</v>
+      </c>
+      <c r="B45" s="92"/>
+      <c r="C45" s="92"/>
       <c r="D45" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="E45" s="100"/>
-      <c r="F45" s="88"/>
+        <v>148</v>
+      </c>
+      <c r="E45" s="96"/>
+      <c r="F45" s="96"/>
       <c r="G45" s="30"/>
       <c r="H45" s="32"/>
     </row>
     <row r="46" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A46" s="51">
-        <v>42</v>
-      </c>
-      <c r="B46" s="97"/>
-      <c r="C46" s="97"/>
-      <c r="D46" s="114" t="s">
-        <v>227</v>
-      </c>
-      <c r="E46" s="100"/>
-      <c r="F46" s="89"/>
+        <v>43</v>
+      </c>
+      <c r="B46" s="92"/>
+      <c r="C46" s="92"/>
+      <c r="D46" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="E46" s="96"/>
+      <c r="F46" s="96"/>
       <c r="G46" s="30"/>
       <c r="H46" s="32"/>
     </row>
     <row r="47" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A47" s="51">
-        <v>43</v>
-      </c>
-      <c r="B47" s="98"/>
-      <c r="C47" s="98"/>
-      <c r="D47" s="114" t="s">
-        <v>300</v>
-      </c>
-      <c r="E47" s="80"/>
-      <c r="F47" s="81"/>
-      <c r="G47" s="83"/>
-      <c r="H47" s="52"/>
+        <v>44</v>
+      </c>
+      <c r="B47" s="92"/>
+      <c r="C47" s="92"/>
+      <c r="D47" s="86" t="s">
+        <v>157</v>
+      </c>
+      <c r="E47" s="96"/>
+      <c r="F47" s="96"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="32"/>
     </row>
     <row r="48" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A48" s="51">
-        <v>44</v>
-      </c>
-      <c r="B48" s="96" t="s">
-        <v>87</v>
-      </c>
-      <c r="C48" s="96" t="s">
-        <v>153</v>
-      </c>
-      <c r="D48" s="114" t="s">
-        <v>228</v>
-      </c>
-      <c r="E48" s="87" t="s">
-        <v>245</v>
-      </c>
-      <c r="F48" s="87" t="s">
-        <v>242</v>
-      </c>
-      <c r="G48" s="70"/>
+        <v>45</v>
+      </c>
+      <c r="B48" s="93"/>
+      <c r="C48" s="93"/>
+      <c r="D48" s="86" t="s">
+        <v>224</v>
+      </c>
+      <c r="E48" s="95"/>
+      <c r="F48" s="95"/>
+      <c r="G48" s="78"/>
       <c r="H48" s="52"/>
     </row>
     <row r="49" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A49" s="51">
-        <v>45</v>
-      </c>
-      <c r="B49" s="97"/>
-      <c r="C49" s="97"/>
-      <c r="D49" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="E49" s="88"/>
-      <c r="F49" s="88"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="32"/>
+        <v>46</v>
+      </c>
+      <c r="B49" s="91" t="s">
+        <v>336</v>
+      </c>
+      <c r="C49" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" s="86" t="s">
+        <v>158</v>
+      </c>
+      <c r="E49" s="94" t="s">
+        <v>171</v>
+      </c>
+      <c r="F49" s="94" t="s">
+        <v>168</v>
+      </c>
+      <c r="G49" s="70"/>
+      <c r="H49" s="52"/>
     </row>
     <row r="50" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A50" s="51">
-        <v>46</v>
-      </c>
-      <c r="B50" s="97"/>
-      <c r="C50" s="97"/>
-      <c r="D50" s="113" t="s">
-        <v>277</v>
-      </c>
-      <c r="E50" s="88"/>
-      <c r="F50" s="88"/>
+        <v>47</v>
+      </c>
+      <c r="B50" s="92"/>
+      <c r="C50" s="92"/>
+      <c r="D50" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E50" s="96"/>
+      <c r="F50" s="96"/>
       <c r="G50" s="30"/>
       <c r="H50" s="32"/>
     </row>
     <row r="51" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A51" s="51">
-        <v>47</v>
-      </c>
-      <c r="B51" s="97"/>
-      <c r="C51" s="97"/>
-      <c r="D51" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="E51" s="88"/>
-      <c r="F51" s="88"/>
+        <v>48</v>
+      </c>
+      <c r="B51" s="92"/>
+      <c r="C51" s="92"/>
+      <c r="D51" s="85" t="s">
+        <v>203</v>
+      </c>
+      <c r="E51" s="96"/>
+      <c r="F51" s="96"/>
       <c r="G51" s="30"/>
       <c r="H51" s="32"/>
     </row>
     <row r="52" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A52" s="51">
-        <v>48</v>
-      </c>
-      <c r="B52" s="97"/>
-      <c r="C52" s="97"/>
-      <c r="D52" s="113" t="s">
-        <v>222</v>
-      </c>
-      <c r="E52" s="88"/>
-      <c r="F52" s="88"/>
-      <c r="G52" s="69"/>
-      <c r="H52" s="52"/>
+        <v>49</v>
+      </c>
+      <c r="B52" s="92"/>
+      <c r="C52" s="92"/>
+      <c r="D52" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="E52" s="96"/>
+      <c r="F52" s="96"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="32"/>
     </row>
     <row r="53" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A53" s="51">
-        <v>49</v>
-      </c>
-      <c r="B53" s="97"/>
-      <c r="C53" s="98"/>
-      <c r="D53" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="E53" s="88"/>
-      <c r="F53" s="88"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="32"/>
-    </row>
-    <row r="54" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+        <v>50</v>
+      </c>
+      <c r="B53" s="92"/>
+      <c r="C53" s="92"/>
+      <c r="D53" s="85" t="s">
+        <v>152</v>
+      </c>
+      <c r="E53" s="96"/>
+      <c r="F53" s="96"/>
+      <c r="G53" s="69"/>
+      <c r="H53" s="52"/>
+    </row>
+    <row r="54" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A54" s="51">
-        <v>50</v>
-      </c>
-      <c r="B54" s="96" t="s">
-        <v>88</v>
-      </c>
-      <c r="C54" s="96" t="s">
-        <v>154</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B54" s="92"/>
+      <c r="C54" s="93"/>
       <c r="D54" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="E54" s="100" t="s">
-        <v>246</v>
-      </c>
-      <c r="F54" s="87" t="s">
-        <v>247</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="E54" s="96"/>
+      <c r="F54" s="96"/>
       <c r="G54" s="30"/>
       <c r="H54" s="32"/>
     </row>
     <row r="55" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A55" s="51">
-        <v>51</v>
-      </c>
-      <c r="B55" s="97"/>
-      <c r="C55" s="97"/>
-      <c r="D55" s="42" t="s">
-        <v>294</v>
-      </c>
-      <c r="E55" s="100"/>
-      <c r="F55" s="88"/>
+        <v>52</v>
+      </c>
+      <c r="B55" s="91" t="s">
+        <v>337</v>
+      </c>
+      <c r="C55" s="91" t="s">
+        <v>90</v>
+      </c>
+      <c r="D55" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="E55" s="94" t="s">
+        <v>172</v>
+      </c>
+      <c r="F55" s="94" t="s">
+        <v>173</v>
+      </c>
       <c r="G55" s="30"/>
       <c r="H55" s="32"/>
     </row>
     <row r="56" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A56" s="51">
-        <v>52</v>
-      </c>
-      <c r="B56" s="97"/>
-      <c r="C56" s="97"/>
-      <c r="D56" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="E56" s="100"/>
-      <c r="F56" s="88"/>
+        <v>53</v>
+      </c>
+      <c r="B56" s="92"/>
+      <c r="C56" s="92"/>
+      <c r="D56" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="E56" s="96"/>
+      <c r="F56" s="96"/>
       <c r="G56" s="30"/>
       <c r="H56" s="32"/>
     </row>
     <row r="57" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A57" s="51">
-        <v>53</v>
-      </c>
-      <c r="B57" s="97"/>
-      <c r="C57" s="97"/>
-      <c r="D57" s="24" t="s">
-        <v>209</v>
-      </c>
-      <c r="E57" s="100"/>
-      <c r="F57" s="88"/>
+        <v>54</v>
+      </c>
+      <c r="B57" s="92"/>
+      <c r="C57" s="92"/>
+      <c r="D57" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="E57" s="96"/>
+      <c r="F57" s="96"/>
       <c r="G57" s="30"/>
       <c r="H57" s="32"/>
     </row>
-    <row r="58" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+    <row r="58" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A58" s="51">
-        <v>54</v>
-      </c>
-      <c r="B58" s="97"/>
-      <c r="C58" s="97"/>
+        <v>55</v>
+      </c>
+      <c r="B58" s="92"/>
+      <c r="C58" s="92"/>
       <c r="D58" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="E58" s="100"/>
-      <c r="F58" s="89"/>
+        <v>140</v>
+      </c>
+      <c r="E58" s="96"/>
+      <c r="F58" s="96"/>
       <c r="G58" s="30"/>
       <c r="H58" s="32"/>
     </row>
     <row r="59" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A59" s="51">
-        <v>55</v>
-      </c>
-      <c r="B59" s="97"/>
-      <c r="C59" s="97"/>
+        <v>56</v>
+      </c>
+      <c r="B59" s="92"/>
+      <c r="C59" s="92"/>
       <c r="D59" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="E59" s="80"/>
-      <c r="F59" s="81"/>
-      <c r="G59" s="83"/>
-      <c r="H59" s="52"/>
+        <v>141</v>
+      </c>
+      <c r="E59" s="96"/>
+      <c r="F59" s="96"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="32"/>
     </row>
     <row r="60" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A60" s="51">
-        <v>56</v>
-      </c>
-      <c r="B60" s="98"/>
-      <c r="C60" s="98"/>
-      <c r="D60" s="115" t="s">
-        <v>299</v>
-      </c>
-      <c r="E60" s="80"/>
-      <c r="F60" s="81"/>
-      <c r="G60" s="83"/>
+        <v>57</v>
+      </c>
+      <c r="B60" s="92"/>
+      <c r="C60" s="92"/>
+      <c r="D60" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="E60" s="96"/>
+      <c r="F60" s="96"/>
+      <c r="G60" s="78"/>
       <c r="H60" s="52"/>
     </row>
     <row r="61" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A61" s="51">
-        <v>57</v>
-      </c>
-      <c r="B61" s="96" t="s">
-        <v>234</v>
-      </c>
-      <c r="C61" s="96" t="s">
-        <v>155</v>
-      </c>
-      <c r="D61" s="114" t="s">
-        <v>214</v>
-      </c>
-      <c r="E61" s="87" t="s">
-        <v>267</v>
-      </c>
-      <c r="F61" s="87" t="s">
-        <v>268</v>
-      </c>
-      <c r="G61" s="69"/>
+        <v>58</v>
+      </c>
+      <c r="B61" s="93"/>
+      <c r="C61" s="93"/>
+      <c r="D61" s="87" t="s">
+        <v>223</v>
+      </c>
+      <c r="E61" s="95"/>
+      <c r="F61" s="95"/>
+      <c r="G61" s="78"/>
       <c r="H61" s="52"/>
     </row>
     <row r="62" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A62" s="51">
-        <v>58</v>
-      </c>
-      <c r="B62" s="97"/>
-      <c r="C62" s="97"/>
-      <c r="D62" s="114" t="s">
-        <v>215</v>
-      </c>
-      <c r="E62" s="88"/>
-      <c r="F62" s="88"/>
+        <v>59</v>
+      </c>
+      <c r="B62" s="91" t="s">
+        <v>338</v>
+      </c>
+      <c r="C62" s="91" t="s">
+        <v>91</v>
+      </c>
+      <c r="D62" s="86" t="s">
+        <v>145</v>
+      </c>
+      <c r="E62" s="94" t="s">
+        <v>193</v>
+      </c>
+      <c r="F62" s="94" t="s">
+        <v>194</v>
+      </c>
       <c r="G62" s="69"/>
       <c r="H62" s="52"/>
     </row>
     <row r="63" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A63" s="51">
-        <v>59</v>
-      </c>
-      <c r="B63" s="97"/>
-      <c r="C63" s="97"/>
-      <c r="D63" s="114" t="s">
-        <v>220</v>
-      </c>
-      <c r="E63" s="88"/>
-      <c r="F63" s="88"/>
+        <v>60</v>
+      </c>
+      <c r="B63" s="92"/>
+      <c r="C63" s="92"/>
+      <c r="D63" s="86" t="s">
+        <v>146</v>
+      </c>
+      <c r="E63" s="96"/>
+      <c r="F63" s="96"/>
       <c r="G63" s="69"/>
       <c r="H63" s="52"/>
     </row>
     <row r="64" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A64" s="51">
-        <v>60</v>
-      </c>
-      <c r="B64" s="97"/>
-      <c r="C64" s="97"/>
-      <c r="D64" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="E64" s="88"/>
-      <c r="F64" s="88"/>
+        <v>61</v>
+      </c>
+      <c r="B64" s="92"/>
+      <c r="C64" s="92"/>
+      <c r="D64" s="86" t="s">
+        <v>150</v>
+      </c>
+      <c r="E64" s="96"/>
+      <c r="F64" s="96"/>
       <c r="G64" s="69"/>
       <c r="H64" s="52"/>
     </row>
     <row r="65" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A65" s="51">
-        <v>61</v>
-      </c>
-      <c r="B65" s="98"/>
-      <c r="C65" s="97"/>
-      <c r="D65" s="24" t="s">
-        <v>302</v>
-      </c>
-      <c r="E65" s="89"/>
-      <c r="F65" s="89"/>
+        <v>62</v>
+      </c>
+      <c r="B65" s="92"/>
+      <c r="C65" s="92"/>
+      <c r="D65" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="E65" s="96"/>
+      <c r="F65" s="96"/>
       <c r="G65" s="69"/>
       <c r="H65" s="52"/>
     </row>
     <row r="66" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A66" s="51">
-        <v>62</v>
-      </c>
-      <c r="B66" s="96"/>
-      <c r="C66" s="103" t="s">
-        <v>162</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="B66" s="93"/>
+      <c r="C66" s="92"/>
       <c r="D66" s="24" t="s">
-        <v>278</v>
-      </c>
-      <c r="E66" s="87" t="s">
-        <v>265</v>
-      </c>
-      <c r="F66" s="87" t="s">
-        <v>266</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="E66" s="95"/>
+      <c r="F66" s="95"/>
       <c r="G66" s="69"/>
       <c r="H66" s="52"/>
     </row>
     <row r="67" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A67" s="51">
-        <v>63</v>
-      </c>
-      <c r="B67" s="97"/>
-      <c r="C67" s="104"/>
+        <v>64</v>
+      </c>
+      <c r="B67" s="91" t="s">
+        <v>332</v>
+      </c>
+      <c r="C67" s="109" t="s">
+        <v>95</v>
+      </c>
       <c r="D67" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="E67" s="88"/>
-      <c r="F67" s="88"/>
+        <v>204</v>
+      </c>
+      <c r="E67" s="94" t="s">
+        <v>191</v>
+      </c>
+      <c r="F67" s="94" t="s">
+        <v>192</v>
+      </c>
       <c r="G67" s="69"/>
       <c r="H67" s="52"/>
     </row>
     <row r="68" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A68" s="51">
-        <v>64</v>
-      </c>
-      <c r="B68" s="98"/>
-      <c r="C68" s="104"/>
-      <c r="D68" s="113" t="s">
-        <v>279</v>
-      </c>
-      <c r="E68" s="89"/>
-      <c r="F68" s="89"/>
+        <v>65</v>
+      </c>
+      <c r="B68" s="92"/>
+      <c r="C68" s="110"/>
+      <c r="D68" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="E68" s="96"/>
+      <c r="F68" s="96"/>
       <c r="G68" s="69"/>
       <c r="H68" s="52"/>
     </row>
     <row r="69" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A69" s="51">
-        <v>65</v>
-      </c>
-      <c r="B69" s="96"/>
-      <c r="C69" s="96" t="s">
-        <v>156</v>
-      </c>
-      <c r="D69" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B69" s="93"/>
+      <c r="C69" s="110"/>
+      <c r="D69" s="85" t="s">
         <v>205</v>
       </c>
-      <c r="E69" s="87" t="s">
-        <v>264</v>
-      </c>
-      <c r="F69" s="87" t="s">
-        <v>239</v>
-      </c>
+      <c r="E69" s="95"/>
+      <c r="F69" s="95"/>
       <c r="G69" s="69"/>
       <c r="H69" s="52"/>
     </row>
     <row r="70" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A70" s="51">
-        <v>66</v>
-      </c>
-      <c r="B70" s="97"/>
-      <c r="C70" s="97"/>
-      <c r="D70" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="E70" s="88"/>
-      <c r="F70" s="88"/>
+        <v>67</v>
+      </c>
+      <c r="B70" s="91" t="s">
+        <v>339</v>
+      </c>
+      <c r="C70" s="91" t="s">
+        <v>92</v>
+      </c>
+      <c r="D70" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="E70" s="94" t="s">
+        <v>190</v>
+      </c>
+      <c r="F70" s="94" t="s">
+        <v>165</v>
+      </c>
       <c r="G70" s="69"/>
       <c r="H70" s="52"/>
     </row>
     <row r="71" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A71" s="51">
-        <v>67</v>
-      </c>
-      <c r="B71" s="97"/>
-      <c r="C71" s="97"/>
+        <v>68</v>
+      </c>
+      <c r="B71" s="92"/>
+      <c r="C71" s="92"/>
       <c r="D71" s="23" t="s">
-        <v>306</v>
-      </c>
-      <c r="E71" s="88"/>
-      <c r="F71" s="88"/>
+        <v>137</v>
+      </c>
+      <c r="E71" s="96"/>
+      <c r="F71" s="96"/>
       <c r="G71" s="69"/>
       <c r="H71" s="52"/>
     </row>
     <row r="72" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A72" s="51">
-        <v>68</v>
-      </c>
-      <c r="B72" s="97"/>
-      <c r="C72" s="97"/>
-      <c r="D72" s="24" t="s">
-        <v>207</v>
-      </c>
-      <c r="E72" s="88"/>
-      <c r="F72" s="88"/>
+        <v>69</v>
+      </c>
+      <c r="B72" s="92"/>
+      <c r="C72" s="92"/>
+      <c r="D72" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="E72" s="96"/>
+      <c r="F72" s="96"/>
       <c r="G72" s="69"/>
       <c r="H72" s="52"/>
     </row>
     <row r="73" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A73" s="51">
-        <v>69</v>
-      </c>
-      <c r="B73" s="98"/>
-      <c r="C73" s="98"/>
+        <v>70</v>
+      </c>
+      <c r="B73" s="92"/>
+      <c r="C73" s="92"/>
       <c r="D73" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="E73" s="89"/>
-      <c r="F73" s="89"/>
+        <v>138</v>
+      </c>
+      <c r="E73" s="96"/>
+      <c r="F73" s="96"/>
       <c r="G73" s="69"/>
       <c r="H73" s="52"/>
     </row>
     <row r="74" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A74" s="51">
-        <v>70</v>
-      </c>
-      <c r="B74" s="96"/>
-      <c r="C74" s="96" t="s">
-        <v>157</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="B74" s="93"/>
+      <c r="C74" s="93"/>
       <c r="D74" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="E74" s="87" t="s">
-        <v>261</v>
-      </c>
-      <c r="F74" s="87" t="s">
-        <v>263</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="E74" s="95"/>
+      <c r="F74" s="95"/>
       <c r="G74" s="69"/>
       <c r="H74" s="52"/>
     </row>
     <row r="75" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A75" s="51">
-        <v>71</v>
-      </c>
-      <c r="B75" s="97"/>
-      <c r="C75" s="97"/>
-      <c r="D75" s="113" t="s">
-        <v>283</v>
-      </c>
-      <c r="E75" s="88"/>
-      <c r="F75" s="88"/>
-      <c r="G75" s="70"/>
+        <v>72</v>
+      </c>
+      <c r="B75" s="91" t="s">
+        <v>340</v>
+      </c>
+      <c r="C75" s="91" t="s">
+        <v>341</v>
+      </c>
+      <c r="D75" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E75" s="94" t="s">
+        <v>187</v>
+      </c>
+      <c r="F75" s="94" t="s">
+        <v>189</v>
+      </c>
+      <c r="G75" s="69"/>
       <c r="H75" s="52"/>
     </row>
     <row r="76" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A76" s="51">
-        <v>72</v>
-      </c>
-      <c r="B76" s="97"/>
-      <c r="C76" s="97"/>
-      <c r="D76" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="E76" s="88"/>
-      <c r="F76" s="88"/>
-      <c r="G76" s="69"/>
+        <v>73</v>
+      </c>
+      <c r="B76" s="92"/>
+      <c r="C76" s="92"/>
+      <c r="D76" s="85" t="s">
+        <v>209</v>
+      </c>
+      <c r="E76" s="96"/>
+      <c r="F76" s="96"/>
+      <c r="G76" s="70"/>
       <c r="H76" s="52"/>
     </row>
     <row r="77" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A77" s="51">
-        <v>73</v>
-      </c>
-      <c r="B77" s="98"/>
-      <c r="C77" s="98"/>
+        <v>74</v>
+      </c>
+      <c r="B77" s="92"/>
+      <c r="C77" s="92"/>
       <c r="D77" s="24" t="s">
-        <v>225</v>
-      </c>
-      <c r="E77" s="89"/>
-      <c r="F77" s="89"/>
-      <c r="G77" s="70"/>
+        <v>135</v>
+      </c>
+      <c r="E77" s="96"/>
+      <c r="F77" s="96"/>
+      <c r="G77" s="69"/>
       <c r="H77" s="52"/>
     </row>
     <row r="78" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A78" s="51">
-        <v>74</v>
-      </c>
-      <c r="B78" s="96"/>
-      <c r="C78" s="96" t="s">
-        <v>158</v>
-      </c>
-      <c r="D78" s="114" t="s">
-        <v>301</v>
-      </c>
-      <c r="E78" s="87" t="s">
-        <v>262</v>
-      </c>
-      <c r="F78" s="87" t="s">
-        <v>260</v>
-      </c>
-      <c r="G78" s="69"/>
+        <v>75</v>
+      </c>
+      <c r="B78" s="93"/>
+      <c r="C78" s="93"/>
+      <c r="D78" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="E78" s="95"/>
+      <c r="F78" s="95"/>
+      <c r="G78" s="70"/>
       <c r="H78" s="52"/>
     </row>
     <row r="79" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A79" s="51">
-        <v>75</v>
-      </c>
-      <c r="B79" s="97"/>
-      <c r="C79" s="97"/>
-      <c r="D79" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="E79" s="88"/>
-      <c r="F79" s="88"/>
+        <v>76</v>
+      </c>
+      <c r="B79" s="91" t="s">
+        <v>344</v>
+      </c>
+      <c r="C79" s="91" t="s">
+        <v>242</v>
+      </c>
+      <c r="D79" s="86" t="s">
+        <v>225</v>
+      </c>
+      <c r="E79" s="94" t="s">
+        <v>188</v>
+      </c>
+      <c r="F79" s="94" t="s">
+        <v>186</v>
+      </c>
       <c r="G79" s="69"/>
       <c r="H79" s="52"/>
     </row>
     <row r="80" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A80" s="51">
-        <v>76</v>
-      </c>
-      <c r="B80" s="97"/>
-      <c r="C80" s="97"/>
-      <c r="D80" s="114" t="s">
-        <v>280</v>
-      </c>
-      <c r="E80" s="88"/>
-      <c r="F80" s="88"/>
+        <v>77</v>
+      </c>
+      <c r="B80" s="92"/>
+      <c r="C80" s="92"/>
+      <c r="D80" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="E80" s="96"/>
+      <c r="F80" s="96"/>
       <c r="G80" s="69"/>
       <c r="H80" s="52"/>
     </row>
     <row r="81" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A81" s="51">
-        <v>77</v>
-      </c>
-      <c r="B81" s="97"/>
-      <c r="C81" s="97"/>
-      <c r="D81" s="114" t="s">
-        <v>288</v>
-      </c>
-      <c r="E81" s="88"/>
-      <c r="F81" s="88"/>
+        <v>78</v>
+      </c>
+      <c r="B81" s="92"/>
+      <c r="C81" s="92"/>
+      <c r="D81" s="86" t="s">
+        <v>206</v>
+      </c>
+      <c r="E81" s="96"/>
+      <c r="F81" s="96"/>
       <c r="G81" s="69"/>
       <c r="H81" s="52"/>
     </row>
     <row r="82" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A82" s="51">
-        <v>78</v>
-      </c>
-      <c r="B82" s="97"/>
-      <c r="C82" s="97"/>
-      <c r="D82" s="114" t="s">
-        <v>285</v>
-      </c>
-      <c r="E82" s="88"/>
-      <c r="F82" s="88"/>
+        <v>79</v>
+      </c>
+      <c r="B82" s="92"/>
+      <c r="C82" s="92"/>
+      <c r="D82" s="86" t="s">
+        <v>214</v>
+      </c>
+      <c r="E82" s="96"/>
+      <c r="F82" s="96"/>
       <c r="G82" s="69"/>
       <c r="H82" s="52"/>
     </row>
     <row r="83" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A83" s="51">
-        <v>79</v>
-      </c>
-      <c r="B83" s="97"/>
-      <c r="C83" s="97"/>
-      <c r="D83" s="114" t="s">
-        <v>197</v>
-      </c>
-      <c r="E83" s="88"/>
-      <c r="F83" s="88"/>
+        <v>80</v>
+      </c>
+      <c r="B83" s="92"/>
+      <c r="C83" s="92"/>
+      <c r="D83" s="86" t="s">
+        <v>211</v>
+      </c>
+      <c r="E83" s="96"/>
+      <c r="F83" s="96"/>
       <c r="G83" s="69"/>
       <c r="H83" s="52"/>
     </row>
     <row r="84" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A84" s="51">
-        <v>80</v>
-      </c>
-      <c r="B84" s="98"/>
-      <c r="C84" s="98"/>
-      <c r="D84" s="114" t="s">
-        <v>281</v>
-      </c>
-      <c r="E84" s="89"/>
-      <c r="F84" s="89"/>
+        <v>81</v>
+      </c>
+      <c r="B84" s="92"/>
+      <c r="C84" s="92"/>
+      <c r="D84" s="86" t="s">
+        <v>129</v>
+      </c>
+      <c r="E84" s="96"/>
+      <c r="F84" s="96"/>
       <c r="G84" s="69"/>
       <c r="H84" s="52"/>
     </row>
     <row r="85" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A85" s="51">
-        <v>81</v>
-      </c>
-      <c r="B85" s="96"/>
-      <c r="C85" s="96" t="s">
-        <v>159</v>
-      </c>
-      <c r="D85" s="113" t="s">
-        <v>282</v>
-      </c>
-      <c r="E85" s="87" t="s">
-        <v>259</v>
-      </c>
-      <c r="F85" s="87" t="s">
-        <v>239</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="B85" s="93"/>
+      <c r="C85" s="93"/>
+      <c r="D85" s="86" t="s">
+        <v>207</v>
+      </c>
+      <c r="E85" s="95"/>
+      <c r="F85" s="95"/>
       <c r="G85" s="69"/>
       <c r="H85" s="52"/>
     </row>
     <row r="86" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A86" s="51">
-        <v>82</v>
-      </c>
-      <c r="B86" s="98"/>
-      <c r="C86" s="98"/>
-      <c r="D86" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="E86" s="89"/>
-      <c r="F86" s="89"/>
+        <v>83</v>
+      </c>
+      <c r="B86" s="91" t="s">
+        <v>342</v>
+      </c>
+      <c r="C86" s="91" t="s">
+        <v>343</v>
+      </c>
+      <c r="D86" s="85" t="s">
+        <v>208</v>
+      </c>
+      <c r="E86" s="94" t="s">
+        <v>185</v>
+      </c>
+      <c r="F86" s="94" t="s">
+        <v>165</v>
+      </c>
       <c r="G86" s="69"/>
       <c r="H86" s="52"/>
     </row>
     <row r="87" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A87" s="51">
-        <v>83</v>
-      </c>
-      <c r="B87" s="96"/>
-      <c r="C87" s="96" t="s">
-        <v>161</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="B87" s="93"/>
+      <c r="C87" s="93"/>
       <c r="D87" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="E87" s="87" t="s">
-        <v>258</v>
-      </c>
-      <c r="F87" s="87" t="s">
-        <v>239</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="E87" s="95"/>
+      <c r="F87" s="95"/>
       <c r="G87" s="69"/>
       <c r="H87" s="52"/>
     </row>
     <row r="88" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A88" s="51">
-        <v>84</v>
-      </c>
-      <c r="B88" s="98"/>
-      <c r="C88" s="98"/>
+        <v>85</v>
+      </c>
+      <c r="B88" s="91" t="s">
+        <v>332</v>
+      </c>
+      <c r="C88" s="91" t="s">
+        <v>94</v>
+      </c>
       <c r="D88" s="24" t="s">
-        <v>305</v>
-      </c>
-      <c r="E88" s="89"/>
-      <c r="F88" s="89"/>
+        <v>121</v>
+      </c>
+      <c r="E88" s="94" t="s">
+        <v>184</v>
+      </c>
+      <c r="F88" s="94" t="s">
+        <v>165</v>
+      </c>
       <c r="G88" s="69"/>
       <c r="H88" s="52"/>
     </row>
     <row r="89" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A89" s="51">
-        <v>85</v>
-      </c>
-      <c r="B89" s="96"/>
-      <c r="C89" s="96" t="s">
-        <v>163</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="B89" s="93"/>
+      <c r="C89" s="93"/>
       <c r="D89" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="E89" s="87" t="s">
-        <v>256</v>
-      </c>
-      <c r="F89" s="87" t="s">
-        <v>257</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="E89" s="95"/>
+      <c r="F89" s="95"/>
       <c r="G89" s="69"/>
       <c r="H89" s="52"/>
     </row>
     <row r="90" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A90" s="51">
-        <v>86</v>
-      </c>
-      <c r="B90" s="97"/>
-      <c r="C90" s="97"/>
+        <v>87</v>
+      </c>
+      <c r="B90" s="91" t="s">
+        <v>349</v>
+      </c>
+      <c r="C90" s="91" t="s">
+        <v>96</v>
+      </c>
       <c r="D90" s="24" t="s">
-        <v>289</v>
-      </c>
-      <c r="E90" s="88"/>
-      <c r="F90" s="88"/>
+        <v>122</v>
+      </c>
+      <c r="E90" s="94" t="s">
+        <v>182</v>
+      </c>
+      <c r="F90" s="94" t="s">
+        <v>183</v>
+      </c>
       <c r="G90" s="69"/>
       <c r="H90" s="52"/>
     </row>
     <row r="91" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A91" s="51">
-        <v>87</v>
-      </c>
-      <c r="B91" s="97"/>
-      <c r="C91" s="97"/>
+        <v>88</v>
+      </c>
+      <c r="B91" s="92"/>
+      <c r="C91" s="92"/>
       <c r="D91" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="E91" s="88"/>
-      <c r="F91" s="88"/>
+        <v>215</v>
+      </c>
+      <c r="E91" s="96"/>
+      <c r="F91" s="96"/>
       <c r="G91" s="69"/>
       <c r="H91" s="52"/>
     </row>
     <row r="92" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A92" s="51">
-        <v>88</v>
-      </c>
-      <c r="B92" s="97"/>
-      <c r="C92" s="97"/>
+        <v>89</v>
+      </c>
+      <c r="B92" s="92"/>
+      <c r="C92" s="92"/>
       <c r="D92" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="E92" s="88"/>
-      <c r="F92" s="88"/>
+        <v>123</v>
+      </c>
+      <c r="E92" s="96"/>
+      <c r="F92" s="96"/>
       <c r="G92" s="69"/>
       <c r="H92" s="52"/>
     </row>
     <row r="93" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A93" s="51">
-        <v>89</v>
-      </c>
-      <c r="B93" s="98"/>
-      <c r="C93" s="98"/>
+        <v>90</v>
+      </c>
+      <c r="B93" s="92"/>
+      <c r="C93" s="92"/>
       <c r="D93" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="E93" s="89"/>
-      <c r="F93" s="89"/>
+        <v>124</v>
+      </c>
+      <c r="E93" s="96"/>
+      <c r="F93" s="96"/>
       <c r="G93" s="69"/>
       <c r="H93" s="52"/>
     </row>
     <row r="94" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A94" s="51">
-        <v>90</v>
-      </c>
-      <c r="B94" s="96"/>
-      <c r="C94" s="96" t="s">
-        <v>164</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="B94" s="93"/>
+      <c r="C94" s="93"/>
       <c r="D94" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="E94" s="87" t="s">
-        <v>255</v>
-      </c>
-      <c r="F94" s="87" t="s">
-        <v>254</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="E94" s="95"/>
+      <c r="F94" s="95"/>
       <c r="G94" s="69"/>
       <c r="H94" s="52"/>
     </row>
     <row r="95" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A95" s="51">
-        <v>91</v>
-      </c>
-      <c r="B95" s="97"/>
-      <c r="C95" s="97"/>
+        <v>92</v>
+      </c>
+      <c r="B95" s="91" t="s">
+        <v>352</v>
+      </c>
+      <c r="C95" s="91" t="s">
+        <v>97</v>
+      </c>
       <c r="D95" s="24" t="s">
-        <v>295</v>
-      </c>
-      <c r="E95" s="88"/>
-      <c r="F95" s="88"/>
+        <v>131</v>
+      </c>
+      <c r="E95" s="94" t="s">
+        <v>181</v>
+      </c>
+      <c r="F95" s="94" t="s">
+        <v>180</v>
+      </c>
       <c r="G95" s="69"/>
       <c r="H95" s="52"/>
     </row>
     <row r="96" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A96" s="51">
-        <v>92</v>
-      </c>
-      <c r="B96" s="98"/>
-      <c r="C96" s="97"/>
+        <v>93</v>
+      </c>
+      <c r="B96" s="92"/>
+      <c r="C96" s="92"/>
       <c r="D96" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="E96" s="89"/>
-      <c r="F96" s="89"/>
+        <v>236</v>
+      </c>
+      <c r="E96" s="96"/>
+      <c r="F96" s="96"/>
       <c r="G96" s="69"/>
       <c r="H96" s="52"/>
     </row>
     <row r="97" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A97" s="51">
-        <v>93</v>
-      </c>
-      <c r="B97" s="96"/>
-      <c r="C97" s="96" t="s">
-        <v>165</v>
-      </c>
-      <c r="D97" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="E97" s="87" t="s">
-        <v>253</v>
-      </c>
-      <c r="F97" s="87" t="s">
-        <v>254</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="B97" s="93"/>
+      <c r="C97" s="92"/>
+      <c r="D97" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E97" s="95"/>
+      <c r="F97" s="95"/>
       <c r="G97" s="69"/>
       <c r="H97" s="52"/>
     </row>
     <row r="98" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A98" s="51">
-        <v>94</v>
-      </c>
-      <c r="B98" s="97"/>
-      <c r="C98" s="97"/>
-      <c r="D98" s="24" t="s">
-        <v>297</v>
-      </c>
-      <c r="E98" s="88"/>
-      <c r="F98" s="88"/>
+        <v>95</v>
+      </c>
+      <c r="B98" s="91" t="s">
+        <v>350</v>
+      </c>
+      <c r="C98" s="91" t="s">
+        <v>98</v>
+      </c>
+      <c r="D98" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="E98" s="94" t="s">
+        <v>179</v>
+      </c>
+      <c r="F98" s="94" t="s">
+        <v>180</v>
+      </c>
       <c r="G98" s="69"/>
       <c r="H98" s="52"/>
     </row>
     <row r="99" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A99" s="51">
-        <v>95</v>
-      </c>
-      <c r="B99" s="97"/>
-      <c r="C99" s="97"/>
+        <v>96</v>
+      </c>
+      <c r="B99" s="92"/>
+      <c r="C99" s="92"/>
       <c r="D99" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="E99" s="88"/>
-      <c r="F99" s="88"/>
-      <c r="G99" s="83"/>
+        <v>222</v>
+      </c>
+      <c r="E99" s="96"/>
+      <c r="F99" s="96"/>
+      <c r="G99" s="69"/>
       <c r="H99" s="52"/>
     </row>
     <row r="100" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A100" s="51">
-        <v>96</v>
-      </c>
-      <c r="B100" s="98"/>
-      <c r="C100" s="97"/>
+        <v>97</v>
+      </c>
+      <c r="B100" s="92"/>
+      <c r="C100" s="92"/>
       <c r="D100" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="E100" s="89"/>
-      <c r="F100" s="89"/>
-      <c r="G100" s="69"/>
+        <v>200</v>
+      </c>
+      <c r="E100" s="96"/>
+      <c r="F100" s="96"/>
+      <c r="G100" s="78"/>
       <c r="H100" s="52"/>
     </row>
     <row r="101" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A101" s="51">
-        <v>97</v>
-      </c>
-      <c r="B101" s="96"/>
-      <c r="C101" s="96" t="s">
-        <v>166</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="B101" s="93"/>
+      <c r="C101" s="92"/>
       <c r="D101" s="24" t="s">
-        <v>211</v>
-      </c>
-      <c r="E101" s="87" t="s">
-        <v>252</v>
-      </c>
-      <c r="F101" s="87" t="s">
-        <v>250</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="E101" s="95"/>
+      <c r="F101" s="95"/>
       <c r="G101" s="69"/>
       <c r="H101" s="52"/>
     </row>
     <row r="102" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A102" s="51">
-        <v>98</v>
-      </c>
-      <c r="B102" s="97"/>
-      <c r="C102" s="97"/>
+        <v>99</v>
+      </c>
+      <c r="B102" s="91" t="s">
+        <v>332</v>
+      </c>
+      <c r="C102" s="91" t="s">
+        <v>99</v>
+      </c>
       <c r="D102" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="E102" s="88"/>
-      <c r="F102" s="88"/>
+        <v>142</v>
+      </c>
+      <c r="E102" s="94" t="s">
+        <v>178</v>
+      </c>
+      <c r="F102" s="94" t="s">
+        <v>176</v>
+      </c>
       <c r="G102" s="69"/>
       <c r="H102" s="52"/>
     </row>
     <row r="103" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A103" s="51">
-        <v>99</v>
-      </c>
-      <c r="B103" s="97"/>
-      <c r="C103" s="97"/>
+        <v>100</v>
+      </c>
+      <c r="B103" s="92"/>
+      <c r="C103" s="92"/>
       <c r="D103" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="E103" s="89"/>
-      <c r="F103" s="89"/>
-      <c r="G103" s="74"/>
+        <v>195</v>
+      </c>
+      <c r="E103" s="96"/>
+      <c r="F103" s="96"/>
+      <c r="G103" s="69"/>
       <c r="H103" s="52"/>
     </row>
     <row r="104" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A104" s="51">
-        <v>100</v>
-      </c>
-      <c r="B104" s="98"/>
-      <c r="C104" s="98"/>
+        <v>101</v>
+      </c>
+      <c r="B104" s="92"/>
+      <c r="C104" s="92"/>
       <c r="D104" s="24" t="s">
-        <v>304</v>
-      </c>
-      <c r="E104" s="81"/>
-      <c r="F104" s="81"/>
-      <c r="G104" s="83"/>
+        <v>143</v>
+      </c>
+      <c r="E104" s="96"/>
+      <c r="F104" s="96"/>
+      <c r="G104" s="74"/>
       <c r="H104" s="52"/>
     </row>
     <row r="105" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A105" s="51">
-        <v>101</v>
-      </c>
-      <c r="B105" s="77"/>
-      <c r="C105" s="96" t="s">
-        <v>160</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="B105" s="93"/>
+      <c r="C105" s="93"/>
       <c r="D105" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="E105" s="87" t="s">
-        <v>270</v>
-      </c>
-      <c r="F105" s="87" t="s">
-        <v>271</v>
-      </c>
-      <c r="G105" s="74"/>
+        <v>228</v>
+      </c>
+      <c r="E105" s="95"/>
+      <c r="F105" s="95"/>
+      <c r="G105" s="78"/>
       <c r="H105" s="52"/>
     </row>
-    <row r="106" spans="1:8" s="43" customFormat="1" ht="16.5" customHeight="1">
+    <row r="106" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A106" s="51">
-        <v>102</v>
-      </c>
-      <c r="B106" s="78"/>
-      <c r="C106" s="97"/>
+        <v>103</v>
+      </c>
+      <c r="B106" s="91" t="s">
+        <v>332</v>
+      </c>
+      <c r="C106" s="91" t="s">
+        <v>93</v>
+      </c>
       <c r="D106" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="E106" s="88"/>
-      <c r="F106" s="88"/>
+        <v>119</v>
+      </c>
+      <c r="E106" s="94" t="s">
+        <v>196</v>
+      </c>
+      <c r="F106" s="94" t="s">
+        <v>197</v>
+      </c>
       <c r="G106" s="74"/>
       <c r="H106" s="52"/>
     </row>
-    <row r="107" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+    <row r="107" spans="1:8" s="43" customFormat="1" ht="16.5" customHeight="1">
       <c r="A107" s="51">
-        <v>103</v>
-      </c>
-      <c r="B107" s="78"/>
-      <c r="C107" s="97"/>
-      <c r="D107" s="114" t="s">
-        <v>290</v>
-      </c>
-      <c r="E107" s="88"/>
-      <c r="F107" s="88"/>
+        <v>104</v>
+      </c>
+      <c r="B107" s="92"/>
+      <c r="C107" s="92"/>
+      <c r="D107" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="E107" s="96"/>
+      <c r="F107" s="96"/>
       <c r="G107" s="74"/>
       <c r="H107" s="52"/>
     </row>
     <row r="108" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A108" s="51">
-        <v>104</v>
-      </c>
-      <c r="B108" s="78"/>
-      <c r="C108" s="97"/>
-      <c r="D108" s="114" t="s">
-        <v>224</v>
-      </c>
-      <c r="E108" s="88"/>
-      <c r="F108" s="88"/>
+        <v>105</v>
+      </c>
+      <c r="B108" s="92"/>
+      <c r="C108" s="92"/>
+      <c r="D108" s="86" t="s">
+        <v>216</v>
+      </c>
+      <c r="E108" s="96"/>
+      <c r="F108" s="96"/>
       <c r="G108" s="74"/>
       <c r="H108" s="52"/>
     </row>
     <row r="109" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A109" s="51">
-        <v>105</v>
-      </c>
-      <c r="B109" s="78"/>
-      <c r="C109" s="97"/>
-      <c r="D109" s="114" t="s">
-        <v>223</v>
-      </c>
-      <c r="E109" s="88"/>
-      <c r="F109" s="88"/>
+        <v>106</v>
+      </c>
+      <c r="B109" s="92"/>
+      <c r="C109" s="92"/>
+      <c r="D109" s="86" t="s">
+        <v>154</v>
+      </c>
+      <c r="E109" s="96"/>
+      <c r="F109" s="96"/>
       <c r="G109" s="74"/>
       <c r="H109" s="52"/>
     </row>
     <row r="110" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A110" s="51">
-        <v>106</v>
-      </c>
-      <c r="B110" s="79"/>
-      <c r="C110" s="97"/>
-      <c r="D110" s="114" t="s">
-        <v>286</v>
-      </c>
-      <c r="E110" s="89"/>
-      <c r="F110" s="89"/>
+        <v>107</v>
+      </c>
+      <c r="B110" s="92"/>
+      <c r="C110" s="92"/>
+      <c r="D110" s="86" t="s">
+        <v>153</v>
+      </c>
+      <c r="E110" s="96"/>
+      <c r="F110" s="96"/>
       <c r="G110" s="74"/>
       <c r="H110" s="52"/>
     </row>
     <row r="111" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A111" s="51">
-        <v>107</v>
-      </c>
-      <c r="B111" s="76"/>
-      <c r="C111" s="75" t="s">
-        <v>167</v>
-      </c>
-      <c r="D111" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="E111" s="73" t="s">
-        <v>249</v>
-      </c>
-      <c r="F111" s="73" t="s">
-        <v>251</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="B111" s="93"/>
+      <c r="C111" s="92"/>
+      <c r="D111" s="86" t="s">
+        <v>212</v>
+      </c>
+      <c r="E111" s="95"/>
+      <c r="F111" s="95"/>
       <c r="G111" s="74"/>
       <c r="H111" s="52"/>
     </row>
     <row r="112" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A112" s="51">
-        <v>108</v>
-      </c>
-      <c r="B112" s="93"/>
-      <c r="C112" s="96" t="s">
-        <v>168</v>
-      </c>
-      <c r="D112" s="113" t="s">
-        <v>296</v>
-      </c>
-      <c r="E112" s="87" t="s">
-        <v>248</v>
-      </c>
-      <c r="F112" s="87" t="s">
-        <v>250</v>
+        <v>109</v>
+      </c>
+      <c r="B112" s="76" t="s">
+        <v>335</v>
+      </c>
+      <c r="C112" s="75" t="s">
+        <v>100</v>
+      </c>
+      <c r="D112" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="E112" s="73" t="s">
+        <v>175</v>
+      </c>
+      <c r="F112" s="73" t="s">
+        <v>177</v>
       </c>
       <c r="G112" s="74"/>
       <c r="H112" s="52"/>
     </row>
     <row r="113" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A113" s="51">
-        <v>109</v>
-      </c>
-      <c r="B113" s="95"/>
-      <c r="C113" s="98"/>
-      <c r="D113" s="114" t="s">
-        <v>194</v>
-      </c>
-      <c r="E113" s="89"/>
-      <c r="F113" s="89"/>
+        <v>110</v>
+      </c>
+      <c r="B113" s="105" t="s">
+        <v>334</v>
+      </c>
+      <c r="C113" s="91" t="s">
+        <v>101</v>
+      </c>
+      <c r="D113" s="85" t="s">
+        <v>221</v>
+      </c>
+      <c r="E113" s="94" t="s">
+        <v>174</v>
+      </c>
+      <c r="F113" s="94" t="s">
+        <v>176</v>
+      </c>
       <c r="G113" s="74"/>
       <c r="H113" s="52"/>
     </row>
-    <row r="114" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A114" s="51"/>
-      <c r="B114" s="25"/>
-      <c r="C114" s="105" t="s">
-        <v>62</v>
-      </c>
-      <c r="D114" s="106"/>
-      <c r="E114" s="73"/>
-      <c r="F114" s="73"/>
+    <row r="114" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A114" s="51">
+        <v>111</v>
+      </c>
+      <c r="B114" s="106"/>
+      <c r="C114" s="93"/>
+      <c r="D114" s="86" t="s">
+        <v>126</v>
+      </c>
+      <c r="E114" s="95"/>
+      <c r="F114" s="95"/>
       <c r="G114" s="74"/>
-      <c r="H114" s="27"/>
+      <c r="H114" s="52"/>
     </row>
     <row r="115" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A115" s="51">
-        <v>108</v>
-      </c>
-      <c r="B115" s="74" t="s">
-        <v>89</v>
-      </c>
-      <c r="C115" s="74" t="s">
-        <v>50</v>
-      </c>
-      <c r="D115" s="25" t="s">
-        <v>131</v>
-      </c>
+      <c r="A115" s="51"/>
+      <c r="B115" s="25"/>
+      <c r="C115" s="111" t="s">
+        <v>35</v>
+      </c>
+      <c r="D115" s="112"/>
       <c r="E115" s="73"/>
-      <c r="F115" s="73" t="s">
-        <v>133</v>
-      </c>
+      <c r="F115" s="73"/>
       <c r="G115" s="74"/>
       <c r="H115" s="27"/>
     </row>
     <row r="116" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A116" s="90">
-        <v>109</v>
-      </c>
-      <c r="B116" s="96" t="s">
-        <v>90</v>
-      </c>
-      <c r="C116" s="101" t="s">
-        <v>55</v>
+      <c r="A116" s="51">
+        <v>112</v>
+      </c>
+      <c r="B116" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="C116" s="74" t="s">
+        <v>240</v>
       </c>
       <c r="D116" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="E116" s="100"/>
-      <c r="F116" s="87" t="s">
-        <v>135</v>
-      </c>
-      <c r="G116" s="30"/>
+        <v>241</v>
+      </c>
+      <c r="E116" s="73"/>
+      <c r="F116" s="73" t="s">
+        <v>71</v>
+      </c>
+      <c r="G116" s="74"/>
       <c r="H116" s="27"/>
     </row>
     <row r="117" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A117" s="92"/>
-      <c r="B117" s="98"/>
-      <c r="C117" s="101"/>
-      <c r="D117" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="E117" s="100"/>
-      <c r="F117" s="89"/>
+      <c r="A117" s="103">
+        <v>113</v>
+      </c>
+      <c r="B117" s="91" t="s">
+        <v>48</v>
+      </c>
+      <c r="C117" s="102" t="s">
+        <v>259</v>
+      </c>
+      <c r="D117" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="E117" s="98"/>
+      <c r="F117" s="94" t="s">
+        <v>73</v>
+      </c>
       <c r="G117" s="30"/>
       <c r="H117" s="27"/>
     </row>
     <row r="118" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A118" s="29">
-        <v>110</v>
-      </c>
-      <c r="B118" s="96" t="s">
-        <v>91</v>
-      </c>
-      <c r="C118" s="101" t="s">
-        <v>63</v>
-      </c>
-      <c r="D118" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="E118" s="100"/>
-      <c r="F118" s="87" t="s">
-        <v>133</v>
-      </c>
+      <c r="A118" s="107"/>
+      <c r="B118" s="93"/>
+      <c r="C118" s="102"/>
+      <c r="D118" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="E118" s="98"/>
+      <c r="F118" s="95"/>
       <c r="G118" s="30"/>
       <c r="H118" s="27"/>
     </row>
     <row r="119" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A119" s="29">
-        <v>111</v>
-      </c>
-      <c r="B119" s="98"/>
-      <c r="C119" s="101"/>
+        <v>114</v>
+      </c>
+      <c r="B119" s="91" t="s">
+        <v>266</v>
+      </c>
+      <c r="C119" s="102" t="s">
+        <v>265</v>
+      </c>
       <c r="D119" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="E119" s="100"/>
-      <c r="F119" s="89"/>
+        <v>263</v>
+      </c>
+      <c r="E119" s="98"/>
+      <c r="F119" s="94" t="s">
+        <v>71</v>
+      </c>
       <c r="G119" s="30"/>
       <c r="H119" s="27"/>
     </row>
-    <row r="120" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A120" s="51">
-        <v>112</v>
-      </c>
-      <c r="B120" s="96" t="s">
-        <v>92</v>
-      </c>
-      <c r="C120" s="101" t="s">
-        <v>51</v>
-      </c>
+    <row r="120" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A120" s="29">
+        <v>115</v>
+      </c>
+      <c r="B120" s="93"/>
+      <c r="C120" s="102"/>
       <c r="D120" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E120" s="100"/>
-      <c r="F120" s="87" t="s">
-        <v>133</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="E120" s="98"/>
+      <c r="F120" s="95"/>
       <c r="G120" s="30"/>
-      <c r="H120" s="32"/>
-    </row>
-    <row r="121" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="H120" s="27"/>
+    </row>
+    <row r="121" spans="1:8" s="43" customFormat="1" ht="15" customHeight="1">
       <c r="A121" s="51">
-        <v>113</v>
-      </c>
-      <c r="B121" s="97"/>
-      <c r="C121" s="101"/>
+        <v>116</v>
+      </c>
+      <c r="B121" s="91" t="s">
+        <v>267</v>
+      </c>
+      <c r="C121" s="102" t="s">
+        <v>262</v>
+      </c>
       <c r="D121" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="E121" s="100"/>
-      <c r="F121" s="88"/>
+        <v>10</v>
+      </c>
+      <c r="E121" s="98"/>
+      <c r="F121" s="94" t="s">
+        <v>71</v>
+      </c>
       <c r="G121" s="30"/>
       <c r="H121" s="32"/>
     </row>
     <row r="122" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A122" s="51">
-        <v>114</v>
-      </c>
-      <c r="B122" s="98"/>
-      <c r="C122" s="101"/>
+        <v>117</v>
+      </c>
+      <c r="B122" s="92"/>
+      <c r="C122" s="102"/>
       <c r="D122" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="E122" s="100"/>
-      <c r="F122" s="89"/>
+        <v>18</v>
+      </c>
+      <c r="E122" s="98"/>
+      <c r="F122" s="96"/>
       <c r="G122" s="30"/>
       <c r="H122" s="32"/>
     </row>
     <row r="123" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A123" s="29"/>
-      <c r="B123" s="25"/>
-      <c r="C123" s="102" t="s">
-        <v>66</v>
-      </c>
-      <c r="D123" s="102"/>
-      <c r="E123" s="25"/>
-      <c r="F123" s="62"/>
+      <c r="A123" s="51">
+        <v>118</v>
+      </c>
+      <c r="B123" s="93"/>
+      <c r="C123" s="102"/>
+      <c r="D123" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E123" s="98"/>
+      <c r="F123" s="95"/>
       <c r="G123" s="30"/>
       <c r="H123" s="32"/>
     </row>
     <row r="124" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A124" s="29">
-        <v>115</v>
-      </c>
-      <c r="B124" s="96" t="s">
-        <v>93</v>
-      </c>
-      <c r="C124" s="101" t="s">
-        <v>64</v>
-      </c>
-      <c r="D124" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="E124" s="100"/>
-      <c r="F124" s="87" t="s">
-        <v>136</v>
-      </c>
+      <c r="A124" s="29"/>
+      <c r="B124" s="25"/>
+      <c r="C124" s="113" t="s">
+        <v>37</v>
+      </c>
+      <c r="D124" s="113"/>
+      <c r="E124" s="25"/>
+      <c r="F124" s="62"/>
       <c r="G124" s="30"/>
       <c r="H124" s="32"/>
     </row>
     <row r="125" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A125" s="51">
-        <v>116</v>
-      </c>
-      <c r="B125" s="97"/>
-      <c r="C125" s="101"/>
+      <c r="A125" s="29">
+        <v>119</v>
+      </c>
+      <c r="B125" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="C125" s="102" t="s">
+        <v>239</v>
+      </c>
       <c r="D125" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="E125" s="100"/>
-      <c r="F125" s="88"/>
+        <v>34</v>
+      </c>
+      <c r="E125" s="98"/>
+      <c r="F125" s="94" t="s">
+        <v>74</v>
+      </c>
       <c r="G125" s="30"/>
       <c r="H125" s="32"/>
     </row>
     <row r="126" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A126" s="51">
-        <v>117</v>
-      </c>
-      <c r="B126" s="97"/>
-      <c r="C126" s="101"/>
-      <c r="D126" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="E126" s="100"/>
-      <c r="F126" s="88"/>
+        <v>120</v>
+      </c>
+      <c r="B126" s="92"/>
+      <c r="C126" s="102"/>
+      <c r="D126" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E126" s="98"/>
+      <c r="F126" s="96"/>
       <c r="G126" s="30"/>
       <c r="H126" s="32"/>
     </row>
     <row r="127" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A127" s="51">
-        <v>118</v>
-      </c>
-      <c r="B127" s="98"/>
-      <c r="C127" s="101"/>
-      <c r="D127" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="E127" s="100"/>
-      <c r="F127" s="89"/>
+        <v>121</v>
+      </c>
+      <c r="B127" s="92"/>
+      <c r="C127" s="102"/>
+      <c r="D127" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E127" s="98"/>
+      <c r="F127" s="96"/>
       <c r="G127" s="30"/>
       <c r="H127" s="32"/>
     </row>
     <row r="128" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A128" s="51">
-        <v>119</v>
-      </c>
-      <c r="B128" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="C128" s="30" t="s">
-        <v>65</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="B128" s="93"/>
+      <c r="C128" s="102"/>
       <c r="D128" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E128" s="25"/>
-      <c r="F128" s="62" t="s">
-        <v>135</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="E128" s="98"/>
+      <c r="F128" s="95"/>
       <c r="G128" s="30"/>
       <c r="H128" s="32"/>
     </row>
     <row r="129" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A129" s="25"/>
-      <c r="B129" s="25"/>
-      <c r="C129" s="102" t="s">
-        <v>67</v>
-      </c>
-      <c r="D129" s="102"/>
+      <c r="A129" s="51">
+        <v>123</v>
+      </c>
+      <c r="B129" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C129" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D129" s="25" t="s">
+        <v>9</v>
+      </c>
       <c r="E129" s="25"/>
-      <c r="F129" s="62"/>
+      <c r="F129" s="62" t="s">
+        <v>73</v>
+      </c>
       <c r="G129" s="30"/>
       <c r="H129" s="32"/>
     </row>
-    <row r="130" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A130" s="31">
-        <v>120</v>
-      </c>
-      <c r="B130" s="96" t="s">
-        <v>95</v>
-      </c>
-      <c r="C130" s="101" t="s">
-        <v>69</v>
-      </c>
-      <c r="D130" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="E130" s="100"/>
-      <c r="F130" s="87" t="s">
-        <v>136</v>
-      </c>
+    <row r="130" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A130" s="25"/>
+      <c r="B130" s="25"/>
+      <c r="C130" s="113" t="s">
+        <v>38</v>
+      </c>
+      <c r="D130" s="113"/>
+      <c r="E130" s="25"/>
+      <c r="F130" s="62"/>
       <c r="G130" s="30"/>
       <c r="H130" s="32"/>
     </row>
     <row r="131" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A131" s="40">
-        <v>121</v>
-      </c>
-      <c r="B131" s="97"/>
-      <c r="C131" s="101"/>
-      <c r="D131" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E131" s="100"/>
-      <c r="F131" s="88"/>
+      <c r="A131" s="31">
+        <v>124</v>
+      </c>
+      <c r="B131" s="91" t="s">
+        <v>282</v>
+      </c>
+      <c r="C131" s="91" t="s">
+        <v>283</v>
+      </c>
+      <c r="D131" s="125" t="s">
+        <v>297</v>
+      </c>
+      <c r="E131" s="98"/>
+      <c r="F131" s="94" t="s">
+        <v>74</v>
+      </c>
       <c r="G131" s="30"/>
       <c r="H131" s="32"/>
     </row>
     <row r="132" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A132" s="82">
-        <v>122</v>
-      </c>
-      <c r="B132" s="98"/>
-      <c r="C132" s="101"/>
-      <c r="D132" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="E132" s="100"/>
-      <c r="F132" s="89"/>
+      <c r="A132" s="40">
+        <v>125</v>
+      </c>
+      <c r="B132" s="92"/>
+      <c r="C132" s="92"/>
+      <c r="D132" s="124" t="s">
+        <v>284</v>
+      </c>
+      <c r="E132" s="98"/>
+      <c r="F132" s="96"/>
       <c r="G132" s="30"/>
       <c r="H132" s="32"/>
     </row>
     <row r="133" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A133" s="82">
-        <v>123</v>
-      </c>
-      <c r="B133" s="96" t="s">
-        <v>96</v>
-      </c>
-      <c r="C133" s="101" t="s">
-        <v>71</v>
-      </c>
-      <c r="D133" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="E133" s="100"/>
-      <c r="F133" s="87" t="s">
-        <v>133</v>
-      </c>
+      <c r="A133" s="83">
+        <v>126</v>
+      </c>
+      <c r="B133" s="93"/>
+      <c r="C133" s="93"/>
+      <c r="D133" s="124" t="s">
+        <v>285</v>
+      </c>
+      <c r="E133" s="98"/>
+      <c r="F133" s="95"/>
       <c r="G133" s="30"/>
       <c r="H133" s="32"/>
     </row>
     <row r="134" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A134" s="87">
-        <v>124</v>
-      </c>
-      <c r="B134" s="97"/>
-      <c r="C134" s="107"/>
-      <c r="D134" s="66" t="s">
+      <c r="A134" s="83">
         <v>127</v>
       </c>
-      <c r="E134" s="99"/>
-      <c r="F134" s="88"/>
-      <c r="G134" s="30"/>
-      <c r="H134" s="32"/>
+      <c r="B134" s="91" t="s">
+        <v>286</v>
+      </c>
+      <c r="C134" s="91" t="s">
+        <v>288</v>
+      </c>
+      <c r="D134" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="E134" s="94"/>
+      <c r="F134" s="94" t="s">
+        <v>313</v>
+      </c>
+      <c r="G134" s="84"/>
+      <c r="H134" s="52"/>
     </row>
     <row r="135" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A135" s="89"/>
-      <c r="B135" s="97"/>
-      <c r="C135" s="107"/>
-      <c r="D135" s="65" t="s">
+      <c r="A135" s="83">
+        <v>128</v>
+      </c>
+      <c r="B135" s="92"/>
+      <c r="C135" s="92"/>
+      <c r="D135" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="E135" s="96"/>
+      <c r="F135" s="96"/>
+      <c r="G135" s="84"/>
+      <c r="H135" s="52"/>
+    </row>
+    <row r="136" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A136" s="83">
+        <v>129</v>
+      </c>
+      <c r="B136" s="93"/>
+      <c r="C136" s="93"/>
+      <c r="D136" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="E136" s="95"/>
+      <c r="F136" s="95"/>
+      <c r="G136" s="84"/>
+      <c r="H136" s="52"/>
+    </row>
+    <row r="137" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A137" s="83">
         <v>130</v>
       </c>
-      <c r="E135" s="99"/>
-      <c r="F135" s="88"/>
-      <c r="G135" s="39"/>
-      <c r="H135" s="52"/>
-    </row>
-    <row r="136" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A136" s="31">
-        <v>125</v>
-      </c>
-      <c r="B136" s="97"/>
-      <c r="C136" s="101"/>
-      <c r="D136" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="E136" s="100"/>
-      <c r="F136" s="88"/>
-      <c r="G136" s="30"/>
-      <c r="H136" s="32"/>
-    </row>
-    <row r="137" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A137" s="31">
-        <v>126</v>
-      </c>
-      <c r="B137" s="98"/>
-      <c r="C137" s="101"/>
-      <c r="D137" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="E137" s="100"/>
-      <c r="F137" s="89"/>
+      <c r="B137" s="91" t="s">
+        <v>298</v>
+      </c>
+      <c r="C137" s="102" t="s">
+        <v>291</v>
+      </c>
+      <c r="D137" s="66" t="s">
+        <v>292</v>
+      </c>
+      <c r="E137" s="98"/>
+      <c r="F137" s="94" t="s">
+        <v>71</v>
+      </c>
       <c r="G137" s="30"/>
       <c r="H137" s="32"/>
     </row>
     <row r="138" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A138" s="25"/>
-      <c r="B138" s="25"/>
-      <c r="C138" s="102" t="s">
-        <v>26</v>
-      </c>
-      <c r="D138" s="102"/>
-      <c r="E138" s="25"/>
-      <c r="F138" s="62"/>
+      <c r="A138" s="83">
+        <v>131</v>
+      </c>
+      <c r="B138" s="92"/>
+      <c r="C138" s="101"/>
+      <c r="D138" s="66" t="s">
+        <v>293</v>
+      </c>
+      <c r="E138" s="108"/>
+      <c r="F138" s="96"/>
       <c r="G138" s="30"/>
       <c r="H138" s="32"/>
     </row>
     <row r="139" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A139" s="31">
-        <v>127</v>
-      </c>
-      <c r="B139" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="C139" s="30" t="s">
-        <v>22</v>
-      </c>
+      <c r="A139" s="83">
+        <v>132</v>
+      </c>
+      <c r="B139" s="92"/>
+      <c r="C139" s="101"/>
       <c r="D139" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="E139" s="25"/>
-      <c r="F139" s="62" t="s">
-        <v>136</v>
-      </c>
-      <c r="G139" s="30"/>
-      <c r="H139" s="32"/>
+        <v>296</v>
+      </c>
+      <c r="E139" s="108"/>
+      <c r="F139" s="96"/>
+      <c r="G139" s="39"/>
+      <c r="H139" s="52"/>
     </row>
     <row r="140" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A140" s="31">
-        <v>128</v>
-      </c>
-      <c r="B140" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="C140" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="D140" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="E140" s="25"/>
-      <c r="F140" s="62" t="s">
+      <c r="A140" s="83">
         <v>133</v>
       </c>
+      <c r="B140" s="92"/>
+      <c r="C140" s="102"/>
+      <c r="D140" s="65" t="s">
+        <v>294</v>
+      </c>
+      <c r="E140" s="98"/>
+      <c r="F140" s="96"/>
       <c r="G140" s="30"/>
       <c r="H140" s="32"/>
     </row>
     <row r="141" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A141" s="87">
-        <v>129</v>
-      </c>
-      <c r="B141" s="96" t="s">
-        <v>99</v>
-      </c>
-      <c r="C141" s="101" t="s">
-        <v>68</v>
-      </c>
+      <c r="A141" s="83">
+        <v>134</v>
+      </c>
+      <c r="B141" s="93"/>
+      <c r="C141" s="102"/>
       <c r="D141" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="E141" s="100"/>
-      <c r="F141" s="87" t="s">
-        <v>133</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="E141" s="98"/>
+      <c r="F141" s="95"/>
       <c r="G141" s="30"/>
       <c r="H141" s="32"/>
     </row>
     <row r="142" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A142" s="89"/>
-      <c r="B142" s="98"/>
-      <c r="C142" s="101"/>
-      <c r="D142" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="E142" s="100"/>
-      <c r="F142" s="89"/>
-      <c r="G142" s="30"/>
-      <c r="H142" s="32"/>
+      <c r="A142" s="83">
+        <v>135</v>
+      </c>
+      <c r="B142" s="91" t="s">
+        <v>303</v>
+      </c>
+      <c r="C142" s="91" t="s">
+        <v>299</v>
+      </c>
+      <c r="D142" s="126" t="s">
+        <v>302</v>
+      </c>
+      <c r="E142" s="94"/>
+      <c r="F142" s="94" t="s">
+        <v>314</v>
+      </c>
+      <c r="G142" s="84"/>
+      <c r="H142" s="52"/>
     </row>
     <row r="143" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A143" s="31">
-        <v>130</v>
-      </c>
-      <c r="B143" s="96" t="s">
-        <v>100</v>
-      </c>
-      <c r="C143" s="101" t="s">
-        <v>23</v>
-      </c>
-      <c r="D143" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E143" s="100"/>
-      <c r="F143" s="87" t="s">
-        <v>133</v>
-      </c>
-      <c r="G143" s="30"/>
-      <c r="H143" s="32"/>
+      <c r="A143" s="83">
+        <v>136</v>
+      </c>
+      <c r="B143" s="92"/>
+      <c r="C143" s="92"/>
+      <c r="D143" s="126" t="s">
+        <v>300</v>
+      </c>
+      <c r="E143" s="96"/>
+      <c r="F143" s="96"/>
+      <c r="G143" s="84"/>
+      <c r="H143" s="52"/>
     </row>
     <row r="144" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A144" s="31">
-        <v>131</v>
-      </c>
-      <c r="B144" s="98"/>
-      <c r="C144" s="101"/>
-      <c r="D144" s="66" t="s">
-        <v>76</v>
-      </c>
-      <c r="E144" s="100"/>
-      <c r="F144" s="89"/>
-      <c r="G144" s="30"/>
-      <c r="H144" s="32"/>
+      <c r="A144" s="83">
+        <v>137</v>
+      </c>
+      <c r="B144" s="93"/>
+      <c r="C144" s="93"/>
+      <c r="D144" s="126" t="s">
+        <v>301</v>
+      </c>
+      <c r="E144" s="95"/>
+      <c r="F144" s="95"/>
+      <c r="G144" s="84"/>
+      <c r="H144" s="52"/>
     </row>
     <row r="145" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A145" s="87">
-        <v>132</v>
-      </c>
-      <c r="B145" s="96" t="s">
-        <v>119</v>
-      </c>
-      <c r="C145" s="107" t="s">
-        <v>29</v>
-      </c>
-      <c r="D145" s="66" t="s">
-        <v>128</v>
-      </c>
-      <c r="E145" s="99"/>
-      <c r="F145" s="87" t="s">
-        <v>133</v>
-      </c>
-      <c r="G145" s="30"/>
-      <c r="H145" s="32"/>
+      <c r="A145" s="83">
+        <v>138</v>
+      </c>
+      <c r="B145" s="91" t="s">
+        <v>305</v>
+      </c>
+      <c r="C145" s="91" t="s">
+        <v>304</v>
+      </c>
+      <c r="D145" s="126" t="s">
+        <v>306</v>
+      </c>
+      <c r="E145" s="94"/>
+      <c r="F145" s="94" t="s">
+        <v>271</v>
+      </c>
+      <c r="G145" s="84"/>
+      <c r="H145" s="52"/>
     </row>
     <row r="146" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A146" s="89"/>
-      <c r="B146" s="97"/>
-      <c r="C146" s="107"/>
-      <c r="D146" s="65" t="s">
-        <v>129</v>
-      </c>
-      <c r="E146" s="99"/>
-      <c r="F146" s="88"/>
-      <c r="G146" s="39"/>
+      <c r="A146" s="83">
+        <v>139</v>
+      </c>
+      <c r="B146" s="93"/>
+      <c r="C146" s="93"/>
+      <c r="D146" s="126" t="s">
+        <v>307</v>
+      </c>
+      <c r="E146" s="95"/>
+      <c r="F146" s="95"/>
+      <c r="G146" s="84"/>
       <c r="H146" s="52"/>
     </row>
     <row r="147" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A147" s="87">
-        <v>133</v>
-      </c>
-      <c r="B147" s="97"/>
-      <c r="C147" s="101"/>
-      <c r="D147" s="65" t="s">
-        <v>8</v>
-      </c>
-      <c r="E147" s="100"/>
-      <c r="F147" s="88"/>
+      <c r="A147" s="25"/>
+      <c r="B147" s="25"/>
+      <c r="C147" s="111" t="s">
+        <v>13</v>
+      </c>
+      <c r="D147" s="112"/>
+      <c r="E147" s="25"/>
+      <c r="F147" s="62"/>
       <c r="G147" s="30"/>
       <c r="H147" s="32"/>
     </row>
     <row r="148" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A148" s="88"/>
-      <c r="B148" s="97"/>
-      <c r="C148" s="101"/>
+      <c r="A148" s="94">
+        <v>140</v>
+      </c>
+      <c r="B148" s="91" t="s">
+        <v>253</v>
+      </c>
+      <c r="C148" s="91" t="s">
+        <v>251</v>
+      </c>
       <c r="D148" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="E148" s="100"/>
-      <c r="F148" s="88"/>
+        <v>245</v>
+      </c>
+      <c r="E148" s="25"/>
+      <c r="F148" s="62" t="s">
+        <v>74</v>
+      </c>
       <c r="G148" s="30"/>
       <c r="H148" s="32"/>
     </row>
     <row r="149" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A149" s="88"/>
-      <c r="B149" s="97"/>
-      <c r="C149" s="101"/>
+      <c r="A149" s="95"/>
+      <c r="B149" s="93"/>
+      <c r="C149" s="93"/>
       <c r="D149" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="E149" s="100"/>
-      <c r="F149" s="88"/>
-      <c r="G149" s="30"/>
-      <c r="H149" s="32"/>
-    </row>
-    <row r="150" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A150" s="88"/>
-      <c r="B150" s="97"/>
-      <c r="C150" s="101"/>
+        <v>252</v>
+      </c>
+      <c r="E149" s="25"/>
+      <c r="F149" s="83" t="s">
+        <v>271</v>
+      </c>
+      <c r="G149" s="84"/>
+      <c r="H149" s="52"/>
+    </row>
+    <row r="150" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A150" s="80">
+        <v>141</v>
+      </c>
+      <c r="B150" s="82" t="s">
+        <v>254</v>
+      </c>
+      <c r="C150" s="82" t="s">
+        <v>255</v>
+      </c>
       <c r="D150" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="E150" s="100"/>
-      <c r="F150" s="88"/>
-      <c r="G150" s="30"/>
-      <c r="H150" s="32"/>
-    </row>
-    <row r="151" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A151" s="88"/>
-      <c r="B151" s="97"/>
-      <c r="C151" s="101"/>
+        <v>256</v>
+      </c>
+      <c r="E150" s="25"/>
+      <c r="F150" s="83" t="s">
+        <v>313</v>
+      </c>
+      <c r="G150" s="84"/>
+      <c r="H150" s="52"/>
+    </row>
+    <row r="151" spans="1:8" s="42" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A151" s="31">
+        <v>142</v>
+      </c>
+      <c r="B151" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="C151" s="30" t="s">
+        <v>246</v>
+      </c>
       <c r="D151" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="E151" s="100"/>
-      <c r="F151" s="88"/>
+        <v>312</v>
+      </c>
+      <c r="E151" s="25"/>
+      <c r="F151" s="62" t="s">
+        <v>71</v>
+      </c>
       <c r="G151" s="30"/>
       <c r="H151" s="32"/>
     </row>
-    <row r="152" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A152" s="89"/>
-      <c r="B152" s="98"/>
-      <c r="C152" s="101"/>
+    <row r="152" spans="1:8" s="42" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A152" s="79">
+        <v>143</v>
+      </c>
+      <c r="B152" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="C152" s="84" t="s">
+        <v>247</v>
+      </c>
       <c r="D152" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="E152" s="100"/>
-      <c r="F152" s="89"/>
+        <v>248</v>
+      </c>
+      <c r="E152" s="83"/>
+      <c r="F152" s="79" t="s">
+        <v>71</v>
+      </c>
       <c r="G152" s="30"/>
       <c r="H152" s="32"/>
     </row>
-    <row r="153" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A153" s="87">
-        <v>134</v>
-      </c>
-      <c r="B153" s="96" t="s">
-        <v>120</v>
-      </c>
-      <c r="C153" s="101" t="s">
-        <v>27</v>
+    <row r="153" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A153" s="31">
+        <v>144</v>
+      </c>
+      <c r="B153" s="91" t="s">
+        <v>52</v>
+      </c>
+      <c r="C153" s="102" t="s">
+        <v>249</v>
       </c>
       <c r="D153" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E153" s="100"/>
-      <c r="F153" s="87" t="s">
-        <v>135</v>
+        <v>250</v>
+      </c>
+      <c r="E153" s="98"/>
+      <c r="F153" s="94" t="s">
+        <v>71</v>
       </c>
       <c r="G153" s="30"/>
       <c r="H153" s="32"/>
     </row>
-    <row r="154" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A154" s="89"/>
-      <c r="B154" s="98"/>
-      <c r="C154" s="101"/>
-      <c r="D154" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="E154" s="100"/>
-      <c r="F154" s="89"/>
+    <row r="154" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A154" s="31">
+        <v>145</v>
+      </c>
+      <c r="B154" s="93"/>
+      <c r="C154" s="102"/>
+      <c r="D154" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="E154" s="98"/>
+      <c r="F154" s="95"/>
       <c r="G154" s="30"/>
       <c r="H154" s="32"/>
     </row>
-    <row r="155" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A155" s="22"/>
-      <c r="B155" s="30"/>
-      <c r="C155" s="102" t="s">
-        <v>56</v>
-      </c>
-      <c r="D155" s="102"/>
-      <c r="E155" s="22"/>
-      <c r="F155" s="62"/>
+    <row r="155" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A155" s="94">
+        <v>146</v>
+      </c>
+      <c r="B155" s="91" t="s">
+        <v>308</v>
+      </c>
+      <c r="C155" s="101" t="s">
+        <v>258</v>
+      </c>
+      <c r="D155" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="E155" s="108"/>
+      <c r="F155" s="94" t="s">
+        <v>71</v>
+      </c>
       <c r="G155" s="30"/>
       <c r="H155" s="32"/>
     </row>
-    <row r="156" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A156" s="31">
-        <v>135</v>
-      </c>
-      <c r="B156" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="C156" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="D156" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E156" s="25"/>
-      <c r="F156" s="62" t="s">
-        <v>137</v>
-      </c>
-      <c r="G156" s="30"/>
-      <c r="H156" s="32"/>
-    </row>
-    <row r="157" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A157" s="31">
-        <v>136</v>
-      </c>
-      <c r="B157" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="C157" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="D157" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="E157" s="25"/>
-      <c r="F157" s="62" t="s">
-        <v>133</v>
-      </c>
+    <row r="156" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A156" s="96"/>
+      <c r="B156" s="92"/>
+      <c r="C156" s="101"/>
+      <c r="D156" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E156" s="108"/>
+      <c r="F156" s="96"/>
+      <c r="G156" s="39"/>
+      <c r="H156" s="52"/>
+    </row>
+    <row r="157" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A157" s="96"/>
+      <c r="B157" s="92"/>
+      <c r="C157" s="102"/>
+      <c r="D157" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="E157" s="98"/>
+      <c r="F157" s="96"/>
       <c r="G157" s="30"/>
       <c r="H157" s="32"/>
     </row>
-    <row r="158" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A158" s="82">
-        <v>137</v>
-      </c>
-      <c r="B158" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C158" s="30" t="s">
-        <v>54</v>
-      </c>
+    <row r="158" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A158" s="96"/>
+      <c r="B158" s="92"/>
+      <c r="C158" s="102"/>
       <c r="D158" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E158" s="25"/>
-      <c r="F158" s="62" t="s">
-        <v>133</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="E158" s="98"/>
+      <c r="F158" s="96"/>
       <c r="G158" s="30"/>
       <c r="H158" s="32"/>
     </row>
-    <row r="159" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A159" s="82">
-        <v>138</v>
-      </c>
-      <c r="B159" s="96" t="s">
-        <v>124</v>
-      </c>
-      <c r="C159" s="101" t="s">
-        <v>24</v>
-      </c>
+    <row r="159" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A159" s="96"/>
+      <c r="B159" s="92"/>
+      <c r="C159" s="102"/>
       <c r="D159" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="E159" s="100"/>
-      <c r="F159" s="87" t="s">
-        <v>138</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="E159" s="98"/>
+      <c r="F159" s="96"/>
       <c r="G159" s="30"/>
       <c r="H159" s="32"/>
     </row>
     <row r="160" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A160" s="82">
-        <v>139</v>
-      </c>
-      <c r="B160" s="97"/>
-      <c r="C160" s="101"/>
+      <c r="A160" s="96"/>
+      <c r="B160" s="92"/>
+      <c r="C160" s="102"/>
       <c r="D160" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="E160" s="100"/>
-      <c r="F160" s="88"/>
+        <v>58</v>
+      </c>
+      <c r="E160" s="98"/>
+      <c r="F160" s="96"/>
       <c r="G160" s="30"/>
       <c r="H160" s="32"/>
     </row>
     <row r="161" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A161" s="82">
-        <v>140</v>
-      </c>
-      <c r="B161" s="97"/>
-      <c r="C161" s="101"/>
+      <c r="A161" s="96"/>
+      <c r="B161" s="92"/>
+      <c r="C161" s="102"/>
       <c r="D161" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="E161" s="100"/>
-      <c r="F161" s="88"/>
+        <v>330</v>
+      </c>
+      <c r="E161" s="98"/>
+      <c r="F161" s="96"/>
       <c r="G161" s="30"/>
       <c r="H161" s="32"/>
     </row>
     <row r="162" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A162" s="82">
-        <v>141</v>
-      </c>
-      <c r="B162" s="98"/>
-      <c r="C162" s="101"/>
+      <c r="A162" s="95"/>
+      <c r="B162" s="93"/>
+      <c r="C162" s="102"/>
       <c r="D162" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="E162" s="100"/>
-      <c r="F162" s="89"/>
+        <v>59</v>
+      </c>
+      <c r="E162" s="98"/>
+      <c r="F162" s="95"/>
       <c r="G162" s="30"/>
       <c r="H162" s="32"/>
     </row>
-    <row r="163" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A163" s="53"/>
-      <c r="B163" s="54"/>
-      <c r="C163" s="55"/>
-      <c r="D163" s="56"/>
-      <c r="E163" s="56"/>
-      <c r="F163" s="53"/>
-      <c r="G163" s="54"/>
-      <c r="H163" s="54"/>
-    </row>
-    <row r="164" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A164" s="53"/>
-      <c r="B164" s="54"/>
-      <c r="C164" s="55"/>
-      <c r="D164" s="56"/>
-      <c r="E164" s="56"/>
-      <c r="F164" s="53"/>
-      <c r="G164" s="54"/>
-      <c r="H164" s="54"/>
-    </row>
-    <row r="165" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A165" s="53"/>
-      <c r="B165" s="54"/>
-      <c r="C165" s="55"/>
-      <c r="D165" s="56"/>
-      <c r="E165" s="56"/>
-      <c r="F165" s="53"/>
-      <c r="G165" s="54"/>
-      <c r="H165" s="54"/>
-    </row>
-    <row r="166" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A166" s="53"/>
-      <c r="B166" s="54"/>
-      <c r="C166" s="55"/>
-      <c r="D166" s="56"/>
-      <c r="E166" s="56"/>
-      <c r="F166" s="53"/>
-      <c r="G166" s="54"/>
-      <c r="H166" s="54"/>
-    </row>
-    <row r="167" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A167" s="53"/>
-      <c r="B167" s="54"/>
-      <c r="C167" s="55"/>
-      <c r="D167" s="56"/>
-      <c r="E167" s="56"/>
-      <c r="F167" s="53"/>
-      <c r="G167" s="54"/>
-      <c r="H167" s="54"/>
-    </row>
-    <row r="168" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A168" s="53"/>
-      <c r="B168" s="54"/>
-      <c r="C168" s="55"/>
-      <c r="D168" s="56"/>
-      <c r="E168" s="56"/>
-      <c r="F168" s="53"/>
-      <c r="G168" s="54"/>
-      <c r="H168" s="54"/>
-    </row>
-    <row r="169" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A169" s="53"/>
-      <c r="B169" s="54"/>
-      <c r="C169" s="55"/>
-      <c r="D169" s="57"/>
-      <c r="E169" s="56"/>
-      <c r="F169" s="53"/>
-      <c r="G169" s="54"/>
-      <c r="H169" s="54"/>
-    </row>
-    <row r="170" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A170" s="53"/>
-      <c r="B170" s="54"/>
-      <c r="C170" s="55"/>
-      <c r="D170" s="56"/>
-      <c r="E170" s="56"/>
-      <c r="F170" s="53"/>
-      <c r="G170" s="54"/>
-      <c r="H170" s="54"/>
-    </row>
-    <row r="171" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A171" s="53"/>
-      <c r="B171" s="54"/>
-      <c r="C171" s="55"/>
-      <c r="D171" s="59"/>
-      <c r="E171" s="56"/>
-      <c r="F171" s="53"/>
-      <c r="G171" s="54"/>
-      <c r="H171" s="54"/>
-    </row>
-    <row r="172" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A172" s="53"/>
-      <c r="B172" s="54"/>
-      <c r="C172" s="55"/>
-      <c r="D172" s="60"/>
-      <c r="E172" s="56"/>
-      <c r="F172" s="53"/>
-      <c r="G172" s="54"/>
-      <c r="H172" s="54"/>
-    </row>
-    <row r="173" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A173" s="53"/>
-      <c r="B173" s="54"/>
-      <c r="C173" s="55"/>
-      <c r="D173" s="55"/>
-      <c r="E173" s="56"/>
-      <c r="F173" s="53"/>
-      <c r="G173" s="54"/>
-      <c r="H173" s="54"/>
-    </row>
-    <row r="174" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A174" s="53"/>
-      <c r="B174" s="54"/>
-      <c r="C174" s="55"/>
-      <c r="D174" s="56"/>
-      <c r="E174" s="56"/>
-      <c r="F174" s="53"/>
-      <c r="G174" s="54"/>
-      <c r="H174" s="54"/>
-    </row>
-    <row r="175" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A175" s="53"/>
-      <c r="B175" s="54"/>
-      <c r="C175" s="55"/>
-      <c r="D175" s="55"/>
-      <c r="E175" s="56"/>
-      <c r="F175" s="53"/>
-      <c r="G175" s="54"/>
-      <c r="H175" s="54"/>
-    </row>
-    <row r="176" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A176" s="53"/>
-      <c r="B176" s="54"/>
-      <c r="C176" s="55"/>
-      <c r="D176" s="55"/>
-      <c r="E176" s="56"/>
-      <c r="F176" s="53"/>
-      <c r="G176" s="54"/>
-      <c r="H176" s="54"/>
-    </row>
-    <row r="177" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A177" s="53"/>
-      <c r="B177" s="54"/>
-      <c r="C177" s="58"/>
-      <c r="D177" s="56"/>
-      <c r="E177" s="53"/>
-      <c r="F177" s="53"/>
-      <c r="G177" s="54"/>
-      <c r="H177" s="54"/>
-    </row>
-    <row r="178" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A178" s="55"/>
-      <c r="B178" s="55"/>
-      <c r="C178" s="55"/>
-      <c r="D178" s="61"/>
-      <c r="E178" s="55"/>
-      <c r="F178" s="58"/>
-      <c r="G178" s="55"/>
-      <c r="H178" s="55"/>
+    <row r="163" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A163" s="94">
+        <v>147</v>
+      </c>
+      <c r="B163" s="91" t="s">
+        <v>309</v>
+      </c>
+      <c r="C163" s="102" t="s">
+        <v>310</v>
+      </c>
+      <c r="D163" s="25" t="s">
+        <v>311</v>
+      </c>
+      <c r="E163" s="98"/>
+      <c r="F163" s="94" t="s">
+        <v>73</v>
+      </c>
+      <c r="G163" s="30"/>
+      <c r="H163" s="32"/>
+    </row>
+    <row r="164" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A164" s="95"/>
+      <c r="B164" s="93"/>
+      <c r="C164" s="102"/>
+      <c r="D164" s="127" t="s">
+        <v>315</v>
+      </c>
+      <c r="E164" s="98"/>
+      <c r="F164" s="95"/>
+      <c r="G164" s="30"/>
+      <c r="H164" s="32"/>
+    </row>
+    <row r="165" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A165" s="22"/>
+      <c r="B165" s="30"/>
+      <c r="C165" s="111" t="s">
+        <v>33</v>
+      </c>
+      <c r="D165" s="112"/>
+      <c r="E165" s="22"/>
+      <c r="F165" s="62"/>
+      <c r="G165" s="30"/>
+      <c r="H165" s="32"/>
+    </row>
+    <row r="166" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A166" s="31">
+        <v>148</v>
+      </c>
+      <c r="B166" s="30" t="s">
+        <v>320</v>
+      </c>
+      <c r="C166" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="D166" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="E166" s="25"/>
+      <c r="F166" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="G166" s="30"/>
+      <c r="H166" s="32"/>
+    </row>
+    <row r="167" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A167" s="31">
+        <v>149</v>
+      </c>
+      <c r="B167" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="C167" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="D167" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="E167" s="25"/>
+      <c r="F167" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="G167" s="30"/>
+      <c r="H167" s="32"/>
+    </row>
+    <row r="168" spans="1:8" s="43" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A168" s="77">
+        <v>150</v>
+      </c>
+      <c r="B168" s="30" t="s">
+        <v>322</v>
+      </c>
+      <c r="C168" s="30" t="s">
+        <v>323</v>
+      </c>
+      <c r="D168" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="E168" s="25"/>
+      <c r="F168" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="G168" s="30"/>
+      <c r="H168" s="32"/>
+    </row>
+    <row r="169" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A169" s="77">
+        <v>151</v>
+      </c>
+      <c r="B169" s="91" t="s">
+        <v>327</v>
+      </c>
+      <c r="C169" s="102" t="s">
+        <v>325</v>
+      </c>
+      <c r="D169" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="E169" s="98"/>
+      <c r="F169" s="94" t="s">
+        <v>76</v>
+      </c>
+      <c r="G169" s="30"/>
+      <c r="H169" s="32"/>
+    </row>
+    <row r="170" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A170" s="77">
+        <v>152</v>
+      </c>
+      <c r="B170" s="92"/>
+      <c r="C170" s="102"/>
+      <c r="D170" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="E170" s="98"/>
+      <c r="F170" s="96"/>
+      <c r="G170" s="30"/>
+      <c r="H170" s="32"/>
+    </row>
+    <row r="171" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A171" s="77">
+        <v>153</v>
+      </c>
+      <c r="B171" s="92"/>
+      <c r="C171" s="102"/>
+      <c r="D171" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="E171" s="98"/>
+      <c r="F171" s="96"/>
+      <c r="G171" s="30"/>
+      <c r="H171" s="32"/>
+    </row>
+    <row r="172" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A172" s="77">
+        <v>154</v>
+      </c>
+      <c r="B172" s="93"/>
+      <c r="C172" s="102"/>
+      <c r="D172" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="E172" s="98"/>
+      <c r="F172" s="95"/>
+      <c r="G172" s="30"/>
+      <c r="H172" s="32"/>
+    </row>
+    <row r="173" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A173" s="83"/>
+      <c r="B173" s="84"/>
+      <c r="C173" s="111" t="s">
+        <v>326</v>
+      </c>
+      <c r="D173" s="112"/>
+      <c r="E173" s="83"/>
+      <c r="F173" s="83"/>
+      <c r="G173" s="84"/>
+      <c r="H173" s="52"/>
+    </row>
+    <row r="174" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A174" s="83">
+        <v>155</v>
+      </c>
+      <c r="B174" s="91" t="s">
+        <v>268</v>
+      </c>
+      <c r="C174" s="91" t="s">
+        <v>269</v>
+      </c>
+      <c r="D174" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="E174" s="94"/>
+      <c r="F174" s="94" t="s">
+        <v>271</v>
+      </c>
+      <c r="G174" s="84"/>
+      <c r="H174" s="52"/>
+    </row>
+    <row r="175" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A175" s="51">
+        <v>156</v>
+      </c>
+      <c r="B175" s="92"/>
+      <c r="C175" s="92"/>
+      <c r="D175" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E175" s="96"/>
+      <c r="F175" s="96"/>
+      <c r="G175" s="84"/>
+      <c r="H175" s="52"/>
+    </row>
+    <row r="176" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A176" s="51">
+        <v>157</v>
+      </c>
+      <c r="B176" s="93"/>
+      <c r="C176" s="93"/>
+      <c r="D176" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E176" s="95"/>
+      <c r="F176" s="95"/>
+      <c r="G176" s="84"/>
+      <c r="H176" s="52"/>
+    </row>
+    <row r="177" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A177" s="83"/>
+      <c r="B177" s="84"/>
+      <c r="C177" s="111" t="s">
+        <v>273</v>
+      </c>
+      <c r="D177" s="112"/>
+      <c r="E177" s="83"/>
+      <c r="F177" s="83"/>
+      <c r="G177" s="84"/>
+      <c r="H177" s="52"/>
+    </row>
+    <row r="178" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A178" s="83">
+        <v>158</v>
+      </c>
+      <c r="B178" s="84" t="s">
+        <v>274</v>
+      </c>
+      <c r="C178" s="84" t="s">
+        <v>275</v>
+      </c>
+      <c r="D178" s="25" t="s">
+        <v>281</v>
+      </c>
+      <c r="E178" s="94"/>
+      <c r="F178" s="83" t="s">
+        <v>271</v>
+      </c>
+      <c r="G178" s="84"/>
+      <c r="H178" s="52"/>
     </row>
     <row r="179" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="C179" s="55"/>
-      <c r="D179" s="45"/>
-      <c r="F179" s="67"/>
+      <c r="A179" s="117">
+        <v>159</v>
+      </c>
+      <c r="B179" s="122" t="s">
+        <v>277</v>
+      </c>
+      <c r="C179" s="120" t="s">
+        <v>276</v>
+      </c>
+      <c r="D179" s="119" t="s">
+        <v>278</v>
+      </c>
+      <c r="E179" s="96"/>
+      <c r="F179" s="117" t="s">
+        <v>271</v>
+      </c>
+      <c r="G179" s="118"/>
+      <c r="H179" s="118"/>
     </row>
     <row r="180" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="C180" s="55"/>
-      <c r="D180" s="45"/>
-      <c r="F180" s="67"/>
+      <c r="A180" s="83">
+        <v>160</v>
+      </c>
+      <c r="B180" s="123"/>
+      <c r="C180" s="121"/>
+      <c r="D180" s="119" t="s">
+        <v>279</v>
+      </c>
+      <c r="E180" s="95"/>
+      <c r="F180" s="117" t="s">
+        <v>280</v>
+      </c>
+      <c r="G180" s="118"/>
+      <c r="H180" s="118"/>
     </row>
     <row r="181" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="A181" s="53"/>
+      <c r="B181" s="54"/>
       <c r="C181" s="55"/>
-      <c r="D181" s="45"/>
-      <c r="F181" s="67"/>
+      <c r="D181" s="57"/>
+      <c r="E181" s="56"/>
+      <c r="F181" s="53"/>
+      <c r="G181" s="54"/>
+      <c r="H181" s="54"/>
     </row>
     <row r="182" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="A182" s="53"/>
+      <c r="B182" s="54"/>
       <c r="C182" s="55"/>
-      <c r="D182" s="45"/>
-      <c r="F182" s="67"/>
+      <c r="D182" s="56"/>
+      <c r="E182" s="56"/>
+      <c r="F182" s="53"/>
+      <c r="G182" s="54"/>
+      <c r="H182" s="54"/>
     </row>
     <row r="183" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="D183" s="45"/>
-      <c r="F183" s="67"/>
+      <c r="A183" s="53"/>
+      <c r="B183" s="54"/>
+      <c r="C183" s="55"/>
+      <c r="D183" s="59"/>
+      <c r="E183" s="56"/>
+      <c r="F183" s="53"/>
+      <c r="G183" s="54"/>
+      <c r="H183" s="54"/>
     </row>
     <row r="184" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="D184" s="45"/>
-      <c r="F184" s="67"/>
+      <c r="A184" s="53"/>
+      <c r="B184" s="54"/>
+      <c r="C184" s="55"/>
+      <c r="D184" s="60"/>
+      <c r="E184" s="56"/>
+      <c r="F184" s="53"/>
+      <c r="G184" s="54"/>
+      <c r="H184" s="54"/>
     </row>
     <row r="185" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="D185" s="45"/>
-      <c r="F185" s="67"/>
-    </row>
-    <row r="186" spans="1:8" s="44" customFormat="1" ht="26.25" customHeight="1">
-      <c r="D186" s="45"/>
-      <c r="F186" s="67"/>
-    </row>
-    <row r="187" spans="1:8" s="44" customFormat="1" ht="26.25" customHeight="1">
-      <c r="D187" s="45"/>
-      <c r="F187" s="67"/>
-    </row>
-    <row r="188" spans="1:8" s="44" customFormat="1" ht="26.25" customHeight="1">
-      <c r="D188" s="45"/>
-      <c r="F188" s="67"/>
-    </row>
-    <row r="189" spans="1:8" s="44" customFormat="1" ht="26.25" customHeight="1">
-      <c r="D189" s="45"/>
-      <c r="F189" s="67"/>
-    </row>
-    <row r="190" spans="1:8" s="44" customFormat="1" ht="26.25" customHeight="1">
-      <c r="D190" s="45"/>
-      <c r="F190" s="67"/>
-    </row>
-    <row r="191" spans="1:8" s="44" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A185" s="53"/>
+      <c r="B185" s="54"/>
+      <c r="C185" s="55"/>
+      <c r="D185" s="55"/>
+      <c r="E185" s="56"/>
+      <c r="F185" s="53"/>
+      <c r="G185" s="54"/>
+      <c r="H185" s="54"/>
+    </row>
+    <row r="186" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="A186" s="53"/>
+      <c r="B186" s="54"/>
+      <c r="C186" s="55"/>
+      <c r="D186" s="56"/>
+      <c r="E186" s="56"/>
+      <c r="F186" s="53"/>
+      <c r="G186" s="54"/>
+      <c r="H186" s="54"/>
+    </row>
+    <row r="187" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="A187" s="53"/>
+      <c r="B187" s="54"/>
+      <c r="C187" s="55"/>
+      <c r="D187" s="55"/>
+      <c r="E187" s="56"/>
+      <c r="F187" s="53"/>
+      <c r="G187" s="54"/>
+      <c r="H187" s="54"/>
+    </row>
+    <row r="188" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="A188" s="53"/>
+      <c r="B188" s="54"/>
+      <c r="C188" s="55"/>
+      <c r="D188" s="55"/>
+      <c r="E188" s="56"/>
+      <c r="F188" s="53"/>
+      <c r="G188" s="54"/>
+      <c r="H188" s="54"/>
+    </row>
+    <row r="189" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="A189" s="53"/>
+      <c r="B189" s="54"/>
+      <c r="C189" s="58"/>
+      <c r="D189" s="56"/>
+      <c r="E189" s="53"/>
+      <c r="F189" s="53"/>
+      <c r="G189" s="54"/>
+      <c r="H189" s="54"/>
+    </row>
+    <row r="190" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="A190" s="55"/>
+      <c r="B190" s="55"/>
+      <c r="C190" s="55"/>
+      <c r="D190" s="61"/>
+      <c r="E190" s="55"/>
+      <c r="F190" s="58"/>
+      <c r="G190" s="55"/>
+      <c r="H190" s="55"/>
+    </row>
+    <row r="191" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="C191" s="55"/>
       <c r="D191" s="45"/>
       <c r="F191" s="67"/>
     </row>
-    <row r="192" spans="1:8" s="46" customFormat="1" ht="26.25" customHeight="1">
-      <c r="D192" s="47"/>
-      <c r="F192" s="68"/>
-    </row>
-    <row r="193" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
+    <row r="192" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="C192" s="55"/>
+      <c r="D192" s="45"/>
+      <c r="F192" s="67"/>
+    </row>
+    <row r="193" spans="3:6" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="C193" s="55"/>
       <c r="D193" s="45"/>
       <c r="F193" s="67"/>
     </row>
-    <row r="194" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
+    <row r="194" spans="3:6" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="C194" s="55"/>
       <c r="D194" s="45"/>
       <c r="F194" s="67"/>
     </row>
-    <row r="195" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
+    <row r="195" spans="3:6" s="44" customFormat="1" ht="18" customHeight="1">
       <c r="D195" s="45"/>
       <c r="F195" s="67"/>
     </row>
+    <row r="196" spans="3:6" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="D196" s="45"/>
+      <c r="F196" s="67"/>
+    </row>
+    <row r="197" spans="3:6" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="D197" s="45"/>
+      <c r="F197" s="67"/>
+    </row>
+    <row r="198" spans="3:6" s="44" customFormat="1" ht="26.25" customHeight="1">
+      <c r="D198" s="45"/>
+      <c r="F198" s="67"/>
+    </row>
+    <row r="199" spans="3:6" s="44" customFormat="1" ht="26.25" customHeight="1">
+      <c r="D199" s="45"/>
+      <c r="F199" s="67"/>
+    </row>
+    <row r="200" spans="3:6" s="44" customFormat="1" ht="26.25" customHeight="1">
+      <c r="D200" s="45"/>
+      <c r="F200" s="67"/>
+    </row>
+    <row r="201" spans="3:6" s="44" customFormat="1" ht="26.25" customHeight="1">
+      <c r="D201" s="45"/>
+      <c r="F201" s="67"/>
+    </row>
+    <row r="202" spans="3:6" s="44" customFormat="1" ht="26.25" customHeight="1">
+      <c r="D202" s="45"/>
+      <c r="F202" s="67"/>
+    </row>
+    <row r="203" spans="3:6" s="44" customFormat="1" ht="26.25" customHeight="1">
+      <c r="D203" s="45"/>
+      <c r="F203" s="67"/>
+    </row>
+    <row r="204" spans="3:6" s="46" customFormat="1" ht="26.25" customHeight="1">
+      <c r="D204" s="47"/>
+      <c r="F204" s="68"/>
+    </row>
+    <row r="205" spans="3:6" s="44" customFormat="1" ht="26.25" customHeight="1">
+      <c r="D205" s="45"/>
+      <c r="F205" s="67"/>
+    </row>
+    <row r="206" spans="3:6" s="44" customFormat="1" ht="26.25" customHeight="1">
+      <c r="D206" s="45"/>
+      <c r="F206" s="67"/>
+    </row>
+    <row r="207" spans="3:6" s="44" customFormat="1" ht="26.25" customHeight="1">
+      <c r="D207" s="45"/>
+      <c r="F207" s="67"/>
+    </row>
   </sheetData>
-  <mergeCells count="141">
-    <mergeCell ref="B54:B60"/>
-    <mergeCell ref="C54:C60"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="C43:C47"/>
-    <mergeCell ref="B101:B104"/>
-    <mergeCell ref="C101:C104"/>
-    <mergeCell ref="F153:F154"/>
-    <mergeCell ref="F159:F162"/>
-    <mergeCell ref="F130:F132"/>
-    <mergeCell ref="F133:F137"/>
-    <mergeCell ref="F141:F142"/>
-    <mergeCell ref="F143:F144"/>
-    <mergeCell ref="F145:F152"/>
-    <mergeCell ref="F116:F117"/>
-    <mergeCell ref="F118:F119"/>
-    <mergeCell ref="F120:F122"/>
-    <mergeCell ref="F124:F127"/>
+  <mergeCells count="159">
+    <mergeCell ref="F55:F61"/>
+    <mergeCell ref="E102:E105"/>
+    <mergeCell ref="F102:F105"/>
+    <mergeCell ref="E44:E48"/>
+    <mergeCell ref="F44:F48"/>
+    <mergeCell ref="E178:E180"/>
+    <mergeCell ref="F142:F144"/>
+    <mergeCell ref="F145:F146"/>
+    <mergeCell ref="F134:F136"/>
+    <mergeCell ref="E134:E136"/>
+    <mergeCell ref="E142:E144"/>
+    <mergeCell ref="E145:E146"/>
+    <mergeCell ref="B106:B111"/>
+    <mergeCell ref="B174:B176"/>
+    <mergeCell ref="C174:C176"/>
+    <mergeCell ref="E174:E176"/>
+    <mergeCell ref="F174:F176"/>
+    <mergeCell ref="A155:A162"/>
+    <mergeCell ref="C173:D173"/>
+    <mergeCell ref="C177:D177"/>
+    <mergeCell ref="C179:C180"/>
+    <mergeCell ref="B179:B180"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="E90:E94"/>
+    <mergeCell ref="F90:F94"/>
+    <mergeCell ref="E95:E97"/>
+    <mergeCell ref="F95:F97"/>
+    <mergeCell ref="E98:E101"/>
+    <mergeCell ref="F98:F101"/>
+    <mergeCell ref="E106:E111"/>
+    <mergeCell ref="F106:F111"/>
+    <mergeCell ref="E4:E15"/>
+    <mergeCell ref="F4:F15"/>
+    <mergeCell ref="E16:E23"/>
+    <mergeCell ref="F16:F23"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="F27:F36"/>
+    <mergeCell ref="F49:F54"/>
+    <mergeCell ref="E49:E54"/>
+    <mergeCell ref="E27:E36"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C16:C23"/>
+    <mergeCell ref="C62:C66"/>
+    <mergeCell ref="B27:B36"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="C90:C94"/>
+    <mergeCell ref="C95:C97"/>
+    <mergeCell ref="C98:C101"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="C79:C85"/>
+    <mergeCell ref="C70:C74"/>
+    <mergeCell ref="B62:B66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="B70:B74"/>
+    <mergeCell ref="C37:C43"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="B148:B149"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="B169:B172"/>
+    <mergeCell ref="B125:B128"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="B137:B141"/>
+    <mergeCell ref="C169:C172"/>
+    <mergeCell ref="C121:C123"/>
+    <mergeCell ref="C125:C128"/>
+    <mergeCell ref="C131:C133"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="C165:D165"/>
+    <mergeCell ref="C147:D147"/>
+    <mergeCell ref="B153:B154"/>
+    <mergeCell ref="B155:B162"/>
+    <mergeCell ref="C148:C149"/>
+    <mergeCell ref="C134:C136"/>
+    <mergeCell ref="B134:B136"/>
+    <mergeCell ref="C142:C144"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="B121:B123"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="B79:B85"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="B90:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="E67:E69"/>
+    <mergeCell ref="E70:E74"/>
+    <mergeCell ref="E75:E78"/>
+    <mergeCell ref="E79:E85"/>
+    <mergeCell ref="B37:B43"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="C75:C78"/>
+    <mergeCell ref="C49:C54"/>
+    <mergeCell ref="E55:E61"/>
+    <mergeCell ref="C153:C154"/>
+    <mergeCell ref="C155:C162"/>
+    <mergeCell ref="E121:E123"/>
+    <mergeCell ref="E125:E128"/>
+    <mergeCell ref="E131:E133"/>
+    <mergeCell ref="E137:E141"/>
+    <mergeCell ref="E153:E154"/>
+    <mergeCell ref="E155:E162"/>
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="E43:E46"/>
-    <mergeCell ref="E116:E117"/>
-    <mergeCell ref="E36:E42"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="E37:E43"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C26:C35"/>
-    <mergeCell ref="F36:F42"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="C4:C13"/>
-    <mergeCell ref="B4:B14"/>
-    <mergeCell ref="B97:B100"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="B15:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="F54:F58"/>
-    <mergeCell ref="F61:F65"/>
-    <mergeCell ref="F66:F68"/>
-    <mergeCell ref="F69:F73"/>
-    <mergeCell ref="F74:F77"/>
-    <mergeCell ref="F78:F84"/>
-    <mergeCell ref="B48:B53"/>
-    <mergeCell ref="C105:C110"/>
-    <mergeCell ref="E153:E154"/>
-    <mergeCell ref="E159:E162"/>
-    <mergeCell ref="C153:C154"/>
-    <mergeCell ref="E118:E119"/>
-    <mergeCell ref="C133:C137"/>
-    <mergeCell ref="C141:C142"/>
-    <mergeCell ref="C143:C144"/>
-    <mergeCell ref="C145:C152"/>
-    <mergeCell ref="E120:E122"/>
-    <mergeCell ref="E124:E127"/>
-    <mergeCell ref="E130:E132"/>
-    <mergeCell ref="E133:E137"/>
-    <mergeCell ref="E141:E142"/>
-    <mergeCell ref="E143:E144"/>
-    <mergeCell ref="E145:E152"/>
-    <mergeCell ref="E54:E58"/>
-    <mergeCell ref="E61:E65"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="E69:E73"/>
-    <mergeCell ref="E74:E77"/>
-    <mergeCell ref="E78:E84"/>
-    <mergeCell ref="E101:E103"/>
-    <mergeCell ref="B36:B42"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="C48:C53"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="C129:D129"/>
-    <mergeCell ref="C118:C119"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="B78:B84"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="B89:B93"/>
-    <mergeCell ref="B94:B96"/>
-    <mergeCell ref="B153:B154"/>
-    <mergeCell ref="B159:B162"/>
-    <mergeCell ref="B124:B127"/>
-    <mergeCell ref="B130:B132"/>
-    <mergeCell ref="B133:B137"/>
-    <mergeCell ref="C159:C162"/>
-    <mergeCell ref="C120:C122"/>
-    <mergeCell ref="C124:C127"/>
-    <mergeCell ref="C130:C132"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="C138:D138"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="B145:B152"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A147:A152"/>
-    <mergeCell ref="A153:A154"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="A134:A135"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C15:C22"/>
-    <mergeCell ref="C61:C65"/>
-    <mergeCell ref="B26:B35"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="C89:C93"/>
-    <mergeCell ref="C94:C96"/>
-    <mergeCell ref="C97:C100"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="C78:C84"/>
-    <mergeCell ref="C69:C73"/>
-    <mergeCell ref="B61:B65"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="C36:C42"/>
-    <mergeCell ref="E4:E14"/>
-    <mergeCell ref="F4:F14"/>
-    <mergeCell ref="E15:E22"/>
-    <mergeCell ref="F15:F22"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="F26:F35"/>
-    <mergeCell ref="F48:F53"/>
-    <mergeCell ref="E48:E53"/>
-    <mergeCell ref="E26:E35"/>
-    <mergeCell ref="F101:F103"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="F112:F113"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="E89:E93"/>
-    <mergeCell ref="F89:F93"/>
-    <mergeCell ref="E94:E96"/>
-    <mergeCell ref="F94:F96"/>
-    <mergeCell ref="E97:E100"/>
-    <mergeCell ref="F97:F100"/>
-    <mergeCell ref="E105:E110"/>
-    <mergeCell ref="F105:F110"/>
+    <mergeCell ref="C27:C36"/>
+    <mergeCell ref="F37:F43"/>
+    <mergeCell ref="B4:B15"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="B16:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="F62:F66"/>
+    <mergeCell ref="F67:F69"/>
+    <mergeCell ref="F70:F74"/>
+    <mergeCell ref="F75:F78"/>
+    <mergeCell ref="F79:F85"/>
+    <mergeCell ref="B49:B54"/>
+    <mergeCell ref="C106:C111"/>
+    <mergeCell ref="E62:E66"/>
+    <mergeCell ref="B55:B61"/>
+    <mergeCell ref="C55:C61"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="C44:C48"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="C4:C15"/>
+    <mergeCell ref="F163:F164"/>
+    <mergeCell ref="F169:F172"/>
+    <mergeCell ref="F131:F133"/>
+    <mergeCell ref="F137:F141"/>
+    <mergeCell ref="F153:F154"/>
+    <mergeCell ref="F155:F162"/>
+    <mergeCell ref="F117:F118"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="F121:F123"/>
+    <mergeCell ref="F125:F128"/>
+    <mergeCell ref="E163:E164"/>
+    <mergeCell ref="E169:E172"/>
+    <mergeCell ref="C163:C164"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="C137:C141"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -11856,59 +13514,59 @@
   <sheetData>
     <row r="7" spans="4:5" ht="12.75" thickBot="1">
       <c r="D7" s="35" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="4:5" ht="13.5" customHeight="1" thickTop="1">
       <c r="D8" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="E8" s="111" t="s">
-        <v>83</v>
+        <v>60</v>
+      </c>
+      <c r="E8" s="115" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="4:5">
       <c r="D9" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="E9" s="111"/>
+        <v>61</v>
+      </c>
+      <c r="E9" s="115"/>
     </row>
     <row r="10" spans="4:5">
       <c r="D10" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="E10" s="112"/>
+        <v>62</v>
+      </c>
+      <c r="E10" s="116"/>
     </row>
     <row r="14" spans="4:5" ht="12.75" thickBot="1">
       <c r="D14" s="35" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="4:5" ht="12.75" thickTop="1">
       <c r="D15" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="E15" s="111" t="s">
-        <v>83</v>
+        <v>67</v>
+      </c>
+      <c r="E15" s="115" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="4:5">
       <c r="D16" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" s="111"/>
+        <v>46</v>
+      </c>
+      <c r="E16" s="115"/>
     </row>
     <row r="17" spans="4:5">
       <c r="D17" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="E17" s="112"/>
+        <v>63</v>
+      </c>
+      <c r="E17" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/문서 관리/01. 요구사항명세서.xlsx
+++ b/문서 관리/01. 요구사항명세서.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="331">
   <si>
     <t>계약 상대자는 제반 프로그램이 고품질을 유지할 수 있도록 최선의 노력을 다하여야 함</t>
   </si>
@@ -598,10 +598,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>고객지원</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>회원탈퇴</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -734,14 +730,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>FAQ, 자주찾는질문에 대한 답변 제공</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>서비스 이용 불만사항 건의 및 불량 사용자에 대한 신고 기능 제공</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>통계 항목에 대한 엑셀 및 그래프, 파일 다운로드 기능</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -853,19 +841,59 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
+    <t>로그인 페이지</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 페이지</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID/PW 찾기 페이지</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
     <t>공통</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>로그인 페이지</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입 페이지</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID/PW 찾기 페이지</t>
+    <t>관리자</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인페이지</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 위(Wee) 페이지</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>상담신청 페이지</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원(신청자)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸터</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤더</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원탈퇴 페이지</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>통계현황 페이지</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -873,82 +901,10 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>마이페이지</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자페이지</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인페이지</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>서울 위(Wee) 페이지</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>상담신청 페이지</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원(신청자)</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>푸터</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>헤더</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>사이드바</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원탈퇴 페이지</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객지원 페이지</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>통계현황 페이지</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울 위(Wee) 페이지</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>Wee-Net 페이지</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -965,30 +921,10 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>공통</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>마음건강정보</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지사항</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>상담게시판</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>회원(신청자)</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>퀵 메뉴는 챗봇, SNS, 유관기관으로 연결</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -997,10 +933,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>공통</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>비밀번호는 특수문자, 숫자 등을 포함하여 8자리 이상, 15자의 이하로 구성되고, 양식에 맞지 않을 경우 입력창 아래 '비밀번호가 맞지 않습니다' 붉은색 문구 출력</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1149,10 +1081,6 @@
   </si>
   <si>
     <t>로그인 실패시 로그인창 하단에 실패 원인 메세지 출력</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>QnA 메뉴를 통해 1대 1 문의 기능 구현</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -1584,18 +1512,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>SFR–004</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>SFR–004</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>SFR–004</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>SFR–005</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1616,10 +1532,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>마음건강정보</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>SFR–010</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1652,15 +1564,7 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>SFR–013</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>SFR–014</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>SFR–018</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -1684,6 +1588,10 @@
       </rPr>
       <t xml:space="preserve"> 보안 및 현장조사 등과 관련한 작업 시 발주기관’의 의견을 적극 수렴</t>
     </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고 누적 횟수가 5회 이상에 해당하는 사용자 계정 이용 제한 설정</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -2153,7 +2061,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2364,9 +2272,6 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2377,12 +2282,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2418,6 +2317,42 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2426,6 +2361,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2436,83 +2380,11 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2526,17 +2398,59 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3987,14 +3901,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4058,14 +3972,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4129,14 +4043,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4200,14 +4114,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4271,14 +4185,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4342,14 +4256,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4413,14 +4327,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4484,14 +4398,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4555,14 +4469,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4626,14 +4540,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4697,14 +4611,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4768,14 +4682,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4839,14 +4753,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4910,14 +4824,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4981,14 +4895,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5052,14 +4966,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5123,14 +5037,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5194,14 +5108,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5265,14 +5179,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5336,14 +5250,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5407,14 +5321,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5478,14 +5392,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5549,14 +5463,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5620,14 +5534,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5691,14 +5605,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5762,14 +5676,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5833,14 +5747,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5904,14 +5818,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5975,14 +5889,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6046,14 +5960,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6117,14 +6031,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6188,14 +6102,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6259,14 +6173,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>9527</xdr:rowOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6330,14 +6244,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>9527</xdr:rowOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6401,14 +6315,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>9527</xdr:rowOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6472,14 +6386,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>9527</xdr:rowOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6543,14 +6457,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>9527</xdr:rowOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6614,14 +6528,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>9527</xdr:rowOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6685,14 +6599,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>9527</xdr:rowOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6756,14 +6670,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>9527</xdr:rowOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6827,14 +6741,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>9527</xdr:rowOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6898,14 +6812,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>9527</xdr:rowOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6969,14 +6883,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>9527</xdr:rowOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7040,14 +6954,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>9527</xdr:rowOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7111,14 +7025,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>9527</xdr:rowOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7182,14 +7096,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>9527</xdr:rowOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7253,14 +7167,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>9527</xdr:rowOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7324,14 +7238,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>9527</xdr:rowOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7395,13 +7309,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7466,13 +7380,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7537,13 +7451,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7608,13 +7522,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7679,13 +7593,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7750,13 +7664,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7821,13 +7735,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7892,13 +7806,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7963,13 +7877,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8034,13 +7948,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8105,13 +8019,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8176,13 +8090,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8247,13 +8161,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8318,13 +8232,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8389,13 +8303,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8460,13 +8374,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8531,7 +8445,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -8597,7 +8511,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -8663,7 +8577,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -8729,7 +8643,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -8795,7 +8709,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -8861,7 +8775,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -8927,7 +8841,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -8993,7 +8907,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -9059,7 +8973,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -9125,7 +9039,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -9191,7 +9105,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -9257,7 +9171,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -9323,7 +9237,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -9389,7 +9303,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -9455,7 +9369,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -9521,7 +9435,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -9933,7 +9847,7 @@
         <v>29</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -10133,22 +10047,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" customHeight="1">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
     </row>
     <row r="2" spans="1:4" ht="21" customHeight="1">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="90" t="s">
+      <c r="B2" s="97"/>
+      <c r="C2" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="90"/>
+      <c r="D2" s="99"/>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="15" t="s">
@@ -10298,10 +10212,10 @@
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H207"/>
+  <dimension ref="A1:H205"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C15"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C177" sqref="C177:C178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21" customHeight="1"/>
@@ -10317,33 +10231,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
     </row>
     <row r="2" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="99" t="s">
-        <v>243</v>
-      </c>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="126" t="s">
+        <v>225</v>
+      </c>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
       <c r="G2" s="19" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1" thickTop="1">
@@ -10372,40 +10286,40 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="64" customFormat="1" ht="18" customHeight="1">
+    <row r="4" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A4" s="51">
         <v>1</v>
       </c>
       <c r="B4" s="103" t="s">
-        <v>346</v>
-      </c>
-      <c r="C4" s="91" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="E4" s="103" t="s">
-        <v>163</v>
-      </c>
-      <c r="F4" s="103" t="s">
-        <v>72</v>
-      </c>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
+        <v>314</v>
+      </c>
+      <c r="C4" s="103" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="94" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="100" t="s">
+        <v>164</v>
+      </c>
+      <c r="F4" s="100" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="89"/>
+      <c r="H4" s="52"/>
     </row>
     <row r="5" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A5" s="51">
         <v>2</v>
       </c>
       <c r="B5" s="104"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="39"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="89"/>
       <c r="H5" s="52"/>
     </row>
     <row r="6" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
@@ -10413,13 +10327,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="104"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="39"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="89"/>
       <c r="H6" s="52"/>
     </row>
     <row r="7" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
@@ -10427,83 +10341,99 @@
         <v>4</v>
       </c>
       <c r="B7" s="104"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="39"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="83" t="s">
+        <v>154</v>
+      </c>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="89"/>
       <c r="H7" s="52"/>
     </row>
     <row r="8" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A8" s="51">
         <v>5</v>
       </c>
-      <c r="B8" s="104"/>
-      <c r="C8" s="92"/>
-      <c r="D8" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="32"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="83" t="s">
+        <v>207</v>
+      </c>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="52"/>
     </row>
     <row r="9" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="51">
         <v>6</v>
       </c>
-      <c r="B9" s="104"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="32"/>
+      <c r="B9" s="103" t="s">
+        <v>314</v>
+      </c>
+      <c r="C9" s="122" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="E9" s="100" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="100" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="89"/>
+      <c r="H9" s="52"/>
     </row>
     <row r="10" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A10" s="51">
         <v>7</v>
       </c>
       <c r="B10" s="104"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="25" t="s">
-        <v>198</v>
-      </c>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="32"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" s="101"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="52"/>
     </row>
     <row r="11" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A11" s="51">
         <v>8</v>
       </c>
-      <c r="B11" s="104"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="25" t="s">
-        <v>217</v>
-      </c>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="78"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="82" t="s">
+        <v>188</v>
+      </c>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="89"/>
       <c r="H11" s="52"/>
     </row>
     <row r="12" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A12" s="51">
         <v>9</v>
       </c>
-      <c r="B12" s="104"/>
-      <c r="C12" s="92"/>
-      <c r="D12" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="E12" s="104"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="78"/>
+      <c r="B12" s="103" t="s">
+        <v>314</v>
+      </c>
+      <c r="C12" s="103" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="E12" s="100" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" s="100" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="89"/>
       <c r="H12" s="52"/>
     </row>
     <row r="13" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
@@ -10511,1772 +10441,1748 @@
         <v>10</v>
       </c>
       <c r="B13" s="104"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="104"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="32"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="E13" s="101"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="52"/>
     </row>
     <row r="14" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A14" s="51">
         <v>11</v>
       </c>
       <c r="B14" s="104"/>
-      <c r="C14" s="92"/>
+      <c r="C14" s="104"/>
       <c r="D14" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="32"/>
+        <v>140</v>
+      </c>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="52"/>
     </row>
     <row r="15" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A15" s="51">
         <v>12</v>
       </c>
-      <c r="B15" s="104"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" s="107"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="32"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="52"/>
     </row>
     <row r="16" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A16" s="51">
         <v>13</v>
       </c>
       <c r="B16" s="103" t="s">
-        <v>347</v>
-      </c>
-      <c r="C16" s="91" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16" s="105" t="s">
-        <v>162</v>
-      </c>
-      <c r="F16" s="94" t="s">
+        <v>314</v>
+      </c>
+      <c r="C16" s="103" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="100" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" s="100" t="s">
         <v>70</v>
       </c>
-      <c r="G16" s="30"/>
-      <c r="H16" s="32"/>
-    </row>
-    <row r="17" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="G16" s="89"/>
+      <c r="H16" s="52"/>
+    </row>
+    <row r="17" spans="1:8" s="43" customFormat="1" ht="16.5" customHeight="1">
       <c r="A17" s="51">
         <v>14</v>
       </c>
       <c r="B17" s="104"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="114"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="32"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="52"/>
     </row>
     <row r="18" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A18" s="51">
         <v>15</v>
       </c>
       <c r="B18" s="104"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="E18" s="114"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="32"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="83" t="s">
+        <v>199</v>
+      </c>
+      <c r="E18" s="101"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="52"/>
     </row>
     <row r="19" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A19" s="51">
         <v>16</v>
       </c>
       <c r="B19" s="104"/>
-      <c r="C19" s="92"/>
-      <c r="D19" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="E19" s="114"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="32"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="83" t="s">
+        <v>151</v>
+      </c>
+      <c r="E19" s="101"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="52"/>
     </row>
     <row r="20" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A20" s="51">
         <v>17</v>
       </c>
       <c r="B20" s="104"/>
-      <c r="C20" s="92"/>
-      <c r="D20" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="E20" s="114"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="32"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="83" t="s">
+        <v>150</v>
+      </c>
+      <c r="E20" s="101"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="52"/>
     </row>
     <row r="21" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A21" s="51">
         <v>18</v>
       </c>
-      <c r="B21" s="104"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="114"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="32"/>
+      <c r="B21" s="105"/>
+      <c r="C21" s="104"/>
+      <c r="D21" s="83" t="s">
+        <v>195</v>
+      </c>
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="52"/>
     </row>
     <row r="22" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A22" s="51">
         <v>19</v>
       </c>
-      <c r="B22" s="104"/>
-      <c r="C22" s="92"/>
-      <c r="D22" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="E22" s="114"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="32"/>
+      <c r="B22" s="103" t="s">
+        <v>314</v>
+      </c>
+      <c r="C22" s="103" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="E22" s="100" t="s">
+        <v>173</v>
+      </c>
+      <c r="F22" s="100" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" s="89"/>
+      <c r="H22" s="52"/>
     </row>
     <row r="23" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A23" s="51">
         <v>20</v>
       </c>
-      <c r="B23" s="107"/>
-      <c r="C23" s="93"/>
-      <c r="D23" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="E23" s="106"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="32"/>
+      <c r="B23" s="105"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="E23" s="102"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="52"/>
     </row>
     <row r="24" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A24" s="51">
         <v>21</v>
       </c>
-      <c r="B24" s="103" t="s">
-        <v>351</v>
-      </c>
-      <c r="C24" s="91" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="E24" s="91" t="s">
-        <v>164</v>
-      </c>
-      <c r="F24" s="94" t="s">
-        <v>165</v>
-      </c>
-      <c r="G24" s="30"/>
-      <c r="H24" s="32"/>
+      <c r="B24" s="115" t="s">
+        <v>314</v>
+      </c>
+      <c r="C24" s="103" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="82" t="s">
+        <v>204</v>
+      </c>
+      <c r="E24" s="100" t="s">
+        <v>168</v>
+      </c>
+      <c r="F24" s="100" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="89"/>
+      <c r="H24" s="52"/>
     </row>
     <row r="25" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A25" s="51">
         <v>22</v>
       </c>
-      <c r="B25" s="104"/>
-      <c r="C25" s="92"/>
-      <c r="D25" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" s="92"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="32"/>
+      <c r="B25" s="117"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="83" t="s">
+        <v>125</v>
+      </c>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="52"/>
     </row>
     <row r="26" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A26" s="51">
         <v>23</v>
       </c>
-      <c r="B26" s="107"/>
-      <c r="C26" s="93"/>
-      <c r="D26" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" s="93"/>
-      <c r="F26" s="95"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="32"/>
+      <c r="B26" s="86" t="s">
+        <v>314</v>
+      </c>
+      <c r="C26" s="85" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="E26" s="88" t="s">
+        <v>169</v>
+      </c>
+      <c r="F26" s="88" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="89"/>
+      <c r="H26" s="52"/>
     </row>
     <row r="27" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A27" s="51">
         <v>24</v>
       </c>
-      <c r="B27" s="91" t="s">
-        <v>345</v>
-      </c>
-      <c r="C27" s="101" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27" s="71" t="s">
-        <v>102</v>
-      </c>
-      <c r="E27" s="108" t="s">
-        <v>166</v>
-      </c>
-      <c r="F27" s="94" t="s">
-        <v>161</v>
-      </c>
-      <c r="G27" s="30"/>
-      <c r="H27" s="32"/>
+      <c r="B27" s="103" t="s">
+        <v>315</v>
+      </c>
+      <c r="C27" s="103" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="83" t="s">
+        <v>155</v>
+      </c>
+      <c r="E27" s="100" t="s">
+        <v>165</v>
+      </c>
+      <c r="F27" s="100" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" s="89"/>
+      <c r="H27" s="52"/>
     </row>
     <row r="28" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A28" s="51">
         <v>25</v>
       </c>
-      <c r="B28" s="92"/>
-      <c r="C28" s="101"/>
-      <c r="D28" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="E28" s="108"/>
-      <c r="F28" s="96"/>
-      <c r="G28" s="39"/>
+      <c r="B28" s="104"/>
+      <c r="C28" s="104"/>
+      <c r="D28" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28" s="101"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="89"/>
       <c r="H28" s="52"/>
     </row>
     <row r="29" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A29" s="51">
         <v>26</v>
       </c>
-      <c r="B29" s="92"/>
-      <c r="C29" s="101"/>
-      <c r="D29" s="72" t="s">
-        <v>106</v>
-      </c>
-      <c r="E29" s="108"/>
-      <c r="F29" s="96"/>
-      <c r="G29" s="39"/>
+      <c r="B29" s="104"/>
+      <c r="C29" s="104"/>
+      <c r="D29" s="82" t="s">
+        <v>186</v>
+      </c>
+      <c r="E29" s="101"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="89"/>
       <c r="H29" s="52"/>
     </row>
     <row r="30" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A30" s="51">
         <v>27</v>
       </c>
-      <c r="B30" s="92"/>
-      <c r="C30" s="101"/>
-      <c r="D30" s="71" t="s">
-        <v>107</v>
-      </c>
-      <c r="E30" s="108"/>
-      <c r="F30" s="96"/>
-      <c r="G30" s="39"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="104"/>
+      <c r="D30" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="E30" s="101"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="89"/>
       <c r="H30" s="52"/>
     </row>
     <row r="31" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A31" s="51">
         <v>28</v>
       </c>
-      <c r="B31" s="92"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="71" t="s">
-        <v>108</v>
-      </c>
-      <c r="E31" s="108"/>
-      <c r="F31" s="96"/>
-      <c r="G31" s="39"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="104"/>
+      <c r="D31" s="82" t="s">
+        <v>149</v>
+      </c>
+      <c r="E31" s="101"/>
+      <c r="F31" s="101"/>
+      <c r="G31" s="89"/>
       <c r="H31" s="52"/>
     </row>
     <row r="32" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A32" s="51">
         <v>29</v>
       </c>
-      <c r="B32" s="92"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="71" t="s">
-        <v>109</v>
-      </c>
-      <c r="E32" s="108"/>
-      <c r="F32" s="96"/>
-      <c r="G32" s="39"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="105"/>
+      <c r="D32" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="E32" s="101"/>
+      <c r="F32" s="101"/>
+      <c r="G32" s="89"/>
       <c r="H32" s="52"/>
     </row>
-    <row r="33" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+    <row r="33" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A33" s="51">
         <v>30</v>
       </c>
-      <c r="B33" s="92"/>
-      <c r="C33" s="102"/>
-      <c r="D33" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="E33" s="98"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="32"/>
-    </row>
-    <row r="34" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="B33" s="103" t="s">
+        <v>316</v>
+      </c>
+      <c r="C33" s="103" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="E33" s="100" t="s">
+        <v>166</v>
+      </c>
+      <c r="F33" s="100" t="s">
+        <v>167</v>
+      </c>
+      <c r="G33" s="89"/>
+      <c r="H33" s="52"/>
+    </row>
+    <row r="34" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A34" s="51">
         <v>31</v>
       </c>
-      <c r="B34" s="92"/>
-      <c r="C34" s="102"/>
-      <c r="D34" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="E34" s="98"/>
-      <c r="F34" s="96"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="32"/>
-    </row>
-    <row r="35" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="B34" s="104"/>
+      <c r="C34" s="104"/>
+      <c r="D34" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="E34" s="101"/>
+      <c r="F34" s="101"/>
+      <c r="G34" s="89"/>
+      <c r="H34" s="52"/>
+    </row>
+    <row r="35" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A35" s="51">
         <v>32</v>
       </c>
-      <c r="B35" s="92"/>
-      <c r="C35" s="102"/>
-      <c r="D35" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="E35" s="98"/>
-      <c r="F35" s="96"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="32"/>
-    </row>
-    <row r="36" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="B35" s="104"/>
+      <c r="C35" s="104"/>
+      <c r="D35" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="E35" s="101"/>
+      <c r="F35" s="101"/>
+      <c r="G35" s="89"/>
+      <c r="H35" s="52"/>
+    </row>
+    <row r="36" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A36" s="51">
         <v>33</v>
       </c>
-      <c r="B36" s="93"/>
-      <c r="C36" s="102"/>
-      <c r="D36" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="E36" s="98"/>
-      <c r="F36" s="95"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="32"/>
+      <c r="B36" s="104"/>
+      <c r="C36" s="104"/>
+      <c r="D36" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="E36" s="101"/>
+      <c r="F36" s="101"/>
+      <c r="G36" s="89"/>
+      <c r="H36" s="52"/>
     </row>
     <row r="37" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A37" s="51">
         <v>34</v>
       </c>
-      <c r="B37" s="91" t="s">
-        <v>348</v>
-      </c>
-      <c r="C37" s="102" t="s">
-        <v>87</v>
-      </c>
+      <c r="B37" s="104"/>
+      <c r="C37" s="104"/>
       <c r="D37" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="E37" s="98" t="s">
-        <v>169</v>
-      </c>
-      <c r="F37" s="94" t="s">
-        <v>167</v>
-      </c>
-      <c r="G37" s="30"/>
-      <c r="H37" s="32"/>
+        <v>138</v>
+      </c>
+      <c r="E37" s="101"/>
+      <c r="F37" s="101"/>
+      <c r="G37" s="89"/>
+      <c r="H37" s="52"/>
     </row>
     <row r="38" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A38" s="51">
         <v>35</v>
       </c>
-      <c r="B38" s="92"/>
-      <c r="C38" s="102"/>
+      <c r="B38" s="104"/>
+      <c r="C38" s="104"/>
       <c r="D38" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="E38" s="98"/>
-      <c r="F38" s="96"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="32"/>
+        <v>220</v>
+      </c>
+      <c r="E38" s="101"/>
+      <c r="F38" s="101"/>
+      <c r="G38" s="89"/>
+      <c r="H38" s="52"/>
     </row>
     <row r="39" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A39" s="51">
         <v>36</v>
       </c>
-      <c r="B39" s="92"/>
-      <c r="C39" s="102"/>
-      <c r="D39" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="E39" s="98"/>
-      <c r="F39" s="96"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="32"/>
+      <c r="B39" s="105"/>
+      <c r="C39" s="105"/>
+      <c r="D39" s="84" t="s">
+        <v>206</v>
+      </c>
+      <c r="E39" s="102"/>
+      <c r="F39" s="102"/>
+      <c r="G39" s="89"/>
+      <c r="H39" s="52"/>
     </row>
     <row r="40" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A40" s="51">
         <v>37</v>
       </c>
-      <c r="B40" s="92"/>
-      <c r="C40" s="102"/>
-      <c r="D40" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="E40" s="98"/>
-      <c r="F40" s="96"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="32"/>
+      <c r="B40" s="103" t="s">
+        <v>317</v>
+      </c>
+      <c r="C40" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" s="83" t="s">
+        <v>142</v>
+      </c>
+      <c r="E40" s="100" t="s">
+        <v>178</v>
+      </c>
+      <c r="F40" s="100" t="s">
+        <v>167</v>
+      </c>
+      <c r="G40" s="89"/>
+      <c r="H40" s="52"/>
     </row>
     <row r="41" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A41" s="51">
         <v>38</v>
       </c>
-      <c r="B41" s="92"/>
-      <c r="C41" s="102"/>
-      <c r="D41" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="E41" s="98"/>
-      <c r="F41" s="96"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="32"/>
+      <c r="B41" s="104"/>
+      <c r="C41" s="104"/>
+      <c r="D41" s="83" t="s">
+        <v>143</v>
+      </c>
+      <c r="E41" s="101"/>
+      <c r="F41" s="101"/>
+      <c r="G41" s="89"/>
+      <c r="H41" s="52"/>
     </row>
     <row r="42" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A42" s="51">
         <v>39</v>
       </c>
-      <c r="B42" s="92"/>
-      <c r="C42" s="102"/>
-      <c r="D42" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="E42" s="98"/>
-      <c r="F42" s="96"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="32"/>
+      <c r="B42" s="104"/>
+      <c r="C42" s="104"/>
+      <c r="D42" s="83" t="s">
+        <v>147</v>
+      </c>
+      <c r="E42" s="101"/>
+      <c r="F42" s="101"/>
+      <c r="G42" s="89"/>
+      <c r="H42" s="52"/>
     </row>
     <row r="43" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A43" s="51">
         <v>40</v>
       </c>
-      <c r="B43" s="92"/>
-      <c r="C43" s="102"/>
-      <c r="D43" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="E43" s="98"/>
-      <c r="F43" s="96"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="32"/>
+      <c r="B43" s="104"/>
+      <c r="C43" s="104"/>
+      <c r="D43" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="E43" s="101"/>
+      <c r="F43" s="101"/>
+      <c r="G43" s="89"/>
+      <c r="H43" s="52"/>
     </row>
     <row r="44" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A44" s="51">
         <v>41</v>
       </c>
-      <c r="B44" s="91" t="s">
-        <v>333</v>
-      </c>
-      <c r="C44" s="91" t="s">
-        <v>88</v>
-      </c>
-      <c r="D44" s="85" t="s">
-        <v>147</v>
-      </c>
-      <c r="E44" s="94" t="s">
-        <v>170</v>
-      </c>
-      <c r="F44" s="94" t="s">
-        <v>168</v>
-      </c>
-      <c r="G44" s="30"/>
-      <c r="H44" s="32"/>
+      <c r="B44" s="105"/>
+      <c r="C44" s="104"/>
+      <c r="D44" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="E44" s="102"/>
+      <c r="F44" s="102"/>
+      <c r="G44" s="89"/>
+      <c r="H44" s="52"/>
     </row>
     <row r="45" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A45" s="51">
         <v>42</v>
       </c>
-      <c r="B45" s="92"/>
-      <c r="C45" s="92"/>
-      <c r="D45" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="E45" s="96"/>
-      <c r="F45" s="96"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="32"/>
+      <c r="B45" s="103" t="s">
+        <v>318</v>
+      </c>
+      <c r="C45" s="103" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="E45" s="100" t="s">
+        <v>176</v>
+      </c>
+      <c r="F45" s="100" t="s">
+        <v>70</v>
+      </c>
+      <c r="G45" s="89"/>
+      <c r="H45" s="52"/>
     </row>
     <row r="46" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A46" s="51">
         <v>43</v>
       </c>
-      <c r="B46" s="92"/>
-      <c r="C46" s="92"/>
-      <c r="D46" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="E46" s="96"/>
-      <c r="F46" s="96"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="32"/>
+      <c r="B46" s="104"/>
+      <c r="C46" s="104"/>
+      <c r="D46" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="E46" s="101"/>
+      <c r="F46" s="101"/>
+      <c r="G46" s="89"/>
+      <c r="H46" s="52"/>
     </row>
     <row r="47" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A47" s="51">
         <v>44</v>
       </c>
-      <c r="B47" s="92"/>
-      <c r="C47" s="92"/>
-      <c r="D47" s="86" t="s">
-        <v>157</v>
-      </c>
-      <c r="E47" s="96"/>
-      <c r="F47" s="96"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="32"/>
+      <c r="B47" s="104"/>
+      <c r="C47" s="104"/>
+      <c r="D47" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="E47" s="101"/>
+      <c r="F47" s="101"/>
+      <c r="G47" s="89"/>
+      <c r="H47" s="52"/>
     </row>
     <row r="48" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A48" s="51">
         <v>45</v>
       </c>
-      <c r="B48" s="93"/>
-      <c r="C48" s="93"/>
-      <c r="D48" s="86" t="s">
-        <v>224</v>
-      </c>
-      <c r="E48" s="95"/>
-      <c r="F48" s="95"/>
-      <c r="G48" s="78"/>
+      <c r="B48" s="104"/>
+      <c r="C48" s="104"/>
+      <c r="D48" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="E48" s="101"/>
+      <c r="F48" s="101"/>
+      <c r="G48" s="89"/>
       <c r="H48" s="52"/>
     </row>
     <row r="49" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A49" s="51">
         <v>46</v>
       </c>
-      <c r="B49" s="91" t="s">
-        <v>336</v>
-      </c>
-      <c r="C49" s="91" t="s">
-        <v>89</v>
-      </c>
-      <c r="D49" s="86" t="s">
-        <v>158</v>
-      </c>
-      <c r="E49" s="94" t="s">
-        <v>171</v>
-      </c>
-      <c r="F49" s="94" t="s">
-        <v>168</v>
-      </c>
-      <c r="G49" s="70"/>
+      <c r="B49" s="105"/>
+      <c r="C49" s="105"/>
+      <c r="D49" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="E49" s="102"/>
+      <c r="F49" s="102"/>
+      <c r="G49" s="89"/>
       <c r="H49" s="52"/>
     </row>
     <row r="50" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A50" s="51">
         <v>47</v>
       </c>
-      <c r="B50" s="92"/>
-      <c r="C50" s="92"/>
-      <c r="D50" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="E50" s="96"/>
-      <c r="F50" s="96"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="32"/>
+      <c r="B50" s="103" t="s">
+        <v>319</v>
+      </c>
+      <c r="C50" s="103" t="s">
+        <v>176</v>
+      </c>
+      <c r="D50" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E50" s="100" t="s">
+        <v>176</v>
+      </c>
+      <c r="F50" s="100" t="s">
+        <v>70</v>
+      </c>
+      <c r="G50" s="89"/>
+      <c r="H50" s="52"/>
     </row>
     <row r="51" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A51" s="51">
         <v>48</v>
       </c>
-      <c r="B51" s="92"/>
-      <c r="C51" s="92"/>
-      <c r="D51" s="85" t="s">
-        <v>203</v>
-      </c>
-      <c r="E51" s="96"/>
-      <c r="F51" s="96"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="32"/>
+      <c r="B51" s="104"/>
+      <c r="C51" s="104"/>
+      <c r="D51" s="82" t="s">
+        <v>192</v>
+      </c>
+      <c r="E51" s="101"/>
+      <c r="F51" s="101"/>
+      <c r="G51" s="89"/>
+      <c r="H51" s="52"/>
     </row>
     <row r="52" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A52" s="51">
         <v>49</v>
       </c>
-      <c r="B52" s="92"/>
-      <c r="C52" s="92"/>
-      <c r="D52" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="E52" s="96"/>
-      <c r="F52" s="96"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="32"/>
+      <c r="B52" s="104"/>
+      <c r="C52" s="104"/>
+      <c r="D52" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E52" s="101"/>
+      <c r="F52" s="101"/>
+      <c r="G52" s="89"/>
+      <c r="H52" s="52"/>
     </row>
     <row r="53" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A53" s="51">
         <v>50</v>
       </c>
-      <c r="B53" s="92"/>
-      <c r="C53" s="92"/>
-      <c r="D53" s="85" t="s">
+      <c r="B53" s="105"/>
+      <c r="C53" s="105"/>
+      <c r="D53" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="E53" s="96"/>
-      <c r="F53" s="96"/>
-      <c r="G53" s="69"/>
+      <c r="E53" s="102"/>
+      <c r="F53" s="102"/>
+      <c r="G53" s="89"/>
       <c r="H53" s="52"/>
     </row>
     <row r="54" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A54" s="51">
         <v>51</v>
       </c>
-      <c r="B54" s="92"/>
-      <c r="C54" s="93"/>
-      <c r="D54" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="E54" s="96"/>
-      <c r="F54" s="96"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="32"/>
-    </row>
-    <row r="55" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="B54" s="103" t="s">
+        <v>320</v>
+      </c>
+      <c r="C54" s="103" t="s">
+        <v>321</v>
+      </c>
+      <c r="D54" s="82" t="s">
+        <v>191</v>
+      </c>
+      <c r="E54" s="100" t="s">
+        <v>174</v>
+      </c>
+      <c r="F54" s="100" t="s">
+        <v>70</v>
+      </c>
+      <c r="G54" s="89"/>
+      <c r="H54" s="52"/>
+    </row>
+    <row r="55" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A55" s="51">
         <v>52</v>
       </c>
-      <c r="B55" s="91" t="s">
-        <v>337</v>
-      </c>
-      <c r="C55" s="91" t="s">
-        <v>90</v>
-      </c>
-      <c r="D55" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="E55" s="94" t="s">
-        <v>172</v>
-      </c>
-      <c r="F55" s="94" t="s">
-        <v>173</v>
-      </c>
-      <c r="G55" s="30"/>
-      <c r="H55" s="32"/>
-    </row>
-    <row r="56" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="B55" s="105"/>
+      <c r="C55" s="105"/>
+      <c r="D55" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="E55" s="102"/>
+      <c r="F55" s="102"/>
+      <c r="G55" s="89"/>
+      <c r="H55" s="52"/>
+    </row>
+    <row r="56" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A56" s="51">
         <v>53</v>
       </c>
-      <c r="B56" s="92"/>
-      <c r="C56" s="92"/>
-      <c r="D56" s="42" t="s">
-        <v>220</v>
-      </c>
-      <c r="E56" s="96"/>
-      <c r="F56" s="96"/>
-      <c r="G56" s="30"/>
-      <c r="H56" s="32"/>
-    </row>
-    <row r="57" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="B56" s="103" t="s">
+        <v>322</v>
+      </c>
+      <c r="C56" s="103" t="s">
+        <v>224</v>
+      </c>
+      <c r="D56" s="83" t="s">
+        <v>208</v>
+      </c>
+      <c r="E56" s="100" t="s">
+        <v>177</v>
+      </c>
+      <c r="F56" s="100" t="s">
+        <v>175</v>
+      </c>
+      <c r="G56" s="89"/>
+      <c r="H56" s="52"/>
+    </row>
+    <row r="57" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A57" s="51">
         <v>54</v>
       </c>
-      <c r="B57" s="92"/>
-      <c r="C57" s="92"/>
-      <c r="D57" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="E57" s="96"/>
-      <c r="F57" s="96"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="32"/>
-    </row>
-    <row r="58" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="B57" s="104"/>
+      <c r="C57" s="104"/>
+      <c r="D57" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E57" s="101"/>
+      <c r="F57" s="101"/>
+      <c r="G57" s="89"/>
+      <c r="H57" s="52"/>
+    </row>
+    <row r="58" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A58" s="51">
         <v>55</v>
       </c>
-      <c r="B58" s="92"/>
-      <c r="C58" s="92"/>
-      <c r="D58" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="E58" s="96"/>
-      <c r="F58" s="96"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="32"/>
+      <c r="B58" s="104"/>
+      <c r="C58" s="104"/>
+      <c r="D58" s="83" t="s">
+        <v>189</v>
+      </c>
+      <c r="E58" s="101"/>
+      <c r="F58" s="101"/>
+      <c r="G58" s="89"/>
+      <c r="H58" s="52"/>
     </row>
     <row r="59" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A59" s="51">
         <v>56</v>
       </c>
-      <c r="B59" s="92"/>
-      <c r="C59" s="92"/>
-      <c r="D59" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="E59" s="96"/>
-      <c r="F59" s="96"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="32"/>
+      <c r="B59" s="104"/>
+      <c r="C59" s="104"/>
+      <c r="D59" s="83" t="s">
+        <v>197</v>
+      </c>
+      <c r="E59" s="101"/>
+      <c r="F59" s="101"/>
+      <c r="G59" s="89"/>
+      <c r="H59" s="52"/>
     </row>
     <row r="60" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A60" s="51">
         <v>57</v>
       </c>
-      <c r="B60" s="92"/>
-      <c r="C60" s="92"/>
-      <c r="D60" s="24" t="s">
-        <v>238</v>
-      </c>
-      <c r="E60" s="96"/>
-      <c r="F60" s="96"/>
-      <c r="G60" s="78"/>
+      <c r="B60" s="104"/>
+      <c r="C60" s="104"/>
+      <c r="D60" s="83" t="s">
+        <v>194</v>
+      </c>
+      <c r="E60" s="101"/>
+      <c r="F60" s="101"/>
+      <c r="G60" s="89"/>
       <c r="H60" s="52"/>
     </row>
     <row r="61" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A61" s="51">
         <v>58</v>
       </c>
-      <c r="B61" s="93"/>
-      <c r="C61" s="93"/>
-      <c r="D61" s="87" t="s">
-        <v>223</v>
-      </c>
-      <c r="E61" s="95"/>
-      <c r="F61" s="95"/>
-      <c r="G61" s="78"/>
+      <c r="B61" s="104"/>
+      <c r="C61" s="104"/>
+      <c r="D61" s="83" t="s">
+        <v>128</v>
+      </c>
+      <c r="E61" s="101"/>
+      <c r="F61" s="101"/>
+      <c r="G61" s="89"/>
       <c r="H61" s="52"/>
     </row>
     <row r="62" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A62" s="51">
         <v>59</v>
       </c>
-      <c r="B62" s="91" t="s">
-        <v>338</v>
-      </c>
-      <c r="C62" s="91" t="s">
-        <v>91</v>
-      </c>
-      <c r="D62" s="86" t="s">
-        <v>145</v>
-      </c>
-      <c r="E62" s="94" t="s">
-        <v>193</v>
-      </c>
-      <c r="F62" s="94" t="s">
-        <v>194</v>
-      </c>
-      <c r="G62" s="69"/>
+      <c r="B62" s="105"/>
+      <c r="C62" s="105"/>
+      <c r="D62" s="83" t="s">
+        <v>190</v>
+      </c>
+      <c r="E62" s="102"/>
+      <c r="F62" s="102"/>
+      <c r="G62" s="89"/>
       <c r="H62" s="52"/>
     </row>
     <row r="63" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A63" s="51">
         <v>60</v>
       </c>
-      <c r="B63" s="92"/>
-      <c r="C63" s="92"/>
-      <c r="D63" s="86" t="s">
-        <v>146</v>
-      </c>
-      <c r="E63" s="96"/>
-      <c r="F63" s="96"/>
-      <c r="G63" s="69"/>
+      <c r="B63" s="103" t="s">
+        <v>323</v>
+      </c>
+      <c r="C63" s="124" t="s">
+        <v>86</v>
+      </c>
+      <c r="D63" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="E63" s="118" t="s">
+        <v>86</v>
+      </c>
+      <c r="F63" s="100" t="s">
+        <v>70</v>
+      </c>
+      <c r="G63" s="89"/>
       <c r="H63" s="52"/>
     </row>
     <row r="64" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A64" s="51">
         <v>61</v>
       </c>
-      <c r="B64" s="92"/>
-      <c r="C64" s="92"/>
-      <c r="D64" s="86" t="s">
-        <v>150</v>
-      </c>
-      <c r="E64" s="96"/>
-      <c r="F64" s="96"/>
-      <c r="G64" s="69"/>
+      <c r="B64" s="104"/>
+      <c r="C64" s="124"/>
+      <c r="D64" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="E64" s="118"/>
+      <c r="F64" s="101"/>
+      <c r="G64" s="89"/>
       <c r="H64" s="52"/>
     </row>
     <row r="65" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A65" s="51">
         <v>62</v>
       </c>
-      <c r="B65" s="92"/>
-      <c r="C65" s="92"/>
-      <c r="D65" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="E65" s="96"/>
-      <c r="F65" s="96"/>
-      <c r="G65" s="69"/>
+      <c r="B65" s="104"/>
+      <c r="C65" s="124"/>
+      <c r="D65" s="71" t="s">
+        <v>105</v>
+      </c>
+      <c r="E65" s="118"/>
+      <c r="F65" s="101"/>
+      <c r="G65" s="89"/>
       <c r="H65" s="52"/>
     </row>
     <row r="66" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A66" s="51">
         <v>63</v>
       </c>
-      <c r="B66" s="93"/>
-      <c r="C66" s="92"/>
-      <c r="D66" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="E66" s="95"/>
-      <c r="F66" s="95"/>
-      <c r="G66" s="69"/>
+      <c r="B66" s="104"/>
+      <c r="C66" s="124"/>
+      <c r="D66" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="E66" s="118"/>
+      <c r="F66" s="101"/>
+      <c r="G66" s="89"/>
       <c r="H66" s="52"/>
     </row>
     <row r="67" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A67" s="51">
         <v>64</v>
       </c>
-      <c r="B67" s="91" t="s">
-        <v>332</v>
-      </c>
-      <c r="C67" s="109" t="s">
-        <v>95</v>
-      </c>
-      <c r="D67" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="E67" s="94" t="s">
-        <v>191</v>
-      </c>
-      <c r="F67" s="94" t="s">
-        <v>192</v>
-      </c>
-      <c r="G67" s="69"/>
+      <c r="B67" s="104"/>
+      <c r="C67" s="124"/>
+      <c r="D67" s="70" t="s">
+        <v>107</v>
+      </c>
+      <c r="E67" s="118"/>
+      <c r="F67" s="101"/>
+      <c r="G67" s="89"/>
       <c r="H67" s="52"/>
     </row>
     <row r="68" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A68" s="51">
         <v>65</v>
       </c>
-      <c r="B68" s="92"/>
-      <c r="C68" s="110"/>
-      <c r="D68" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="E68" s="96"/>
-      <c r="F68" s="96"/>
-      <c r="G68" s="69"/>
+      <c r="B68" s="104"/>
+      <c r="C68" s="124"/>
+      <c r="D68" s="70" t="s">
+        <v>108</v>
+      </c>
+      <c r="E68" s="118"/>
+      <c r="F68" s="101"/>
+      <c r="G68" s="89"/>
       <c r="H68" s="52"/>
     </row>
     <row r="69" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A69" s="51">
         <v>66</v>
       </c>
-      <c r="B69" s="93"/>
-      <c r="C69" s="110"/>
-      <c r="D69" s="85" t="s">
-        <v>205</v>
-      </c>
-      <c r="E69" s="95"/>
-      <c r="F69" s="95"/>
-      <c r="G69" s="69"/>
+      <c r="B69" s="104"/>
+      <c r="C69" s="120"/>
+      <c r="D69" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="E69" s="119"/>
+      <c r="F69" s="101"/>
+      <c r="G69" s="89"/>
       <c r="H69" s="52"/>
     </row>
     <row r="70" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A70" s="51">
         <v>67</v>
       </c>
-      <c r="B70" s="91" t="s">
-        <v>339</v>
-      </c>
-      <c r="C70" s="91" t="s">
-        <v>92</v>
-      </c>
-      <c r="D70" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="E70" s="94" t="s">
-        <v>190</v>
-      </c>
-      <c r="F70" s="94" t="s">
-        <v>165</v>
-      </c>
-      <c r="G70" s="69"/>
+      <c r="B70" s="104"/>
+      <c r="C70" s="120"/>
+      <c r="D70" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E70" s="119"/>
+      <c r="F70" s="101"/>
+      <c r="G70" s="89"/>
       <c r="H70" s="52"/>
     </row>
     <row r="71" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A71" s="51">
         <v>68</v>
       </c>
-      <c r="B71" s="92"/>
-      <c r="C71" s="92"/>
+      <c r="B71" s="104"/>
+      <c r="C71" s="120"/>
       <c r="D71" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="E71" s="96"/>
-      <c r="F71" s="96"/>
-      <c r="G71" s="69"/>
+        <v>202</v>
+      </c>
+      <c r="E71" s="119"/>
+      <c r="F71" s="101"/>
+      <c r="G71" s="89"/>
       <c r="H71" s="52"/>
     </row>
     <row r="72" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A72" s="51">
         <v>69</v>
       </c>
-      <c r="B72" s="92"/>
-      <c r="C72" s="92"/>
+      <c r="B72" s="105"/>
+      <c r="C72" s="120"/>
       <c r="D72" s="23" t="s">
-        <v>230</v>
-      </c>
-      <c r="E72" s="96"/>
-      <c r="F72" s="96"/>
-      <c r="G72" s="69"/>
+        <v>185</v>
+      </c>
+      <c r="E72" s="119"/>
+      <c r="F72" s="102"/>
+      <c r="G72" s="89"/>
       <c r="H72" s="52"/>
     </row>
-    <row r="73" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+    <row r="73" spans="1:8" s="64" customFormat="1" ht="18" customHeight="1">
       <c r="A73" s="51">
         <v>70</v>
       </c>
-      <c r="B73" s="92"/>
-      <c r="C73" s="92"/>
-      <c r="D73" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="E73" s="96"/>
-      <c r="F73" s="96"/>
-      <c r="G73" s="69"/>
-      <c r="H73" s="52"/>
+      <c r="B73" s="112" t="s">
+        <v>324</v>
+      </c>
+      <c r="C73" s="103" t="s">
+        <v>77</v>
+      </c>
+      <c r="D73" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="E73" s="112" t="s">
+        <v>159</v>
+      </c>
+      <c r="F73" s="112" t="s">
+        <v>72</v>
+      </c>
+      <c r="G73" s="51"/>
+      <c r="H73" s="51"/>
     </row>
     <row r="74" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A74" s="51">
         <v>71</v>
       </c>
-      <c r="B74" s="93"/>
-      <c r="C74" s="93"/>
-      <c r="D74" s="24" t="s">
-        <v>231</v>
-      </c>
-      <c r="E74" s="95"/>
-      <c r="F74" s="95"/>
-      <c r="G74" s="69"/>
+      <c r="B74" s="113"/>
+      <c r="C74" s="104"/>
+      <c r="D74" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="E74" s="113"/>
+      <c r="F74" s="113"/>
+      <c r="G74" s="39"/>
       <c r="H74" s="52"/>
     </row>
     <row r="75" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A75" s="51">
         <v>72</v>
       </c>
-      <c r="B75" s="91" t="s">
-        <v>340</v>
-      </c>
-      <c r="C75" s="91" t="s">
-        <v>341</v>
-      </c>
+      <c r="B75" s="113"/>
+      <c r="C75" s="104"/>
       <c r="D75" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="E75" s="94" t="s">
-        <v>187</v>
-      </c>
-      <c r="F75" s="94" t="s">
-        <v>189</v>
-      </c>
-      <c r="G75" s="69"/>
+        <v>201</v>
+      </c>
+      <c r="E75" s="113"/>
+      <c r="F75" s="113"/>
+      <c r="G75" s="39"/>
       <c r="H75" s="52"/>
     </row>
     <row r="76" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A76" s="51">
         <v>73</v>
       </c>
-      <c r="B76" s="92"/>
-      <c r="C76" s="92"/>
-      <c r="D76" s="85" t="s">
-        <v>209</v>
-      </c>
-      <c r="E76" s="96"/>
-      <c r="F76" s="96"/>
-      <c r="G76" s="70"/>
+      <c r="B76" s="113"/>
+      <c r="C76" s="104"/>
+      <c r="D76" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E76" s="113"/>
+      <c r="F76" s="113"/>
+      <c r="G76" s="39"/>
       <c r="H76" s="52"/>
     </row>
     <row r="77" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A77" s="51">
         <v>74</v>
       </c>
-      <c r="B77" s="92"/>
-      <c r="C77" s="92"/>
-      <c r="D77" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="E77" s="96"/>
-      <c r="F77" s="96"/>
-      <c r="G77" s="69"/>
-      <c r="H77" s="52"/>
+      <c r="B77" s="113"/>
+      <c r="C77" s="104"/>
+      <c r="D77" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E77" s="113"/>
+      <c r="F77" s="113"/>
+      <c r="G77" s="30"/>
+      <c r="H77" s="32"/>
     </row>
     <row r="78" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A78" s="51">
         <v>75</v>
       </c>
-      <c r="B78" s="93"/>
-      <c r="C78" s="93"/>
-      <c r="D78" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="E78" s="95"/>
-      <c r="F78" s="95"/>
-      <c r="G78" s="70"/>
-      <c r="H78" s="52"/>
+      <c r="B78" s="113"/>
+      <c r="C78" s="104"/>
+      <c r="D78" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="E78" s="113"/>
+      <c r="F78" s="113"/>
+      <c r="G78" s="30"/>
+      <c r="H78" s="32"/>
     </row>
     <row r="79" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A79" s="51">
         <v>76</v>
       </c>
-      <c r="B79" s="91" t="s">
-        <v>344</v>
-      </c>
-      <c r="C79" s="91" t="s">
-        <v>242</v>
-      </c>
-      <c r="D79" s="86" t="s">
-        <v>225</v>
-      </c>
-      <c r="E79" s="94" t="s">
-        <v>188</v>
-      </c>
-      <c r="F79" s="94" t="s">
-        <v>186</v>
-      </c>
-      <c r="G79" s="69"/>
-      <c r="H79" s="52"/>
+      <c r="B79" s="113"/>
+      <c r="C79" s="104"/>
+      <c r="D79" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="E79" s="113"/>
+      <c r="F79" s="113"/>
+      <c r="G79" s="30"/>
+      <c r="H79" s="32"/>
     </row>
     <row r="80" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A80" s="51">
         <v>77</v>
       </c>
-      <c r="B80" s="92"/>
-      <c r="C80" s="92"/>
-      <c r="D80" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="E80" s="96"/>
-      <c r="F80" s="96"/>
-      <c r="G80" s="69"/>
+      <c r="B80" s="113"/>
+      <c r="C80" s="104"/>
+      <c r="D80" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="E80" s="113"/>
+      <c r="F80" s="113"/>
+      <c r="G80" s="75"/>
       <c r="H80" s="52"/>
     </row>
     <row r="81" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A81" s="51">
         <v>78</v>
       </c>
-      <c r="B81" s="92"/>
-      <c r="C81" s="92"/>
-      <c r="D81" s="86" t="s">
-        <v>206</v>
-      </c>
-      <c r="E81" s="96"/>
-      <c r="F81" s="96"/>
-      <c r="G81" s="69"/>
+      <c r="B81" s="113"/>
+      <c r="C81" s="104"/>
+      <c r="D81" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="E81" s="113"/>
+      <c r="F81" s="113"/>
+      <c r="G81" s="75"/>
       <c r="H81" s="52"/>
     </row>
     <row r="82" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A82" s="51">
         <v>79</v>
       </c>
-      <c r="B82" s="92"/>
-      <c r="C82" s="92"/>
-      <c r="D82" s="86" t="s">
-        <v>214</v>
-      </c>
-      <c r="E82" s="96"/>
-      <c r="F82" s="96"/>
-      <c r="G82" s="69"/>
-      <c r="H82" s="52"/>
+      <c r="B82" s="113"/>
+      <c r="C82" s="104"/>
+      <c r="D82" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E82" s="113"/>
+      <c r="F82" s="113"/>
+      <c r="G82" s="30"/>
+      <c r="H82" s="32"/>
     </row>
     <row r="83" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A83" s="51">
         <v>80</v>
       </c>
-      <c r="B83" s="92"/>
-      <c r="C83" s="92"/>
-      <c r="D83" s="86" t="s">
-        <v>211</v>
-      </c>
-      <c r="E83" s="96"/>
-      <c r="F83" s="96"/>
-      <c r="G83" s="69"/>
-      <c r="H83" s="52"/>
+      <c r="B83" s="113"/>
+      <c r="C83" s="104"/>
+      <c r="D83" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E83" s="113"/>
+      <c r="F83" s="113"/>
+      <c r="G83" s="30"/>
+      <c r="H83" s="32"/>
     </row>
     <row r="84" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A84" s="51">
         <v>81</v>
       </c>
-      <c r="B84" s="92"/>
-      <c r="C84" s="92"/>
-      <c r="D84" s="86" t="s">
-        <v>129</v>
-      </c>
-      <c r="E84" s="96"/>
-      <c r="F84" s="96"/>
-      <c r="G84" s="69"/>
-      <c r="H84" s="52"/>
+      <c r="B84" s="113"/>
+      <c r="C84" s="105"/>
+      <c r="D84" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="E84" s="114"/>
+      <c r="F84" s="114"/>
+      <c r="G84" s="30"/>
+      <c r="H84" s="32"/>
     </row>
     <row r="85" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A85" s="51">
         <v>82</v>
       </c>
-      <c r="B85" s="93"/>
-      <c r="C85" s="93"/>
-      <c r="D85" s="86" t="s">
-        <v>207</v>
-      </c>
-      <c r="E85" s="95"/>
-      <c r="F85" s="95"/>
-      <c r="G85" s="69"/>
+      <c r="B85" s="103" t="s">
+        <v>324</v>
+      </c>
+      <c r="C85" s="103" t="s">
+        <v>97</v>
+      </c>
+      <c r="D85" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="E85" s="100" t="s">
+        <v>170</v>
+      </c>
+      <c r="F85" s="100" t="s">
+        <v>70</v>
+      </c>
+      <c r="G85" s="89"/>
       <c r="H85" s="52"/>
     </row>
     <row r="86" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A86" s="51">
         <v>83</v>
       </c>
-      <c r="B86" s="91" t="s">
-        <v>342</v>
-      </c>
-      <c r="C86" s="91" t="s">
-        <v>343</v>
-      </c>
-      <c r="D86" s="85" t="s">
-        <v>208</v>
-      </c>
-      <c r="E86" s="94" t="s">
-        <v>185</v>
-      </c>
-      <c r="F86" s="94" t="s">
-        <v>165</v>
-      </c>
-      <c r="G86" s="69"/>
+      <c r="B86" s="104"/>
+      <c r="C86" s="104"/>
+      <c r="D86" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="E86" s="101"/>
+      <c r="F86" s="101"/>
+      <c r="G86" s="89"/>
       <c r="H86" s="52"/>
     </row>
     <row r="87" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A87" s="51">
         <v>84</v>
       </c>
-      <c r="B87" s="93"/>
-      <c r="C87" s="93"/>
+      <c r="B87" s="104"/>
+      <c r="C87" s="104"/>
       <c r="D87" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="E87" s="95"/>
-      <c r="F87" s="95"/>
-      <c r="G87" s="69"/>
+        <v>183</v>
+      </c>
+      <c r="E87" s="101"/>
+      <c r="F87" s="101"/>
+      <c r="G87" s="89"/>
       <c r="H87" s="52"/>
     </row>
     <row r="88" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A88" s="51">
         <v>85</v>
       </c>
-      <c r="B88" s="91" t="s">
-        <v>332</v>
-      </c>
-      <c r="C88" s="91" t="s">
-        <v>94</v>
-      </c>
+      <c r="B88" s="105"/>
+      <c r="C88" s="104"/>
       <c r="D88" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="E88" s="94" t="s">
-        <v>184</v>
-      </c>
-      <c r="F88" s="94" t="s">
-        <v>165</v>
-      </c>
-      <c r="G88" s="69"/>
+        <v>182</v>
+      </c>
+      <c r="E88" s="102"/>
+      <c r="F88" s="102"/>
+      <c r="G88" s="89"/>
       <c r="H88" s="52"/>
     </row>
     <row r="89" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A89" s="51">
         <v>86</v>
       </c>
-      <c r="B89" s="93"/>
-      <c r="C89" s="93"/>
-      <c r="D89" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="E89" s="95"/>
-      <c r="F89" s="95"/>
-      <c r="G89" s="69"/>
-      <c r="H89" s="52"/>
+      <c r="B89" s="112" t="s">
+        <v>325</v>
+      </c>
+      <c r="C89" s="103" t="s">
+        <v>78</v>
+      </c>
+      <c r="D89" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E89" s="115" t="s">
+        <v>158</v>
+      </c>
+      <c r="F89" s="100" t="s">
+        <v>70</v>
+      </c>
+      <c r="G89" s="30"/>
+      <c r="H89" s="32"/>
     </row>
     <row r="90" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A90" s="51">
         <v>87</v>
       </c>
-      <c r="B90" s="91" t="s">
-        <v>349</v>
-      </c>
-      <c r="C90" s="91" t="s">
-        <v>96</v>
-      </c>
-      <c r="D90" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="E90" s="94" t="s">
-        <v>182</v>
-      </c>
-      <c r="F90" s="94" t="s">
-        <v>183</v>
-      </c>
-      <c r="G90" s="69"/>
-      <c r="H90" s="52"/>
+      <c r="B90" s="113"/>
+      <c r="C90" s="104"/>
+      <c r="D90" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E90" s="116"/>
+      <c r="F90" s="101"/>
+      <c r="G90" s="30"/>
+      <c r="H90" s="32"/>
     </row>
     <row r="91" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A91" s="51">
         <v>88</v>
       </c>
-      <c r="B91" s="92"/>
-      <c r="C91" s="92"/>
-      <c r="D91" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="E91" s="96"/>
-      <c r="F91" s="96"/>
-      <c r="G91" s="69"/>
-      <c r="H91" s="52"/>
+      <c r="B91" s="113"/>
+      <c r="C91" s="104"/>
+      <c r="D91" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="E91" s="116"/>
+      <c r="F91" s="101"/>
+      <c r="G91" s="30"/>
+      <c r="H91" s="32"/>
     </row>
     <row r="92" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A92" s="51">
         <v>89</v>
       </c>
-      <c r="B92" s="92"/>
-      <c r="C92" s="92"/>
-      <c r="D92" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="E92" s="96"/>
-      <c r="F92" s="96"/>
-      <c r="G92" s="69"/>
-      <c r="H92" s="52"/>
+      <c r="B92" s="113"/>
+      <c r="C92" s="104"/>
+      <c r="D92" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="E92" s="116"/>
+      <c r="F92" s="101"/>
+      <c r="G92" s="30"/>
+      <c r="H92" s="32"/>
     </row>
     <row r="93" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A93" s="51">
         <v>90</v>
       </c>
-      <c r="B93" s="92"/>
-      <c r="C93" s="92"/>
-      <c r="D93" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="E93" s="96"/>
-      <c r="F93" s="96"/>
-      <c r="G93" s="69"/>
-      <c r="H93" s="52"/>
+      <c r="B93" s="113"/>
+      <c r="C93" s="104"/>
+      <c r="D93" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="E93" s="116"/>
+      <c r="F93" s="101"/>
+      <c r="G93" s="30"/>
+      <c r="H93" s="32"/>
     </row>
     <row r="94" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A94" s="51">
         <v>91</v>
       </c>
-      <c r="B94" s="93"/>
-      <c r="C94" s="93"/>
-      <c r="D94" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="E94" s="95"/>
-      <c r="F94" s="95"/>
-      <c r="G94" s="69"/>
-      <c r="H94" s="52"/>
+      <c r="B94" s="113"/>
+      <c r="C94" s="104"/>
+      <c r="D94" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E94" s="116"/>
+      <c r="F94" s="101"/>
+      <c r="G94" s="30"/>
+      <c r="H94" s="32"/>
     </row>
     <row r="95" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A95" s="51">
         <v>92</v>
       </c>
-      <c r="B95" s="91" t="s">
-        <v>352</v>
-      </c>
-      <c r="C95" s="91" t="s">
-        <v>97</v>
-      </c>
-      <c r="D95" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="E95" s="94" t="s">
-        <v>181</v>
-      </c>
-      <c r="F95" s="94" t="s">
-        <v>180</v>
-      </c>
-      <c r="G95" s="69"/>
-      <c r="H95" s="52"/>
+      <c r="B95" s="113"/>
+      <c r="C95" s="104"/>
+      <c r="D95" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E95" s="116"/>
+      <c r="F95" s="101"/>
+      <c r="G95" s="30"/>
+      <c r="H95" s="32"/>
     </row>
     <row r="96" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A96" s="51">
         <v>93</v>
       </c>
-      <c r="B96" s="92"/>
-      <c r="C96" s="92"/>
-      <c r="D96" s="24" t="s">
-        <v>236</v>
-      </c>
-      <c r="E96" s="96"/>
-      <c r="F96" s="96"/>
-      <c r="G96" s="69"/>
-      <c r="H96" s="52"/>
+      <c r="B96" s="114"/>
+      <c r="C96" s="105"/>
+      <c r="D96" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="E96" s="117"/>
+      <c r="F96" s="101"/>
+      <c r="G96" s="30"/>
+      <c r="H96" s="32"/>
     </row>
     <row r="97" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A97" s="51">
         <v>94</v>
       </c>
-      <c r="B97" s="93"/>
-      <c r="C97" s="92"/>
-      <c r="D97" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="E97" s="95"/>
-      <c r="F97" s="95"/>
-      <c r="G97" s="69"/>
-      <c r="H97" s="52"/>
+      <c r="B97" s="112" t="s">
+        <v>328</v>
+      </c>
+      <c r="C97" s="103" t="s">
+        <v>83</v>
+      </c>
+      <c r="D97" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="E97" s="103" t="s">
+        <v>160</v>
+      </c>
+      <c r="F97" s="100" t="s">
+        <v>161</v>
+      </c>
+      <c r="G97" s="30"/>
+      <c r="H97" s="32"/>
     </row>
     <row r="98" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A98" s="51">
         <v>95</v>
       </c>
-      <c r="B98" s="91" t="s">
-        <v>350</v>
-      </c>
-      <c r="C98" s="91" t="s">
-        <v>98</v>
-      </c>
-      <c r="D98" s="43" t="s">
-        <v>144</v>
-      </c>
-      <c r="E98" s="94" t="s">
-        <v>179</v>
-      </c>
-      <c r="F98" s="94" t="s">
-        <v>180</v>
-      </c>
-      <c r="G98" s="69"/>
-      <c r="H98" s="52"/>
+      <c r="B98" s="113"/>
+      <c r="C98" s="104"/>
+      <c r="D98" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E98" s="104"/>
+      <c r="F98" s="101"/>
+      <c r="G98" s="30"/>
+      <c r="H98" s="32"/>
     </row>
     <row r="99" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A99" s="51">
         <v>96</v>
       </c>
-      <c r="B99" s="92"/>
-      <c r="C99" s="92"/>
-      <c r="D99" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="E99" s="96"/>
-      <c r="F99" s="96"/>
-      <c r="G99" s="69"/>
-      <c r="H99" s="52"/>
+      <c r="B99" s="114"/>
+      <c r="C99" s="105"/>
+      <c r="D99" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="E99" s="105"/>
+      <c r="F99" s="102"/>
+      <c r="G99" s="30"/>
+      <c r="H99" s="32"/>
     </row>
     <row r="100" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A100" s="51">
         <v>97</v>
       </c>
-      <c r="B100" s="92"/>
-      <c r="C100" s="92"/>
+      <c r="B100" s="103" t="s">
+        <v>326</v>
+      </c>
+      <c r="C100" s="103" t="s">
+        <v>87</v>
+      </c>
       <c r="D100" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="E100" s="96"/>
-      <c r="F100" s="96"/>
-      <c r="G100" s="78"/>
-      <c r="H100" s="52"/>
+        <v>112</v>
+      </c>
+      <c r="E100" s="100" t="s">
+        <v>163</v>
+      </c>
+      <c r="F100" s="100" t="s">
+        <v>162</v>
+      </c>
+      <c r="G100" s="30"/>
+      <c r="H100" s="32"/>
     </row>
     <row r="101" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A101" s="51">
         <v>98</v>
       </c>
-      <c r="B101" s="93"/>
-      <c r="C101" s="92"/>
+      <c r="B101" s="104"/>
+      <c r="C101" s="104"/>
       <c r="D101" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="E101" s="95"/>
-      <c r="F101" s="95"/>
-      <c r="G101" s="69"/>
-      <c r="H101" s="52"/>
+        <v>113</v>
+      </c>
+      <c r="E101" s="101"/>
+      <c r="F101" s="101"/>
+      <c r="G101" s="30"/>
+      <c r="H101" s="32"/>
     </row>
     <row r="102" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A102" s="51">
         <v>99</v>
       </c>
-      <c r="B102" s="91" t="s">
-        <v>332</v>
-      </c>
-      <c r="C102" s="91" t="s">
-        <v>99</v>
-      </c>
+      <c r="B102" s="104"/>
+      <c r="C102" s="104"/>
       <c r="D102" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="E102" s="94" t="s">
-        <v>178</v>
-      </c>
-      <c r="F102" s="94" t="s">
-        <v>176</v>
-      </c>
-      <c r="G102" s="69"/>
-      <c r="H102" s="52"/>
+        <v>114</v>
+      </c>
+      <c r="E102" s="101"/>
+      <c r="F102" s="101"/>
+      <c r="G102" s="30"/>
+      <c r="H102" s="32"/>
     </row>
     <row r="103" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A103" s="51">
         <v>100</v>
       </c>
-      <c r="B103" s="92"/>
-      <c r="C103" s="92"/>
+      <c r="B103" s="104"/>
+      <c r="C103" s="104"/>
       <c r="D103" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="E103" s="96"/>
-      <c r="F103" s="96"/>
-      <c r="G103" s="69"/>
-      <c r="H103" s="52"/>
+        <v>115</v>
+      </c>
+      <c r="E103" s="101"/>
+      <c r="F103" s="101"/>
+      <c r="G103" s="30"/>
+      <c r="H103" s="32"/>
     </row>
     <row r="104" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A104" s="51">
         <v>101</v>
       </c>
-      <c r="B104" s="92"/>
-      <c r="C104" s="92"/>
+      <c r="B104" s="104"/>
+      <c r="C104" s="104"/>
       <c r="D104" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="E104" s="96"/>
-      <c r="F104" s="96"/>
-      <c r="G104" s="74"/>
-      <c r="H104" s="52"/>
+        <v>193</v>
+      </c>
+      <c r="E104" s="101"/>
+      <c r="F104" s="101"/>
+      <c r="G104" s="30"/>
+      <c r="H104" s="32"/>
     </row>
     <row r="105" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A105" s="51">
         <v>102</v>
       </c>
-      <c r="B105" s="93"/>
-      <c r="C105" s="93"/>
+      <c r="B105" s="104"/>
+      <c r="C105" s="104"/>
       <c r="D105" s="24" t="s">
-        <v>228</v>
-      </c>
-      <c r="E105" s="95"/>
-      <c r="F105" s="95"/>
-      <c r="G105" s="78"/>
-      <c r="H105" s="52"/>
+        <v>116</v>
+      </c>
+      <c r="E105" s="101"/>
+      <c r="F105" s="101"/>
+      <c r="G105" s="30"/>
+      <c r="H105" s="32"/>
     </row>
     <row r="106" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A106" s="51">
         <v>103</v>
       </c>
-      <c r="B106" s="91" t="s">
-        <v>332</v>
-      </c>
-      <c r="C106" s="91" t="s">
-        <v>93</v>
-      </c>
+      <c r="B106" s="104"/>
+      <c r="C106" s="104"/>
       <c r="D106" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="E106" s="94" t="s">
-        <v>196</v>
-      </c>
-      <c r="F106" s="94" t="s">
-        <v>197</v>
-      </c>
-      <c r="G106" s="74"/>
-      <c r="H106" s="52"/>
-    </row>
-    <row r="107" spans="1:8" s="43" customFormat="1" ht="16.5" customHeight="1">
+        <v>117</v>
+      </c>
+      <c r="E106" s="101"/>
+      <c r="F106" s="101"/>
+      <c r="G106" s="30"/>
+      <c r="H106" s="32"/>
+    </row>
+    <row r="107" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A107" s="51">
         <v>104</v>
       </c>
-      <c r="B107" s="92"/>
-      <c r="C107" s="92"/>
+      <c r="B107" s="105"/>
+      <c r="C107" s="105"/>
       <c r="D107" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="E107" s="96"/>
-      <c r="F107" s="96"/>
-      <c r="G107" s="74"/>
+        <v>330</v>
+      </c>
+      <c r="E107" s="102"/>
+      <c r="F107" s="87"/>
+      <c r="G107" s="89"/>
       <c r="H107" s="52"/>
     </row>
     <row r="108" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A108" s="51">
         <v>105</v>
       </c>
-      <c r="B108" s="92"/>
-      <c r="C108" s="92"/>
-      <c r="D108" s="86" t="s">
-        <v>216</v>
-      </c>
-      <c r="E108" s="96"/>
-      <c r="F108" s="96"/>
-      <c r="G108" s="74"/>
+      <c r="B108" s="103" t="s">
+        <v>327</v>
+      </c>
+      <c r="C108" s="103" t="s">
+        <v>96</v>
+      </c>
+      <c r="D108" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="E108" s="100" t="s">
+        <v>171</v>
+      </c>
+      <c r="F108" s="100" t="s">
+        <v>172</v>
+      </c>
+      <c r="G108" s="69"/>
       <c r="H108" s="52"/>
     </row>
     <row r="109" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A109" s="51">
         <v>106</v>
       </c>
-      <c r="B109" s="92"/>
-      <c r="C109" s="92"/>
-      <c r="D109" s="86" t="s">
-        <v>154</v>
-      </c>
-      <c r="E109" s="96"/>
-      <c r="F109" s="96"/>
-      <c r="G109" s="74"/>
+      <c r="B109" s="104"/>
+      <c r="C109" s="104"/>
+      <c r="D109" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="E109" s="101"/>
+      <c r="F109" s="101"/>
+      <c r="G109" s="69"/>
       <c r="H109" s="52"/>
     </row>
     <row r="110" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A110" s="51">
         <v>107</v>
       </c>
-      <c r="B110" s="92"/>
-      <c r="C110" s="92"/>
-      <c r="D110" s="86" t="s">
-        <v>153</v>
-      </c>
-      <c r="E110" s="96"/>
-      <c r="F110" s="96"/>
-      <c r="G110" s="74"/>
+      <c r="B110" s="104"/>
+      <c r="C110" s="104"/>
+      <c r="D110" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="E110" s="101"/>
+      <c r="F110" s="101"/>
+      <c r="G110" s="69"/>
       <c r="H110" s="52"/>
     </row>
     <row r="111" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A111" s="51">
         <v>108</v>
       </c>
-      <c r="B111" s="93"/>
-      <c r="C111" s="92"/>
-      <c r="D111" s="86" t="s">
-        <v>212</v>
-      </c>
-      <c r="E111" s="95"/>
-      <c r="F111" s="95"/>
-      <c r="G111" s="74"/>
+      <c r="B111" s="104"/>
+      <c r="C111" s="104"/>
+      <c r="D111" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="E111" s="101"/>
+      <c r="F111" s="101"/>
+      <c r="G111" s="69"/>
       <c r="H111" s="52"/>
     </row>
     <row r="112" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A112" s="51">
         <v>109</v>
       </c>
-      <c r="B112" s="76" t="s">
-        <v>335</v>
-      </c>
-      <c r="C112" s="75" t="s">
-        <v>100</v>
-      </c>
+      <c r="B112" s="105"/>
+      <c r="C112" s="105"/>
       <c r="D112" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="E112" s="73" t="s">
-        <v>175</v>
-      </c>
-      <c r="F112" s="73" t="s">
-        <v>177</v>
-      </c>
-      <c r="G112" s="74"/>
+        <v>130</v>
+      </c>
+      <c r="E112" s="102"/>
+      <c r="F112" s="102"/>
+      <c r="G112" s="69"/>
       <c r="H112" s="52"/>
     </row>
-    <row r="113" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A113" s="51">
+    <row r="113" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A113" s="51"/>
+      <c r="B113" s="25"/>
+      <c r="C113" s="106" t="s">
+        <v>35</v>
+      </c>
+      <c r="D113" s="107"/>
+      <c r="E113" s="72"/>
+      <c r="F113" s="72"/>
+      <c r="G113" s="73"/>
+      <c r="H113" s="27"/>
+    </row>
+    <row r="114" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A114" s="51">
         <v>110</v>
       </c>
-      <c r="B113" s="105" t="s">
-        <v>334</v>
-      </c>
-      <c r="C113" s="91" t="s">
-        <v>101</v>
-      </c>
-      <c r="D113" s="85" t="s">
-        <v>221</v>
-      </c>
-      <c r="E113" s="94" t="s">
-        <v>174</v>
-      </c>
-      <c r="F113" s="94" t="s">
-        <v>176</v>
-      </c>
-      <c r="G113" s="74"/>
-      <c r="H113" s="52"/>
-    </row>
-    <row r="114" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A114" s="51">
+      <c r="B114" s="73" t="s">
+        <v>47</v>
+      </c>
+      <c r="C114" s="73" t="s">
+        <v>222</v>
+      </c>
+      <c r="D114" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="E114" s="72"/>
+      <c r="F114" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="G114" s="73"/>
+      <c r="H114" s="27"/>
+    </row>
+    <row r="115" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A115" s="112">
         <v>111</v>
       </c>
-      <c r="B114" s="106"/>
-      <c r="C114" s="93"/>
-      <c r="D114" s="86" t="s">
-        <v>126</v>
-      </c>
-      <c r="E114" s="95"/>
-      <c r="F114" s="95"/>
-      <c r="G114" s="74"/>
-      <c r="H114" s="52"/>
-    </row>
-    <row r="115" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A115" s="51"/>
-      <c r="B115" s="25"/>
-      <c r="C115" s="111" t="s">
-        <v>35</v>
-      </c>
-      <c r="D115" s="112"/>
-      <c r="E115" s="73"/>
-      <c r="F115" s="73"/>
-      <c r="G115" s="74"/>
+      <c r="B115" s="103" t="s">
+        <v>48</v>
+      </c>
+      <c r="C115" s="120" t="s">
+        <v>241</v>
+      </c>
+      <c r="D115" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="E115" s="119"/>
+      <c r="F115" s="100" t="s">
+        <v>73</v>
+      </c>
+      <c r="G115" s="30"/>
       <c r="H115" s="27"/>
     </row>
     <row r="116" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A116" s="51">
+      <c r="A116" s="114"/>
+      <c r="B116" s="105"/>
+      <c r="C116" s="120"/>
+      <c r="D116" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="E116" s="119"/>
+      <c r="F116" s="102"/>
+      <c r="G116" s="30"/>
+      <c r="H116" s="27"/>
+    </row>
+    <row r="117" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A117" s="29">
         <v>112</v>
       </c>
-      <c r="B116" s="74" t="s">
-        <v>47</v>
-      </c>
-      <c r="C116" s="74" t="s">
-        <v>240</v>
-      </c>
-      <c r="D116" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="E116" s="73"/>
-      <c r="F116" s="73" t="s">
+      <c r="B117" s="103" t="s">
+        <v>248</v>
+      </c>
+      <c r="C117" s="120" t="s">
+        <v>247</v>
+      </c>
+      <c r="D117" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="E117" s="119"/>
+      <c r="F117" s="100" t="s">
         <v>71</v>
-      </c>
-      <c r="G116" s="74"/>
-      <c r="H116" s="27"/>
-    </row>
-    <row r="117" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A117" s="103">
-        <v>113</v>
-      </c>
-      <c r="B117" s="91" t="s">
-        <v>48</v>
-      </c>
-      <c r="C117" s="102" t="s">
-        <v>259</v>
-      </c>
-      <c r="D117" s="25" t="s">
-        <v>260</v>
-      </c>
-      <c r="E117" s="98"/>
-      <c r="F117" s="94" t="s">
-        <v>73</v>
       </c>
       <c r="G117" s="30"/>
       <c r="H117" s="27"/>
     </row>
     <row r="118" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A118" s="107"/>
-      <c r="B118" s="93"/>
-      <c r="C118" s="102"/>
-      <c r="D118" s="33" t="s">
-        <v>261</v>
-      </c>
-      <c r="E118" s="98"/>
-      <c r="F118" s="95"/>
+      <c r="A118" s="29">
+        <v>113</v>
+      </c>
+      <c r="B118" s="105"/>
+      <c r="C118" s="120"/>
+      <c r="D118" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="E118" s="119"/>
+      <c r="F118" s="102"/>
       <c r="G118" s="30"/>
       <c r="H118" s="27"/>
     </row>
-    <row r="119" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A119" s="29">
+    <row r="119" spans="1:8" s="43" customFormat="1" ht="15" customHeight="1">
+      <c r="A119" s="51">
         <v>114</v>
       </c>
-      <c r="B119" s="91" t="s">
-        <v>266</v>
-      </c>
-      <c r="C119" s="102" t="s">
-        <v>265</v>
+      <c r="B119" s="103" t="s">
+        <v>249</v>
+      </c>
+      <c r="C119" s="120" t="s">
+        <v>244</v>
       </c>
       <c r="D119" s="25" t="s">
-        <v>263</v>
-      </c>
-      <c r="E119" s="98"/>
-      <c r="F119" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="E119" s="119"/>
+      <c r="F119" s="100" t="s">
         <v>71</v>
       </c>
       <c r="G119" s="30"/>
-      <c r="H119" s="27"/>
-    </row>
-    <row r="120" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A120" s="29">
+      <c r="H119" s="32"/>
+    </row>
+    <row r="120" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A120" s="51">
         <v>115</v>
       </c>
-      <c r="B120" s="93"/>
-      <c r="C120" s="102"/>
+      <c r="B120" s="104"/>
+      <c r="C120" s="120"/>
       <c r="D120" s="25" t="s">
-        <v>264</v>
-      </c>
-      <c r="E120" s="98"/>
-      <c r="F120" s="95"/>
+        <v>18</v>
+      </c>
+      <c r="E120" s="119"/>
+      <c r="F120" s="101"/>
       <c r="G120" s="30"/>
-      <c r="H120" s="27"/>
-    </row>
-    <row r="121" spans="1:8" s="43" customFormat="1" ht="15" customHeight="1">
+      <c r="H120" s="32"/>
+    </row>
+    <row r="121" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A121" s="51">
         <v>116</v>
       </c>
-      <c r="B121" s="91" t="s">
-        <v>267</v>
-      </c>
-      <c r="C121" s="102" t="s">
-        <v>262</v>
-      </c>
+      <c r="B121" s="105"/>
+      <c r="C121" s="120"/>
       <c r="D121" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E121" s="98"/>
-      <c r="F121" s="94" t="s">
-        <v>71</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E121" s="119"/>
+      <c r="F121" s="102"/>
       <c r="G121" s="30"/>
       <c r="H121" s="32"/>
     </row>
     <row r="122" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A122" s="51">
-        <v>117</v>
-      </c>
-      <c r="B122" s="92"/>
-      <c r="C122" s="102"/>
-      <c r="D122" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E122" s="98"/>
-      <c r="F122" s="96"/>
+      <c r="A122" s="29"/>
+      <c r="B122" s="25"/>
+      <c r="C122" s="121" t="s">
+        <v>37</v>
+      </c>
+      <c r="D122" s="121"/>
+      <c r="E122" s="25"/>
+      <c r="F122" s="62"/>
       <c r="G122" s="30"/>
       <c r="H122" s="32"/>
     </row>
     <row r="123" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A123" s="51">
-        <v>118</v>
-      </c>
-      <c r="B123" s="93"/>
-      <c r="C123" s="102"/>
+      <c r="A123" s="29">
+        <v>117</v>
+      </c>
+      <c r="B123" s="103" t="s">
+        <v>49</v>
+      </c>
+      <c r="C123" s="120" t="s">
+        <v>221</v>
+      </c>
       <c r="D123" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E123" s="98"/>
-      <c r="F123" s="95"/>
+        <v>34</v>
+      </c>
+      <c r="E123" s="119"/>
+      <c r="F123" s="100" t="s">
+        <v>74</v>
+      </c>
       <c r="G123" s="30"/>
       <c r="H123" s="32"/>
     </row>
     <row r="124" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A124" s="29"/>
-      <c r="B124" s="25"/>
-      <c r="C124" s="113" t="s">
-        <v>37</v>
-      </c>
-      <c r="D124" s="113"/>
-      <c r="E124" s="25"/>
-      <c r="F124" s="62"/>
+      <c r="A124" s="51">
+        <v>118</v>
+      </c>
+      <c r="B124" s="104"/>
+      <c r="C124" s="120"/>
+      <c r="D124" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E124" s="119"/>
+      <c r="F124" s="101"/>
       <c r="G124" s="30"/>
       <c r="H124" s="32"/>
     </row>
     <row r="125" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A125" s="29">
+      <c r="A125" s="51">
         <v>119</v>
       </c>
-      <c r="B125" s="91" t="s">
-        <v>49</v>
-      </c>
-      <c r="C125" s="102" t="s">
-        <v>239</v>
-      </c>
-      <c r="D125" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E125" s="98"/>
-      <c r="F125" s="94" t="s">
-        <v>74</v>
-      </c>
+      <c r="B125" s="104"/>
+      <c r="C125" s="120"/>
+      <c r="D125" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E125" s="119"/>
+      <c r="F125" s="101"/>
       <c r="G125" s="30"/>
       <c r="H125" s="32"/>
     </row>
@@ -12284,13 +12190,13 @@
       <c r="A126" s="51">
         <v>120</v>
       </c>
-      <c r="B126" s="92"/>
-      <c r="C126" s="102"/>
+      <c r="B126" s="105"/>
+      <c r="C126" s="120"/>
       <c r="D126" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="E126" s="98"/>
-      <c r="F126" s="96"/>
+        <v>64</v>
+      </c>
+      <c r="E126" s="119"/>
+      <c r="F126" s="102"/>
       <c r="G126" s="30"/>
       <c r="H126" s="32"/>
     </row>
@@ -12298,859 +12204,851 @@
       <c r="A127" s="51">
         <v>121</v>
       </c>
-      <c r="B127" s="92"/>
-      <c r="C127" s="102"/>
-      <c r="D127" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="E127" s="98"/>
-      <c r="F127" s="96"/>
+      <c r="B127" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C127" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D127" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E127" s="25"/>
+      <c r="F127" s="62" t="s">
+        <v>73</v>
+      </c>
       <c r="G127" s="30"/>
       <c r="H127" s="32"/>
     </row>
     <row r="128" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A128" s="51">
-        <v>122</v>
-      </c>
-      <c r="B128" s="93"/>
-      <c r="C128" s="102"/>
-      <c r="D128" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="E128" s="98"/>
-      <c r="F128" s="95"/>
+      <c r="A128" s="25"/>
+      <c r="B128" s="25"/>
+      <c r="C128" s="121" t="s">
+        <v>38</v>
+      </c>
+      <c r="D128" s="121"/>
+      <c r="E128" s="25"/>
+      <c r="F128" s="62"/>
       <c r="G128" s="30"/>
       <c r="H128" s="32"/>
     </row>
-    <row r="129" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A129" s="51">
-        <v>123</v>
-      </c>
-      <c r="B129" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="C129" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="D129" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E129" s="25"/>
-      <c r="F129" s="62" t="s">
-        <v>73</v>
+    <row r="129" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A129" s="31">
+        <v>122</v>
+      </c>
+      <c r="B129" s="103" t="s">
+        <v>264</v>
+      </c>
+      <c r="C129" s="103" t="s">
+        <v>265</v>
+      </c>
+      <c r="D129" s="94" t="s">
+        <v>279</v>
+      </c>
+      <c r="E129" s="119"/>
+      <c r="F129" s="100" t="s">
+        <v>74</v>
       </c>
       <c r="G129" s="30"/>
       <c r="H129" s="32"/>
     </row>
-    <row r="130" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A130" s="25"/>
-      <c r="B130" s="25"/>
-      <c r="C130" s="113" t="s">
-        <v>38</v>
-      </c>
-      <c r="D130" s="113"/>
-      <c r="E130" s="25"/>
-      <c r="F130" s="62"/>
+    <row r="130" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A130" s="40">
+        <v>123</v>
+      </c>
+      <c r="B130" s="104"/>
+      <c r="C130" s="104"/>
+      <c r="D130" s="93" t="s">
+        <v>266</v>
+      </c>
+      <c r="E130" s="119"/>
+      <c r="F130" s="101"/>
       <c r="G130" s="30"/>
       <c r="H130" s="32"/>
     </row>
     <row r="131" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A131" s="31">
+      <c r="A131" s="88">
         <v>124</v>
       </c>
-      <c r="B131" s="91" t="s">
-        <v>282</v>
-      </c>
-      <c r="C131" s="91" t="s">
-        <v>283</v>
-      </c>
-      <c r="D131" s="125" t="s">
-        <v>297</v>
-      </c>
-      <c r="E131" s="98"/>
-      <c r="F131" s="94" t="s">
-        <v>74</v>
-      </c>
+      <c r="B131" s="105"/>
+      <c r="C131" s="105"/>
+      <c r="D131" s="93" t="s">
+        <v>267</v>
+      </c>
+      <c r="E131" s="119"/>
+      <c r="F131" s="102"/>
       <c r="G131" s="30"/>
       <c r="H131" s="32"/>
     </row>
     <row r="132" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A132" s="40">
+      <c r="A132" s="88">
         <v>125</v>
       </c>
-      <c r="B132" s="92"/>
-      <c r="C132" s="92"/>
-      <c r="D132" s="124" t="s">
-        <v>284</v>
-      </c>
-      <c r="E132" s="98"/>
-      <c r="F132" s="96"/>
-      <c r="G132" s="30"/>
-      <c r="H132" s="32"/>
+      <c r="B132" s="103" t="s">
+        <v>268</v>
+      </c>
+      <c r="C132" s="103" t="s">
+        <v>270</v>
+      </c>
+      <c r="D132" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="E132" s="100"/>
+      <c r="F132" s="100" t="s">
+        <v>295</v>
+      </c>
+      <c r="G132" s="81"/>
+      <c r="H132" s="52"/>
     </row>
     <row r="133" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A133" s="83">
+      <c r="A133" s="88">
         <v>126</v>
       </c>
-      <c r="B133" s="93"/>
-      <c r="C133" s="93"/>
-      <c r="D133" s="124" t="s">
-        <v>285</v>
-      </c>
-      <c r="E133" s="98"/>
-      <c r="F133" s="95"/>
-      <c r="G133" s="30"/>
-      <c r="H133" s="32"/>
+      <c r="B133" s="104"/>
+      <c r="C133" s="104"/>
+      <c r="D133" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="E133" s="101"/>
+      <c r="F133" s="101"/>
+      <c r="G133" s="81"/>
+      <c r="H133" s="52"/>
     </row>
     <row r="134" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A134" s="83">
+      <c r="A134" s="88">
         <v>127</v>
       </c>
-      <c r="B134" s="91" t="s">
-        <v>286</v>
-      </c>
-      <c r="C134" s="91" t="s">
-        <v>288</v>
-      </c>
+      <c r="B134" s="105"/>
+      <c r="C134" s="105"/>
       <c r="D134" s="25" t="s">
-        <v>287</v>
-      </c>
-      <c r="E134" s="94"/>
-      <c r="F134" s="94" t="s">
-        <v>313</v>
-      </c>
-      <c r="G134" s="84"/>
+        <v>272</v>
+      </c>
+      <c r="E134" s="102"/>
+      <c r="F134" s="102"/>
+      <c r="G134" s="81"/>
       <c r="H134" s="52"/>
     </row>
     <row r="135" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A135" s="83">
+      <c r="A135" s="88">
         <v>128</v>
       </c>
-      <c r="B135" s="92"/>
-      <c r="C135" s="92"/>
-      <c r="D135" s="25" t="s">
-        <v>289</v>
-      </c>
-      <c r="E135" s="96"/>
-      <c r="F135" s="96"/>
-      <c r="G135" s="84"/>
-      <c r="H135" s="52"/>
+      <c r="B135" s="103" t="s">
+        <v>280</v>
+      </c>
+      <c r="C135" s="120" t="s">
+        <v>273</v>
+      </c>
+      <c r="D135" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="E135" s="119"/>
+      <c r="F135" s="100" t="s">
+        <v>71</v>
+      </c>
+      <c r="G135" s="30"/>
+      <c r="H135" s="32"/>
     </row>
     <row r="136" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A136" s="83">
+      <c r="A136" s="88">
         <v>129</v>
       </c>
-      <c r="B136" s="93"/>
-      <c r="C136" s="93"/>
-      <c r="D136" s="25" t="s">
-        <v>290</v>
-      </c>
-      <c r="E136" s="95"/>
-      <c r="F136" s="95"/>
-      <c r="G136" s="84"/>
-      <c r="H136" s="52"/>
+      <c r="B136" s="104"/>
+      <c r="C136" s="124"/>
+      <c r="D136" s="66" t="s">
+        <v>275</v>
+      </c>
+      <c r="E136" s="118"/>
+      <c r="F136" s="101"/>
+      <c r="G136" s="30"/>
+      <c r="H136" s="32"/>
     </row>
     <row r="137" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A137" s="83">
+      <c r="A137" s="88">
         <v>130</v>
       </c>
-      <c r="B137" s="91" t="s">
-        <v>298</v>
-      </c>
-      <c r="C137" s="102" t="s">
-        <v>291</v>
-      </c>
-      <c r="D137" s="66" t="s">
-        <v>292</v>
-      </c>
-      <c r="E137" s="98"/>
-      <c r="F137" s="94" t="s">
-        <v>71</v>
-      </c>
-      <c r="G137" s="30"/>
-      <c r="H137" s="32"/>
+      <c r="B137" s="104"/>
+      <c r="C137" s="124"/>
+      <c r="D137" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="E137" s="118"/>
+      <c r="F137" s="101"/>
+      <c r="G137" s="39"/>
+      <c r="H137" s="52"/>
     </row>
     <row r="138" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A138" s="83">
+      <c r="A138" s="88">
         <v>131</v>
       </c>
-      <c r="B138" s="92"/>
-      <c r="C138" s="101"/>
-      <c r="D138" s="66" t="s">
-        <v>293</v>
-      </c>
-      <c r="E138" s="108"/>
-      <c r="F138" s="96"/>
+      <c r="B138" s="104"/>
+      <c r="C138" s="120"/>
+      <c r="D138" s="65" t="s">
+        <v>276</v>
+      </c>
+      <c r="E138" s="119"/>
+      <c r="F138" s="101"/>
       <c r="G138" s="30"/>
       <c r="H138" s="32"/>
     </row>
     <row r="139" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A139" s="83">
+      <c r="A139" s="88">
         <v>132</v>
       </c>
-      <c r="B139" s="92"/>
-      <c r="C139" s="101"/>
+      <c r="B139" s="105"/>
+      <c r="C139" s="120"/>
       <c r="D139" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="E139" s="119"/>
+      <c r="F139" s="102"/>
+      <c r="G139" s="30"/>
+      <c r="H139" s="32"/>
+    </row>
+    <row r="140" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A140" s="88">
+        <v>133</v>
+      </c>
+      <c r="B140" s="103" t="s">
+        <v>285</v>
+      </c>
+      <c r="C140" s="103" t="s">
+        <v>281</v>
+      </c>
+      <c r="D140" s="95" t="s">
+        <v>284</v>
+      </c>
+      <c r="E140" s="100"/>
+      <c r="F140" s="100" t="s">
         <v>296</v>
       </c>
-      <c r="E139" s="108"/>
-      <c r="F139" s="96"/>
-      <c r="G139" s="39"/>
-      <c r="H139" s="52"/>
-    </row>
-    <row r="140" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A140" s="83">
-        <v>133</v>
-      </c>
-      <c r="B140" s="92"/>
-      <c r="C140" s="102"/>
-      <c r="D140" s="65" t="s">
+      <c r="G140" s="81"/>
+      <c r="H140" s="52"/>
+    </row>
+    <row r="141" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A141" s="88">
+        <v>134</v>
+      </c>
+      <c r="B141" s="104"/>
+      <c r="C141" s="104"/>
+      <c r="D141" s="95" t="s">
+        <v>282</v>
+      </c>
+      <c r="E141" s="101"/>
+      <c r="F141" s="101"/>
+      <c r="G141" s="81"/>
+      <c r="H141" s="52"/>
+    </row>
+    <row r="142" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A142" s="88">
+        <v>135</v>
+      </c>
+      <c r="B142" s="105"/>
+      <c r="C142" s="105"/>
+      <c r="D142" s="95" t="s">
+        <v>283</v>
+      </c>
+      <c r="E142" s="102"/>
+      <c r="F142" s="102"/>
+      <c r="G142" s="81"/>
+      <c r="H142" s="52"/>
+    </row>
+    <row r="143" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A143" s="88">
+        <v>136</v>
+      </c>
+      <c r="B143" s="103" t="s">
+        <v>287</v>
+      </c>
+      <c r="C143" s="103" t="s">
+        <v>286</v>
+      </c>
+      <c r="D143" s="95" t="s">
+        <v>288</v>
+      </c>
+      <c r="E143" s="100"/>
+      <c r="F143" s="100" t="s">
+        <v>253</v>
+      </c>
+      <c r="G143" s="81"/>
+      <c r="H143" s="52"/>
+    </row>
+    <row r="144" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A144" s="88">
+        <v>137</v>
+      </c>
+      <c r="B144" s="105"/>
+      <c r="C144" s="105"/>
+      <c r="D144" s="95" t="s">
+        <v>289</v>
+      </c>
+      <c r="E144" s="102"/>
+      <c r="F144" s="102"/>
+      <c r="G144" s="81"/>
+      <c r="H144" s="52"/>
+    </row>
+    <row r="145" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A145" s="25"/>
+      <c r="B145" s="25"/>
+      <c r="C145" s="106" t="s">
+        <v>13</v>
+      </c>
+      <c r="D145" s="107"/>
+      <c r="E145" s="25"/>
+      <c r="F145" s="62"/>
+      <c r="G145" s="30"/>
+      <c r="H145" s="32"/>
+    </row>
+    <row r="146" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A146" s="100">
+        <v>138</v>
+      </c>
+      <c r="B146" s="103" t="s">
+        <v>235</v>
+      </c>
+      <c r="C146" s="103" t="s">
+        <v>233</v>
+      </c>
+      <c r="D146" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="E146" s="25"/>
+      <c r="F146" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="G146" s="30"/>
+      <c r="H146" s="32"/>
+    </row>
+    <row r="147" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A147" s="102"/>
+      <c r="B147" s="105"/>
+      <c r="C147" s="105"/>
+      <c r="D147" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="E147" s="25"/>
+      <c r="F147" s="80" t="s">
+        <v>253</v>
+      </c>
+      <c r="G147" s="81"/>
+      <c r="H147" s="52"/>
+    </row>
+    <row r="148" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A148" s="77">
+        <v>139</v>
+      </c>
+      <c r="B148" s="79" t="s">
+        <v>236</v>
+      </c>
+      <c r="C148" s="79" t="s">
+        <v>237</v>
+      </c>
+      <c r="D148" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="E148" s="25"/>
+      <c r="F148" s="80" t="s">
+        <v>295</v>
+      </c>
+      <c r="G148" s="81"/>
+      <c r="H148" s="52"/>
+    </row>
+    <row r="149" spans="1:8" s="42" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A149" s="31">
+        <v>140</v>
+      </c>
+      <c r="B149" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="C149" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="D149" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="E140" s="98"/>
-      <c r="F140" s="96"/>
-      <c r="G140" s="30"/>
-      <c r="H140" s="32"/>
-    </row>
-    <row r="141" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A141" s="83">
-        <v>134</v>
-      </c>
-      <c r="B141" s="93"/>
-      <c r="C141" s="102"/>
-      <c r="D141" s="25" t="s">
-        <v>295</v>
-      </c>
-      <c r="E141" s="98"/>
-      <c r="F141" s="95"/>
-      <c r="G141" s="30"/>
-      <c r="H141" s="32"/>
-    </row>
-    <row r="142" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A142" s="83">
-        <v>135</v>
-      </c>
-      <c r="B142" s="91" t="s">
-        <v>303</v>
-      </c>
-      <c r="C142" s="91" t="s">
-        <v>299</v>
-      </c>
-      <c r="D142" s="126" t="s">
-        <v>302</v>
-      </c>
-      <c r="E142" s="94"/>
-      <c r="F142" s="94" t="s">
-        <v>314</v>
-      </c>
-      <c r="G142" s="84"/>
-      <c r="H142" s="52"/>
-    </row>
-    <row r="143" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A143" s="83">
-        <v>136</v>
-      </c>
-      <c r="B143" s="92"/>
-      <c r="C143" s="92"/>
-      <c r="D143" s="126" t="s">
-        <v>300</v>
-      </c>
-      <c r="E143" s="96"/>
-      <c r="F143" s="96"/>
-      <c r="G143" s="84"/>
-      <c r="H143" s="52"/>
-    </row>
-    <row r="144" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A144" s="83">
-        <v>137</v>
-      </c>
-      <c r="B144" s="93"/>
-      <c r="C144" s="93"/>
-      <c r="D144" s="126" t="s">
-        <v>301</v>
-      </c>
-      <c r="E144" s="95"/>
-      <c r="F144" s="95"/>
-      <c r="G144" s="84"/>
-      <c r="H144" s="52"/>
-    </row>
-    <row r="145" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A145" s="83">
-        <v>138</v>
-      </c>
-      <c r="B145" s="91" t="s">
-        <v>305</v>
-      </c>
-      <c r="C145" s="91" t="s">
-        <v>304</v>
-      </c>
-      <c r="D145" s="126" t="s">
-        <v>306</v>
-      </c>
-      <c r="E145" s="94"/>
-      <c r="F145" s="94" t="s">
-        <v>271</v>
-      </c>
-      <c r="G145" s="84"/>
-      <c r="H145" s="52"/>
-    </row>
-    <row r="146" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A146" s="83">
-        <v>139</v>
-      </c>
-      <c r="B146" s="93"/>
-      <c r="C146" s="93"/>
-      <c r="D146" s="126" t="s">
-        <v>307</v>
-      </c>
-      <c r="E146" s="95"/>
-      <c r="F146" s="95"/>
-      <c r="G146" s="84"/>
-      <c r="H146" s="52"/>
-    </row>
-    <row r="147" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A147" s="25"/>
-      <c r="B147" s="25"/>
-      <c r="C147" s="111" t="s">
-        <v>13</v>
-      </c>
-      <c r="D147" s="112"/>
-      <c r="E147" s="25"/>
-      <c r="F147" s="62"/>
-      <c r="G147" s="30"/>
-      <c r="H147" s="32"/>
-    </row>
-    <row r="148" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A148" s="94">
-        <v>140</v>
-      </c>
-      <c r="B148" s="91" t="s">
-        <v>253</v>
-      </c>
-      <c r="C148" s="91" t="s">
-        <v>251</v>
-      </c>
-      <c r="D148" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="E148" s="25"/>
-      <c r="F148" s="62" t="s">
-        <v>74</v>
-      </c>
-      <c r="G148" s="30"/>
-      <c r="H148" s="32"/>
-    </row>
-    <row r="149" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A149" s="95"/>
-      <c r="B149" s="93"/>
-      <c r="C149" s="93"/>
-      <c r="D149" s="25" t="s">
-        <v>252</v>
-      </c>
       <c r="E149" s="25"/>
-      <c r="F149" s="83" t="s">
-        <v>271</v>
-      </c>
-      <c r="G149" s="84"/>
-      <c r="H149" s="52"/>
-    </row>
-    <row r="150" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A150" s="80">
+      <c r="F149" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="G149" s="30"/>
+      <c r="H149" s="32"/>
+    </row>
+    <row r="150" spans="1:8" s="42" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A150" s="76">
         <v>141</v>
       </c>
-      <c r="B150" s="82" t="s">
-        <v>254</v>
-      </c>
-      <c r="C150" s="82" t="s">
-        <v>255</v>
+      <c r="B150" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="C150" s="81" t="s">
+        <v>229</v>
       </c>
       <c r="D150" s="25" t="s">
-        <v>256</v>
-      </c>
-      <c r="E150" s="25"/>
-      <c r="F150" s="83" t="s">
-        <v>313</v>
-      </c>
-      <c r="G150" s="84"/>
-      <c r="H150" s="52"/>
-    </row>
-    <row r="151" spans="1:8" s="42" customFormat="1" ht="24.75" customHeight="1">
+        <v>230</v>
+      </c>
+      <c r="E150" s="80"/>
+      <c r="F150" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="G150" s="30"/>
+      <c r="H150" s="32"/>
+    </row>
+    <row r="151" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A151" s="31">
         <v>142</v>
       </c>
-      <c r="B151" s="30" t="s">
-        <v>257</v>
-      </c>
-      <c r="C151" s="30" t="s">
-        <v>246</v>
+      <c r="B151" s="103" t="s">
+        <v>52</v>
+      </c>
+      <c r="C151" s="120" t="s">
+        <v>231</v>
       </c>
       <c r="D151" s="25" t="s">
-        <v>312</v>
-      </c>
-      <c r="E151" s="25"/>
-      <c r="F151" s="62" t="s">
+        <v>232</v>
+      </c>
+      <c r="E151" s="119"/>
+      <c r="F151" s="100" t="s">
         <v>71</v>
       </c>
       <c r="G151" s="30"/>
       <c r="H151" s="32"/>
     </row>
-    <row r="152" spans="1:8" s="42" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A152" s="79">
+    <row r="152" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A152" s="31">
         <v>143</v>
       </c>
-      <c r="B152" s="81" t="s">
-        <v>51</v>
-      </c>
-      <c r="C152" s="84" t="s">
-        <v>247</v>
-      </c>
-      <c r="D152" s="25" t="s">
-        <v>248</v>
-      </c>
-      <c r="E152" s="83"/>
-      <c r="F152" s="79" t="s">
-        <v>71</v>
-      </c>
+      <c r="B152" s="105"/>
+      <c r="C152" s="120"/>
+      <c r="D152" s="66" t="s">
+        <v>254</v>
+      </c>
+      <c r="E152" s="119"/>
+      <c r="F152" s="102"/>
       <c r="G152" s="30"/>
       <c r="H152" s="32"/>
     </row>
     <row r="153" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A153" s="31">
+      <c r="A153" s="100">
         <v>144</v>
       </c>
-      <c r="B153" s="91" t="s">
-        <v>52</v>
-      </c>
-      <c r="C153" s="102" t="s">
-        <v>249</v>
-      </c>
-      <c r="D153" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="E153" s="98"/>
-      <c r="F153" s="94" t="s">
+      <c r="B153" s="103" t="s">
+        <v>290</v>
+      </c>
+      <c r="C153" s="124" t="s">
+        <v>240</v>
+      </c>
+      <c r="D153" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="E153" s="118"/>
+      <c r="F153" s="100" t="s">
         <v>71</v>
       </c>
       <c r="G153" s="30"/>
       <c r="H153" s="32"/>
     </row>
     <row r="154" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A154" s="31">
-        <v>145</v>
-      </c>
-      <c r="B154" s="93"/>
-      <c r="C154" s="102"/>
-      <c r="D154" s="66" t="s">
-        <v>272</v>
-      </c>
-      <c r="E154" s="98"/>
-      <c r="F154" s="95"/>
-      <c r="G154" s="30"/>
-      <c r="H154" s="32"/>
+      <c r="A154" s="101"/>
+      <c r="B154" s="104"/>
+      <c r="C154" s="124"/>
+      <c r="D154" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E154" s="118"/>
+      <c r="F154" s="101"/>
+      <c r="G154" s="39"/>
+      <c r="H154" s="52"/>
     </row>
     <row r="155" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A155" s="94">
-        <v>146</v>
-      </c>
-      <c r="B155" s="91" t="s">
-        <v>308</v>
-      </c>
-      <c r="C155" s="101" t="s">
-        <v>258</v>
-      </c>
-      <c r="D155" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="E155" s="108"/>
-      <c r="F155" s="94" t="s">
-        <v>71</v>
-      </c>
+      <c r="A155" s="101"/>
+      <c r="B155" s="104"/>
+      <c r="C155" s="120"/>
+      <c r="D155" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="E155" s="119"/>
+      <c r="F155" s="101"/>
       <c r="G155" s="30"/>
       <c r="H155" s="32"/>
     </row>
     <row r="156" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A156" s="96"/>
-      <c r="B156" s="92"/>
-      <c r="C156" s="101"/>
-      <c r="D156" s="65" t="s">
-        <v>69</v>
-      </c>
-      <c r="E156" s="108"/>
-      <c r="F156" s="96"/>
-      <c r="G156" s="39"/>
-      <c r="H156" s="52"/>
+      <c r="A156" s="101"/>
+      <c r="B156" s="104"/>
+      <c r="C156" s="120"/>
+      <c r="D156" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E156" s="119"/>
+      <c r="F156" s="101"/>
+      <c r="G156" s="30"/>
+      <c r="H156" s="32"/>
     </row>
     <row r="157" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A157" s="96"/>
-      <c r="B157" s="92"/>
-      <c r="C157" s="102"/>
-      <c r="D157" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="E157" s="98"/>
-      <c r="F157" s="96"/>
+      <c r="A157" s="101"/>
+      <c r="B157" s="104"/>
+      <c r="C157" s="120"/>
+      <c r="D157" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E157" s="119"/>
+      <c r="F157" s="101"/>
       <c r="G157" s="30"/>
       <c r="H157" s="32"/>
     </row>
-    <row r="158" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A158" s="96"/>
-      <c r="B158" s="92"/>
-      <c r="C158" s="102"/>
+    <row r="158" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A158" s="101"/>
+      <c r="B158" s="104"/>
+      <c r="C158" s="120"/>
       <c r="D158" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="E158" s="98"/>
-      <c r="F158" s="96"/>
+        <v>58</v>
+      </c>
+      <c r="E158" s="119"/>
+      <c r="F158" s="101"/>
       <c r="G158" s="30"/>
       <c r="H158" s="32"/>
     </row>
-    <row r="159" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A159" s="96"/>
-      <c r="B159" s="92"/>
-      <c r="C159" s="102"/>
+    <row r="159" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A159" s="101"/>
+      <c r="B159" s="104"/>
+      <c r="C159" s="120"/>
       <c r="D159" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="E159" s="98"/>
-      <c r="F159" s="96"/>
+        <v>312</v>
+      </c>
+      <c r="E159" s="119"/>
+      <c r="F159" s="101"/>
       <c r="G159" s="30"/>
       <c r="H159" s="32"/>
     </row>
     <row r="160" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A160" s="96"/>
-      <c r="B160" s="92"/>
-      <c r="C160" s="102"/>
+      <c r="A160" s="102"/>
+      <c r="B160" s="105"/>
+      <c r="C160" s="120"/>
       <c r="D160" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="E160" s="98"/>
-      <c r="F160" s="96"/>
+        <v>59</v>
+      </c>
+      <c r="E160" s="119"/>
+      <c r="F160" s="102"/>
       <c r="G160" s="30"/>
       <c r="H160" s="32"/>
     </row>
     <row r="161" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A161" s="96"/>
-      <c r="B161" s="92"/>
-      <c r="C161" s="102"/>
+      <c r="A161" s="100">
+        <v>145</v>
+      </c>
+      <c r="B161" s="103" t="s">
+        <v>291</v>
+      </c>
+      <c r="C161" s="120" t="s">
+        <v>292</v>
+      </c>
       <c r="D161" s="25" t="s">
-        <v>330</v>
-      </c>
-      <c r="E161" s="98"/>
-      <c r="F161" s="96"/>
+        <v>293</v>
+      </c>
+      <c r="E161" s="119"/>
+      <c r="F161" s="100" t="s">
+        <v>73</v>
+      </c>
       <c r="G161" s="30"/>
       <c r="H161" s="32"/>
     </row>
     <row r="162" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A162" s="95"/>
-      <c r="B162" s="93"/>
-      <c r="C162" s="102"/>
-      <c r="D162" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="E162" s="98"/>
-      <c r="F162" s="95"/>
+      <c r="A162" s="102"/>
+      <c r="B162" s="105"/>
+      <c r="C162" s="120"/>
+      <c r="D162" s="96" t="s">
+        <v>297</v>
+      </c>
+      <c r="E162" s="119"/>
+      <c r="F162" s="102"/>
       <c r="G162" s="30"/>
       <c r="H162" s="32"/>
     </row>
     <row r="163" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A163" s="94">
-        <v>147</v>
-      </c>
-      <c r="B163" s="91" t="s">
-        <v>309</v>
-      </c>
-      <c r="C163" s="102" t="s">
-        <v>310</v>
-      </c>
-      <c r="D163" s="25" t="s">
-        <v>311</v>
-      </c>
-      <c r="E163" s="98"/>
-      <c r="F163" s="94" t="s">
-        <v>73</v>
-      </c>
+      <c r="A163" s="22"/>
+      <c r="B163" s="30"/>
+      <c r="C163" s="106" t="s">
+        <v>33</v>
+      </c>
+      <c r="D163" s="107"/>
+      <c r="E163" s="22"/>
+      <c r="F163" s="62"/>
       <c r="G163" s="30"/>
       <c r="H163" s="32"/>
     </row>
     <row r="164" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A164" s="95"/>
-      <c r="B164" s="93"/>
-      <c r="C164" s="102"/>
-      <c r="D164" s="127" t="s">
-        <v>315</v>
-      </c>
-      <c r="E164" s="98"/>
-      <c r="F164" s="95"/>
+      <c r="A164" s="31">
+        <v>146</v>
+      </c>
+      <c r="B164" s="30" t="s">
+        <v>302</v>
+      </c>
+      <c r="C164" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="D164" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="E164" s="25"/>
+      <c r="F164" s="62" t="s">
+        <v>75</v>
+      </c>
       <c r="G164" s="30"/>
       <c r="H164" s="32"/>
     </row>
     <row r="165" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A165" s="22"/>
-      <c r="B165" s="30"/>
-      <c r="C165" s="111" t="s">
-        <v>33</v>
-      </c>
-      <c r="D165" s="112"/>
-      <c r="E165" s="22"/>
-      <c r="F165" s="62"/>
+      <c r="A165" s="31">
+        <v>147</v>
+      </c>
+      <c r="B165" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="C165" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="D165" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="E165" s="25"/>
+      <c r="F165" s="62" t="s">
+        <v>71</v>
+      </c>
       <c r="G165" s="30"/>
       <c r="H165" s="32"/>
     </row>
-    <row r="166" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A166" s="31">
+    <row r="166" spans="1:8" s="43" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A166" s="74">
         <v>148</v>
       </c>
       <c r="B166" s="30" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="C166" s="30" t="s">
-        <v>316</v>
-      </c>
-      <c r="D166" s="24" t="s">
-        <v>317</v>
+        <v>305</v>
+      </c>
+      <c r="D166" s="25" t="s">
+        <v>306</v>
       </c>
       <c r="E166" s="25"/>
       <c r="F166" s="62" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G166" s="30"/>
       <c r="H166" s="32"/>
     </row>
     <row r="167" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A167" s="31">
+      <c r="A167" s="74">
         <v>149</v>
       </c>
-      <c r="B167" s="30" t="s">
-        <v>319</v>
-      </c>
-      <c r="C167" s="30" t="s">
-        <v>318</v>
+      <c r="B167" s="103" t="s">
+        <v>309</v>
+      </c>
+      <c r="C167" s="120" t="s">
+        <v>307</v>
       </c>
       <c r="D167" s="25" t="s">
-        <v>321</v>
-      </c>
-      <c r="E167" s="25"/>
-      <c r="F167" s="62" t="s">
-        <v>71</v>
+        <v>310</v>
+      </c>
+      <c r="E167" s="119"/>
+      <c r="F167" s="100" t="s">
+        <v>76</v>
       </c>
       <c r="G167" s="30"/>
       <c r="H167" s="32"/>
     </row>
-    <row r="168" spans="1:8" s="43" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A168" s="77">
+    <row r="168" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A168" s="74">
         <v>150</v>
       </c>
-      <c r="B168" s="30" t="s">
-        <v>322</v>
-      </c>
-      <c r="C168" s="30" t="s">
-        <v>323</v>
-      </c>
+      <c r="B168" s="104"/>
+      <c r="C168" s="120"/>
       <c r="D168" s="25" t="s">
-        <v>324</v>
-      </c>
-      <c r="E168" s="25"/>
-      <c r="F168" s="62" t="s">
-        <v>71</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="E168" s="119"/>
+      <c r="F168" s="101"/>
       <c r="G168" s="30"/>
       <c r="H168" s="32"/>
     </row>
     <row r="169" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A169" s="77">
+      <c r="A169" s="88">
         <v>151</v>
       </c>
-      <c r="B169" s="91" t="s">
-        <v>327</v>
-      </c>
-      <c r="C169" s="102" t="s">
-        <v>325</v>
-      </c>
+      <c r="B169" s="104"/>
+      <c r="C169" s="120"/>
       <c r="D169" s="25" t="s">
-        <v>328</v>
-      </c>
-      <c r="E169" s="98"/>
-      <c r="F169" s="94" t="s">
-        <v>76</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="E169" s="119"/>
+      <c r="F169" s="101"/>
       <c r="G169" s="30"/>
       <c r="H169" s="32"/>
     </row>
     <row r="170" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A170" s="77">
+      <c r="A170" s="88">
         <v>152</v>
       </c>
-      <c r="B170" s="92"/>
-      <c r="C170" s="102"/>
+      <c r="B170" s="105"/>
+      <c r="C170" s="120"/>
       <c r="D170" s="25" t="s">
         <v>329</v>
       </c>
-      <c r="E170" s="98"/>
-      <c r="F170" s="96"/>
+      <c r="E170" s="119"/>
+      <c r="F170" s="102"/>
       <c r="G170" s="30"/>
       <c r="H170" s="32"/>
     </row>
     <row r="171" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A171" s="77">
+      <c r="A171" s="80"/>
+      <c r="B171" s="81"/>
+      <c r="C171" s="106" t="s">
+        <v>308</v>
+      </c>
+      <c r="D171" s="107"/>
+      <c r="E171" s="80"/>
+      <c r="F171" s="80"/>
+      <c r="G171" s="81"/>
+      <c r="H171" s="52"/>
+    </row>
+    <row r="172" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A172" s="80">
         <v>153</v>
       </c>
-      <c r="B171" s="92"/>
-      <c r="C171" s="102"/>
-      <c r="D171" s="25" t="s">
-        <v>331</v>
-      </c>
-      <c r="E171" s="98"/>
-      <c r="F171" s="96"/>
-      <c r="G171" s="30"/>
-      <c r="H171" s="32"/>
-    </row>
-    <row r="172" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A172" s="77">
+      <c r="B172" s="103" t="s">
+        <v>250</v>
+      </c>
+      <c r="C172" s="103" t="s">
+        <v>251</v>
+      </c>
+      <c r="D172" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="E172" s="100"/>
+      <c r="F172" s="100" t="s">
+        <v>253</v>
+      </c>
+      <c r="G172" s="81"/>
+      <c r="H172" s="52"/>
+    </row>
+    <row r="173" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A173" s="51">
         <v>154</v>
       </c>
-      <c r="B172" s="93"/>
-      <c r="C172" s="102"/>
-      <c r="D172" s="25" t="s">
-        <v>353</v>
-      </c>
-      <c r="E172" s="98"/>
-      <c r="F172" s="95"/>
-      <c r="G172" s="30"/>
-      <c r="H172" s="32"/>
-    </row>
-    <row r="173" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A173" s="83"/>
-      <c r="B173" s="84"/>
-      <c r="C173" s="111" t="s">
-        <v>326</v>
-      </c>
-      <c r="D173" s="112"/>
-      <c r="E173" s="83"/>
-      <c r="F173" s="83"/>
-      <c r="G173" s="84"/>
+      <c r="B173" s="104"/>
+      <c r="C173" s="104"/>
+      <c r="D173" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E173" s="101"/>
+      <c r="F173" s="101"/>
+      <c r="G173" s="81"/>
       <c r="H173" s="52"/>
     </row>
     <row r="174" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A174" s="83">
+      <c r="A174" s="51">
         <v>155</v>
       </c>
-      <c r="B174" s="91" t="s">
-        <v>268</v>
-      </c>
-      <c r="C174" s="91" t="s">
-        <v>269</v>
-      </c>
+      <c r="B174" s="105"/>
+      <c r="C174" s="105"/>
       <c r="D174" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="E174" s="94"/>
-      <c r="F174" s="94" t="s">
-        <v>271</v>
-      </c>
-      <c r="G174" s="84"/>
+        <v>39</v>
+      </c>
+      <c r="E174" s="102"/>
+      <c r="F174" s="102"/>
+      <c r="G174" s="81"/>
       <c r="H174" s="52"/>
     </row>
     <row r="175" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A175" s="51">
+      <c r="A175" s="80"/>
+      <c r="B175" s="81"/>
+      <c r="C175" s="106" t="s">
+        <v>255</v>
+      </c>
+      <c r="D175" s="107"/>
+      <c r="E175" s="80"/>
+      <c r="F175" s="80"/>
+      <c r="G175" s="81"/>
+      <c r="H175" s="52"/>
+    </row>
+    <row r="176" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A176" s="80">
         <v>156</v>
       </c>
-      <c r="B175" s="92"/>
-      <c r="C175" s="92"/>
-      <c r="D175" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E175" s="96"/>
-      <c r="F175" s="96"/>
-      <c r="G175" s="84"/>
-      <c r="H175" s="52"/>
-    </row>
-    <row r="176" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A176" s="51">
+      <c r="B176" s="81" t="s">
+        <v>256</v>
+      </c>
+      <c r="C176" s="81" t="s">
+        <v>257</v>
+      </c>
+      <c r="D176" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="E176" s="100"/>
+      <c r="F176" s="80" t="s">
+        <v>253</v>
+      </c>
+      <c r="G176" s="81"/>
+      <c r="H176" s="52"/>
+    </row>
+    <row r="177" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="A177" s="90">
         <v>157</v>
       </c>
-      <c r="B176" s="93"/>
-      <c r="C176" s="93"/>
-      <c r="D176" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E176" s="95"/>
-      <c r="F176" s="95"/>
-      <c r="G176" s="84"/>
-      <c r="H176" s="52"/>
-    </row>
-    <row r="177" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A177" s="83"/>
-      <c r="B177" s="84"/>
-      <c r="C177" s="111" t="s">
-        <v>273</v>
-      </c>
-      <c r="D177" s="112"/>
-      <c r="E177" s="83"/>
-      <c r="F177" s="83"/>
-      <c r="G177" s="84"/>
-      <c r="H177" s="52"/>
-    </row>
-    <row r="178" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A178" s="83">
+      <c r="B177" s="110" t="s">
+        <v>259</v>
+      </c>
+      <c r="C177" s="108" t="s">
+        <v>258</v>
+      </c>
+      <c r="D177" s="92" t="s">
+        <v>260</v>
+      </c>
+      <c r="E177" s="101"/>
+      <c r="F177" s="90" t="s">
+        <v>253</v>
+      </c>
+      <c r="G177" s="91"/>
+      <c r="H177" s="91"/>
+    </row>
+    <row r="178" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="A178" s="80">
         <v>158</v>
       </c>
-      <c r="B178" s="84" t="s">
-        <v>274</v>
-      </c>
-      <c r="C178" s="84" t="s">
-        <v>275</v>
-      </c>
-      <c r="D178" s="25" t="s">
-        <v>281</v>
-      </c>
-      <c r="E178" s="94"/>
-      <c r="F178" s="83" t="s">
-        <v>271</v>
-      </c>
-      <c r="G178" s="84"/>
-      <c r="H178" s="52"/>
+      <c r="B178" s="111"/>
+      <c r="C178" s="109"/>
+      <c r="D178" s="92" t="s">
+        <v>261</v>
+      </c>
+      <c r="E178" s="102"/>
+      <c r="F178" s="90" t="s">
+        <v>262</v>
+      </c>
+      <c r="G178" s="91"/>
+      <c r="H178" s="91"/>
     </row>
     <row r="179" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A179" s="117">
-        <v>159</v>
-      </c>
-      <c r="B179" s="122" t="s">
-        <v>277</v>
-      </c>
-      <c r="C179" s="120" t="s">
-        <v>276</v>
-      </c>
-      <c r="D179" s="119" t="s">
-        <v>278</v>
-      </c>
-      <c r="E179" s="96"/>
-      <c r="F179" s="117" t="s">
-        <v>271</v>
-      </c>
-      <c r="G179" s="118"/>
-      <c r="H179" s="118"/>
+      <c r="A179" s="53"/>
+      <c r="B179" s="54"/>
+      <c r="C179" s="55"/>
+      <c r="D179" s="57"/>
+      <c r="E179" s="56"/>
+      <c r="F179" s="53"/>
+      <c r="G179" s="54"/>
+      <c r="H179" s="54"/>
     </row>
     <row r="180" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A180" s="83">
-        <v>160</v>
-      </c>
-      <c r="B180" s="123"/>
-      <c r="C180" s="121"/>
-      <c r="D180" s="119" t="s">
-        <v>279</v>
-      </c>
-      <c r="E180" s="95"/>
-      <c r="F180" s="117" t="s">
-        <v>280</v>
-      </c>
-      <c r="G180" s="118"/>
-      <c r="H180" s="118"/>
+      <c r="A180" s="53"/>
+      <c r="B180" s="54"/>
+      <c r="C180" s="55"/>
+      <c r="D180" s="56"/>
+      <c r="E180" s="56"/>
+      <c r="F180" s="53"/>
+      <c r="G180" s="54"/>
+      <c r="H180" s="54"/>
     </row>
     <row r="181" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
       <c r="A181" s="53"/>
       <c r="B181" s="54"/>
       <c r="C181" s="55"/>
-      <c r="D181" s="57"/>
+      <c r="D181" s="59"/>
       <c r="E181" s="56"/>
       <c r="F181" s="53"/>
       <c r="G181" s="54"/>
@@ -13160,7 +13058,7 @@
       <c r="A182" s="53"/>
       <c r="B182" s="54"/>
       <c r="C182" s="55"/>
-      <c r="D182" s="56"/>
+      <c r="D182" s="60"/>
       <c r="E182" s="56"/>
       <c r="F182" s="53"/>
       <c r="G182" s="54"/>
@@ -13170,7 +13068,7 @@
       <c r="A183" s="53"/>
       <c r="B183" s="54"/>
       <c r="C183" s="55"/>
-      <c r="D183" s="59"/>
+      <c r="D183" s="55"/>
       <c r="E183" s="56"/>
       <c r="F183" s="53"/>
       <c r="G183" s="54"/>
@@ -13180,7 +13078,7 @@
       <c r="A184" s="53"/>
       <c r="B184" s="54"/>
       <c r="C184" s="55"/>
-      <c r="D184" s="60"/>
+      <c r="D184" s="56"/>
       <c r="E184" s="56"/>
       <c r="F184" s="53"/>
       <c r="G184" s="54"/>
@@ -13200,7 +13098,7 @@
       <c r="A186" s="53"/>
       <c r="B186" s="54"/>
       <c r="C186" s="55"/>
-      <c r="D186" s="56"/>
+      <c r="D186" s="55"/>
       <c r="E186" s="56"/>
       <c r="F186" s="53"/>
       <c r="G186" s="54"/>
@@ -13209,42 +13107,32 @@
     <row r="187" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
       <c r="A187" s="53"/>
       <c r="B187" s="54"/>
-      <c r="C187" s="55"/>
-      <c r="D187" s="55"/>
-      <c r="E187" s="56"/>
+      <c r="C187" s="58"/>
+      <c r="D187" s="56"/>
+      <c r="E187" s="53"/>
       <c r="F187" s="53"/>
       <c r="G187" s="54"/>
       <c r="H187" s="54"/>
     </row>
     <row r="188" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A188" s="53"/>
-      <c r="B188" s="54"/>
+      <c r="A188" s="55"/>
+      <c r="B188" s="55"/>
       <c r="C188" s="55"/>
-      <c r="D188" s="55"/>
-      <c r="E188" s="56"/>
-      <c r="F188" s="53"/>
-      <c r="G188" s="54"/>
-      <c r="H188" s="54"/>
+      <c r="D188" s="61"/>
+      <c r="E188" s="55"/>
+      <c r="F188" s="58"/>
+      <c r="G188" s="55"/>
+      <c r="H188" s="55"/>
     </row>
     <row r="189" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A189" s="53"/>
-      <c r="B189" s="54"/>
-      <c r="C189" s="58"/>
-      <c r="D189" s="56"/>
-      <c r="E189" s="53"/>
-      <c r="F189" s="53"/>
-      <c r="G189" s="54"/>
-      <c r="H189" s="54"/>
+      <c r="C189" s="55"/>
+      <c r="D189" s="45"/>
+      <c r="F189" s="67"/>
     </row>
     <row r="190" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A190" s="55"/>
-      <c r="B190" s="55"/>
       <c r="C190" s="55"/>
-      <c r="D190" s="61"/>
-      <c r="E190" s="55"/>
-      <c r="F190" s="58"/>
-      <c r="G190" s="55"/>
-      <c r="H190" s="55"/>
+      <c r="D190" s="45"/>
+      <c r="F190" s="67"/>
     </row>
     <row r="191" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
       <c r="C191" s="55"/>
@@ -13256,229 +13144,215 @@
       <c r="D192" s="45"/>
       <c r="F192" s="67"/>
     </row>
-    <row r="193" spans="3:6" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="C193" s="55"/>
+    <row r="193" spans="4:6" s="44" customFormat="1" ht="18" customHeight="1">
       <c r="D193" s="45"/>
       <c r="F193" s="67"/>
     </row>
-    <row r="194" spans="3:6" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="C194" s="55"/>
+    <row r="194" spans="4:6" s="44" customFormat="1" ht="18" customHeight="1">
       <c r="D194" s="45"/>
       <c r="F194" s="67"/>
     </row>
-    <row r="195" spans="3:6" s="44" customFormat="1" ht="18" customHeight="1">
+    <row r="195" spans="4:6" s="44" customFormat="1" ht="18" customHeight="1">
       <c r="D195" s="45"/>
       <c r="F195" s="67"/>
     </row>
-    <row r="196" spans="3:6" s="44" customFormat="1" ht="18" customHeight="1">
+    <row r="196" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
       <c r="D196" s="45"/>
       <c r="F196" s="67"/>
     </row>
-    <row r="197" spans="3:6" s="44" customFormat="1" ht="18" customHeight="1">
+    <row r="197" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
       <c r="D197" s="45"/>
       <c r="F197" s="67"/>
     </row>
-    <row r="198" spans="3:6" s="44" customFormat="1" ht="26.25" customHeight="1">
+    <row r="198" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
       <c r="D198" s="45"/>
       <c r="F198" s="67"/>
     </row>
-    <row r="199" spans="3:6" s="44" customFormat="1" ht="26.25" customHeight="1">
+    <row r="199" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
       <c r="D199" s="45"/>
       <c r="F199" s="67"/>
     </row>
-    <row r="200" spans="3:6" s="44" customFormat="1" ht="26.25" customHeight="1">
+    <row r="200" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
       <c r="D200" s="45"/>
       <c r="F200" s="67"/>
     </row>
-    <row r="201" spans="3:6" s="44" customFormat="1" ht="26.25" customHeight="1">
+    <row r="201" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
       <c r="D201" s="45"/>
       <c r="F201" s="67"/>
     </row>
-    <row r="202" spans="3:6" s="44" customFormat="1" ht="26.25" customHeight="1">
-      <c r="D202" s="45"/>
-      <c r="F202" s="67"/>
-    </row>
-    <row r="203" spans="3:6" s="44" customFormat="1" ht="26.25" customHeight="1">
+    <row r="202" spans="4:6" s="46" customFormat="1" ht="26.25" customHeight="1">
+      <c r="D202" s="47"/>
+      <c r="F202" s="68"/>
+    </row>
+    <row r="203" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
       <c r="D203" s="45"/>
       <c r="F203" s="67"/>
     </row>
-    <row r="204" spans="3:6" s="46" customFormat="1" ht="26.25" customHeight="1">
-      <c r="D204" s="47"/>
-      <c r="F204" s="68"/>
-    </row>
-    <row r="205" spans="3:6" s="44" customFormat="1" ht="26.25" customHeight="1">
+    <row r="204" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
+      <c r="D204" s="45"/>
+      <c r="F204" s="67"/>
+    </row>
+    <row r="205" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
       <c r="D205" s="45"/>
       <c r="F205" s="67"/>
     </row>
-    <row r="206" spans="3:6" s="44" customFormat="1" ht="26.25" customHeight="1">
-      <c r="D206" s="45"/>
-      <c r="F206" s="67"/>
-    </row>
-    <row r="207" spans="3:6" s="44" customFormat="1" ht="26.25" customHeight="1">
-      <c r="D207" s="45"/>
-      <c r="F207" s="67"/>
-    </row>
   </sheetData>
-  <mergeCells count="159">
-    <mergeCell ref="F55:F61"/>
-    <mergeCell ref="E102:E105"/>
-    <mergeCell ref="F102:F105"/>
-    <mergeCell ref="E44:E48"/>
-    <mergeCell ref="F44:F48"/>
-    <mergeCell ref="E178:E180"/>
-    <mergeCell ref="F142:F144"/>
-    <mergeCell ref="F145:F146"/>
-    <mergeCell ref="F134:F136"/>
-    <mergeCell ref="E134:E136"/>
-    <mergeCell ref="E142:E144"/>
-    <mergeCell ref="E145:E146"/>
-    <mergeCell ref="B106:B111"/>
-    <mergeCell ref="B174:B176"/>
-    <mergeCell ref="C174:C176"/>
-    <mergeCell ref="E174:E176"/>
-    <mergeCell ref="F174:F176"/>
-    <mergeCell ref="A155:A162"/>
-    <mergeCell ref="C173:D173"/>
-    <mergeCell ref="C177:D177"/>
-    <mergeCell ref="C179:C180"/>
-    <mergeCell ref="B179:B180"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="F86:F87"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="E90:E94"/>
-    <mergeCell ref="F90:F94"/>
-    <mergeCell ref="E95:E97"/>
-    <mergeCell ref="F95:F97"/>
-    <mergeCell ref="E98:E101"/>
-    <mergeCell ref="F98:F101"/>
-    <mergeCell ref="E106:E111"/>
-    <mergeCell ref="F106:F111"/>
-    <mergeCell ref="E4:E15"/>
-    <mergeCell ref="F4:F15"/>
-    <mergeCell ref="E16:E23"/>
-    <mergeCell ref="F16:F23"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="F27:F36"/>
-    <mergeCell ref="F49:F54"/>
-    <mergeCell ref="E49:E54"/>
-    <mergeCell ref="E27:E36"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="A163:A164"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C16:C23"/>
-    <mergeCell ref="C62:C66"/>
-    <mergeCell ref="B27:B36"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="C90:C94"/>
-    <mergeCell ref="C95:C97"/>
-    <mergeCell ref="C98:C101"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="C79:C85"/>
-    <mergeCell ref="C70:C74"/>
-    <mergeCell ref="B62:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B70:B74"/>
-    <mergeCell ref="C37:C43"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="B148:B149"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="B169:B172"/>
-    <mergeCell ref="B125:B128"/>
-    <mergeCell ref="B131:B133"/>
-    <mergeCell ref="B137:B141"/>
-    <mergeCell ref="C169:C172"/>
-    <mergeCell ref="C121:C123"/>
-    <mergeCell ref="C125:C128"/>
-    <mergeCell ref="C131:C133"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="C165:D165"/>
-    <mergeCell ref="C147:D147"/>
-    <mergeCell ref="B153:B154"/>
-    <mergeCell ref="B155:B162"/>
-    <mergeCell ref="C148:C149"/>
-    <mergeCell ref="C134:C136"/>
-    <mergeCell ref="B134:B136"/>
-    <mergeCell ref="C142:C144"/>
-    <mergeCell ref="B142:B144"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="B121:B123"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="B79:B85"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="B90:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="E67:E69"/>
-    <mergeCell ref="E70:E74"/>
-    <mergeCell ref="E75:E78"/>
-    <mergeCell ref="E79:E85"/>
-    <mergeCell ref="B37:B43"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="C75:C78"/>
-    <mergeCell ref="C49:C54"/>
-    <mergeCell ref="E55:E61"/>
-    <mergeCell ref="C153:C154"/>
-    <mergeCell ref="C155:C162"/>
-    <mergeCell ref="E121:E123"/>
-    <mergeCell ref="E125:E128"/>
-    <mergeCell ref="E131:E133"/>
-    <mergeCell ref="E137:E141"/>
-    <mergeCell ref="E153:E154"/>
-    <mergeCell ref="E155:E162"/>
+  <mergeCells count="155">
+    <mergeCell ref="B56:B62"/>
+    <mergeCell ref="C56:C62"/>
+    <mergeCell ref="E56:E62"/>
+    <mergeCell ref="F56:F62"/>
+    <mergeCell ref="B63:B72"/>
+    <mergeCell ref="C63:C72"/>
+    <mergeCell ref="E63:E72"/>
+    <mergeCell ref="F63:F72"/>
+    <mergeCell ref="B85:B88"/>
+    <mergeCell ref="C85:C88"/>
+    <mergeCell ref="E85:E88"/>
+    <mergeCell ref="F85:F88"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="C45:C49"/>
+    <mergeCell ref="E45:E49"/>
+    <mergeCell ref="F45:F49"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="F50:F53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="E27:E32"/>
+    <mergeCell ref="F27:F32"/>
+    <mergeCell ref="B33:B39"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="E33:E39"/>
+    <mergeCell ref="F33:F39"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="C40:C44"/>
+    <mergeCell ref="E40:E44"/>
+    <mergeCell ref="F40:F44"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="E16:E21"/>
+    <mergeCell ref="F16:F21"/>
+    <mergeCell ref="C73:C84"/>
+    <mergeCell ref="F161:F162"/>
+    <mergeCell ref="F167:F170"/>
+    <mergeCell ref="F129:F131"/>
+    <mergeCell ref="F135:F139"/>
+    <mergeCell ref="F151:F152"/>
+    <mergeCell ref="F153:F160"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="F117:F118"/>
+    <mergeCell ref="F119:F121"/>
+    <mergeCell ref="F123:F126"/>
+    <mergeCell ref="E161:E162"/>
+    <mergeCell ref="E167:E170"/>
+    <mergeCell ref="C161:C162"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="C135:C139"/>
+    <mergeCell ref="C100:C107"/>
+    <mergeCell ref="E100:E107"/>
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="E37:E43"/>
+    <mergeCell ref="E115:E116"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C27:C36"/>
-    <mergeCell ref="F37:F43"/>
-    <mergeCell ref="B4:B15"/>
-    <mergeCell ref="B98:B101"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="B16:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="F62:F66"/>
-    <mergeCell ref="F67:F69"/>
-    <mergeCell ref="F70:F74"/>
-    <mergeCell ref="F75:F78"/>
-    <mergeCell ref="F79:F85"/>
-    <mergeCell ref="B49:B54"/>
-    <mergeCell ref="C106:C111"/>
-    <mergeCell ref="E62:E66"/>
-    <mergeCell ref="B55:B61"/>
-    <mergeCell ref="C55:C61"/>
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="C44:C48"/>
-    <mergeCell ref="B102:B105"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="C4:C15"/>
-    <mergeCell ref="F163:F164"/>
-    <mergeCell ref="F169:F172"/>
-    <mergeCell ref="F131:F133"/>
-    <mergeCell ref="F137:F141"/>
-    <mergeCell ref="F153:F154"/>
-    <mergeCell ref="F155:F162"/>
-    <mergeCell ref="F117:F118"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="F121:F123"/>
-    <mergeCell ref="F125:F128"/>
-    <mergeCell ref="E163:E164"/>
-    <mergeCell ref="E169:E172"/>
-    <mergeCell ref="C163:C164"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="C137:C141"/>
+    <mergeCell ref="F100:F106"/>
+    <mergeCell ref="B73:B84"/>
+    <mergeCell ref="B89:B96"/>
+    <mergeCell ref="B97:B99"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="C153:C160"/>
+    <mergeCell ref="E119:E121"/>
+    <mergeCell ref="E123:E126"/>
+    <mergeCell ref="E129:E131"/>
+    <mergeCell ref="E135:E139"/>
+    <mergeCell ref="E151:E152"/>
+    <mergeCell ref="E153:E160"/>
+    <mergeCell ref="B100:B107"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="B119:B121"/>
+    <mergeCell ref="B108:B112"/>
+    <mergeCell ref="C119:C121"/>
+    <mergeCell ref="C123:C126"/>
+    <mergeCell ref="C129:C131"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="C163:D163"/>
+    <mergeCell ref="C145:D145"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="B153:B160"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="C132:C134"/>
+    <mergeCell ref="B132:B134"/>
+    <mergeCell ref="C140:C142"/>
+    <mergeCell ref="B140:B142"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="C97:C99"/>
+    <mergeCell ref="C89:C96"/>
+    <mergeCell ref="C108:C112"/>
+    <mergeCell ref="E73:E84"/>
+    <mergeCell ref="F73:F84"/>
+    <mergeCell ref="E89:E96"/>
+    <mergeCell ref="F89:F96"/>
+    <mergeCell ref="E97:E99"/>
+    <mergeCell ref="F97:F99"/>
+    <mergeCell ref="B172:B174"/>
+    <mergeCell ref="C172:C174"/>
+    <mergeCell ref="E172:E174"/>
+    <mergeCell ref="F172:F174"/>
+    <mergeCell ref="A153:A160"/>
+    <mergeCell ref="C171:D171"/>
+    <mergeCell ref="C175:D175"/>
+    <mergeCell ref="C177:C178"/>
+    <mergeCell ref="B177:B178"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="A161:A162"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="B146:B147"/>
+    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="B167:B170"/>
+    <mergeCell ref="B123:B126"/>
+    <mergeCell ref="B129:B131"/>
+    <mergeCell ref="B135:B139"/>
+    <mergeCell ref="C167:C170"/>
+    <mergeCell ref="E176:E178"/>
+    <mergeCell ref="F140:F142"/>
+    <mergeCell ref="F143:F144"/>
+    <mergeCell ref="F132:F134"/>
+    <mergeCell ref="E132:E134"/>
+    <mergeCell ref="E140:E142"/>
+    <mergeCell ref="E143:E144"/>
+    <mergeCell ref="E108:E112"/>
+    <mergeCell ref="F108:F112"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -13488,8 +13362,7 @@
     <oddHeader>&amp;L&amp;"굴림체,Regular"노인장기요양보험 정보시스템노인장기요양보험 정보시스템&amp;R&amp;"맑은 고딕,Regular"시스템인터페이스목록시스템인터페이스목록</oddHeader>
     <oddFooter>&amp;C&amp;"맑은 고딕,Regular"&amp;P</oddFooter>
   </headerFooter>
-  <rowBreaks count="2" manualBreakCount="2">
-    <brk id="119" max="1048575" man="1"/>
+  <rowBreaks count="1" manualBreakCount="1">
     <brk id="145" max="1048575" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
@@ -13524,7 +13397,7 @@
       <c r="D8" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="115" t="s">
+      <c r="E8" s="128" t="s">
         <v>45</v>
       </c>
     </row>
@@ -13532,13 +13405,13 @@
       <c r="D9" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="115"/>
+      <c r="E9" s="128"/>
     </row>
     <row r="10" spans="4:5">
       <c r="D10" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="116"/>
+      <c r="E10" s="129"/>
     </row>
     <row r="14" spans="4:5" ht="12.75" thickBot="1">
       <c r="D14" s="35" t="s">
@@ -13552,7 +13425,7 @@
       <c r="D15" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="115" t="s">
+      <c r="E15" s="128" t="s">
         <v>45</v>
       </c>
     </row>
@@ -13560,13 +13433,13 @@
       <c r="D16" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="115"/>
+      <c r="E16" s="128"/>
     </row>
     <row r="17" spans="4:5">
       <c r="D17" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="116"/>
+      <c r="E17" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/문서 관리/01. 요구사항명세서.xlsx
+++ b/문서 관리/01. 요구사항명세서.xlsx
@@ -742,10 +742,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>맞춤형 검사는 사용자가 원하는 검사 선택 시 관련 검사 제공</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>초등〮중고등〮성인 선택 시 해당 연령별 관련 검사 제공</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -778,13 +774,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>금칙어 포함시, 센터별관리자에게 게시글 삭제와 메시지 표시 기능 권한 부여</t>
-  </si>
-  <si>
-    <t>신청자가 지정한 위(Wee) 센터(24개소) 변경 권한을 센터별 관리자에게 부여</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>레이아웃에 따라 개별적으로 콘텐츠 관리 기능</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -797,10 +786,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>위(Wee) 센터별(23개소) 게시판 상담 관리 기능</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>공지사항에 전체·26개소에 따른 교육·연수·행사·기타 등록 및 신청자 접수 기능 구현</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -837,10 +822,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>각 상담별 게시판마다 신청자가 직접 비밀번호를 설정하여 비밀번호 입력 후 게시판 조회 가능</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>로그인 페이지</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1041,10 +1022,6 @@
   </si>
   <si>
     <t>전문상담(교)사 권한으로 로그인된 계정만 이용할 수 있도록 구현</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시판 상담은 비대면 상담 신청과 별도로 분리하여 신청할 수 있도록 구현</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -1592,6 +1569,30 @@
   </si>
   <si>
     <t>신고 누적 횟수가 5회 이상에 해당하는 사용자 계정 이용 제한 설정</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판상담은 사용자로부터 단순질의를 받으므로 상담예약신청을 위해 '상담 신청 1'로 연계</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판상담은 사용자로부터 단순질의를 받으므로 상담예약신청을 위해 '상담 신청 1'로 연계</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>금칙어 포함시, 관리자에게 게시글 삭제와 메시지 표시 기능 권한 부여</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 상담은 비대면 상담 신청과 별도로 분리하여 신청할 수 있도록 구현</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>상담게시판의 모든 게시글은 작성 시 신청자가 직접 비밀번호를 설정하여 비밀번호 입력 후 게시판 조회 가능</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교급, 학교소재지, 상담주제, 상담내용 등록·수정·취소 기능 구현</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -2061,7 +2062,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2371,13 +2372,19 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2398,13 +2405,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2416,23 +2420,11 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2446,11 +2438,23 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -9847,7 +9851,7 @@
         <v>29</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -10214,8 +10218,8 @@
   </sheetPr>
   <dimension ref="A1:H205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C177" sqref="C177:C178"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21" customHeight="1"/>
@@ -10231,33 +10235,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
     </row>
     <row r="2" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="124" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="126" t="s">
-        <v>225</v>
-      </c>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="123" t="s">
+        <v>219</v>
+      </c>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
       <c r="G2" s="19" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1" thickTop="1">
@@ -10290,17 +10294,17 @@
       <c r="A4" s="51">
         <v>1</v>
       </c>
-      <c r="B4" s="103" t="s">
-        <v>314</v>
-      </c>
-      <c r="C4" s="103" t="s">
+      <c r="B4" s="105" t="s">
+        <v>308</v>
+      </c>
+      <c r="C4" s="105" t="s">
         <v>88</v>
       </c>
       <c r="D4" s="94" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E4" s="100" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F4" s="100" t="s">
         <v>70</v>
@@ -10312,10 +10316,10 @@
       <c r="A5" s="51">
         <v>2</v>
       </c>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="107"/>
       <c r="D5" s="25" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E5" s="101"/>
       <c r="F5" s="101"/>
@@ -10326,10 +10330,10 @@
       <c r="A6" s="51">
         <v>3</v>
       </c>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="107"/>
       <c r="D6" s="25" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="E6" s="101"/>
       <c r="F6" s="101"/>
@@ -10340,10 +10344,10 @@
       <c r="A7" s="51">
         <v>4</v>
       </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
       <c r="D7" s="83" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E7" s="101"/>
       <c r="F7" s="101"/>
@@ -10354,10 +10358,10 @@
       <c r="A8" s="51">
         <v>5</v>
       </c>
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
       <c r="D8" s="83" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E8" s="102"/>
       <c r="F8" s="102"/>
@@ -10368,14 +10372,14 @@
       <c r="A9" s="51">
         <v>6</v>
       </c>
-      <c r="B9" s="103" t="s">
-        <v>314</v>
-      </c>
-      <c r="C9" s="122" t="s">
+      <c r="B9" s="105" t="s">
+        <v>308</v>
+      </c>
+      <c r="C9" s="126" t="s">
         <v>95</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E9" s="100" t="s">
         <v>95</v>
@@ -10390,10 +10394,10 @@
       <c r="A10" s="51">
         <v>7</v>
       </c>
-      <c r="B10" s="104"/>
-      <c r="C10" s="123"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="127"/>
       <c r="D10" s="24" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E10" s="101"/>
       <c r="F10" s="101"/>
@@ -10404,10 +10408,10 @@
       <c r="A11" s="51">
         <v>8</v>
       </c>
-      <c r="B11" s="105"/>
-      <c r="C11" s="123"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="127"/>
       <c r="D11" s="82" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E11" s="102"/>
       <c r="F11" s="102"/>
@@ -10418,14 +10422,14 @@
       <c r="A12" s="51">
         <v>9</v>
       </c>
-      <c r="B12" s="103" t="s">
-        <v>314</v>
-      </c>
-      <c r="C12" s="103" t="s">
+      <c r="B12" s="105" t="s">
+        <v>308</v>
+      </c>
+      <c r="C12" s="105" t="s">
         <v>98</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E12" s="100" t="s">
         <v>98</v>
@@ -10440,10 +10444,10 @@
       <c r="A13" s="51">
         <v>10</v>
       </c>
-      <c r="B13" s="104"/>
-      <c r="C13" s="104"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="107"/>
       <c r="D13" s="24" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E13" s="101"/>
       <c r="F13" s="101"/>
@@ -10454,10 +10458,10 @@
       <c r="A14" s="51">
         <v>11</v>
       </c>
-      <c r="B14" s="104"/>
-      <c r="C14" s="104"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="107"/>
       <c r="D14" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E14" s="101"/>
       <c r="F14" s="101"/>
@@ -10468,10 +10472,10 @@
       <c r="A15" s="51">
         <v>12</v>
       </c>
-      <c r="B15" s="105"/>
-      <c r="C15" s="105"/>
+      <c r="B15" s="106"/>
+      <c r="C15" s="106"/>
       <c r="D15" s="24" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E15" s="102"/>
       <c r="F15" s="102"/>
@@ -10482,17 +10486,17 @@
       <c r="A16" s="51">
         <v>13</v>
       </c>
-      <c r="B16" s="103" t="s">
-        <v>314</v>
-      </c>
-      <c r="C16" s="103" t="s">
+      <c r="B16" s="105" t="s">
+        <v>308</v>
+      </c>
+      <c r="C16" s="105" t="s">
         <v>93</v>
       </c>
       <c r="D16" s="24" t="s">
         <v>118</v>
       </c>
       <c r="E16" s="100" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F16" s="100" t="s">
         <v>70</v>
@@ -10504,8 +10508,8 @@
       <c r="A17" s="51">
         <v>14</v>
       </c>
-      <c r="B17" s="104"/>
-      <c r="C17" s="104"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="107"/>
       <c r="D17" s="24" t="s">
         <v>119</v>
       </c>
@@ -10518,10 +10522,10 @@
       <c r="A18" s="51">
         <v>15</v>
       </c>
-      <c r="B18" s="104"/>
-      <c r="C18" s="104"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="107"/>
       <c r="D18" s="83" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E18" s="101"/>
       <c r="F18" s="101"/>
@@ -10532,10 +10536,10 @@
       <c r="A19" s="51">
         <v>16</v>
       </c>
-      <c r="B19" s="104"/>
-      <c r="C19" s="104"/>
+      <c r="B19" s="107"/>
+      <c r="C19" s="107"/>
       <c r="D19" s="83" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E19" s="101"/>
       <c r="F19" s="101"/>
@@ -10546,10 +10550,10 @@
       <c r="A20" s="51">
         <v>17</v>
       </c>
-      <c r="B20" s="104"/>
-      <c r="C20" s="104"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="107"/>
       <c r="D20" s="83" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E20" s="101"/>
       <c r="F20" s="101"/>
@@ -10560,10 +10564,10 @@
       <c r="A21" s="51">
         <v>18</v>
       </c>
-      <c r="B21" s="105"/>
-      <c r="C21" s="104"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="107"/>
       <c r="D21" s="83" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E21" s="102"/>
       <c r="F21" s="102"/>
@@ -10574,17 +10578,17 @@
       <c r="A22" s="51">
         <v>19</v>
       </c>
-      <c r="B22" s="103" t="s">
-        <v>314</v>
-      </c>
-      <c r="C22" s="103" t="s">
+      <c r="B22" s="105" t="s">
+        <v>308</v>
+      </c>
+      <c r="C22" s="105" t="s">
         <v>94</v>
       </c>
       <c r="D22" s="24" t="s">
         <v>120</v>
       </c>
       <c r="E22" s="100" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F22" s="100" t="s">
         <v>70</v>
@@ -10596,10 +10600,10 @@
       <c r="A23" s="51">
         <v>20</v>
       </c>
-      <c r="B23" s="105"/>
-      <c r="C23" s="105"/>
+      <c r="B23" s="106"/>
+      <c r="C23" s="106"/>
       <c r="D23" s="24" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E23" s="102"/>
       <c r="F23" s="102"/>
@@ -10610,17 +10614,17 @@
       <c r="A24" s="51">
         <v>21</v>
       </c>
-      <c r="B24" s="115" t="s">
-        <v>314</v>
-      </c>
-      <c r="C24" s="103" t="s">
+      <c r="B24" s="116" t="s">
+        <v>308</v>
+      </c>
+      <c r="C24" s="105" t="s">
         <v>100</v>
       </c>
       <c r="D24" s="82" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E24" s="100" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F24" s="100" t="s">
         <v>70</v>
@@ -10632,8 +10636,8 @@
       <c r="A25" s="51">
         <v>22</v>
       </c>
-      <c r="B25" s="117"/>
-      <c r="C25" s="105"/>
+      <c r="B25" s="118"/>
+      <c r="C25" s="106"/>
       <c r="D25" s="83" t="s">
         <v>125</v>
       </c>
@@ -10647,7 +10651,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="86" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C26" s="85" t="s">
         <v>99</v>
@@ -10656,7 +10660,7 @@
         <v>124</v>
       </c>
       <c r="E26" s="88" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F26" s="88" t="s">
         <v>70</v>
@@ -10668,17 +10672,17 @@
       <c r="A27" s="51">
         <v>24</v>
       </c>
-      <c r="B27" s="103" t="s">
-        <v>315</v>
-      </c>
-      <c r="C27" s="103" t="s">
+      <c r="B27" s="105" t="s">
+        <v>309</v>
+      </c>
+      <c r="C27" s="105" t="s">
         <v>89</v>
       </c>
       <c r="D27" s="83" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E27" s="100" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F27" s="100" t="s">
         <v>70</v>
@@ -10690,8 +10694,8 @@
       <c r="A28" s="51">
         <v>25</v>
       </c>
-      <c r="B28" s="104"/>
-      <c r="C28" s="104"/>
+      <c r="B28" s="107"/>
+      <c r="C28" s="107"/>
       <c r="D28" s="25" t="s">
         <v>126</v>
       </c>
@@ -10704,10 +10708,10 @@
       <c r="A29" s="51">
         <v>26</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="104"/>
+      <c r="B29" s="107"/>
+      <c r="C29" s="107"/>
       <c r="D29" s="82" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E29" s="101"/>
       <c r="F29" s="101"/>
@@ -10718,10 +10722,10 @@
       <c r="A30" s="51">
         <v>27</v>
       </c>
-      <c r="B30" s="104"/>
-      <c r="C30" s="104"/>
+      <c r="B30" s="107"/>
+      <c r="C30" s="107"/>
       <c r="D30" s="25" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E30" s="101"/>
       <c r="F30" s="101"/>
@@ -10732,10 +10736,10 @@
       <c r="A31" s="51">
         <v>28</v>
       </c>
-      <c r="B31" s="104"/>
-      <c r="C31" s="104"/>
+      <c r="B31" s="107"/>
+      <c r="C31" s="107"/>
       <c r="D31" s="82" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E31" s="101"/>
       <c r="F31" s="101"/>
@@ -10746,10 +10750,10 @@
       <c r="A32" s="51">
         <v>29</v>
       </c>
-      <c r="B32" s="104"/>
-      <c r="C32" s="105"/>
+      <c r="B32" s="107"/>
+      <c r="C32" s="106"/>
       <c r="D32" s="25" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E32" s="101"/>
       <c r="F32" s="101"/>
@@ -10760,20 +10764,20 @@
       <c r="A33" s="51">
         <v>30</v>
       </c>
-      <c r="B33" s="103" t="s">
-        <v>316</v>
-      </c>
-      <c r="C33" s="103" t="s">
+      <c r="B33" s="105" t="s">
+        <v>310</v>
+      </c>
+      <c r="C33" s="105" t="s">
         <v>90</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E33" s="100" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F33" s="100" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G33" s="89"/>
       <c r="H33" s="52"/>
@@ -10782,10 +10786,10 @@
       <c r="A34" s="51">
         <v>31</v>
       </c>
-      <c r="B34" s="104"/>
-      <c r="C34" s="104"/>
+      <c r="B34" s="107"/>
+      <c r="C34" s="107"/>
       <c r="D34" s="42" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E34" s="101"/>
       <c r="F34" s="101"/>
@@ -10796,10 +10800,10 @@
       <c r="A35" s="51">
         <v>32</v>
       </c>
-      <c r="B35" s="104"/>
-      <c r="C35" s="104"/>
+      <c r="B35" s="107"/>
+      <c r="C35" s="107"/>
       <c r="D35" s="25" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E35" s="101"/>
       <c r="F35" s="101"/>
@@ -10810,10 +10814,10 @@
       <c r="A36" s="51">
         <v>33</v>
       </c>
-      <c r="B36" s="104"/>
-      <c r="C36" s="104"/>
+      <c r="B36" s="107"/>
+      <c r="C36" s="107"/>
       <c r="D36" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E36" s="101"/>
       <c r="F36" s="101"/>
@@ -10824,10 +10828,10 @@
       <c r="A37" s="51">
         <v>34</v>
       </c>
-      <c r="B37" s="104"/>
-      <c r="C37" s="104"/>
+      <c r="B37" s="107"/>
+      <c r="C37" s="107"/>
       <c r="D37" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E37" s="101"/>
       <c r="F37" s="101"/>
@@ -10838,10 +10842,10 @@
       <c r="A38" s="51">
         <v>35</v>
       </c>
-      <c r="B38" s="104"/>
-      <c r="C38" s="104"/>
+      <c r="B38" s="107"/>
+      <c r="C38" s="107"/>
       <c r="D38" s="24" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E38" s="101"/>
       <c r="F38" s="101"/>
@@ -10852,10 +10856,10 @@
       <c r="A39" s="51">
         <v>36</v>
       </c>
-      <c r="B39" s="105"/>
-      <c r="C39" s="105"/>
+      <c r="B39" s="106"/>
+      <c r="C39" s="106"/>
       <c r="D39" s="84" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E39" s="102"/>
       <c r="F39" s="102"/>
@@ -10866,20 +10870,20 @@
       <c r="A40" s="51">
         <v>37</v>
       </c>
-      <c r="B40" s="103" t="s">
-        <v>317</v>
-      </c>
-      <c r="C40" s="103" t="s">
+      <c r="B40" s="105" t="s">
+        <v>311</v>
+      </c>
+      <c r="C40" s="105" t="s">
         <v>91</v>
       </c>
-      <c r="D40" s="83" t="s">
-        <v>142</v>
+      <c r="D40" s="130" t="s">
+        <v>327</v>
       </c>
       <c r="E40" s="100" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F40" s="100" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G40" s="89"/>
       <c r="H40" s="52"/>
@@ -10888,10 +10892,10 @@
       <c r="A41" s="51">
         <v>38</v>
       </c>
-      <c r="B41" s="104"/>
-      <c r="C41" s="104"/>
-      <c r="D41" s="83" t="s">
-        <v>143</v>
+      <c r="B41" s="107"/>
+      <c r="C41" s="107"/>
+      <c r="D41" s="130" t="s">
+        <v>330</v>
       </c>
       <c r="E41" s="101"/>
       <c r="F41" s="101"/>
@@ -10902,10 +10906,10 @@
       <c r="A42" s="51">
         <v>39</v>
       </c>
-      <c r="B42" s="104"/>
-      <c r="C42" s="104"/>
-      <c r="D42" s="83" t="s">
-        <v>147</v>
+      <c r="B42" s="107"/>
+      <c r="C42" s="107"/>
+      <c r="D42" s="130" t="s">
+        <v>325</v>
       </c>
       <c r="E42" s="101"/>
       <c r="F42" s="101"/>
@@ -10916,10 +10920,10 @@
       <c r="A43" s="51">
         <v>40</v>
       </c>
-      <c r="B43" s="104"/>
-      <c r="C43" s="104"/>
+      <c r="B43" s="107"/>
+      <c r="C43" s="107"/>
       <c r="D43" s="43" t="s">
-        <v>157</v>
+        <v>329</v>
       </c>
       <c r="E43" s="101"/>
       <c r="F43" s="101"/>
@@ -10930,10 +10934,10 @@
       <c r="A44" s="51">
         <v>41</v>
       </c>
-      <c r="B44" s="105"/>
-      <c r="C44" s="104"/>
+      <c r="B44" s="106"/>
+      <c r="C44" s="107"/>
       <c r="D44" s="24" t="s">
-        <v>209</v>
+        <v>328</v>
       </c>
       <c r="E44" s="102"/>
       <c r="F44" s="102"/>
@@ -10944,17 +10948,17 @@
       <c r="A45" s="51">
         <v>42</v>
       </c>
-      <c r="B45" s="103" t="s">
-        <v>318</v>
-      </c>
-      <c r="C45" s="103" t="s">
+      <c r="B45" s="105" t="s">
+        <v>312</v>
+      </c>
+      <c r="C45" s="105" t="s">
         <v>92</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>133</v>
+        <v>326</v>
       </c>
       <c r="E45" s="100" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F45" s="100" t="s">
         <v>70</v>
@@ -10966,10 +10970,10 @@
       <c r="A46" s="51">
         <v>43</v>
       </c>
-      <c r="B46" s="104"/>
-      <c r="C46" s="104"/>
+      <c r="B46" s="107"/>
+      <c r="C46" s="107"/>
       <c r="D46" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E46" s="101"/>
       <c r="F46" s="101"/>
@@ -10980,10 +10984,10 @@
       <c r="A47" s="51">
         <v>44</v>
       </c>
-      <c r="B47" s="104"/>
-      <c r="C47" s="104"/>
+      <c r="B47" s="107"/>
+      <c r="C47" s="107"/>
       <c r="D47" s="23" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E47" s="101"/>
       <c r="F47" s="101"/>
@@ -10994,10 +10998,10 @@
       <c r="A48" s="51">
         <v>45</v>
       </c>
-      <c r="B48" s="104"/>
-      <c r="C48" s="104"/>
+      <c r="B48" s="107"/>
+      <c r="C48" s="107"/>
       <c r="D48" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E48" s="101"/>
       <c r="F48" s="101"/>
@@ -11008,10 +11012,10 @@
       <c r="A49" s="51">
         <v>46</v>
       </c>
-      <c r="B49" s="105"/>
-      <c r="C49" s="105"/>
+      <c r="B49" s="106"/>
+      <c r="C49" s="106"/>
       <c r="D49" s="24" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E49" s="102"/>
       <c r="F49" s="102"/>
@@ -11022,17 +11026,17 @@
       <c r="A50" s="51">
         <v>47</v>
       </c>
-      <c r="B50" s="103" t="s">
-        <v>319</v>
-      </c>
-      <c r="C50" s="103" t="s">
-        <v>176</v>
+      <c r="B50" s="105" t="s">
+        <v>313</v>
+      </c>
+      <c r="C50" s="105" t="s">
+        <v>171</v>
       </c>
       <c r="D50" s="24" t="s">
         <v>131</v>
       </c>
       <c r="E50" s="100" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F50" s="100" t="s">
         <v>70</v>
@@ -11044,10 +11048,10 @@
       <c r="A51" s="51">
         <v>48</v>
       </c>
-      <c r="B51" s="104"/>
-      <c r="C51" s="104"/>
-      <c r="D51" s="82" t="s">
-        <v>192</v>
+      <c r="B51" s="107"/>
+      <c r="C51" s="107"/>
+      <c r="D51" s="94" t="s">
+        <v>187</v>
       </c>
       <c r="E51" s="101"/>
       <c r="F51" s="101"/>
@@ -11058,8 +11062,8 @@
       <c r="A52" s="51">
         <v>49</v>
       </c>
-      <c r="B52" s="104"/>
-      <c r="C52" s="104"/>
+      <c r="B52" s="107"/>
+      <c r="C52" s="107"/>
       <c r="D52" s="24" t="s">
         <v>132</v>
       </c>
@@ -11072,10 +11076,10 @@
       <c r="A53" s="51">
         <v>50</v>
       </c>
-      <c r="B53" s="105"/>
-      <c r="C53" s="105"/>
+      <c r="B53" s="106"/>
+      <c r="C53" s="106"/>
       <c r="D53" s="24" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E53" s="102"/>
       <c r="F53" s="102"/>
@@ -11086,17 +11090,17 @@
       <c r="A54" s="51">
         <v>51</v>
       </c>
-      <c r="B54" s="103" t="s">
-        <v>320</v>
-      </c>
-      <c r="C54" s="103" t="s">
-        <v>321</v>
-      </c>
-      <c r="D54" s="82" t="s">
-        <v>191</v>
+      <c r="B54" s="105" t="s">
+        <v>314</v>
+      </c>
+      <c r="C54" s="105" t="s">
+        <v>315</v>
+      </c>
+      <c r="D54" s="94" t="s">
+        <v>186</v>
       </c>
       <c r="E54" s="100" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F54" s="100" t="s">
         <v>70</v>
@@ -11108,8 +11112,8 @@
       <c r="A55" s="51">
         <v>52</v>
       </c>
-      <c r="B55" s="105"/>
-      <c r="C55" s="105"/>
+      <c r="B55" s="106"/>
+      <c r="C55" s="106"/>
       <c r="D55" s="24" t="s">
         <v>129</v>
       </c>
@@ -11122,20 +11126,20 @@
       <c r="A56" s="51">
         <v>53</v>
       </c>
-      <c r="B56" s="103" t="s">
-        <v>322</v>
-      </c>
-      <c r="C56" s="103" t="s">
-        <v>224</v>
-      </c>
-      <c r="D56" s="83" t="s">
-        <v>208</v>
+      <c r="B56" s="105" t="s">
+        <v>316</v>
+      </c>
+      <c r="C56" s="105" t="s">
+        <v>218</v>
+      </c>
+      <c r="D56" s="130" t="s">
+        <v>203</v>
       </c>
       <c r="E56" s="100" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F56" s="100" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G56" s="89"/>
       <c r="H56" s="52"/>
@@ -11144,8 +11148,8 @@
       <c r="A57" s="51">
         <v>54</v>
       </c>
-      <c r="B57" s="104"/>
-      <c r="C57" s="104"/>
+      <c r="B57" s="107"/>
+      <c r="C57" s="107"/>
       <c r="D57" s="23" t="s">
         <v>127</v>
       </c>
@@ -11158,10 +11162,10 @@
       <c r="A58" s="51">
         <v>55</v>
       </c>
-      <c r="B58" s="104"/>
-      <c r="C58" s="104"/>
-      <c r="D58" s="83" t="s">
-        <v>189</v>
+      <c r="B58" s="107"/>
+      <c r="C58" s="107"/>
+      <c r="D58" s="130" t="s">
+        <v>184</v>
       </c>
       <c r="E58" s="101"/>
       <c r="F58" s="101"/>
@@ -11172,10 +11176,10 @@
       <c r="A59" s="51">
         <v>56</v>
       </c>
-      <c r="B59" s="104"/>
-      <c r="C59" s="104"/>
-      <c r="D59" s="83" t="s">
-        <v>197</v>
+      <c r="B59" s="107"/>
+      <c r="C59" s="107"/>
+      <c r="D59" s="130" t="s">
+        <v>192</v>
       </c>
       <c r="E59" s="101"/>
       <c r="F59" s="101"/>
@@ -11186,10 +11190,10 @@
       <c r="A60" s="51">
         <v>57</v>
       </c>
-      <c r="B60" s="104"/>
-      <c r="C60" s="104"/>
-      <c r="D60" s="83" t="s">
-        <v>194</v>
+      <c r="B60" s="107"/>
+      <c r="C60" s="107"/>
+      <c r="D60" s="130" t="s">
+        <v>189</v>
       </c>
       <c r="E60" s="101"/>
       <c r="F60" s="101"/>
@@ -11200,9 +11204,9 @@
       <c r="A61" s="51">
         <v>58</v>
       </c>
-      <c r="B61" s="104"/>
-      <c r="C61" s="104"/>
-      <c r="D61" s="83" t="s">
+      <c r="B61" s="107"/>
+      <c r="C61" s="107"/>
+      <c r="D61" s="130" t="s">
         <v>128</v>
       </c>
       <c r="E61" s="101"/>
@@ -11214,10 +11218,10 @@
       <c r="A62" s="51">
         <v>59</v>
       </c>
-      <c r="B62" s="105"/>
-      <c r="C62" s="105"/>
-      <c r="D62" s="83" t="s">
-        <v>190</v>
+      <c r="B62" s="106"/>
+      <c r="C62" s="106"/>
+      <c r="D62" s="130" t="s">
+        <v>185</v>
       </c>
       <c r="E62" s="102"/>
       <c r="F62" s="102"/>
@@ -11228,16 +11232,16 @@
       <c r="A63" s="51">
         <v>60</v>
       </c>
-      <c r="B63" s="103" t="s">
-        <v>323</v>
-      </c>
-      <c r="C63" s="124" t="s">
+      <c r="B63" s="105" t="s">
+        <v>317</v>
+      </c>
+      <c r="C63" s="121" t="s">
         <v>86</v>
       </c>
       <c r="D63" s="70" t="s">
         <v>101</v>
       </c>
-      <c r="E63" s="118" t="s">
+      <c r="E63" s="125" t="s">
         <v>86</v>
       </c>
       <c r="F63" s="100" t="s">
@@ -11250,12 +11254,12 @@
       <c r="A64" s="51">
         <v>61</v>
       </c>
-      <c r="B64" s="104"/>
-      <c r="C64" s="124"/>
+      <c r="B64" s="107"/>
+      <c r="C64" s="121"/>
       <c r="D64" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="E64" s="118"/>
+      <c r="E64" s="125"/>
       <c r="F64" s="101"/>
       <c r="G64" s="89"/>
       <c r="H64" s="52"/>
@@ -11264,12 +11268,12 @@
       <c r="A65" s="51">
         <v>62</v>
       </c>
-      <c r="B65" s="104"/>
-      <c r="C65" s="124"/>
+      <c r="B65" s="107"/>
+      <c r="C65" s="121"/>
       <c r="D65" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="E65" s="118"/>
+      <c r="E65" s="125"/>
       <c r="F65" s="101"/>
       <c r="G65" s="89"/>
       <c r="H65" s="52"/>
@@ -11278,12 +11282,12 @@
       <c r="A66" s="51">
         <v>63</v>
       </c>
-      <c r="B66" s="104"/>
-      <c r="C66" s="124"/>
+      <c r="B66" s="107"/>
+      <c r="C66" s="121"/>
       <c r="D66" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="E66" s="118"/>
+      <c r="E66" s="125"/>
       <c r="F66" s="101"/>
       <c r="G66" s="89"/>
       <c r="H66" s="52"/>
@@ -11292,12 +11296,12 @@
       <c r="A67" s="51">
         <v>64</v>
       </c>
-      <c r="B67" s="104"/>
-      <c r="C67" s="124"/>
+      <c r="B67" s="107"/>
+      <c r="C67" s="121"/>
       <c r="D67" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="E67" s="118"/>
+      <c r="E67" s="125"/>
       <c r="F67" s="101"/>
       <c r="G67" s="89"/>
       <c r="H67" s="52"/>
@@ -11306,12 +11310,12 @@
       <c r="A68" s="51">
         <v>65</v>
       </c>
-      <c r="B68" s="104"/>
-      <c r="C68" s="124"/>
+      <c r="B68" s="107"/>
+      <c r="C68" s="121"/>
       <c r="D68" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="E68" s="118"/>
+      <c r="E68" s="125"/>
       <c r="F68" s="101"/>
       <c r="G68" s="89"/>
       <c r="H68" s="52"/>
@@ -11320,12 +11324,12 @@
       <c r="A69" s="51">
         <v>66</v>
       </c>
-      <c r="B69" s="104"/>
-      <c r="C69" s="120"/>
+      <c r="B69" s="107"/>
+      <c r="C69" s="114"/>
       <c r="D69" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="E69" s="119"/>
+      <c r="E69" s="120"/>
       <c r="F69" s="101"/>
       <c r="G69" s="89"/>
       <c r="H69" s="52"/>
@@ -11334,12 +11338,12 @@
       <c r="A70" s="51">
         <v>67</v>
       </c>
-      <c r="B70" s="104"/>
-      <c r="C70" s="120"/>
+      <c r="B70" s="107"/>
+      <c r="C70" s="114"/>
       <c r="D70" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="E70" s="119"/>
+      <c r="E70" s="120"/>
       <c r="F70" s="101"/>
       <c r="G70" s="89"/>
       <c r="H70" s="52"/>
@@ -11348,12 +11352,12 @@
       <c r="A71" s="51">
         <v>68</v>
       </c>
-      <c r="B71" s="104"/>
-      <c r="C71" s="120"/>
+      <c r="B71" s="107"/>
+      <c r="C71" s="114"/>
       <c r="D71" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="E71" s="119"/>
+        <v>197</v>
+      </c>
+      <c r="E71" s="120"/>
       <c r="F71" s="101"/>
       <c r="G71" s="89"/>
       <c r="H71" s="52"/>
@@ -11362,12 +11366,12 @@
       <c r="A72" s="51">
         <v>69</v>
       </c>
-      <c r="B72" s="105"/>
-      <c r="C72" s="120"/>
+      <c r="B72" s="106"/>
+      <c r="C72" s="114"/>
       <c r="D72" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="E72" s="119"/>
+        <v>180</v>
+      </c>
+      <c r="E72" s="120"/>
       <c r="F72" s="102"/>
       <c r="G72" s="89"/>
       <c r="H72" s="52"/>
@@ -11376,19 +11380,19 @@
       <c r="A73" s="51">
         <v>70</v>
       </c>
-      <c r="B73" s="112" t="s">
-        <v>324</v>
-      </c>
-      <c r="C73" s="103" t="s">
+      <c r="B73" s="103" t="s">
+        <v>318</v>
+      </c>
+      <c r="C73" s="105" t="s">
         <v>77</v>
       </c>
       <c r="D73" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="E73" s="112" t="s">
-        <v>159</v>
-      </c>
-      <c r="F73" s="112" t="s">
+        <v>191</v>
+      </c>
+      <c r="E73" s="103" t="s">
+        <v>154</v>
+      </c>
+      <c r="F73" s="103" t="s">
         <v>72</v>
       </c>
       <c r="G73" s="51"/>
@@ -11398,13 +11402,13 @@
       <c r="A74" s="51">
         <v>71</v>
       </c>
-      <c r="B74" s="113"/>
-      <c r="C74" s="104"/>
+      <c r="B74" s="115"/>
+      <c r="C74" s="107"/>
       <c r="D74" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="E74" s="113"/>
-      <c r="F74" s="113"/>
+        <v>179</v>
+      </c>
+      <c r="E74" s="115"/>
+      <c r="F74" s="115"/>
       <c r="G74" s="39"/>
       <c r="H74" s="52"/>
     </row>
@@ -11412,13 +11416,13 @@
       <c r="A75" s="51">
         <v>72</v>
       </c>
-      <c r="B75" s="113"/>
-      <c r="C75" s="104"/>
+      <c r="B75" s="115"/>
+      <c r="C75" s="107"/>
       <c r="D75" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="E75" s="113"/>
-      <c r="F75" s="113"/>
+        <v>196</v>
+      </c>
+      <c r="E75" s="115"/>
+      <c r="F75" s="115"/>
       <c r="G75" s="39"/>
       <c r="H75" s="52"/>
     </row>
@@ -11426,13 +11430,13 @@
       <c r="A76" s="51">
         <v>73</v>
       </c>
-      <c r="B76" s="113"/>
-      <c r="C76" s="104"/>
+      <c r="B76" s="115"/>
+      <c r="C76" s="107"/>
       <c r="D76" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="E76" s="113"/>
-      <c r="F76" s="113"/>
+      <c r="E76" s="115"/>
+      <c r="F76" s="115"/>
       <c r="G76" s="39"/>
       <c r="H76" s="52"/>
     </row>
@@ -11440,13 +11444,13 @@
       <c r="A77" s="51">
         <v>74</v>
       </c>
-      <c r="B77" s="113"/>
-      <c r="C77" s="104"/>
+      <c r="B77" s="115"/>
+      <c r="C77" s="107"/>
       <c r="D77" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="E77" s="113"/>
-      <c r="F77" s="113"/>
+      <c r="E77" s="115"/>
+      <c r="F77" s="115"/>
       <c r="G77" s="30"/>
       <c r="H77" s="32"/>
     </row>
@@ -11454,13 +11458,13 @@
       <c r="A78" s="51">
         <v>75</v>
       </c>
-      <c r="B78" s="113"/>
-      <c r="C78" s="104"/>
+      <c r="B78" s="115"/>
+      <c r="C78" s="107"/>
       <c r="D78" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="E78" s="113"/>
-      <c r="F78" s="113"/>
+      <c r="E78" s="115"/>
+      <c r="F78" s="115"/>
       <c r="G78" s="30"/>
       <c r="H78" s="32"/>
     </row>
@@ -11468,13 +11472,13 @@
       <c r="A79" s="51">
         <v>76</v>
       </c>
-      <c r="B79" s="113"/>
-      <c r="C79" s="104"/>
+      <c r="B79" s="115"/>
+      <c r="C79" s="107"/>
       <c r="D79" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="E79" s="113"/>
-      <c r="F79" s="113"/>
+        <v>176</v>
+      </c>
+      <c r="E79" s="115"/>
+      <c r="F79" s="115"/>
       <c r="G79" s="30"/>
       <c r="H79" s="32"/>
     </row>
@@ -11482,13 +11486,13 @@
       <c r="A80" s="51">
         <v>77</v>
       </c>
-      <c r="B80" s="113"/>
-      <c r="C80" s="104"/>
+      <c r="B80" s="115"/>
+      <c r="C80" s="107"/>
       <c r="D80" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="E80" s="113"/>
-      <c r="F80" s="113"/>
+        <v>195</v>
+      </c>
+      <c r="E80" s="115"/>
+      <c r="F80" s="115"/>
       <c r="G80" s="75"/>
       <c r="H80" s="52"/>
     </row>
@@ -11496,13 +11500,13 @@
       <c r="A81" s="51">
         <v>78</v>
       </c>
-      <c r="B81" s="113"/>
-      <c r="C81" s="104"/>
+      <c r="B81" s="115"/>
+      <c r="C81" s="107"/>
       <c r="D81" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="E81" s="113"/>
-      <c r="F81" s="113"/>
+        <v>213</v>
+      </c>
+      <c r="E81" s="115"/>
+      <c r="F81" s="115"/>
       <c r="G81" s="75"/>
       <c r="H81" s="52"/>
     </row>
@@ -11510,13 +11514,13 @@
       <c r="A82" s="51">
         <v>79</v>
       </c>
-      <c r="B82" s="113"/>
-      <c r="C82" s="104"/>
+      <c r="B82" s="115"/>
+      <c r="C82" s="107"/>
       <c r="D82" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="E82" s="113"/>
-      <c r="F82" s="113"/>
+      <c r="E82" s="115"/>
+      <c r="F82" s="115"/>
       <c r="G82" s="30"/>
       <c r="H82" s="32"/>
     </row>
@@ -11524,13 +11528,13 @@
       <c r="A83" s="51">
         <v>80</v>
       </c>
-      <c r="B83" s="113"/>
-      <c r="C83" s="104"/>
+      <c r="B83" s="115"/>
+      <c r="C83" s="107"/>
       <c r="D83" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E83" s="113"/>
-      <c r="F83" s="113"/>
+      <c r="E83" s="115"/>
+      <c r="F83" s="115"/>
       <c r="G83" s="30"/>
       <c r="H83" s="32"/>
     </row>
@@ -11538,13 +11542,13 @@
       <c r="A84" s="51">
         <v>81</v>
       </c>
-      <c r="B84" s="113"/>
-      <c r="C84" s="105"/>
+      <c r="B84" s="115"/>
+      <c r="C84" s="106"/>
       <c r="D84" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="E84" s="114"/>
-      <c r="F84" s="114"/>
+      <c r="E84" s="104"/>
+      <c r="F84" s="104"/>
       <c r="G84" s="30"/>
       <c r="H84" s="32"/>
     </row>
@@ -11552,17 +11556,17 @@
       <c r="A85" s="51">
         <v>82</v>
       </c>
-      <c r="B85" s="103" t="s">
-        <v>324</v>
-      </c>
-      <c r="C85" s="103" t="s">
+      <c r="B85" s="105" t="s">
+        <v>318</v>
+      </c>
+      <c r="C85" s="105" t="s">
         <v>97</v>
       </c>
-      <c r="D85" s="43" t="s">
-        <v>141</v>
+      <c r="D85" s="23" t="s">
+        <v>140</v>
       </c>
       <c r="E85" s="100" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F85" s="100" t="s">
         <v>70</v>
@@ -11574,10 +11578,10 @@
       <c r="A86" s="51">
         <v>83</v>
       </c>
-      <c r="B86" s="104"/>
-      <c r="C86" s="104"/>
+      <c r="B86" s="107"/>
+      <c r="C86" s="107"/>
       <c r="D86" s="24" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E86" s="101"/>
       <c r="F86" s="101"/>
@@ -11588,10 +11592,10 @@
       <c r="A87" s="51">
         <v>84</v>
       </c>
-      <c r="B87" s="104"/>
-      <c r="C87" s="104"/>
+      <c r="B87" s="107"/>
+      <c r="C87" s="107"/>
       <c r="D87" s="24" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E87" s="101"/>
       <c r="F87" s="101"/>
@@ -11602,10 +11606,10 @@
       <c r="A88" s="51">
         <v>85</v>
       </c>
-      <c r="B88" s="105"/>
-      <c r="C88" s="104"/>
+      <c r="B88" s="106"/>
+      <c r="C88" s="107"/>
       <c r="D88" s="24" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E88" s="102"/>
       <c r="F88" s="102"/>
@@ -11616,17 +11620,17 @@
       <c r="A89" s="51">
         <v>86</v>
       </c>
-      <c r="B89" s="112" t="s">
-        <v>325</v>
-      </c>
-      <c r="C89" s="103" t="s">
+      <c r="B89" s="103" t="s">
+        <v>319</v>
+      </c>
+      <c r="C89" s="105" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="E89" s="115" t="s">
-        <v>158</v>
+      <c r="E89" s="116" t="s">
+        <v>153</v>
       </c>
       <c r="F89" s="100" t="s">
         <v>70</v>
@@ -11638,12 +11642,12 @@
       <c r="A90" s="51">
         <v>87</v>
       </c>
-      <c r="B90" s="113"/>
-      <c r="C90" s="104"/>
+      <c r="B90" s="115"/>
+      <c r="C90" s="107"/>
       <c r="D90" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="E90" s="116"/>
+      <c r="E90" s="117"/>
       <c r="F90" s="101"/>
       <c r="G90" s="30"/>
       <c r="H90" s="32"/>
@@ -11652,12 +11656,12 @@
       <c r="A91" s="51">
         <v>88</v>
       </c>
-      <c r="B91" s="113"/>
-      <c r="C91" s="104"/>
+      <c r="B91" s="115"/>
+      <c r="C91" s="107"/>
       <c r="D91" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="E91" s="116"/>
+        <v>212</v>
+      </c>
+      <c r="E91" s="117"/>
       <c r="F91" s="101"/>
       <c r="G91" s="30"/>
       <c r="H91" s="32"/>
@@ -11666,12 +11670,12 @@
       <c r="A92" s="51">
         <v>89</v>
       </c>
-      <c r="B92" s="113"/>
-      <c r="C92" s="104"/>
+      <c r="B92" s="115"/>
+      <c r="C92" s="107"/>
       <c r="D92" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="E92" s="116"/>
+        <v>210</v>
+      </c>
+      <c r="E92" s="117"/>
       <c r="F92" s="101"/>
       <c r="G92" s="30"/>
       <c r="H92" s="32"/>
@@ -11680,12 +11684,12 @@
       <c r="A93" s="51">
         <v>90</v>
       </c>
-      <c r="B93" s="113"/>
-      <c r="C93" s="104"/>
+      <c r="B93" s="115"/>
+      <c r="C93" s="107"/>
       <c r="D93" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="E93" s="116"/>
+        <v>204</v>
+      </c>
+      <c r="E93" s="117"/>
       <c r="F93" s="101"/>
       <c r="G93" s="30"/>
       <c r="H93" s="32"/>
@@ -11694,12 +11698,12 @@
       <c r="A94" s="51">
         <v>91</v>
       </c>
-      <c r="B94" s="113"/>
-      <c r="C94" s="104"/>
+      <c r="B94" s="115"/>
+      <c r="C94" s="107"/>
       <c r="D94" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="E94" s="116"/>
+      <c r="E94" s="117"/>
       <c r="F94" s="101"/>
       <c r="G94" s="30"/>
       <c r="H94" s="32"/>
@@ -11708,12 +11712,12 @@
       <c r="A95" s="51">
         <v>92</v>
       </c>
-      <c r="B95" s="113"/>
-      <c r="C95" s="104"/>
+      <c r="B95" s="115"/>
+      <c r="C95" s="107"/>
       <c r="D95" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E95" s="116"/>
+      <c r="E95" s="117"/>
       <c r="F95" s="101"/>
       <c r="G95" s="30"/>
       <c r="H95" s="32"/>
@@ -11722,12 +11726,12 @@
       <c r="A96" s="51">
         <v>93</v>
       </c>
-      <c r="B96" s="114"/>
-      <c r="C96" s="105"/>
+      <c r="B96" s="104"/>
+      <c r="C96" s="106"/>
       <c r="D96" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="E96" s="117"/>
+      <c r="E96" s="118"/>
       <c r="F96" s="101"/>
       <c r="G96" s="30"/>
       <c r="H96" s="32"/>
@@ -11736,20 +11740,20 @@
       <c r="A97" s="51">
         <v>94</v>
       </c>
-      <c r="B97" s="112" t="s">
-        <v>328</v>
-      </c>
-      <c r="C97" s="103" t="s">
+      <c r="B97" s="103" t="s">
+        <v>322</v>
+      </c>
+      <c r="C97" s="105" t="s">
         <v>83</v>
       </c>
       <c r="D97" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="E97" s="103" t="s">
-        <v>160</v>
+      <c r="E97" s="105" t="s">
+        <v>155</v>
       </c>
       <c r="F97" s="100" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G97" s="30"/>
       <c r="H97" s="32"/>
@@ -11758,12 +11762,12 @@
       <c r="A98" s="51">
         <v>95</v>
       </c>
-      <c r="B98" s="113"/>
-      <c r="C98" s="104"/>
+      <c r="B98" s="115"/>
+      <c r="C98" s="107"/>
       <c r="D98" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="E98" s="104"/>
+      <c r="E98" s="107"/>
       <c r="F98" s="101"/>
       <c r="G98" s="30"/>
       <c r="H98" s="32"/>
@@ -11772,12 +11776,12 @@
       <c r="A99" s="51">
         <v>96</v>
       </c>
-      <c r="B99" s="114"/>
-      <c r="C99" s="105"/>
+      <c r="B99" s="104"/>
+      <c r="C99" s="106"/>
       <c r="D99" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="E99" s="105"/>
+      <c r="E99" s="106"/>
       <c r="F99" s="102"/>
       <c r="G99" s="30"/>
       <c r="H99" s="32"/>
@@ -11786,20 +11790,20 @@
       <c r="A100" s="51">
         <v>97</v>
       </c>
-      <c r="B100" s="103" t="s">
-        <v>326</v>
-      </c>
-      <c r="C100" s="103" t="s">
+      <c r="B100" s="105" t="s">
+        <v>320</v>
+      </c>
+      <c r="C100" s="105" t="s">
         <v>87</v>
       </c>
       <c r="D100" s="24" t="s">
         <v>112</v>
       </c>
       <c r="E100" s="100" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F100" s="100" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G100" s="30"/>
       <c r="H100" s="32"/>
@@ -11808,8 +11812,8 @@
       <c r="A101" s="51">
         <v>98</v>
       </c>
-      <c r="B101" s="104"/>
-      <c r="C101" s="104"/>
+      <c r="B101" s="107"/>
+      <c r="C101" s="107"/>
       <c r="D101" s="24" t="s">
         <v>113</v>
       </c>
@@ -11822,8 +11826,8 @@
       <c r="A102" s="51">
         <v>99</v>
       </c>
-      <c r="B102" s="104"/>
-      <c r="C102" s="104"/>
+      <c r="B102" s="107"/>
+      <c r="C102" s="107"/>
       <c r="D102" s="24" t="s">
         <v>114</v>
       </c>
@@ -11836,8 +11840,8 @@
       <c r="A103" s="51">
         <v>100</v>
       </c>
-      <c r="B103" s="104"/>
-      <c r="C103" s="104"/>
+      <c r="B103" s="107"/>
+      <c r="C103" s="107"/>
       <c r="D103" s="24" t="s">
         <v>115</v>
       </c>
@@ -11850,10 +11854,10 @@
       <c r="A104" s="51">
         <v>101</v>
       </c>
-      <c r="B104" s="104"/>
-      <c r="C104" s="104"/>
+      <c r="B104" s="107"/>
+      <c r="C104" s="107"/>
       <c r="D104" s="24" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E104" s="101"/>
       <c r="F104" s="101"/>
@@ -11864,8 +11868,8 @@
       <c r="A105" s="51">
         <v>102</v>
       </c>
-      <c r="B105" s="104"/>
-      <c r="C105" s="104"/>
+      <c r="B105" s="107"/>
+      <c r="C105" s="107"/>
       <c r="D105" s="24" t="s">
         <v>116</v>
       </c>
@@ -11878,8 +11882,8 @@
       <c r="A106" s="51">
         <v>103</v>
       </c>
-      <c r="B106" s="104"/>
-      <c r="C106" s="104"/>
+      <c r="B106" s="107"/>
+      <c r="C106" s="107"/>
       <c r="D106" s="24" t="s">
         <v>117</v>
       </c>
@@ -11892,10 +11896,10 @@
       <c r="A107" s="51">
         <v>104</v>
       </c>
-      <c r="B107" s="105"/>
-      <c r="C107" s="105"/>
+      <c r="B107" s="106"/>
+      <c r="C107" s="106"/>
       <c r="D107" s="24" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="E107" s="102"/>
       <c r="F107" s="87"/>
@@ -11906,20 +11910,20 @@
       <c r="A108" s="51">
         <v>105</v>
       </c>
-      <c r="B108" s="103" t="s">
-        <v>327</v>
-      </c>
-      <c r="C108" s="103" t="s">
+      <c r="B108" s="105" t="s">
+        <v>321</v>
+      </c>
+      <c r="C108" s="105" t="s">
         <v>96</v>
       </c>
       <c r="D108" s="24" t="s">
         <v>121</v>
       </c>
       <c r="E108" s="100" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F108" s="100" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G108" s="69"/>
       <c r="H108" s="52"/>
@@ -11928,10 +11932,10 @@
       <c r="A109" s="51">
         <v>106</v>
       </c>
-      <c r="B109" s="104"/>
-      <c r="C109" s="104"/>
+      <c r="B109" s="107"/>
+      <c r="C109" s="107"/>
       <c r="D109" s="24" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E109" s="101"/>
       <c r="F109" s="101"/>
@@ -11942,8 +11946,8 @@
       <c r="A110" s="51">
         <v>107</v>
       </c>
-      <c r="B110" s="104"/>
-      <c r="C110" s="104"/>
+      <c r="B110" s="107"/>
+      <c r="C110" s="107"/>
       <c r="D110" s="24" t="s">
         <v>122</v>
       </c>
@@ -11956,8 +11960,8 @@
       <c r="A111" s="51">
         <v>108</v>
       </c>
-      <c r="B111" s="104"/>
-      <c r="C111" s="104"/>
+      <c r="B111" s="107"/>
+      <c r="C111" s="107"/>
       <c r="D111" s="24" t="s">
         <v>123</v>
       </c>
@@ -11970,8 +11974,8 @@
       <c r="A112" s="51">
         <v>109</v>
       </c>
-      <c r="B112" s="105"/>
-      <c r="C112" s="105"/>
+      <c r="B112" s="106"/>
+      <c r="C112" s="106"/>
       <c r="D112" s="24" t="s">
         <v>130</v>
       </c>
@@ -11983,10 +11987,10 @@
     <row r="113" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A113" s="51"/>
       <c r="B113" s="25"/>
-      <c r="C113" s="106" t="s">
+      <c r="C113" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="D113" s="107"/>
+      <c r="D113" s="109"/>
       <c r="E113" s="72"/>
       <c r="F113" s="72"/>
       <c r="G113" s="73"/>
@@ -12000,10 +12004,10 @@
         <v>47</v>
       </c>
       <c r="C114" s="73" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D114" s="25" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E114" s="72"/>
       <c r="F114" s="72" t="s">
@@ -12013,19 +12017,19 @@
       <c r="H114" s="27"/>
     </row>
     <row r="115" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A115" s="112">
+      <c r="A115" s="103">
         <v>111</v>
       </c>
-      <c r="B115" s="103" t="s">
+      <c r="B115" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="C115" s="120" t="s">
-        <v>241</v>
+      <c r="C115" s="114" t="s">
+        <v>235</v>
       </c>
       <c r="D115" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="E115" s="119"/>
+        <v>236</v>
+      </c>
+      <c r="E115" s="120"/>
       <c r="F115" s="100" t="s">
         <v>73</v>
       </c>
@@ -12033,13 +12037,13 @@
       <c r="H115" s="27"/>
     </row>
     <row r="116" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A116" s="114"/>
-      <c r="B116" s="105"/>
-      <c r="C116" s="120"/>
+      <c r="A116" s="104"/>
+      <c r="B116" s="106"/>
+      <c r="C116" s="114"/>
       <c r="D116" s="33" t="s">
-        <v>243</v>
-      </c>
-      <c r="E116" s="119"/>
+        <v>237</v>
+      </c>
+      <c r="E116" s="120"/>
       <c r="F116" s="102"/>
       <c r="G116" s="30"/>
       <c r="H116" s="27"/>
@@ -12048,16 +12052,16 @@
       <c r="A117" s="29">
         <v>112</v>
       </c>
-      <c r="B117" s="103" t="s">
-        <v>248</v>
-      </c>
-      <c r="C117" s="120" t="s">
-        <v>247</v>
+      <c r="B117" s="105" t="s">
+        <v>242</v>
+      </c>
+      <c r="C117" s="114" t="s">
+        <v>241</v>
       </c>
       <c r="D117" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="E117" s="119"/>
+        <v>239</v>
+      </c>
+      <c r="E117" s="120"/>
       <c r="F117" s="100" t="s">
         <v>71</v>
       </c>
@@ -12068,12 +12072,12 @@
       <c r="A118" s="29">
         <v>113</v>
       </c>
-      <c r="B118" s="105"/>
-      <c r="C118" s="120"/>
+      <c r="B118" s="106"/>
+      <c r="C118" s="114"/>
       <c r="D118" s="25" t="s">
-        <v>246</v>
-      </c>
-      <c r="E118" s="119"/>
+        <v>240</v>
+      </c>
+      <c r="E118" s="120"/>
       <c r="F118" s="102"/>
       <c r="G118" s="30"/>
       <c r="H118" s="27"/>
@@ -12082,16 +12086,16 @@
       <c r="A119" s="51">
         <v>114</v>
       </c>
-      <c r="B119" s="103" t="s">
-        <v>249</v>
-      </c>
-      <c r="C119" s="120" t="s">
-        <v>244</v>
+      <c r="B119" s="105" t="s">
+        <v>243</v>
+      </c>
+      <c r="C119" s="114" t="s">
+        <v>238</v>
       </c>
       <c r="D119" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E119" s="119"/>
+      <c r="E119" s="120"/>
       <c r="F119" s="100" t="s">
         <v>71</v>
       </c>
@@ -12102,12 +12106,12 @@
       <c r="A120" s="51">
         <v>115</v>
       </c>
-      <c r="B120" s="104"/>
-      <c r="C120" s="120"/>
+      <c r="B120" s="107"/>
+      <c r="C120" s="114"/>
       <c r="D120" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E120" s="119"/>
+      <c r="E120" s="120"/>
       <c r="F120" s="101"/>
       <c r="G120" s="30"/>
       <c r="H120" s="32"/>
@@ -12116,12 +12120,12 @@
       <c r="A121" s="51">
         <v>116</v>
       </c>
-      <c r="B121" s="105"/>
-      <c r="C121" s="120"/>
+      <c r="B121" s="106"/>
+      <c r="C121" s="114"/>
       <c r="D121" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="E121" s="119"/>
+      <c r="E121" s="120"/>
       <c r="F121" s="102"/>
       <c r="G121" s="30"/>
       <c r="H121" s="32"/>
@@ -12129,10 +12133,10 @@
     <row r="122" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A122" s="29"/>
       <c r="B122" s="25"/>
-      <c r="C122" s="121" t="s">
+      <c r="C122" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="D122" s="121"/>
+      <c r="D122" s="119"/>
       <c r="E122" s="25"/>
       <c r="F122" s="62"/>
       <c r="G122" s="30"/>
@@ -12142,16 +12146,16 @@
       <c r="A123" s="29">
         <v>117</v>
       </c>
-      <c r="B123" s="103" t="s">
+      <c r="B123" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="C123" s="120" t="s">
-        <v>221</v>
+      <c r="C123" s="114" t="s">
+        <v>215</v>
       </c>
       <c r="D123" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="E123" s="119"/>
+      <c r="E123" s="120"/>
       <c r="F123" s="100" t="s">
         <v>74</v>
       </c>
@@ -12162,12 +12166,12 @@
       <c r="A124" s="51">
         <v>118</v>
       </c>
-      <c r="B124" s="104"/>
-      <c r="C124" s="120"/>
+      <c r="B124" s="107"/>
+      <c r="C124" s="114"/>
       <c r="D124" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="E124" s="119"/>
+      <c r="E124" s="120"/>
       <c r="F124" s="101"/>
       <c r="G124" s="30"/>
       <c r="H124" s="32"/>
@@ -12176,12 +12180,12 @@
       <c r="A125" s="51">
         <v>119</v>
       </c>
-      <c r="B125" s="104"/>
-      <c r="C125" s="120"/>
+      <c r="B125" s="107"/>
+      <c r="C125" s="114"/>
       <c r="D125" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="E125" s="119"/>
+      <c r="E125" s="120"/>
       <c r="F125" s="101"/>
       <c r="G125" s="30"/>
       <c r="H125" s="32"/>
@@ -12190,12 +12194,12 @@
       <c r="A126" s="51">
         <v>120</v>
       </c>
-      <c r="B126" s="105"/>
-      <c r="C126" s="120"/>
+      <c r="B126" s="106"/>
+      <c r="C126" s="114"/>
       <c r="D126" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="E126" s="119"/>
+      <c r="E126" s="120"/>
       <c r="F126" s="102"/>
       <c r="G126" s="30"/>
       <c r="H126" s="32"/>
@@ -12223,10 +12227,10 @@
     <row r="128" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A128" s="25"/>
       <c r="B128" s="25"/>
-      <c r="C128" s="121" t="s">
+      <c r="C128" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="D128" s="121"/>
+      <c r="D128" s="119"/>
       <c r="E128" s="25"/>
       <c r="F128" s="62"/>
       <c r="G128" s="30"/>
@@ -12236,16 +12240,16 @@
       <c r="A129" s="31">
         <v>122</v>
       </c>
-      <c r="B129" s="103" t="s">
-        <v>264</v>
-      </c>
-      <c r="C129" s="103" t="s">
-        <v>265</v>
+      <c r="B129" s="105" t="s">
+        <v>258</v>
+      </c>
+      <c r="C129" s="105" t="s">
+        <v>259</v>
       </c>
       <c r="D129" s="94" t="s">
-        <v>279</v>
-      </c>
-      <c r="E129" s="119"/>
+        <v>273</v>
+      </c>
+      <c r="E129" s="120"/>
       <c r="F129" s="100" t="s">
         <v>74</v>
       </c>
@@ -12256,12 +12260,12 @@
       <c r="A130" s="40">
         <v>123</v>
       </c>
-      <c r="B130" s="104"/>
-      <c r="C130" s="104"/>
+      <c r="B130" s="107"/>
+      <c r="C130" s="107"/>
       <c r="D130" s="93" t="s">
-        <v>266</v>
-      </c>
-      <c r="E130" s="119"/>
+        <v>260</v>
+      </c>
+      <c r="E130" s="120"/>
       <c r="F130" s="101"/>
       <c r="G130" s="30"/>
       <c r="H130" s="32"/>
@@ -12270,12 +12274,12 @@
       <c r="A131" s="88">
         <v>124</v>
       </c>
-      <c r="B131" s="105"/>
-      <c r="C131" s="105"/>
+      <c r="B131" s="106"/>
+      <c r="C131" s="106"/>
       <c r="D131" s="93" t="s">
-        <v>267</v>
-      </c>
-      <c r="E131" s="119"/>
+        <v>261</v>
+      </c>
+      <c r="E131" s="120"/>
       <c r="F131" s="102"/>
       <c r="G131" s="30"/>
       <c r="H131" s="32"/>
@@ -12284,18 +12288,18 @@
       <c r="A132" s="88">
         <v>125</v>
       </c>
-      <c r="B132" s="103" t="s">
-        <v>268</v>
-      </c>
-      <c r="C132" s="103" t="s">
-        <v>270</v>
+      <c r="B132" s="105" t="s">
+        <v>262</v>
+      </c>
+      <c r="C132" s="105" t="s">
+        <v>264</v>
       </c>
       <c r="D132" s="25" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E132" s="100"/>
       <c r="F132" s="100" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="G132" s="81"/>
       <c r="H132" s="52"/>
@@ -12304,10 +12308,10 @@
       <c r="A133" s="88">
         <v>126</v>
       </c>
-      <c r="B133" s="104"/>
-      <c r="C133" s="104"/>
+      <c r="B133" s="107"/>
+      <c r="C133" s="107"/>
       <c r="D133" s="25" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="E133" s="101"/>
       <c r="F133" s="101"/>
@@ -12318,10 +12322,10 @@
       <c r="A134" s="88">
         <v>127</v>
       </c>
-      <c r="B134" s="105"/>
-      <c r="C134" s="105"/>
+      <c r="B134" s="106"/>
+      <c r="C134" s="106"/>
       <c r="D134" s="25" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E134" s="102"/>
       <c r="F134" s="102"/>
@@ -12332,16 +12336,16 @@
       <c r="A135" s="88">
         <v>128</v>
       </c>
-      <c r="B135" s="103" t="s">
-        <v>280</v>
-      </c>
-      <c r="C135" s="120" t="s">
-        <v>273</v>
+      <c r="B135" s="105" t="s">
+        <v>274</v>
+      </c>
+      <c r="C135" s="114" t="s">
+        <v>267</v>
       </c>
       <c r="D135" s="66" t="s">
-        <v>274</v>
-      </c>
-      <c r="E135" s="119"/>
+        <v>268</v>
+      </c>
+      <c r="E135" s="120"/>
       <c r="F135" s="100" t="s">
         <v>71</v>
       </c>
@@ -12352,12 +12356,12 @@
       <c r="A136" s="88">
         <v>129</v>
       </c>
-      <c r="B136" s="104"/>
-      <c r="C136" s="124"/>
+      <c r="B136" s="107"/>
+      <c r="C136" s="121"/>
       <c r="D136" s="66" t="s">
-        <v>275</v>
-      </c>
-      <c r="E136" s="118"/>
+        <v>269</v>
+      </c>
+      <c r="E136" s="125"/>
       <c r="F136" s="101"/>
       <c r="G136" s="30"/>
       <c r="H136" s="32"/>
@@ -12366,12 +12370,12 @@
       <c r="A137" s="88">
         <v>130</v>
       </c>
-      <c r="B137" s="104"/>
-      <c r="C137" s="124"/>
+      <c r="B137" s="107"/>
+      <c r="C137" s="121"/>
       <c r="D137" s="25" t="s">
-        <v>278</v>
-      </c>
-      <c r="E137" s="118"/>
+        <v>272</v>
+      </c>
+      <c r="E137" s="125"/>
       <c r="F137" s="101"/>
       <c r="G137" s="39"/>
       <c r="H137" s="52"/>
@@ -12380,12 +12384,12 @@
       <c r="A138" s="88">
         <v>131</v>
       </c>
-      <c r="B138" s="104"/>
-      <c r="C138" s="120"/>
+      <c r="B138" s="107"/>
+      <c r="C138" s="114"/>
       <c r="D138" s="65" t="s">
-        <v>276</v>
-      </c>
-      <c r="E138" s="119"/>
+        <v>270</v>
+      </c>
+      <c r="E138" s="120"/>
       <c r="F138" s="101"/>
       <c r="G138" s="30"/>
       <c r="H138" s="32"/>
@@ -12394,12 +12398,12 @@
       <c r="A139" s="88">
         <v>132</v>
       </c>
-      <c r="B139" s="105"/>
-      <c r="C139" s="120"/>
+      <c r="B139" s="106"/>
+      <c r="C139" s="114"/>
       <c r="D139" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="E139" s="119"/>
+        <v>271</v>
+      </c>
+      <c r="E139" s="120"/>
       <c r="F139" s="102"/>
       <c r="G139" s="30"/>
       <c r="H139" s="32"/>
@@ -12408,18 +12412,18 @@
       <c r="A140" s="88">
         <v>133</v>
       </c>
-      <c r="B140" s="103" t="s">
-        <v>285</v>
-      </c>
-      <c r="C140" s="103" t="s">
-        <v>281</v>
+      <c r="B140" s="105" t="s">
+        <v>279</v>
+      </c>
+      <c r="C140" s="105" t="s">
+        <v>275</v>
       </c>
       <c r="D140" s="95" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E140" s="100"/>
       <c r="F140" s="100" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G140" s="81"/>
       <c r="H140" s="52"/>
@@ -12428,10 +12432,10 @@
       <c r="A141" s="88">
         <v>134</v>
       </c>
-      <c r="B141" s="104"/>
-      <c r="C141" s="104"/>
+      <c r="B141" s="107"/>
+      <c r="C141" s="107"/>
       <c r="D141" s="95" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="E141" s="101"/>
       <c r="F141" s="101"/>
@@ -12442,10 +12446,10 @@
       <c r="A142" s="88">
         <v>135</v>
       </c>
-      <c r="B142" s="105"/>
-      <c r="C142" s="105"/>
+      <c r="B142" s="106"/>
+      <c r="C142" s="106"/>
       <c r="D142" s="95" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E142" s="102"/>
       <c r="F142" s="102"/>
@@ -12456,18 +12460,18 @@
       <c r="A143" s="88">
         <v>136</v>
       </c>
-      <c r="B143" s="103" t="s">
-        <v>287</v>
-      </c>
-      <c r="C143" s="103" t="s">
-        <v>286</v>
+      <c r="B143" s="105" t="s">
+        <v>281</v>
+      </c>
+      <c r="C143" s="105" t="s">
+        <v>280</v>
       </c>
       <c r="D143" s="95" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E143" s="100"/>
       <c r="F143" s="100" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="G143" s="81"/>
       <c r="H143" s="52"/>
@@ -12476,10 +12480,10 @@
       <c r="A144" s="88">
         <v>137</v>
       </c>
-      <c r="B144" s="105"/>
-      <c r="C144" s="105"/>
+      <c r="B144" s="106"/>
+      <c r="C144" s="106"/>
       <c r="D144" s="95" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="E144" s="102"/>
       <c r="F144" s="102"/>
@@ -12489,10 +12493,10 @@
     <row r="145" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A145" s="25"/>
       <c r="B145" s="25"/>
-      <c r="C145" s="106" t="s">
+      <c r="C145" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="D145" s="107"/>
+      <c r="D145" s="109"/>
       <c r="E145" s="25"/>
       <c r="F145" s="62"/>
       <c r="G145" s="30"/>
@@ -12502,14 +12506,14 @@
       <c r="A146" s="100">
         <v>138</v>
       </c>
-      <c r="B146" s="103" t="s">
-        <v>235</v>
-      </c>
-      <c r="C146" s="103" t="s">
-        <v>233</v>
+      <c r="B146" s="105" t="s">
+        <v>229</v>
+      </c>
+      <c r="C146" s="105" t="s">
+        <v>227</v>
       </c>
       <c r="D146" s="25" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E146" s="25"/>
       <c r="F146" s="62" t="s">
@@ -12520,14 +12524,14 @@
     </row>
     <row r="147" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A147" s="102"/>
-      <c r="B147" s="105"/>
-      <c r="C147" s="105"/>
+      <c r="B147" s="106"/>
+      <c r="C147" s="106"/>
       <c r="D147" s="25" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E147" s="25"/>
       <c r="F147" s="80" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="G147" s="81"/>
       <c r="H147" s="52"/>
@@ -12537,17 +12541,17 @@
         <v>139</v>
       </c>
       <c r="B148" s="79" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C148" s="79" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D148" s="25" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E148" s="25"/>
       <c r="F148" s="80" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="G148" s="81"/>
       <c r="H148" s="52"/>
@@ -12557,13 +12561,13 @@
         <v>140</v>
       </c>
       <c r="B149" s="30" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C149" s="30" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D149" s="25" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="E149" s="25"/>
       <c r="F149" s="62" t="s">
@@ -12580,10 +12584,10 @@
         <v>51</v>
       </c>
       <c r="C150" s="81" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D150" s="25" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E150" s="80"/>
       <c r="F150" s="76" t="s">
@@ -12596,16 +12600,16 @@
       <c r="A151" s="31">
         <v>142</v>
       </c>
-      <c r="B151" s="103" t="s">
+      <c r="B151" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="C151" s="120" t="s">
-        <v>231</v>
+      <c r="C151" s="114" t="s">
+        <v>225</v>
       </c>
       <c r="D151" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="E151" s="119"/>
+        <v>226</v>
+      </c>
+      <c r="E151" s="120"/>
       <c r="F151" s="100" t="s">
         <v>71</v>
       </c>
@@ -12616,12 +12620,12 @@
       <c r="A152" s="31">
         <v>143</v>
       </c>
-      <c r="B152" s="105"/>
-      <c r="C152" s="120"/>
+      <c r="B152" s="106"/>
+      <c r="C152" s="114"/>
       <c r="D152" s="66" t="s">
-        <v>254</v>
-      </c>
-      <c r="E152" s="119"/>
+        <v>248</v>
+      </c>
+      <c r="E152" s="120"/>
       <c r="F152" s="102"/>
       <c r="G152" s="30"/>
       <c r="H152" s="32"/>
@@ -12630,16 +12634,16 @@
       <c r="A153" s="100">
         <v>144</v>
       </c>
-      <c r="B153" s="103" t="s">
-        <v>290</v>
-      </c>
-      <c r="C153" s="124" t="s">
-        <v>240</v>
+      <c r="B153" s="105" t="s">
+        <v>284</v>
+      </c>
+      <c r="C153" s="121" t="s">
+        <v>234</v>
       </c>
       <c r="D153" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="E153" s="118"/>
+      <c r="E153" s="125"/>
       <c r="F153" s="100" t="s">
         <v>71</v>
       </c>
@@ -12648,84 +12652,84 @@
     </row>
     <row r="154" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A154" s="101"/>
-      <c r="B154" s="104"/>
-      <c r="C154" s="124"/>
+      <c r="B154" s="107"/>
+      <c r="C154" s="121"/>
       <c r="D154" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="E154" s="118"/>
+      <c r="E154" s="125"/>
       <c r="F154" s="101"/>
       <c r="G154" s="39"/>
       <c r="H154" s="52"/>
     </row>
     <row r="155" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A155" s="101"/>
-      <c r="B155" s="104"/>
-      <c r="C155" s="120"/>
+      <c r="B155" s="107"/>
+      <c r="C155" s="114"/>
       <c r="D155" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="E155" s="119"/>
+      <c r="E155" s="120"/>
       <c r="F155" s="101"/>
       <c r="G155" s="30"/>
       <c r="H155" s="32"/>
     </row>
     <row r="156" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A156" s="101"/>
-      <c r="B156" s="104"/>
-      <c r="C156" s="120"/>
+      <c r="B156" s="107"/>
+      <c r="C156" s="114"/>
       <c r="D156" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="E156" s="119"/>
+      <c r="E156" s="120"/>
       <c r="F156" s="101"/>
       <c r="G156" s="30"/>
       <c r="H156" s="32"/>
     </row>
     <row r="157" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A157" s="101"/>
-      <c r="B157" s="104"/>
-      <c r="C157" s="120"/>
+      <c r="B157" s="107"/>
+      <c r="C157" s="114"/>
       <c r="D157" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="E157" s="119"/>
+      <c r="E157" s="120"/>
       <c r="F157" s="101"/>
       <c r="G157" s="30"/>
       <c r="H157" s="32"/>
     </row>
     <row r="158" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A158" s="101"/>
-      <c r="B158" s="104"/>
-      <c r="C158" s="120"/>
+      <c r="B158" s="107"/>
+      <c r="C158" s="114"/>
       <c r="D158" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="E158" s="119"/>
+      <c r="E158" s="120"/>
       <c r="F158" s="101"/>
       <c r="G158" s="30"/>
       <c r="H158" s="32"/>
     </row>
     <row r="159" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A159" s="101"/>
-      <c r="B159" s="104"/>
-      <c r="C159" s="120"/>
+      <c r="B159" s="107"/>
+      <c r="C159" s="114"/>
       <c r="D159" s="25" t="s">
-        <v>312</v>
-      </c>
-      <c r="E159" s="119"/>
+        <v>306</v>
+      </c>
+      <c r="E159" s="120"/>
       <c r="F159" s="101"/>
       <c r="G159" s="30"/>
       <c r="H159" s="32"/>
     </row>
     <row r="160" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A160" s="102"/>
-      <c r="B160" s="105"/>
-      <c r="C160" s="120"/>
+      <c r="B160" s="106"/>
+      <c r="C160" s="114"/>
       <c r="D160" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="E160" s="119"/>
+      <c r="E160" s="120"/>
       <c r="F160" s="102"/>
       <c r="G160" s="30"/>
       <c r="H160" s="32"/>
@@ -12734,16 +12738,16 @@
       <c r="A161" s="100">
         <v>145</v>
       </c>
-      <c r="B161" s="103" t="s">
-        <v>291</v>
-      </c>
-      <c r="C161" s="120" t="s">
-        <v>292</v>
+      <c r="B161" s="105" t="s">
+        <v>285</v>
+      </c>
+      <c r="C161" s="114" t="s">
+        <v>286</v>
       </c>
       <c r="D161" s="25" t="s">
-        <v>293</v>
-      </c>
-      <c r="E161" s="119"/>
+        <v>287</v>
+      </c>
+      <c r="E161" s="120"/>
       <c r="F161" s="100" t="s">
         <v>73</v>
       </c>
@@ -12752,12 +12756,12 @@
     </row>
     <row r="162" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A162" s="102"/>
-      <c r="B162" s="105"/>
-      <c r="C162" s="120"/>
+      <c r="B162" s="106"/>
+      <c r="C162" s="114"/>
       <c r="D162" s="96" t="s">
-        <v>297</v>
-      </c>
-      <c r="E162" s="119"/>
+        <v>291</v>
+      </c>
+      <c r="E162" s="120"/>
       <c r="F162" s="102"/>
       <c r="G162" s="30"/>
       <c r="H162" s="32"/>
@@ -12765,10 +12769,10 @@
     <row r="163" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A163" s="22"/>
       <c r="B163" s="30"/>
-      <c r="C163" s="106" t="s">
+      <c r="C163" s="108" t="s">
         <v>33</v>
       </c>
-      <c r="D163" s="107"/>
+      <c r="D163" s="109"/>
       <c r="E163" s="22"/>
       <c r="F163" s="62"/>
       <c r="G163" s="30"/>
@@ -12779,13 +12783,13 @@
         <v>146</v>
       </c>
       <c r="B164" s="30" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C164" s="30" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D164" s="24" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E164" s="25"/>
       <c r="F164" s="62" t="s">
@@ -12799,13 +12803,13 @@
         <v>147</v>
       </c>
       <c r="B165" s="30" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C165" s="30" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D165" s="25" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="E165" s="25"/>
       <c r="F165" s="62" t="s">
@@ -12819,13 +12823,13 @@
         <v>148</v>
       </c>
       <c r="B166" s="30" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C166" s="30" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D166" s="25" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E166" s="25"/>
       <c r="F166" s="62" t="s">
@@ -12838,16 +12842,16 @@
       <c r="A167" s="74">
         <v>149</v>
       </c>
-      <c r="B167" s="103" t="s">
-        <v>309</v>
-      </c>
-      <c r="C167" s="120" t="s">
-        <v>307</v>
+      <c r="B167" s="105" t="s">
+        <v>303</v>
+      </c>
+      <c r="C167" s="114" t="s">
+        <v>301</v>
       </c>
       <c r="D167" s="25" t="s">
-        <v>310</v>
-      </c>
-      <c r="E167" s="119"/>
+        <v>304</v>
+      </c>
+      <c r="E167" s="120"/>
       <c r="F167" s="100" t="s">
         <v>76</v>
       </c>
@@ -12858,12 +12862,12 @@
       <c r="A168" s="74">
         <v>150</v>
       </c>
-      <c r="B168" s="104"/>
-      <c r="C168" s="120"/>
+      <c r="B168" s="107"/>
+      <c r="C168" s="114"/>
       <c r="D168" s="25" t="s">
-        <v>311</v>
-      </c>
-      <c r="E168" s="119"/>
+        <v>305</v>
+      </c>
+      <c r="E168" s="120"/>
       <c r="F168" s="101"/>
       <c r="G168" s="30"/>
       <c r="H168" s="32"/>
@@ -12872,12 +12876,12 @@
       <c r="A169" s="88">
         <v>151</v>
       </c>
-      <c r="B169" s="104"/>
-      <c r="C169" s="120"/>
+      <c r="B169" s="107"/>
+      <c r="C169" s="114"/>
       <c r="D169" s="25" t="s">
-        <v>313</v>
-      </c>
-      <c r="E169" s="119"/>
+        <v>307</v>
+      </c>
+      <c r="E169" s="120"/>
       <c r="F169" s="101"/>
       <c r="G169" s="30"/>
       <c r="H169" s="32"/>
@@ -12886,12 +12890,12 @@
       <c r="A170" s="88">
         <v>152</v>
       </c>
-      <c r="B170" s="105"/>
-      <c r="C170" s="120"/>
+      <c r="B170" s="106"/>
+      <c r="C170" s="114"/>
       <c r="D170" s="25" t="s">
-        <v>329</v>
-      </c>
-      <c r="E170" s="119"/>
+        <v>323</v>
+      </c>
+      <c r="E170" s="120"/>
       <c r="F170" s="102"/>
       <c r="G170" s="30"/>
       <c r="H170" s="32"/>
@@ -12899,10 +12903,10 @@
     <row r="171" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A171" s="80"/>
       <c r="B171" s="81"/>
-      <c r="C171" s="106" t="s">
-        <v>308</v>
-      </c>
-      <c r="D171" s="107"/>
+      <c r="C171" s="108" t="s">
+        <v>302</v>
+      </c>
+      <c r="D171" s="109"/>
       <c r="E171" s="80"/>
       <c r="F171" s="80"/>
       <c r="G171" s="81"/>
@@ -12912,18 +12916,18 @@
       <c r="A172" s="80">
         <v>153</v>
       </c>
-      <c r="B172" s="103" t="s">
-        <v>250</v>
-      </c>
-      <c r="C172" s="103" t="s">
-        <v>251</v>
+      <c r="B172" s="105" t="s">
+        <v>244</v>
+      </c>
+      <c r="C172" s="105" t="s">
+        <v>245</v>
       </c>
       <c r="D172" s="25" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E172" s="100"/>
       <c r="F172" s="100" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="G172" s="81"/>
       <c r="H172" s="52"/>
@@ -12932,8 +12936,8 @@
       <c r="A173" s="51">
         <v>154</v>
       </c>
-      <c r="B173" s="104"/>
-      <c r="C173" s="104"/>
+      <c r="B173" s="107"/>
+      <c r="C173" s="107"/>
       <c r="D173" s="25" t="s">
         <v>18</v>
       </c>
@@ -12946,8 +12950,8 @@
       <c r="A174" s="51">
         <v>155</v>
       </c>
-      <c r="B174" s="105"/>
-      <c r="C174" s="105"/>
+      <c r="B174" s="106"/>
+      <c r="C174" s="106"/>
       <c r="D174" s="25" t="s">
         <v>39</v>
       </c>
@@ -12959,10 +12963,10 @@
     <row r="175" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A175" s="80"/>
       <c r="B175" s="81"/>
-      <c r="C175" s="106" t="s">
-        <v>255</v>
-      </c>
-      <c r="D175" s="107"/>
+      <c r="C175" s="108" t="s">
+        <v>249</v>
+      </c>
+      <c r="D175" s="109"/>
       <c r="E175" s="80"/>
       <c r="F175" s="80"/>
       <c r="G175" s="81"/>
@@ -12973,17 +12977,17 @@
         <v>156</v>
       </c>
       <c r="B176" s="81" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C176" s="81" t="s">
+        <v>251</v>
+      </c>
+      <c r="D176" s="25" t="s">
         <v>257</v>
-      </c>
-      <c r="D176" s="25" t="s">
-        <v>263</v>
       </c>
       <c r="E176" s="100"/>
       <c r="F176" s="80" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="G176" s="81"/>
       <c r="H176" s="52"/>
@@ -12992,18 +12996,18 @@
       <c r="A177" s="90">
         <v>157</v>
       </c>
-      <c r="B177" s="110" t="s">
-        <v>259</v>
-      </c>
-      <c r="C177" s="108" t="s">
-        <v>258</v>
+      <c r="B177" s="112" t="s">
+        <v>253</v>
+      </c>
+      <c r="C177" s="110" t="s">
+        <v>252</v>
       </c>
       <c r="D177" s="92" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E177" s="101"/>
       <c r="F177" s="90" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="G177" s="91"/>
       <c r="H177" s="91"/>
@@ -13012,14 +13016,14 @@
       <c r="A178" s="80">
         <v>158</v>
       </c>
-      <c r="B178" s="111"/>
-      <c r="C178" s="109"/>
+      <c r="B178" s="113"/>
+      <c r="C178" s="111"/>
       <c r="D178" s="92" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="E178" s="102"/>
       <c r="F178" s="90" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G178" s="91"/>
       <c r="H178" s="91"/>
@@ -13210,6 +13214,7 @@
     <mergeCell ref="C85:C88"/>
     <mergeCell ref="E85:E88"/>
     <mergeCell ref="F85:F88"/>
+    <mergeCell ref="C73:C84"/>
     <mergeCell ref="B45:B49"/>
     <mergeCell ref="C45:C49"/>
     <mergeCell ref="E45:E49"/>
@@ -13258,24 +13263,6 @@
     <mergeCell ref="C16:C21"/>
     <mergeCell ref="E16:E21"/>
     <mergeCell ref="F16:F21"/>
-    <mergeCell ref="C73:C84"/>
-    <mergeCell ref="F161:F162"/>
-    <mergeCell ref="F167:F170"/>
-    <mergeCell ref="F129:F131"/>
-    <mergeCell ref="F135:F139"/>
-    <mergeCell ref="F151:F152"/>
-    <mergeCell ref="F153:F160"/>
-    <mergeCell ref="F115:F116"/>
-    <mergeCell ref="F117:F118"/>
-    <mergeCell ref="F119:F121"/>
-    <mergeCell ref="F123:F126"/>
-    <mergeCell ref="E161:E162"/>
-    <mergeCell ref="E167:E170"/>
-    <mergeCell ref="C161:C162"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="C135:C139"/>
-    <mergeCell ref="C100:C107"/>
-    <mergeCell ref="E100:E107"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="E115:E116"/>
     <mergeCell ref="C2:F2"/>
@@ -13285,74 +13272,91 @@
     <mergeCell ref="B89:B96"/>
     <mergeCell ref="B97:B99"/>
     <mergeCell ref="C151:C152"/>
-    <mergeCell ref="C153:C160"/>
     <mergeCell ref="E119:E121"/>
     <mergeCell ref="E123:E126"/>
     <mergeCell ref="E129:E131"/>
     <mergeCell ref="E135:E139"/>
     <mergeCell ref="E151:E152"/>
-    <mergeCell ref="E153:E160"/>
     <mergeCell ref="B100:B107"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="B119:B121"/>
-    <mergeCell ref="B108:B112"/>
-    <mergeCell ref="C119:C121"/>
-    <mergeCell ref="C123:C126"/>
-    <mergeCell ref="C129:C131"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="C163:D163"/>
-    <mergeCell ref="C145:D145"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="B153:B160"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="C132:C134"/>
-    <mergeCell ref="B132:B134"/>
-    <mergeCell ref="C140:C142"/>
-    <mergeCell ref="B140:B142"/>
-    <mergeCell ref="C143:C144"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="C97:C99"/>
-    <mergeCell ref="C89:C96"/>
-    <mergeCell ref="C108:C112"/>
-    <mergeCell ref="E73:E84"/>
+    <mergeCell ref="F129:F131"/>
+    <mergeCell ref="F135:F139"/>
+    <mergeCell ref="F151:F152"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="F117:F118"/>
+    <mergeCell ref="F119:F121"/>
+    <mergeCell ref="F123:F126"/>
+    <mergeCell ref="F140:F142"/>
+    <mergeCell ref="F143:F144"/>
     <mergeCell ref="F73:F84"/>
     <mergeCell ref="E89:E96"/>
     <mergeCell ref="F89:F96"/>
     <mergeCell ref="E97:E99"/>
     <mergeCell ref="F97:F99"/>
+    <mergeCell ref="C129:C131"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="C163:D163"/>
+    <mergeCell ref="C145:D145"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="C132:C134"/>
+    <mergeCell ref="C140:C142"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="C119:C121"/>
+    <mergeCell ref="C123:C126"/>
+    <mergeCell ref="E161:E162"/>
+    <mergeCell ref="C161:C162"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="C135:C139"/>
+    <mergeCell ref="C100:C107"/>
+    <mergeCell ref="C175:D175"/>
+    <mergeCell ref="C177:C178"/>
+    <mergeCell ref="B177:B178"/>
+    <mergeCell ref="C167:C170"/>
+    <mergeCell ref="E176:E178"/>
+    <mergeCell ref="C97:C99"/>
+    <mergeCell ref="C89:C96"/>
+    <mergeCell ref="C108:C112"/>
+    <mergeCell ref="E73:E84"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="B153:B160"/>
+    <mergeCell ref="B132:B134"/>
+    <mergeCell ref="B140:B142"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="B119:B121"/>
+    <mergeCell ref="B108:B112"/>
+    <mergeCell ref="E167:E170"/>
+    <mergeCell ref="E100:E107"/>
+    <mergeCell ref="C153:C160"/>
+    <mergeCell ref="E153:E160"/>
+    <mergeCell ref="B167:B170"/>
+    <mergeCell ref="B123:B126"/>
+    <mergeCell ref="B129:B131"/>
+    <mergeCell ref="B135:B139"/>
     <mergeCell ref="B172:B174"/>
     <mergeCell ref="C172:C174"/>
     <mergeCell ref="E172:E174"/>
     <mergeCell ref="F172:F174"/>
     <mergeCell ref="A153:A160"/>
     <mergeCell ref="C171:D171"/>
-    <mergeCell ref="C175:D175"/>
-    <mergeCell ref="C177:C178"/>
-    <mergeCell ref="B177:B178"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="A161:A162"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="B146:B147"/>
-    <mergeCell ref="B161:B162"/>
-    <mergeCell ref="B167:B170"/>
-    <mergeCell ref="B123:B126"/>
-    <mergeCell ref="B129:B131"/>
-    <mergeCell ref="B135:B139"/>
-    <mergeCell ref="C167:C170"/>
-    <mergeCell ref="E176:E178"/>
-    <mergeCell ref="F140:F142"/>
-    <mergeCell ref="F143:F144"/>
+    <mergeCell ref="F161:F162"/>
+    <mergeCell ref="F167:F170"/>
+    <mergeCell ref="F153:F160"/>
     <mergeCell ref="F132:F134"/>
     <mergeCell ref="E132:E134"/>
     <mergeCell ref="E140:E142"/>
     <mergeCell ref="E143:E144"/>
     <mergeCell ref="E108:E112"/>
     <mergeCell ref="F108:F112"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="A161:A162"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="B146:B147"/>
+    <mergeCell ref="B161:B162"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/문서 관리/01. 요구사항명세서.xlsx
+++ b/문서 관리/01. 요구사항명세서.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="329">
   <si>
     <t>계약 상대자는 제반 프로그램이 고품질을 유지할 수 있도록 최선의 노력을 다하여야 함</t>
   </si>
@@ -754,14 +754,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>내담자가 14세 미만인 경우 보호자 상담동의서 선택 기능</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>상담 희망일시 등록 시 수업시간일 경우 '수업시간 내 상담 희망' 체크 기능</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>퀵 메뉴 및 바로가기 아이콘 제공</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1576,10 +1568,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>게시판상담은 사용자로부터 단순질의를 받으므로 상담예약신청을 위해 '상담 신청 1'로 연계</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>금칙어 포함시, 관리자에게 게시글 삭제와 메시지 표시 기능 권한 부여</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1592,7 +1580,11 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>학교급, 학교소재지, 상담주제, 상담내용 등록·수정·취소 기능 구현</t>
+    <t>게시판상담은 사용자로부터 단순질의를 받고 답변 글 업로드 시 답변 완료 상태로 전환</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자 이름, 비밀번호, 상담 주제, 상담 내용 등록·수정·취소 기능 구현</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -3905,13 +3897,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3976,13 +3968,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4047,13 +4039,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4118,13 +4110,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4189,13 +4181,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4260,13 +4252,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4331,13 +4323,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4402,13 +4394,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4473,13 +4465,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4544,13 +4536,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4615,13 +4607,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4686,13 +4678,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4757,13 +4749,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4828,13 +4820,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4899,13 +4891,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4970,13 +4962,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5041,13 +5033,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5112,13 +5104,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5183,13 +5175,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5254,13 +5246,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5325,13 +5317,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5396,13 +5388,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5467,13 +5459,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5538,13 +5530,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5609,13 +5601,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5680,13 +5672,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5751,13 +5743,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5822,13 +5814,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5893,13 +5885,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5964,13 +5956,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6035,13 +6027,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6106,13 +6098,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6177,13 +6169,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6248,13 +6240,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6319,13 +6311,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6390,13 +6382,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6461,13 +6453,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6532,13 +6524,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6603,13 +6595,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6674,13 +6666,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6745,13 +6737,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6816,13 +6808,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6887,13 +6879,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6958,13 +6950,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7029,13 +7021,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7100,13 +7092,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7171,13 +7163,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7242,13 +7234,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7313,13 +7305,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7384,13 +7376,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7455,13 +7447,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7526,13 +7518,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7597,13 +7589,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7668,13 +7660,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7739,13 +7731,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7810,13 +7802,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7881,13 +7873,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7952,13 +7944,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8023,13 +8015,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8094,13 +8086,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8165,13 +8157,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8236,13 +8228,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8307,13 +8299,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8378,13 +8370,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8449,7 +8441,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -8515,7 +8507,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -8581,7 +8573,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -8647,7 +8639,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -8713,7 +8705,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -8779,7 +8771,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -8845,7 +8837,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -8911,7 +8903,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -8977,7 +8969,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -9043,7 +9035,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -9109,7 +9101,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -9175,7 +9167,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -9241,7 +9233,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -9307,7 +9299,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -9373,7 +9365,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -9439,7 +9431,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -9851,7 +9843,7 @@
         <v>29</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -10216,10 +10208,10 @@
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H205"/>
+  <dimension ref="A1:H203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21" customHeight="1"/>
@@ -10252,7 +10244,7 @@
       </c>
       <c r="B2" s="124"/>
       <c r="C2" s="123" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D2" s="123"/>
       <c r="E2" s="123"/>
@@ -10261,7 +10253,7 @@
         <v>5</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1" thickTop="1">
@@ -10295,16 +10287,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="105" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C4" s="105" t="s">
         <v>88</v>
       </c>
       <c r="D4" s="94" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E4" s="100" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F4" s="100" t="s">
         <v>70</v>
@@ -10319,7 +10311,7 @@
       <c r="B5" s="107"/>
       <c r="C5" s="107"/>
       <c r="D5" s="25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E5" s="101"/>
       <c r="F5" s="101"/>
@@ -10333,7 +10325,7 @@
       <c r="B6" s="107"/>
       <c r="C6" s="107"/>
       <c r="D6" s="25" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E6" s="101"/>
       <c r="F6" s="101"/>
@@ -10347,7 +10339,7 @@
       <c r="B7" s="107"/>
       <c r="C7" s="107"/>
       <c r="D7" s="83" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E7" s="101"/>
       <c r="F7" s="101"/>
@@ -10361,7 +10353,7 @@
       <c r="B8" s="106"/>
       <c r="C8" s="106"/>
       <c r="D8" s="83" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E8" s="102"/>
       <c r="F8" s="102"/>
@@ -10373,13 +10365,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="105" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C9" s="126" t="s">
         <v>95</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E9" s="100" t="s">
         <v>95</v>
@@ -10397,7 +10389,7 @@
       <c r="B10" s="107"/>
       <c r="C10" s="127"/>
       <c r="D10" s="24" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E10" s="101"/>
       <c r="F10" s="101"/>
@@ -10411,7 +10403,7 @@
       <c r="B11" s="106"/>
       <c r="C11" s="127"/>
       <c r="D11" s="82" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E11" s="102"/>
       <c r="F11" s="102"/>
@@ -10423,13 +10415,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="105" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C12" s="105" t="s">
         <v>98</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E12" s="100" t="s">
         <v>98</v>
@@ -10447,7 +10439,7 @@
       <c r="B13" s="107"/>
       <c r="C13" s="107"/>
       <c r="D13" s="24" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E13" s="101"/>
       <c r="F13" s="101"/>
@@ -10461,7 +10453,7 @@
       <c r="B14" s="107"/>
       <c r="C14" s="107"/>
       <c r="D14" s="24" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E14" s="101"/>
       <c r="F14" s="101"/>
@@ -10475,7 +10467,7 @@
       <c r="B15" s="106"/>
       <c r="C15" s="106"/>
       <c r="D15" s="24" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E15" s="102"/>
       <c r="F15" s="102"/>
@@ -10487,7 +10479,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="105" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C16" s="105" t="s">
         <v>93</v>
@@ -10496,7 +10488,7 @@
         <v>118</v>
       </c>
       <c r="E16" s="100" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F16" s="100" t="s">
         <v>70</v>
@@ -10525,7 +10517,7 @@
       <c r="B18" s="107"/>
       <c r="C18" s="107"/>
       <c r="D18" s="83" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E18" s="101"/>
       <c r="F18" s="101"/>
@@ -10539,7 +10531,7 @@
       <c r="B19" s="107"/>
       <c r="C19" s="107"/>
       <c r="D19" s="83" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E19" s="101"/>
       <c r="F19" s="101"/>
@@ -10553,7 +10545,7 @@
       <c r="B20" s="107"/>
       <c r="C20" s="107"/>
       <c r="D20" s="83" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E20" s="101"/>
       <c r="F20" s="101"/>
@@ -10567,7 +10559,7 @@
       <c r="B21" s="106"/>
       <c r="C21" s="107"/>
       <c r="D21" s="83" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E21" s="102"/>
       <c r="F21" s="102"/>
@@ -10579,7 +10571,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="105" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C22" s="105" t="s">
         <v>94</v>
@@ -10588,7 +10580,7 @@
         <v>120</v>
       </c>
       <c r="E22" s="100" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F22" s="100" t="s">
         <v>70</v>
@@ -10603,7 +10595,7 @@
       <c r="B23" s="106"/>
       <c r="C23" s="106"/>
       <c r="D23" s="24" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E23" s="102"/>
       <c r="F23" s="102"/>
@@ -10615,16 +10607,16 @@
         <v>21</v>
       </c>
       <c r="B24" s="116" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C24" s="105" t="s">
         <v>100</v>
       </c>
       <c r="D24" s="82" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E24" s="100" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F24" s="100" t="s">
         <v>70</v>
@@ -10651,7 +10643,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="86" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C26" s="85" t="s">
         <v>99</v>
@@ -10660,7 +10652,7 @@
         <v>124</v>
       </c>
       <c r="E26" s="88" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F26" s="88" t="s">
         <v>70</v>
@@ -10673,16 +10665,16 @@
         <v>24</v>
       </c>
       <c r="B27" s="105" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C27" s="105" t="s">
         <v>89</v>
       </c>
       <c r="D27" s="83" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E27" s="100" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F27" s="100" t="s">
         <v>70</v>
@@ -10711,7 +10703,7 @@
       <c r="B29" s="107"/>
       <c r="C29" s="107"/>
       <c r="D29" s="82" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E29" s="101"/>
       <c r="F29" s="101"/>
@@ -10725,7 +10717,7 @@
       <c r="B30" s="107"/>
       <c r="C30" s="107"/>
       <c r="D30" s="25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E30" s="101"/>
       <c r="F30" s="101"/>
@@ -10739,7 +10731,7 @@
       <c r="B31" s="107"/>
       <c r="C31" s="107"/>
       <c r="D31" s="82" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E31" s="101"/>
       <c r="F31" s="101"/>
@@ -10753,7 +10745,7 @@
       <c r="B32" s="107"/>
       <c r="C32" s="106"/>
       <c r="D32" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E32" s="101"/>
       <c r="F32" s="101"/>
@@ -10765,7 +10757,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="105" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C33" s="105" t="s">
         <v>90</v>
@@ -10774,10 +10766,10 @@
         <v>135</v>
       </c>
       <c r="E33" s="100" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F33" s="100" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G33" s="89"/>
       <c r="H33" s="52"/>
@@ -10789,7 +10781,7 @@
       <c r="B34" s="107"/>
       <c r="C34" s="107"/>
       <c r="D34" s="42" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E34" s="101"/>
       <c r="F34" s="101"/>
@@ -10803,21 +10795,21 @@
       <c r="B35" s="107"/>
       <c r="C35" s="107"/>
       <c r="D35" s="25" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E35" s="101"/>
       <c r="F35" s="101"/>
       <c r="G35" s="89"/>
       <c r="H35" s="52"/>
     </row>
-    <row r="36" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+    <row r="36" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A36" s="51">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B36" s="107"/>
       <c r="C36" s="107"/>
       <c r="D36" s="24" t="s">
-        <v>136</v>
+        <v>212</v>
       </c>
       <c r="E36" s="101"/>
       <c r="F36" s="101"/>
@@ -10826,76 +10818,76 @@
     </row>
     <row r="37" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A37" s="51">
-        <v>34</v>
-      </c>
-      <c r="B37" s="107"/>
-      <c r="C37" s="107"/>
-      <c r="D37" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="E37" s="101"/>
-      <c r="F37" s="101"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="106"/>
+      <c r="C37" s="106"/>
+      <c r="D37" s="84" t="s">
+        <v>199</v>
+      </c>
+      <c r="E37" s="102"/>
+      <c r="F37" s="102"/>
       <c r="G37" s="89"/>
       <c r="H37" s="52"/>
     </row>
     <row r="38" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A38" s="51">
-        <v>35</v>
-      </c>
-      <c r="B38" s="107"/>
-      <c r="C38" s="107"/>
-      <c r="D38" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="E38" s="101"/>
-      <c r="F38" s="101"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="105" t="s">
+        <v>309</v>
+      </c>
+      <c r="C38" s="105" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="130" t="s">
+        <v>324</v>
+      </c>
+      <c r="E38" s="100" t="s">
+        <v>171</v>
+      </c>
+      <c r="F38" s="100" t="s">
+        <v>160</v>
+      </c>
       <c r="G38" s="89"/>
       <c r="H38" s="52"/>
     </row>
     <row r="39" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A39" s="51">
-        <v>36</v>
-      </c>
-      <c r="B39" s="106"/>
-      <c r="C39" s="106"/>
-      <c r="D39" s="84" t="s">
-        <v>201</v>
-      </c>
-      <c r="E39" s="102"/>
-      <c r="F39" s="102"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="107"/>
+      <c r="C39" s="107"/>
+      <c r="D39" s="130" t="s">
+        <v>328</v>
+      </c>
+      <c r="E39" s="101"/>
+      <c r="F39" s="101"/>
       <c r="G39" s="89"/>
       <c r="H39" s="52"/>
     </row>
     <row r="40" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A40" s="51">
-        <v>37</v>
-      </c>
-      <c r="B40" s="105" t="s">
-        <v>311</v>
-      </c>
-      <c r="C40" s="105" t="s">
-        <v>91</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B40" s="107"/>
+      <c r="C40" s="107"/>
       <c r="D40" s="130" t="s">
         <v>327</v>
       </c>
-      <c r="E40" s="100" t="s">
-        <v>173</v>
-      </c>
-      <c r="F40" s="100" t="s">
-        <v>162</v>
-      </c>
+      <c r="E40" s="101"/>
+      <c r="F40" s="101"/>
       <c r="G40" s="89"/>
       <c r="H40" s="52"/>
     </row>
     <row r="41" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A41" s="51">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B41" s="107"/>
       <c r="C41" s="107"/>
-      <c r="D41" s="130" t="s">
-        <v>330</v>
+      <c r="D41" s="43" t="s">
+        <v>326</v>
       </c>
       <c r="E41" s="101"/>
       <c r="F41" s="101"/>
@@ -10904,76 +10896,76 @@
     </row>
     <row r="42" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A42" s="51">
-        <v>39</v>
-      </c>
-      <c r="B42" s="107"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="106"/>
       <c r="C42" s="107"/>
-      <c r="D42" s="130" t="s">
+      <c r="D42" s="24" t="s">
         <v>325</v>
       </c>
-      <c r="E42" s="101"/>
-      <c r="F42" s="101"/>
+      <c r="E42" s="102"/>
+      <c r="F42" s="102"/>
       <c r="G42" s="89"/>
       <c r="H42" s="52"/>
     </row>
     <row r="43" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A43" s="51">
-        <v>40</v>
-      </c>
-      <c r="B43" s="107"/>
-      <c r="C43" s="107"/>
-      <c r="D43" s="43" t="s">
-        <v>329</v>
-      </c>
-      <c r="E43" s="101"/>
-      <c r="F43" s="101"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="105" t="s">
+        <v>310</v>
+      </c>
+      <c r="C43" s="105" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>323</v>
+      </c>
+      <c r="E43" s="100" t="s">
+        <v>169</v>
+      </c>
+      <c r="F43" s="100" t="s">
+        <v>70</v>
+      </c>
       <c r="G43" s="89"/>
       <c r="H43" s="52"/>
     </row>
     <row r="44" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A44" s="51">
-        <v>41</v>
-      </c>
-      <c r="B44" s="106"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="107"/>
       <c r="C44" s="107"/>
-      <c r="D44" s="24" t="s">
-        <v>328</v>
-      </c>
-      <c r="E44" s="102"/>
-      <c r="F44" s="102"/>
+      <c r="D44" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="E44" s="101"/>
+      <c r="F44" s="101"/>
       <c r="G44" s="89"/>
       <c r="H44" s="52"/>
     </row>
     <row r="45" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A45" s="51">
-        <v>42</v>
-      </c>
-      <c r="B45" s="105" t="s">
-        <v>312</v>
-      </c>
-      <c r="C45" s="105" t="s">
-        <v>92</v>
-      </c>
-      <c r="D45" s="24" t="s">
-        <v>326</v>
-      </c>
-      <c r="E45" s="100" t="s">
-        <v>171</v>
-      </c>
-      <c r="F45" s="100" t="s">
-        <v>70</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B45" s="107"/>
+      <c r="C45" s="107"/>
+      <c r="D45" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="E45" s="101"/>
+      <c r="F45" s="101"/>
       <c r="G45" s="89"/>
       <c r="H45" s="52"/>
     </row>
     <row r="46" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A46" s="51">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B46" s="107"/>
       <c r="C46" s="107"/>
-      <c r="D46" s="23" t="s">
-        <v>133</v>
+      <c r="D46" s="24" t="s">
+        <v>134</v>
       </c>
       <c r="E46" s="101"/>
       <c r="F46" s="101"/>
@@ -10982,104 +10974,112 @@
     </row>
     <row r="47" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A47" s="51">
-        <v>44</v>
-      </c>
-      <c r="B47" s="107"/>
-      <c r="C47" s="107"/>
-      <c r="D47" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="E47" s="101"/>
-      <c r="F47" s="101"/>
+        <v>46</v>
+      </c>
+      <c r="B47" s="106"/>
+      <c r="C47" s="106"/>
+      <c r="D47" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="E47" s="102"/>
+      <c r="F47" s="102"/>
       <c r="G47" s="89"/>
       <c r="H47" s="52"/>
     </row>
     <row r="48" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A48" s="51">
-        <v>45</v>
-      </c>
-      <c r="B48" s="107"/>
-      <c r="C48" s="107"/>
+        <v>47</v>
+      </c>
+      <c r="B48" s="105" t="s">
+        <v>311</v>
+      </c>
+      <c r="C48" s="105" t="s">
+        <v>169</v>
+      </c>
       <c r="D48" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="E48" s="101"/>
-      <c r="F48" s="101"/>
+        <v>131</v>
+      </c>
+      <c r="E48" s="100" t="s">
+        <v>169</v>
+      </c>
+      <c r="F48" s="100" t="s">
+        <v>70</v>
+      </c>
       <c r="G48" s="89"/>
       <c r="H48" s="52"/>
     </row>
     <row r="49" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A49" s="51">
-        <v>46</v>
-      </c>
-      <c r="B49" s="106"/>
-      <c r="C49" s="106"/>
-      <c r="D49" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="E49" s="102"/>
-      <c r="F49" s="102"/>
+        <v>48</v>
+      </c>
+      <c r="B49" s="107"/>
+      <c r="C49" s="107"/>
+      <c r="D49" s="94" t="s">
+        <v>185</v>
+      </c>
+      <c r="E49" s="101"/>
+      <c r="F49" s="101"/>
       <c r="G49" s="89"/>
       <c r="H49" s="52"/>
     </row>
     <row r="50" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A50" s="51">
-        <v>47</v>
-      </c>
-      <c r="B50" s="105" t="s">
-        <v>313</v>
-      </c>
-      <c r="C50" s="105" t="s">
-        <v>171</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B50" s="107"/>
+      <c r="C50" s="107"/>
       <c r="D50" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="E50" s="100" t="s">
-        <v>171</v>
-      </c>
-      <c r="F50" s="100" t="s">
-        <v>70</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="E50" s="101"/>
+      <c r="F50" s="101"/>
       <c r="G50" s="89"/>
       <c r="H50" s="52"/>
     </row>
     <row r="51" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A51" s="51">
-        <v>48</v>
-      </c>
-      <c r="B51" s="107"/>
-      <c r="C51" s="107"/>
-      <c r="D51" s="94" t="s">
-        <v>187</v>
-      </c>
-      <c r="E51" s="101"/>
-      <c r="F51" s="101"/>
+        <v>50</v>
+      </c>
+      <c r="B51" s="106"/>
+      <c r="C51" s="106"/>
+      <c r="D51" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="E51" s="102"/>
+      <c r="F51" s="102"/>
       <c r="G51" s="89"/>
       <c r="H51" s="52"/>
     </row>
     <row r="52" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A52" s="51">
-        <v>49</v>
-      </c>
-      <c r="B52" s="107"/>
-      <c r="C52" s="107"/>
-      <c r="D52" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="E52" s="101"/>
-      <c r="F52" s="101"/>
+        <v>51</v>
+      </c>
+      <c r="B52" s="105" t="s">
+        <v>312</v>
+      </c>
+      <c r="C52" s="105" t="s">
+        <v>313</v>
+      </c>
+      <c r="D52" s="94" t="s">
+        <v>184</v>
+      </c>
+      <c r="E52" s="100" t="s">
+        <v>167</v>
+      </c>
+      <c r="F52" s="100" t="s">
+        <v>70</v>
+      </c>
       <c r="G52" s="89"/>
       <c r="H52" s="52"/>
     </row>
     <row r="53" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A53" s="51">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B53" s="106"/>
       <c r="C53" s="106"/>
       <c r="D53" s="24" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="E53" s="102"/>
       <c r="F53" s="102"/>
@@ -11088,70 +11088,62 @@
     </row>
     <row r="54" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A54" s="51">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B54" s="105" t="s">
         <v>314</v>
       </c>
       <c r="C54" s="105" t="s">
-        <v>315</v>
-      </c>
-      <c r="D54" s="94" t="s">
-        <v>186</v>
+        <v>216</v>
+      </c>
+      <c r="D54" s="130" t="s">
+        <v>201</v>
       </c>
       <c r="E54" s="100" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F54" s="100" t="s">
-        <v>70</v>
+        <v>168</v>
       </c>
       <c r="G54" s="89"/>
       <c r="H54" s="52"/>
     </row>
     <row r="55" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A55" s="51">
-        <v>52</v>
-      </c>
-      <c r="B55" s="106"/>
-      <c r="C55" s="106"/>
-      <c r="D55" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="E55" s="102"/>
-      <c r="F55" s="102"/>
+        <v>54</v>
+      </c>
+      <c r="B55" s="107"/>
+      <c r="C55" s="107"/>
+      <c r="D55" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E55" s="101"/>
+      <c r="F55" s="101"/>
       <c r="G55" s="89"/>
       <c r="H55" s="52"/>
     </row>
     <row r="56" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A56" s="51">
-        <v>53</v>
-      </c>
-      <c r="B56" s="105" t="s">
-        <v>316</v>
-      </c>
-      <c r="C56" s="105" t="s">
-        <v>218</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B56" s="107"/>
+      <c r="C56" s="107"/>
       <c r="D56" s="130" t="s">
-        <v>203</v>
-      </c>
-      <c r="E56" s="100" t="s">
-        <v>172</v>
-      </c>
-      <c r="F56" s="100" t="s">
-        <v>170</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="E56" s="101"/>
+      <c r="F56" s="101"/>
       <c r="G56" s="89"/>
       <c r="H56" s="52"/>
     </row>
     <row r="57" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A57" s="51">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B57" s="107"/>
       <c r="C57" s="107"/>
-      <c r="D57" s="23" t="s">
-        <v>127</v>
+      <c r="D57" s="130" t="s">
+        <v>190</v>
       </c>
       <c r="E57" s="101"/>
       <c r="F57" s="101"/>
@@ -11160,12 +11152,12 @@
     </row>
     <row r="58" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A58" s="51">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B58" s="107"/>
       <c r="C58" s="107"/>
       <c r="D58" s="130" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E58" s="101"/>
       <c r="F58" s="101"/>
@@ -11174,12 +11166,12 @@
     </row>
     <row r="59" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A59" s="51">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B59" s="107"/>
       <c r="C59" s="107"/>
       <c r="D59" s="130" t="s">
-        <v>192</v>
+        <v>128</v>
       </c>
       <c r="E59" s="101"/>
       <c r="F59" s="101"/>
@@ -11188,76 +11180,76 @@
     </row>
     <row r="60" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A60" s="51">
-        <v>57</v>
-      </c>
-      <c r="B60" s="107"/>
-      <c r="C60" s="107"/>
+        <v>59</v>
+      </c>
+      <c r="B60" s="106"/>
+      <c r="C60" s="106"/>
       <c r="D60" s="130" t="s">
-        <v>189</v>
-      </c>
-      <c r="E60" s="101"/>
-      <c r="F60" s="101"/>
+        <v>183</v>
+      </c>
+      <c r="E60" s="102"/>
+      <c r="F60" s="102"/>
       <c r="G60" s="89"/>
       <c r="H60" s="52"/>
     </row>
     <row r="61" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A61" s="51">
-        <v>58</v>
-      </c>
-      <c r="B61" s="107"/>
-      <c r="C61" s="107"/>
-      <c r="D61" s="130" t="s">
-        <v>128</v>
-      </c>
-      <c r="E61" s="101"/>
-      <c r="F61" s="101"/>
+        <v>60</v>
+      </c>
+      <c r="B61" s="105" t="s">
+        <v>315</v>
+      </c>
+      <c r="C61" s="121" t="s">
+        <v>86</v>
+      </c>
+      <c r="D61" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="E61" s="125" t="s">
+        <v>86</v>
+      </c>
+      <c r="F61" s="100" t="s">
+        <v>70</v>
+      </c>
       <c r="G61" s="89"/>
       <c r="H61" s="52"/>
     </row>
     <row r="62" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A62" s="51">
-        <v>59</v>
-      </c>
-      <c r="B62" s="106"/>
-      <c r="C62" s="106"/>
-      <c r="D62" s="130" t="s">
-        <v>185</v>
-      </c>
-      <c r="E62" s="102"/>
-      <c r="F62" s="102"/>
+        <v>61</v>
+      </c>
+      <c r="B62" s="107"/>
+      <c r="C62" s="121"/>
+      <c r="D62" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="E62" s="125"/>
+      <c r="F62" s="101"/>
       <c r="G62" s="89"/>
       <c r="H62" s="52"/>
     </row>
     <row r="63" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A63" s="51">
-        <v>60</v>
-      </c>
-      <c r="B63" s="105" t="s">
-        <v>317</v>
-      </c>
-      <c r="C63" s="121" t="s">
-        <v>86</v>
-      </c>
-      <c r="D63" s="70" t="s">
-        <v>101</v>
-      </c>
-      <c r="E63" s="125" t="s">
-        <v>86</v>
-      </c>
-      <c r="F63" s="100" t="s">
-        <v>70</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="B63" s="107"/>
+      <c r="C63" s="121"/>
+      <c r="D63" s="71" t="s">
+        <v>105</v>
+      </c>
+      <c r="E63" s="125"/>
+      <c r="F63" s="101"/>
       <c r="G63" s="89"/>
       <c r="H63" s="52"/>
     </row>
     <row r="64" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A64" s="51">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B64" s="107"/>
       <c r="C64" s="121"/>
-      <c r="D64" s="23" t="s">
-        <v>111</v>
+      <c r="D64" s="70" t="s">
+        <v>106</v>
       </c>
       <c r="E64" s="125"/>
       <c r="F64" s="101"/>
@@ -11266,12 +11258,12 @@
     </row>
     <row r="65" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A65" s="51">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B65" s="107"/>
       <c r="C65" s="121"/>
-      <c r="D65" s="71" t="s">
-        <v>105</v>
+      <c r="D65" s="70" t="s">
+        <v>107</v>
       </c>
       <c r="E65" s="125"/>
       <c r="F65" s="101"/>
@@ -11280,12 +11272,12 @@
     </row>
     <row r="66" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A66" s="51">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B66" s="107"/>
       <c r="C66" s="121"/>
       <c r="D66" s="70" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E66" s="125"/>
       <c r="F66" s="101"/>
@@ -11294,40 +11286,40 @@
     </row>
     <row r="67" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A67" s="51">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B67" s="107"/>
-      <c r="C67" s="121"/>
-      <c r="D67" s="70" t="s">
-        <v>107</v>
-      </c>
-      <c r="E67" s="125"/>
+      <c r="C67" s="114"/>
+      <c r="D67" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="E67" s="120"/>
       <c r="F67" s="101"/>
       <c r="G67" s="89"/>
       <c r="H67" s="52"/>
     </row>
     <row r="68" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A68" s="51">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B68" s="107"/>
-      <c r="C68" s="121"/>
-      <c r="D68" s="70" t="s">
-        <v>108</v>
-      </c>
-      <c r="E68" s="125"/>
+      <c r="C68" s="114"/>
+      <c r="D68" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E68" s="120"/>
       <c r="F68" s="101"/>
       <c r="G68" s="89"/>
       <c r="H68" s="52"/>
     </row>
     <row r="69" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A69" s="51">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B69" s="107"/>
       <c r="C69" s="114"/>
-      <c r="D69" s="24" t="s">
-        <v>109</v>
+      <c r="D69" s="23" t="s">
+        <v>195</v>
       </c>
       <c r="E69" s="120"/>
       <c r="F69" s="101"/>
@@ -11336,76 +11328,76 @@
     </row>
     <row r="70" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A70" s="51">
-        <v>67</v>
-      </c>
-      <c r="B70" s="107"/>
+        <v>69</v>
+      </c>
+      <c r="B70" s="106"/>
       <c r="C70" s="114"/>
-      <c r="D70" s="25" t="s">
-        <v>110</v>
+      <c r="D70" s="23" t="s">
+        <v>178</v>
       </c>
       <c r="E70" s="120"/>
-      <c r="F70" s="101"/>
+      <c r="F70" s="102"/>
       <c r="G70" s="89"/>
       <c r="H70" s="52"/>
     </row>
-    <row r="71" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+    <row r="71" spans="1:8" s="64" customFormat="1" ht="18" customHeight="1">
       <c r="A71" s="51">
-        <v>68</v>
-      </c>
-      <c r="B71" s="107"/>
-      <c r="C71" s="114"/>
+        <v>70</v>
+      </c>
+      <c r="B71" s="103" t="s">
+        <v>316</v>
+      </c>
+      <c r="C71" s="105" t="s">
+        <v>77</v>
+      </c>
       <c r="D71" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="E71" s="120"/>
-      <c r="F71" s="101"/>
-      <c r="G71" s="89"/>
-      <c r="H71" s="52"/>
+        <v>189</v>
+      </c>
+      <c r="E71" s="103" t="s">
+        <v>152</v>
+      </c>
+      <c r="F71" s="103" t="s">
+        <v>72</v>
+      </c>
+      <c r="G71" s="51"/>
+      <c r="H71" s="51"/>
     </row>
     <row r="72" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A72" s="51">
-        <v>69</v>
-      </c>
-      <c r="B72" s="106"/>
-      <c r="C72" s="114"/>
+        <v>71</v>
+      </c>
+      <c r="B72" s="115"/>
+      <c r="C72" s="107"/>
       <c r="D72" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="E72" s="120"/>
-      <c r="F72" s="102"/>
-      <c r="G72" s="89"/>
+        <v>177</v>
+      </c>
+      <c r="E72" s="115"/>
+      <c r="F72" s="115"/>
+      <c r="G72" s="39"/>
       <c r="H72" s="52"/>
     </row>
-    <row r="73" spans="1:8" s="64" customFormat="1" ht="18" customHeight="1">
+    <row r="73" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A73" s="51">
-        <v>70</v>
-      </c>
-      <c r="B73" s="103" t="s">
-        <v>318</v>
-      </c>
-      <c r="C73" s="105" t="s">
-        <v>77</v>
-      </c>
-      <c r="D73" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="E73" s="103" t="s">
-        <v>154</v>
-      </c>
-      <c r="F73" s="103" t="s">
         <v>72</v>
       </c>
-      <c r="G73" s="51"/>
-      <c r="H73" s="51"/>
+      <c r="B73" s="115"/>
+      <c r="C73" s="107"/>
+      <c r="D73" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="E73" s="115"/>
+      <c r="F73" s="115"/>
+      <c r="G73" s="39"/>
+      <c r="H73" s="52"/>
     </row>
     <row r="74" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A74" s="51">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B74" s="115"/>
       <c r="C74" s="107"/>
-      <c r="D74" s="23" t="s">
-        <v>179</v>
+      <c r="D74" s="26" t="s">
+        <v>53</v>
       </c>
       <c r="E74" s="115"/>
       <c r="F74" s="115"/>
@@ -11414,40 +11406,40 @@
     </row>
     <row r="75" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A75" s="51">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B75" s="115"/>
       <c r="C75" s="107"/>
-      <c r="D75" s="24" t="s">
-        <v>196</v>
+      <c r="D75" s="26" t="s">
+        <v>81</v>
       </c>
       <c r="E75" s="115"/>
       <c r="F75" s="115"/>
-      <c r="G75" s="39"/>
-      <c r="H75" s="52"/>
+      <c r="G75" s="30"/>
+      <c r="H75" s="32"/>
     </row>
     <row r="76" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A76" s="51">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B76" s="115"/>
       <c r="C76" s="107"/>
-      <c r="D76" s="26" t="s">
-        <v>53</v>
+      <c r="D76" s="43" t="s">
+        <v>80</v>
       </c>
       <c r="E76" s="115"/>
       <c r="F76" s="115"/>
-      <c r="G76" s="39"/>
-      <c r="H76" s="52"/>
+      <c r="G76" s="30"/>
+      <c r="H76" s="32"/>
     </row>
     <row r="77" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A77" s="51">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B77" s="115"/>
       <c r="C77" s="107"/>
-      <c r="D77" s="26" t="s">
-        <v>81</v>
+      <c r="D77" s="25" t="s">
+        <v>174</v>
       </c>
       <c r="E77" s="115"/>
       <c r="F77" s="115"/>
@@ -11456,196 +11448,196 @@
     </row>
     <row r="78" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A78" s="51">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B78" s="115"/>
       <c r="C78" s="107"/>
-      <c r="D78" s="43" t="s">
-        <v>80</v>
+      <c r="D78" s="25" t="s">
+        <v>193</v>
       </c>
       <c r="E78" s="115"/>
       <c r="F78" s="115"/>
-      <c r="G78" s="30"/>
-      <c r="H78" s="32"/>
+      <c r="G78" s="75"/>
+      <c r="H78" s="52"/>
     </row>
     <row r="79" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A79" s="51">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B79" s="115"/>
       <c r="C79" s="107"/>
       <c r="D79" s="25" t="s">
-        <v>176</v>
+        <v>211</v>
       </c>
       <c r="E79" s="115"/>
       <c r="F79" s="115"/>
-      <c r="G79" s="30"/>
-      <c r="H79" s="32"/>
+      <c r="G79" s="75"/>
+      <c r="H79" s="52"/>
     </row>
     <row r="80" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A80" s="51">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B80" s="115"/>
       <c r="C80" s="107"/>
-      <c r="D80" s="25" t="s">
-        <v>195</v>
+      <c r="D80" s="26" t="s">
+        <v>54</v>
       </c>
       <c r="E80" s="115"/>
       <c r="F80" s="115"/>
-      <c r="G80" s="75"/>
-      <c r="H80" s="52"/>
+      <c r="G80" s="30"/>
+      <c r="H80" s="32"/>
     </row>
     <row r="81" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A81" s="51">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B81" s="115"/>
       <c r="C81" s="107"/>
-      <c r="D81" s="25" t="s">
-        <v>213</v>
+      <c r="D81" s="24" t="s">
+        <v>41</v>
       </c>
       <c r="E81" s="115"/>
       <c r="F81" s="115"/>
-      <c r="G81" s="75"/>
-      <c r="H81" s="52"/>
+      <c r="G81" s="30"/>
+      <c r="H81" s="32"/>
     </row>
     <row r="82" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A82" s="51">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B82" s="115"/>
-      <c r="C82" s="107"/>
-      <c r="D82" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="E82" s="115"/>
-      <c r="F82" s="115"/>
+      <c r="C82" s="106"/>
+      <c r="D82" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="E82" s="104"/>
+      <c r="F82" s="104"/>
       <c r="G82" s="30"/>
       <c r="H82" s="32"/>
     </row>
     <row r="83" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A83" s="51">
-        <v>80</v>
-      </c>
-      <c r="B83" s="115"/>
-      <c r="C83" s="107"/>
-      <c r="D83" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="E83" s="115"/>
-      <c r="F83" s="115"/>
-      <c r="G83" s="30"/>
-      <c r="H83" s="32"/>
+        <v>82</v>
+      </c>
+      <c r="B83" s="105" t="s">
+        <v>316</v>
+      </c>
+      <c r="C83" s="105" t="s">
+        <v>97</v>
+      </c>
+      <c r="D83" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="E83" s="100" t="s">
+        <v>163</v>
+      </c>
+      <c r="F83" s="100" t="s">
+        <v>70</v>
+      </c>
+      <c r="G83" s="89"/>
+      <c r="H83" s="52"/>
     </row>
     <row r="84" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A84" s="51">
-        <v>81</v>
-      </c>
-      <c r="B84" s="115"/>
-      <c r="C84" s="106"/>
-      <c r="D84" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="E84" s="104"/>
-      <c r="F84" s="104"/>
-      <c r="G84" s="30"/>
-      <c r="H84" s="32"/>
+        <v>83</v>
+      </c>
+      <c r="B84" s="107"/>
+      <c r="C84" s="107"/>
+      <c r="D84" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="E84" s="101"/>
+      <c r="F84" s="101"/>
+      <c r="G84" s="89"/>
+      <c r="H84" s="52"/>
     </row>
     <row r="85" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A85" s="51">
-        <v>82</v>
-      </c>
-      <c r="B85" s="105" t="s">
-        <v>318</v>
-      </c>
-      <c r="C85" s="105" t="s">
-        <v>97</v>
-      </c>
-      <c r="D85" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="E85" s="100" t="s">
-        <v>165</v>
-      </c>
-      <c r="F85" s="100" t="s">
-        <v>70</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="B85" s="107"/>
+      <c r="C85" s="107"/>
+      <c r="D85" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="E85" s="101"/>
+      <c r="F85" s="101"/>
       <c r="G85" s="89"/>
       <c r="H85" s="52"/>
     </row>
     <row r="86" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A86" s="51">
-        <v>83</v>
-      </c>
-      <c r="B86" s="107"/>
+        <v>85</v>
+      </c>
+      <c r="B86" s="106"/>
       <c r="C86" s="107"/>
       <c r="D86" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="E86" s="101"/>
-      <c r="F86" s="101"/>
+        <v>175</v>
+      </c>
+      <c r="E86" s="102"/>
+      <c r="F86" s="102"/>
       <c r="G86" s="89"/>
       <c r="H86" s="52"/>
     </row>
     <row r="87" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A87" s="51">
-        <v>84</v>
-      </c>
-      <c r="B87" s="107"/>
-      <c r="C87" s="107"/>
-      <c r="D87" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="E87" s="101"/>
-      <c r="F87" s="101"/>
-      <c r="G87" s="89"/>
-      <c r="H87" s="52"/>
+        <v>86</v>
+      </c>
+      <c r="B87" s="103" t="s">
+        <v>317</v>
+      </c>
+      <c r="C87" s="105" t="s">
+        <v>78</v>
+      </c>
+      <c r="D87" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E87" s="116" t="s">
+        <v>151</v>
+      </c>
+      <c r="F87" s="100" t="s">
+        <v>70</v>
+      </c>
+      <c r="G87" s="30"/>
+      <c r="H87" s="32"/>
     </row>
     <row r="88" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A88" s="51">
-        <v>85</v>
-      </c>
-      <c r="B88" s="106"/>
+        <v>87</v>
+      </c>
+      <c r="B88" s="115"/>
       <c r="C88" s="107"/>
-      <c r="D88" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="E88" s="102"/>
-      <c r="F88" s="102"/>
-      <c r="G88" s="89"/>
-      <c r="H88" s="52"/>
+      <c r="D88" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E88" s="117"/>
+      <c r="F88" s="101"/>
+      <c r="G88" s="30"/>
+      <c r="H88" s="32"/>
     </row>
     <row r="89" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A89" s="51">
-        <v>86</v>
-      </c>
-      <c r="B89" s="103" t="s">
-        <v>319</v>
-      </c>
-      <c r="C89" s="105" t="s">
-        <v>78</v>
-      </c>
-      <c r="D89" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="E89" s="116" t="s">
-        <v>153</v>
-      </c>
-      <c r="F89" s="100" t="s">
-        <v>70</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="B89" s="115"/>
+      <c r="C89" s="107"/>
+      <c r="D89" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="E89" s="117"/>
+      <c r="F89" s="101"/>
       <c r="G89" s="30"/>
       <c r="H89" s="32"/>
     </row>
     <row r="90" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A90" s="51">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B90" s="115"/>
       <c r="C90" s="107"/>
-      <c r="D90" s="26" t="s">
-        <v>42</v>
+      <c r="D90" s="23" t="s">
+        <v>208</v>
       </c>
       <c r="E90" s="117"/>
       <c r="F90" s="101"/>
@@ -11654,12 +11646,12 @@
     </row>
     <row r="91" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A91" s="51">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B91" s="115"/>
       <c r="C91" s="107"/>
-      <c r="D91" s="25" t="s">
-        <v>212</v>
+      <c r="D91" s="23" t="s">
+        <v>202</v>
       </c>
       <c r="E91" s="117"/>
       <c r="F91" s="101"/>
@@ -11668,12 +11660,12 @@
     </row>
     <row r="92" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A92" s="51">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B92" s="115"/>
       <c r="C92" s="107"/>
-      <c r="D92" s="23" t="s">
-        <v>210</v>
+      <c r="D92" s="26" t="s">
+        <v>55</v>
       </c>
       <c r="E92" s="117"/>
       <c r="F92" s="101"/>
@@ -11682,12 +11674,12 @@
     </row>
     <row r="93" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A93" s="51">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B93" s="115"/>
       <c r="C93" s="107"/>
       <c r="D93" s="23" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
       <c r="E93" s="117"/>
       <c r="F93" s="101"/>
@@ -11696,126 +11688,126 @@
     </row>
     <row r="94" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A94" s="51">
-        <v>91</v>
-      </c>
-      <c r="B94" s="115"/>
-      <c r="C94" s="107"/>
-      <c r="D94" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="E94" s="117"/>
+        <v>93</v>
+      </c>
+      <c r="B94" s="104"/>
+      <c r="C94" s="106"/>
+      <c r="D94" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="E94" s="118"/>
       <c r="F94" s="101"/>
       <c r="G94" s="30"/>
       <c r="H94" s="32"/>
     </row>
     <row r="95" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A95" s="51">
-        <v>92</v>
-      </c>
-      <c r="B95" s="115"/>
-      <c r="C95" s="107"/>
+        <v>94</v>
+      </c>
+      <c r="B95" s="103" t="s">
+        <v>320</v>
+      </c>
+      <c r="C95" s="105" t="s">
+        <v>83</v>
+      </c>
       <c r="D95" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="E95" s="117"/>
-      <c r="F95" s="101"/>
+        <v>103</v>
+      </c>
+      <c r="E95" s="105" t="s">
+        <v>153</v>
+      </c>
+      <c r="F95" s="100" t="s">
+        <v>154</v>
+      </c>
       <c r="G95" s="30"/>
       <c r="H95" s="32"/>
     </row>
     <row r="96" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A96" s="51">
-        <v>93</v>
-      </c>
-      <c r="B96" s="104"/>
-      <c r="C96" s="106"/>
-      <c r="D96" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="E96" s="118"/>
+        <v>95</v>
+      </c>
+      <c r="B96" s="115"/>
+      <c r="C96" s="107"/>
+      <c r="D96" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E96" s="107"/>
       <c r="F96" s="101"/>
       <c r="G96" s="30"/>
       <c r="H96" s="32"/>
     </row>
     <row r="97" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A97" s="51">
-        <v>94</v>
-      </c>
-      <c r="B97" s="103" t="s">
-        <v>322</v>
-      </c>
-      <c r="C97" s="105" t="s">
-        <v>83</v>
-      </c>
-      <c r="D97" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="E97" s="105" t="s">
-        <v>155</v>
-      </c>
-      <c r="F97" s="100" t="s">
-        <v>156</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="B97" s="104"/>
+      <c r="C97" s="106"/>
+      <c r="D97" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="E97" s="106"/>
+      <c r="F97" s="102"/>
       <c r="G97" s="30"/>
       <c r="H97" s="32"/>
     </row>
     <row r="98" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A98" s="51">
-        <v>95</v>
-      </c>
-      <c r="B98" s="115"/>
-      <c r="C98" s="107"/>
-      <c r="D98" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="E98" s="107"/>
-      <c r="F98" s="101"/>
+        <v>97</v>
+      </c>
+      <c r="B98" s="105" t="s">
+        <v>318</v>
+      </c>
+      <c r="C98" s="105" t="s">
+        <v>87</v>
+      </c>
+      <c r="D98" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="E98" s="100" t="s">
+        <v>156</v>
+      </c>
+      <c r="F98" s="100" t="s">
+        <v>155</v>
+      </c>
       <c r="G98" s="30"/>
       <c r="H98" s="32"/>
     </row>
     <row r="99" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A99" s="51">
-        <v>96</v>
-      </c>
-      <c r="B99" s="104"/>
-      <c r="C99" s="106"/>
-      <c r="D99" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="E99" s="106"/>
-      <c r="F99" s="102"/>
+        <v>98</v>
+      </c>
+      <c r="B99" s="107"/>
+      <c r="C99" s="107"/>
+      <c r="D99" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="E99" s="101"/>
+      <c r="F99" s="101"/>
       <c r="G99" s="30"/>
       <c r="H99" s="32"/>
     </row>
     <row r="100" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A100" s="51">
-        <v>97</v>
-      </c>
-      <c r="B100" s="105" t="s">
-        <v>320</v>
-      </c>
-      <c r="C100" s="105" t="s">
-        <v>87</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="B100" s="107"/>
+      <c r="C100" s="107"/>
       <c r="D100" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="E100" s="100" t="s">
-        <v>158</v>
-      </c>
-      <c r="F100" s="100" t="s">
-        <v>157</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="E100" s="101"/>
+      <c r="F100" s="101"/>
       <c r="G100" s="30"/>
       <c r="H100" s="32"/>
     </row>
     <row r="101" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A101" s="51">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B101" s="107"/>
       <c r="C101" s="107"/>
       <c r="D101" s="24" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E101" s="101"/>
       <c r="F101" s="101"/>
@@ -11824,12 +11816,12 @@
     </row>
     <row r="102" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A102" s="51">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B102" s="107"/>
       <c r="C102" s="107"/>
       <c r="D102" s="24" t="s">
-        <v>114</v>
+        <v>186</v>
       </c>
       <c r="E102" s="101"/>
       <c r="F102" s="101"/>
@@ -11838,12 +11830,12 @@
     </row>
     <row r="103" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A103" s="51">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B103" s="107"/>
       <c r="C103" s="107"/>
       <c r="D103" s="24" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E103" s="101"/>
       <c r="F103" s="101"/>
@@ -11852,12 +11844,12 @@
     </row>
     <row r="104" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A104" s="51">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B104" s="107"/>
       <c r="C104" s="107"/>
       <c r="D104" s="24" t="s">
-        <v>188</v>
+        <v>117</v>
       </c>
       <c r="E104" s="101"/>
       <c r="F104" s="101"/>
@@ -11866,76 +11858,76 @@
     </row>
     <row r="105" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A105" s="51">
-        <v>102</v>
-      </c>
-      <c r="B105" s="107"/>
-      <c r="C105" s="107"/>
+        <v>104</v>
+      </c>
+      <c r="B105" s="106"/>
+      <c r="C105" s="106"/>
       <c r="D105" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="E105" s="101"/>
-      <c r="F105" s="101"/>
-      <c r="G105" s="30"/>
-      <c r="H105" s="32"/>
+        <v>322</v>
+      </c>
+      <c r="E105" s="102"/>
+      <c r="F105" s="87"/>
+      <c r="G105" s="89"/>
+      <c r="H105" s="52"/>
     </row>
     <row r="106" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A106" s="51">
-        <v>103</v>
-      </c>
-      <c r="B106" s="107"/>
-      <c r="C106" s="107"/>
+        <v>105</v>
+      </c>
+      <c r="B106" s="105" t="s">
+        <v>319</v>
+      </c>
+      <c r="C106" s="105" t="s">
+        <v>96</v>
+      </c>
       <c r="D106" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="E106" s="101"/>
-      <c r="F106" s="101"/>
-      <c r="G106" s="30"/>
-      <c r="H106" s="32"/>
+        <v>121</v>
+      </c>
+      <c r="E106" s="100" t="s">
+        <v>164</v>
+      </c>
+      <c r="F106" s="100" t="s">
+        <v>165</v>
+      </c>
+      <c r="G106" s="69"/>
+      <c r="H106" s="52"/>
     </row>
     <row r="107" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A107" s="51">
-        <v>104</v>
-      </c>
-      <c r="B107" s="106"/>
-      <c r="C107" s="106"/>
+        <v>106</v>
+      </c>
+      <c r="B107" s="107"/>
+      <c r="C107" s="107"/>
       <c r="D107" s="24" t="s">
-        <v>324</v>
-      </c>
-      <c r="E107" s="102"/>
-      <c r="F107" s="87"/>
-      <c r="G107" s="89"/>
+        <v>191</v>
+      </c>
+      <c r="E107" s="101"/>
+      <c r="F107" s="101"/>
+      <c r="G107" s="69"/>
       <c r="H107" s="52"/>
     </row>
     <row r="108" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A108" s="51">
-        <v>105</v>
-      </c>
-      <c r="B108" s="105" t="s">
-        <v>321</v>
-      </c>
-      <c r="C108" s="105" t="s">
-        <v>96</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="B108" s="107"/>
+      <c r="C108" s="107"/>
       <c r="D108" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="E108" s="100" t="s">
-        <v>166</v>
-      </c>
-      <c r="F108" s="100" t="s">
-        <v>167</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="E108" s="101"/>
+      <c r="F108" s="101"/>
       <c r="G108" s="69"/>
       <c r="H108" s="52"/>
     </row>
     <row r="109" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A109" s="51">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B109" s="107"/>
       <c r="C109" s="107"/>
       <c r="D109" s="24" t="s">
-        <v>193</v>
+        <v>123</v>
       </c>
       <c r="E109" s="101"/>
       <c r="F109" s="101"/>
@@ -11944,512 +11936,518 @@
     </row>
     <row r="110" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A110" s="51">
-        <v>107</v>
-      </c>
-      <c r="B110" s="107"/>
-      <c r="C110" s="107"/>
+        <v>109</v>
+      </c>
+      <c r="B110" s="106"/>
+      <c r="C110" s="106"/>
       <c r="D110" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="E110" s="101"/>
-      <c r="F110" s="101"/>
+        <v>130</v>
+      </c>
+      <c r="E110" s="102"/>
+      <c r="F110" s="102"/>
       <c r="G110" s="69"/>
       <c r="H110" s="52"/>
     </row>
-    <row r="111" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A111" s="51">
-        <v>108</v>
-      </c>
-      <c r="B111" s="107"/>
-      <c r="C111" s="107"/>
-      <c r="D111" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="E111" s="101"/>
-      <c r="F111" s="101"/>
-      <c r="G111" s="69"/>
-      <c r="H111" s="52"/>
-    </row>
-    <row r="112" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+    <row r="111" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A111" s="51"/>
+      <c r="B111" s="25"/>
+      <c r="C111" s="108" t="s">
+        <v>35</v>
+      </c>
+      <c r="D111" s="109"/>
+      <c r="E111" s="72"/>
+      <c r="F111" s="72"/>
+      <c r="G111" s="73"/>
+      <c r="H111" s="27"/>
+    </row>
+    <row r="112" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A112" s="51">
-        <v>109</v>
-      </c>
-      <c r="B112" s="106"/>
-      <c r="C112" s="106"/>
-      <c r="D112" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="E112" s="102"/>
-      <c r="F112" s="102"/>
-      <c r="G112" s="69"/>
-      <c r="H112" s="52"/>
+        <v>110</v>
+      </c>
+      <c r="B112" s="73" t="s">
+        <v>47</v>
+      </c>
+      <c r="C112" s="73" t="s">
+        <v>214</v>
+      </c>
+      <c r="D112" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="E112" s="72"/>
+      <c r="F112" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="G112" s="73"/>
+      <c r="H112" s="27"/>
     </row>
     <row r="113" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A113" s="51"/>
-      <c r="B113" s="25"/>
-      <c r="C113" s="108" t="s">
-        <v>35</v>
-      </c>
-      <c r="D113" s="109"/>
-      <c r="E113" s="72"/>
-      <c r="F113" s="72"/>
-      <c r="G113" s="73"/>
+      <c r="A113" s="103">
+        <v>111</v>
+      </c>
+      <c r="B113" s="105" t="s">
+        <v>48</v>
+      </c>
+      <c r="C113" s="114" t="s">
+        <v>233</v>
+      </c>
+      <c r="D113" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="E113" s="120"/>
+      <c r="F113" s="100" t="s">
+        <v>73</v>
+      </c>
+      <c r="G113" s="30"/>
       <c r="H113" s="27"/>
     </row>
     <row r="114" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A114" s="51">
-        <v>110</v>
-      </c>
-      <c r="B114" s="73" t="s">
-        <v>47</v>
-      </c>
-      <c r="C114" s="73" t="s">
-        <v>216</v>
-      </c>
-      <c r="D114" s="25" t="s">
-        <v>217</v>
-      </c>
-      <c r="E114" s="72"/>
-      <c r="F114" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="G114" s="73"/>
+      <c r="A114" s="104"/>
+      <c r="B114" s="106"/>
+      <c r="C114" s="114"/>
+      <c r="D114" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="E114" s="120"/>
+      <c r="F114" s="102"/>
+      <c r="G114" s="30"/>
       <c r="H114" s="27"/>
     </row>
     <row r="115" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A115" s="103">
-        <v>111</v>
+      <c r="A115" s="29">
+        <v>112</v>
       </c>
       <c r="B115" s="105" t="s">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="C115" s="114" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D115" s="25" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E115" s="120"/>
       <c r="F115" s="100" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G115" s="30"/>
       <c r="H115" s="27"/>
     </row>
     <row r="116" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A116" s="104"/>
+      <c r="A116" s="29">
+        <v>113</v>
+      </c>
       <c r="B116" s="106"/>
       <c r="C116" s="114"/>
-      <c r="D116" s="33" t="s">
-        <v>237</v>
+      <c r="D116" s="25" t="s">
+        <v>238</v>
       </c>
       <c r="E116" s="120"/>
       <c r="F116" s="102"/>
       <c r="G116" s="30"/>
       <c r="H116" s="27"/>
     </row>
-    <row r="117" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A117" s="29">
-        <v>112</v>
+    <row r="117" spans="1:8" s="43" customFormat="1" ht="15" customHeight="1">
+      <c r="A117" s="51">
+        <v>114</v>
       </c>
       <c r="B117" s="105" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C117" s="114" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D117" s="25" t="s">
-        <v>239</v>
+        <v>10</v>
       </c>
       <c r="E117" s="120"/>
       <c r="F117" s="100" t="s">
         <v>71</v>
       </c>
       <c r="G117" s="30"/>
-      <c r="H117" s="27"/>
-    </row>
-    <row r="118" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A118" s="29">
-        <v>113</v>
-      </c>
-      <c r="B118" s="106"/>
+      <c r="H117" s="32"/>
+    </row>
+    <row r="118" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A118" s="51">
+        <v>115</v>
+      </c>
+      <c r="B118" s="107"/>
       <c r="C118" s="114"/>
       <c r="D118" s="25" t="s">
-        <v>240</v>
+        <v>18</v>
       </c>
       <c r="E118" s="120"/>
-      <c r="F118" s="102"/>
+      <c r="F118" s="101"/>
       <c r="G118" s="30"/>
-      <c r="H118" s="27"/>
-    </row>
-    <row r="119" spans="1:8" s="43" customFormat="1" ht="15" customHeight="1">
+      <c r="H118" s="32"/>
+    </row>
+    <row r="119" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A119" s="51">
-        <v>114</v>
-      </c>
-      <c r="B119" s="105" t="s">
-        <v>243</v>
-      </c>
-      <c r="C119" s="114" t="s">
-        <v>238</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="B119" s="106"/>
+      <c r="C119" s="114"/>
       <c r="D119" s="25" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="E119" s="120"/>
-      <c r="F119" s="100" t="s">
-        <v>71</v>
-      </c>
+      <c r="F119" s="102"/>
       <c r="G119" s="30"/>
       <c r="H119" s="32"/>
     </row>
     <row r="120" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A120" s="51">
-        <v>115</v>
-      </c>
-      <c r="B120" s="107"/>
-      <c r="C120" s="114"/>
-      <c r="D120" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E120" s="120"/>
-      <c r="F120" s="101"/>
+      <c r="A120" s="29"/>
+      <c r="B120" s="25"/>
+      <c r="C120" s="119" t="s">
+        <v>37</v>
+      </c>
+      <c r="D120" s="119"/>
+      <c r="E120" s="25"/>
+      <c r="F120" s="62"/>
       <c r="G120" s="30"/>
       <c r="H120" s="32"/>
     </row>
     <row r="121" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A121" s="51">
-        <v>116</v>
-      </c>
-      <c r="B121" s="106"/>
-      <c r="C121" s="114"/>
+      <c r="A121" s="29">
+        <v>117</v>
+      </c>
+      <c r="B121" s="105" t="s">
+        <v>49</v>
+      </c>
+      <c r="C121" s="114" t="s">
+        <v>213</v>
+      </c>
       <c r="D121" s="25" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E121" s="120"/>
-      <c r="F121" s="102"/>
+      <c r="F121" s="100" t="s">
+        <v>74</v>
+      </c>
       <c r="G121" s="30"/>
       <c r="H121" s="32"/>
     </row>
     <row r="122" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A122" s="29"/>
-      <c r="B122" s="25"/>
-      <c r="C122" s="119" t="s">
-        <v>37</v>
-      </c>
-      <c r="D122" s="119"/>
-      <c r="E122" s="25"/>
-      <c r="F122" s="62"/>
+      <c r="A122" s="51">
+        <v>118</v>
+      </c>
+      <c r="B122" s="107"/>
+      <c r="C122" s="114"/>
+      <c r="D122" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E122" s="120"/>
+      <c r="F122" s="101"/>
       <c r="G122" s="30"/>
       <c r="H122" s="32"/>
     </row>
     <row r="123" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A123" s="29">
-        <v>117</v>
-      </c>
-      <c r="B123" s="105" t="s">
-        <v>49</v>
-      </c>
-      <c r="C123" s="114" t="s">
-        <v>215</v>
-      </c>
-      <c r="D123" s="25" t="s">
-        <v>34</v>
+      <c r="A123" s="51">
+        <v>119</v>
+      </c>
+      <c r="B123" s="107"/>
+      <c r="C123" s="114"/>
+      <c r="D123" s="38" t="s">
+        <v>65</v>
       </c>
       <c r="E123" s="120"/>
-      <c r="F123" s="100" t="s">
-        <v>74</v>
-      </c>
+      <c r="F123" s="101"/>
       <c r="G123" s="30"/>
       <c r="H123" s="32"/>
     </row>
     <row r="124" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A124" s="51">
-        <v>118</v>
-      </c>
-      <c r="B124" s="107"/>
+        <v>120</v>
+      </c>
+      <c r="B124" s="106"/>
       <c r="C124" s="114"/>
       <c r="D124" s="25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E124" s="120"/>
-      <c r="F124" s="101"/>
+      <c r="F124" s="102"/>
       <c r="G124" s="30"/>
       <c r="H124" s="32"/>
     </row>
     <row r="125" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A125" s="51">
-        <v>119</v>
-      </c>
-      <c r="B125" s="107"/>
-      <c r="C125" s="114"/>
-      <c r="D125" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="E125" s="120"/>
-      <c r="F125" s="101"/>
+        <v>121</v>
+      </c>
+      <c r="B125" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C125" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D125" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E125" s="25"/>
+      <c r="F125" s="62" t="s">
+        <v>73</v>
+      </c>
       <c r="G125" s="30"/>
       <c r="H125" s="32"/>
     </row>
     <row r="126" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A126" s="51">
-        <v>120</v>
-      </c>
-      <c r="B126" s="106"/>
-      <c r="C126" s="114"/>
-      <c r="D126" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="E126" s="120"/>
-      <c r="F126" s="102"/>
+      <c r="A126" s="25"/>
+      <c r="B126" s="25"/>
+      <c r="C126" s="119" t="s">
+        <v>38</v>
+      </c>
+      <c r="D126" s="119"/>
+      <c r="E126" s="25"/>
+      <c r="F126" s="62"/>
       <c r="G126" s="30"/>
       <c r="H126" s="32"/>
     </row>
-    <row r="127" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A127" s="51">
-        <v>121</v>
-      </c>
-      <c r="B127" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="C127" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="D127" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E127" s="25"/>
-      <c r="F127" s="62" t="s">
-        <v>73</v>
+    <row r="127" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A127" s="31">
+        <v>122</v>
+      </c>
+      <c r="B127" s="105" t="s">
+        <v>256</v>
+      </c>
+      <c r="C127" s="105" t="s">
+        <v>257</v>
+      </c>
+      <c r="D127" s="94" t="s">
+        <v>271</v>
+      </c>
+      <c r="E127" s="120"/>
+      <c r="F127" s="100" t="s">
+        <v>74</v>
       </c>
       <c r="G127" s="30"/>
       <c r="H127" s="32"/>
     </row>
-    <row r="128" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A128" s="25"/>
-      <c r="B128" s="25"/>
-      <c r="C128" s="119" t="s">
-        <v>38</v>
-      </c>
-      <c r="D128" s="119"/>
-      <c r="E128" s="25"/>
-      <c r="F128" s="62"/>
+    <row r="128" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A128" s="40">
+        <v>123</v>
+      </c>
+      <c r="B128" s="107"/>
+      <c r="C128" s="107"/>
+      <c r="D128" s="93" t="s">
+        <v>258</v>
+      </c>
+      <c r="E128" s="120"/>
+      <c r="F128" s="101"/>
       <c r="G128" s="30"/>
       <c r="H128" s="32"/>
     </row>
     <row r="129" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A129" s="31">
-        <v>122</v>
-      </c>
-      <c r="B129" s="105" t="s">
-        <v>258</v>
-      </c>
-      <c r="C129" s="105" t="s">
+      <c r="A129" s="88">
+        <v>124</v>
+      </c>
+      <c r="B129" s="106"/>
+      <c r="C129" s="106"/>
+      <c r="D129" s="93" t="s">
         <v>259</v>
       </c>
-      <c r="D129" s="94" t="s">
-        <v>273</v>
-      </c>
       <c r="E129" s="120"/>
-      <c r="F129" s="100" t="s">
-        <v>74</v>
-      </c>
+      <c r="F129" s="102"/>
       <c r="G129" s="30"/>
       <c r="H129" s="32"/>
     </row>
     <row r="130" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A130" s="40">
-        <v>123</v>
-      </c>
-      <c r="B130" s="107"/>
-      <c r="C130" s="107"/>
-      <c r="D130" s="93" t="s">
+      <c r="A130" s="88">
+        <v>125</v>
+      </c>
+      <c r="B130" s="105" t="s">
         <v>260</v>
       </c>
-      <c r="E130" s="120"/>
-      <c r="F130" s="101"/>
-      <c r="G130" s="30"/>
-      <c r="H130" s="32"/>
+      <c r="C130" s="105" t="s">
+        <v>262</v>
+      </c>
+      <c r="D130" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="E130" s="100"/>
+      <c r="F130" s="100" t="s">
+        <v>287</v>
+      </c>
+      <c r="G130" s="81"/>
+      <c r="H130" s="52"/>
     </row>
     <row r="131" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A131" s="88">
-        <v>124</v>
-      </c>
-      <c r="B131" s="106"/>
-      <c r="C131" s="106"/>
-      <c r="D131" s="93" t="s">
-        <v>261</v>
-      </c>
-      <c r="E131" s="120"/>
-      <c r="F131" s="102"/>
-      <c r="G131" s="30"/>
-      <c r="H131" s="32"/>
+        <v>126</v>
+      </c>
+      <c r="B131" s="107"/>
+      <c r="C131" s="107"/>
+      <c r="D131" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="E131" s="101"/>
+      <c r="F131" s="101"/>
+      <c r="G131" s="81"/>
+      <c r="H131" s="52"/>
     </row>
     <row r="132" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A132" s="88">
-        <v>125</v>
-      </c>
-      <c r="B132" s="105" t="s">
-        <v>262</v>
-      </c>
-      <c r="C132" s="105" t="s">
+        <v>127</v>
+      </c>
+      <c r="B132" s="106"/>
+      <c r="C132" s="106"/>
+      <c r="D132" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="D132" s="25" t="s">
-        <v>263</v>
-      </c>
-      <c r="E132" s="100"/>
-      <c r="F132" s="100" t="s">
-        <v>289</v>
-      </c>
+      <c r="E132" s="102"/>
+      <c r="F132" s="102"/>
       <c r="G132" s="81"/>
       <c r="H132" s="52"/>
     </row>
     <row r="133" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A133" s="88">
-        <v>126</v>
-      </c>
-      <c r="B133" s="107"/>
-      <c r="C133" s="107"/>
-      <c r="D133" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="B133" s="105" t="s">
+        <v>272</v>
+      </c>
+      <c r="C133" s="114" t="s">
         <v>265</v>
       </c>
-      <c r="E133" s="101"/>
-      <c r="F133" s="101"/>
-      <c r="G133" s="81"/>
-      <c r="H133" s="52"/>
+      <c r="D133" s="66" t="s">
+        <v>266</v>
+      </c>
+      <c r="E133" s="120"/>
+      <c r="F133" s="100" t="s">
+        <v>71</v>
+      </c>
+      <c r="G133" s="30"/>
+      <c r="H133" s="32"/>
     </row>
     <row r="134" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A134" s="88">
-        <v>127</v>
-      </c>
-      <c r="B134" s="106"/>
-      <c r="C134" s="106"/>
-      <c r="D134" s="25" t="s">
-        <v>266</v>
-      </c>
-      <c r="E134" s="102"/>
-      <c r="F134" s="102"/>
-      <c r="G134" s="81"/>
-      <c r="H134" s="52"/>
+        <v>129</v>
+      </c>
+      <c r="B134" s="107"/>
+      <c r="C134" s="121"/>
+      <c r="D134" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="E134" s="125"/>
+      <c r="F134" s="101"/>
+      <c r="G134" s="30"/>
+      <c r="H134" s="32"/>
     </row>
     <row r="135" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A135" s="88">
-        <v>128</v>
-      </c>
-      <c r="B135" s="105" t="s">
-        <v>274</v>
-      </c>
-      <c r="C135" s="114" t="s">
-        <v>267</v>
-      </c>
-      <c r="D135" s="66" t="s">
-        <v>268</v>
-      </c>
-      <c r="E135" s="120"/>
-      <c r="F135" s="100" t="s">
-        <v>71</v>
-      </c>
-      <c r="G135" s="30"/>
-      <c r="H135" s="32"/>
+        <v>130</v>
+      </c>
+      <c r="B135" s="107"/>
+      <c r="C135" s="121"/>
+      <c r="D135" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="E135" s="125"/>
+      <c r="F135" s="101"/>
+      <c r="G135" s="39"/>
+      <c r="H135" s="52"/>
     </row>
     <row r="136" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A136" s="88">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B136" s="107"/>
-      <c r="C136" s="121"/>
-      <c r="D136" s="66" t="s">
-        <v>269</v>
-      </c>
-      <c r="E136" s="125"/>
+      <c r="C136" s="114"/>
+      <c r="D136" s="65" t="s">
+        <v>268</v>
+      </c>
+      <c r="E136" s="120"/>
       <c r="F136" s="101"/>
       <c r="G136" s="30"/>
       <c r="H136" s="32"/>
     </row>
     <row r="137" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A137" s="88">
-        <v>130</v>
-      </c>
-      <c r="B137" s="107"/>
-      <c r="C137" s="121"/>
+        <v>132</v>
+      </c>
+      <c r="B137" s="106"/>
+      <c r="C137" s="114"/>
       <c r="D137" s="25" t="s">
-        <v>272</v>
-      </c>
-      <c r="E137" s="125"/>
-      <c r="F137" s="101"/>
-      <c r="G137" s="39"/>
-      <c r="H137" s="52"/>
+        <v>269</v>
+      </c>
+      <c r="E137" s="120"/>
+      <c r="F137" s="102"/>
+      <c r="G137" s="30"/>
+      <c r="H137" s="32"/>
     </row>
     <row r="138" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A138" s="88">
-        <v>131</v>
-      </c>
-      <c r="B138" s="107"/>
-      <c r="C138" s="114"/>
-      <c r="D138" s="65" t="s">
-        <v>270</v>
-      </c>
-      <c r="E138" s="120"/>
-      <c r="F138" s="101"/>
-      <c r="G138" s="30"/>
-      <c r="H138" s="32"/>
+        <v>133</v>
+      </c>
+      <c r="B138" s="105" t="s">
+        <v>277</v>
+      </c>
+      <c r="C138" s="105" t="s">
+        <v>273</v>
+      </c>
+      <c r="D138" s="95" t="s">
+        <v>276</v>
+      </c>
+      <c r="E138" s="100"/>
+      <c r="F138" s="100" t="s">
+        <v>288</v>
+      </c>
+      <c r="G138" s="81"/>
+      <c r="H138" s="52"/>
     </row>
     <row r="139" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A139" s="88">
-        <v>132</v>
-      </c>
-      <c r="B139" s="106"/>
-      <c r="C139" s="114"/>
-      <c r="D139" s="25" t="s">
-        <v>271</v>
-      </c>
-      <c r="E139" s="120"/>
-      <c r="F139" s="102"/>
-      <c r="G139" s="30"/>
-      <c r="H139" s="32"/>
+        <v>134</v>
+      </c>
+      <c r="B139" s="107"/>
+      <c r="C139" s="107"/>
+      <c r="D139" s="95" t="s">
+        <v>274</v>
+      </c>
+      <c r="E139" s="101"/>
+      <c r="F139" s="101"/>
+      <c r="G139" s="81"/>
+      <c r="H139" s="52"/>
     </row>
     <row r="140" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A140" s="88">
-        <v>133</v>
-      </c>
-      <c r="B140" s="105" t="s">
-        <v>279</v>
-      </c>
-      <c r="C140" s="105" t="s">
+        <v>135</v>
+      </c>
+      <c r="B140" s="106"/>
+      <c r="C140" s="106"/>
+      <c r="D140" s="95" t="s">
         <v>275</v>
       </c>
-      <c r="D140" s="95" t="s">
-        <v>278</v>
-      </c>
-      <c r="E140" s="100"/>
-      <c r="F140" s="100" t="s">
-        <v>290</v>
-      </c>
+      <c r="E140" s="102"/>
+      <c r="F140" s="102"/>
       <c r="G140" s="81"/>
       <c r="H140" s="52"/>
     </row>
     <row r="141" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A141" s="88">
-        <v>134</v>
-      </c>
-      <c r="B141" s="107"/>
-      <c r="C141" s="107"/>
+        <v>136</v>
+      </c>
+      <c r="B141" s="105" t="s">
+        <v>279</v>
+      </c>
+      <c r="C141" s="105" t="s">
+        <v>278</v>
+      </c>
       <c r="D141" s="95" t="s">
-        <v>276</v>
-      </c>
-      <c r="E141" s="101"/>
-      <c r="F141" s="101"/>
+        <v>280</v>
+      </c>
+      <c r="E141" s="100"/>
+      <c r="F141" s="100" t="s">
+        <v>245</v>
+      </c>
       <c r="G141" s="81"/>
       <c r="H141" s="52"/>
     </row>
     <row r="142" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A142" s="88">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B142" s="106"/>
       <c r="C142" s="106"/>
       <c r="D142" s="95" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="E142" s="102"/>
       <c r="F142" s="102"/>
@@ -12457,159 +12455,159 @@
       <c r="H142" s="52"/>
     </row>
     <row r="143" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A143" s="88">
-        <v>136</v>
-      </c>
-      <c r="B143" s="105" t="s">
-        <v>281</v>
-      </c>
-      <c r="C143" s="105" t="s">
-        <v>280</v>
-      </c>
-      <c r="D143" s="95" t="s">
-        <v>282</v>
-      </c>
-      <c r="E143" s="100"/>
-      <c r="F143" s="100" t="s">
-        <v>247</v>
-      </c>
-      <c r="G143" s="81"/>
-      <c r="H143" s="52"/>
+      <c r="A143" s="25"/>
+      <c r="B143" s="25"/>
+      <c r="C143" s="108" t="s">
+        <v>13</v>
+      </c>
+      <c r="D143" s="109"/>
+      <c r="E143" s="25"/>
+      <c r="F143" s="62"/>
+      <c r="G143" s="30"/>
+      <c r="H143" s="32"/>
     </row>
     <row r="144" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A144" s="88">
-        <v>137</v>
-      </c>
-      <c r="B144" s="106"/>
-      <c r="C144" s="106"/>
-      <c r="D144" s="95" t="s">
-        <v>283</v>
-      </c>
-      <c r="E144" s="102"/>
-      <c r="F144" s="102"/>
-      <c r="G144" s="81"/>
-      <c r="H144" s="52"/>
+      <c r="A144" s="100">
+        <v>138</v>
+      </c>
+      <c r="B144" s="105" t="s">
+        <v>227</v>
+      </c>
+      <c r="C144" s="105" t="s">
+        <v>225</v>
+      </c>
+      <c r="D144" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="E144" s="25"/>
+      <c r="F144" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="G144" s="30"/>
+      <c r="H144" s="32"/>
     </row>
     <row r="145" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A145" s="25"/>
-      <c r="B145" s="25"/>
-      <c r="C145" s="108" t="s">
-        <v>13</v>
-      </c>
-      <c r="D145" s="109"/>
+      <c r="A145" s="102"/>
+      <c r="B145" s="106"/>
+      <c r="C145" s="106"/>
+      <c r="D145" s="25" t="s">
+        <v>226</v>
+      </c>
       <c r="E145" s="25"/>
-      <c r="F145" s="62"/>
-      <c r="G145" s="30"/>
-      <c r="H145" s="32"/>
+      <c r="F145" s="80" t="s">
+        <v>245</v>
+      </c>
+      <c r="G145" s="81"/>
+      <c r="H145" s="52"/>
     </row>
     <row r="146" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A146" s="100">
-        <v>138</v>
-      </c>
-      <c r="B146" s="105" t="s">
+      <c r="A146" s="77">
+        <v>139</v>
+      </c>
+      <c r="B146" s="79" t="s">
+        <v>228</v>
+      </c>
+      <c r="C146" s="79" t="s">
         <v>229</v>
       </c>
-      <c r="C146" s="105" t="s">
-        <v>227</v>
-      </c>
       <c r="D146" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="E146" s="25"/>
+      <c r="F146" s="80" t="s">
+        <v>287</v>
+      </c>
+      <c r="G146" s="81"/>
+      <c r="H146" s="52"/>
+    </row>
+    <row r="147" spans="1:8" s="42" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A147" s="31">
+        <v>140</v>
+      </c>
+      <c r="B147" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="C147" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D147" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="E147" s="25"/>
+      <c r="F147" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="G147" s="30"/>
+      <c r="H147" s="32"/>
+    </row>
+    <row r="148" spans="1:8" s="42" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A148" s="76">
+        <v>141</v>
+      </c>
+      <c r="B148" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="C148" s="81" t="s">
         <v>221</v>
       </c>
-      <c r="E146" s="25"/>
-      <c r="F146" s="62" t="s">
-        <v>74</v>
-      </c>
-      <c r="G146" s="30"/>
-      <c r="H146" s="32"/>
-    </row>
-    <row r="147" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A147" s="102"/>
-      <c r="B147" s="106"/>
-      <c r="C147" s="106"/>
-      <c r="D147" s="25" t="s">
-        <v>228</v>
-      </c>
-      <c r="E147" s="25"/>
-      <c r="F147" s="80" t="s">
-        <v>247</v>
-      </c>
-      <c r="G147" s="81"/>
-      <c r="H147" s="52"/>
-    </row>
-    <row r="148" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A148" s="77">
-        <v>139</v>
-      </c>
-      <c r="B148" s="79" t="s">
-        <v>230</v>
-      </c>
-      <c r="C148" s="79" t="s">
-        <v>231</v>
-      </c>
       <c r="D148" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="E148" s="25"/>
-      <c r="F148" s="80" t="s">
-        <v>289</v>
-      </c>
-      <c r="G148" s="81"/>
-      <c r="H148" s="52"/>
-    </row>
-    <row r="149" spans="1:8" s="42" customFormat="1" ht="24.75" customHeight="1">
+        <v>222</v>
+      </c>
+      <c r="E148" s="80"/>
+      <c r="F148" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="G148" s="30"/>
+      <c r="H148" s="32"/>
+    </row>
+    <row r="149" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A149" s="31">
-        <v>140</v>
-      </c>
-      <c r="B149" s="30" t="s">
-        <v>233</v>
-      </c>
-      <c r="C149" s="30" t="s">
-        <v>222</v>
+        <v>142</v>
+      </c>
+      <c r="B149" s="105" t="s">
+        <v>52</v>
+      </c>
+      <c r="C149" s="114" t="s">
+        <v>223</v>
       </c>
       <c r="D149" s="25" t="s">
-        <v>288</v>
-      </c>
-      <c r="E149" s="25"/>
-      <c r="F149" s="62" t="s">
+        <v>224</v>
+      </c>
+      <c r="E149" s="120"/>
+      <c r="F149" s="100" t="s">
         <v>71</v>
       </c>
       <c r="G149" s="30"/>
       <c r="H149" s="32"/>
     </row>
-    <row r="150" spans="1:8" s="42" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A150" s="76">
-        <v>141</v>
-      </c>
-      <c r="B150" s="78" t="s">
-        <v>51</v>
-      </c>
-      <c r="C150" s="81" t="s">
-        <v>223</v>
-      </c>
-      <c r="D150" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="E150" s="80"/>
-      <c r="F150" s="76" t="s">
-        <v>71</v>
-      </c>
+    <row r="150" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A150" s="31">
+        <v>143</v>
+      </c>
+      <c r="B150" s="106"/>
+      <c r="C150" s="114"/>
+      <c r="D150" s="66" t="s">
+        <v>246</v>
+      </c>
+      <c r="E150" s="120"/>
+      <c r="F150" s="102"/>
       <c r="G150" s="30"/>
       <c r="H150" s="32"/>
     </row>
     <row r="151" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A151" s="31">
-        <v>142</v>
+      <c r="A151" s="100">
+        <v>144</v>
       </c>
       <c r="B151" s="105" t="s">
-        <v>52</v>
-      </c>
-      <c r="C151" s="114" t="s">
-        <v>225</v>
-      </c>
-      <c r="D151" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="E151" s="120"/>
+        <v>282</v>
+      </c>
+      <c r="C151" s="121" t="s">
+        <v>232</v>
+      </c>
+      <c r="D151" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="E151" s="125"/>
       <c r="F151" s="100" t="s">
         <v>71</v>
       </c>
@@ -12617,81 +12615,71 @@
       <c r="H151" s="32"/>
     </row>
     <row r="152" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A152" s="31">
-        <v>143</v>
-      </c>
-      <c r="B152" s="106"/>
-      <c r="C152" s="114"/>
-      <c r="D152" s="66" t="s">
-        <v>248</v>
-      </c>
-      <c r="E152" s="120"/>
-      <c r="F152" s="102"/>
-      <c r="G152" s="30"/>
-      <c r="H152" s="32"/>
+      <c r="A152" s="101"/>
+      <c r="B152" s="107"/>
+      <c r="C152" s="121"/>
+      <c r="D152" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E152" s="125"/>
+      <c r="F152" s="101"/>
+      <c r="G152" s="39"/>
+      <c r="H152" s="52"/>
     </row>
     <row r="153" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A153" s="100">
-        <v>144</v>
-      </c>
-      <c r="B153" s="105" t="s">
-        <v>284</v>
-      </c>
-      <c r="C153" s="121" t="s">
-        <v>234</v>
-      </c>
-      <c r="D153" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="E153" s="125"/>
-      <c r="F153" s="100" t="s">
-        <v>71</v>
-      </c>
+      <c r="A153" s="101"/>
+      <c r="B153" s="107"/>
+      <c r="C153" s="114"/>
+      <c r="D153" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="E153" s="120"/>
+      <c r="F153" s="101"/>
       <c r="G153" s="30"/>
       <c r="H153" s="32"/>
     </row>
     <row r="154" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A154" s="101"/>
       <c r="B154" s="107"/>
-      <c r="C154" s="121"/>
-      <c r="D154" s="65" t="s">
-        <v>69</v>
-      </c>
-      <c r="E154" s="125"/>
+      <c r="C154" s="114"/>
+      <c r="D154" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E154" s="120"/>
       <c r="F154" s="101"/>
-      <c r="G154" s="39"/>
-      <c r="H154" s="52"/>
+      <c r="G154" s="30"/>
+      <c r="H154" s="32"/>
     </row>
     <row r="155" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A155" s="101"/>
       <c r="B155" s="107"/>
       <c r="C155" s="114"/>
-      <c r="D155" s="65" t="s">
-        <v>0</v>
+      <c r="D155" s="25" t="s">
+        <v>57</v>
       </c>
       <c r="E155" s="120"/>
       <c r="F155" s="101"/>
       <c r="G155" s="30"/>
       <c r="H155" s="32"/>
     </row>
-    <row r="156" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+    <row r="156" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A156" s="101"/>
       <c r="B156" s="107"/>
       <c r="C156" s="114"/>
       <c r="D156" s="25" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E156" s="120"/>
       <c r="F156" s="101"/>
       <c r="G156" s="30"/>
       <c r="H156" s="32"/>
     </row>
-    <row r="157" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+    <row r="157" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A157" s="101"/>
       <c r="B157" s="107"/>
       <c r="C157" s="114"/>
       <c r="D157" s="25" t="s">
-        <v>57</v>
+        <v>304</v>
       </c>
       <c r="E157" s="120"/>
       <c r="F157" s="101"/>
@@ -12699,26 +12687,34 @@
       <c r="H157" s="32"/>
     </row>
     <row r="158" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A158" s="101"/>
-      <c r="B158" s="107"/>
+      <c r="A158" s="102"/>
+      <c r="B158" s="106"/>
       <c r="C158" s="114"/>
       <c r="D158" s="25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E158" s="120"/>
-      <c r="F158" s="101"/>
+      <c r="F158" s="102"/>
       <c r="G158" s="30"/>
       <c r="H158" s="32"/>
     </row>
     <row r="159" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A159" s="101"/>
-      <c r="B159" s="107"/>
-      <c r="C159" s="114"/>
+      <c r="A159" s="100">
+        <v>145</v>
+      </c>
+      <c r="B159" s="105" t="s">
+        <v>283</v>
+      </c>
+      <c r="C159" s="114" t="s">
+        <v>284</v>
+      </c>
       <c r="D159" s="25" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="E159" s="120"/>
-      <c r="F159" s="101"/>
+      <c r="F159" s="100" t="s">
+        <v>73</v>
+      </c>
       <c r="G159" s="30"/>
       <c r="H159" s="32"/>
     </row>
@@ -12726,8 +12722,8 @@
       <c r="A160" s="102"/>
       <c r="B160" s="106"/>
       <c r="C160" s="114"/>
-      <c r="D160" s="25" t="s">
-        <v>59</v>
+      <c r="D160" s="96" t="s">
+        <v>289</v>
       </c>
       <c r="E160" s="120"/>
       <c r="F160" s="102"/>
@@ -12735,304 +12731,292 @@
       <c r="H160" s="32"/>
     </row>
     <row r="161" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A161" s="100">
-        <v>145</v>
-      </c>
-      <c r="B161" s="105" t="s">
-        <v>285</v>
-      </c>
-      <c r="C161" s="114" t="s">
-        <v>286</v>
-      </c>
-      <c r="D161" s="25" t="s">
-        <v>287</v>
-      </c>
-      <c r="E161" s="120"/>
-      <c r="F161" s="100" t="s">
-        <v>73</v>
-      </c>
+      <c r="A161" s="22"/>
+      <c r="B161" s="30"/>
+      <c r="C161" s="108" t="s">
+        <v>33</v>
+      </c>
+      <c r="D161" s="109"/>
+      <c r="E161" s="22"/>
+      <c r="F161" s="62"/>
       <c r="G161" s="30"/>
       <c r="H161" s="32"/>
     </row>
     <row r="162" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A162" s="102"/>
-      <c r="B162" s="106"/>
-      <c r="C162" s="114"/>
-      <c r="D162" s="96" t="s">
+      <c r="A162" s="31">
+        <v>146</v>
+      </c>
+      <c r="B162" s="30" t="s">
+        <v>294</v>
+      </c>
+      <c r="C162" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="D162" s="24" t="s">
         <v>291</v>
       </c>
-      <c r="E162" s="120"/>
-      <c r="F162" s="102"/>
+      <c r="E162" s="25"/>
+      <c r="F162" s="62" t="s">
+        <v>75</v>
+      </c>
       <c r="G162" s="30"/>
       <c r="H162" s="32"/>
     </row>
     <row r="163" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A163" s="22"/>
-      <c r="B163" s="30"/>
-      <c r="C163" s="108" t="s">
-        <v>33</v>
-      </c>
-      <c r="D163" s="109"/>
-      <c r="E163" s="22"/>
-      <c r="F163" s="62"/>
+      <c r="A163" s="31">
+        <v>147</v>
+      </c>
+      <c r="B163" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="C163" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="D163" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="E163" s="25"/>
+      <c r="F163" s="62" t="s">
+        <v>71</v>
+      </c>
       <c r="G163" s="30"/>
       <c r="H163" s="32"/>
     </row>
-    <row r="164" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A164" s="31">
-        <v>146</v>
+    <row r="164" spans="1:8" s="43" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A164" s="74">
+        <v>148</v>
       </c>
       <c r="B164" s="30" t="s">
         <v>296</v>
       </c>
       <c r="C164" s="30" t="s">
-        <v>292</v>
-      </c>
-      <c r="D164" s="24" t="s">
-        <v>293</v>
+        <v>297</v>
+      </c>
+      <c r="D164" s="25" t="s">
+        <v>298</v>
       </c>
       <c r="E164" s="25"/>
       <c r="F164" s="62" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G164" s="30"/>
       <c r="H164" s="32"/>
     </row>
     <row r="165" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A165" s="31">
-        <v>147</v>
-      </c>
-      <c r="B165" s="30" t="s">
-        <v>295</v>
-      </c>
-      <c r="C165" s="30" t="s">
-        <v>294</v>
+      <c r="A165" s="74">
+        <v>149</v>
+      </c>
+      <c r="B165" s="105" t="s">
+        <v>301</v>
+      </c>
+      <c r="C165" s="114" t="s">
+        <v>299</v>
       </c>
       <c r="D165" s="25" t="s">
-        <v>297</v>
-      </c>
-      <c r="E165" s="25"/>
-      <c r="F165" s="62" t="s">
-        <v>71</v>
+        <v>302</v>
+      </c>
+      <c r="E165" s="120"/>
+      <c r="F165" s="100" t="s">
+        <v>76</v>
       </c>
       <c r="G165" s="30"/>
       <c r="H165" s="32"/>
     </row>
-    <row r="166" spans="1:8" s="43" customFormat="1" ht="31.5" customHeight="1">
+    <row r="166" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A166" s="74">
-        <v>148</v>
-      </c>
-      <c r="B166" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="C166" s="30" t="s">
-        <v>299</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="B166" s="107"/>
+      <c r="C166" s="114"/>
       <c r="D166" s="25" t="s">
-        <v>300</v>
-      </c>
-      <c r="E166" s="25"/>
-      <c r="F166" s="62" t="s">
-        <v>71</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="E166" s="120"/>
+      <c r="F166" s="101"/>
       <c r="G166" s="30"/>
       <c r="H166" s="32"/>
     </row>
     <row r="167" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A167" s="74">
-        <v>149</v>
-      </c>
-      <c r="B167" s="105" t="s">
-        <v>303</v>
-      </c>
-      <c r="C167" s="114" t="s">
-        <v>301</v>
-      </c>
+      <c r="A167" s="88">
+        <v>151</v>
+      </c>
+      <c r="B167" s="107"/>
+      <c r="C167" s="114"/>
       <c r="D167" s="25" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E167" s="120"/>
-      <c r="F167" s="100" t="s">
-        <v>76</v>
-      </c>
+      <c r="F167" s="101"/>
       <c r="G167" s="30"/>
       <c r="H167" s="32"/>
     </row>
     <row r="168" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A168" s="74">
-        <v>150</v>
-      </c>
-      <c r="B168" s="107"/>
+      <c r="A168" s="88">
+        <v>152</v>
+      </c>
+      <c r="B168" s="106"/>
       <c r="C168" s="114"/>
       <c r="D168" s="25" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="E168" s="120"/>
-      <c r="F168" s="101"/>
+      <c r="F168" s="102"/>
       <c r="G168" s="30"/>
       <c r="H168" s="32"/>
     </row>
     <row r="169" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A169" s="88">
-        <v>151</v>
-      </c>
-      <c r="B169" s="107"/>
-      <c r="C169" s="114"/>
-      <c r="D169" s="25" t="s">
-        <v>307</v>
-      </c>
-      <c r="E169" s="120"/>
-      <c r="F169" s="101"/>
-      <c r="G169" s="30"/>
-      <c r="H169" s="32"/>
+      <c r="A169" s="80"/>
+      <c r="B169" s="81"/>
+      <c r="C169" s="108" t="s">
+        <v>300</v>
+      </c>
+      <c r="D169" s="109"/>
+      <c r="E169" s="80"/>
+      <c r="F169" s="80"/>
+      <c r="G169" s="81"/>
+      <c r="H169" s="52"/>
     </row>
     <row r="170" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A170" s="88">
-        <v>152</v>
-      </c>
-      <c r="B170" s="106"/>
-      <c r="C170" s="114"/>
+      <c r="A170" s="80">
+        <v>153</v>
+      </c>
+      <c r="B170" s="105" t="s">
+        <v>242</v>
+      </c>
+      <c r="C170" s="105" t="s">
+        <v>243</v>
+      </c>
       <c r="D170" s="25" t="s">
-        <v>323</v>
-      </c>
-      <c r="E170" s="120"/>
-      <c r="F170" s="102"/>
-      <c r="G170" s="30"/>
-      <c r="H170" s="32"/>
+        <v>244</v>
+      </c>
+      <c r="E170" s="100"/>
+      <c r="F170" s="100" t="s">
+        <v>245</v>
+      </c>
+      <c r="G170" s="81"/>
+      <c r="H170" s="52"/>
     </row>
     <row r="171" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A171" s="80"/>
-      <c r="B171" s="81"/>
-      <c r="C171" s="108" t="s">
-        <v>302</v>
-      </c>
-      <c r="D171" s="109"/>
-      <c r="E171" s="80"/>
-      <c r="F171" s="80"/>
+      <c r="A171" s="51">
+        <v>154</v>
+      </c>
+      <c r="B171" s="107"/>
+      <c r="C171" s="107"/>
+      <c r="D171" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E171" s="101"/>
+      <c r="F171" s="101"/>
       <c r="G171" s="81"/>
       <c r="H171" s="52"/>
     </row>
     <row r="172" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A172" s="80">
-        <v>153</v>
-      </c>
-      <c r="B172" s="105" t="s">
-        <v>244</v>
-      </c>
-      <c r="C172" s="105" t="s">
-        <v>245</v>
-      </c>
+      <c r="A172" s="51">
+        <v>155</v>
+      </c>
+      <c r="B172" s="106"/>
+      <c r="C172" s="106"/>
       <c r="D172" s="25" t="s">
-        <v>246</v>
-      </c>
-      <c r="E172" s="100"/>
-      <c r="F172" s="100" t="s">
-        <v>247</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E172" s="102"/>
+      <c r="F172" s="102"/>
       <c r="G172" s="81"/>
       <c r="H172" s="52"/>
     </row>
     <row r="173" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A173" s="51">
-        <v>154</v>
-      </c>
-      <c r="B173" s="107"/>
-      <c r="C173" s="107"/>
-      <c r="D173" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E173" s="101"/>
-      <c r="F173" s="101"/>
+      <c r="A173" s="80"/>
+      <c r="B173" s="81"/>
+      <c r="C173" s="108" t="s">
+        <v>247</v>
+      </c>
+      <c r="D173" s="109"/>
+      <c r="E173" s="80"/>
+      <c r="F173" s="80"/>
       <c r="G173" s="81"/>
       <c r="H173" s="52"/>
     </row>
     <row r="174" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A174" s="51">
-        <v>155</v>
-      </c>
-      <c r="B174" s="106"/>
-      <c r="C174" s="106"/>
+      <c r="A174" s="80">
+        <v>156</v>
+      </c>
+      <c r="B174" s="81" t="s">
+        <v>248</v>
+      </c>
+      <c r="C174" s="81" t="s">
+        <v>249</v>
+      </c>
       <c r="D174" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E174" s="102"/>
-      <c r="F174" s="102"/>
+        <v>255</v>
+      </c>
+      <c r="E174" s="100"/>
+      <c r="F174" s="80" t="s">
+        <v>245</v>
+      </c>
       <c r="G174" s="81"/>
       <c r="H174" s="52"/>
     </row>
-    <row r="175" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A175" s="80"/>
-      <c r="B175" s="81"/>
-      <c r="C175" s="108" t="s">
-        <v>249</v>
-      </c>
-      <c r="D175" s="109"/>
-      <c r="E175" s="80"/>
-      <c r="F175" s="80"/>
-      <c r="G175" s="81"/>
-      <c r="H175" s="52"/>
-    </row>
-    <row r="176" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+    <row r="175" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="A175" s="90">
+        <v>157</v>
+      </c>
+      <c r="B175" s="112" t="s">
+        <v>251</v>
+      </c>
+      <c r="C175" s="110" t="s">
+        <v>250</v>
+      </c>
+      <c r="D175" s="92" t="s">
+        <v>252</v>
+      </c>
+      <c r="E175" s="101"/>
+      <c r="F175" s="90" t="s">
+        <v>245</v>
+      </c>
+      <c r="G175" s="91"/>
+      <c r="H175" s="91"/>
+    </row>
+    <row r="176" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
       <c r="A176" s="80">
-        <v>156</v>
-      </c>
-      <c r="B176" s="81" t="s">
-        <v>250</v>
-      </c>
-      <c r="C176" s="81" t="s">
-        <v>251</v>
-      </c>
-      <c r="D176" s="25" t="s">
-        <v>257</v>
-      </c>
-      <c r="E176" s="100"/>
-      <c r="F176" s="80" t="s">
-        <v>247</v>
-      </c>
-      <c r="G176" s="81"/>
-      <c r="H176" s="52"/>
+        <v>158</v>
+      </c>
+      <c r="B176" s="113"/>
+      <c r="C176" s="111"/>
+      <c r="D176" s="92" t="s">
+        <v>253</v>
+      </c>
+      <c r="E176" s="102"/>
+      <c r="F176" s="90" t="s">
+        <v>254</v>
+      </c>
+      <c r="G176" s="91"/>
+      <c r="H176" s="91"/>
     </row>
     <row r="177" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A177" s="90">
-        <v>157</v>
-      </c>
-      <c r="B177" s="112" t="s">
-        <v>253</v>
-      </c>
-      <c r="C177" s="110" t="s">
-        <v>252</v>
-      </c>
-      <c r="D177" s="92" t="s">
-        <v>254</v>
-      </c>
-      <c r="E177" s="101"/>
-      <c r="F177" s="90" t="s">
-        <v>247</v>
-      </c>
-      <c r="G177" s="91"/>
-      <c r="H177" s="91"/>
+      <c r="A177" s="53"/>
+      <c r="B177" s="54"/>
+      <c r="C177" s="55"/>
+      <c r="D177" s="57"/>
+      <c r="E177" s="56"/>
+      <c r="F177" s="53"/>
+      <c r="G177" s="54"/>
+      <c r="H177" s="54"/>
     </row>
     <row r="178" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A178" s="80">
-        <v>158</v>
-      </c>
-      <c r="B178" s="113"/>
-      <c r="C178" s="111"/>
-      <c r="D178" s="92" t="s">
-        <v>255</v>
-      </c>
-      <c r="E178" s="102"/>
-      <c r="F178" s="90" t="s">
-        <v>256</v>
-      </c>
-      <c r="G178" s="91"/>
-      <c r="H178" s="91"/>
+      <c r="A178" s="53"/>
+      <c r="B178" s="54"/>
+      <c r="C178" s="55"/>
+      <c r="D178" s="56"/>
+      <c r="E178" s="56"/>
+      <c r="F178" s="53"/>
+      <c r="G178" s="54"/>
+      <c r="H178" s="54"/>
     </row>
     <row r="179" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
       <c r="A179" s="53"/>
       <c r="B179" s="54"/>
       <c r="C179" s="55"/>
-      <c r="D179" s="57"/>
+      <c r="D179" s="59"/>
       <c r="E179" s="56"/>
       <c r="F179" s="53"/>
       <c r="G179" s="54"/>
@@ -13042,7 +13026,7 @@
       <c r="A180" s="53"/>
       <c r="B180" s="54"/>
       <c r="C180" s="55"/>
-      <c r="D180" s="56"/>
+      <c r="D180" s="60"/>
       <c r="E180" s="56"/>
       <c r="F180" s="53"/>
       <c r="G180" s="54"/>
@@ -13052,7 +13036,7 @@
       <c r="A181" s="53"/>
       <c r="B181" s="54"/>
       <c r="C181" s="55"/>
-      <c r="D181" s="59"/>
+      <c r="D181" s="55"/>
       <c r="E181" s="56"/>
       <c r="F181" s="53"/>
       <c r="G181" s="54"/>
@@ -13062,7 +13046,7 @@
       <c r="A182" s="53"/>
       <c r="B182" s="54"/>
       <c r="C182" s="55"/>
-      <c r="D182" s="60"/>
+      <c r="D182" s="56"/>
       <c r="E182" s="56"/>
       <c r="F182" s="53"/>
       <c r="G182" s="54"/>
@@ -13082,7 +13066,7 @@
       <c r="A184" s="53"/>
       <c r="B184" s="54"/>
       <c r="C184" s="55"/>
-      <c r="D184" s="56"/>
+      <c r="D184" s="55"/>
       <c r="E184" s="56"/>
       <c r="F184" s="53"/>
       <c r="G184" s="54"/>
@@ -13091,42 +13075,32 @@
     <row r="185" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
       <c r="A185" s="53"/>
       <c r="B185" s="54"/>
-      <c r="C185" s="55"/>
-      <c r="D185" s="55"/>
-      <c r="E185" s="56"/>
+      <c r="C185" s="58"/>
+      <c r="D185" s="56"/>
+      <c r="E185" s="53"/>
       <c r="F185" s="53"/>
       <c r="G185" s="54"/>
       <c r="H185" s="54"/>
     </row>
     <row r="186" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A186" s="53"/>
-      <c r="B186" s="54"/>
+      <c r="A186" s="55"/>
+      <c r="B186" s="55"/>
       <c r="C186" s="55"/>
-      <c r="D186" s="55"/>
-      <c r="E186" s="56"/>
-      <c r="F186" s="53"/>
-      <c r="G186" s="54"/>
-      <c r="H186" s="54"/>
+      <c r="D186" s="61"/>
+      <c r="E186" s="55"/>
+      <c r="F186" s="58"/>
+      <c r="G186" s="55"/>
+      <c r="H186" s="55"/>
     </row>
     <row r="187" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A187" s="53"/>
-      <c r="B187" s="54"/>
-      <c r="C187" s="58"/>
-      <c r="D187" s="56"/>
-      <c r="E187" s="53"/>
-      <c r="F187" s="53"/>
-      <c r="G187" s="54"/>
-      <c r="H187" s="54"/>
+      <c r="C187" s="55"/>
+      <c r="D187" s="45"/>
+      <c r="F187" s="67"/>
     </row>
     <row r="188" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A188" s="55"/>
-      <c r="B188" s="55"/>
       <c r="C188" s="55"/>
-      <c r="D188" s="61"/>
-      <c r="E188" s="55"/>
-      <c r="F188" s="58"/>
-      <c r="G188" s="55"/>
-      <c r="H188" s="55"/>
+      <c r="D188" s="45"/>
+      <c r="F188" s="67"/>
     </row>
     <row r="189" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
       <c r="C189" s="55"/>
@@ -13139,12 +13113,10 @@
       <c r="F190" s="67"/>
     </row>
     <row r="191" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="C191" s="55"/>
       <c r="D191" s="45"/>
       <c r="F191" s="67"/>
     </row>
     <row r="192" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="C192" s="55"/>
       <c r="D192" s="45"/>
       <c r="F192" s="67"/>
     </row>
@@ -13152,11 +13124,11 @@
       <c r="D193" s="45"/>
       <c r="F193" s="67"/>
     </row>
-    <row r="194" spans="4:6" s="44" customFormat="1" ht="18" customHeight="1">
+    <row r="194" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
       <c r="D194" s="45"/>
       <c r="F194" s="67"/>
     </row>
-    <row r="195" spans="4:6" s="44" customFormat="1" ht="18" customHeight="1">
+    <row r="195" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
       <c r="D195" s="45"/>
       <c r="F195" s="67"/>
     </row>
@@ -13176,69 +13148,61 @@
       <c r="D199" s="45"/>
       <c r="F199" s="67"/>
     </row>
-    <row r="200" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
-      <c r="D200" s="45"/>
-      <c r="F200" s="67"/>
+    <row r="200" spans="4:6" s="46" customFormat="1" ht="26.25" customHeight="1">
+      <c r="D200" s="47"/>
+      <c r="F200" s="68"/>
     </row>
     <row r="201" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
       <c r="D201" s="45"/>
       <c r="F201" s="67"/>
     </row>
-    <row r="202" spans="4:6" s="46" customFormat="1" ht="26.25" customHeight="1">
-      <c r="D202" s="47"/>
-      <c r="F202" s="68"/>
+    <row r="202" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
+      <c r="D202" s="45"/>
+      <c r="F202" s="67"/>
     </row>
     <row r="203" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
       <c r="D203" s="45"/>
       <c r="F203" s="67"/>
     </row>
-    <row r="204" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
-      <c r="D204" s="45"/>
-      <c r="F204" s="67"/>
-    </row>
-    <row r="205" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
-      <c r="D205" s="45"/>
-      <c r="F205" s="67"/>
-    </row>
   </sheetData>
   <mergeCells count="155">
-    <mergeCell ref="B56:B62"/>
-    <mergeCell ref="C56:C62"/>
-    <mergeCell ref="E56:E62"/>
-    <mergeCell ref="F56:F62"/>
-    <mergeCell ref="B63:B72"/>
-    <mergeCell ref="C63:C72"/>
-    <mergeCell ref="E63:E72"/>
-    <mergeCell ref="F63:F72"/>
-    <mergeCell ref="B85:B88"/>
-    <mergeCell ref="C85:C88"/>
-    <mergeCell ref="E85:E88"/>
-    <mergeCell ref="F85:F88"/>
-    <mergeCell ref="C73:C84"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="C45:C49"/>
-    <mergeCell ref="E45:E49"/>
-    <mergeCell ref="F45:F49"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="E50:E53"/>
-    <mergeCell ref="F50:F53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="B54:B60"/>
+    <mergeCell ref="C54:C60"/>
+    <mergeCell ref="E54:E60"/>
+    <mergeCell ref="F54:F60"/>
+    <mergeCell ref="B61:B70"/>
+    <mergeCell ref="C61:C70"/>
+    <mergeCell ref="E61:E70"/>
+    <mergeCell ref="F61:F70"/>
+    <mergeCell ref="B83:B86"/>
+    <mergeCell ref="C83:C86"/>
+    <mergeCell ref="E83:E86"/>
+    <mergeCell ref="F83:F86"/>
+    <mergeCell ref="C71:C82"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="E43:E47"/>
+    <mergeCell ref="F43:F47"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="E48:E51"/>
+    <mergeCell ref="F48:F51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
     <mergeCell ref="B27:B32"/>
     <mergeCell ref="C27:C32"/>
     <mergeCell ref="E27:E32"/>
     <mergeCell ref="F27:F32"/>
-    <mergeCell ref="B33:B39"/>
-    <mergeCell ref="C33:C39"/>
-    <mergeCell ref="E33:E39"/>
-    <mergeCell ref="F33:F39"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="C40:C44"/>
-    <mergeCell ref="E40:E44"/>
-    <mergeCell ref="F40:F44"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="C33:C37"/>
+    <mergeCell ref="E33:E37"/>
+    <mergeCell ref="F33:F37"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="F38:F42"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="E9:E11"/>
@@ -13264,99 +13228,99 @@
     <mergeCell ref="E16:E21"/>
     <mergeCell ref="F16:F21"/>
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="E113:E114"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F100:F106"/>
-    <mergeCell ref="B73:B84"/>
-    <mergeCell ref="B89:B96"/>
-    <mergeCell ref="B97:B99"/>
-    <mergeCell ref="C151:C152"/>
-    <mergeCell ref="E119:E121"/>
-    <mergeCell ref="E123:E126"/>
-    <mergeCell ref="E129:E131"/>
-    <mergeCell ref="E135:E139"/>
-    <mergeCell ref="E151:E152"/>
-    <mergeCell ref="B100:B107"/>
-    <mergeCell ref="F129:F131"/>
-    <mergeCell ref="F135:F139"/>
-    <mergeCell ref="F151:F152"/>
+    <mergeCell ref="F98:F104"/>
+    <mergeCell ref="B71:B82"/>
+    <mergeCell ref="B87:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="C149:C150"/>
+    <mergeCell ref="E117:E119"/>
+    <mergeCell ref="E121:E124"/>
+    <mergeCell ref="E127:E129"/>
+    <mergeCell ref="E133:E137"/>
+    <mergeCell ref="E149:E150"/>
+    <mergeCell ref="B98:B105"/>
+    <mergeCell ref="F127:F129"/>
+    <mergeCell ref="F133:F137"/>
+    <mergeCell ref="F149:F150"/>
+    <mergeCell ref="F113:F114"/>
     <mergeCell ref="F115:F116"/>
-    <mergeCell ref="F117:F118"/>
-    <mergeCell ref="F119:F121"/>
-    <mergeCell ref="F123:F126"/>
-    <mergeCell ref="F140:F142"/>
-    <mergeCell ref="F143:F144"/>
-    <mergeCell ref="F73:F84"/>
-    <mergeCell ref="E89:E96"/>
-    <mergeCell ref="F89:F96"/>
-    <mergeCell ref="E97:E99"/>
-    <mergeCell ref="F97:F99"/>
-    <mergeCell ref="C129:C131"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="C163:D163"/>
-    <mergeCell ref="C145:D145"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="C132:C134"/>
-    <mergeCell ref="C140:C142"/>
-    <mergeCell ref="C143:C144"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="F117:F119"/>
+    <mergeCell ref="F121:F124"/>
+    <mergeCell ref="F138:F140"/>
+    <mergeCell ref="F141:F142"/>
+    <mergeCell ref="F71:F82"/>
+    <mergeCell ref="E87:E94"/>
+    <mergeCell ref="F87:F94"/>
+    <mergeCell ref="E95:E97"/>
+    <mergeCell ref="F95:F97"/>
+    <mergeCell ref="C127:C129"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="C161:D161"/>
+    <mergeCell ref="C143:D143"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="C130:C132"/>
+    <mergeCell ref="C138:C140"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C126:D126"/>
     <mergeCell ref="C115:C116"/>
-    <mergeCell ref="C119:C121"/>
-    <mergeCell ref="C123:C126"/>
-    <mergeCell ref="E161:E162"/>
-    <mergeCell ref="C161:C162"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="C135:C139"/>
-    <mergeCell ref="C100:C107"/>
-    <mergeCell ref="C175:D175"/>
-    <mergeCell ref="C177:C178"/>
-    <mergeCell ref="B177:B178"/>
-    <mergeCell ref="C167:C170"/>
-    <mergeCell ref="E176:E178"/>
-    <mergeCell ref="C97:C99"/>
-    <mergeCell ref="C89:C96"/>
-    <mergeCell ref="C108:C112"/>
-    <mergeCell ref="E73:E84"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="B153:B160"/>
-    <mergeCell ref="B132:B134"/>
-    <mergeCell ref="B140:B142"/>
-    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="C117:C119"/>
+    <mergeCell ref="C121:C124"/>
+    <mergeCell ref="E159:E160"/>
+    <mergeCell ref="C159:C160"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="C133:C137"/>
+    <mergeCell ref="C98:C105"/>
+    <mergeCell ref="C173:D173"/>
+    <mergeCell ref="C175:C176"/>
+    <mergeCell ref="B175:B176"/>
+    <mergeCell ref="C165:C168"/>
+    <mergeCell ref="E174:E176"/>
+    <mergeCell ref="C95:C97"/>
+    <mergeCell ref="C87:C94"/>
+    <mergeCell ref="C106:C110"/>
+    <mergeCell ref="E71:E82"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="B151:B158"/>
+    <mergeCell ref="B130:B132"/>
+    <mergeCell ref="B138:B140"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="B113:B114"/>
     <mergeCell ref="B115:B116"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="B119:B121"/>
-    <mergeCell ref="B108:B112"/>
-    <mergeCell ref="E167:E170"/>
-    <mergeCell ref="E100:E107"/>
-    <mergeCell ref="C153:C160"/>
-    <mergeCell ref="E153:E160"/>
-    <mergeCell ref="B167:B170"/>
-    <mergeCell ref="B123:B126"/>
-    <mergeCell ref="B129:B131"/>
-    <mergeCell ref="B135:B139"/>
-    <mergeCell ref="B172:B174"/>
-    <mergeCell ref="C172:C174"/>
-    <mergeCell ref="E172:E174"/>
-    <mergeCell ref="F172:F174"/>
-    <mergeCell ref="A153:A160"/>
-    <mergeCell ref="C171:D171"/>
-    <mergeCell ref="F161:F162"/>
-    <mergeCell ref="F167:F170"/>
-    <mergeCell ref="F153:F160"/>
-    <mergeCell ref="F132:F134"/>
-    <mergeCell ref="E132:E134"/>
-    <mergeCell ref="E140:E142"/>
-    <mergeCell ref="E143:E144"/>
-    <mergeCell ref="E108:E112"/>
-    <mergeCell ref="F108:F112"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="A161:A162"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="B146:B147"/>
-    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B106:B110"/>
+    <mergeCell ref="E165:E168"/>
+    <mergeCell ref="E98:E105"/>
+    <mergeCell ref="C151:C158"/>
+    <mergeCell ref="E151:E158"/>
+    <mergeCell ref="B165:B168"/>
+    <mergeCell ref="B121:B124"/>
+    <mergeCell ref="B127:B129"/>
+    <mergeCell ref="B133:B137"/>
+    <mergeCell ref="B170:B172"/>
+    <mergeCell ref="C170:C172"/>
+    <mergeCell ref="E170:E172"/>
+    <mergeCell ref="F170:F172"/>
+    <mergeCell ref="A151:A158"/>
+    <mergeCell ref="C169:D169"/>
+    <mergeCell ref="F159:F160"/>
+    <mergeCell ref="F165:F168"/>
+    <mergeCell ref="F151:F158"/>
+    <mergeCell ref="F130:F132"/>
+    <mergeCell ref="E130:E132"/>
+    <mergeCell ref="E138:E140"/>
+    <mergeCell ref="E141:E142"/>
+    <mergeCell ref="E106:E110"/>
+    <mergeCell ref="F106:F110"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="A159:A160"/>
+    <mergeCell ref="A144:A145"/>
+    <mergeCell ref="B144:B145"/>
+    <mergeCell ref="B159:B160"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/문서 관리/01. 요구사항명세서.xlsx
+++ b/문서 관리/01. 요구사항명세서.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="329">
   <si>
     <t>계약 상대자는 제반 프로그램이 고품질을 유지할 수 있도록 최선의 노력을 다하여야 함</t>
   </si>
@@ -598,10 +598,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>고객지원</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>회원탈퇴</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -734,14 +730,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>FAQ, 자주찾는질문에 대한 답변 제공</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>서비스 이용 불만사항 건의 및 불량 사용자에 대한 신고 기능 제공</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>통계 항목에 대한 엑셀 및 그래프, 파일 다운로드 기능</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -754,10 +742,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>맞춤형 검사는 사용자가 원하는 검사 선택 시 관련 검사 제공</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>초등〮중고등〮성인 선택 시 해당 연령별 관련 검사 제공</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -770,14 +754,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>내담자가 14세 미만인 경우 보호자 상담동의서 선택 기능</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>상담 희망일시 등록 시 수업시간일 경우 '수업시간 내 상담 희망' 체크 기능</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>퀵 메뉴 및 바로가기 아이콘 제공</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -790,13 +766,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>금칙어 포함시, 센터별관리자에게 게시글 삭제와 메시지 표시 기능 권한 부여</t>
-  </si>
-  <si>
-    <t>신청자가 지정한 위(Wee) 센터(24개소) 변경 권한을 센터별 관리자에게 부여</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>레이아웃에 따라 개별적으로 콘텐츠 관리 기능</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -809,10 +778,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>위(Wee) 센터별(23개소) 게시판 상담 관리 기능</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>공지사항에 전체·26개소에 따른 교육·연수·행사·기타 등록 및 신청자 접수 기능 구현</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -849,7 +814,15 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>각 상담별 게시판마다 신청자가 직접 비밀번호를 설정하여 비밀번호 입력 후 게시판 조회 가능</t>
+    <t>로그인 페이지</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 페이지</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID/PW 찾기 페이지</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -857,15 +830,43 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>로그인 페이지</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입 페이지</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID/PW 찾기 페이지</t>
+    <t>관리자</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인페이지</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 위(Wee) 페이지</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>상담신청 페이지</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원(신청자)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸터</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤더</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원탈퇴 페이지</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>통계현황 페이지</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -873,82 +874,10 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>마이페이지</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자페이지</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인페이지</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>서울 위(Wee) 페이지</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>상담신청 페이지</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원(신청자)</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>푸터</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>헤더</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>사이드바</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원탈퇴 페이지</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객지원 페이지</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>통계현황 페이지</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울 위(Wee) 페이지</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>Wee-Net 페이지</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -965,30 +894,10 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>공통</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>마음건강정보</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지사항</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>상담게시판</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>회원(신청자)</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>퀵 메뉴는 챗봇, SNS, 유관기관으로 연결</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -997,10 +906,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>공통</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>비밀번호는 특수문자, 숫자 등을 포함하여 8자리 이상, 15자의 이하로 구성되고, 양식에 맞지 않을 경우 입력창 아래 '비밀번호가 맞지 않습니다' 붉은색 문구 출력</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1112,10 +1017,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>게시판 상담은 비대면 상담 신청과 별도로 분리하여 신청할 수 있도록 구현</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>없는 계정으로 로그인 시 '등록되지 않은 계정입니다. 회원가입 후 이용해주세요.' 팝업 창 출력</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1149,10 +1050,6 @@
   </si>
   <si>
     <t>로그인 실패시 로그인창 하단에 실패 원인 메세지 출력</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>QnA 메뉴를 통해 1대 1 문의 기능 구현</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -1584,18 +1481,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>SFR–004</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>SFR–004</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>SFR–004</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>SFR–005</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1616,10 +1501,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>마음건강정보</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>SFR–010</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1652,15 +1533,7 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>SFR–013</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>SFR–014</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>SFR–018</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -1684,6 +1557,34 @@
       </rPr>
       <t xml:space="preserve"> 보안 및 현장조사 등과 관련한 작업 시 발주기관’의 의견을 적극 수렴</t>
     </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고 누적 횟수가 5회 이상에 해당하는 사용자 계정 이용 제한 설정</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판상담은 사용자로부터 단순질의를 받으므로 상담예약신청을 위해 '상담 신청 1'로 연계</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>금칙어 포함시, 관리자에게 게시글 삭제와 메시지 표시 기능 권한 부여</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 상담은 비대면 상담 신청과 별도로 분리하여 신청할 수 있도록 구현</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>상담게시판의 모든 게시글은 작성 시 신청자가 직접 비밀번호를 설정하여 비밀번호 입력 후 게시판 조회 가능</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판상담은 사용자로부터 단순질의를 받고 답변 글 업로드 시 답변 완료 상태로 전환</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자 이름, 비밀번호, 상담 주제, 상담 내용 등록·수정·취소 기능 구현</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -2153,7 +2054,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2364,9 +2265,6 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2377,12 +2275,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2418,6 +2310,42 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2427,92 +2355,35 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2526,17 +2397,56 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3987,14 +3897,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4058,14 +3968,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4129,14 +4039,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4200,14 +4110,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4271,14 +4181,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4342,14 +4252,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4413,14 +4323,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4484,14 +4394,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4555,14 +4465,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4626,14 +4536,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4697,14 +4607,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4768,14 +4678,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4839,14 +4749,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4910,14 +4820,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4981,14 +4891,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5052,14 +4962,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5123,14 +5033,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5194,14 +5104,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5265,14 +5175,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5336,14 +5246,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5407,14 +5317,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5478,14 +5388,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5549,14 +5459,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5620,14 +5530,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5691,14 +5601,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5762,14 +5672,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5833,14 +5743,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5904,14 +5814,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5975,14 +5885,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6046,14 +5956,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6117,14 +6027,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6188,14 +6098,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6259,14 +6169,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>9527</xdr:rowOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6330,14 +6240,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>9527</xdr:rowOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6401,14 +6311,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>9527</xdr:rowOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6472,14 +6382,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>9527</xdr:rowOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6543,14 +6453,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>9527</xdr:rowOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6614,14 +6524,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>9527</xdr:rowOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6685,14 +6595,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>9527</xdr:rowOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6756,14 +6666,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>9527</xdr:rowOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6827,14 +6737,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>9527</xdr:rowOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6898,14 +6808,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>9527</xdr:rowOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6969,14 +6879,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>9527</xdr:rowOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7040,14 +6950,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>9527</xdr:rowOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7111,14 +7021,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>9527</xdr:rowOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7182,14 +7092,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>9527</xdr:rowOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7253,14 +7163,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>9527</xdr:rowOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7324,14 +7234,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>9527</xdr:rowOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7395,13 +7305,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7466,13 +7376,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7537,13 +7447,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7608,13 +7518,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7679,13 +7589,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7750,13 +7660,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7821,13 +7731,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7892,13 +7802,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7963,13 +7873,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8034,13 +7944,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8105,13 +8015,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8176,13 +8086,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8247,13 +8157,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8318,13 +8228,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8389,13 +8299,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8460,13 +8370,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8531,7 +8441,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -8597,7 +8507,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -8663,7 +8573,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -8729,7 +8639,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -8795,7 +8705,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -8861,7 +8771,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -8927,7 +8837,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -8993,7 +8903,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -9059,7 +8969,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -9125,7 +9035,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -9191,7 +9101,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -9257,7 +9167,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -9323,7 +9233,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -9389,7 +9299,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -9455,7 +9365,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -9521,7 +9431,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -9933,7 +9843,7 @@
         <v>29</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -10133,22 +10043,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" customHeight="1">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
     </row>
     <row r="2" spans="1:4" ht="21" customHeight="1">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="90" t="s">
+      <c r="B2" s="97"/>
+      <c r="C2" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="90"/>
+      <c r="D2" s="99"/>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="15" t="s">
@@ -10298,10 +10208,10 @@
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H207"/>
+  <dimension ref="A1:H203"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C15"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21" customHeight="1"/>
@@ -10317,33 +10227,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
     </row>
     <row r="2" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="124" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="99" t="s">
-        <v>243</v>
-      </c>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="123" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
       <c r="G2" s="19" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1" thickTop="1">
@@ -10372,2785 +10282,2761 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="64" customFormat="1" ht="18" customHeight="1">
+    <row r="4" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A4" s="51">
         <v>1</v>
       </c>
-      <c r="B4" s="103" t="s">
-        <v>346</v>
-      </c>
-      <c r="C4" s="91" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="E4" s="103" t="s">
-        <v>163</v>
-      </c>
-      <c r="F4" s="103" t="s">
-        <v>72</v>
-      </c>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
+      <c r="B4" s="105" t="s">
+        <v>306</v>
+      </c>
+      <c r="C4" s="105" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4" s="100" t="s">
+        <v>157</v>
+      </c>
+      <c r="F4" s="100" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="89"/>
+      <c r="H4" s="52"/>
     </row>
     <row r="5" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A5" s="51">
         <v>2</v>
       </c>
-      <c r="B5" s="104"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="39"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="89"/>
       <c r="H5" s="52"/>
     </row>
     <row r="6" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A6" s="51">
         <v>3</v>
       </c>
-      <c r="B6" s="104"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="39"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="89"/>
       <c r="H6" s="52"/>
     </row>
     <row r="7" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A7" s="51">
         <v>4</v>
       </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="39"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="83" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="89"/>
       <c r="H7" s="52"/>
     </row>
     <row r="8" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A8" s="51">
         <v>5</v>
       </c>
-      <c r="B8" s="104"/>
-      <c r="C8" s="92"/>
-      <c r="D8" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="32"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="83" t="s">
+        <v>200</v>
+      </c>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="52"/>
     </row>
     <row r="9" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="51">
         <v>6</v>
       </c>
-      <c r="B9" s="104"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="32"/>
+      <c r="B9" s="105" t="s">
+        <v>306</v>
+      </c>
+      <c r="C9" s="126" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="E9" s="100" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="100" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="89"/>
+      <c r="H9" s="52"/>
     </row>
     <row r="10" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A10" s="51">
         <v>7</v>
       </c>
-      <c r="B10" s="104"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="25" t="s">
-        <v>198</v>
-      </c>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="32"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10" s="101"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="52"/>
     </row>
     <row r="11" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A11" s="51">
         <v>8</v>
       </c>
-      <c r="B11" s="104"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="25" t="s">
-        <v>217</v>
-      </c>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="78"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="82" t="s">
+        <v>181</v>
+      </c>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="89"/>
       <c r="H11" s="52"/>
     </row>
     <row r="12" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A12" s="51">
         <v>9</v>
       </c>
-      <c r="B12" s="104"/>
-      <c r="C12" s="92"/>
-      <c r="D12" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="E12" s="104"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="78"/>
+      <c r="B12" s="105" t="s">
+        <v>306</v>
+      </c>
+      <c r="C12" s="105" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" s="100" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" s="100" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="89"/>
       <c r="H12" s="52"/>
     </row>
     <row r="13" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A13" s="51">
         <v>10</v>
       </c>
-      <c r="B13" s="104"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="104"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="32"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="E13" s="101"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="52"/>
     </row>
     <row r="14" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A14" s="51">
         <v>11</v>
       </c>
-      <c r="B14" s="104"/>
-      <c r="C14" s="92"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="107"/>
       <c r="D14" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="32"/>
+        <v>137</v>
+      </c>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="52"/>
     </row>
     <row r="15" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A15" s="51">
         <v>12</v>
       </c>
-      <c r="B15" s="104"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" s="107"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="32"/>
+      <c r="B15" s="106"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="52"/>
     </row>
     <row r="16" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A16" s="51">
         <v>13</v>
       </c>
-      <c r="B16" s="103" t="s">
-        <v>347</v>
-      </c>
-      <c r="C16" s="91" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16" s="105" t="s">
-        <v>162</v>
-      </c>
-      <c r="F16" s="94" t="s">
+      <c r="B16" s="105" t="s">
+        <v>306</v>
+      </c>
+      <c r="C16" s="105" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="100" t="s">
+        <v>173</v>
+      </c>
+      <c r="F16" s="100" t="s">
         <v>70</v>
       </c>
-      <c r="G16" s="30"/>
-      <c r="H16" s="32"/>
-    </row>
-    <row r="17" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="G16" s="89"/>
+      <c r="H16" s="52"/>
+    </row>
+    <row r="17" spans="1:8" s="43" customFormat="1" ht="16.5" customHeight="1">
       <c r="A17" s="51">
         <v>14</v>
       </c>
-      <c r="B17" s="104"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="114"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="32"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="52"/>
     </row>
     <row r="18" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A18" s="51">
         <v>15</v>
       </c>
-      <c r="B18" s="104"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="E18" s="114"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="32"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="83" t="s">
+        <v>192</v>
+      </c>
+      <c r="E18" s="101"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="52"/>
     </row>
     <row r="19" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A19" s="51">
         <v>16</v>
       </c>
-      <c r="B19" s="104"/>
-      <c r="C19" s="92"/>
-      <c r="D19" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="E19" s="114"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="32"/>
+      <c r="B19" s="107"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="83" t="s">
+        <v>145</v>
+      </c>
+      <c r="E19" s="101"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="52"/>
     </row>
     <row r="20" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A20" s="51">
         <v>17</v>
       </c>
-      <c r="B20" s="104"/>
-      <c r="C20" s="92"/>
-      <c r="D20" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="E20" s="114"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="32"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="83" t="s">
+        <v>144</v>
+      </c>
+      <c r="E20" s="101"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="52"/>
     </row>
     <row r="21" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A21" s="51">
         <v>18</v>
       </c>
-      <c r="B21" s="104"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="114"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="32"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="83" t="s">
+        <v>188</v>
+      </c>
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="52"/>
     </row>
     <row r="22" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A22" s="51">
         <v>19</v>
       </c>
-      <c r="B22" s="104"/>
-      <c r="C22" s="92"/>
-      <c r="D22" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="E22" s="114"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="32"/>
+      <c r="B22" s="105" t="s">
+        <v>306</v>
+      </c>
+      <c r="C22" s="105" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="E22" s="100" t="s">
+        <v>166</v>
+      </c>
+      <c r="F22" s="100" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" s="89"/>
+      <c r="H22" s="52"/>
     </row>
     <row r="23" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A23" s="51">
         <v>20</v>
       </c>
-      <c r="B23" s="107"/>
-      <c r="C23" s="93"/>
-      <c r="D23" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="E23" s="106"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="32"/>
+      <c r="B23" s="106"/>
+      <c r="C23" s="106"/>
+      <c r="D23" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="E23" s="102"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="52"/>
     </row>
     <row r="24" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A24" s="51">
         <v>21</v>
       </c>
-      <c r="B24" s="103" t="s">
-        <v>351</v>
-      </c>
-      <c r="C24" s="91" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="E24" s="91" t="s">
-        <v>164</v>
-      </c>
-      <c r="F24" s="94" t="s">
-        <v>165</v>
-      </c>
-      <c r="G24" s="30"/>
-      <c r="H24" s="32"/>
+      <c r="B24" s="116" t="s">
+        <v>306</v>
+      </c>
+      <c r="C24" s="105" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="82" t="s">
+        <v>197</v>
+      </c>
+      <c r="E24" s="100" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24" s="100" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="89"/>
+      <c r="H24" s="52"/>
     </row>
     <row r="25" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A25" s="51">
         <v>22</v>
       </c>
-      <c r="B25" s="104"/>
-      <c r="C25" s="92"/>
-      <c r="D25" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" s="92"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="32"/>
+      <c r="B25" s="118"/>
+      <c r="C25" s="106"/>
+      <c r="D25" s="83" t="s">
+        <v>125</v>
+      </c>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="52"/>
     </row>
     <row r="26" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A26" s="51">
         <v>23</v>
       </c>
-      <c r="B26" s="107"/>
-      <c r="C26" s="93"/>
-      <c r="D26" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" s="93"/>
-      <c r="F26" s="95"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="32"/>
+      <c r="B26" s="86" t="s">
+        <v>306</v>
+      </c>
+      <c r="C26" s="85" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="E26" s="88" t="s">
+        <v>162</v>
+      </c>
+      <c r="F26" s="88" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="89"/>
+      <c r="H26" s="52"/>
     </row>
     <row r="27" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A27" s="51">
         <v>24</v>
       </c>
-      <c r="B27" s="91" t="s">
-        <v>345</v>
-      </c>
-      <c r="C27" s="101" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27" s="71" t="s">
-        <v>102</v>
-      </c>
-      <c r="E27" s="108" t="s">
-        <v>166</v>
-      </c>
-      <c r="F27" s="94" t="s">
-        <v>161</v>
-      </c>
-      <c r="G27" s="30"/>
-      <c r="H27" s="32"/>
+      <c r="B27" s="105" t="s">
+        <v>307</v>
+      </c>
+      <c r="C27" s="105" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="83" t="s">
+        <v>149</v>
+      </c>
+      <c r="E27" s="100" t="s">
+        <v>158</v>
+      </c>
+      <c r="F27" s="100" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" s="89"/>
+      <c r="H27" s="52"/>
     </row>
     <row r="28" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A28" s="51">
         <v>25</v>
       </c>
-      <c r="B28" s="92"/>
-      <c r="C28" s="101"/>
-      <c r="D28" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="E28" s="108"/>
-      <c r="F28" s="96"/>
-      <c r="G28" s="39"/>
+      <c r="B28" s="107"/>
+      <c r="C28" s="107"/>
+      <c r="D28" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28" s="101"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="89"/>
       <c r="H28" s="52"/>
     </row>
     <row r="29" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A29" s="51">
         <v>26</v>
       </c>
-      <c r="B29" s="92"/>
-      <c r="C29" s="101"/>
-      <c r="D29" s="72" t="s">
-        <v>106</v>
-      </c>
-      <c r="E29" s="108"/>
-      <c r="F29" s="96"/>
-      <c r="G29" s="39"/>
+      <c r="B29" s="107"/>
+      <c r="C29" s="107"/>
+      <c r="D29" s="82" t="s">
+        <v>179</v>
+      </c>
+      <c r="E29" s="101"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="89"/>
       <c r="H29" s="52"/>
     </row>
     <row r="30" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A30" s="51">
         <v>27</v>
       </c>
-      <c r="B30" s="92"/>
-      <c r="C30" s="101"/>
-      <c r="D30" s="71" t="s">
-        <v>107</v>
-      </c>
-      <c r="E30" s="108"/>
-      <c r="F30" s="96"/>
-      <c r="G30" s="39"/>
+      <c r="B30" s="107"/>
+      <c r="C30" s="107"/>
+      <c r="D30" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="E30" s="101"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="89"/>
       <c r="H30" s="52"/>
     </row>
     <row r="31" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A31" s="51">
         <v>28</v>
       </c>
-      <c r="B31" s="92"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="71" t="s">
-        <v>108</v>
-      </c>
-      <c r="E31" s="108"/>
-      <c r="F31" s="96"/>
-      <c r="G31" s="39"/>
+      <c r="B31" s="107"/>
+      <c r="C31" s="107"/>
+      <c r="D31" s="82" t="s">
+        <v>143</v>
+      </c>
+      <c r="E31" s="101"/>
+      <c r="F31" s="101"/>
+      <c r="G31" s="89"/>
       <c r="H31" s="52"/>
     </row>
     <row r="32" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A32" s="51">
         <v>29</v>
       </c>
-      <c r="B32" s="92"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="71" t="s">
-        <v>109</v>
-      </c>
-      <c r="E32" s="108"/>
-      <c r="F32" s="96"/>
-      <c r="G32" s="39"/>
+      <c r="B32" s="107"/>
+      <c r="C32" s="106"/>
+      <c r="D32" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="E32" s="101"/>
+      <c r="F32" s="101"/>
+      <c r="G32" s="89"/>
       <c r="H32" s="52"/>
     </row>
-    <row r="33" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+    <row r="33" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A33" s="51">
         <v>30</v>
       </c>
-      <c r="B33" s="92"/>
-      <c r="C33" s="102"/>
-      <c r="D33" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="E33" s="98"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="32"/>
-    </row>
-    <row r="34" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="B33" s="105" t="s">
+        <v>308</v>
+      </c>
+      <c r="C33" s="105" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="E33" s="100" t="s">
+        <v>159</v>
+      </c>
+      <c r="F33" s="100" t="s">
+        <v>160</v>
+      </c>
+      <c r="G33" s="89"/>
+      <c r="H33" s="52"/>
+    </row>
+    <row r="34" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A34" s="51">
         <v>31</v>
       </c>
-      <c r="B34" s="92"/>
-      <c r="C34" s="102"/>
-      <c r="D34" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="E34" s="98"/>
-      <c r="F34" s="96"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="32"/>
-    </row>
-    <row r="35" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="B34" s="107"/>
+      <c r="C34" s="107"/>
+      <c r="D34" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="E34" s="101"/>
+      <c r="F34" s="101"/>
+      <c r="G34" s="89"/>
+      <c r="H34" s="52"/>
+    </row>
+    <row r="35" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A35" s="51">
         <v>32</v>
       </c>
-      <c r="B35" s="92"/>
-      <c r="C35" s="102"/>
-      <c r="D35" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="E35" s="98"/>
-      <c r="F35" s="96"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="32"/>
+      <c r="B35" s="107"/>
+      <c r="C35" s="107"/>
+      <c r="D35" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="E35" s="101"/>
+      <c r="F35" s="101"/>
+      <c r="G35" s="89"/>
+      <c r="H35" s="52"/>
     </row>
     <row r="36" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A36" s="51">
-        <v>33</v>
-      </c>
-      <c r="B36" s="93"/>
-      <c r="C36" s="102"/>
-      <c r="D36" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="E36" s="98"/>
-      <c r="F36" s="95"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="32"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="107"/>
+      <c r="C36" s="107"/>
+      <c r="D36" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="E36" s="101"/>
+      <c r="F36" s="101"/>
+      <c r="G36" s="89"/>
+      <c r="H36" s="52"/>
     </row>
     <row r="37" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A37" s="51">
-        <v>34</v>
-      </c>
-      <c r="B37" s="91" t="s">
-        <v>348</v>
-      </c>
-      <c r="C37" s="102" t="s">
-        <v>87</v>
-      </c>
-      <c r="D37" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="E37" s="98" t="s">
-        <v>169</v>
-      </c>
-      <c r="F37" s="94" t="s">
-        <v>167</v>
-      </c>
-      <c r="G37" s="30"/>
-      <c r="H37" s="32"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="106"/>
+      <c r="C37" s="106"/>
+      <c r="D37" s="84" t="s">
+        <v>199</v>
+      </c>
+      <c r="E37" s="102"/>
+      <c r="F37" s="102"/>
+      <c r="G37" s="89"/>
+      <c r="H37" s="52"/>
     </row>
     <row r="38" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A38" s="51">
-        <v>35</v>
-      </c>
-      <c r="B38" s="92"/>
-      <c r="C38" s="102"/>
-      <c r="D38" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="E38" s="98"/>
-      <c r="F38" s="96"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="32"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="105" t="s">
+        <v>309</v>
+      </c>
+      <c r="C38" s="105" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="130" t="s">
+        <v>324</v>
+      </c>
+      <c r="E38" s="100" t="s">
+        <v>171</v>
+      </c>
+      <c r="F38" s="100" t="s">
+        <v>160</v>
+      </c>
+      <c r="G38" s="89"/>
+      <c r="H38" s="52"/>
     </row>
     <row r="39" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A39" s="51">
-        <v>36</v>
-      </c>
-      <c r="B39" s="92"/>
-      <c r="C39" s="102"/>
-      <c r="D39" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="E39" s="98"/>
-      <c r="F39" s="96"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="32"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="107"/>
+      <c r="C39" s="107"/>
+      <c r="D39" s="130" t="s">
+        <v>328</v>
+      </c>
+      <c r="E39" s="101"/>
+      <c r="F39" s="101"/>
+      <c r="G39" s="89"/>
+      <c r="H39" s="52"/>
     </row>
     <row r="40" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A40" s="51">
-        <v>37</v>
-      </c>
-      <c r="B40" s="92"/>
-      <c r="C40" s="102"/>
-      <c r="D40" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="E40" s="98"/>
-      <c r="F40" s="96"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="32"/>
+        <v>39</v>
+      </c>
+      <c r="B40" s="107"/>
+      <c r="C40" s="107"/>
+      <c r="D40" s="130" t="s">
+        <v>327</v>
+      </c>
+      <c r="E40" s="101"/>
+      <c r="F40" s="101"/>
+      <c r="G40" s="89"/>
+      <c r="H40" s="52"/>
     </row>
     <row r="41" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A41" s="51">
-        <v>38</v>
-      </c>
-      <c r="B41" s="92"/>
-      <c r="C41" s="102"/>
-      <c r="D41" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="E41" s="98"/>
-      <c r="F41" s="96"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="32"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="107"/>
+      <c r="C41" s="107"/>
+      <c r="D41" s="43" t="s">
+        <v>326</v>
+      </c>
+      <c r="E41" s="101"/>
+      <c r="F41" s="101"/>
+      <c r="G41" s="89"/>
+      <c r="H41" s="52"/>
     </row>
     <row r="42" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A42" s="51">
-        <v>39</v>
-      </c>
-      <c r="B42" s="92"/>
-      <c r="C42" s="102"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="106"/>
+      <c r="C42" s="107"/>
       <c r="D42" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="E42" s="98"/>
-      <c r="F42" s="96"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="32"/>
+        <v>325</v>
+      </c>
+      <c r="E42" s="102"/>
+      <c r="F42" s="102"/>
+      <c r="G42" s="89"/>
+      <c r="H42" s="52"/>
     </row>
     <row r="43" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A43" s="51">
-        <v>40</v>
-      </c>
-      <c r="B43" s="92"/>
-      <c r="C43" s="102"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="105" t="s">
+        <v>310</v>
+      </c>
+      <c r="C43" s="105" t="s">
+        <v>92</v>
+      </c>
       <c r="D43" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="E43" s="98"/>
-      <c r="F43" s="96"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="32"/>
+        <v>323</v>
+      </c>
+      <c r="E43" s="100" t="s">
+        <v>169</v>
+      </c>
+      <c r="F43" s="100" t="s">
+        <v>70</v>
+      </c>
+      <c r="G43" s="89"/>
+      <c r="H43" s="52"/>
     </row>
     <row r="44" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A44" s="51">
-        <v>41</v>
-      </c>
-      <c r="B44" s="91" t="s">
-        <v>333</v>
-      </c>
-      <c r="C44" s="91" t="s">
-        <v>88</v>
-      </c>
-      <c r="D44" s="85" t="s">
-        <v>147</v>
-      </c>
-      <c r="E44" s="94" t="s">
-        <v>170</v>
-      </c>
-      <c r="F44" s="94" t="s">
-        <v>168</v>
-      </c>
-      <c r="G44" s="30"/>
-      <c r="H44" s="32"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="107"/>
+      <c r="C44" s="107"/>
+      <c r="D44" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="E44" s="101"/>
+      <c r="F44" s="101"/>
+      <c r="G44" s="89"/>
+      <c r="H44" s="52"/>
     </row>
     <row r="45" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A45" s="51">
-        <v>42</v>
-      </c>
-      <c r="B45" s="92"/>
-      <c r="C45" s="92"/>
-      <c r="D45" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="E45" s="96"/>
-      <c r="F45" s="96"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="32"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="107"/>
+      <c r="C45" s="107"/>
+      <c r="D45" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="E45" s="101"/>
+      <c r="F45" s="101"/>
+      <c r="G45" s="89"/>
+      <c r="H45" s="52"/>
     </row>
     <row r="46" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A46" s="51">
-        <v>43</v>
-      </c>
-      <c r="B46" s="92"/>
-      <c r="C46" s="92"/>
-      <c r="D46" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="E46" s="96"/>
-      <c r="F46" s="96"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="32"/>
+        <v>45</v>
+      </c>
+      <c r="B46" s="107"/>
+      <c r="C46" s="107"/>
+      <c r="D46" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E46" s="101"/>
+      <c r="F46" s="101"/>
+      <c r="G46" s="89"/>
+      <c r="H46" s="52"/>
     </row>
     <row r="47" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A47" s="51">
-        <v>44</v>
-      </c>
-      <c r="B47" s="92"/>
-      <c r="C47" s="92"/>
-      <c r="D47" s="86" t="s">
-        <v>157</v>
-      </c>
-      <c r="E47" s="96"/>
-      <c r="F47" s="96"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="32"/>
+        <v>46</v>
+      </c>
+      <c r="B47" s="106"/>
+      <c r="C47" s="106"/>
+      <c r="D47" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="E47" s="102"/>
+      <c r="F47" s="102"/>
+      <c r="G47" s="89"/>
+      <c r="H47" s="52"/>
     </row>
     <row r="48" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A48" s="51">
-        <v>45</v>
-      </c>
-      <c r="B48" s="93"/>
-      <c r="C48" s="93"/>
-      <c r="D48" s="86" t="s">
-        <v>224</v>
-      </c>
-      <c r="E48" s="95"/>
-      <c r="F48" s="95"/>
-      <c r="G48" s="78"/>
+        <v>47</v>
+      </c>
+      <c r="B48" s="105" t="s">
+        <v>311</v>
+      </c>
+      <c r="C48" s="105" t="s">
+        <v>169</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E48" s="100" t="s">
+        <v>169</v>
+      </c>
+      <c r="F48" s="100" t="s">
+        <v>70</v>
+      </c>
+      <c r="G48" s="89"/>
       <c r="H48" s="52"/>
     </row>
     <row r="49" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A49" s="51">
-        <v>46</v>
-      </c>
-      <c r="B49" s="91" t="s">
-        <v>336</v>
-      </c>
-      <c r="C49" s="91" t="s">
-        <v>89</v>
-      </c>
-      <c r="D49" s="86" t="s">
-        <v>158</v>
-      </c>
-      <c r="E49" s="94" t="s">
-        <v>171</v>
-      </c>
-      <c r="F49" s="94" t="s">
-        <v>168</v>
-      </c>
-      <c r="G49" s="70"/>
+        <v>48</v>
+      </c>
+      <c r="B49" s="107"/>
+      <c r="C49" s="107"/>
+      <c r="D49" s="94" t="s">
+        <v>185</v>
+      </c>
+      <c r="E49" s="101"/>
+      <c r="F49" s="101"/>
+      <c r="G49" s="89"/>
       <c r="H49" s="52"/>
     </row>
     <row r="50" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A50" s="51">
-        <v>47</v>
-      </c>
-      <c r="B50" s="92"/>
-      <c r="C50" s="92"/>
-      <c r="D50" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="E50" s="96"/>
-      <c r="F50" s="96"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="32"/>
+        <v>49</v>
+      </c>
+      <c r="B50" s="107"/>
+      <c r="C50" s="107"/>
+      <c r="D50" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E50" s="101"/>
+      <c r="F50" s="101"/>
+      <c r="G50" s="89"/>
+      <c r="H50" s="52"/>
     </row>
     <row r="51" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A51" s="51">
-        <v>48</v>
-      </c>
-      <c r="B51" s="92"/>
-      <c r="C51" s="92"/>
-      <c r="D51" s="85" t="s">
-        <v>203</v>
-      </c>
-      <c r="E51" s="96"/>
-      <c r="F51" s="96"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="32"/>
+        <v>50</v>
+      </c>
+      <c r="B51" s="106"/>
+      <c r="C51" s="106"/>
+      <c r="D51" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="E51" s="102"/>
+      <c r="F51" s="102"/>
+      <c r="G51" s="89"/>
+      <c r="H51" s="52"/>
     </row>
     <row r="52" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A52" s="51">
-        <v>49</v>
-      </c>
-      <c r="B52" s="92"/>
-      <c r="C52" s="92"/>
-      <c r="D52" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="E52" s="96"/>
-      <c r="F52" s="96"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="32"/>
+        <v>51</v>
+      </c>
+      <c r="B52" s="105" t="s">
+        <v>312</v>
+      </c>
+      <c r="C52" s="105" t="s">
+        <v>313</v>
+      </c>
+      <c r="D52" s="94" t="s">
+        <v>184</v>
+      </c>
+      <c r="E52" s="100" t="s">
+        <v>167</v>
+      </c>
+      <c r="F52" s="100" t="s">
+        <v>70</v>
+      </c>
+      <c r="G52" s="89"/>
+      <c r="H52" s="52"/>
     </row>
     <row r="53" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A53" s="51">
-        <v>50</v>
-      </c>
-      <c r="B53" s="92"/>
-      <c r="C53" s="92"/>
-      <c r="D53" s="85" t="s">
-        <v>152</v>
-      </c>
-      <c r="E53" s="96"/>
-      <c r="F53" s="96"/>
-      <c r="G53" s="69"/>
+        <v>52</v>
+      </c>
+      <c r="B53" s="106"/>
+      <c r="C53" s="106"/>
+      <c r="D53" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="E53" s="102"/>
+      <c r="F53" s="102"/>
+      <c r="G53" s="89"/>
       <c r="H53" s="52"/>
     </row>
     <row r="54" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A54" s="51">
-        <v>51</v>
-      </c>
-      <c r="B54" s="92"/>
-      <c r="C54" s="93"/>
-      <c r="D54" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="E54" s="96"/>
-      <c r="F54" s="96"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="32"/>
-    </row>
-    <row r="55" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="105" t="s">
+        <v>314</v>
+      </c>
+      <c r="C54" s="105" t="s">
+        <v>216</v>
+      </c>
+      <c r="D54" s="130" t="s">
+        <v>201</v>
+      </c>
+      <c r="E54" s="100" t="s">
+        <v>170</v>
+      </c>
+      <c r="F54" s="100" t="s">
+        <v>168</v>
+      </c>
+      <c r="G54" s="89"/>
+      <c r="H54" s="52"/>
+    </row>
+    <row r="55" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A55" s="51">
-        <v>52</v>
-      </c>
-      <c r="B55" s="91" t="s">
-        <v>337</v>
-      </c>
-      <c r="C55" s="91" t="s">
-        <v>90</v>
-      </c>
-      <c r="D55" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="E55" s="94" t="s">
-        <v>172</v>
-      </c>
-      <c r="F55" s="94" t="s">
-        <v>173</v>
-      </c>
-      <c r="G55" s="30"/>
-      <c r="H55" s="32"/>
-    </row>
-    <row r="56" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="107"/>
+      <c r="C55" s="107"/>
+      <c r="D55" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E55" s="101"/>
+      <c r="F55" s="101"/>
+      <c r="G55" s="89"/>
+      <c r="H55" s="52"/>
+    </row>
+    <row r="56" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A56" s="51">
-        <v>53</v>
-      </c>
-      <c r="B56" s="92"/>
-      <c r="C56" s="92"/>
-      <c r="D56" s="42" t="s">
-        <v>220</v>
-      </c>
-      <c r="E56" s="96"/>
-      <c r="F56" s="96"/>
-      <c r="G56" s="30"/>
-      <c r="H56" s="32"/>
-    </row>
-    <row r="57" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="107"/>
+      <c r="C56" s="107"/>
+      <c r="D56" s="130" t="s">
+        <v>182</v>
+      </c>
+      <c r="E56" s="101"/>
+      <c r="F56" s="101"/>
+      <c r="G56" s="89"/>
+      <c r="H56" s="52"/>
+    </row>
+    <row r="57" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A57" s="51">
-        <v>54</v>
-      </c>
-      <c r="B57" s="92"/>
-      <c r="C57" s="92"/>
-      <c r="D57" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="E57" s="96"/>
-      <c r="F57" s="96"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="32"/>
-    </row>
-    <row r="58" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="107"/>
+      <c r="C57" s="107"/>
+      <c r="D57" s="130" t="s">
+        <v>190</v>
+      </c>
+      <c r="E57" s="101"/>
+      <c r="F57" s="101"/>
+      <c r="G57" s="89"/>
+      <c r="H57" s="52"/>
+    </row>
+    <row r="58" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A58" s="51">
-        <v>55</v>
-      </c>
-      <c r="B58" s="92"/>
-      <c r="C58" s="92"/>
-      <c r="D58" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="E58" s="96"/>
-      <c r="F58" s="96"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="32"/>
+        <v>57</v>
+      </c>
+      <c r="B58" s="107"/>
+      <c r="C58" s="107"/>
+      <c r="D58" s="130" t="s">
+        <v>187</v>
+      </c>
+      <c r="E58" s="101"/>
+      <c r="F58" s="101"/>
+      <c r="G58" s="89"/>
+      <c r="H58" s="52"/>
     </row>
     <row r="59" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A59" s="51">
-        <v>56</v>
-      </c>
-      <c r="B59" s="92"/>
-      <c r="C59" s="92"/>
-      <c r="D59" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="E59" s="96"/>
-      <c r="F59" s="96"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="32"/>
+        <v>58</v>
+      </c>
+      <c r="B59" s="107"/>
+      <c r="C59" s="107"/>
+      <c r="D59" s="130" t="s">
+        <v>128</v>
+      </c>
+      <c r="E59" s="101"/>
+      <c r="F59" s="101"/>
+      <c r="G59" s="89"/>
+      <c r="H59" s="52"/>
     </row>
     <row r="60" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A60" s="51">
-        <v>57</v>
-      </c>
-      <c r="B60" s="92"/>
-      <c r="C60" s="92"/>
-      <c r="D60" s="24" t="s">
-        <v>238</v>
-      </c>
-      <c r="E60" s="96"/>
-      <c r="F60" s="96"/>
-      <c r="G60" s="78"/>
+        <v>59</v>
+      </c>
+      <c r="B60" s="106"/>
+      <c r="C60" s="106"/>
+      <c r="D60" s="130" t="s">
+        <v>183</v>
+      </c>
+      <c r="E60" s="102"/>
+      <c r="F60" s="102"/>
+      <c r="G60" s="89"/>
       <c r="H60" s="52"/>
     </row>
     <row r="61" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A61" s="51">
-        <v>58</v>
-      </c>
-      <c r="B61" s="93"/>
-      <c r="C61" s="93"/>
-      <c r="D61" s="87" t="s">
-        <v>223</v>
-      </c>
-      <c r="E61" s="95"/>
-      <c r="F61" s="95"/>
-      <c r="G61" s="78"/>
+        <v>60</v>
+      </c>
+      <c r="B61" s="105" t="s">
+        <v>315</v>
+      </c>
+      <c r="C61" s="121" t="s">
+        <v>86</v>
+      </c>
+      <c r="D61" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="E61" s="125" t="s">
+        <v>86</v>
+      </c>
+      <c r="F61" s="100" t="s">
+        <v>70</v>
+      </c>
+      <c r="G61" s="89"/>
       <c r="H61" s="52"/>
     </row>
     <row r="62" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A62" s="51">
-        <v>59</v>
-      </c>
-      <c r="B62" s="91" t="s">
-        <v>338</v>
-      </c>
-      <c r="C62" s="91" t="s">
-        <v>91</v>
-      </c>
-      <c r="D62" s="86" t="s">
-        <v>145</v>
-      </c>
-      <c r="E62" s="94" t="s">
-        <v>193</v>
-      </c>
-      <c r="F62" s="94" t="s">
-        <v>194</v>
-      </c>
-      <c r="G62" s="69"/>
+        <v>61</v>
+      </c>
+      <c r="B62" s="107"/>
+      <c r="C62" s="121"/>
+      <c r="D62" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="E62" s="125"/>
+      <c r="F62" s="101"/>
+      <c r="G62" s="89"/>
       <c r="H62" s="52"/>
     </row>
     <row r="63" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A63" s="51">
-        <v>60</v>
-      </c>
-      <c r="B63" s="92"/>
-      <c r="C63" s="92"/>
-      <c r="D63" s="86" t="s">
-        <v>146</v>
-      </c>
-      <c r="E63" s="96"/>
-      <c r="F63" s="96"/>
-      <c r="G63" s="69"/>
+        <v>62</v>
+      </c>
+      <c r="B63" s="107"/>
+      <c r="C63" s="121"/>
+      <c r="D63" s="71" t="s">
+        <v>105</v>
+      </c>
+      <c r="E63" s="125"/>
+      <c r="F63" s="101"/>
+      <c r="G63" s="89"/>
       <c r="H63" s="52"/>
     </row>
     <row r="64" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A64" s="51">
-        <v>61</v>
-      </c>
-      <c r="B64" s="92"/>
-      <c r="C64" s="92"/>
-      <c r="D64" s="86" t="s">
-        <v>150</v>
-      </c>
-      <c r="E64" s="96"/>
-      <c r="F64" s="96"/>
-      <c r="G64" s="69"/>
+        <v>63</v>
+      </c>
+      <c r="B64" s="107"/>
+      <c r="C64" s="121"/>
+      <c r="D64" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="E64" s="125"/>
+      <c r="F64" s="101"/>
+      <c r="G64" s="89"/>
       <c r="H64" s="52"/>
     </row>
     <row r="65" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A65" s="51">
-        <v>62</v>
-      </c>
-      <c r="B65" s="92"/>
-      <c r="C65" s="92"/>
-      <c r="D65" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="E65" s="96"/>
-      <c r="F65" s="96"/>
-      <c r="G65" s="69"/>
+        <v>64</v>
+      </c>
+      <c r="B65" s="107"/>
+      <c r="C65" s="121"/>
+      <c r="D65" s="70" t="s">
+        <v>107</v>
+      </c>
+      <c r="E65" s="125"/>
+      <c r="F65" s="101"/>
+      <c r="G65" s="89"/>
       <c r="H65" s="52"/>
     </row>
     <row r="66" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A66" s="51">
-        <v>63</v>
-      </c>
-      <c r="B66" s="93"/>
-      <c r="C66" s="92"/>
-      <c r="D66" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="E66" s="95"/>
-      <c r="F66" s="95"/>
-      <c r="G66" s="69"/>
+        <v>65</v>
+      </c>
+      <c r="B66" s="107"/>
+      <c r="C66" s="121"/>
+      <c r="D66" s="70" t="s">
+        <v>108</v>
+      </c>
+      <c r="E66" s="125"/>
+      <c r="F66" s="101"/>
+      <c r="G66" s="89"/>
       <c r="H66" s="52"/>
     </row>
     <row r="67" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A67" s="51">
-        <v>64</v>
-      </c>
-      <c r="B67" s="91" t="s">
-        <v>332</v>
-      </c>
-      <c r="C67" s="109" t="s">
-        <v>95</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B67" s="107"/>
+      <c r="C67" s="114"/>
       <c r="D67" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="E67" s="94" t="s">
-        <v>191</v>
-      </c>
-      <c r="F67" s="94" t="s">
-        <v>192</v>
-      </c>
-      <c r="G67" s="69"/>
+        <v>109</v>
+      </c>
+      <c r="E67" s="120"/>
+      <c r="F67" s="101"/>
+      <c r="G67" s="89"/>
       <c r="H67" s="52"/>
     </row>
     <row r="68" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A68" s="51">
-        <v>65</v>
-      </c>
-      <c r="B68" s="92"/>
-      <c r="C68" s="110"/>
-      <c r="D68" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="E68" s="96"/>
-      <c r="F68" s="96"/>
-      <c r="G68" s="69"/>
+        <v>67</v>
+      </c>
+      <c r="B68" s="107"/>
+      <c r="C68" s="114"/>
+      <c r="D68" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E68" s="120"/>
+      <c r="F68" s="101"/>
+      <c r="G68" s="89"/>
       <c r="H68" s="52"/>
     </row>
     <row r="69" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A69" s="51">
-        <v>66</v>
-      </c>
-      <c r="B69" s="93"/>
-      <c r="C69" s="110"/>
-      <c r="D69" s="85" t="s">
-        <v>205</v>
-      </c>
-      <c r="E69" s="95"/>
-      <c r="F69" s="95"/>
-      <c r="G69" s="69"/>
+        <v>68</v>
+      </c>
+      <c r="B69" s="107"/>
+      <c r="C69" s="114"/>
+      <c r="D69" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="E69" s="120"/>
+      <c r="F69" s="101"/>
+      <c r="G69" s="89"/>
       <c r="H69" s="52"/>
     </row>
     <row r="70" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A70" s="51">
-        <v>67</v>
-      </c>
-      <c r="B70" s="91" t="s">
-        <v>339</v>
-      </c>
-      <c r="C70" s="91" t="s">
-        <v>92</v>
-      </c>
-      <c r="D70" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="E70" s="94" t="s">
-        <v>190</v>
-      </c>
-      <c r="F70" s="94" t="s">
-        <v>165</v>
-      </c>
-      <c r="G70" s="69"/>
+        <v>69</v>
+      </c>
+      <c r="B70" s="106"/>
+      <c r="C70" s="114"/>
+      <c r="D70" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="E70" s="120"/>
+      <c r="F70" s="102"/>
+      <c r="G70" s="89"/>
       <c r="H70" s="52"/>
     </row>
-    <row r="71" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+    <row r="71" spans="1:8" s="64" customFormat="1" ht="18" customHeight="1">
       <c r="A71" s="51">
-        <v>68</v>
-      </c>
-      <c r="B71" s="92"/>
-      <c r="C71" s="92"/>
+        <v>70</v>
+      </c>
+      <c r="B71" s="103" t="s">
+        <v>316</v>
+      </c>
+      <c r="C71" s="105" t="s">
+        <v>77</v>
+      </c>
       <c r="D71" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="E71" s="96"/>
-      <c r="F71" s="96"/>
-      <c r="G71" s="69"/>
-      <c r="H71" s="52"/>
+        <v>189</v>
+      </c>
+      <c r="E71" s="103" t="s">
+        <v>152</v>
+      </c>
+      <c r="F71" s="103" t="s">
+        <v>72</v>
+      </c>
+      <c r="G71" s="51"/>
+      <c r="H71" s="51"/>
     </row>
     <row r="72" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A72" s="51">
-        <v>69</v>
-      </c>
-      <c r="B72" s="92"/>
-      <c r="C72" s="92"/>
+        <v>71</v>
+      </c>
+      <c r="B72" s="115"/>
+      <c r="C72" s="107"/>
       <c r="D72" s="23" t="s">
-        <v>230</v>
-      </c>
-      <c r="E72" s="96"/>
-      <c r="F72" s="96"/>
-      <c r="G72" s="69"/>
+        <v>177</v>
+      </c>
+      <c r="E72" s="115"/>
+      <c r="F72" s="115"/>
+      <c r="G72" s="39"/>
       <c r="H72" s="52"/>
     </row>
     <row r="73" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A73" s="51">
-        <v>70</v>
-      </c>
-      <c r="B73" s="92"/>
-      <c r="C73" s="92"/>
+        <v>72</v>
+      </c>
+      <c r="B73" s="115"/>
+      <c r="C73" s="107"/>
       <c r="D73" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="E73" s="96"/>
-      <c r="F73" s="96"/>
-      <c r="G73" s="69"/>
+        <v>194</v>
+      </c>
+      <c r="E73" s="115"/>
+      <c r="F73" s="115"/>
+      <c r="G73" s="39"/>
       <c r="H73" s="52"/>
     </row>
     <row r="74" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A74" s="51">
-        <v>71</v>
-      </c>
-      <c r="B74" s="93"/>
-      <c r="C74" s="93"/>
-      <c r="D74" s="24" t="s">
-        <v>231</v>
-      </c>
-      <c r="E74" s="95"/>
-      <c r="F74" s="95"/>
-      <c r="G74" s="69"/>
+        <v>73</v>
+      </c>
+      <c r="B74" s="115"/>
+      <c r="C74" s="107"/>
+      <c r="D74" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E74" s="115"/>
+      <c r="F74" s="115"/>
+      <c r="G74" s="39"/>
       <c r="H74" s="52"/>
     </row>
     <row r="75" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A75" s="51">
-        <v>72</v>
-      </c>
-      <c r="B75" s="91" t="s">
-        <v>340</v>
-      </c>
-      <c r="C75" s="91" t="s">
-        <v>341</v>
-      </c>
-      <c r="D75" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="E75" s="94" t="s">
-        <v>187</v>
-      </c>
-      <c r="F75" s="94" t="s">
-        <v>189</v>
-      </c>
-      <c r="G75" s="69"/>
-      <c r="H75" s="52"/>
+        <v>74</v>
+      </c>
+      <c r="B75" s="115"/>
+      <c r="C75" s="107"/>
+      <c r="D75" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E75" s="115"/>
+      <c r="F75" s="115"/>
+      <c r="G75" s="30"/>
+      <c r="H75" s="32"/>
     </row>
     <row r="76" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A76" s="51">
-        <v>73</v>
-      </c>
-      <c r="B76" s="92"/>
-      <c r="C76" s="92"/>
-      <c r="D76" s="85" t="s">
-        <v>209</v>
-      </c>
-      <c r="E76" s="96"/>
-      <c r="F76" s="96"/>
-      <c r="G76" s="70"/>
-      <c r="H76" s="52"/>
+        <v>75</v>
+      </c>
+      <c r="B76" s="115"/>
+      <c r="C76" s="107"/>
+      <c r="D76" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="E76" s="115"/>
+      <c r="F76" s="115"/>
+      <c r="G76" s="30"/>
+      <c r="H76" s="32"/>
     </row>
     <row r="77" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A77" s="51">
-        <v>74</v>
-      </c>
-      <c r="B77" s="92"/>
-      <c r="C77" s="92"/>
-      <c r="D77" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="E77" s="96"/>
-      <c r="F77" s="96"/>
-      <c r="G77" s="69"/>
-      <c r="H77" s="52"/>
+        <v>76</v>
+      </c>
+      <c r="B77" s="115"/>
+      <c r="C77" s="107"/>
+      <c r="D77" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="E77" s="115"/>
+      <c r="F77" s="115"/>
+      <c r="G77" s="30"/>
+      <c r="H77" s="32"/>
     </row>
     <row r="78" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A78" s="51">
-        <v>75</v>
-      </c>
-      <c r="B78" s="93"/>
-      <c r="C78" s="93"/>
-      <c r="D78" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="E78" s="95"/>
-      <c r="F78" s="95"/>
-      <c r="G78" s="70"/>
+        <v>77</v>
+      </c>
+      <c r="B78" s="115"/>
+      <c r="C78" s="107"/>
+      <c r="D78" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="E78" s="115"/>
+      <c r="F78" s="115"/>
+      <c r="G78" s="75"/>
       <c r="H78" s="52"/>
     </row>
     <row r="79" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A79" s="51">
-        <v>76</v>
-      </c>
-      <c r="B79" s="91" t="s">
-        <v>344</v>
-      </c>
-      <c r="C79" s="91" t="s">
-        <v>242</v>
-      </c>
-      <c r="D79" s="86" t="s">
-        <v>225</v>
-      </c>
-      <c r="E79" s="94" t="s">
-        <v>188</v>
-      </c>
-      <c r="F79" s="94" t="s">
-        <v>186</v>
-      </c>
-      <c r="G79" s="69"/>
+        <v>78</v>
+      </c>
+      <c r="B79" s="115"/>
+      <c r="C79" s="107"/>
+      <c r="D79" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="E79" s="115"/>
+      <c r="F79" s="115"/>
+      <c r="G79" s="75"/>
       <c r="H79" s="52"/>
     </row>
     <row r="80" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A80" s="51">
-        <v>77</v>
-      </c>
-      <c r="B80" s="92"/>
-      <c r="C80" s="92"/>
-      <c r="D80" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="E80" s="96"/>
-      <c r="F80" s="96"/>
-      <c r="G80" s="69"/>
-      <c r="H80" s="52"/>
+        <v>79</v>
+      </c>
+      <c r="B80" s="115"/>
+      <c r="C80" s="107"/>
+      <c r="D80" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E80" s="115"/>
+      <c r="F80" s="115"/>
+      <c r="G80" s="30"/>
+      <c r="H80" s="32"/>
     </row>
     <row r="81" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A81" s="51">
-        <v>78</v>
-      </c>
-      <c r="B81" s="92"/>
-      <c r="C81" s="92"/>
-      <c r="D81" s="86" t="s">
-        <v>206</v>
-      </c>
-      <c r="E81" s="96"/>
-      <c r="F81" s="96"/>
-      <c r="G81" s="69"/>
-      <c r="H81" s="52"/>
+        <v>80</v>
+      </c>
+      <c r="B81" s="115"/>
+      <c r="C81" s="107"/>
+      <c r="D81" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E81" s="115"/>
+      <c r="F81" s="115"/>
+      <c r="G81" s="30"/>
+      <c r="H81" s="32"/>
     </row>
     <row r="82" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A82" s="51">
-        <v>79</v>
-      </c>
-      <c r="B82" s="92"/>
-      <c r="C82" s="92"/>
-      <c r="D82" s="86" t="s">
-        <v>214</v>
-      </c>
-      <c r="E82" s="96"/>
-      <c r="F82" s="96"/>
-      <c r="G82" s="69"/>
-      <c r="H82" s="52"/>
+        <v>81</v>
+      </c>
+      <c r="B82" s="115"/>
+      <c r="C82" s="106"/>
+      <c r="D82" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="E82" s="104"/>
+      <c r="F82" s="104"/>
+      <c r="G82" s="30"/>
+      <c r="H82" s="32"/>
     </row>
     <row r="83" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A83" s="51">
-        <v>80</v>
-      </c>
-      <c r="B83" s="92"/>
-      <c r="C83" s="92"/>
-      <c r="D83" s="86" t="s">
-        <v>211</v>
-      </c>
-      <c r="E83" s="96"/>
-      <c r="F83" s="96"/>
-      <c r="G83" s="69"/>
+        <v>82</v>
+      </c>
+      <c r="B83" s="105" t="s">
+        <v>316</v>
+      </c>
+      <c r="C83" s="105" t="s">
+        <v>97</v>
+      </c>
+      <c r="D83" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="E83" s="100" t="s">
+        <v>163</v>
+      </c>
+      <c r="F83" s="100" t="s">
+        <v>70</v>
+      </c>
+      <c r="G83" s="89"/>
       <c r="H83" s="52"/>
     </row>
     <row r="84" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A84" s="51">
-        <v>81</v>
-      </c>
-      <c r="B84" s="92"/>
-      <c r="C84" s="92"/>
-      <c r="D84" s="86" t="s">
-        <v>129</v>
-      </c>
-      <c r="E84" s="96"/>
-      <c r="F84" s="96"/>
-      <c r="G84" s="69"/>
+        <v>83</v>
+      </c>
+      <c r="B84" s="107"/>
+      <c r="C84" s="107"/>
+      <c r="D84" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="E84" s="101"/>
+      <c r="F84" s="101"/>
+      <c r="G84" s="89"/>
       <c r="H84" s="52"/>
     </row>
     <row r="85" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A85" s="51">
-        <v>82</v>
-      </c>
-      <c r="B85" s="93"/>
-      <c r="C85" s="93"/>
-      <c r="D85" s="86" t="s">
-        <v>207</v>
-      </c>
-      <c r="E85" s="95"/>
-      <c r="F85" s="95"/>
-      <c r="G85" s="69"/>
+        <v>84</v>
+      </c>
+      <c r="B85" s="107"/>
+      <c r="C85" s="107"/>
+      <c r="D85" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="E85" s="101"/>
+      <c r="F85" s="101"/>
+      <c r="G85" s="89"/>
       <c r="H85" s="52"/>
     </row>
     <row r="86" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A86" s="51">
-        <v>83</v>
-      </c>
-      <c r="B86" s="91" t="s">
-        <v>342</v>
-      </c>
-      <c r="C86" s="91" t="s">
-        <v>343</v>
-      </c>
-      <c r="D86" s="85" t="s">
-        <v>208</v>
-      </c>
-      <c r="E86" s="94" t="s">
-        <v>185</v>
-      </c>
-      <c r="F86" s="94" t="s">
-        <v>165</v>
-      </c>
-      <c r="G86" s="69"/>
+        <v>85</v>
+      </c>
+      <c r="B86" s="106"/>
+      <c r="C86" s="107"/>
+      <c r="D86" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="E86" s="102"/>
+      <c r="F86" s="102"/>
+      <c r="G86" s="89"/>
       <c r="H86" s="52"/>
     </row>
     <row r="87" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A87" s="51">
-        <v>84</v>
-      </c>
-      <c r="B87" s="93"/>
-      <c r="C87" s="93"/>
-      <c r="D87" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="E87" s="95"/>
-      <c r="F87" s="95"/>
-      <c r="G87" s="69"/>
-      <c r="H87" s="52"/>
+        <v>86</v>
+      </c>
+      <c r="B87" s="103" t="s">
+        <v>317</v>
+      </c>
+      <c r="C87" s="105" t="s">
+        <v>78</v>
+      </c>
+      <c r="D87" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E87" s="116" t="s">
+        <v>151</v>
+      </c>
+      <c r="F87" s="100" t="s">
+        <v>70</v>
+      </c>
+      <c r="G87" s="30"/>
+      <c r="H87" s="32"/>
     </row>
     <row r="88" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A88" s="51">
-        <v>85</v>
-      </c>
-      <c r="B88" s="91" t="s">
-        <v>332</v>
-      </c>
-      <c r="C88" s="91" t="s">
-        <v>94</v>
-      </c>
-      <c r="D88" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="E88" s="94" t="s">
-        <v>184</v>
-      </c>
-      <c r="F88" s="94" t="s">
-        <v>165</v>
-      </c>
-      <c r="G88" s="69"/>
-      <c r="H88" s="52"/>
+        <v>87</v>
+      </c>
+      <c r="B88" s="115"/>
+      <c r="C88" s="107"/>
+      <c r="D88" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E88" s="117"/>
+      <c r="F88" s="101"/>
+      <c r="G88" s="30"/>
+      <c r="H88" s="32"/>
     </row>
     <row r="89" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A89" s="51">
-        <v>86</v>
-      </c>
-      <c r="B89" s="93"/>
-      <c r="C89" s="93"/>
-      <c r="D89" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="E89" s="95"/>
-      <c r="F89" s="95"/>
-      <c r="G89" s="69"/>
-      <c r="H89" s="52"/>
+        <v>88</v>
+      </c>
+      <c r="B89" s="115"/>
+      <c r="C89" s="107"/>
+      <c r="D89" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="E89" s="117"/>
+      <c r="F89" s="101"/>
+      <c r="G89" s="30"/>
+      <c r="H89" s="32"/>
     </row>
     <row r="90" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A90" s="51">
-        <v>87</v>
-      </c>
-      <c r="B90" s="91" t="s">
-        <v>349</v>
-      </c>
-      <c r="C90" s="91" t="s">
-        <v>96</v>
-      </c>
-      <c r="D90" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="E90" s="94" t="s">
-        <v>182</v>
-      </c>
-      <c r="F90" s="94" t="s">
-        <v>183</v>
-      </c>
-      <c r="G90" s="69"/>
-      <c r="H90" s="52"/>
+        <v>89</v>
+      </c>
+      <c r="B90" s="115"/>
+      <c r="C90" s="107"/>
+      <c r="D90" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="E90" s="117"/>
+      <c r="F90" s="101"/>
+      <c r="G90" s="30"/>
+      <c r="H90" s="32"/>
     </row>
     <row r="91" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A91" s="51">
-        <v>88</v>
-      </c>
-      <c r="B91" s="92"/>
-      <c r="C91" s="92"/>
-      <c r="D91" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="E91" s="96"/>
-      <c r="F91" s="96"/>
-      <c r="G91" s="69"/>
-      <c r="H91" s="52"/>
+        <v>90</v>
+      </c>
+      <c r="B91" s="115"/>
+      <c r="C91" s="107"/>
+      <c r="D91" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="E91" s="117"/>
+      <c r="F91" s="101"/>
+      <c r="G91" s="30"/>
+      <c r="H91" s="32"/>
     </row>
     <row r="92" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A92" s="51">
-        <v>89</v>
-      </c>
-      <c r="B92" s="92"/>
-      <c r="C92" s="92"/>
-      <c r="D92" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="E92" s="96"/>
-      <c r="F92" s="96"/>
-      <c r="G92" s="69"/>
-      <c r="H92" s="52"/>
+        <v>91</v>
+      </c>
+      <c r="B92" s="115"/>
+      <c r="C92" s="107"/>
+      <c r="D92" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E92" s="117"/>
+      <c r="F92" s="101"/>
+      <c r="G92" s="30"/>
+      <c r="H92" s="32"/>
     </row>
     <row r="93" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A93" s="51">
-        <v>90</v>
-      </c>
-      <c r="B93" s="92"/>
-      <c r="C93" s="92"/>
-      <c r="D93" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="E93" s="96"/>
-      <c r="F93" s="96"/>
-      <c r="G93" s="69"/>
-      <c r="H93" s="52"/>
+        <v>92</v>
+      </c>
+      <c r="B93" s="115"/>
+      <c r="C93" s="107"/>
+      <c r="D93" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E93" s="117"/>
+      <c r="F93" s="101"/>
+      <c r="G93" s="30"/>
+      <c r="H93" s="32"/>
     </row>
     <row r="94" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A94" s="51">
-        <v>91</v>
-      </c>
-      <c r="B94" s="93"/>
-      <c r="C94" s="93"/>
-      <c r="D94" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="E94" s="95"/>
-      <c r="F94" s="95"/>
-      <c r="G94" s="69"/>
-      <c r="H94" s="52"/>
+        <v>93</v>
+      </c>
+      <c r="B94" s="104"/>
+      <c r="C94" s="106"/>
+      <c r="D94" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="E94" s="118"/>
+      <c r="F94" s="101"/>
+      <c r="G94" s="30"/>
+      <c r="H94" s="32"/>
     </row>
     <row r="95" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A95" s="51">
-        <v>92</v>
-      </c>
-      <c r="B95" s="91" t="s">
-        <v>352</v>
-      </c>
-      <c r="C95" s="91" t="s">
-        <v>97</v>
-      </c>
-      <c r="D95" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="E95" s="94" t="s">
-        <v>181</v>
-      </c>
-      <c r="F95" s="94" t="s">
-        <v>180</v>
-      </c>
-      <c r="G95" s="69"/>
-      <c r="H95" s="52"/>
+        <v>94</v>
+      </c>
+      <c r="B95" s="103" t="s">
+        <v>320</v>
+      </c>
+      <c r="C95" s="105" t="s">
+        <v>83</v>
+      </c>
+      <c r="D95" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="E95" s="105" t="s">
+        <v>153</v>
+      </c>
+      <c r="F95" s="100" t="s">
+        <v>154</v>
+      </c>
+      <c r="G95" s="30"/>
+      <c r="H95" s="32"/>
     </row>
     <row r="96" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A96" s="51">
-        <v>93</v>
-      </c>
-      <c r="B96" s="92"/>
-      <c r="C96" s="92"/>
-      <c r="D96" s="24" t="s">
-        <v>236</v>
-      </c>
-      <c r="E96" s="96"/>
-      <c r="F96" s="96"/>
-      <c r="G96" s="69"/>
-      <c r="H96" s="52"/>
+        <v>95</v>
+      </c>
+      <c r="B96" s="115"/>
+      <c r="C96" s="107"/>
+      <c r="D96" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E96" s="107"/>
+      <c r="F96" s="101"/>
+      <c r="G96" s="30"/>
+      <c r="H96" s="32"/>
     </row>
     <row r="97" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A97" s="51">
-        <v>94</v>
-      </c>
-      <c r="B97" s="93"/>
-      <c r="C97" s="92"/>
-      <c r="D97" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="E97" s="95"/>
-      <c r="F97" s="95"/>
-      <c r="G97" s="69"/>
-      <c r="H97" s="52"/>
+        <v>96</v>
+      </c>
+      <c r="B97" s="104"/>
+      <c r="C97" s="106"/>
+      <c r="D97" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="E97" s="106"/>
+      <c r="F97" s="102"/>
+      <c r="G97" s="30"/>
+      <c r="H97" s="32"/>
     </row>
     <row r="98" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A98" s="51">
-        <v>95</v>
-      </c>
-      <c r="B98" s="91" t="s">
-        <v>350</v>
-      </c>
-      <c r="C98" s="91" t="s">
-        <v>98</v>
-      </c>
-      <c r="D98" s="43" t="s">
-        <v>144</v>
-      </c>
-      <c r="E98" s="94" t="s">
-        <v>179</v>
-      </c>
-      <c r="F98" s="94" t="s">
-        <v>180</v>
-      </c>
-      <c r="G98" s="69"/>
-      <c r="H98" s="52"/>
+        <v>97</v>
+      </c>
+      <c r="B98" s="105" t="s">
+        <v>318</v>
+      </c>
+      <c r="C98" s="105" t="s">
+        <v>87</v>
+      </c>
+      <c r="D98" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="E98" s="100" t="s">
+        <v>156</v>
+      </c>
+      <c r="F98" s="100" t="s">
+        <v>155</v>
+      </c>
+      <c r="G98" s="30"/>
+      <c r="H98" s="32"/>
     </row>
     <row r="99" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A99" s="51">
-        <v>96</v>
-      </c>
-      <c r="B99" s="92"/>
-      <c r="C99" s="92"/>
+        <v>98</v>
+      </c>
+      <c r="B99" s="107"/>
+      <c r="C99" s="107"/>
       <c r="D99" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="E99" s="96"/>
-      <c r="F99" s="96"/>
-      <c r="G99" s="69"/>
-      <c r="H99" s="52"/>
+        <v>113</v>
+      </c>
+      <c r="E99" s="101"/>
+      <c r="F99" s="101"/>
+      <c r="G99" s="30"/>
+      <c r="H99" s="32"/>
     </row>
     <row r="100" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A100" s="51">
-        <v>97</v>
-      </c>
-      <c r="B100" s="92"/>
-      <c r="C100" s="92"/>
+        <v>99</v>
+      </c>
+      <c r="B100" s="107"/>
+      <c r="C100" s="107"/>
       <c r="D100" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="E100" s="96"/>
-      <c r="F100" s="96"/>
-      <c r="G100" s="78"/>
-      <c r="H100" s="52"/>
+        <v>114</v>
+      </c>
+      <c r="E100" s="101"/>
+      <c r="F100" s="101"/>
+      <c r="G100" s="30"/>
+      <c r="H100" s="32"/>
     </row>
     <row r="101" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A101" s="51">
-        <v>98</v>
-      </c>
-      <c r="B101" s="93"/>
-      <c r="C101" s="92"/>
+        <v>100</v>
+      </c>
+      <c r="B101" s="107"/>
+      <c r="C101" s="107"/>
       <c r="D101" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="E101" s="95"/>
-      <c r="F101" s="95"/>
-      <c r="G101" s="69"/>
-      <c r="H101" s="52"/>
+        <v>115</v>
+      </c>
+      <c r="E101" s="101"/>
+      <c r="F101" s="101"/>
+      <c r="G101" s="30"/>
+      <c r="H101" s="32"/>
     </row>
     <row r="102" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A102" s="51">
-        <v>99</v>
-      </c>
-      <c r="B102" s="91" t="s">
-        <v>332</v>
-      </c>
-      <c r="C102" s="91" t="s">
-        <v>99</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="B102" s="107"/>
+      <c r="C102" s="107"/>
       <c r="D102" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="E102" s="94" t="s">
-        <v>178</v>
-      </c>
-      <c r="F102" s="94" t="s">
-        <v>176</v>
-      </c>
-      <c r="G102" s="69"/>
-      <c r="H102" s="52"/>
+        <v>186</v>
+      </c>
+      <c r="E102" s="101"/>
+      <c r="F102" s="101"/>
+      <c r="G102" s="30"/>
+      <c r="H102" s="32"/>
     </row>
     <row r="103" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A103" s="51">
-        <v>100</v>
-      </c>
-      <c r="B103" s="92"/>
-      <c r="C103" s="92"/>
+        <v>102</v>
+      </c>
+      <c r="B103" s="107"/>
+      <c r="C103" s="107"/>
       <c r="D103" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="E103" s="96"/>
-      <c r="F103" s="96"/>
-      <c r="G103" s="69"/>
-      <c r="H103" s="52"/>
+        <v>116</v>
+      </c>
+      <c r="E103" s="101"/>
+      <c r="F103" s="101"/>
+      <c r="G103" s="30"/>
+      <c r="H103" s="32"/>
     </row>
     <row r="104" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A104" s="51">
-        <v>101</v>
-      </c>
-      <c r="B104" s="92"/>
-      <c r="C104" s="92"/>
+        <v>103</v>
+      </c>
+      <c r="B104" s="107"/>
+      <c r="C104" s="107"/>
       <c r="D104" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="E104" s="96"/>
-      <c r="F104" s="96"/>
-      <c r="G104" s="74"/>
-      <c r="H104" s="52"/>
+        <v>117</v>
+      </c>
+      <c r="E104" s="101"/>
+      <c r="F104" s="101"/>
+      <c r="G104" s="30"/>
+      <c r="H104" s="32"/>
     </row>
     <row r="105" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A105" s="51">
-        <v>102</v>
-      </c>
-      <c r="B105" s="93"/>
-      <c r="C105" s="93"/>
+        <v>104</v>
+      </c>
+      <c r="B105" s="106"/>
+      <c r="C105" s="106"/>
       <c r="D105" s="24" t="s">
-        <v>228</v>
-      </c>
-      <c r="E105" s="95"/>
-      <c r="F105" s="95"/>
-      <c r="G105" s="78"/>
+        <v>322</v>
+      </c>
+      <c r="E105" s="102"/>
+      <c r="F105" s="87"/>
+      <c r="G105" s="89"/>
       <c r="H105" s="52"/>
     </row>
     <row r="106" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A106" s="51">
-        <v>103</v>
-      </c>
-      <c r="B106" s="91" t="s">
-        <v>332</v>
-      </c>
-      <c r="C106" s="91" t="s">
-        <v>93</v>
+        <v>105</v>
+      </c>
+      <c r="B106" s="105" t="s">
+        <v>319</v>
+      </c>
+      <c r="C106" s="105" t="s">
+        <v>96</v>
       </c>
       <c r="D106" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="E106" s="94" t="s">
-        <v>196</v>
-      </c>
-      <c r="F106" s="94" t="s">
-        <v>197</v>
-      </c>
-      <c r="G106" s="74"/>
+        <v>121</v>
+      </c>
+      <c r="E106" s="100" t="s">
+        <v>164</v>
+      </c>
+      <c r="F106" s="100" t="s">
+        <v>165</v>
+      </c>
+      <c r="G106" s="69"/>
       <c r="H106" s="52"/>
     </row>
-    <row r="107" spans="1:8" s="43" customFormat="1" ht="16.5" customHeight="1">
+    <row r="107" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A107" s="51">
-        <v>104</v>
-      </c>
-      <c r="B107" s="92"/>
-      <c r="C107" s="92"/>
+        <v>106</v>
+      </c>
+      <c r="B107" s="107"/>
+      <c r="C107" s="107"/>
       <c r="D107" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="E107" s="96"/>
-      <c r="F107" s="96"/>
-      <c r="G107" s="74"/>
+        <v>191</v>
+      </c>
+      <c r="E107" s="101"/>
+      <c r="F107" s="101"/>
+      <c r="G107" s="69"/>
       <c r="H107" s="52"/>
     </row>
     <row r="108" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A108" s="51">
-        <v>105</v>
-      </c>
-      <c r="B108" s="92"/>
-      <c r="C108" s="92"/>
-      <c r="D108" s="86" t="s">
-        <v>216</v>
-      </c>
-      <c r="E108" s="96"/>
-      <c r="F108" s="96"/>
-      <c r="G108" s="74"/>
+        <v>107</v>
+      </c>
+      <c r="B108" s="107"/>
+      <c r="C108" s="107"/>
+      <c r="D108" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="E108" s="101"/>
+      <c r="F108" s="101"/>
+      <c r="G108" s="69"/>
       <c r="H108" s="52"/>
     </row>
     <row r="109" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A109" s="51">
-        <v>106</v>
-      </c>
-      <c r="B109" s="92"/>
-      <c r="C109" s="92"/>
-      <c r="D109" s="86" t="s">
-        <v>154</v>
-      </c>
-      <c r="E109" s="96"/>
-      <c r="F109" s="96"/>
-      <c r="G109" s="74"/>
+        <v>108</v>
+      </c>
+      <c r="B109" s="107"/>
+      <c r="C109" s="107"/>
+      <c r="D109" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="E109" s="101"/>
+      <c r="F109" s="101"/>
+      <c r="G109" s="69"/>
       <c r="H109" s="52"/>
     </row>
     <row r="110" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A110" s="51">
-        <v>107</v>
-      </c>
-      <c r="B110" s="92"/>
-      <c r="C110" s="92"/>
-      <c r="D110" s="86" t="s">
-        <v>153</v>
-      </c>
-      <c r="E110" s="96"/>
-      <c r="F110" s="96"/>
-      <c r="G110" s="74"/>
+        <v>109</v>
+      </c>
+      <c r="B110" s="106"/>
+      <c r="C110" s="106"/>
+      <c r="D110" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="E110" s="102"/>
+      <c r="F110" s="102"/>
+      <c r="G110" s="69"/>
       <c r="H110" s="52"/>
     </row>
-    <row r="111" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A111" s="51">
-        <v>108</v>
-      </c>
-      <c r="B111" s="93"/>
-      <c r="C111" s="92"/>
-      <c r="D111" s="86" t="s">
-        <v>212</v>
-      </c>
-      <c r="E111" s="95"/>
-      <c r="F111" s="95"/>
-      <c r="G111" s="74"/>
-      <c r="H111" s="52"/>
-    </row>
-    <row r="112" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+    <row r="111" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A111" s="51"/>
+      <c r="B111" s="25"/>
+      <c r="C111" s="108" t="s">
+        <v>35</v>
+      </c>
+      <c r="D111" s="109"/>
+      <c r="E111" s="72"/>
+      <c r="F111" s="72"/>
+      <c r="G111" s="73"/>
+      <c r="H111" s="27"/>
+    </row>
+    <row r="112" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A112" s="51">
-        <v>109</v>
-      </c>
-      <c r="B112" s="76" t="s">
-        <v>335</v>
-      </c>
-      <c r="C112" s="75" t="s">
-        <v>100</v>
-      </c>
-      <c r="D112" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="E112" s="73" t="s">
-        <v>175</v>
-      </c>
-      <c r="F112" s="73" t="s">
-        <v>177</v>
-      </c>
-      <c r="G112" s="74"/>
-      <c r="H112" s="52"/>
-    </row>
-    <row r="113" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A113" s="51">
         <v>110</v>
       </c>
+      <c r="B112" s="73" t="s">
+        <v>47</v>
+      </c>
+      <c r="C112" s="73" t="s">
+        <v>214</v>
+      </c>
+      <c r="D112" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="E112" s="72"/>
+      <c r="F112" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="G112" s="73"/>
+      <c r="H112" s="27"/>
+    </row>
+    <row r="113" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A113" s="103">
+        <v>111</v>
+      </c>
       <c r="B113" s="105" t="s">
-        <v>334</v>
-      </c>
-      <c r="C113" s="91" t="s">
-        <v>101</v>
-      </c>
-      <c r="D113" s="85" t="s">
-        <v>221</v>
-      </c>
-      <c r="E113" s="94" t="s">
-        <v>174</v>
-      </c>
-      <c r="F113" s="94" t="s">
-        <v>176</v>
-      </c>
-      <c r="G113" s="74"/>
-      <c r="H113" s="52"/>
-    </row>
-    <row r="114" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A114" s="51">
-        <v>111</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C113" s="114" t="s">
+        <v>233</v>
+      </c>
+      <c r="D113" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="E113" s="120"/>
+      <c r="F113" s="100" t="s">
+        <v>73</v>
+      </c>
+      <c r="G113" s="30"/>
+      <c r="H113" s="27"/>
+    </row>
+    <row r="114" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A114" s="104"/>
       <c r="B114" s="106"/>
-      <c r="C114" s="93"/>
-      <c r="D114" s="86" t="s">
-        <v>126</v>
-      </c>
-      <c r="E114" s="95"/>
-      <c r="F114" s="95"/>
-      <c r="G114" s="74"/>
-      <c r="H114" s="52"/>
+      <c r="C114" s="114"/>
+      <c r="D114" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="E114" s="120"/>
+      <c r="F114" s="102"/>
+      <c r="G114" s="30"/>
+      <c r="H114" s="27"/>
     </row>
     <row r="115" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A115" s="51"/>
-      <c r="B115" s="25"/>
-      <c r="C115" s="111" t="s">
-        <v>35</v>
-      </c>
-      <c r="D115" s="112"/>
-      <c r="E115" s="73"/>
-      <c r="F115" s="73"/>
-      <c r="G115" s="74"/>
+      <c r="A115" s="29">
+        <v>112</v>
+      </c>
+      <c r="B115" s="105" t="s">
+        <v>240</v>
+      </c>
+      <c r="C115" s="114" t="s">
+        <v>239</v>
+      </c>
+      <c r="D115" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="E115" s="120"/>
+      <c r="F115" s="100" t="s">
+        <v>71</v>
+      </c>
+      <c r="G115" s="30"/>
       <c r="H115" s="27"/>
     </row>
     <row r="116" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A116" s="51">
-        <v>112</v>
-      </c>
-      <c r="B116" s="74" t="s">
-        <v>47</v>
-      </c>
-      <c r="C116" s="74" t="s">
-        <v>240</v>
-      </c>
+      <c r="A116" s="29">
+        <v>113</v>
+      </c>
+      <c r="B116" s="106"/>
+      <c r="C116" s="114"/>
       <c r="D116" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="E116" s="120"/>
+      <c r="F116" s="102"/>
+      <c r="G116" s="30"/>
+      <c r="H116" s="27"/>
+    </row>
+    <row r="117" spans="1:8" s="43" customFormat="1" ht="15" customHeight="1">
+      <c r="A117" s="51">
+        <v>114</v>
+      </c>
+      <c r="B117" s="105" t="s">
         <v>241</v>
       </c>
-      <c r="E116" s="73"/>
-      <c r="F116" s="73" t="s">
+      <c r="C117" s="114" t="s">
+        <v>236</v>
+      </c>
+      <c r="D117" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E117" s="120"/>
+      <c r="F117" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="G116" s="74"/>
-      <c r="H116" s="27"/>
-    </row>
-    <row r="117" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A117" s="103">
-        <v>113</v>
-      </c>
-      <c r="B117" s="91" t="s">
-        <v>48</v>
-      </c>
-      <c r="C117" s="102" t="s">
-        <v>259</v>
-      </c>
-      <c r="D117" s="25" t="s">
-        <v>260</v>
-      </c>
-      <c r="E117" s="98"/>
-      <c r="F117" s="94" t="s">
-        <v>73</v>
-      </c>
       <c r="G117" s="30"/>
-      <c r="H117" s="27"/>
-    </row>
-    <row r="118" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A118" s="107"/>
-      <c r="B118" s="93"/>
-      <c r="C118" s="102"/>
-      <c r="D118" s="33" t="s">
-        <v>261</v>
-      </c>
-      <c r="E118" s="98"/>
-      <c r="F118" s="95"/>
+      <c r="H117" s="32"/>
+    </row>
+    <row r="118" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A118" s="51">
+        <v>115</v>
+      </c>
+      <c r="B118" s="107"/>
+      <c r="C118" s="114"/>
+      <c r="D118" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E118" s="120"/>
+      <c r="F118" s="101"/>
       <c r="G118" s="30"/>
-      <c r="H118" s="27"/>
-    </row>
-    <row r="119" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A119" s="29">
-        <v>114</v>
-      </c>
-      <c r="B119" s="91" t="s">
-        <v>266</v>
-      </c>
-      <c r="C119" s="102" t="s">
-        <v>265</v>
-      </c>
+      <c r="H118" s="32"/>
+    </row>
+    <row r="119" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A119" s="51">
+        <v>116</v>
+      </c>
+      <c r="B119" s="106"/>
+      <c r="C119" s="114"/>
       <c r="D119" s="25" t="s">
-        <v>263</v>
-      </c>
-      <c r="E119" s="98"/>
-      <c r="F119" s="94" t="s">
-        <v>71</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E119" s="120"/>
+      <c r="F119" s="102"/>
       <c r="G119" s="30"/>
-      <c r="H119" s="27"/>
-    </row>
-    <row r="120" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A120" s="29">
-        <v>115</v>
-      </c>
-      <c r="B120" s="93"/>
-      <c r="C120" s="102"/>
-      <c r="D120" s="25" t="s">
-        <v>264</v>
-      </c>
-      <c r="E120" s="98"/>
-      <c r="F120" s="95"/>
+      <c r="H119" s="32"/>
+    </row>
+    <row r="120" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A120" s="29"/>
+      <c r="B120" s="25"/>
+      <c r="C120" s="119" t="s">
+        <v>37</v>
+      </c>
+      <c r="D120" s="119"/>
+      <c r="E120" s="25"/>
+      <c r="F120" s="62"/>
       <c r="G120" s="30"/>
-      <c r="H120" s="27"/>
-    </row>
-    <row r="121" spans="1:8" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A121" s="51">
-        <v>116</v>
-      </c>
-      <c r="B121" s="91" t="s">
-        <v>267</v>
-      </c>
-      <c r="C121" s="102" t="s">
-        <v>262</v>
+      <c r="H120" s="32"/>
+    </row>
+    <row r="121" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A121" s="29">
+        <v>117</v>
+      </c>
+      <c r="B121" s="105" t="s">
+        <v>49</v>
+      </c>
+      <c r="C121" s="114" t="s">
+        <v>213</v>
       </c>
       <c r="D121" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E121" s="98"/>
-      <c r="F121" s="94" t="s">
-        <v>71</v>
+        <v>34</v>
+      </c>
+      <c r="E121" s="120"/>
+      <c r="F121" s="100" t="s">
+        <v>74</v>
       </c>
       <c r="G121" s="30"/>
       <c r="H121" s="32"/>
     </row>
     <row r="122" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A122" s="51">
-        <v>117</v>
-      </c>
-      <c r="B122" s="92"/>
-      <c r="C122" s="102"/>
+        <v>118</v>
+      </c>
+      <c r="B122" s="107"/>
+      <c r="C122" s="114"/>
       <c r="D122" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E122" s="98"/>
-      <c r="F122" s="96"/>
+        <v>66</v>
+      </c>
+      <c r="E122" s="120"/>
+      <c r="F122" s="101"/>
       <c r="G122" s="30"/>
       <c r="H122" s="32"/>
     </row>
     <row r="123" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A123" s="51">
-        <v>118</v>
-      </c>
-      <c r="B123" s="93"/>
-      <c r="C123" s="102"/>
-      <c r="D123" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E123" s="98"/>
-      <c r="F123" s="95"/>
+        <v>119</v>
+      </c>
+      <c r="B123" s="107"/>
+      <c r="C123" s="114"/>
+      <c r="D123" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E123" s="120"/>
+      <c r="F123" s="101"/>
       <c r="G123" s="30"/>
       <c r="H123" s="32"/>
     </row>
     <row r="124" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A124" s="29"/>
-      <c r="B124" s="25"/>
-      <c r="C124" s="113" t="s">
-        <v>37</v>
-      </c>
-      <c r="D124" s="113"/>
-      <c r="E124" s="25"/>
-      <c r="F124" s="62"/>
+      <c r="A124" s="51">
+        <v>120</v>
+      </c>
+      <c r="B124" s="106"/>
+      <c r="C124" s="114"/>
+      <c r="D124" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E124" s="120"/>
+      <c r="F124" s="102"/>
       <c r="G124" s="30"/>
       <c r="H124" s="32"/>
     </row>
     <row r="125" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A125" s="29">
-        <v>119</v>
-      </c>
-      <c r="B125" s="91" t="s">
-        <v>49</v>
-      </c>
-      <c r="C125" s="102" t="s">
-        <v>239</v>
+      <c r="A125" s="51">
+        <v>121</v>
+      </c>
+      <c r="B125" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C125" s="30" t="s">
+        <v>36</v>
       </c>
       <c r="D125" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E125" s="98"/>
-      <c r="F125" s="94" t="s">
-        <v>74</v>
+        <v>9</v>
+      </c>
+      <c r="E125" s="25"/>
+      <c r="F125" s="62" t="s">
+        <v>73</v>
       </c>
       <c r="G125" s="30"/>
       <c r="H125" s="32"/>
     </row>
     <row r="126" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A126" s="51">
-        <v>120</v>
-      </c>
-      <c r="B126" s="92"/>
-      <c r="C126" s="102"/>
-      <c r="D126" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="E126" s="98"/>
-      <c r="F126" s="96"/>
+      <c r="A126" s="25"/>
+      <c r="B126" s="25"/>
+      <c r="C126" s="119" t="s">
+        <v>38</v>
+      </c>
+      <c r="D126" s="119"/>
+      <c r="E126" s="25"/>
+      <c r="F126" s="62"/>
       <c r="G126" s="30"/>
       <c r="H126" s="32"/>
     </row>
-    <row r="127" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A127" s="51">
-        <v>121</v>
-      </c>
-      <c r="B127" s="92"/>
-      <c r="C127" s="102"/>
-      <c r="D127" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="E127" s="98"/>
-      <c r="F127" s="96"/>
+    <row r="127" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A127" s="31">
+        <v>122</v>
+      </c>
+      <c r="B127" s="105" t="s">
+        <v>256</v>
+      </c>
+      <c r="C127" s="105" t="s">
+        <v>257</v>
+      </c>
+      <c r="D127" s="94" t="s">
+        <v>271</v>
+      </c>
+      <c r="E127" s="120"/>
+      <c r="F127" s="100" t="s">
+        <v>74</v>
+      </c>
       <c r="G127" s="30"/>
       <c r="H127" s="32"/>
     </row>
-    <row r="128" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A128" s="51">
-        <v>122</v>
-      </c>
-      <c r="B128" s="93"/>
-      <c r="C128" s="102"/>
-      <c r="D128" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="E128" s="98"/>
-      <c r="F128" s="95"/>
+    <row r="128" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A128" s="40">
+        <v>123</v>
+      </c>
+      <c r="B128" s="107"/>
+      <c r="C128" s="107"/>
+      <c r="D128" s="93" t="s">
+        <v>258</v>
+      </c>
+      <c r="E128" s="120"/>
+      <c r="F128" s="101"/>
       <c r="G128" s="30"/>
       <c r="H128" s="32"/>
     </row>
-    <row r="129" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A129" s="51">
-        <v>123</v>
-      </c>
-      <c r="B129" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="C129" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="D129" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E129" s="25"/>
-      <c r="F129" s="62" t="s">
-        <v>73</v>
-      </c>
+    <row r="129" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A129" s="88">
+        <v>124</v>
+      </c>
+      <c r="B129" s="106"/>
+      <c r="C129" s="106"/>
+      <c r="D129" s="93" t="s">
+        <v>259</v>
+      </c>
+      <c r="E129" s="120"/>
+      <c r="F129" s="102"/>
       <c r="G129" s="30"/>
       <c r="H129" s="32"/>
     </row>
-    <row r="130" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A130" s="25"/>
-      <c r="B130" s="25"/>
-      <c r="C130" s="113" t="s">
-        <v>38</v>
-      </c>
-      <c r="D130" s="113"/>
-      <c r="E130" s="25"/>
-      <c r="F130" s="62"/>
-      <c r="G130" s="30"/>
-      <c r="H130" s="32"/>
+    <row r="130" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A130" s="88">
+        <v>125</v>
+      </c>
+      <c r="B130" s="105" t="s">
+        <v>260</v>
+      </c>
+      <c r="C130" s="105" t="s">
+        <v>262</v>
+      </c>
+      <c r="D130" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="E130" s="100"/>
+      <c r="F130" s="100" t="s">
+        <v>287</v>
+      </c>
+      <c r="G130" s="81"/>
+      <c r="H130" s="52"/>
     </row>
     <row r="131" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A131" s="31">
-        <v>124</v>
-      </c>
-      <c r="B131" s="91" t="s">
-        <v>282</v>
-      </c>
-      <c r="C131" s="91" t="s">
-        <v>283</v>
-      </c>
-      <c r="D131" s="125" t="s">
-        <v>297</v>
-      </c>
-      <c r="E131" s="98"/>
-      <c r="F131" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="G131" s="30"/>
-      <c r="H131" s="32"/>
+      <c r="A131" s="88">
+        <v>126</v>
+      </c>
+      <c r="B131" s="107"/>
+      <c r="C131" s="107"/>
+      <c r="D131" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="E131" s="101"/>
+      <c r="F131" s="101"/>
+      <c r="G131" s="81"/>
+      <c r="H131" s="52"/>
     </row>
     <row r="132" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A132" s="40">
-        <v>125</v>
-      </c>
-      <c r="B132" s="92"/>
-      <c r="C132" s="92"/>
-      <c r="D132" s="124" t="s">
-        <v>284</v>
-      </c>
-      <c r="E132" s="98"/>
-      <c r="F132" s="96"/>
-      <c r="G132" s="30"/>
-      <c r="H132" s="32"/>
+      <c r="A132" s="88">
+        <v>127</v>
+      </c>
+      <c r="B132" s="106"/>
+      <c r="C132" s="106"/>
+      <c r="D132" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="E132" s="102"/>
+      <c r="F132" s="102"/>
+      <c r="G132" s="81"/>
+      <c r="H132" s="52"/>
     </row>
     <row r="133" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A133" s="83">
-        <v>126</v>
-      </c>
-      <c r="B133" s="93"/>
-      <c r="C133" s="93"/>
-      <c r="D133" s="124" t="s">
-        <v>285</v>
-      </c>
-      <c r="E133" s="98"/>
-      <c r="F133" s="95"/>
+      <c r="A133" s="88">
+        <v>128</v>
+      </c>
+      <c r="B133" s="105" t="s">
+        <v>272</v>
+      </c>
+      <c r="C133" s="114" t="s">
+        <v>265</v>
+      </c>
+      <c r="D133" s="66" t="s">
+        <v>266</v>
+      </c>
+      <c r="E133" s="120"/>
+      <c r="F133" s="100" t="s">
+        <v>71</v>
+      </c>
       <c r="G133" s="30"/>
       <c r="H133" s="32"/>
     </row>
     <row r="134" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A134" s="83">
-        <v>127</v>
-      </c>
-      <c r="B134" s="91" t="s">
-        <v>286</v>
-      </c>
-      <c r="C134" s="91" t="s">
-        <v>288</v>
-      </c>
-      <c r="D134" s="25" t="s">
-        <v>287</v>
-      </c>
-      <c r="E134" s="94"/>
-      <c r="F134" s="94" t="s">
-        <v>313</v>
-      </c>
-      <c r="G134" s="84"/>
-      <c r="H134" s="52"/>
+      <c r="A134" s="88">
+        <v>129</v>
+      </c>
+      <c r="B134" s="107"/>
+      <c r="C134" s="121"/>
+      <c r="D134" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="E134" s="125"/>
+      <c r="F134" s="101"/>
+      <c r="G134" s="30"/>
+      <c r="H134" s="32"/>
     </row>
     <row r="135" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A135" s="83">
-        <v>128</v>
-      </c>
-      <c r="B135" s="92"/>
-      <c r="C135" s="92"/>
+      <c r="A135" s="88">
+        <v>130</v>
+      </c>
+      <c r="B135" s="107"/>
+      <c r="C135" s="121"/>
       <c r="D135" s="25" t="s">
-        <v>289</v>
-      </c>
-      <c r="E135" s="96"/>
-      <c r="F135" s="96"/>
-      <c r="G135" s="84"/>
+        <v>270</v>
+      </c>
+      <c r="E135" s="125"/>
+      <c r="F135" s="101"/>
+      <c r="G135" s="39"/>
       <c r="H135" s="52"/>
     </row>
     <row r="136" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A136" s="83">
-        <v>129</v>
-      </c>
-      <c r="B136" s="93"/>
-      <c r="C136" s="93"/>
-      <c r="D136" s="25" t="s">
-        <v>290</v>
-      </c>
-      <c r="E136" s="95"/>
-      <c r="F136" s="95"/>
-      <c r="G136" s="84"/>
-      <c r="H136" s="52"/>
+      <c r="A136" s="88">
+        <v>131</v>
+      </c>
+      <c r="B136" s="107"/>
+      <c r="C136" s="114"/>
+      <c r="D136" s="65" t="s">
+        <v>268</v>
+      </c>
+      <c r="E136" s="120"/>
+      <c r="F136" s="101"/>
+      <c r="G136" s="30"/>
+      <c r="H136" s="32"/>
     </row>
     <row r="137" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A137" s="83">
-        <v>130</v>
-      </c>
-      <c r="B137" s="91" t="s">
-        <v>298</v>
-      </c>
-      <c r="C137" s="102" t="s">
-        <v>291</v>
-      </c>
-      <c r="D137" s="66" t="s">
-        <v>292</v>
-      </c>
-      <c r="E137" s="98"/>
-      <c r="F137" s="94" t="s">
-        <v>71</v>
-      </c>
+      <c r="A137" s="88">
+        <v>132</v>
+      </c>
+      <c r="B137" s="106"/>
+      <c r="C137" s="114"/>
+      <c r="D137" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="E137" s="120"/>
+      <c r="F137" s="102"/>
       <c r="G137" s="30"/>
       <c r="H137" s="32"/>
     </row>
     <row r="138" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A138" s="83">
-        <v>131</v>
-      </c>
-      <c r="B138" s="92"/>
-      <c r="C138" s="101"/>
-      <c r="D138" s="66" t="s">
-        <v>293</v>
-      </c>
-      <c r="E138" s="108"/>
-      <c r="F138" s="96"/>
-      <c r="G138" s="30"/>
-      <c r="H138" s="32"/>
+      <c r="A138" s="88">
+        <v>133</v>
+      </c>
+      <c r="B138" s="105" t="s">
+        <v>277</v>
+      </c>
+      <c r="C138" s="105" t="s">
+        <v>273</v>
+      </c>
+      <c r="D138" s="95" t="s">
+        <v>276</v>
+      </c>
+      <c r="E138" s="100"/>
+      <c r="F138" s="100" t="s">
+        <v>288</v>
+      </c>
+      <c r="G138" s="81"/>
+      <c r="H138" s="52"/>
     </row>
     <row r="139" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A139" s="83">
-        <v>132</v>
-      </c>
-      <c r="B139" s="92"/>
-      <c r="C139" s="101"/>
-      <c r="D139" s="25" t="s">
-        <v>296</v>
-      </c>
-      <c r="E139" s="108"/>
-      <c r="F139" s="96"/>
-      <c r="G139" s="39"/>
+      <c r="A139" s="88">
+        <v>134</v>
+      </c>
+      <c r="B139" s="107"/>
+      <c r="C139" s="107"/>
+      <c r="D139" s="95" t="s">
+        <v>274</v>
+      </c>
+      <c r="E139" s="101"/>
+      <c r="F139" s="101"/>
+      <c r="G139" s="81"/>
       <c r="H139" s="52"/>
     </row>
     <row r="140" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A140" s="83">
-        <v>133</v>
-      </c>
-      <c r="B140" s="92"/>
-      <c r="C140" s="102"/>
-      <c r="D140" s="65" t="s">
-        <v>294</v>
-      </c>
-      <c r="E140" s="98"/>
-      <c r="F140" s="96"/>
-      <c r="G140" s="30"/>
-      <c r="H140" s="32"/>
+      <c r="A140" s="88">
+        <v>135</v>
+      </c>
+      <c r="B140" s="106"/>
+      <c r="C140" s="106"/>
+      <c r="D140" s="95" t="s">
+        <v>275</v>
+      </c>
+      <c r="E140" s="102"/>
+      <c r="F140" s="102"/>
+      <c r="G140" s="81"/>
+      <c r="H140" s="52"/>
     </row>
     <row r="141" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A141" s="83">
-        <v>134</v>
-      </c>
-      <c r="B141" s="93"/>
-      <c r="C141" s="102"/>
-      <c r="D141" s="25" t="s">
-        <v>295</v>
-      </c>
-      <c r="E141" s="98"/>
-      <c r="F141" s="95"/>
-      <c r="G141" s="30"/>
-      <c r="H141" s="32"/>
+      <c r="A141" s="88">
+        <v>136</v>
+      </c>
+      <c r="B141" s="105" t="s">
+        <v>279</v>
+      </c>
+      <c r="C141" s="105" t="s">
+        <v>278</v>
+      </c>
+      <c r="D141" s="95" t="s">
+        <v>280</v>
+      </c>
+      <c r="E141" s="100"/>
+      <c r="F141" s="100" t="s">
+        <v>245</v>
+      </c>
+      <c r="G141" s="81"/>
+      <c r="H141" s="52"/>
     </row>
     <row r="142" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A142" s="83">
-        <v>135</v>
-      </c>
-      <c r="B142" s="91" t="s">
-        <v>303</v>
-      </c>
-      <c r="C142" s="91" t="s">
-        <v>299</v>
-      </c>
-      <c r="D142" s="126" t="s">
-        <v>302</v>
-      </c>
-      <c r="E142" s="94"/>
-      <c r="F142" s="94" t="s">
-        <v>314</v>
-      </c>
-      <c r="G142" s="84"/>
+      <c r="A142" s="88">
+        <v>137</v>
+      </c>
+      <c r="B142" s="106"/>
+      <c r="C142" s="106"/>
+      <c r="D142" s="95" t="s">
+        <v>281</v>
+      </c>
+      <c r="E142" s="102"/>
+      <c r="F142" s="102"/>
+      <c r="G142" s="81"/>
       <c r="H142" s="52"/>
     </row>
     <row r="143" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A143" s="83">
-        <v>136</v>
-      </c>
-      <c r="B143" s="92"/>
-      <c r="C143" s="92"/>
-      <c r="D143" s="126" t="s">
-        <v>300</v>
-      </c>
-      <c r="E143" s="96"/>
-      <c r="F143" s="96"/>
-      <c r="G143" s="84"/>
-      <c r="H143" s="52"/>
+      <c r="A143" s="25"/>
+      <c r="B143" s="25"/>
+      <c r="C143" s="108" t="s">
+        <v>13</v>
+      </c>
+      <c r="D143" s="109"/>
+      <c r="E143" s="25"/>
+      <c r="F143" s="62"/>
+      <c r="G143" s="30"/>
+      <c r="H143" s="32"/>
     </row>
     <row r="144" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A144" s="83">
-        <v>137</v>
-      </c>
-      <c r="B144" s="93"/>
-      <c r="C144" s="93"/>
-      <c r="D144" s="126" t="s">
-        <v>301</v>
-      </c>
-      <c r="E144" s="95"/>
-      <c r="F144" s="95"/>
-      <c r="G144" s="84"/>
-      <c r="H144" s="52"/>
+      <c r="A144" s="100">
+        <v>138</v>
+      </c>
+      <c r="B144" s="105" t="s">
+        <v>227</v>
+      </c>
+      <c r="C144" s="105" t="s">
+        <v>225</v>
+      </c>
+      <c r="D144" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="E144" s="25"/>
+      <c r="F144" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="G144" s="30"/>
+      <c r="H144" s="32"/>
     </row>
     <row r="145" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A145" s="83">
-        <v>138</v>
-      </c>
-      <c r="B145" s="91" t="s">
-        <v>305</v>
-      </c>
-      <c r="C145" s="91" t="s">
-        <v>304</v>
-      </c>
-      <c r="D145" s="126" t="s">
-        <v>306</v>
-      </c>
-      <c r="E145" s="94"/>
-      <c r="F145" s="94" t="s">
-        <v>271</v>
-      </c>
-      <c r="G145" s="84"/>
+      <c r="A145" s="102"/>
+      <c r="B145" s="106"/>
+      <c r="C145" s="106"/>
+      <c r="D145" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="E145" s="25"/>
+      <c r="F145" s="80" t="s">
+        <v>245</v>
+      </c>
+      <c r="G145" s="81"/>
       <c r="H145" s="52"/>
     </row>
     <row r="146" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A146" s="83">
+      <c r="A146" s="77">
         <v>139</v>
       </c>
-      <c r="B146" s="93"/>
-      <c r="C146" s="93"/>
-      <c r="D146" s="126" t="s">
-        <v>307</v>
-      </c>
-      <c r="E146" s="95"/>
-      <c r="F146" s="95"/>
-      <c r="G146" s="84"/>
+      <c r="B146" s="79" t="s">
+        <v>228</v>
+      </c>
+      <c r="C146" s="79" t="s">
+        <v>229</v>
+      </c>
+      <c r="D146" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="E146" s="25"/>
+      <c r="F146" s="80" t="s">
+        <v>287</v>
+      </c>
+      <c r="G146" s="81"/>
       <c r="H146" s="52"/>
     </row>
-    <row r="147" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A147" s="25"/>
-      <c r="B147" s="25"/>
-      <c r="C147" s="111" t="s">
-        <v>13</v>
-      </c>
-      <c r="D147" s="112"/>
+    <row r="147" spans="1:8" s="42" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A147" s="31">
+        <v>140</v>
+      </c>
+      <c r="B147" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="C147" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D147" s="25" t="s">
+        <v>286</v>
+      </c>
       <c r="E147" s="25"/>
-      <c r="F147" s="62"/>
+      <c r="F147" s="62" t="s">
+        <v>71</v>
+      </c>
       <c r="G147" s="30"/>
       <c r="H147" s="32"/>
     </row>
-    <row r="148" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A148" s="94">
-        <v>140</v>
-      </c>
-      <c r="B148" s="91" t="s">
-        <v>253</v>
-      </c>
-      <c r="C148" s="91" t="s">
-        <v>251</v>
+    <row r="148" spans="1:8" s="42" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A148" s="76">
+        <v>141</v>
+      </c>
+      <c r="B148" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="C148" s="81" t="s">
+        <v>221</v>
       </c>
       <c r="D148" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="E148" s="25"/>
-      <c r="F148" s="62" t="s">
-        <v>74</v>
+        <v>222</v>
+      </c>
+      <c r="E148" s="80"/>
+      <c r="F148" s="76" t="s">
+        <v>71</v>
       </c>
       <c r="G148" s="30"/>
       <c r="H148" s="32"/>
     </row>
     <row r="149" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A149" s="95"/>
-      <c r="B149" s="93"/>
-      <c r="C149" s="93"/>
+      <c r="A149" s="31">
+        <v>142</v>
+      </c>
+      <c r="B149" s="105" t="s">
+        <v>52</v>
+      </c>
+      <c r="C149" s="114" t="s">
+        <v>223</v>
+      </c>
       <c r="D149" s="25" t="s">
-        <v>252</v>
-      </c>
-      <c r="E149" s="25"/>
-      <c r="F149" s="83" t="s">
-        <v>271</v>
-      </c>
-      <c r="G149" s="84"/>
-      <c r="H149" s="52"/>
+        <v>224</v>
+      </c>
+      <c r="E149" s="120"/>
+      <c r="F149" s="100" t="s">
+        <v>71</v>
+      </c>
+      <c r="G149" s="30"/>
+      <c r="H149" s="32"/>
     </row>
     <row r="150" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A150" s="80">
-        <v>141</v>
-      </c>
-      <c r="B150" s="82" t="s">
-        <v>254</v>
-      </c>
-      <c r="C150" s="82" t="s">
-        <v>255</v>
-      </c>
-      <c r="D150" s="25" t="s">
-        <v>256</v>
-      </c>
-      <c r="E150" s="25"/>
-      <c r="F150" s="83" t="s">
-        <v>313</v>
-      </c>
-      <c r="G150" s="84"/>
-      <c r="H150" s="52"/>
-    </row>
-    <row r="151" spans="1:8" s="42" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A151" s="31">
-        <v>142</v>
-      </c>
-      <c r="B151" s="30" t="s">
-        <v>257</v>
-      </c>
-      <c r="C151" s="30" t="s">
+      <c r="A150" s="31">
+        <v>143</v>
+      </c>
+      <c r="B150" s="106"/>
+      <c r="C150" s="114"/>
+      <c r="D150" s="66" t="s">
         <v>246</v>
       </c>
-      <c r="D151" s="25" t="s">
-        <v>312</v>
-      </c>
-      <c r="E151" s="25"/>
-      <c r="F151" s="62" t="s">
+      <c r="E150" s="120"/>
+      <c r="F150" s="102"/>
+      <c r="G150" s="30"/>
+      <c r="H150" s="32"/>
+    </row>
+    <row r="151" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A151" s="100">
+        <v>144</v>
+      </c>
+      <c r="B151" s="105" t="s">
+        <v>282</v>
+      </c>
+      <c r="C151" s="121" t="s">
+        <v>232</v>
+      </c>
+      <c r="D151" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="E151" s="125"/>
+      <c r="F151" s="100" t="s">
         <v>71</v>
       </c>
       <c r="G151" s="30"/>
       <c r="H151" s="32"/>
     </row>
-    <row r="152" spans="1:8" s="42" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A152" s="79">
-        <v>143</v>
-      </c>
-      <c r="B152" s="81" t="s">
-        <v>51</v>
-      </c>
-      <c r="C152" s="84" t="s">
-        <v>247</v>
-      </c>
-      <c r="D152" s="25" t="s">
-        <v>248</v>
-      </c>
-      <c r="E152" s="83"/>
-      <c r="F152" s="79" t="s">
-        <v>71</v>
-      </c>
-      <c r="G152" s="30"/>
-      <c r="H152" s="32"/>
+    <row r="152" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A152" s="101"/>
+      <c r="B152" s="107"/>
+      <c r="C152" s="121"/>
+      <c r="D152" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E152" s="125"/>
+      <c r="F152" s="101"/>
+      <c r="G152" s="39"/>
+      <c r="H152" s="52"/>
     </row>
     <row r="153" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A153" s="31">
-        <v>144</v>
-      </c>
-      <c r="B153" s="91" t="s">
-        <v>52</v>
-      </c>
-      <c r="C153" s="102" t="s">
-        <v>249</v>
-      </c>
-      <c r="D153" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="E153" s="98"/>
-      <c r="F153" s="94" t="s">
-        <v>71</v>
-      </c>
+      <c r="A153" s="101"/>
+      <c r="B153" s="107"/>
+      <c r="C153" s="114"/>
+      <c r="D153" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="E153" s="120"/>
+      <c r="F153" s="101"/>
       <c r="G153" s="30"/>
       <c r="H153" s="32"/>
     </row>
     <row r="154" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A154" s="31">
-        <v>145</v>
-      </c>
-      <c r="B154" s="93"/>
-      <c r="C154" s="102"/>
-      <c r="D154" s="66" t="s">
-        <v>272</v>
-      </c>
-      <c r="E154" s="98"/>
-      <c r="F154" s="95"/>
+      <c r="A154" s="101"/>
+      <c r="B154" s="107"/>
+      <c r="C154" s="114"/>
+      <c r="D154" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E154" s="120"/>
+      <c r="F154" s="101"/>
       <c r="G154" s="30"/>
       <c r="H154" s="32"/>
     </row>
     <row r="155" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A155" s="94">
-        <v>146</v>
-      </c>
-      <c r="B155" s="91" t="s">
-        <v>308</v>
-      </c>
-      <c r="C155" s="101" t="s">
-        <v>258</v>
-      </c>
-      <c r="D155" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="E155" s="108"/>
-      <c r="F155" s="94" t="s">
-        <v>71</v>
-      </c>
+      <c r="A155" s="101"/>
+      <c r="B155" s="107"/>
+      <c r="C155" s="114"/>
+      <c r="D155" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E155" s="120"/>
+      <c r="F155" s="101"/>
       <c r="G155" s="30"/>
       <c r="H155" s="32"/>
     </row>
-    <row r="156" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A156" s="96"/>
-      <c r="B156" s="92"/>
-      <c r="C156" s="101"/>
-      <c r="D156" s="65" t="s">
-        <v>69</v>
-      </c>
-      <c r="E156" s="108"/>
-      <c r="F156" s="96"/>
-      <c r="G156" s="39"/>
-      <c r="H156" s="52"/>
-    </row>
-    <row r="157" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A157" s="96"/>
-      <c r="B157" s="92"/>
-      <c r="C157" s="102"/>
-      <c r="D157" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="E157" s="98"/>
-      <c r="F157" s="96"/>
+    <row r="156" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A156" s="101"/>
+      <c r="B156" s="107"/>
+      <c r="C156" s="114"/>
+      <c r="D156" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E156" s="120"/>
+      <c r="F156" s="101"/>
+      <c r="G156" s="30"/>
+      <c r="H156" s="32"/>
+    </row>
+    <row r="157" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A157" s="101"/>
+      <c r="B157" s="107"/>
+      <c r="C157" s="114"/>
+      <c r="D157" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="E157" s="120"/>
+      <c r="F157" s="101"/>
       <c r="G157" s="30"/>
       <c r="H157" s="32"/>
     </row>
-    <row r="158" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A158" s="96"/>
-      <c r="B158" s="92"/>
-      <c r="C158" s="102"/>
+    <row r="158" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A158" s="102"/>
+      <c r="B158" s="106"/>
+      <c r="C158" s="114"/>
       <c r="D158" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="E158" s="98"/>
-      <c r="F158" s="96"/>
+        <v>59</v>
+      </c>
+      <c r="E158" s="120"/>
+      <c r="F158" s="102"/>
       <c r="G158" s="30"/>
       <c r="H158" s="32"/>
     </row>
-    <row r="159" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A159" s="96"/>
-      <c r="B159" s="92"/>
-      <c r="C159" s="102"/>
+    <row r="159" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A159" s="100">
+        <v>145</v>
+      </c>
+      <c r="B159" s="105" t="s">
+        <v>283</v>
+      </c>
+      <c r="C159" s="114" t="s">
+        <v>284</v>
+      </c>
       <c r="D159" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="E159" s="98"/>
-      <c r="F159" s="96"/>
+        <v>285</v>
+      </c>
+      <c r="E159" s="120"/>
+      <c r="F159" s="100" t="s">
+        <v>73</v>
+      </c>
       <c r="G159" s="30"/>
       <c r="H159" s="32"/>
     </row>
     <row r="160" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A160" s="96"/>
-      <c r="B160" s="92"/>
-      <c r="C160" s="102"/>
-      <c r="D160" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="E160" s="98"/>
-      <c r="F160" s="96"/>
+      <c r="A160" s="102"/>
+      <c r="B160" s="106"/>
+      <c r="C160" s="114"/>
+      <c r="D160" s="96" t="s">
+        <v>289</v>
+      </c>
+      <c r="E160" s="120"/>
+      <c r="F160" s="102"/>
       <c r="G160" s="30"/>
       <c r="H160" s="32"/>
     </row>
     <row r="161" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A161" s="96"/>
-      <c r="B161" s="92"/>
-      <c r="C161" s="102"/>
-      <c r="D161" s="25" t="s">
-        <v>330</v>
-      </c>
-      <c r="E161" s="98"/>
-      <c r="F161" s="96"/>
+      <c r="A161" s="22"/>
+      <c r="B161" s="30"/>
+      <c r="C161" s="108" t="s">
+        <v>33</v>
+      </c>
+      <c r="D161" s="109"/>
+      <c r="E161" s="22"/>
+      <c r="F161" s="62"/>
       <c r="G161" s="30"/>
       <c r="H161" s="32"/>
     </row>
     <row r="162" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A162" s="95"/>
-      <c r="B162" s="93"/>
-      <c r="C162" s="102"/>
-      <c r="D162" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="E162" s="98"/>
-      <c r="F162" s="95"/>
+      <c r="A162" s="31">
+        <v>146</v>
+      </c>
+      <c r="B162" s="30" t="s">
+        <v>294</v>
+      </c>
+      <c r="C162" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="D162" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="E162" s="25"/>
+      <c r="F162" s="62" t="s">
+        <v>75</v>
+      </c>
       <c r="G162" s="30"/>
       <c r="H162" s="32"/>
     </row>
     <row r="163" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A163" s="94">
+      <c r="A163" s="31">
         <v>147</v>
       </c>
-      <c r="B163" s="91" t="s">
-        <v>309</v>
-      </c>
-      <c r="C163" s="102" t="s">
-        <v>310</v>
+      <c r="B163" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="C163" s="30" t="s">
+        <v>292</v>
       </c>
       <c r="D163" s="25" t="s">
-        <v>311</v>
-      </c>
-      <c r="E163" s="98"/>
-      <c r="F163" s="94" t="s">
-        <v>73</v>
+        <v>295</v>
+      </c>
+      <c r="E163" s="25"/>
+      <c r="F163" s="62" t="s">
+        <v>71</v>
       </c>
       <c r="G163" s="30"/>
       <c r="H163" s="32"/>
     </row>
-    <row r="164" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A164" s="95"/>
-      <c r="B164" s="93"/>
-      <c r="C164" s="102"/>
-      <c r="D164" s="127" t="s">
-        <v>315</v>
-      </c>
-      <c r="E164" s="98"/>
-      <c r="F164" s="95"/>
+    <row r="164" spans="1:8" s="43" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A164" s="74">
+        <v>148</v>
+      </c>
+      <c r="B164" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="C164" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="D164" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="E164" s="25"/>
+      <c r="F164" s="62" t="s">
+        <v>71</v>
+      </c>
       <c r="G164" s="30"/>
       <c r="H164" s="32"/>
     </row>
     <row r="165" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A165" s="22"/>
-      <c r="B165" s="30"/>
-      <c r="C165" s="111" t="s">
-        <v>33</v>
-      </c>
-      <c r="D165" s="112"/>
-      <c r="E165" s="22"/>
-      <c r="F165" s="62"/>
+      <c r="A165" s="74">
+        <v>149</v>
+      </c>
+      <c r="B165" s="105" t="s">
+        <v>301</v>
+      </c>
+      <c r="C165" s="114" t="s">
+        <v>299</v>
+      </c>
+      <c r="D165" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="E165" s="120"/>
+      <c r="F165" s="100" t="s">
+        <v>76</v>
+      </c>
       <c r="G165" s="30"/>
       <c r="H165" s="32"/>
     </row>
     <row r="166" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A166" s="31">
-        <v>148</v>
-      </c>
-      <c r="B166" s="30" t="s">
-        <v>320</v>
-      </c>
-      <c r="C166" s="30" t="s">
-        <v>316</v>
-      </c>
-      <c r="D166" s="24" t="s">
-        <v>317</v>
-      </c>
-      <c r="E166" s="25"/>
-      <c r="F166" s="62" t="s">
-        <v>75</v>
-      </c>
+      <c r="A166" s="74">
+        <v>150</v>
+      </c>
+      <c r="B166" s="107"/>
+      <c r="C166" s="114"/>
+      <c r="D166" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="E166" s="120"/>
+      <c r="F166" s="101"/>
       <c r="G166" s="30"/>
       <c r="H166" s="32"/>
     </row>
     <row r="167" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A167" s="31">
-        <v>149</v>
-      </c>
-      <c r="B167" s="30" t="s">
-        <v>319</v>
-      </c>
-      <c r="C167" s="30" t="s">
-        <v>318</v>
-      </c>
+      <c r="A167" s="88">
+        <v>151</v>
+      </c>
+      <c r="B167" s="107"/>
+      <c r="C167" s="114"/>
       <c r="D167" s="25" t="s">
-        <v>321</v>
-      </c>
-      <c r="E167" s="25"/>
-      <c r="F167" s="62" t="s">
-        <v>71</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="E167" s="120"/>
+      <c r="F167" s="101"/>
       <c r="G167" s="30"/>
       <c r="H167" s="32"/>
     </row>
-    <row r="168" spans="1:8" s="43" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A168" s="77">
-        <v>150</v>
-      </c>
-      <c r="B168" s="30" t="s">
-        <v>322</v>
-      </c>
-      <c r="C168" s="30" t="s">
-        <v>323</v>
-      </c>
+    <row r="168" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A168" s="88">
+        <v>152</v>
+      </c>
+      <c r="B168" s="106"/>
+      <c r="C168" s="114"/>
       <c r="D168" s="25" t="s">
-        <v>324</v>
-      </c>
-      <c r="E168" s="25"/>
-      <c r="F168" s="62" t="s">
-        <v>71</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="E168" s="120"/>
+      <c r="F168" s="102"/>
       <c r="G168" s="30"/>
       <c r="H168" s="32"/>
     </row>
     <row r="169" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A169" s="77">
-        <v>151</v>
-      </c>
-      <c r="B169" s="91" t="s">
-        <v>327</v>
-      </c>
-      <c r="C169" s="102" t="s">
-        <v>325</v>
-      </c>
-      <c r="D169" s="25" t="s">
-        <v>328</v>
-      </c>
-      <c r="E169" s="98"/>
-      <c r="F169" s="94" t="s">
-        <v>76</v>
-      </c>
-      <c r="G169" s="30"/>
-      <c r="H169" s="32"/>
+      <c r="A169" s="80"/>
+      <c r="B169" s="81"/>
+      <c r="C169" s="108" t="s">
+        <v>300</v>
+      </c>
+      <c r="D169" s="109"/>
+      <c r="E169" s="80"/>
+      <c r="F169" s="80"/>
+      <c r="G169" s="81"/>
+      <c r="H169" s="52"/>
     </row>
     <row r="170" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A170" s="77">
-        <v>152</v>
-      </c>
-      <c r="B170" s="92"/>
-      <c r="C170" s="102"/>
+      <c r="A170" s="80">
+        <v>153</v>
+      </c>
+      <c r="B170" s="105" t="s">
+        <v>242</v>
+      </c>
+      <c r="C170" s="105" t="s">
+        <v>243</v>
+      </c>
       <c r="D170" s="25" t="s">
-        <v>329</v>
-      </c>
-      <c r="E170" s="98"/>
-      <c r="F170" s="96"/>
-      <c r="G170" s="30"/>
-      <c r="H170" s="32"/>
+        <v>244</v>
+      </c>
+      <c r="E170" s="100"/>
+      <c r="F170" s="100" t="s">
+        <v>245</v>
+      </c>
+      <c r="G170" s="81"/>
+      <c r="H170" s="52"/>
     </row>
     <row r="171" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A171" s="77">
-        <v>153</v>
-      </c>
-      <c r="B171" s="92"/>
-      <c r="C171" s="102"/>
+      <c r="A171" s="51">
+        <v>154</v>
+      </c>
+      <c r="B171" s="107"/>
+      <c r="C171" s="107"/>
       <c r="D171" s="25" t="s">
-        <v>331</v>
-      </c>
-      <c r="E171" s="98"/>
-      <c r="F171" s="96"/>
-      <c r="G171" s="30"/>
-      <c r="H171" s="32"/>
+        <v>18</v>
+      </c>
+      <c r="E171" s="101"/>
+      <c r="F171" s="101"/>
+      <c r="G171" s="81"/>
+      <c r="H171" s="52"/>
     </row>
     <row r="172" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A172" s="77">
-        <v>154</v>
-      </c>
-      <c r="B172" s="93"/>
-      <c r="C172" s="102"/>
+      <c r="A172" s="51">
+        <v>155</v>
+      </c>
+      <c r="B172" s="106"/>
+      <c r="C172" s="106"/>
       <c r="D172" s="25" t="s">
-        <v>353</v>
-      </c>
-      <c r="E172" s="98"/>
-      <c r="F172" s="95"/>
-      <c r="G172" s="30"/>
-      <c r="H172" s="32"/>
+        <v>39</v>
+      </c>
+      <c r="E172" s="102"/>
+      <c r="F172" s="102"/>
+      <c r="G172" s="81"/>
+      <c r="H172" s="52"/>
     </row>
     <row r="173" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A173" s="83"/>
-      <c r="B173" s="84"/>
-      <c r="C173" s="111" t="s">
-        <v>326</v>
-      </c>
-      <c r="D173" s="112"/>
-      <c r="E173" s="83"/>
-      <c r="F173" s="83"/>
-      <c r="G173" s="84"/>
+      <c r="A173" s="80"/>
+      <c r="B173" s="81"/>
+      <c r="C173" s="108" t="s">
+        <v>247</v>
+      </c>
+      <c r="D173" s="109"/>
+      <c r="E173" s="80"/>
+      <c r="F173" s="80"/>
+      <c r="G173" s="81"/>
       <c r="H173" s="52"/>
     </row>
     <row r="174" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A174" s="83">
-        <v>155</v>
-      </c>
-      <c r="B174" s="91" t="s">
-        <v>268</v>
-      </c>
-      <c r="C174" s="91" t="s">
-        <v>269</v>
+      <c r="A174" s="80">
+        <v>156</v>
+      </c>
+      <c r="B174" s="81" t="s">
+        <v>248</v>
+      </c>
+      <c r="C174" s="81" t="s">
+        <v>249</v>
       </c>
       <c r="D174" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="E174" s="94"/>
-      <c r="F174" s="94" t="s">
-        <v>271</v>
-      </c>
-      <c r="G174" s="84"/>
+        <v>255</v>
+      </c>
+      <c r="E174" s="100"/>
+      <c r="F174" s="80" t="s">
+        <v>245</v>
+      </c>
+      <c r="G174" s="81"/>
       <c r="H174" s="52"/>
     </row>
-    <row r="175" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A175" s="51">
-        <v>156</v>
-      </c>
-      <c r="B175" s="92"/>
-      <c r="C175" s="92"/>
-      <c r="D175" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E175" s="96"/>
-      <c r="F175" s="96"/>
-      <c r="G175" s="84"/>
-      <c r="H175" s="52"/>
-    </row>
-    <row r="176" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A176" s="51">
+    <row r="175" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="A175" s="90">
         <v>157</v>
       </c>
-      <c r="B176" s="93"/>
-      <c r="C176" s="93"/>
-      <c r="D176" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E176" s="95"/>
-      <c r="F176" s="95"/>
-      <c r="G176" s="84"/>
-      <c r="H176" s="52"/>
-    </row>
-    <row r="177" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A177" s="83"/>
-      <c r="B177" s="84"/>
-      <c r="C177" s="111" t="s">
-        <v>273</v>
-      </c>
-      <c r="D177" s="112"/>
-      <c r="E177" s="83"/>
-      <c r="F177" s="83"/>
-      <c r="G177" s="84"/>
-      <c r="H177" s="52"/>
-    </row>
-    <row r="178" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A178" s="83">
+      <c r="B175" s="112" t="s">
+        <v>251</v>
+      </c>
+      <c r="C175" s="110" t="s">
+        <v>250</v>
+      </c>
+      <c r="D175" s="92" t="s">
+        <v>252</v>
+      </c>
+      <c r="E175" s="101"/>
+      <c r="F175" s="90" t="s">
+        <v>245</v>
+      </c>
+      <c r="G175" s="91"/>
+      <c r="H175" s="91"/>
+    </row>
+    <row r="176" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="A176" s="80">
         <v>158</v>
       </c>
-      <c r="B178" s="84" t="s">
-        <v>274</v>
-      </c>
-      <c r="C178" s="84" t="s">
-        <v>275</v>
-      </c>
-      <c r="D178" s="25" t="s">
-        <v>281</v>
-      </c>
-      <c r="E178" s="94"/>
-      <c r="F178" s="83" t="s">
-        <v>271</v>
-      </c>
-      <c r="G178" s="84"/>
-      <c r="H178" s="52"/>
+      <c r="B176" s="113"/>
+      <c r="C176" s="111"/>
+      <c r="D176" s="92" t="s">
+        <v>253</v>
+      </c>
+      <c r="E176" s="102"/>
+      <c r="F176" s="90" t="s">
+        <v>254</v>
+      </c>
+      <c r="G176" s="91"/>
+      <c r="H176" s="91"/>
+    </row>
+    <row r="177" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="A177" s="53"/>
+      <c r="B177" s="54"/>
+      <c r="C177" s="55"/>
+      <c r="D177" s="57"/>
+      <c r="E177" s="56"/>
+      <c r="F177" s="53"/>
+      <c r="G177" s="54"/>
+      <c r="H177" s="54"/>
+    </row>
+    <row r="178" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="A178" s="53"/>
+      <c r="B178" s="54"/>
+      <c r="C178" s="55"/>
+      <c r="D178" s="56"/>
+      <c r="E178" s="56"/>
+      <c r="F178" s="53"/>
+      <c r="G178" s="54"/>
+      <c r="H178" s="54"/>
     </row>
     <row r="179" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A179" s="117">
-        <v>159</v>
-      </c>
-      <c r="B179" s="122" t="s">
-        <v>277</v>
-      </c>
-      <c r="C179" s="120" t="s">
-        <v>276</v>
-      </c>
-      <c r="D179" s="119" t="s">
-        <v>278</v>
-      </c>
-      <c r="E179" s="96"/>
-      <c r="F179" s="117" t="s">
-        <v>271</v>
-      </c>
-      <c r="G179" s="118"/>
-      <c r="H179" s="118"/>
+      <c r="A179" s="53"/>
+      <c r="B179" s="54"/>
+      <c r="C179" s="55"/>
+      <c r="D179" s="59"/>
+      <c r="E179" s="56"/>
+      <c r="F179" s="53"/>
+      <c r="G179" s="54"/>
+      <c r="H179" s="54"/>
     </row>
     <row r="180" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A180" s="83">
-        <v>160</v>
-      </c>
-      <c r="B180" s="123"/>
-      <c r="C180" s="121"/>
-      <c r="D180" s="119" t="s">
-        <v>279</v>
-      </c>
-      <c r="E180" s="95"/>
-      <c r="F180" s="117" t="s">
-        <v>280</v>
-      </c>
-      <c r="G180" s="118"/>
-      <c r="H180" s="118"/>
+      <c r="A180" s="53"/>
+      <c r="B180" s="54"/>
+      <c r="C180" s="55"/>
+      <c r="D180" s="60"/>
+      <c r="E180" s="56"/>
+      <c r="F180" s="53"/>
+      <c r="G180" s="54"/>
+      <c r="H180" s="54"/>
     </row>
     <row r="181" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
       <c r="A181" s="53"/>
       <c r="B181" s="54"/>
       <c r="C181" s="55"/>
-      <c r="D181" s="57"/>
+      <c r="D181" s="55"/>
       <c r="E181" s="56"/>
       <c r="F181" s="53"/>
       <c r="G181" s="54"/>
@@ -13170,7 +13056,7 @@
       <c r="A183" s="53"/>
       <c r="B183" s="54"/>
       <c r="C183" s="55"/>
-      <c r="D183" s="59"/>
+      <c r="D183" s="55"/>
       <c r="E183" s="56"/>
       <c r="F183" s="53"/>
       <c r="G183" s="54"/>
@@ -13180,7 +13066,7 @@
       <c r="A184" s="53"/>
       <c r="B184" s="54"/>
       <c r="C184" s="55"/>
-      <c r="D184" s="60"/>
+      <c r="D184" s="55"/>
       <c r="E184" s="56"/>
       <c r="F184" s="53"/>
       <c r="G184" s="54"/>
@@ -13189,296 +13075,252 @@
     <row r="185" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
       <c r="A185" s="53"/>
       <c r="B185" s="54"/>
-      <c r="C185" s="55"/>
-      <c r="D185" s="55"/>
-      <c r="E185" s="56"/>
+      <c r="C185" s="58"/>
+      <c r="D185" s="56"/>
+      <c r="E185" s="53"/>
       <c r="F185" s="53"/>
       <c r="G185" s="54"/>
       <c r="H185" s="54"/>
     </row>
     <row r="186" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A186" s="53"/>
-      <c r="B186" s="54"/>
+      <c r="A186" s="55"/>
+      <c r="B186" s="55"/>
       <c r="C186" s="55"/>
-      <c r="D186" s="56"/>
-      <c r="E186" s="56"/>
-      <c r="F186" s="53"/>
-      <c r="G186" s="54"/>
-      <c r="H186" s="54"/>
+      <c r="D186" s="61"/>
+      <c r="E186" s="55"/>
+      <c r="F186" s="58"/>
+      <c r="G186" s="55"/>
+      <c r="H186" s="55"/>
     </row>
     <row r="187" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A187" s="53"/>
-      <c r="B187" s="54"/>
       <c r="C187" s="55"/>
-      <c r="D187" s="55"/>
-      <c r="E187" s="56"/>
-      <c r="F187" s="53"/>
-      <c r="G187" s="54"/>
-      <c r="H187" s="54"/>
+      <c r="D187" s="45"/>
+      <c r="F187" s="67"/>
     </row>
     <row r="188" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A188" s="53"/>
-      <c r="B188" s="54"/>
       <c r="C188" s="55"/>
-      <c r="D188" s="55"/>
-      <c r="E188" s="56"/>
-      <c r="F188" s="53"/>
-      <c r="G188" s="54"/>
-      <c r="H188" s="54"/>
+      <c r="D188" s="45"/>
+      <c r="F188" s="67"/>
     </row>
     <row r="189" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A189" s="53"/>
-      <c r="B189" s="54"/>
-      <c r="C189" s="58"/>
-      <c r="D189" s="56"/>
-      <c r="E189" s="53"/>
-      <c r="F189" s="53"/>
-      <c r="G189" s="54"/>
-      <c r="H189" s="54"/>
+      <c r="C189" s="55"/>
+      <c r="D189" s="45"/>
+      <c r="F189" s="67"/>
     </row>
     <row r="190" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A190" s="55"/>
-      <c r="B190" s="55"/>
       <c r="C190" s="55"/>
-      <c r="D190" s="61"/>
-      <c r="E190" s="55"/>
-      <c r="F190" s="58"/>
-      <c r="G190" s="55"/>
-      <c r="H190" s="55"/>
+      <c r="D190" s="45"/>
+      <c r="F190" s="67"/>
     </row>
     <row r="191" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="C191" s="55"/>
       <c r="D191" s="45"/>
       <c r="F191" s="67"/>
     </row>
     <row r="192" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="C192" s="55"/>
       <c r="D192" s="45"/>
       <c r="F192" s="67"/>
     </row>
-    <row r="193" spans="3:6" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="C193" s="55"/>
+    <row r="193" spans="4:6" s="44" customFormat="1" ht="18" customHeight="1">
       <c r="D193" s="45"/>
       <c r="F193" s="67"/>
     </row>
-    <row r="194" spans="3:6" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="C194" s="55"/>
+    <row r="194" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
       <c r="D194" s="45"/>
       <c r="F194" s="67"/>
     </row>
-    <row r="195" spans="3:6" s="44" customFormat="1" ht="18" customHeight="1">
+    <row r="195" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
       <c r="D195" s="45"/>
       <c r="F195" s="67"/>
     </row>
-    <row r="196" spans="3:6" s="44" customFormat="1" ht="18" customHeight="1">
+    <row r="196" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
       <c r="D196" s="45"/>
       <c r="F196" s="67"/>
     </row>
-    <row r="197" spans="3:6" s="44" customFormat="1" ht="18" customHeight="1">
+    <row r="197" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
       <c r="D197" s="45"/>
       <c r="F197" s="67"/>
     </row>
-    <row r="198" spans="3:6" s="44" customFormat="1" ht="26.25" customHeight="1">
+    <row r="198" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
       <c r="D198" s="45"/>
       <c r="F198" s="67"/>
     </row>
-    <row r="199" spans="3:6" s="44" customFormat="1" ht="26.25" customHeight="1">
+    <row r="199" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
       <c r="D199" s="45"/>
       <c r="F199" s="67"/>
     </row>
-    <row r="200" spans="3:6" s="44" customFormat="1" ht="26.25" customHeight="1">
-      <c r="D200" s="45"/>
-      <c r="F200" s="67"/>
-    </row>
-    <row r="201" spans="3:6" s="44" customFormat="1" ht="26.25" customHeight="1">
+    <row r="200" spans="4:6" s="46" customFormat="1" ht="26.25" customHeight="1">
+      <c r="D200" s="47"/>
+      <c r="F200" s="68"/>
+    </row>
+    <row r="201" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
       <c r="D201" s="45"/>
       <c r="F201" s="67"/>
     </row>
-    <row r="202" spans="3:6" s="44" customFormat="1" ht="26.25" customHeight="1">
+    <row r="202" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
       <c r="D202" s="45"/>
       <c r="F202" s="67"/>
     </row>
-    <row r="203" spans="3:6" s="44" customFormat="1" ht="26.25" customHeight="1">
+    <row r="203" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
       <c r="D203" s="45"/>
       <c r="F203" s="67"/>
     </row>
-    <row r="204" spans="3:6" s="46" customFormat="1" ht="26.25" customHeight="1">
-      <c r="D204" s="47"/>
-      <c r="F204" s="68"/>
-    </row>
-    <row r="205" spans="3:6" s="44" customFormat="1" ht="26.25" customHeight="1">
-      <c r="D205" s="45"/>
-      <c r="F205" s="67"/>
-    </row>
-    <row r="206" spans="3:6" s="44" customFormat="1" ht="26.25" customHeight="1">
-      <c r="D206" s="45"/>
-      <c r="F206" s="67"/>
-    </row>
-    <row r="207" spans="3:6" s="44" customFormat="1" ht="26.25" customHeight="1">
-      <c r="D207" s="45"/>
-      <c r="F207" s="67"/>
-    </row>
   </sheetData>
-  <mergeCells count="159">
-    <mergeCell ref="F55:F61"/>
-    <mergeCell ref="E102:E105"/>
-    <mergeCell ref="F102:F105"/>
-    <mergeCell ref="E44:E48"/>
-    <mergeCell ref="F44:F48"/>
-    <mergeCell ref="E178:E180"/>
-    <mergeCell ref="F142:F144"/>
-    <mergeCell ref="F145:F146"/>
-    <mergeCell ref="F134:F136"/>
-    <mergeCell ref="E134:E136"/>
-    <mergeCell ref="E142:E144"/>
-    <mergeCell ref="E145:E146"/>
-    <mergeCell ref="B106:B111"/>
-    <mergeCell ref="B174:B176"/>
-    <mergeCell ref="C174:C176"/>
-    <mergeCell ref="E174:E176"/>
-    <mergeCell ref="F174:F176"/>
-    <mergeCell ref="A155:A162"/>
-    <mergeCell ref="C173:D173"/>
-    <mergeCell ref="C177:D177"/>
-    <mergeCell ref="C179:C180"/>
-    <mergeCell ref="B179:B180"/>
+  <mergeCells count="155">
+    <mergeCell ref="B54:B60"/>
+    <mergeCell ref="C54:C60"/>
+    <mergeCell ref="E54:E60"/>
+    <mergeCell ref="F54:F60"/>
+    <mergeCell ref="B61:B70"/>
+    <mergeCell ref="C61:C70"/>
+    <mergeCell ref="E61:E70"/>
+    <mergeCell ref="F61:F70"/>
+    <mergeCell ref="B83:B86"/>
+    <mergeCell ref="C83:C86"/>
+    <mergeCell ref="E83:E86"/>
+    <mergeCell ref="F83:F86"/>
+    <mergeCell ref="C71:C82"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="E43:E47"/>
+    <mergeCell ref="F43:F47"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="E48:E51"/>
+    <mergeCell ref="F48:F51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="E27:E32"/>
+    <mergeCell ref="F27:F32"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="C33:C37"/>
+    <mergeCell ref="E33:E37"/>
+    <mergeCell ref="F33:F37"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="F38:F42"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="E16:E21"/>
+    <mergeCell ref="F16:F21"/>
+    <mergeCell ref="A1:H1"/>
     <mergeCell ref="E113:E114"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F98:F104"/>
+    <mergeCell ref="B71:B82"/>
+    <mergeCell ref="B87:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="C149:C150"/>
+    <mergeCell ref="E117:E119"/>
+    <mergeCell ref="E121:E124"/>
+    <mergeCell ref="E127:E129"/>
+    <mergeCell ref="E133:E137"/>
+    <mergeCell ref="E149:E150"/>
+    <mergeCell ref="B98:B105"/>
+    <mergeCell ref="F127:F129"/>
+    <mergeCell ref="F133:F137"/>
+    <mergeCell ref="F149:F150"/>
     <mergeCell ref="F113:F114"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="F86:F87"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="E90:E94"/>
-    <mergeCell ref="F90:F94"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="F117:F119"/>
+    <mergeCell ref="F121:F124"/>
+    <mergeCell ref="F138:F140"/>
+    <mergeCell ref="F141:F142"/>
+    <mergeCell ref="F71:F82"/>
+    <mergeCell ref="E87:E94"/>
+    <mergeCell ref="F87:F94"/>
     <mergeCell ref="E95:E97"/>
     <mergeCell ref="F95:F97"/>
-    <mergeCell ref="E98:E101"/>
-    <mergeCell ref="F98:F101"/>
-    <mergeCell ref="E106:E111"/>
-    <mergeCell ref="F106:F111"/>
-    <mergeCell ref="E4:E15"/>
-    <mergeCell ref="F4:F15"/>
-    <mergeCell ref="E16:E23"/>
-    <mergeCell ref="F16:F23"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="F27:F36"/>
-    <mergeCell ref="F49:F54"/>
-    <mergeCell ref="E49:E54"/>
-    <mergeCell ref="E27:E36"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="A163:A164"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C16:C23"/>
-    <mergeCell ref="C62:C66"/>
-    <mergeCell ref="B27:B36"/>
+    <mergeCell ref="C127:C129"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="C161:D161"/>
+    <mergeCell ref="C143:D143"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="C130:C132"/>
+    <mergeCell ref="C138:C140"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="C115:C116"/>
     <mergeCell ref="C113:C114"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="C90:C94"/>
+    <mergeCell ref="C117:C119"/>
+    <mergeCell ref="C121:C124"/>
+    <mergeCell ref="E159:E160"/>
+    <mergeCell ref="C159:C160"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="C133:C137"/>
+    <mergeCell ref="C98:C105"/>
+    <mergeCell ref="C173:D173"/>
+    <mergeCell ref="C175:C176"/>
+    <mergeCell ref="B175:B176"/>
+    <mergeCell ref="C165:C168"/>
+    <mergeCell ref="E174:E176"/>
     <mergeCell ref="C95:C97"/>
-    <mergeCell ref="C98:C101"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="C79:C85"/>
-    <mergeCell ref="C70:C74"/>
-    <mergeCell ref="B62:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B70:B74"/>
-    <mergeCell ref="C37:C43"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="B148:B149"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="B169:B172"/>
-    <mergeCell ref="B125:B128"/>
-    <mergeCell ref="B131:B133"/>
-    <mergeCell ref="B137:B141"/>
-    <mergeCell ref="C169:C172"/>
-    <mergeCell ref="C121:C123"/>
-    <mergeCell ref="C125:C128"/>
-    <mergeCell ref="C131:C133"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="C165:D165"/>
-    <mergeCell ref="C147:D147"/>
-    <mergeCell ref="B153:B154"/>
-    <mergeCell ref="B155:B162"/>
-    <mergeCell ref="C148:C149"/>
-    <mergeCell ref="C134:C136"/>
-    <mergeCell ref="B134:B136"/>
-    <mergeCell ref="C142:C144"/>
-    <mergeCell ref="B142:B144"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="B121:B123"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="B79:B85"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="B90:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="E67:E69"/>
-    <mergeCell ref="E70:E74"/>
-    <mergeCell ref="E75:E78"/>
-    <mergeCell ref="E79:E85"/>
-    <mergeCell ref="B37:B43"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="C75:C78"/>
-    <mergeCell ref="C49:C54"/>
-    <mergeCell ref="E55:E61"/>
-    <mergeCell ref="C153:C154"/>
-    <mergeCell ref="C155:C162"/>
-    <mergeCell ref="E121:E123"/>
-    <mergeCell ref="E125:E128"/>
-    <mergeCell ref="E131:E133"/>
-    <mergeCell ref="E137:E141"/>
-    <mergeCell ref="E153:E154"/>
-    <mergeCell ref="E155:E162"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="E37:E43"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C27:C36"/>
-    <mergeCell ref="F37:F43"/>
-    <mergeCell ref="B4:B15"/>
-    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="C87:C94"/>
+    <mergeCell ref="C106:C110"/>
+    <mergeCell ref="E71:E82"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="B151:B158"/>
+    <mergeCell ref="B130:B132"/>
+    <mergeCell ref="B138:B140"/>
+    <mergeCell ref="B141:B142"/>
     <mergeCell ref="B113:B114"/>
-    <mergeCell ref="B16:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="F62:F66"/>
-    <mergeCell ref="F67:F69"/>
-    <mergeCell ref="F70:F74"/>
-    <mergeCell ref="F75:F78"/>
-    <mergeCell ref="F79:F85"/>
-    <mergeCell ref="B49:B54"/>
-    <mergeCell ref="C106:C111"/>
-    <mergeCell ref="E62:E66"/>
-    <mergeCell ref="B55:B61"/>
-    <mergeCell ref="C55:C61"/>
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="C44:C48"/>
-    <mergeCell ref="B102:B105"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="C4:C15"/>
-    <mergeCell ref="F163:F164"/>
-    <mergeCell ref="F169:F172"/>
-    <mergeCell ref="F131:F133"/>
-    <mergeCell ref="F137:F141"/>
-    <mergeCell ref="F153:F154"/>
-    <mergeCell ref="F155:F162"/>
-    <mergeCell ref="F117:F118"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="F121:F123"/>
-    <mergeCell ref="F125:F128"/>
-    <mergeCell ref="E163:E164"/>
-    <mergeCell ref="E169:E172"/>
-    <mergeCell ref="C163:C164"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="C137:C141"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B106:B110"/>
+    <mergeCell ref="E165:E168"/>
+    <mergeCell ref="E98:E105"/>
+    <mergeCell ref="C151:C158"/>
+    <mergeCell ref="E151:E158"/>
+    <mergeCell ref="B165:B168"/>
+    <mergeCell ref="B121:B124"/>
+    <mergeCell ref="B127:B129"/>
+    <mergeCell ref="B133:B137"/>
+    <mergeCell ref="B170:B172"/>
+    <mergeCell ref="C170:C172"/>
+    <mergeCell ref="E170:E172"/>
+    <mergeCell ref="F170:F172"/>
+    <mergeCell ref="A151:A158"/>
+    <mergeCell ref="C169:D169"/>
+    <mergeCell ref="F159:F160"/>
+    <mergeCell ref="F165:F168"/>
+    <mergeCell ref="F151:F158"/>
+    <mergeCell ref="F130:F132"/>
+    <mergeCell ref="E130:E132"/>
+    <mergeCell ref="E138:E140"/>
+    <mergeCell ref="E141:E142"/>
+    <mergeCell ref="E106:E110"/>
+    <mergeCell ref="F106:F110"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="A159:A160"/>
+    <mergeCell ref="A144:A145"/>
+    <mergeCell ref="B144:B145"/>
+    <mergeCell ref="B159:B160"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -13488,8 +13330,7 @@
     <oddHeader>&amp;L&amp;"굴림체,Regular"노인장기요양보험 정보시스템노인장기요양보험 정보시스템&amp;R&amp;"맑은 고딕,Regular"시스템인터페이스목록시스템인터페이스목록</oddHeader>
     <oddFooter>&amp;C&amp;"맑은 고딕,Regular"&amp;P</oddFooter>
   </headerFooter>
-  <rowBreaks count="2" manualBreakCount="2">
-    <brk id="119" max="1048575" man="1"/>
+  <rowBreaks count="1" manualBreakCount="1">
     <brk id="145" max="1048575" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
@@ -13524,7 +13365,7 @@
       <c r="D8" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="115" t="s">
+      <c r="E8" s="128" t="s">
         <v>45</v>
       </c>
     </row>
@@ -13532,13 +13373,13 @@
       <c r="D9" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="115"/>
+      <c r="E9" s="128"/>
     </row>
     <row r="10" spans="4:5">
       <c r="D10" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="116"/>
+      <c r="E10" s="129"/>
     </row>
     <row r="14" spans="4:5" ht="12.75" thickBot="1">
       <c r="D14" s="35" t="s">
@@ -13552,7 +13393,7 @@
       <c r="D15" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="115" t="s">
+      <c r="E15" s="128" t="s">
         <v>45</v>
       </c>
     </row>
@@ -13560,13 +13401,13 @@
       <c r="D16" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="115"/>
+      <c r="E16" s="128"/>
     </row>
     <row r="17" spans="4:5">
       <c r="D17" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="116"/>
+      <c r="E17" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/문서 관리/01. 요구사항명세서.xlsx
+++ b/문서 관리/01. 요구사항명세서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BIG603-04\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\teamproject\문서 관리\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="324">
   <si>
     <t>계약 상대자는 제반 프로그램이 고품질을 유지할 수 있도록 최선의 노력을 다하여야 함</t>
   </si>
@@ -714,10 +714,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>서울 위(Wee) 센터 교육·연수·행사·기타 등록/접수/현황 관리 기능</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>학교 업무 공유 게시판, 상담 전문성 공유 게시판, 서식 공유 게시판, 자유 게시판의 하위 메뉴로 구성</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -726,10 +722,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>공지사항에 기관별, 제목, 내용 검색 기능 제공</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>통계 항목에 대한 엑셀 및 그래프, 파일 다운로드 기능</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -774,18 +766,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>게시판별 연계가 가능하여 모든 게시판에서 확인 가능</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지사항에 전체·26개소에 따른 교육·연수·행사·기타 등록 및 신청자 접수 기능 구현</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>접수 신청시 기한 및 인원수 제한을 두어 공고 마감 기능</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>마음건강검사 페이지 이동</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -898,10 +878,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>퀵 메뉴는 챗봇, SNS, 유관기관으로 연결</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>챗봇</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -926,15 +902,8 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>서울 위(Wee) 센터 위치를 지도화하여 지도 선택시 위(Wee)센터 26개소의 소개 및 내용 제공</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>센터별 교육〮연수 일정 정보 제공</t>
     <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>위(Wee), 위네트워크(Wee-Network)를 탭으로 구성</t>
   </si>
   <si>
     <t>전문상담(교)사 회원은 닉네임 등록·수정 기능 제공</t>
@@ -1585,6 +1554,18 @@
   </si>
   <si>
     <t>작성자 이름, 비밀번호, 상담 주제, 상담 내용 등록·수정·취소 기능 구현</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>전 기관 통합 공지사항</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>기관별, 기간별, 제목 검색 기능 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀵 메뉴는 챗봇, SNS으로 연결</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -2054,7 +2035,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2346,6 +2327,15 @@
     <xf numFmtId="0" fontId="24" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2354,6 +2344,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2364,19 +2363,52 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2397,56 +2429,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3897,13 +3884,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3968,13 +3955,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4039,13 +4026,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4110,13 +4097,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4181,13 +4168,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4252,13 +4239,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4323,13 +4310,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4394,13 +4381,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4465,13 +4452,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4536,13 +4523,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4607,13 +4594,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4678,13 +4665,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4749,13 +4736,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4820,13 +4807,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4891,13 +4878,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4962,13 +4949,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5033,13 +5020,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5104,13 +5091,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5175,13 +5162,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5246,13 +5233,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5317,13 +5304,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5388,13 +5375,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5459,13 +5446,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5530,13 +5517,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5601,13 +5588,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5672,13 +5659,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5743,13 +5730,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5814,13 +5801,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5885,13 +5872,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5956,13 +5943,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6027,13 +6014,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6098,13 +6085,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6169,13 +6156,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6240,13 +6227,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6311,13 +6298,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6382,13 +6369,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6453,13 +6440,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6524,13 +6511,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6595,13 +6582,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6666,13 +6653,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6737,13 +6724,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6808,13 +6795,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6879,13 +6866,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6950,13 +6937,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7021,13 +7008,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7092,13 +7079,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7163,13 +7150,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7234,13 +7221,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7305,13 +7292,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7376,13 +7363,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7447,13 +7434,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7518,13 +7505,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7589,13 +7576,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7660,13 +7647,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7731,13 +7718,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7802,13 +7789,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7873,13 +7860,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7944,13 +7931,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8015,13 +8002,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8086,13 +8073,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8157,13 +8144,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8228,13 +8215,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8299,13 +8286,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8370,13 +8357,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8441,7 +8428,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -8507,7 +8494,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -8573,7 +8560,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -8639,7 +8626,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -8705,7 +8692,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -8771,7 +8758,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -8837,7 +8824,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -8903,7 +8890,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -8969,7 +8956,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -9035,7 +9022,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -9101,7 +9088,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -9167,7 +9154,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -9233,7 +9220,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -9299,7 +9286,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -9365,7 +9352,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -9431,7 +9418,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -9843,7 +9830,7 @@
         <v>29</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -10043,22 +10030,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" customHeight="1">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
     </row>
     <row r="2" spans="1:4" ht="21" customHeight="1">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="99" t="s">
+      <c r="B2" s="100"/>
+      <c r="C2" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="99"/>
+      <c r="D2" s="102"/>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="15" t="s">
@@ -10208,10 +10195,10 @@
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H203"/>
+  <dimension ref="A1:H198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49:D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21" customHeight="1"/>
@@ -10227,33 +10214,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
     </row>
     <row r="2" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="124"/>
-      <c r="C2" s="123" t="s">
-        <v>217</v>
-      </c>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="118" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
       <c r="G2" s="19" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1" thickTop="1">
@@ -10286,19 +10273,19 @@
       <c r="A4" s="51">
         <v>1</v>
       </c>
-      <c r="B4" s="105" t="s">
-        <v>306</v>
-      </c>
-      <c r="C4" s="105" t="s">
+      <c r="B4" s="103" t="s">
+        <v>298</v>
+      </c>
+      <c r="C4" s="103" t="s">
         <v>88</v>
       </c>
       <c r="D4" s="94" t="s">
-        <v>139</v>
-      </c>
-      <c r="E4" s="100" t="s">
-        <v>157</v>
-      </c>
-      <c r="F4" s="100" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="106" t="s">
+        <v>152</v>
+      </c>
+      <c r="F4" s="106" t="s">
         <v>70</v>
       </c>
       <c r="G4" s="89"/>
@@ -10308,13 +10295,13 @@
       <c r="A5" s="51">
         <v>2</v>
       </c>
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="104"/>
       <c r="D5" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
+        <v>138</v>
+      </c>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
       <c r="G5" s="89"/>
       <c r="H5" s="52"/>
     </row>
@@ -10322,13 +10309,13 @@
       <c r="A6" s="51">
         <v>3</v>
       </c>
-      <c r="B6" s="107"/>
-      <c r="C6" s="107"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="104"/>
       <c r="D6" s="25" t="s">
-        <v>207</v>
-      </c>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
+        <v>199</v>
+      </c>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
       <c r="G6" s="89"/>
       <c r="H6" s="52"/>
     </row>
@@ -10336,13 +10323,13 @@
       <c r="A7" s="51">
         <v>4</v>
       </c>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
       <c r="D7" s="83" t="s">
-        <v>148</v>
-      </c>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
+        <v>143</v>
+      </c>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
       <c r="G7" s="89"/>
       <c r="H7" s="52"/>
     </row>
@@ -10350,13 +10337,13 @@
       <c r="A8" s="51">
         <v>5</v>
       </c>
-      <c r="B8" s="106"/>
-      <c r="C8" s="106"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
       <c r="D8" s="83" t="s">
-        <v>200</v>
-      </c>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
+        <v>192</v>
+      </c>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
       <c r="G8" s="89"/>
       <c r="H8" s="52"/>
     </row>
@@ -10364,19 +10351,19 @@
       <c r="A9" s="51">
         <v>6</v>
       </c>
-      <c r="B9" s="105" t="s">
-        <v>306</v>
-      </c>
-      <c r="C9" s="126" t="s">
+      <c r="B9" s="103" t="s">
+        <v>298</v>
+      </c>
+      <c r="C9" s="113" t="s">
         <v>95</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="E9" s="100" t="s">
+        <v>173</v>
+      </c>
+      <c r="E9" s="106" t="s">
         <v>95</v>
       </c>
-      <c r="F9" s="100" t="s">
+      <c r="F9" s="106" t="s">
         <v>70</v>
       </c>
       <c r="G9" s="89"/>
@@ -10386,275 +10373,283 @@
       <c r="A10" s="51">
         <v>7</v>
       </c>
-      <c r="B10" s="107"/>
-      <c r="C10" s="127"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="114"/>
       <c r="D10" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
+        <v>322</v>
+      </c>
+      <c r="E10" s="107"/>
+      <c r="F10" s="107"/>
       <c r="G10" s="89"/>
       <c r="H10" s="52"/>
     </row>
     <row r="11" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A11" s="51">
-        <v>8</v>
-      </c>
-      <c r="B11" s="106"/>
-      <c r="C11" s="127"/>
-      <c r="D11" s="82" t="s">
-        <v>181</v>
-      </c>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="103" t="s">
+        <v>298</v>
+      </c>
+      <c r="C11" s="103" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" s="106" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="106" t="s">
+        <v>70</v>
+      </c>
       <c r="G11" s="89"/>
       <c r="H11" s="52"/>
     </row>
     <row r="12" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A12" s="51">
-        <v>9</v>
-      </c>
-      <c r="B12" s="105" t="s">
-        <v>306</v>
-      </c>
-      <c r="C12" s="105" t="s">
-        <v>98</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B12" s="104"/>
+      <c r="C12" s="104"/>
       <c r="D12" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="E12" s="100" t="s">
-        <v>98</v>
-      </c>
-      <c r="F12" s="100" t="s">
-        <v>70</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="E12" s="107"/>
+      <c r="F12" s="107"/>
       <c r="G12" s="89"/>
       <c r="H12" s="52"/>
     </row>
     <row r="13" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A13" s="51">
-        <v>10</v>
-      </c>
-      <c r="B13" s="107"/>
-      <c r="C13" s="107"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="104"/>
+      <c r="C13" s="104"/>
       <c r="D13" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
+        <v>135</v>
+      </c>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
       <c r="G13" s="89"/>
       <c r="H13" s="52"/>
     </row>
     <row r="14" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A14" s="51">
-        <v>11</v>
-      </c>
-      <c r="B14" s="107"/>
-      <c r="C14" s="107"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="105"/>
+      <c r="C14" s="105"/>
       <c r="D14" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
+        <v>195</v>
+      </c>
+      <c r="E14" s="108"/>
+      <c r="F14" s="108"/>
       <c r="G14" s="89"/>
       <c r="H14" s="52"/>
     </row>
     <row r="15" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A15" s="51">
-        <v>12</v>
-      </c>
-      <c r="B15" s="106"/>
-      <c r="C15" s="106"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="103" t="s">
+        <v>298</v>
+      </c>
+      <c r="C15" s="103" t="s">
+        <v>93</v>
+      </c>
       <c r="D15" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
+        <v>118</v>
+      </c>
+      <c r="E15" s="106" t="s">
+        <v>167</v>
+      </c>
+      <c r="F15" s="106" t="s">
+        <v>70</v>
+      </c>
       <c r="G15" s="89"/>
       <c r="H15" s="52"/>
     </row>
-    <row r="16" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+    <row r="16" spans="1:8" s="43" customFormat="1" ht="16.5" customHeight="1">
       <c r="A16" s="51">
-        <v>13</v>
-      </c>
-      <c r="B16" s="105" t="s">
-        <v>306</v>
-      </c>
-      <c r="C16" s="105" t="s">
-        <v>93</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B16" s="104"/>
+      <c r="C16" s="104"/>
       <c r="D16" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="E16" s="100" t="s">
-        <v>173</v>
-      </c>
-      <c r="F16" s="100" t="s">
-        <v>70</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="E16" s="107"/>
+      <c r="F16" s="107"/>
       <c r="G16" s="89"/>
       <c r="H16" s="52"/>
     </row>
-    <row r="17" spans="1:8" s="43" customFormat="1" ht="16.5" customHeight="1">
+    <row r="17" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A17" s="51">
-        <v>14</v>
-      </c>
-      <c r="B17" s="107"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="E17" s="101"/>
-      <c r="F17" s="101"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="104"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="83" t="s">
+        <v>184</v>
+      </c>
+      <c r="E17" s="107"/>
+      <c r="F17" s="107"/>
       <c r="G17" s="89"/>
       <c r="H17" s="52"/>
     </row>
     <row r="18" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A18" s="51">
-        <v>15</v>
-      </c>
-      <c r="B18" s="107"/>
-      <c r="C18" s="107"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="104"/>
+      <c r="C18" s="104"/>
       <c r="D18" s="83" t="s">
-        <v>192</v>
-      </c>
-      <c r="E18" s="101"/>
-      <c r="F18" s="101"/>
+        <v>140</v>
+      </c>
+      <c r="E18" s="107"/>
+      <c r="F18" s="107"/>
       <c r="G18" s="89"/>
       <c r="H18" s="52"/>
     </row>
     <row r="19" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A19" s="51">
-        <v>16</v>
-      </c>
-      <c r="B19" s="107"/>
-      <c r="C19" s="107"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="104"/>
+      <c r="C19" s="104"/>
       <c r="D19" s="83" t="s">
-        <v>145</v>
-      </c>
-      <c r="E19" s="101"/>
-      <c r="F19" s="101"/>
+        <v>139</v>
+      </c>
+      <c r="E19" s="107"/>
+      <c r="F19" s="107"/>
       <c r="G19" s="89"/>
       <c r="H19" s="52"/>
     </row>
     <row r="20" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A20" s="51">
-        <v>17</v>
-      </c>
-      <c r="B20" s="107"/>
-      <c r="C20" s="107"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="105"/>
+      <c r="C20" s="104"/>
       <c r="D20" s="83" t="s">
-        <v>144</v>
-      </c>
-      <c r="E20" s="101"/>
-      <c r="F20" s="101"/>
+        <v>180</v>
+      </c>
+      <c r="E20" s="108"/>
+      <c r="F20" s="108"/>
       <c r="G20" s="89"/>
       <c r="H20" s="52"/>
     </row>
     <row r="21" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A21" s="51">
-        <v>18</v>
-      </c>
-      <c r="B21" s="106"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="83" t="s">
-        <v>188</v>
-      </c>
-      <c r="E21" s="102"/>
-      <c r="F21" s="102"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="103" t="s">
+        <v>298</v>
+      </c>
+      <c r="C21" s="103" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" s="106" t="s">
+        <v>161</v>
+      </c>
+      <c r="F21" s="106" t="s">
+        <v>70</v>
+      </c>
       <c r="G21" s="89"/>
       <c r="H21" s="52"/>
     </row>
     <row r="22" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A22" s="51">
-        <v>19</v>
-      </c>
-      <c r="B22" s="105" t="s">
-        <v>306</v>
-      </c>
-      <c r="C22" s="105" t="s">
-        <v>94</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B22" s="105"/>
+      <c r="C22" s="105"/>
       <c r="D22" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="E22" s="100" t="s">
-        <v>166</v>
-      </c>
-      <c r="F22" s="100" t="s">
-        <v>70</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="E22" s="108"/>
+      <c r="F22" s="108"/>
       <c r="G22" s="89"/>
       <c r="H22" s="52"/>
     </row>
     <row r="23" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A23" s="51">
-        <v>20</v>
-      </c>
-      <c r="B23" s="106"/>
-      <c r="C23" s="106"/>
-      <c r="D23" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="E23" s="102"/>
-      <c r="F23" s="102"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="115" t="s">
+        <v>298</v>
+      </c>
+      <c r="C23" s="103" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="82" t="s">
+        <v>189</v>
+      </c>
+      <c r="E23" s="106" t="s">
+        <v>156</v>
+      </c>
+      <c r="F23" s="106" t="s">
+        <v>70</v>
+      </c>
       <c r="G23" s="89"/>
       <c r="H23" s="52"/>
     </row>
     <row r="24" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A24" s="51">
-        <v>21</v>
-      </c>
-      <c r="B24" s="116" t="s">
-        <v>306</v>
-      </c>
-      <c r="C24" s="105" t="s">
-        <v>100</v>
-      </c>
-      <c r="D24" s="82" t="s">
-        <v>197</v>
-      </c>
-      <c r="E24" s="100" t="s">
-        <v>161</v>
-      </c>
-      <c r="F24" s="100" t="s">
-        <v>70</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B24" s="116"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="83" t="s">
+        <v>125</v>
+      </c>
+      <c r="E24" s="108"/>
+      <c r="F24" s="108"/>
       <c r="G24" s="89"/>
       <c r="H24" s="52"/>
     </row>
     <row r="25" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A25" s="51">
-        <v>22</v>
-      </c>
-      <c r="B25" s="118"/>
-      <c r="C25" s="106"/>
-      <c r="D25" s="83" t="s">
-        <v>125</v>
-      </c>
-      <c r="E25" s="102"/>
-      <c r="F25" s="102"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="86" t="s">
+        <v>298</v>
+      </c>
+      <c r="C25" s="85" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="E25" s="88" t="s">
+        <v>157</v>
+      </c>
+      <c r="F25" s="88" t="s">
+        <v>70</v>
+      </c>
       <c r="G25" s="89"/>
       <c r="H25" s="52"/>
     </row>
     <row r="26" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A26" s="51">
-        <v>23</v>
-      </c>
-      <c r="B26" s="86" t="s">
-        <v>306</v>
-      </c>
-      <c r="C26" s="85" t="s">
-        <v>99</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="E26" s="88" t="s">
-        <v>162</v>
-      </c>
-      <c r="F26" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="103" t="s">
+        <v>299</v>
+      </c>
+      <c r="C26" s="103" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="83" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26" s="106" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="106" t="s">
         <v>70</v>
       </c>
       <c r="G26" s="89"/>
@@ -10662,347 +10657,347 @@
     </row>
     <row r="27" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A27" s="51">
-        <v>24</v>
-      </c>
-      <c r="B27" s="105" t="s">
-        <v>307</v>
-      </c>
-      <c r="C27" s="105" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" s="83" t="s">
-        <v>149</v>
-      </c>
-      <c r="E27" s="100" t="s">
-        <v>158</v>
-      </c>
-      <c r="F27" s="100" t="s">
-        <v>70</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B27" s="104"/>
+      <c r="C27" s="104"/>
+      <c r="D27" s="82" t="s">
+        <v>321</v>
+      </c>
+      <c r="E27" s="107"/>
+      <c r="F27" s="107"/>
       <c r="G27" s="89"/>
       <c r="H27" s="52"/>
     </row>
     <row r="28" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A28" s="51">
-        <v>25</v>
-      </c>
-      <c r="B28" s="107"/>
-      <c r="C28" s="107"/>
+        <v>29</v>
+      </c>
+      <c r="B28" s="104"/>
+      <c r="C28" s="105"/>
       <c r="D28" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="E28" s="101"/>
-      <c r="F28" s="101"/>
+        <v>142</v>
+      </c>
+      <c r="E28" s="107"/>
+      <c r="F28" s="107"/>
       <c r="G28" s="89"/>
       <c r="H28" s="52"/>
     </row>
-    <row r="29" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+    <row r="29" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A29" s="51">
-        <v>26</v>
-      </c>
-      <c r="B29" s="107"/>
-      <c r="C29" s="107"/>
-      <c r="D29" s="82" t="s">
-        <v>179</v>
-      </c>
-      <c r="E29" s="101"/>
-      <c r="F29" s="101"/>
+        <v>30</v>
+      </c>
+      <c r="B29" s="103" t="s">
+        <v>300</v>
+      </c>
+      <c r="C29" s="103" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E29" s="106" t="s">
+        <v>154</v>
+      </c>
+      <c r="F29" s="106" t="s">
+        <v>155</v>
+      </c>
       <c r="G29" s="89"/>
       <c r="H29" s="52"/>
     </row>
-    <row r="30" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+    <row r="30" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A30" s="51">
-        <v>27</v>
-      </c>
-      <c r="B30" s="107"/>
-      <c r="C30" s="107"/>
-      <c r="D30" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="E30" s="101"/>
-      <c r="F30" s="101"/>
+        <v>31</v>
+      </c>
+      <c r="B30" s="104"/>
+      <c r="C30" s="104"/>
+      <c r="D30" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="E30" s="107"/>
+      <c r="F30" s="107"/>
       <c r="G30" s="89"/>
       <c r="H30" s="52"/>
     </row>
-    <row r="31" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+    <row r="31" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A31" s="51">
-        <v>28</v>
-      </c>
-      <c r="B31" s="107"/>
-      <c r="C31" s="107"/>
-      <c r="D31" s="82" t="s">
-        <v>143</v>
-      </c>
-      <c r="E31" s="101"/>
-      <c r="F31" s="101"/>
+        <v>32</v>
+      </c>
+      <c r="B31" s="104"/>
+      <c r="C31" s="104"/>
+      <c r="D31" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="E31" s="107"/>
+      <c r="F31" s="107"/>
       <c r="G31" s="89"/>
       <c r="H31" s="52"/>
     </row>
     <row r="32" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A32" s="51">
-        <v>29</v>
-      </c>
-      <c r="B32" s="107"/>
-      <c r="C32" s="106"/>
-      <c r="D32" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="E32" s="101"/>
-      <c r="F32" s="101"/>
+        <v>35</v>
+      </c>
+      <c r="B32" s="104"/>
+      <c r="C32" s="104"/>
+      <c r="D32" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="E32" s="107"/>
+      <c r="F32" s="107"/>
       <c r="G32" s="89"/>
       <c r="H32" s="52"/>
     </row>
-    <row r="33" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+    <row r="33" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A33" s="51">
-        <v>30</v>
-      </c>
-      <c r="B33" s="105" t="s">
-        <v>308</v>
-      </c>
-      <c r="C33" s="105" t="s">
-        <v>90</v>
-      </c>
-      <c r="D33" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="E33" s="100" t="s">
-        <v>159</v>
-      </c>
-      <c r="F33" s="100" t="s">
-        <v>160</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B33" s="105"/>
+      <c r="C33" s="105"/>
+      <c r="D33" s="84" t="s">
+        <v>191</v>
+      </c>
+      <c r="E33" s="108"/>
+      <c r="F33" s="108"/>
       <c r="G33" s="89"/>
       <c r="H33" s="52"/>
     </row>
-    <row r="34" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+    <row r="34" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A34" s="51">
-        <v>31</v>
-      </c>
-      <c r="B34" s="107"/>
-      <c r="C34" s="107"/>
-      <c r="D34" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="E34" s="101"/>
-      <c r="F34" s="101"/>
+        <v>37</v>
+      </c>
+      <c r="B34" s="103" t="s">
+        <v>301</v>
+      </c>
+      <c r="C34" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="99" t="s">
+        <v>316</v>
+      </c>
+      <c r="E34" s="106" t="s">
+        <v>166</v>
+      </c>
+      <c r="F34" s="106" t="s">
+        <v>155</v>
+      </c>
       <c r="G34" s="89"/>
       <c r="H34" s="52"/>
     </row>
-    <row r="35" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+    <row r="35" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A35" s="51">
-        <v>32</v>
-      </c>
-      <c r="B35" s="107"/>
-      <c r="C35" s="107"/>
-      <c r="D35" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="E35" s="101"/>
-      <c r="F35" s="101"/>
+        <v>38</v>
+      </c>
+      <c r="B35" s="104"/>
+      <c r="C35" s="104"/>
+      <c r="D35" s="99" t="s">
+        <v>320</v>
+      </c>
+      <c r="E35" s="107"/>
+      <c r="F35" s="107"/>
       <c r="G35" s="89"/>
       <c r="H35" s="52"/>
     </row>
     <row r="36" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A36" s="51">
-        <v>35</v>
-      </c>
-      <c r="B36" s="107"/>
-      <c r="C36" s="107"/>
-      <c r="D36" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="E36" s="101"/>
-      <c r="F36" s="101"/>
+        <v>39</v>
+      </c>
+      <c r="B36" s="104"/>
+      <c r="C36" s="104"/>
+      <c r="D36" s="99" t="s">
+        <v>319</v>
+      </c>
+      <c r="E36" s="107"/>
+      <c r="F36" s="107"/>
       <c r="G36" s="89"/>
       <c r="H36" s="52"/>
     </row>
     <row r="37" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A37" s="51">
-        <v>36</v>
-      </c>
-      <c r="B37" s="106"/>
-      <c r="C37" s="106"/>
-      <c r="D37" s="84" t="s">
-        <v>199</v>
-      </c>
-      <c r="E37" s="102"/>
-      <c r="F37" s="102"/>
+        <v>40</v>
+      </c>
+      <c r="B37" s="104"/>
+      <c r="C37" s="104"/>
+      <c r="D37" s="43" t="s">
+        <v>318</v>
+      </c>
+      <c r="E37" s="107"/>
+      <c r="F37" s="107"/>
       <c r="G37" s="89"/>
       <c r="H37" s="52"/>
     </row>
     <row r="38" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A38" s="51">
-        <v>37</v>
-      </c>
-      <c r="B38" s="105" t="s">
-        <v>309</v>
-      </c>
-      <c r="C38" s="105" t="s">
-        <v>91</v>
-      </c>
-      <c r="D38" s="130" t="s">
-        <v>324</v>
-      </c>
-      <c r="E38" s="100" t="s">
-        <v>171</v>
-      </c>
-      <c r="F38" s="100" t="s">
-        <v>160</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B38" s="105"/>
+      <c r="C38" s="104"/>
+      <c r="D38" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="E38" s="108"/>
+      <c r="F38" s="108"/>
       <c r="G38" s="89"/>
       <c r="H38" s="52"/>
     </row>
     <row r="39" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A39" s="51">
-        <v>38</v>
-      </c>
-      <c r="B39" s="107"/>
-      <c r="C39" s="107"/>
-      <c r="D39" s="130" t="s">
-        <v>328</v>
-      </c>
-      <c r="E39" s="101"/>
-      <c r="F39" s="101"/>
+        <v>42</v>
+      </c>
+      <c r="B39" s="103" t="s">
+        <v>302</v>
+      </c>
+      <c r="C39" s="103" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="E39" s="106" t="s">
+        <v>164</v>
+      </c>
+      <c r="F39" s="106" t="s">
+        <v>70</v>
+      </c>
       <c r="G39" s="89"/>
       <c r="H39" s="52"/>
     </row>
     <row r="40" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A40" s="51">
-        <v>39</v>
-      </c>
-      <c r="B40" s="107"/>
-      <c r="C40" s="107"/>
-      <c r="D40" s="130" t="s">
-        <v>327</v>
-      </c>
-      <c r="E40" s="101"/>
-      <c r="F40" s="101"/>
+        <v>43</v>
+      </c>
+      <c r="B40" s="104"/>
+      <c r="C40" s="104"/>
+      <c r="D40" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="E40" s="107"/>
+      <c r="F40" s="107"/>
       <c r="G40" s="89"/>
       <c r="H40" s="52"/>
     </row>
     <row r="41" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A41" s="51">
-        <v>40</v>
-      </c>
-      <c r="B41" s="107"/>
-      <c r="C41" s="107"/>
-      <c r="D41" s="43" t="s">
-        <v>326</v>
-      </c>
-      <c r="E41" s="101"/>
-      <c r="F41" s="101"/>
+        <v>44</v>
+      </c>
+      <c r="B41" s="104"/>
+      <c r="C41" s="104"/>
+      <c r="D41" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="E41" s="107"/>
+      <c r="F41" s="107"/>
       <c r="G41" s="89"/>
       <c r="H41" s="52"/>
     </row>
     <row r="42" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A42" s="51">
-        <v>41</v>
-      </c>
-      <c r="B42" s="106"/>
-      <c r="C42" s="107"/>
+        <v>45</v>
+      </c>
+      <c r="B42" s="104"/>
+      <c r="C42" s="104"/>
       <c r="D42" s="24" t="s">
-        <v>325</v>
-      </c>
-      <c r="E42" s="102"/>
-      <c r="F42" s="102"/>
+        <v>132</v>
+      </c>
+      <c r="E42" s="107"/>
+      <c r="F42" s="107"/>
       <c r="G42" s="89"/>
       <c r="H42" s="52"/>
     </row>
     <row r="43" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A43" s="51">
-        <v>42</v>
-      </c>
-      <c r="B43" s="105" t="s">
-        <v>310</v>
-      </c>
-      <c r="C43" s="105" t="s">
-        <v>92</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B43" s="105"/>
+      <c r="C43" s="105"/>
       <c r="D43" s="24" t="s">
-        <v>323</v>
-      </c>
-      <c r="E43" s="100" t="s">
-        <v>169</v>
-      </c>
-      <c r="F43" s="100" t="s">
-        <v>70</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="E43" s="108"/>
+      <c r="F43" s="108"/>
       <c r="G43" s="89"/>
       <c r="H43" s="52"/>
     </row>
     <row r="44" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A44" s="51">
-        <v>43</v>
-      </c>
-      <c r="B44" s="107"/>
-      <c r="C44" s="107"/>
-      <c r="D44" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="E44" s="101"/>
-      <c r="F44" s="101"/>
+        <v>47</v>
+      </c>
+      <c r="B44" s="103" t="s">
+        <v>303</v>
+      </c>
+      <c r="C44" s="103" t="s">
+        <v>164</v>
+      </c>
+      <c r="D44" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="E44" s="106" t="s">
+        <v>164</v>
+      </c>
+      <c r="F44" s="106" t="s">
+        <v>70</v>
+      </c>
       <c r="G44" s="89"/>
       <c r="H44" s="52"/>
     </row>
     <row r="45" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A45" s="51">
-        <v>44</v>
-      </c>
-      <c r="B45" s="107"/>
-      <c r="C45" s="107"/>
-      <c r="D45" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="E45" s="101"/>
-      <c r="F45" s="101"/>
+        <v>48</v>
+      </c>
+      <c r="B45" s="104"/>
+      <c r="C45" s="104"/>
+      <c r="D45" s="94" t="s">
+        <v>177</v>
+      </c>
+      <c r="E45" s="107"/>
+      <c r="F45" s="107"/>
       <c r="G45" s="89"/>
       <c r="H45" s="52"/>
     </row>
     <row r="46" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A46" s="51">
-        <v>45</v>
-      </c>
-      <c r="B46" s="107"/>
-      <c r="C46" s="107"/>
+        <v>49</v>
+      </c>
+      <c r="B46" s="104"/>
+      <c r="C46" s="104"/>
       <c r="D46" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="E46" s="101"/>
-      <c r="F46" s="101"/>
+        <v>130</v>
+      </c>
+      <c r="E46" s="107"/>
+      <c r="F46" s="107"/>
       <c r="G46" s="89"/>
       <c r="H46" s="52"/>
     </row>
     <row r="47" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A47" s="51">
-        <v>46</v>
-      </c>
-      <c r="B47" s="106"/>
-      <c r="C47" s="106"/>
+        <v>50</v>
+      </c>
+      <c r="B47" s="105"/>
+      <c r="C47" s="105"/>
       <c r="D47" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="E47" s="102"/>
-      <c r="F47" s="102"/>
+        <v>141</v>
+      </c>
+      <c r="E47" s="108"/>
+      <c r="F47" s="108"/>
       <c r="G47" s="89"/>
       <c r="H47" s="52"/>
     </row>
     <row r="48" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A48" s="51">
-        <v>47</v>
-      </c>
-      <c r="B48" s="105" t="s">
-        <v>311</v>
-      </c>
-      <c r="C48" s="105" t="s">
-        <v>169</v>
-      </c>
-      <c r="D48" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="E48" s="100" t="s">
-        <v>169</v>
-      </c>
-      <c r="F48" s="100" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" s="98" t="s">
+        <v>304</v>
+      </c>
+      <c r="C48" s="98" t="s">
+        <v>305</v>
+      </c>
+      <c r="D48" s="94" t="s">
+        <v>176</v>
+      </c>
+      <c r="E48" s="97" t="s">
+        <v>162</v>
+      </c>
+      <c r="F48" s="97" t="s">
         <v>70</v>
       </c>
       <c r="G48" s="89"/>
@@ -11010,1993 +11005,1965 @@
     </row>
     <row r="49" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A49" s="51">
-        <v>48</v>
-      </c>
-      <c r="B49" s="107"/>
-      <c r="C49" s="107"/>
-      <c r="D49" s="94" t="s">
-        <v>185</v>
-      </c>
-      <c r="E49" s="101"/>
-      <c r="F49" s="101"/>
+        <v>53</v>
+      </c>
+      <c r="B49" s="103" t="s">
+        <v>306</v>
+      </c>
+      <c r="C49" s="103" t="s">
+        <v>208</v>
+      </c>
+      <c r="D49" s="99" t="s">
+        <v>193</v>
+      </c>
+      <c r="E49" s="106" t="s">
+        <v>165</v>
+      </c>
+      <c r="F49" s="106" t="s">
+        <v>163</v>
+      </c>
       <c r="G49" s="89"/>
       <c r="H49" s="52"/>
     </row>
     <row r="50" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A50" s="51">
-        <v>49</v>
-      </c>
-      <c r="B50" s="107"/>
-      <c r="C50" s="107"/>
-      <c r="D50" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="E50" s="101"/>
-      <c r="F50" s="101"/>
+        <v>54</v>
+      </c>
+      <c r="B50" s="104"/>
+      <c r="C50" s="104"/>
+      <c r="D50" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="E50" s="107"/>
+      <c r="F50" s="107"/>
       <c r="G50" s="89"/>
       <c r="H50" s="52"/>
     </row>
     <row r="51" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A51" s="51">
-        <v>50</v>
-      </c>
-      <c r="B51" s="106"/>
-      <c r="C51" s="106"/>
-      <c r="D51" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="E51" s="102"/>
-      <c r="F51" s="102"/>
+        <v>55</v>
+      </c>
+      <c r="B51" s="104"/>
+      <c r="C51" s="104"/>
+      <c r="D51" s="99" t="s">
+        <v>174</v>
+      </c>
+      <c r="E51" s="107"/>
+      <c r="F51" s="107"/>
       <c r="G51" s="89"/>
       <c r="H51" s="52"/>
     </row>
     <row r="52" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A52" s="51">
-        <v>51</v>
-      </c>
-      <c r="B52" s="105" t="s">
-        <v>312</v>
-      </c>
-      <c r="C52" s="105" t="s">
-        <v>313</v>
-      </c>
-      <c r="D52" s="94" t="s">
-        <v>184</v>
-      </c>
-      <c r="E52" s="100" t="s">
-        <v>167</v>
-      </c>
-      <c r="F52" s="100" t="s">
-        <v>70</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B52" s="104"/>
+      <c r="C52" s="104"/>
+      <c r="D52" s="99" t="s">
+        <v>182</v>
+      </c>
+      <c r="E52" s="107"/>
+      <c r="F52" s="107"/>
       <c r="G52" s="89"/>
       <c r="H52" s="52"/>
     </row>
     <row r="53" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A53" s="51">
-        <v>52</v>
-      </c>
-      <c r="B53" s="106"/>
-      <c r="C53" s="106"/>
-      <c r="D53" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="E53" s="102"/>
-      <c r="F53" s="102"/>
+        <v>57</v>
+      </c>
+      <c r="B53" s="104"/>
+      <c r="C53" s="104"/>
+      <c r="D53" s="99" t="s">
+        <v>179</v>
+      </c>
+      <c r="E53" s="107"/>
+      <c r="F53" s="107"/>
       <c r="G53" s="89"/>
       <c r="H53" s="52"/>
     </row>
     <row r="54" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A54" s="51">
-        <v>53</v>
-      </c>
-      <c r="B54" s="105" t="s">
-        <v>314</v>
-      </c>
-      <c r="C54" s="105" t="s">
-        <v>216</v>
-      </c>
-      <c r="D54" s="130" t="s">
-        <v>201</v>
-      </c>
-      <c r="E54" s="100" t="s">
-        <v>170</v>
-      </c>
-      <c r="F54" s="100" t="s">
-        <v>168</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B54" s="104"/>
+      <c r="C54" s="104"/>
+      <c r="D54" s="99" t="s">
+        <v>127</v>
+      </c>
+      <c r="E54" s="107"/>
+      <c r="F54" s="107"/>
       <c r="G54" s="89"/>
       <c r="H54" s="52"/>
     </row>
     <row r="55" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A55" s="51">
-        <v>54</v>
-      </c>
-      <c r="B55" s="107"/>
-      <c r="C55" s="107"/>
-      <c r="D55" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="E55" s="101"/>
-      <c r="F55" s="101"/>
+        <v>59</v>
+      </c>
+      <c r="B55" s="105"/>
+      <c r="C55" s="105"/>
+      <c r="D55" s="99" t="s">
+        <v>175</v>
+      </c>
+      <c r="E55" s="108"/>
+      <c r="F55" s="108"/>
       <c r="G55" s="89"/>
       <c r="H55" s="52"/>
     </row>
     <row r="56" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A56" s="51">
-        <v>55</v>
-      </c>
-      <c r="B56" s="107"/>
-      <c r="C56" s="107"/>
-      <c r="D56" s="130" t="s">
-        <v>182</v>
-      </c>
-      <c r="E56" s="101"/>
-      <c r="F56" s="101"/>
+        <v>60</v>
+      </c>
+      <c r="B56" s="103" t="s">
+        <v>307</v>
+      </c>
+      <c r="C56" s="109" t="s">
+        <v>86</v>
+      </c>
+      <c r="D56" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="E56" s="111" t="s">
+        <v>86</v>
+      </c>
+      <c r="F56" s="106" t="s">
+        <v>70</v>
+      </c>
       <c r="G56" s="89"/>
       <c r="H56" s="52"/>
     </row>
     <row r="57" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A57" s="51">
-        <v>56</v>
-      </c>
-      <c r="B57" s="107"/>
-      <c r="C57" s="107"/>
-      <c r="D57" s="130" t="s">
-        <v>190</v>
-      </c>
-      <c r="E57" s="101"/>
-      <c r="F57" s="101"/>
+        <v>61</v>
+      </c>
+      <c r="B57" s="104"/>
+      <c r="C57" s="109"/>
+      <c r="D57" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="E57" s="111"/>
+      <c r="F57" s="107"/>
       <c r="G57" s="89"/>
       <c r="H57" s="52"/>
     </row>
     <row r="58" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A58" s="51">
-        <v>57</v>
-      </c>
-      <c r="B58" s="107"/>
-      <c r="C58" s="107"/>
-      <c r="D58" s="130" t="s">
-        <v>187</v>
-      </c>
-      <c r="E58" s="101"/>
-      <c r="F58" s="101"/>
+        <v>62</v>
+      </c>
+      <c r="B58" s="104"/>
+      <c r="C58" s="109"/>
+      <c r="D58" s="71" t="s">
+        <v>105</v>
+      </c>
+      <c r="E58" s="111"/>
+      <c r="F58" s="107"/>
       <c r="G58" s="89"/>
       <c r="H58" s="52"/>
     </row>
     <row r="59" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A59" s="51">
-        <v>58</v>
-      </c>
-      <c r="B59" s="107"/>
-      <c r="C59" s="107"/>
-      <c r="D59" s="130" t="s">
-        <v>128</v>
-      </c>
-      <c r="E59" s="101"/>
-      <c r="F59" s="101"/>
+        <v>63</v>
+      </c>
+      <c r="B59" s="104"/>
+      <c r="C59" s="109"/>
+      <c r="D59" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="E59" s="111"/>
+      <c r="F59" s="107"/>
       <c r="G59" s="89"/>
       <c r="H59" s="52"/>
     </row>
     <row r="60" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A60" s="51">
-        <v>59</v>
-      </c>
-      <c r="B60" s="106"/>
-      <c r="C60" s="106"/>
-      <c r="D60" s="130" t="s">
-        <v>183</v>
-      </c>
-      <c r="E60" s="102"/>
-      <c r="F60" s="102"/>
+        <v>64</v>
+      </c>
+      <c r="B60" s="104"/>
+      <c r="C60" s="109"/>
+      <c r="D60" s="70" t="s">
+        <v>107</v>
+      </c>
+      <c r="E60" s="111"/>
+      <c r="F60" s="107"/>
       <c r="G60" s="89"/>
       <c r="H60" s="52"/>
     </row>
     <row r="61" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A61" s="51">
-        <v>60</v>
-      </c>
-      <c r="B61" s="105" t="s">
-        <v>315</v>
-      </c>
-      <c r="C61" s="121" t="s">
-        <v>86</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="B61" s="104"/>
+      <c r="C61" s="109"/>
       <c r="D61" s="70" t="s">
-        <v>101</v>
-      </c>
-      <c r="E61" s="125" t="s">
-        <v>86</v>
-      </c>
-      <c r="F61" s="100" t="s">
-        <v>70</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="E61" s="111"/>
+      <c r="F61" s="107"/>
       <c r="G61" s="89"/>
       <c r="H61" s="52"/>
     </row>
     <row r="62" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A62" s="51">
-        <v>61</v>
-      </c>
-      <c r="B62" s="107"/>
-      <c r="C62" s="121"/>
-      <c r="D62" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="E62" s="125"/>
-      <c r="F62" s="101"/>
+        <v>66</v>
+      </c>
+      <c r="B62" s="104"/>
+      <c r="C62" s="110"/>
+      <c r="D62" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="E62" s="112"/>
+      <c r="F62" s="107"/>
       <c r="G62" s="89"/>
       <c r="H62" s="52"/>
     </row>
     <row r="63" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A63" s="51">
-        <v>62</v>
-      </c>
-      <c r="B63" s="107"/>
-      <c r="C63" s="121"/>
-      <c r="D63" s="71" t="s">
-        <v>105</v>
-      </c>
-      <c r="E63" s="125"/>
-      <c r="F63" s="101"/>
+        <v>67</v>
+      </c>
+      <c r="B63" s="104"/>
+      <c r="C63" s="110"/>
+      <c r="D63" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E63" s="112"/>
+      <c r="F63" s="107"/>
       <c r="G63" s="89"/>
       <c r="H63" s="52"/>
     </row>
     <row r="64" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A64" s="51">
-        <v>63</v>
-      </c>
-      <c r="B64" s="107"/>
-      <c r="C64" s="121"/>
-      <c r="D64" s="70" t="s">
-        <v>106</v>
-      </c>
-      <c r="E64" s="125"/>
-      <c r="F64" s="101"/>
+        <v>68</v>
+      </c>
+      <c r="B64" s="104"/>
+      <c r="C64" s="110"/>
+      <c r="D64" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="E64" s="112"/>
+      <c r="F64" s="107"/>
       <c r="G64" s="89"/>
       <c r="H64" s="52"/>
     </row>
     <row r="65" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A65" s="51">
-        <v>64</v>
-      </c>
-      <c r="B65" s="107"/>
-      <c r="C65" s="121"/>
-      <c r="D65" s="70" t="s">
-        <v>107</v>
-      </c>
-      <c r="E65" s="125"/>
-      <c r="F65" s="101"/>
+        <v>69</v>
+      </c>
+      <c r="B65" s="105"/>
+      <c r="C65" s="110"/>
+      <c r="D65" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="E65" s="112"/>
+      <c r="F65" s="108"/>
       <c r="G65" s="89"/>
       <c r="H65" s="52"/>
     </row>
-    <row r="66" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+    <row r="66" spans="1:8" s="64" customFormat="1" ht="18" customHeight="1">
       <c r="A66" s="51">
-        <v>65</v>
-      </c>
-      <c r="B66" s="107"/>
-      <c r="C66" s="121"/>
-      <c r="D66" s="70" t="s">
-        <v>108</v>
-      </c>
-      <c r="E66" s="125"/>
-      <c r="F66" s="101"/>
-      <c r="G66" s="89"/>
-      <c r="H66" s="52"/>
+        <v>70</v>
+      </c>
+      <c r="B66" s="120" t="s">
+        <v>308</v>
+      </c>
+      <c r="C66" s="103" t="s">
+        <v>77</v>
+      </c>
+      <c r="D66" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="E66" s="120" t="s">
+        <v>147</v>
+      </c>
+      <c r="F66" s="120" t="s">
+        <v>72</v>
+      </c>
+      <c r="G66" s="51"/>
+      <c r="H66" s="51"/>
     </row>
     <row r="67" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A67" s="51">
-        <v>66</v>
-      </c>
-      <c r="B67" s="107"/>
-      <c r="C67" s="114"/>
-      <c r="D67" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="E67" s="120"/>
-      <c r="F67" s="101"/>
-      <c r="G67" s="89"/>
+        <v>71</v>
+      </c>
+      <c r="B67" s="121"/>
+      <c r="C67" s="104"/>
+      <c r="D67" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="E67" s="121"/>
+      <c r="F67" s="121"/>
+      <c r="G67" s="39"/>
       <c r="H67" s="52"/>
     </row>
     <row r="68" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A68" s="51">
-        <v>67</v>
-      </c>
-      <c r="B68" s="107"/>
-      <c r="C68" s="114"/>
-      <c r="D68" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="E68" s="120"/>
-      <c r="F68" s="101"/>
-      <c r="G68" s="89"/>
+        <v>72</v>
+      </c>
+      <c r="B68" s="121"/>
+      <c r="C68" s="104"/>
+      <c r="D68" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="E68" s="121"/>
+      <c r="F68" s="121"/>
+      <c r="G68" s="39"/>
       <c r="H68" s="52"/>
     </row>
     <row r="69" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A69" s="51">
-        <v>68</v>
-      </c>
-      <c r="B69" s="107"/>
-      <c r="C69" s="114"/>
-      <c r="D69" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="E69" s="120"/>
-      <c r="F69" s="101"/>
-      <c r="G69" s="89"/>
+        <v>73</v>
+      </c>
+      <c r="B69" s="121"/>
+      <c r="C69" s="104"/>
+      <c r="D69" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E69" s="121"/>
+      <c r="F69" s="121"/>
+      <c r="G69" s="39"/>
       <c r="H69" s="52"/>
     </row>
     <row r="70" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A70" s="51">
-        <v>69</v>
-      </c>
-      <c r="B70" s="106"/>
-      <c r="C70" s="114"/>
-      <c r="D70" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="E70" s="120"/>
-      <c r="F70" s="102"/>
-      <c r="G70" s="89"/>
-      <c r="H70" s="52"/>
-    </row>
-    <row r="71" spans="1:8" s="64" customFormat="1" ht="18" customHeight="1">
+        <v>74</v>
+      </c>
+      <c r="B70" s="121"/>
+      <c r="C70" s="104"/>
+      <c r="D70" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E70" s="121"/>
+      <c r="F70" s="121"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="32"/>
+    </row>
+    <row r="71" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A71" s="51">
-        <v>70</v>
-      </c>
-      <c r="B71" s="103" t="s">
-        <v>316</v>
-      </c>
-      <c r="C71" s="105" t="s">
-        <v>77</v>
-      </c>
-      <c r="D71" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="E71" s="103" t="s">
-        <v>152</v>
-      </c>
-      <c r="F71" s="103" t="s">
-        <v>72</v>
-      </c>
-      <c r="G71" s="51"/>
-      <c r="H71" s="51"/>
+        <v>75</v>
+      </c>
+      <c r="B71" s="121"/>
+      <c r="C71" s="104"/>
+      <c r="D71" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="E71" s="121"/>
+      <c r="F71" s="121"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="32"/>
     </row>
     <row r="72" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A72" s="51">
-        <v>71</v>
-      </c>
-      <c r="B72" s="115"/>
-      <c r="C72" s="107"/>
-      <c r="D72" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="E72" s="115"/>
-      <c r="F72" s="115"/>
-      <c r="G72" s="39"/>
-      <c r="H72" s="52"/>
+        <v>76</v>
+      </c>
+      <c r="B72" s="121"/>
+      <c r="C72" s="104"/>
+      <c r="D72" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="E72" s="121"/>
+      <c r="F72" s="121"/>
+      <c r="G72" s="30"/>
+      <c r="H72" s="32"/>
     </row>
     <row r="73" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A73" s="51">
-        <v>72</v>
-      </c>
-      <c r="B73" s="115"/>
-      <c r="C73" s="107"/>
-      <c r="D73" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="E73" s="115"/>
-      <c r="F73" s="115"/>
-      <c r="G73" s="39"/>
+        <v>77</v>
+      </c>
+      <c r="B73" s="121"/>
+      <c r="C73" s="104"/>
+      <c r="D73" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="E73" s="121"/>
+      <c r="F73" s="121"/>
+      <c r="G73" s="75"/>
       <c r="H73" s="52"/>
     </row>
     <row r="74" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A74" s="51">
-        <v>73</v>
-      </c>
-      <c r="B74" s="115"/>
-      <c r="C74" s="107"/>
-      <c r="D74" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="E74" s="115"/>
-      <c r="F74" s="115"/>
-      <c r="G74" s="39"/>
+        <v>78</v>
+      </c>
+      <c r="B74" s="121"/>
+      <c r="C74" s="104"/>
+      <c r="D74" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="E74" s="121"/>
+      <c r="F74" s="121"/>
+      <c r="G74" s="75"/>
       <c r="H74" s="52"/>
     </row>
     <row r="75" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A75" s="51">
-        <v>74</v>
-      </c>
-      <c r="B75" s="115"/>
-      <c r="C75" s="107"/>
+        <v>79</v>
+      </c>
+      <c r="B75" s="121"/>
+      <c r="C75" s="104"/>
       <c r="D75" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="E75" s="115"/>
-      <c r="F75" s="115"/>
+        <v>54</v>
+      </c>
+      <c r="E75" s="121"/>
+      <c r="F75" s="121"/>
       <c r="G75" s="30"/>
       <c r="H75" s="32"/>
     </row>
     <row r="76" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A76" s="51">
-        <v>75</v>
-      </c>
-      <c r="B76" s="115"/>
-      <c r="C76" s="107"/>
-      <c r="D76" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="E76" s="115"/>
-      <c r="F76" s="115"/>
+      <c r="B76" s="121"/>
+      <c r="C76" s="104"/>
+      <c r="D76" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E76" s="121"/>
+      <c r="F76" s="121"/>
       <c r="G76" s="30"/>
       <c r="H76" s="32"/>
     </row>
     <row r="77" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A77" s="51">
-        <v>76</v>
-      </c>
-      <c r="B77" s="115"/>
-      <c r="C77" s="107"/>
-      <c r="D77" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="E77" s="115"/>
-      <c r="F77" s="115"/>
+        <v>81</v>
+      </c>
+      <c r="B77" s="121"/>
+      <c r="C77" s="105"/>
+      <c r="D77" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="E77" s="122"/>
+      <c r="F77" s="122"/>
       <c r="G77" s="30"/>
       <c r="H77" s="32"/>
     </row>
     <row r="78" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A78" s="51">
-        <v>77</v>
-      </c>
-      <c r="B78" s="115"/>
-      <c r="C78" s="107"/>
-      <c r="D78" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="E78" s="115"/>
-      <c r="F78" s="115"/>
-      <c r="G78" s="75"/>
+        <v>82</v>
+      </c>
+      <c r="B78" s="103" t="s">
+        <v>308</v>
+      </c>
+      <c r="C78" s="103" t="s">
+        <v>97</v>
+      </c>
+      <c r="D78" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="E78" s="106" t="s">
+        <v>158</v>
+      </c>
+      <c r="F78" s="106" t="s">
+        <v>70</v>
+      </c>
+      <c r="G78" s="89"/>
       <c r="H78" s="52"/>
     </row>
     <row r="79" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A79" s="51">
-        <v>78</v>
-      </c>
-      <c r="B79" s="115"/>
-      <c r="C79" s="107"/>
-      <c r="D79" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="E79" s="115"/>
-      <c r="F79" s="115"/>
-      <c r="G79" s="75"/>
+        <v>83</v>
+      </c>
+      <c r="B79" s="104"/>
+      <c r="C79" s="104"/>
+      <c r="D79" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="E79" s="107"/>
+      <c r="F79" s="107"/>
+      <c r="G79" s="89"/>
       <c r="H79" s="52"/>
     </row>
     <row r="80" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A80" s="51">
-        <v>79</v>
-      </c>
-      <c r="B80" s="115"/>
-      <c r="C80" s="107"/>
-      <c r="D80" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="E80" s="115"/>
-      <c r="F80" s="115"/>
-      <c r="G80" s="30"/>
-      <c r="H80" s="32"/>
+        <v>84</v>
+      </c>
+      <c r="B80" s="104"/>
+      <c r="C80" s="104"/>
+      <c r="D80" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="E80" s="107"/>
+      <c r="F80" s="107"/>
+      <c r="G80" s="89"/>
+      <c r="H80" s="52"/>
     </row>
     <row r="81" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A81" s="51">
-        <v>80</v>
-      </c>
-      <c r="B81" s="115"/>
-      <c r="C81" s="107"/>
+        <v>85</v>
+      </c>
+      <c r="B81" s="105"/>
+      <c r="C81" s="104"/>
       <c r="D81" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="E81" s="115"/>
-      <c r="F81" s="115"/>
-      <c r="G81" s="30"/>
-      <c r="H81" s="32"/>
+        <v>169</v>
+      </c>
+      <c r="E81" s="108"/>
+      <c r="F81" s="108"/>
+      <c r="G81" s="89"/>
+      <c r="H81" s="52"/>
     </row>
     <row r="82" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A82" s="51">
-        <v>81</v>
-      </c>
-      <c r="B82" s="115"/>
-      <c r="C82" s="106"/>
-      <c r="D82" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="E82" s="104"/>
-      <c r="F82" s="104"/>
+        <v>86</v>
+      </c>
+      <c r="B82" s="120" t="s">
+        <v>309</v>
+      </c>
+      <c r="C82" s="103" t="s">
+        <v>78</v>
+      </c>
+      <c r="D82" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E82" s="115" t="s">
+        <v>146</v>
+      </c>
+      <c r="F82" s="106" t="s">
+        <v>70</v>
+      </c>
       <c r="G82" s="30"/>
       <c r="H82" s="32"/>
     </row>
     <row r="83" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A83" s="51">
-        <v>82</v>
-      </c>
-      <c r="B83" s="105" t="s">
-        <v>316</v>
-      </c>
-      <c r="C83" s="105" t="s">
-        <v>97</v>
-      </c>
-      <c r="D83" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="E83" s="100" t="s">
-        <v>163</v>
-      </c>
-      <c r="F83" s="100" t="s">
-        <v>70</v>
-      </c>
-      <c r="G83" s="89"/>
-      <c r="H83" s="52"/>
+        <v>87</v>
+      </c>
+      <c r="B83" s="121"/>
+      <c r="C83" s="104"/>
+      <c r="D83" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E83" s="123"/>
+      <c r="F83" s="107"/>
+      <c r="G83" s="30"/>
+      <c r="H83" s="32"/>
     </row>
     <row r="84" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A84" s="51">
-        <v>83</v>
-      </c>
-      <c r="B84" s="107"/>
-      <c r="C84" s="107"/>
-      <c r="D84" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="E84" s="101"/>
-      <c r="F84" s="101"/>
-      <c r="G84" s="89"/>
-      <c r="H84" s="52"/>
+        <v>88</v>
+      </c>
+      <c r="B84" s="121"/>
+      <c r="C84" s="104"/>
+      <c r="D84" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="E84" s="123"/>
+      <c r="F84" s="107"/>
+      <c r="G84" s="30"/>
+      <c r="H84" s="32"/>
     </row>
     <row r="85" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A85" s="51">
-        <v>84</v>
-      </c>
-      <c r="B85" s="107"/>
-      <c r="C85" s="107"/>
-      <c r="D85" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="E85" s="101"/>
-      <c r="F85" s="101"/>
-      <c r="G85" s="89"/>
-      <c r="H85" s="52"/>
+        <v>89</v>
+      </c>
+      <c r="B85" s="121"/>
+      <c r="C85" s="104"/>
+      <c r="D85" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E85" s="123"/>
+      <c r="F85" s="107"/>
+      <c r="G85" s="30"/>
+      <c r="H85" s="32"/>
     </row>
     <row r="86" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A86" s="51">
-        <v>85</v>
-      </c>
-      <c r="B86" s="106"/>
-      <c r="C86" s="107"/>
-      <c r="D86" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="E86" s="102"/>
-      <c r="F86" s="102"/>
-      <c r="G86" s="89"/>
-      <c r="H86" s="52"/>
+        <v>90</v>
+      </c>
+      <c r="B86" s="121"/>
+      <c r="C86" s="104"/>
+      <c r="D86" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="E86" s="123"/>
+      <c r="F86" s="107"/>
+      <c r="G86" s="30"/>
+      <c r="H86" s="32"/>
     </row>
     <row r="87" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A87" s="51">
-        <v>86</v>
-      </c>
-      <c r="B87" s="103" t="s">
-        <v>317</v>
-      </c>
-      <c r="C87" s="105" t="s">
-        <v>78</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="B87" s="121"/>
+      <c r="C87" s="104"/>
       <c r="D87" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="E87" s="116" t="s">
-        <v>151</v>
-      </c>
-      <c r="F87" s="100" t="s">
-        <v>70</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="E87" s="123"/>
+      <c r="F87" s="107"/>
       <c r="G87" s="30"/>
       <c r="H87" s="32"/>
     </row>
     <row r="88" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A88" s="51">
-        <v>87</v>
-      </c>
-      <c r="B88" s="115"/>
-      <c r="C88" s="107"/>
-      <c r="D88" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E88" s="117"/>
-      <c r="F88" s="101"/>
+        <v>92</v>
+      </c>
+      <c r="B88" s="121"/>
+      <c r="C88" s="104"/>
+      <c r="D88" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E88" s="123"/>
+      <c r="F88" s="107"/>
       <c r="G88" s="30"/>
       <c r="H88" s="32"/>
     </row>
     <row r="89" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A89" s="51">
-        <v>88</v>
-      </c>
-      <c r="B89" s="115"/>
-      <c r="C89" s="107"/>
-      <c r="D89" s="25" t="s">
-        <v>210</v>
-      </c>
-      <c r="E89" s="117"/>
-      <c r="F89" s="101"/>
+        <v>93</v>
+      </c>
+      <c r="B89" s="122"/>
+      <c r="C89" s="105"/>
+      <c r="D89" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="E89" s="116"/>
+      <c r="F89" s="107"/>
       <c r="G89" s="30"/>
       <c r="H89" s="32"/>
     </row>
     <row r="90" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A90" s="51">
-        <v>89</v>
-      </c>
-      <c r="B90" s="115"/>
-      <c r="C90" s="107"/>
+        <v>94</v>
+      </c>
+      <c r="B90" s="120" t="s">
+        <v>312</v>
+      </c>
+      <c r="C90" s="103" t="s">
+        <v>83</v>
+      </c>
       <c r="D90" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="E90" s="117"/>
-      <c r="F90" s="101"/>
+        <v>103</v>
+      </c>
+      <c r="E90" s="103" t="s">
+        <v>148</v>
+      </c>
+      <c r="F90" s="106" t="s">
+        <v>149</v>
+      </c>
       <c r="G90" s="30"/>
       <c r="H90" s="32"/>
     </row>
     <row r="91" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A91" s="51">
-        <v>90</v>
-      </c>
-      <c r="B91" s="115"/>
-      <c r="C91" s="107"/>
-      <c r="D91" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="E91" s="117"/>
-      <c r="F91" s="101"/>
+        <v>95</v>
+      </c>
+      <c r="B91" s="121"/>
+      <c r="C91" s="104"/>
+      <c r="D91" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E91" s="104"/>
+      <c r="F91" s="107"/>
       <c r="G91" s="30"/>
       <c r="H91" s="32"/>
     </row>
     <row r="92" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A92" s="51">
-        <v>91</v>
-      </c>
-      <c r="B92" s="115"/>
-      <c r="C92" s="107"/>
-      <c r="D92" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="E92" s="117"/>
-      <c r="F92" s="101"/>
+        <v>96</v>
+      </c>
+      <c r="B92" s="122"/>
+      <c r="C92" s="105"/>
+      <c r="D92" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="E92" s="105"/>
+      <c r="F92" s="108"/>
       <c r="G92" s="30"/>
       <c r="H92" s="32"/>
     </row>
     <row r="93" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A93" s="51">
-        <v>92</v>
-      </c>
-      <c r="B93" s="115"/>
-      <c r="C93" s="107"/>
-      <c r="D93" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="E93" s="117"/>
-      <c r="F93" s="101"/>
+        <v>97</v>
+      </c>
+      <c r="B93" s="103" t="s">
+        <v>310</v>
+      </c>
+      <c r="C93" s="103" t="s">
+        <v>87</v>
+      </c>
+      <c r="D93" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="E93" s="106" t="s">
+        <v>151</v>
+      </c>
+      <c r="F93" s="106" t="s">
+        <v>150</v>
+      </c>
       <c r="G93" s="30"/>
       <c r="H93" s="32"/>
     </row>
     <row r="94" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A94" s="51">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B94" s="104"/>
-      <c r="C94" s="106"/>
-      <c r="D94" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="E94" s="118"/>
-      <c r="F94" s="101"/>
+      <c r="C94" s="104"/>
+      <c r="D94" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="E94" s="107"/>
+      <c r="F94" s="107"/>
       <c r="G94" s="30"/>
       <c r="H94" s="32"/>
     </row>
     <row r="95" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A95" s="51">
-        <v>94</v>
-      </c>
-      <c r="B95" s="103" t="s">
-        <v>320</v>
-      </c>
-      <c r="C95" s="105" t="s">
-        <v>83</v>
-      </c>
-      <c r="D95" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="E95" s="105" t="s">
-        <v>153</v>
-      </c>
-      <c r="F95" s="100" t="s">
-        <v>154</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="B95" s="104"/>
+      <c r="C95" s="104"/>
+      <c r="D95" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="E95" s="107"/>
+      <c r="F95" s="107"/>
       <c r="G95" s="30"/>
       <c r="H95" s="32"/>
     </row>
     <row r="96" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A96" s="51">
-        <v>95</v>
-      </c>
-      <c r="B96" s="115"/>
-      <c r="C96" s="107"/>
-      <c r="D96" s="25" t="s">
-        <v>84</v>
+        <v>100</v>
+      </c>
+      <c r="B96" s="104"/>
+      <c r="C96" s="104"/>
+      <c r="D96" s="24" t="s">
+        <v>115</v>
       </c>
       <c r="E96" s="107"/>
-      <c r="F96" s="101"/>
+      <c r="F96" s="107"/>
       <c r="G96" s="30"/>
       <c r="H96" s="32"/>
     </row>
     <row r="97" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A97" s="51">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B97" s="104"/>
-      <c r="C97" s="106"/>
-      <c r="D97" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="E97" s="106"/>
-      <c r="F97" s="102"/>
+      <c r="C97" s="104"/>
+      <c r="D97" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="E97" s="107"/>
+      <c r="F97" s="107"/>
       <c r="G97" s="30"/>
       <c r="H97" s="32"/>
     </row>
     <row r="98" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A98" s="51">
-        <v>97</v>
-      </c>
-      <c r="B98" s="105" t="s">
-        <v>318</v>
-      </c>
-      <c r="C98" s="105" t="s">
-        <v>87</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="B98" s="104"/>
+      <c r="C98" s="104"/>
       <c r="D98" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="E98" s="100" t="s">
-        <v>156</v>
-      </c>
-      <c r="F98" s="100" t="s">
-        <v>155</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="E98" s="107"/>
+      <c r="F98" s="107"/>
       <c r="G98" s="30"/>
       <c r="H98" s="32"/>
     </row>
     <row r="99" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A99" s="51">
-        <v>98</v>
-      </c>
-      <c r="B99" s="107"/>
-      <c r="C99" s="107"/>
+        <v>103</v>
+      </c>
+      <c r="B99" s="104"/>
+      <c r="C99" s="104"/>
       <c r="D99" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="E99" s="101"/>
-      <c r="F99" s="101"/>
+        <v>117</v>
+      </c>
+      <c r="E99" s="107"/>
+      <c r="F99" s="107"/>
       <c r="G99" s="30"/>
       <c r="H99" s="32"/>
     </row>
     <row r="100" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A100" s="51">
-        <v>99</v>
-      </c>
-      <c r="B100" s="107"/>
-      <c r="C100" s="107"/>
+        <v>104</v>
+      </c>
+      <c r="B100" s="105"/>
+      <c r="C100" s="105"/>
       <c r="D100" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="E100" s="101"/>
-      <c r="F100" s="101"/>
-      <c r="G100" s="30"/>
-      <c r="H100" s="32"/>
+        <v>314</v>
+      </c>
+      <c r="E100" s="108"/>
+      <c r="F100" s="87"/>
+      <c r="G100" s="89"/>
+      <c r="H100" s="52"/>
     </row>
     <row r="101" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A101" s="51">
-        <v>100</v>
-      </c>
-      <c r="B101" s="107"/>
-      <c r="C101" s="107"/>
+        <v>105</v>
+      </c>
+      <c r="B101" s="103" t="s">
+        <v>311</v>
+      </c>
+      <c r="C101" s="103" t="s">
+        <v>96</v>
+      </c>
       <c r="D101" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="E101" s="101"/>
-      <c r="F101" s="101"/>
-      <c r="G101" s="30"/>
-      <c r="H101" s="32"/>
+        <v>121</v>
+      </c>
+      <c r="E101" s="106" t="s">
+        <v>159</v>
+      </c>
+      <c r="F101" s="106" t="s">
+        <v>160</v>
+      </c>
+      <c r="G101" s="69"/>
+      <c r="H101" s="52"/>
     </row>
     <row r="102" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A102" s="51">
-        <v>101</v>
-      </c>
-      <c r="B102" s="107"/>
-      <c r="C102" s="107"/>
+        <v>106</v>
+      </c>
+      <c r="B102" s="104"/>
+      <c r="C102" s="104"/>
       <c r="D102" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="E102" s="101"/>
-      <c r="F102" s="101"/>
-      <c r="G102" s="30"/>
-      <c r="H102" s="32"/>
+        <v>183</v>
+      </c>
+      <c r="E102" s="107"/>
+      <c r="F102" s="107"/>
+      <c r="G102" s="69"/>
+      <c r="H102" s="52"/>
     </row>
     <row r="103" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A103" s="51">
-        <v>102</v>
-      </c>
-      <c r="B103" s="107"/>
-      <c r="C103" s="107"/>
+        <v>107</v>
+      </c>
+      <c r="B103" s="104"/>
+      <c r="C103" s="104"/>
       <c r="D103" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="E103" s="101"/>
-      <c r="F103" s="101"/>
-      <c r="G103" s="30"/>
-      <c r="H103" s="32"/>
+        <v>122</v>
+      </c>
+      <c r="E103" s="107"/>
+      <c r="F103" s="107"/>
+      <c r="G103" s="69"/>
+      <c r="H103" s="52"/>
     </row>
     <row r="104" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A104" s="51">
-        <v>103</v>
-      </c>
-      <c r="B104" s="107"/>
-      <c r="C104" s="107"/>
+        <v>108</v>
+      </c>
+      <c r="B104" s="104"/>
+      <c r="C104" s="104"/>
       <c r="D104" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="E104" s="101"/>
-      <c r="F104" s="101"/>
-      <c r="G104" s="30"/>
-      <c r="H104" s="32"/>
+        <v>123</v>
+      </c>
+      <c r="E104" s="107"/>
+      <c r="F104" s="107"/>
+      <c r="G104" s="69"/>
+      <c r="H104" s="52"/>
     </row>
     <row r="105" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A105" s="51">
-        <v>104</v>
-      </c>
-      <c r="B105" s="106"/>
-      <c r="C105" s="106"/>
+        <v>109</v>
+      </c>
+      <c r="B105" s="105"/>
+      <c r="C105" s="105"/>
       <c r="D105" s="24" t="s">
-        <v>322</v>
-      </c>
-      <c r="E105" s="102"/>
-      <c r="F105" s="87"/>
-      <c r="G105" s="89"/>
+        <v>128</v>
+      </c>
+      <c r="E105" s="108"/>
+      <c r="F105" s="108"/>
+      <c r="G105" s="69"/>
       <c r="H105" s="52"/>
     </row>
-    <row r="106" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A106" s="51">
-        <v>105</v>
-      </c>
-      <c r="B106" s="105" t="s">
-        <v>319</v>
-      </c>
-      <c r="C106" s="105" t="s">
-        <v>96</v>
-      </c>
-      <c r="D106" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="E106" s="100" t="s">
-        <v>164</v>
-      </c>
-      <c r="F106" s="100" t="s">
-        <v>165</v>
-      </c>
-      <c r="G106" s="69"/>
-      <c r="H106" s="52"/>
-    </row>
-    <row r="107" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+    <row r="106" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A106" s="51"/>
+      <c r="B106" s="25"/>
+      <c r="C106" s="125" t="s">
+        <v>35</v>
+      </c>
+      <c r="D106" s="126"/>
+      <c r="E106" s="72"/>
+      <c r="F106" s="72"/>
+      <c r="G106" s="73"/>
+      <c r="H106" s="27"/>
+    </row>
+    <row r="107" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A107" s="51">
-        <v>106</v>
-      </c>
-      <c r="B107" s="107"/>
-      <c r="C107" s="107"/>
-      <c r="D107" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="E107" s="101"/>
-      <c r="F107" s="101"/>
-      <c r="G107" s="69"/>
-      <c r="H107" s="52"/>
-    </row>
-    <row r="108" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A108" s="51">
-        <v>107</v>
-      </c>
-      <c r="B108" s="107"/>
-      <c r="C108" s="107"/>
-      <c r="D108" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="E108" s="101"/>
-      <c r="F108" s="101"/>
-      <c r="G108" s="69"/>
-      <c r="H108" s="52"/>
-    </row>
-    <row r="109" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A109" s="51">
-        <v>108</v>
-      </c>
-      <c r="B109" s="107"/>
-      <c r="C109" s="107"/>
-      <c r="D109" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="E109" s="101"/>
-      <c r="F109" s="101"/>
-      <c r="G109" s="69"/>
-      <c r="H109" s="52"/>
-    </row>
-    <row r="110" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A110" s="51">
-        <v>109</v>
-      </c>
-      <c r="B110" s="106"/>
-      <c r="C110" s="106"/>
-      <c r="D110" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="E110" s="102"/>
-      <c r="F110" s="102"/>
-      <c r="G110" s="69"/>
-      <c r="H110" s="52"/>
+        <v>110</v>
+      </c>
+      <c r="B107" s="73" t="s">
+        <v>47</v>
+      </c>
+      <c r="C107" s="73" t="s">
+        <v>206</v>
+      </c>
+      <c r="D107" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="E107" s="72"/>
+      <c r="F107" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="G107" s="73"/>
+      <c r="H107" s="27"/>
+    </row>
+    <row r="108" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A108" s="120">
+        <v>111</v>
+      </c>
+      <c r="B108" s="103" t="s">
+        <v>48</v>
+      </c>
+      <c r="C108" s="110" t="s">
+        <v>225</v>
+      </c>
+      <c r="D108" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="E108" s="112"/>
+      <c r="F108" s="106" t="s">
+        <v>73</v>
+      </c>
+      <c r="G108" s="30"/>
+      <c r="H108" s="27"/>
+    </row>
+    <row r="109" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A109" s="122"/>
+      <c r="B109" s="105"/>
+      <c r="C109" s="110"/>
+      <c r="D109" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="E109" s="112"/>
+      <c r="F109" s="108"/>
+      <c r="G109" s="30"/>
+      <c r="H109" s="27"/>
+    </row>
+    <row r="110" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A110" s="29">
+        <v>112</v>
+      </c>
+      <c r="B110" s="103" t="s">
+        <v>232</v>
+      </c>
+      <c r="C110" s="110" t="s">
+        <v>231</v>
+      </c>
+      <c r="D110" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="E110" s="112"/>
+      <c r="F110" s="106" t="s">
+        <v>71</v>
+      </c>
+      <c r="G110" s="30"/>
+      <c r="H110" s="27"/>
     </row>
     <row r="111" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A111" s="51"/>
-      <c r="B111" s="25"/>
-      <c r="C111" s="108" t="s">
-        <v>35</v>
-      </c>
-      <c r="D111" s="109"/>
-      <c r="E111" s="72"/>
-      <c r="F111" s="72"/>
-      <c r="G111" s="73"/>
+      <c r="A111" s="29">
+        <v>113</v>
+      </c>
+      <c r="B111" s="105"/>
+      <c r="C111" s="110"/>
+      <c r="D111" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="E111" s="112"/>
+      <c r="F111" s="108"/>
+      <c r="G111" s="30"/>
       <c r="H111" s="27"/>
     </row>
-    <row r="112" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+    <row r="112" spans="1:8" s="43" customFormat="1" ht="15" customHeight="1">
       <c r="A112" s="51">
-        <v>110</v>
-      </c>
-      <c r="B112" s="73" t="s">
-        <v>47</v>
-      </c>
-      <c r="C112" s="73" t="s">
-        <v>214</v>
+        <v>114</v>
+      </c>
+      <c r="B112" s="103" t="s">
+        <v>233</v>
+      </c>
+      <c r="C112" s="110" t="s">
+        <v>228</v>
       </c>
       <c r="D112" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="E112" s="72"/>
-      <c r="F112" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="E112" s="112"/>
+      <c r="F112" s="106" t="s">
         <v>71</v>
       </c>
-      <c r="G112" s="73"/>
-      <c r="H112" s="27"/>
-    </row>
-    <row r="113" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A113" s="103">
-        <v>111</v>
-      </c>
-      <c r="B113" s="105" t="s">
-        <v>48</v>
-      </c>
-      <c r="C113" s="114" t="s">
-        <v>233</v>
-      </c>
+      <c r="G112" s="30"/>
+      <c r="H112" s="32"/>
+    </row>
+    <row r="113" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A113" s="51">
+        <v>115</v>
+      </c>
+      <c r="B113" s="104"/>
+      <c r="C113" s="110"/>
       <c r="D113" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="E113" s="120"/>
-      <c r="F113" s="100" t="s">
-        <v>73</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E113" s="112"/>
+      <c r="F113" s="107"/>
       <c r="G113" s="30"/>
-      <c r="H113" s="27"/>
-    </row>
-    <row r="114" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A114" s="104"/>
-      <c r="B114" s="106"/>
-      <c r="C114" s="114"/>
-      <c r="D114" s="33" t="s">
-        <v>235</v>
-      </c>
-      <c r="E114" s="120"/>
-      <c r="F114" s="102"/>
+      <c r="H113" s="32"/>
+    </row>
+    <row r="114" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A114" s="51">
+        <v>116</v>
+      </c>
+      <c r="B114" s="105"/>
+      <c r="C114" s="110"/>
+      <c r="D114" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E114" s="112"/>
+      <c r="F114" s="108"/>
       <c r="G114" s="30"/>
-      <c r="H114" s="27"/>
-    </row>
-    <row r="115" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A115" s="29">
-        <v>112</v>
-      </c>
-      <c r="B115" s="105" t="s">
-        <v>240</v>
-      </c>
-      <c r="C115" s="114" t="s">
-        <v>239</v>
-      </c>
-      <c r="D115" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="E115" s="120"/>
-      <c r="F115" s="100" t="s">
-        <v>71</v>
-      </c>
+      <c r="H114" s="32"/>
+    </row>
+    <row r="115" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A115" s="29"/>
+      <c r="B115" s="25"/>
+      <c r="C115" s="124" t="s">
+        <v>37</v>
+      </c>
+      <c r="D115" s="124"/>
+      <c r="E115" s="25"/>
+      <c r="F115" s="62"/>
       <c r="G115" s="30"/>
-      <c r="H115" s="27"/>
-    </row>
-    <row r="116" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="H115" s="32"/>
+    </row>
+    <row r="116" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A116" s="29">
-        <v>113</v>
-      </c>
-      <c r="B116" s="106"/>
-      <c r="C116" s="114"/>
+        <v>117</v>
+      </c>
+      <c r="B116" s="103" t="s">
+        <v>49</v>
+      </c>
+      <c r="C116" s="110" t="s">
+        <v>205</v>
+      </c>
       <c r="D116" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="E116" s="120"/>
-      <c r="F116" s="102"/>
+        <v>34</v>
+      </c>
+      <c r="E116" s="112"/>
+      <c r="F116" s="106" t="s">
+        <v>74</v>
+      </c>
       <c r="G116" s="30"/>
-      <c r="H116" s="27"/>
-    </row>
-    <row r="117" spans="1:8" s="43" customFormat="1" ht="15" customHeight="1">
+      <c r="H116" s="32"/>
+    </row>
+    <row r="117" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A117" s="51">
-        <v>114</v>
-      </c>
-      <c r="B117" s="105" t="s">
-        <v>241</v>
-      </c>
-      <c r="C117" s="114" t="s">
-        <v>236</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="B117" s="104"/>
+      <c r="C117" s="110"/>
       <c r="D117" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E117" s="120"/>
-      <c r="F117" s="100" t="s">
-        <v>71</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="E117" s="112"/>
+      <c r="F117" s="107"/>
       <c r="G117" s="30"/>
       <c r="H117" s="32"/>
     </row>
     <row r="118" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A118" s="51">
-        <v>115</v>
-      </c>
-      <c r="B118" s="107"/>
-      <c r="C118" s="114"/>
-      <c r="D118" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E118" s="120"/>
-      <c r="F118" s="101"/>
+        <v>119</v>
+      </c>
+      <c r="B118" s="104"/>
+      <c r="C118" s="110"/>
+      <c r="D118" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E118" s="112"/>
+      <c r="F118" s="107"/>
       <c r="G118" s="30"/>
       <c r="H118" s="32"/>
     </row>
     <row r="119" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A119" s="51">
-        <v>116</v>
-      </c>
-      <c r="B119" s="106"/>
-      <c r="C119" s="114"/>
+        <v>120</v>
+      </c>
+      <c r="B119" s="105"/>
+      <c r="C119" s="110"/>
       <c r="D119" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E119" s="120"/>
-      <c r="F119" s="102"/>
+        <v>64</v>
+      </c>
+      <c r="E119" s="112"/>
+      <c r="F119" s="108"/>
       <c r="G119" s="30"/>
       <c r="H119" s="32"/>
     </row>
     <row r="120" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A120" s="29"/>
-      <c r="B120" s="25"/>
-      <c r="C120" s="119" t="s">
-        <v>37</v>
-      </c>
-      <c r="D120" s="119"/>
+      <c r="A120" s="51">
+        <v>121</v>
+      </c>
+      <c r="B120" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C120" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D120" s="25" t="s">
+        <v>9</v>
+      </c>
       <c r="E120" s="25"/>
-      <c r="F120" s="62"/>
+      <c r="F120" s="62" t="s">
+        <v>73</v>
+      </c>
       <c r="G120" s="30"/>
       <c r="H120" s="32"/>
     </row>
     <row r="121" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A121" s="29">
-        <v>117</v>
-      </c>
-      <c r="B121" s="105" t="s">
-        <v>49</v>
-      </c>
-      <c r="C121" s="114" t="s">
-        <v>213</v>
-      </c>
-      <c r="D121" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E121" s="120"/>
-      <c r="F121" s="100" t="s">
-        <v>74</v>
-      </c>
+      <c r="A121" s="25"/>
+      <c r="B121" s="25"/>
+      <c r="C121" s="124" t="s">
+        <v>38</v>
+      </c>
+      <c r="D121" s="124"/>
+      <c r="E121" s="25"/>
+      <c r="F121" s="62"/>
       <c r="G121" s="30"/>
       <c r="H121" s="32"/>
     </row>
-    <row r="122" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A122" s="51">
-        <v>118</v>
-      </c>
-      <c r="B122" s="107"/>
-      <c r="C122" s="114"/>
-      <c r="D122" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="E122" s="120"/>
-      <c r="F122" s="101"/>
+    <row r="122" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A122" s="31">
+        <v>122</v>
+      </c>
+      <c r="B122" s="103" t="s">
+        <v>248</v>
+      </c>
+      <c r="C122" s="103" t="s">
+        <v>249</v>
+      </c>
+      <c r="D122" s="94" t="s">
+        <v>263</v>
+      </c>
+      <c r="E122" s="112"/>
+      <c r="F122" s="106" t="s">
+        <v>74</v>
+      </c>
       <c r="G122" s="30"/>
       <c r="H122" s="32"/>
     </row>
-    <row r="123" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A123" s="51">
-        <v>119</v>
-      </c>
-      <c r="B123" s="107"/>
-      <c r="C123" s="114"/>
-      <c r="D123" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="E123" s="120"/>
-      <c r="F123" s="101"/>
+    <row r="123" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A123" s="40">
+        <v>123</v>
+      </c>
+      <c r="B123" s="104"/>
+      <c r="C123" s="104"/>
+      <c r="D123" s="93" t="s">
+        <v>250</v>
+      </c>
+      <c r="E123" s="112"/>
+      <c r="F123" s="107"/>
       <c r="G123" s="30"/>
       <c r="H123" s="32"/>
     </row>
-    <row r="124" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A124" s="51">
-        <v>120</v>
-      </c>
-      <c r="B124" s="106"/>
-      <c r="C124" s="114"/>
-      <c r="D124" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="E124" s="120"/>
-      <c r="F124" s="102"/>
+    <row r="124" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A124" s="88">
+        <v>124</v>
+      </c>
+      <c r="B124" s="105"/>
+      <c r="C124" s="105"/>
+      <c r="D124" s="93" t="s">
+        <v>251</v>
+      </c>
+      <c r="E124" s="112"/>
+      <c r="F124" s="108"/>
       <c r="G124" s="30"/>
       <c r="H124" s="32"/>
     </row>
-    <row r="125" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A125" s="51">
-        <v>121</v>
-      </c>
-      <c r="B125" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="C125" s="30" t="s">
-        <v>36</v>
+    <row r="125" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A125" s="88">
+        <v>125</v>
+      </c>
+      <c r="B125" s="103" t="s">
+        <v>252</v>
+      </c>
+      <c r="C125" s="103" t="s">
+        <v>254</v>
       </c>
       <c r="D125" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E125" s="25"/>
-      <c r="F125" s="62" t="s">
-        <v>73</v>
-      </c>
-      <c r="G125" s="30"/>
-      <c r="H125" s="32"/>
-    </row>
-    <row r="126" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A126" s="25"/>
-      <c r="B126" s="25"/>
-      <c r="C126" s="119" t="s">
-        <v>38</v>
-      </c>
-      <c r="D126" s="119"/>
-      <c r="E126" s="25"/>
-      <c r="F126" s="62"/>
-      <c r="G126" s="30"/>
-      <c r="H126" s="32"/>
+        <v>253</v>
+      </c>
+      <c r="E125" s="106"/>
+      <c r="F125" s="106" t="s">
+        <v>279</v>
+      </c>
+      <c r="G125" s="81"/>
+      <c r="H125" s="52"/>
+    </row>
+    <row r="126" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A126" s="88">
+        <v>126</v>
+      </c>
+      <c r="B126" s="104"/>
+      <c r="C126" s="104"/>
+      <c r="D126" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="E126" s="107"/>
+      <c r="F126" s="107"/>
+      <c r="G126" s="81"/>
+      <c r="H126" s="52"/>
     </row>
     <row r="127" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A127" s="31">
-        <v>122</v>
-      </c>
-      <c r="B127" s="105" t="s">
+      <c r="A127" s="88">
+        <v>127</v>
+      </c>
+      <c r="B127" s="105"/>
+      <c r="C127" s="105"/>
+      <c r="D127" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="C127" s="105" t="s">
+      <c r="E127" s="108"/>
+      <c r="F127" s="108"/>
+      <c r="G127" s="81"/>
+      <c r="H127" s="52"/>
+    </row>
+    <row r="128" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A128" s="88">
+        <v>128</v>
+      </c>
+      <c r="B128" s="103" t="s">
+        <v>264</v>
+      </c>
+      <c r="C128" s="110" t="s">
         <v>257</v>
       </c>
-      <c r="D127" s="94" t="s">
-        <v>271</v>
-      </c>
-      <c r="E127" s="120"/>
-      <c r="F127" s="100" t="s">
-        <v>74</v>
-      </c>
-      <c r="G127" s="30"/>
-      <c r="H127" s="32"/>
-    </row>
-    <row r="128" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A128" s="40">
-        <v>123</v>
-      </c>
-      <c r="B128" s="107"/>
-      <c r="C128" s="107"/>
-      <c r="D128" s="93" t="s">
+      <c r="D128" s="66" t="s">
         <v>258</v>
       </c>
-      <c r="E128" s="120"/>
-      <c r="F128" s="101"/>
+      <c r="E128" s="112"/>
+      <c r="F128" s="106" t="s">
+        <v>71</v>
+      </c>
       <c r="G128" s="30"/>
       <c r="H128" s="32"/>
     </row>
     <row r="129" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A129" s="88">
-        <v>124</v>
-      </c>
-      <c r="B129" s="106"/>
-      <c r="C129" s="106"/>
-      <c r="D129" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="B129" s="104"/>
+      <c r="C129" s="109"/>
+      <c r="D129" s="66" t="s">
         <v>259</v>
       </c>
-      <c r="E129" s="120"/>
-      <c r="F129" s="102"/>
+      <c r="E129" s="111"/>
+      <c r="F129" s="107"/>
       <c r="G129" s="30"/>
       <c r="H129" s="32"/>
     </row>
     <row r="130" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A130" s="88">
-        <v>125</v>
-      </c>
-      <c r="B130" s="105" t="s">
-        <v>260</v>
-      </c>
-      <c r="C130" s="105" t="s">
+        <v>130</v>
+      </c>
+      <c r="B130" s="104"/>
+      <c r="C130" s="109"/>
+      <c r="D130" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="D130" s="25" t="s">
-        <v>261</v>
-      </c>
-      <c r="E130" s="100"/>
-      <c r="F130" s="100" t="s">
-        <v>287</v>
-      </c>
-      <c r="G130" s="81"/>
+      <c r="E130" s="111"/>
+      <c r="F130" s="107"/>
+      <c r="G130" s="39"/>
       <c r="H130" s="52"/>
     </row>
     <row r="131" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A131" s="88">
-        <v>126</v>
-      </c>
-      <c r="B131" s="107"/>
-      <c r="C131" s="107"/>
-      <c r="D131" s="25" t="s">
-        <v>263</v>
-      </c>
-      <c r="E131" s="101"/>
-      <c r="F131" s="101"/>
-      <c r="G131" s="81"/>
-      <c r="H131" s="52"/>
+        <v>131</v>
+      </c>
+      <c r="B131" s="104"/>
+      <c r="C131" s="110"/>
+      <c r="D131" s="65" t="s">
+        <v>260</v>
+      </c>
+      <c r="E131" s="112"/>
+      <c r="F131" s="107"/>
+      <c r="G131" s="30"/>
+      <c r="H131" s="32"/>
     </row>
     <row r="132" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A132" s="88">
-        <v>127</v>
-      </c>
-      <c r="B132" s="106"/>
-      <c r="C132" s="106"/>
+        <v>132</v>
+      </c>
+      <c r="B132" s="105"/>
+      <c r="C132" s="110"/>
       <c r="D132" s="25" t="s">
-        <v>264</v>
-      </c>
-      <c r="E132" s="102"/>
-      <c r="F132" s="102"/>
-      <c r="G132" s="81"/>
-      <c r="H132" s="52"/>
+        <v>261</v>
+      </c>
+      <c r="E132" s="112"/>
+      <c r="F132" s="108"/>
+      <c r="G132" s="30"/>
+      <c r="H132" s="32"/>
     </row>
     <row r="133" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A133" s="88">
-        <v>128</v>
-      </c>
-      <c r="B133" s="105" t="s">
-        <v>272</v>
-      </c>
-      <c r="C133" s="114" t="s">
+        <v>133</v>
+      </c>
+      <c r="B133" s="103" t="s">
+        <v>269</v>
+      </c>
+      <c r="C133" s="103" t="s">
         <v>265</v>
       </c>
-      <c r="D133" s="66" t="s">
-        <v>266</v>
-      </c>
-      <c r="E133" s="120"/>
-      <c r="F133" s="100" t="s">
-        <v>71</v>
-      </c>
-      <c r="G133" s="30"/>
-      <c r="H133" s="32"/>
+      <c r="D133" s="95" t="s">
+        <v>268</v>
+      </c>
+      <c r="E133" s="106"/>
+      <c r="F133" s="106" t="s">
+        <v>280</v>
+      </c>
+      <c r="G133" s="81"/>
+      <c r="H133" s="52"/>
     </row>
     <row r="134" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A134" s="88">
-        <v>129</v>
-      </c>
-      <c r="B134" s="107"/>
-      <c r="C134" s="121"/>
-      <c r="D134" s="66" t="s">
-        <v>267</v>
-      </c>
-      <c r="E134" s="125"/>
-      <c r="F134" s="101"/>
-      <c r="G134" s="30"/>
-      <c r="H134" s="32"/>
+        <v>134</v>
+      </c>
+      <c r="B134" s="104"/>
+      <c r="C134" s="104"/>
+      <c r="D134" s="95" t="s">
+        <v>266</v>
+      </c>
+      <c r="E134" s="107"/>
+      <c r="F134" s="107"/>
+      <c r="G134" s="81"/>
+      <c r="H134" s="52"/>
     </row>
     <row r="135" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A135" s="88">
-        <v>130</v>
-      </c>
-      <c r="B135" s="107"/>
-      <c r="C135" s="121"/>
-      <c r="D135" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="E135" s="125"/>
-      <c r="F135" s="101"/>
-      <c r="G135" s="39"/>
+        <v>135</v>
+      </c>
+      <c r="B135" s="105"/>
+      <c r="C135" s="105"/>
+      <c r="D135" s="95" t="s">
+        <v>267</v>
+      </c>
+      <c r="E135" s="108"/>
+      <c r="F135" s="108"/>
+      <c r="G135" s="81"/>
       <c r="H135" s="52"/>
     </row>
     <row r="136" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A136" s="88">
-        <v>131</v>
-      </c>
-      <c r="B136" s="107"/>
-      <c r="C136" s="114"/>
-      <c r="D136" s="65" t="s">
-        <v>268</v>
-      </c>
-      <c r="E136" s="120"/>
-      <c r="F136" s="101"/>
-      <c r="G136" s="30"/>
-      <c r="H136" s="32"/>
+        <v>136</v>
+      </c>
+      <c r="B136" s="103" t="s">
+        <v>271</v>
+      </c>
+      <c r="C136" s="103" t="s">
+        <v>270</v>
+      </c>
+      <c r="D136" s="95" t="s">
+        <v>272</v>
+      </c>
+      <c r="E136" s="106"/>
+      <c r="F136" s="106" t="s">
+        <v>237</v>
+      </c>
+      <c r="G136" s="81"/>
+      <c r="H136" s="52"/>
     </row>
     <row r="137" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A137" s="88">
-        <v>132</v>
-      </c>
-      <c r="B137" s="106"/>
-      <c r="C137" s="114"/>
-      <c r="D137" s="25" t="s">
-        <v>269</v>
-      </c>
-      <c r="E137" s="120"/>
-      <c r="F137" s="102"/>
-      <c r="G137" s="30"/>
-      <c r="H137" s="32"/>
+        <v>137</v>
+      </c>
+      <c r="B137" s="105"/>
+      <c r="C137" s="105"/>
+      <c r="D137" s="95" t="s">
+        <v>273</v>
+      </c>
+      <c r="E137" s="108"/>
+      <c r="F137" s="108"/>
+      <c r="G137" s="81"/>
+      <c r="H137" s="52"/>
     </row>
     <row r="138" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A138" s="88">
-        <v>133</v>
-      </c>
-      <c r="B138" s="105" t="s">
-        <v>277</v>
-      </c>
-      <c r="C138" s="105" t="s">
-        <v>273</v>
-      </c>
-      <c r="D138" s="95" t="s">
-        <v>276</v>
-      </c>
-      <c r="E138" s="100"/>
-      <c r="F138" s="100" t="s">
-        <v>288</v>
-      </c>
-      <c r="G138" s="81"/>
-      <c r="H138" s="52"/>
+      <c r="A138" s="25"/>
+      <c r="B138" s="25"/>
+      <c r="C138" s="125" t="s">
+        <v>13</v>
+      </c>
+      <c r="D138" s="126"/>
+      <c r="E138" s="25"/>
+      <c r="F138" s="62"/>
+      <c r="G138" s="30"/>
+      <c r="H138" s="32"/>
     </row>
     <row r="139" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A139" s="88">
-        <v>134</v>
-      </c>
-      <c r="B139" s="107"/>
-      <c r="C139" s="107"/>
-      <c r="D139" s="95" t="s">
-        <v>274</v>
-      </c>
-      <c r="E139" s="101"/>
-      <c r="F139" s="101"/>
-      <c r="G139" s="81"/>
-      <c r="H139" s="52"/>
+      <c r="A139" s="106">
+        <v>138</v>
+      </c>
+      <c r="B139" s="103" t="s">
+        <v>219</v>
+      </c>
+      <c r="C139" s="103" t="s">
+        <v>217</v>
+      </c>
+      <c r="D139" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="E139" s="25"/>
+      <c r="F139" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="G139" s="30"/>
+      <c r="H139" s="32"/>
     </row>
     <row r="140" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A140" s="88">
-        <v>135</v>
-      </c>
-      <c r="B140" s="106"/>
-      <c r="C140" s="106"/>
-      <c r="D140" s="95" t="s">
-        <v>275</v>
-      </c>
-      <c r="E140" s="102"/>
-      <c r="F140" s="102"/>
+      <c r="A140" s="108"/>
+      <c r="B140" s="105"/>
+      <c r="C140" s="105"/>
+      <c r="D140" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="E140" s="25"/>
+      <c r="F140" s="80" t="s">
+        <v>237</v>
+      </c>
       <c r="G140" s="81"/>
       <c r="H140" s="52"/>
     </row>
     <row r="141" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A141" s="88">
-        <v>136</v>
-      </c>
-      <c r="B141" s="105" t="s">
+      <c r="A141" s="77">
+        <v>139</v>
+      </c>
+      <c r="B141" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="C141" s="79" t="s">
+        <v>221</v>
+      </c>
+      <c r="D141" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="E141" s="25"/>
+      <c r="F141" s="80" t="s">
         <v>279</v>
-      </c>
-      <c r="C141" s="105" t="s">
-        <v>278</v>
-      </c>
-      <c r="D141" s="95" t="s">
-        <v>280</v>
-      </c>
-      <c r="E141" s="100"/>
-      <c r="F141" s="100" t="s">
-        <v>245</v>
       </c>
       <c r="G141" s="81"/>
       <c r="H141" s="52"/>
     </row>
-    <row r="142" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A142" s="88">
-        <v>137</v>
-      </c>
-      <c r="B142" s="106"/>
-      <c r="C142" s="106"/>
-      <c r="D142" s="95" t="s">
-        <v>281</v>
-      </c>
-      <c r="E142" s="102"/>
-      <c r="F142" s="102"/>
-      <c r="G142" s="81"/>
-      <c r="H142" s="52"/>
-    </row>
-    <row r="143" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A143" s="25"/>
-      <c r="B143" s="25"/>
-      <c r="C143" s="108" t="s">
-        <v>13</v>
-      </c>
-      <c r="D143" s="109"/>
-      <c r="E143" s="25"/>
-      <c r="F143" s="62"/>
+    <row r="142" spans="1:8" s="42" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A142" s="31">
+        <v>140</v>
+      </c>
+      <c r="B142" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="C142" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="D142" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="E142" s="25"/>
+      <c r="F142" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="G142" s="30"/>
+      <c r="H142" s="32"/>
+    </row>
+    <row r="143" spans="1:8" s="42" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A143" s="76">
+        <v>141</v>
+      </c>
+      <c r="B143" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="C143" s="81" t="s">
+        <v>213</v>
+      </c>
+      <c r="D143" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="E143" s="80"/>
+      <c r="F143" s="76" t="s">
+        <v>71</v>
+      </c>
       <c r="G143" s="30"/>
       <c r="H143" s="32"/>
     </row>
     <row r="144" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A144" s="100">
-        <v>138</v>
-      </c>
-      <c r="B144" s="105" t="s">
-        <v>227</v>
-      </c>
-      <c r="C144" s="105" t="s">
-        <v>225</v>
+      <c r="A144" s="31">
+        <v>142</v>
+      </c>
+      <c r="B144" s="103" t="s">
+        <v>52</v>
+      </c>
+      <c r="C144" s="110" t="s">
+        <v>215</v>
       </c>
       <c r="D144" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="E144" s="25"/>
-      <c r="F144" s="62" t="s">
-        <v>74</v>
+        <v>216</v>
+      </c>
+      <c r="E144" s="112"/>
+      <c r="F144" s="106" t="s">
+        <v>71</v>
       </c>
       <c r="G144" s="30"/>
       <c r="H144" s="32"/>
     </row>
     <row r="145" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A145" s="102"/>
-      <c r="B145" s="106"/>
-      <c r="C145" s="106"/>
-      <c r="D145" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="E145" s="25"/>
-      <c r="F145" s="80" t="s">
-        <v>245</v>
-      </c>
-      <c r="G145" s="81"/>
-      <c r="H145" s="52"/>
+      <c r="A145" s="31">
+        <v>143</v>
+      </c>
+      <c r="B145" s="105"/>
+      <c r="C145" s="110"/>
+      <c r="D145" s="66" t="s">
+        <v>238</v>
+      </c>
+      <c r="E145" s="112"/>
+      <c r="F145" s="108"/>
+      <c r="G145" s="30"/>
+      <c r="H145" s="32"/>
     </row>
     <row r="146" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A146" s="77">
-        <v>139</v>
-      </c>
-      <c r="B146" s="79" t="s">
-        <v>228</v>
-      </c>
-      <c r="C146" s="79" t="s">
-        <v>229</v>
-      </c>
-      <c r="D146" s="25" t="s">
-        <v>230</v>
-      </c>
-      <c r="E146" s="25"/>
-      <c r="F146" s="80" t="s">
-        <v>287</v>
-      </c>
-      <c r="G146" s="81"/>
-      <c r="H146" s="52"/>
-    </row>
-    <row r="147" spans="1:8" s="42" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A147" s="31">
-        <v>140</v>
-      </c>
-      <c r="B147" s="30" t="s">
-        <v>231</v>
-      </c>
-      <c r="C147" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="D147" s="25" t="s">
-        <v>286</v>
-      </c>
-      <c r="E147" s="25"/>
-      <c r="F147" s="62" t="s">
+      <c r="A146" s="106">
+        <v>144</v>
+      </c>
+      <c r="B146" s="103" t="s">
+        <v>274</v>
+      </c>
+      <c r="C146" s="109" t="s">
+        <v>224</v>
+      </c>
+      <c r="D146" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="E146" s="111"/>
+      <c r="F146" s="106" t="s">
         <v>71</v>
       </c>
-      <c r="G147" s="30"/>
-      <c r="H147" s="32"/>
-    </row>
-    <row r="148" spans="1:8" s="42" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A148" s="76">
-        <v>141</v>
-      </c>
-      <c r="B148" s="78" t="s">
-        <v>51</v>
-      </c>
-      <c r="C148" s="81" t="s">
-        <v>221</v>
-      </c>
-      <c r="D148" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="E148" s="80"/>
-      <c r="F148" s="76" t="s">
-        <v>71</v>
-      </c>
+      <c r="G146" s="30"/>
+      <c r="H146" s="32"/>
+    </row>
+    <row r="147" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A147" s="107"/>
+      <c r="B147" s="104"/>
+      <c r="C147" s="109"/>
+      <c r="D147" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E147" s="111"/>
+      <c r="F147" s="107"/>
+      <c r="G147" s="39"/>
+      <c r="H147" s="52"/>
+    </row>
+    <row r="148" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A148" s="107"/>
+      <c r="B148" s="104"/>
+      <c r="C148" s="110"/>
+      <c r="D148" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="E148" s="112"/>
+      <c r="F148" s="107"/>
       <c r="G148" s="30"/>
       <c r="H148" s="32"/>
     </row>
     <row r="149" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A149" s="31">
-        <v>142</v>
-      </c>
-      <c r="B149" s="105" t="s">
-        <v>52</v>
-      </c>
-      <c r="C149" s="114" t="s">
-        <v>223</v>
-      </c>
+      <c r="A149" s="107"/>
+      <c r="B149" s="104"/>
+      <c r="C149" s="110"/>
       <c r="D149" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="E149" s="120"/>
-      <c r="F149" s="100" t="s">
-        <v>71</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="E149" s="112"/>
+      <c r="F149" s="107"/>
       <c r="G149" s="30"/>
       <c r="H149" s="32"/>
     </row>
     <row r="150" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A150" s="31">
-        <v>143</v>
-      </c>
-      <c r="B150" s="106"/>
-      <c r="C150" s="114"/>
-      <c r="D150" s="66" t="s">
-        <v>246</v>
-      </c>
-      <c r="E150" s="120"/>
-      <c r="F150" s="102"/>
+      <c r="A150" s="107"/>
+      <c r="B150" s="104"/>
+      <c r="C150" s="110"/>
+      <c r="D150" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E150" s="112"/>
+      <c r="F150" s="107"/>
       <c r="G150" s="30"/>
       <c r="H150" s="32"/>
     </row>
-    <row r="151" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A151" s="100">
-        <v>144</v>
-      </c>
-      <c r="B151" s="105" t="s">
-        <v>282</v>
-      </c>
-      <c r="C151" s="121" t="s">
-        <v>232</v>
-      </c>
-      <c r="D151" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="E151" s="125"/>
-      <c r="F151" s="100" t="s">
-        <v>71</v>
-      </c>
+    <row r="151" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A151" s="107"/>
+      <c r="B151" s="104"/>
+      <c r="C151" s="110"/>
+      <c r="D151" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E151" s="112"/>
+      <c r="F151" s="107"/>
       <c r="G151" s="30"/>
       <c r="H151" s="32"/>
     </row>
-    <row r="152" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A152" s="101"/>
-      <c r="B152" s="107"/>
-      <c r="C152" s="121"/>
-      <c r="D152" s="65" t="s">
-        <v>69</v>
-      </c>
-      <c r="E152" s="125"/>
-      <c r="F152" s="101"/>
-      <c r="G152" s="39"/>
-      <c r="H152" s="52"/>
-    </row>
-    <row r="153" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A153" s="101"/>
-      <c r="B153" s="107"/>
-      <c r="C153" s="114"/>
-      <c r="D153" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="E153" s="120"/>
-      <c r="F153" s="101"/>
+    <row r="152" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A152" s="107"/>
+      <c r="B152" s="104"/>
+      <c r="C152" s="110"/>
+      <c r="D152" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="E152" s="112"/>
+      <c r="F152" s="107"/>
+      <c r="G152" s="30"/>
+      <c r="H152" s="32"/>
+    </row>
+    <row r="153" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A153" s="108"/>
+      <c r="B153" s="105"/>
+      <c r="C153" s="110"/>
+      <c r="D153" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E153" s="112"/>
+      <c r="F153" s="108"/>
       <c r="G153" s="30"/>
       <c r="H153" s="32"/>
     </row>
-    <row r="154" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A154" s="101"/>
-      <c r="B154" s="107"/>
-      <c r="C154" s="114"/>
+    <row r="154" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A154" s="106">
+        <v>145</v>
+      </c>
+      <c r="B154" s="103" t="s">
+        <v>275</v>
+      </c>
+      <c r="C154" s="110" t="s">
+        <v>276</v>
+      </c>
       <c r="D154" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="E154" s="120"/>
-      <c r="F154" s="101"/>
+        <v>277</v>
+      </c>
+      <c r="E154" s="112"/>
+      <c r="F154" s="106" t="s">
+        <v>73</v>
+      </c>
       <c r="G154" s="30"/>
       <c r="H154" s="32"/>
     </row>
-    <row r="155" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A155" s="101"/>
-      <c r="B155" s="107"/>
-      <c r="C155" s="114"/>
-      <c r="D155" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="E155" s="120"/>
-      <c r="F155" s="101"/>
+    <row r="155" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A155" s="108"/>
+      <c r="B155" s="105"/>
+      <c r="C155" s="110"/>
+      <c r="D155" s="96" t="s">
+        <v>281</v>
+      </c>
+      <c r="E155" s="112"/>
+      <c r="F155" s="108"/>
       <c r="G155" s="30"/>
       <c r="H155" s="32"/>
     </row>
     <row r="156" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A156" s="101"/>
-      <c r="B156" s="107"/>
-      <c r="C156" s="114"/>
-      <c r="D156" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="E156" s="120"/>
-      <c r="F156" s="101"/>
+      <c r="A156" s="22"/>
+      <c r="B156" s="30"/>
+      <c r="C156" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="D156" s="126"/>
+      <c r="E156" s="22"/>
+      <c r="F156" s="62"/>
       <c r="G156" s="30"/>
       <c r="H156" s="32"/>
     </row>
     <row r="157" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A157" s="101"/>
-      <c r="B157" s="107"/>
-      <c r="C157" s="114"/>
-      <c r="D157" s="25" t="s">
-        <v>304</v>
-      </c>
-      <c r="E157" s="120"/>
-      <c r="F157" s="101"/>
+      <c r="A157" s="31">
+        <v>146</v>
+      </c>
+      <c r="B157" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="C157" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="D157" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="E157" s="25"/>
+      <c r="F157" s="62" t="s">
+        <v>75</v>
+      </c>
       <c r="G157" s="30"/>
       <c r="H157" s="32"/>
     </row>
     <row r="158" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A158" s="102"/>
-      <c r="B158" s="106"/>
-      <c r="C158" s="114"/>
+      <c r="A158" s="31">
+        <v>147</v>
+      </c>
+      <c r="B158" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="C158" s="30" t="s">
+        <v>284</v>
+      </c>
       <c r="D158" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="E158" s="120"/>
-      <c r="F158" s="102"/>
+        <v>287</v>
+      </c>
+      <c r="E158" s="25"/>
+      <c r="F158" s="62" t="s">
+        <v>71</v>
+      </c>
       <c r="G158" s="30"/>
       <c r="H158" s="32"/>
     </row>
-    <row r="159" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A159" s="100">
-        <v>145</v>
-      </c>
-      <c r="B159" s="105" t="s">
-        <v>283</v>
-      </c>
-      <c r="C159" s="114" t="s">
-        <v>284</v>
+    <row r="159" spans="1:8" s="43" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A159" s="74">
+        <v>148</v>
+      </c>
+      <c r="B159" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="C159" s="30" t="s">
+        <v>289</v>
       </c>
       <c r="D159" s="25" t="s">
-        <v>285</v>
-      </c>
-      <c r="E159" s="120"/>
-      <c r="F159" s="100" t="s">
-        <v>73</v>
+        <v>290</v>
+      </c>
+      <c r="E159" s="25"/>
+      <c r="F159" s="62" t="s">
+        <v>71</v>
       </c>
       <c r="G159" s="30"/>
       <c r="H159" s="32"/>
     </row>
     <row r="160" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A160" s="102"/>
-      <c r="B160" s="106"/>
-      <c r="C160" s="114"/>
-      <c r="D160" s="96" t="s">
-        <v>289</v>
-      </c>
-      <c r="E160" s="120"/>
-      <c r="F160" s="102"/>
+      <c r="A160" s="74">
+        <v>149</v>
+      </c>
+      <c r="B160" s="103" t="s">
+        <v>293</v>
+      </c>
+      <c r="C160" s="110" t="s">
+        <v>291</v>
+      </c>
+      <c r="D160" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="E160" s="112"/>
+      <c r="F160" s="106" t="s">
+        <v>76</v>
+      </c>
       <c r="G160" s="30"/>
       <c r="H160" s="32"/>
     </row>
     <row r="161" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A161" s="22"/>
-      <c r="B161" s="30"/>
-      <c r="C161" s="108" t="s">
-        <v>33</v>
-      </c>
-      <c r="D161" s="109"/>
-      <c r="E161" s="22"/>
-      <c r="F161" s="62"/>
+      <c r="A161" s="74">
+        <v>150</v>
+      </c>
+      <c r="B161" s="104"/>
+      <c r="C161" s="110"/>
+      <c r="D161" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="E161" s="112"/>
+      <c r="F161" s="107"/>
       <c r="G161" s="30"/>
       <c r="H161" s="32"/>
     </row>
     <row r="162" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A162" s="31">
-        <v>146</v>
-      </c>
-      <c r="B162" s="30" t="s">
-        <v>294</v>
-      </c>
-      <c r="C162" s="30" t="s">
-        <v>290</v>
-      </c>
-      <c r="D162" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="E162" s="25"/>
-      <c r="F162" s="62" t="s">
-        <v>75</v>
-      </c>
+      <c r="A162" s="88">
+        <v>151</v>
+      </c>
+      <c r="B162" s="104"/>
+      <c r="C162" s="110"/>
+      <c r="D162" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="E162" s="112"/>
+      <c r="F162" s="107"/>
       <c r="G162" s="30"/>
       <c r="H162" s="32"/>
     </row>
     <row r="163" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A163" s="31">
-        <v>147</v>
-      </c>
-      <c r="B163" s="30" t="s">
-        <v>293</v>
-      </c>
-      <c r="C163" s="30" t="s">
-        <v>292</v>
-      </c>
+      <c r="A163" s="88">
+        <v>152</v>
+      </c>
+      <c r="B163" s="105"/>
+      <c r="C163" s="110"/>
       <c r="D163" s="25" t="s">
-        <v>295</v>
-      </c>
-      <c r="E163" s="25"/>
-      <c r="F163" s="62" t="s">
-        <v>71</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="E163" s="112"/>
+      <c r="F163" s="108"/>
       <c r="G163" s="30"/>
       <c r="H163" s="32"/>
     </row>
-    <row r="164" spans="1:8" s="43" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A164" s="74">
-        <v>148</v>
-      </c>
-      <c r="B164" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="C164" s="30" t="s">
-        <v>297</v>
-      </c>
-      <c r="D164" s="25" t="s">
-        <v>298</v>
-      </c>
-      <c r="E164" s="25"/>
-      <c r="F164" s="62" t="s">
-        <v>71</v>
-      </c>
-      <c r="G164" s="30"/>
-      <c r="H164" s="32"/>
+    <row r="164" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A164" s="80"/>
+      <c r="B164" s="81"/>
+      <c r="C164" s="125" t="s">
+        <v>292</v>
+      </c>
+      <c r="D164" s="126"/>
+      <c r="E164" s="80"/>
+      <c r="F164" s="80"/>
+      <c r="G164" s="81"/>
+      <c r="H164" s="52"/>
     </row>
     <row r="165" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A165" s="74">
-        <v>149</v>
-      </c>
-      <c r="B165" s="105" t="s">
-        <v>301</v>
-      </c>
-      <c r="C165" s="114" t="s">
-        <v>299</v>
+      <c r="A165" s="80">
+        <v>153</v>
+      </c>
+      <c r="B165" s="103" t="s">
+        <v>234</v>
+      </c>
+      <c r="C165" s="103" t="s">
+        <v>235</v>
       </c>
       <c r="D165" s="25" t="s">
-        <v>302</v>
-      </c>
-      <c r="E165" s="120"/>
-      <c r="F165" s="100" t="s">
-        <v>76</v>
-      </c>
-      <c r="G165" s="30"/>
-      <c r="H165" s="32"/>
+        <v>236</v>
+      </c>
+      <c r="E165" s="106"/>
+      <c r="F165" s="106" t="s">
+        <v>237</v>
+      </c>
+      <c r="G165" s="81"/>
+      <c r="H165" s="52"/>
     </row>
     <row r="166" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A166" s="74">
-        <v>150</v>
-      </c>
-      <c r="B166" s="107"/>
-      <c r="C166" s="114"/>
+      <c r="A166" s="51">
+        <v>154</v>
+      </c>
+      <c r="B166" s="104"/>
+      <c r="C166" s="104"/>
       <c r="D166" s="25" t="s">
-        <v>303</v>
-      </c>
-      <c r="E166" s="120"/>
-      <c r="F166" s="101"/>
-      <c r="G166" s="30"/>
-      <c r="H166" s="32"/>
+        <v>18</v>
+      </c>
+      <c r="E166" s="107"/>
+      <c r="F166" s="107"/>
+      <c r="G166" s="81"/>
+      <c r="H166" s="52"/>
     </row>
     <row r="167" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A167" s="88">
-        <v>151</v>
-      </c>
-      <c r="B167" s="107"/>
-      <c r="C167" s="114"/>
+      <c r="A167" s="51">
+        <v>155</v>
+      </c>
+      <c r="B167" s="105"/>
+      <c r="C167" s="105"/>
       <c r="D167" s="25" t="s">
-        <v>305</v>
-      </c>
-      <c r="E167" s="120"/>
-      <c r="F167" s="101"/>
-      <c r="G167" s="30"/>
-      <c r="H167" s="32"/>
+        <v>39</v>
+      </c>
+      <c r="E167" s="108"/>
+      <c r="F167" s="108"/>
+      <c r="G167" s="81"/>
+      <c r="H167" s="52"/>
     </row>
     <row r="168" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A168" s="88">
-        <v>152</v>
-      </c>
-      <c r="B168" s="106"/>
-      <c r="C168" s="114"/>
-      <c r="D168" s="25" t="s">
-        <v>321</v>
-      </c>
-      <c r="E168" s="120"/>
-      <c r="F168" s="102"/>
-      <c r="G168" s="30"/>
-      <c r="H168" s="32"/>
+      <c r="A168" s="80"/>
+      <c r="B168" s="81"/>
+      <c r="C168" s="125" t="s">
+        <v>239</v>
+      </c>
+      <c r="D168" s="126"/>
+      <c r="E168" s="80"/>
+      <c r="F168" s="80"/>
+      <c r="G168" s="81"/>
+      <c r="H168" s="52"/>
     </row>
     <row r="169" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A169" s="80"/>
-      <c r="B169" s="81"/>
-      <c r="C169" s="108" t="s">
-        <v>300</v>
-      </c>
-      <c r="D169" s="109"/>
-      <c r="E169" s="80"/>
-      <c r="F169" s="80"/>
+      <c r="A169" s="80">
+        <v>156</v>
+      </c>
+      <c r="B169" s="81" t="s">
+        <v>240</v>
+      </c>
+      <c r="C169" s="81" t="s">
+        <v>241</v>
+      </c>
+      <c r="D169" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="E169" s="106"/>
+      <c r="F169" s="80" t="s">
+        <v>237</v>
+      </c>
       <c r="G169" s="81"/>
       <c r="H169" s="52"/>
     </row>
-    <row r="170" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A170" s="80">
-        <v>153</v>
-      </c>
-      <c r="B170" s="105" t="s">
+    <row r="170" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="A170" s="90">
+        <v>157</v>
+      </c>
+      <c r="B170" s="129" t="s">
+        <v>243</v>
+      </c>
+      <c r="C170" s="127" t="s">
         <v>242</v>
       </c>
-      <c r="C170" s="105" t="s">
-        <v>243</v>
-      </c>
-      <c r="D170" s="25" t="s">
+      <c r="D170" s="92" t="s">
         <v>244</v>
       </c>
-      <c r="E170" s="100"/>
-      <c r="F170" s="100" t="s">
+      <c r="E170" s="107"/>
+      <c r="F170" s="90" t="s">
+        <v>237</v>
+      </c>
+      <c r="G170" s="91"/>
+      <c r="H170" s="91"/>
+    </row>
+    <row r="171" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="A171" s="80">
+        <v>158</v>
+      </c>
+      <c r="B171" s="130"/>
+      <c r="C171" s="128"/>
+      <c r="D171" s="92" t="s">
         <v>245</v>
       </c>
-      <c r="G170" s="81"/>
-      <c r="H170" s="52"/>
-    </row>
-    <row r="171" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A171" s="51">
-        <v>154</v>
-      </c>
-      <c r="B171" s="107"/>
-      <c r="C171" s="107"/>
-      <c r="D171" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E171" s="101"/>
-      <c r="F171" s="101"/>
-      <c r="G171" s="81"/>
-      <c r="H171" s="52"/>
-    </row>
-    <row r="172" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A172" s="51">
-        <v>155</v>
-      </c>
-      <c r="B172" s="106"/>
-      <c r="C172" s="106"/>
-      <c r="D172" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E172" s="102"/>
-      <c r="F172" s="102"/>
-      <c r="G172" s="81"/>
-      <c r="H172" s="52"/>
-    </row>
-    <row r="173" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A173" s="80"/>
-      <c r="B173" s="81"/>
-      <c r="C173" s="108" t="s">
-        <v>247</v>
-      </c>
-      <c r="D173" s="109"/>
-      <c r="E173" s="80"/>
-      <c r="F173" s="80"/>
-      <c r="G173" s="81"/>
-      <c r="H173" s="52"/>
-    </row>
-    <row r="174" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A174" s="80">
-        <v>156</v>
-      </c>
-      <c r="B174" s="81" t="s">
-        <v>248</v>
-      </c>
-      <c r="C174" s="81" t="s">
-        <v>249</v>
-      </c>
-      <c r="D174" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="E174" s="100"/>
-      <c r="F174" s="80" t="s">
-        <v>245</v>
-      </c>
-      <c r="G174" s="81"/>
-      <c r="H174" s="52"/>
+      <c r="E171" s="108"/>
+      <c r="F171" s="90" t="s">
+        <v>246</v>
+      </c>
+      <c r="G171" s="91"/>
+      <c r="H171" s="91"/>
+    </row>
+    <row r="172" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="A172" s="53"/>
+      <c r="B172" s="54"/>
+      <c r="C172" s="55"/>
+      <c r="D172" s="57"/>
+      <c r="E172" s="56"/>
+      <c r="F172" s="53"/>
+      <c r="G172" s="54"/>
+      <c r="H172" s="54"/>
+    </row>
+    <row r="173" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="A173" s="53"/>
+      <c r="B173" s="54"/>
+      <c r="C173" s="55"/>
+      <c r="D173" s="56"/>
+      <c r="E173" s="56"/>
+      <c r="F173" s="53"/>
+      <c r="G173" s="54"/>
+      <c r="H173" s="54"/>
+    </row>
+    <row r="174" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="A174" s="53"/>
+      <c r="B174" s="54"/>
+      <c r="C174" s="55"/>
+      <c r="D174" s="59"/>
+      <c r="E174" s="56"/>
+      <c r="F174" s="53"/>
+      <c r="G174" s="54"/>
+      <c r="H174" s="54"/>
     </row>
     <row r="175" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A175" s="90">
-        <v>157</v>
-      </c>
-      <c r="B175" s="112" t="s">
-        <v>251</v>
-      </c>
-      <c r="C175" s="110" t="s">
-        <v>250</v>
-      </c>
-      <c r="D175" s="92" t="s">
-        <v>252</v>
-      </c>
-      <c r="E175" s="101"/>
-      <c r="F175" s="90" t="s">
-        <v>245</v>
-      </c>
-      <c r="G175" s="91"/>
-      <c r="H175" s="91"/>
+      <c r="A175" s="53"/>
+      <c r="B175" s="54"/>
+      <c r="C175" s="55"/>
+      <c r="D175" s="60"/>
+      <c r="E175" s="56"/>
+      <c r="F175" s="53"/>
+      <c r="G175" s="54"/>
+      <c r="H175" s="54"/>
     </row>
     <row r="176" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A176" s="80">
-        <v>158</v>
-      </c>
-      <c r="B176" s="113"/>
-      <c r="C176" s="111"/>
-      <c r="D176" s="92" t="s">
-        <v>253</v>
-      </c>
-      <c r="E176" s="102"/>
-      <c r="F176" s="90" t="s">
-        <v>254</v>
-      </c>
-      <c r="G176" s="91"/>
-      <c r="H176" s="91"/>
+      <c r="A176" s="53"/>
+      <c r="B176" s="54"/>
+      <c r="C176" s="55"/>
+      <c r="D176" s="55"/>
+      <c r="E176" s="56"/>
+      <c r="F176" s="53"/>
+      <c r="G176" s="54"/>
+      <c r="H176" s="54"/>
     </row>
     <row r="177" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
       <c r="A177" s="53"/>
       <c r="B177" s="54"/>
       <c r="C177" s="55"/>
-      <c r="D177" s="57"/>
+      <c r="D177" s="56"/>
       <c r="E177" s="56"/>
       <c r="F177" s="53"/>
       <c r="G177" s="54"/>
@@ -13006,7 +12973,7 @@
       <c r="A178" s="53"/>
       <c r="B178" s="54"/>
       <c r="C178" s="55"/>
-      <c r="D178" s="56"/>
+      <c r="D178" s="55"/>
       <c r="E178" s="56"/>
       <c r="F178" s="53"/>
       <c r="G178" s="54"/>
@@ -13016,7 +12983,7 @@
       <c r="A179" s="53"/>
       <c r="B179" s="54"/>
       <c r="C179" s="55"/>
-      <c r="D179" s="59"/>
+      <c r="D179" s="55"/>
       <c r="E179" s="56"/>
       <c r="F179" s="53"/>
       <c r="G179" s="54"/>
@@ -13025,102 +12992,72 @@
     <row r="180" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
       <c r="A180" s="53"/>
       <c r="B180" s="54"/>
-      <c r="C180" s="55"/>
-      <c r="D180" s="60"/>
-      <c r="E180" s="56"/>
+      <c r="C180" s="58"/>
+      <c r="D180" s="56"/>
+      <c r="E180" s="53"/>
       <c r="F180" s="53"/>
       <c r="G180" s="54"/>
       <c r="H180" s="54"/>
     </row>
     <row r="181" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A181" s="53"/>
-      <c r="B181" s="54"/>
+      <c r="A181" s="55"/>
+      <c r="B181" s="55"/>
       <c r="C181" s="55"/>
-      <c r="D181" s="55"/>
-      <c r="E181" s="56"/>
-      <c r="F181" s="53"/>
-      <c r="G181" s="54"/>
-      <c r="H181" s="54"/>
+      <c r="D181" s="61"/>
+      <c r="E181" s="55"/>
+      <c r="F181" s="58"/>
+      <c r="G181" s="55"/>
+      <c r="H181" s="55"/>
     </row>
     <row r="182" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A182" s="53"/>
-      <c r="B182" s="54"/>
       <c r="C182" s="55"/>
-      <c r="D182" s="56"/>
-      <c r="E182" s="56"/>
-      <c r="F182" s="53"/>
-      <c r="G182" s="54"/>
-      <c r="H182" s="54"/>
+      <c r="D182" s="45"/>
+      <c r="F182" s="67"/>
     </row>
     <row r="183" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A183" s="53"/>
-      <c r="B183" s="54"/>
       <c r="C183" s="55"/>
-      <c r="D183" s="55"/>
-      <c r="E183" s="56"/>
-      <c r="F183" s="53"/>
-      <c r="G183" s="54"/>
-      <c r="H183" s="54"/>
+      <c r="D183" s="45"/>
+      <c r="F183" s="67"/>
     </row>
     <row r="184" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A184" s="53"/>
-      <c r="B184" s="54"/>
       <c r="C184" s="55"/>
-      <c r="D184" s="55"/>
-      <c r="E184" s="56"/>
-      <c r="F184" s="53"/>
-      <c r="G184" s="54"/>
-      <c r="H184" s="54"/>
+      <c r="D184" s="45"/>
+      <c r="F184" s="67"/>
     </row>
     <row r="185" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A185" s="53"/>
-      <c r="B185" s="54"/>
-      <c r="C185" s="58"/>
-      <c r="D185" s="56"/>
-      <c r="E185" s="53"/>
-      <c r="F185" s="53"/>
-      <c r="G185" s="54"/>
-      <c r="H185" s="54"/>
+      <c r="C185" s="55"/>
+      <c r="D185" s="45"/>
+      <c r="F185" s="67"/>
     </row>
     <row r="186" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A186" s="55"/>
-      <c r="B186" s="55"/>
-      <c r="C186" s="55"/>
-      <c r="D186" s="61"/>
-      <c r="E186" s="55"/>
-      <c r="F186" s="58"/>
-      <c r="G186" s="55"/>
-      <c r="H186" s="55"/>
+      <c r="D186" s="45"/>
+      <c r="F186" s="67"/>
     </row>
     <row r="187" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="C187" s="55"/>
       <c r="D187" s="45"/>
       <c r="F187" s="67"/>
     </row>
     <row r="188" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="C188" s="55"/>
       <c r="D188" s="45"/>
       <c r="F188" s="67"/>
     </row>
-    <row r="189" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="C189" s="55"/>
+    <row r="189" spans="1:8" s="44" customFormat="1" ht="26.25" customHeight="1">
       <c r="D189" s="45"/>
       <c r="F189" s="67"/>
     </row>
-    <row r="190" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="C190" s="55"/>
+    <row r="190" spans="1:8" s="44" customFormat="1" ht="26.25" customHeight="1">
       <c r="D190" s="45"/>
       <c r="F190" s="67"/>
     </row>
-    <row r="191" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+    <row r="191" spans="1:8" s="44" customFormat="1" ht="26.25" customHeight="1">
       <c r="D191" s="45"/>
       <c r="F191" s="67"/>
     </row>
-    <row r="192" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+    <row r="192" spans="1:8" s="44" customFormat="1" ht="26.25" customHeight="1">
       <c r="D192" s="45"/>
       <c r="F192" s="67"/>
     </row>
-    <row r="193" spans="4:6" s="44" customFormat="1" ht="18" customHeight="1">
+    <row r="193" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
       <c r="D193" s="45"/>
       <c r="F193" s="67"/>
     </row>
@@ -13128,9 +13065,9 @@
       <c r="D194" s="45"/>
       <c r="F194" s="67"/>
     </row>
-    <row r="195" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
-      <c r="D195" s="45"/>
-      <c r="F195" s="67"/>
+    <row r="195" spans="4:6" s="46" customFormat="1" ht="26.25" customHeight="1">
+      <c r="D195" s="47"/>
+      <c r="F195" s="68"/>
     </row>
     <row r="196" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
       <c r="D196" s="45"/>
@@ -13144,183 +13081,159 @@
       <c r="D198" s="45"/>
       <c r="F198" s="67"/>
     </row>
-    <row r="199" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
-      <c r="D199" s="45"/>
-      <c r="F199" s="67"/>
-    </row>
-    <row r="200" spans="4:6" s="46" customFormat="1" ht="26.25" customHeight="1">
-      <c r="D200" s="47"/>
-      <c r="F200" s="68"/>
-    </row>
-    <row r="201" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
-      <c r="D201" s="45"/>
-      <c r="F201" s="67"/>
-    </row>
-    <row r="202" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
-      <c r="D202" s="45"/>
-      <c r="F202" s="67"/>
-    </row>
-    <row r="203" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
-      <c r="D203" s="45"/>
-      <c r="F203" s="67"/>
-    </row>
   </sheetData>
-  <mergeCells count="155">
-    <mergeCell ref="B54:B60"/>
-    <mergeCell ref="C54:C60"/>
-    <mergeCell ref="E54:E60"/>
-    <mergeCell ref="F54:F60"/>
-    <mergeCell ref="B61:B70"/>
-    <mergeCell ref="C61:C70"/>
-    <mergeCell ref="E61:E70"/>
-    <mergeCell ref="F61:F70"/>
-    <mergeCell ref="B83:B86"/>
-    <mergeCell ref="C83:C86"/>
-    <mergeCell ref="E83:E86"/>
-    <mergeCell ref="F83:F86"/>
-    <mergeCell ref="C71:C82"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="C43:C47"/>
-    <mergeCell ref="E43:E47"/>
-    <mergeCell ref="F43:F47"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="E48:E51"/>
-    <mergeCell ref="F48:F51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="C27:C32"/>
-    <mergeCell ref="E27:E32"/>
-    <mergeCell ref="F27:F32"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="C33:C37"/>
-    <mergeCell ref="E33:E37"/>
-    <mergeCell ref="F33:F37"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="E38:E42"/>
-    <mergeCell ref="F38:F42"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="F9:F11"/>
+  <mergeCells count="151">
+    <mergeCell ref="F101:F105"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="B154:B155"/>
+    <mergeCell ref="B122:B124"/>
+    <mergeCell ref="B128:B132"/>
+    <mergeCell ref="B165:B167"/>
+    <mergeCell ref="C165:C167"/>
+    <mergeCell ref="E165:E167"/>
+    <mergeCell ref="F165:F167"/>
+    <mergeCell ref="A146:A153"/>
+    <mergeCell ref="C164:D164"/>
+    <mergeCell ref="F154:F155"/>
+    <mergeCell ref="F160:F163"/>
+    <mergeCell ref="F146:F153"/>
+    <mergeCell ref="F125:F127"/>
+    <mergeCell ref="E125:E127"/>
+    <mergeCell ref="E133:E135"/>
+    <mergeCell ref="E136:E137"/>
+    <mergeCell ref="C168:D168"/>
+    <mergeCell ref="C170:C171"/>
+    <mergeCell ref="B170:B171"/>
+    <mergeCell ref="C160:C163"/>
+    <mergeCell ref="E169:E171"/>
+    <mergeCell ref="C90:C92"/>
+    <mergeCell ref="C82:C89"/>
+    <mergeCell ref="C101:C105"/>
+    <mergeCell ref="E66:E77"/>
+    <mergeCell ref="B144:B145"/>
+    <mergeCell ref="B146:B153"/>
+    <mergeCell ref="B125:B127"/>
+    <mergeCell ref="B133:B135"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="B112:B114"/>
+    <mergeCell ref="B101:B105"/>
+    <mergeCell ref="E160:E163"/>
+    <mergeCell ref="E93:E100"/>
+    <mergeCell ref="C146:C153"/>
+    <mergeCell ref="E146:E153"/>
+    <mergeCell ref="B160:B163"/>
+    <mergeCell ref="B116:B119"/>
+    <mergeCell ref="E82:E89"/>
+    <mergeCell ref="F82:F89"/>
+    <mergeCell ref="E90:E92"/>
+    <mergeCell ref="F90:F92"/>
+    <mergeCell ref="C122:C124"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="C156:D156"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="C139:C140"/>
+    <mergeCell ref="C125:C127"/>
+    <mergeCell ref="C133:C135"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="C112:C114"/>
+    <mergeCell ref="C116:C119"/>
+    <mergeCell ref="E154:E155"/>
+    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="C128:C132"/>
+    <mergeCell ref="C93:C100"/>
+    <mergeCell ref="E101:E105"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F93:F99"/>
+    <mergeCell ref="B66:B77"/>
+    <mergeCell ref="B82:B89"/>
+    <mergeCell ref="B90:B92"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="E112:E114"/>
+    <mergeCell ref="E116:E119"/>
+    <mergeCell ref="E122:E124"/>
+    <mergeCell ref="E128:E132"/>
+    <mergeCell ref="E144:E145"/>
+    <mergeCell ref="B93:B100"/>
+    <mergeCell ref="F122:F124"/>
+    <mergeCell ref="F128:F132"/>
+    <mergeCell ref="F144:F145"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="F110:F111"/>
+    <mergeCell ref="F112:F114"/>
+    <mergeCell ref="F116:F119"/>
+    <mergeCell ref="F133:F135"/>
+    <mergeCell ref="F136:F137"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="E15:E20"/>
+    <mergeCell ref="F15:F20"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="C4:C8"/>
     <mergeCell ref="E4:E8"/>
     <mergeCell ref="F4:F8"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="C16:C21"/>
-    <mergeCell ref="E16:E21"/>
-    <mergeCell ref="F16:F21"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F98:F104"/>
-    <mergeCell ref="B71:B82"/>
-    <mergeCell ref="B87:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="C149:C150"/>
-    <mergeCell ref="E117:E119"/>
-    <mergeCell ref="E121:E124"/>
-    <mergeCell ref="E127:E129"/>
-    <mergeCell ref="E133:E137"/>
-    <mergeCell ref="E149:E150"/>
-    <mergeCell ref="B98:B105"/>
-    <mergeCell ref="F127:F129"/>
-    <mergeCell ref="F133:F137"/>
-    <mergeCell ref="F149:F150"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="F115:F116"/>
-    <mergeCell ref="F117:F119"/>
-    <mergeCell ref="F121:F124"/>
-    <mergeCell ref="F138:F140"/>
-    <mergeCell ref="F141:F142"/>
-    <mergeCell ref="F71:F82"/>
-    <mergeCell ref="E87:E94"/>
-    <mergeCell ref="F87:F94"/>
-    <mergeCell ref="E95:E97"/>
-    <mergeCell ref="F95:F97"/>
-    <mergeCell ref="C127:C129"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="C161:D161"/>
-    <mergeCell ref="C143:D143"/>
-    <mergeCell ref="C144:C145"/>
-    <mergeCell ref="C130:C132"/>
-    <mergeCell ref="C138:C140"/>
-    <mergeCell ref="C141:C142"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="C117:C119"/>
-    <mergeCell ref="C121:C124"/>
-    <mergeCell ref="E159:E160"/>
-    <mergeCell ref="C159:C160"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="C133:C137"/>
-    <mergeCell ref="C98:C105"/>
-    <mergeCell ref="C173:D173"/>
-    <mergeCell ref="C175:C176"/>
-    <mergeCell ref="B175:B176"/>
-    <mergeCell ref="C165:C168"/>
-    <mergeCell ref="E174:E176"/>
-    <mergeCell ref="C95:C97"/>
-    <mergeCell ref="C87:C94"/>
-    <mergeCell ref="C106:C110"/>
-    <mergeCell ref="E71:E82"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="B151:B158"/>
-    <mergeCell ref="B130:B132"/>
-    <mergeCell ref="B138:B140"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B106:B110"/>
-    <mergeCell ref="E165:E168"/>
-    <mergeCell ref="E98:E105"/>
-    <mergeCell ref="C151:C158"/>
-    <mergeCell ref="E151:E158"/>
-    <mergeCell ref="B165:B168"/>
-    <mergeCell ref="B121:B124"/>
-    <mergeCell ref="B127:B129"/>
-    <mergeCell ref="B133:B137"/>
-    <mergeCell ref="B170:B172"/>
-    <mergeCell ref="C170:C172"/>
-    <mergeCell ref="E170:E172"/>
-    <mergeCell ref="F170:F172"/>
-    <mergeCell ref="A151:A158"/>
-    <mergeCell ref="C169:D169"/>
-    <mergeCell ref="F159:F160"/>
-    <mergeCell ref="F165:F168"/>
-    <mergeCell ref="F151:F158"/>
-    <mergeCell ref="F130:F132"/>
-    <mergeCell ref="E130:E132"/>
-    <mergeCell ref="E138:E140"/>
-    <mergeCell ref="E141:E142"/>
-    <mergeCell ref="E106:E110"/>
-    <mergeCell ref="F106:F110"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="A159:A160"/>
-    <mergeCell ref="A144:A145"/>
-    <mergeCell ref="B144:B145"/>
-    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="F29:F33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="F34:F38"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="E39:E43"/>
+    <mergeCell ref="F39:F43"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="F44:F47"/>
+    <mergeCell ref="B49:B55"/>
+    <mergeCell ref="C49:C55"/>
+    <mergeCell ref="E49:E55"/>
+    <mergeCell ref="F49:F55"/>
+    <mergeCell ref="B56:B65"/>
+    <mergeCell ref="C56:C65"/>
+    <mergeCell ref="E56:E65"/>
+    <mergeCell ref="F56:F65"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="F78:F81"/>
+    <mergeCell ref="C66:C77"/>
+    <mergeCell ref="F66:F77"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -13365,7 +13278,7 @@
       <c r="D8" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="128" t="s">
+      <c r="E8" s="131" t="s">
         <v>45</v>
       </c>
     </row>
@@ -13373,13 +13286,13 @@
       <c r="D9" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="128"/>
+      <c r="E9" s="131"/>
     </row>
     <row r="10" spans="4:5">
       <c r="D10" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="129"/>
+      <c r="E10" s="132"/>
     </row>
     <row r="14" spans="4:5" ht="12.75" thickBot="1">
       <c r="D14" s="35" t="s">
@@ -13393,7 +13306,7 @@
       <c r="D15" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="128" t="s">
+      <c r="E15" s="131" t="s">
         <v>45</v>
       </c>
     </row>
@@ -13401,13 +13314,13 @@
       <c r="D16" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="128"/>
+      <c r="E16" s="131"/>
     </row>
     <row r="17" spans="4:5">
       <c r="D17" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="129"/>
+      <c r="E17" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/문서 관리/01. 요구사항명세서.xlsx
+++ b/문서 관리/01. 요구사항명세서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BIG603-04\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BIG503-13\Desktop\새 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="325">
   <si>
     <t>계약 상대자는 제반 프로그램이 고품질을 유지할 수 있도록 최선의 노력을 다하여야 함</t>
   </si>
@@ -714,10 +714,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>서울 위(Wee) 센터 교육·연수·행사·기타 등록/접수/현황 관리 기능</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>학교 업무 공유 게시판, 상담 전문성 공유 게시판, 서식 공유 게시판, 자유 게시판의 하위 메뉴로 구성</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -726,10 +722,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>공지사항에 기관별, 제목, 내용 검색 기능 제공</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>통계 항목에 대한 엑셀 및 그래프, 파일 다운로드 기능</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -774,18 +766,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>게시판별 연계가 가능하여 모든 게시판에서 확인 가능</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지사항에 전체·26개소에 따른 교육·연수·행사·기타 등록 및 신청자 접수 기능 구현</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>접수 신청시 기한 및 인원수 제한을 두어 공고 마감 기능</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>마음건강검사 페이지 이동</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -898,10 +878,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>퀵 메뉴는 챗봇, SNS, 유관기관으로 연결</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>챗봇</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -926,15 +902,8 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>서울 위(Wee) 센터 위치를 지도화하여 지도 선택시 위(Wee)센터 26개소의 소개 및 내용 제공</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>센터별 교육〮연수 일정 정보 제공</t>
     <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>위(Wee), 위네트워크(Wee-Network)를 탭으로 구성</t>
   </si>
   <si>
     <t>전문상담(교)사 회원은 닉네임 등록·수정 기능 제공</t>
@@ -1585,6 +1554,22 @@
   </si>
   <si>
     <t>작성자 이름, 비밀번호, 상담 주제, 상담 내용 등록·수정·취소 기능 구현</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>전 기관 통합 공지사항</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>기관별, 기간별, 제목 검색 기능 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀵 메뉴는 챗봇, SNS으로 연결</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아요 이모티콘 활용 가능</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -2054,7 +2039,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2346,6 +2331,18 @@
     <xf numFmtId="0" fontId="24" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2403,6 +2400,15 @@
     <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2415,12 +2421,6 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2430,9 +2430,6 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2444,9 +2441,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3897,13 +3891,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3968,13 +3962,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4039,13 +4033,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4110,13 +4104,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4181,13 +4175,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4252,13 +4246,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4323,13 +4317,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4394,13 +4388,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4465,13 +4459,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4536,13 +4530,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4607,13 +4601,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4678,13 +4672,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4749,13 +4743,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4820,13 +4814,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4891,13 +4885,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4962,13 +4956,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5033,13 +5027,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5104,13 +5098,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5175,13 +5169,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5246,13 +5240,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5317,13 +5311,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5388,13 +5382,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5459,13 +5453,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5530,13 +5524,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5601,13 +5595,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5672,13 +5666,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5743,13 +5737,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5814,13 +5808,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5885,13 +5879,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5956,13 +5950,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6027,13 +6021,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6098,13 +6092,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6169,13 +6163,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6240,13 +6234,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6311,13 +6305,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6382,13 +6376,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6453,13 +6447,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6524,13 +6518,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6595,13 +6589,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6666,13 +6660,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6737,13 +6731,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6808,13 +6802,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6879,13 +6873,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6950,13 +6944,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7021,13 +7015,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7092,13 +7086,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7163,13 +7157,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7234,13 +7228,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7305,13 +7299,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7376,13 +7370,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7447,13 +7441,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7518,13 +7512,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7589,13 +7583,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7660,13 +7654,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7731,13 +7725,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7802,13 +7796,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7873,13 +7867,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7944,13 +7938,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8015,13 +8009,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8086,13 +8080,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8157,13 +8151,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8228,13 +8222,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8299,13 +8293,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8370,13 +8364,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8441,7 +8435,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -8507,7 +8501,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -8573,7 +8567,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -8639,7 +8633,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -8705,7 +8699,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -8771,7 +8765,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -8837,7 +8831,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -8903,7 +8897,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -8969,7 +8963,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -9035,7 +9029,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -9101,7 +9095,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -9167,7 +9161,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -9233,7 +9227,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -9299,7 +9293,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -9365,7 +9359,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -9431,7 +9425,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="238125" cy="238127"/>
@@ -9843,7 +9837,7 @@
         <v>29</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -10043,22 +10037,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" customHeight="1">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
     </row>
     <row r="2" spans="1:4" ht="21" customHeight="1">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="99" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="99"/>
+      <c r="D2" s="103"/>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="15" t="s">
@@ -10208,10 +10202,10 @@
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H203"/>
+  <dimension ref="A1:H199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="21" customHeight="1"/>
@@ -10227,33 +10221,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
     </row>
     <row r="2" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="129" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="124"/>
-      <c r="C2" s="123" t="s">
-        <v>217</v>
-      </c>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="128" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
       <c r="G2" s="19" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1" thickTop="1">
@@ -10286,19 +10280,19 @@
       <c r="A4" s="51">
         <v>1</v>
       </c>
-      <c r="B4" s="105" t="s">
-        <v>306</v>
-      </c>
-      <c r="C4" s="105" t="s">
+      <c r="B4" s="109" t="s">
+        <v>298</v>
+      </c>
+      <c r="C4" s="109" t="s">
         <v>88</v>
       </c>
       <c r="D4" s="94" t="s">
-        <v>139</v>
-      </c>
-      <c r="E4" s="100" t="s">
-        <v>157</v>
-      </c>
-      <c r="F4" s="100" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="104" t="s">
+        <v>152</v>
+      </c>
+      <c r="F4" s="104" t="s">
         <v>70</v>
       </c>
       <c r="G4" s="89"/>
@@ -10308,13 +10302,13 @@
       <c r="A5" s="51">
         <v>2</v>
       </c>
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="111"/>
       <c r="D5" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
+        <v>138</v>
+      </c>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
       <c r="G5" s="89"/>
       <c r="H5" s="52"/>
     </row>
@@ -10322,13 +10316,13 @@
       <c r="A6" s="51">
         <v>3</v>
       </c>
-      <c r="B6" s="107"/>
-      <c r="C6" s="107"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="111"/>
       <c r="D6" s="25" t="s">
-        <v>207</v>
-      </c>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
+        <v>199</v>
+      </c>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
       <c r="G6" s="89"/>
       <c r="H6" s="52"/>
     </row>
@@ -10336,13 +10330,13 @@
       <c r="A7" s="51">
         <v>4</v>
       </c>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="111"/>
       <c r="D7" s="83" t="s">
-        <v>148</v>
-      </c>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
+        <v>143</v>
+      </c>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
       <c r="G7" s="89"/>
       <c r="H7" s="52"/>
     </row>
@@ -10350,13 +10344,13 @@
       <c r="A8" s="51">
         <v>5</v>
       </c>
-      <c r="B8" s="106"/>
-      <c r="C8" s="106"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="110"/>
       <c r="D8" s="83" t="s">
-        <v>200</v>
-      </c>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
+        <v>192</v>
+      </c>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
       <c r="G8" s="89"/>
       <c r="H8" s="52"/>
     </row>
@@ -10364,19 +10358,19 @@
       <c r="A9" s="51">
         <v>6</v>
       </c>
-      <c r="B9" s="105" t="s">
-        <v>306</v>
-      </c>
-      <c r="C9" s="126" t="s">
+      <c r="B9" s="109" t="s">
+        <v>298</v>
+      </c>
+      <c r="C9" s="130" t="s">
         <v>95</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="E9" s="100" t="s">
+        <v>173</v>
+      </c>
+      <c r="E9" s="104" t="s">
         <v>95</v>
       </c>
-      <c r="F9" s="100" t="s">
+      <c r="F9" s="104" t="s">
         <v>70</v>
       </c>
       <c r="G9" s="89"/>
@@ -10386,275 +10380,283 @@
       <c r="A10" s="51">
         <v>7</v>
       </c>
-      <c r="B10" s="107"/>
-      <c r="C10" s="127"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="131"/>
       <c r="D10" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
+        <v>322</v>
+      </c>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
       <c r="G10" s="89"/>
       <c r="H10" s="52"/>
     </row>
     <row r="11" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A11" s="51">
-        <v>8</v>
-      </c>
-      <c r="B11" s="106"/>
-      <c r="C11" s="127"/>
-      <c r="D11" s="82" t="s">
-        <v>181</v>
-      </c>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="109" t="s">
+        <v>298</v>
+      </c>
+      <c r="C11" s="109" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" s="104" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="104" t="s">
+        <v>70</v>
+      </c>
       <c r="G11" s="89"/>
       <c r="H11" s="52"/>
     </row>
     <row r="12" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A12" s="51">
-        <v>9</v>
-      </c>
-      <c r="B12" s="105" t="s">
-        <v>306</v>
-      </c>
-      <c r="C12" s="105" t="s">
-        <v>98</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B12" s="111"/>
+      <c r="C12" s="111"/>
       <c r="D12" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="E12" s="100" t="s">
-        <v>98</v>
-      </c>
-      <c r="F12" s="100" t="s">
-        <v>70</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
       <c r="G12" s="89"/>
       <c r="H12" s="52"/>
     </row>
     <row r="13" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A13" s="51">
-        <v>10</v>
-      </c>
-      <c r="B13" s="107"/>
-      <c r="C13" s="107"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="111"/>
+      <c r="C13" s="111"/>
       <c r="D13" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
+        <v>135</v>
+      </c>
+      <c r="E13" s="105"/>
+      <c r="F13" s="105"/>
       <c r="G13" s="89"/>
       <c r="H13" s="52"/>
     </row>
     <row r="14" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A14" s="51">
-        <v>11</v>
-      </c>
-      <c r="B14" s="107"/>
-      <c r="C14" s="107"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="110"/>
+      <c r="C14" s="110"/>
       <c r="D14" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
+        <v>195</v>
+      </c>
+      <c r="E14" s="106"/>
+      <c r="F14" s="106"/>
       <c r="G14" s="89"/>
       <c r="H14" s="52"/>
     </row>
     <row r="15" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A15" s="51">
-        <v>12</v>
-      </c>
-      <c r="B15" s="106"/>
-      <c r="C15" s="106"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="109" t="s">
+        <v>298</v>
+      </c>
+      <c r="C15" s="109" t="s">
+        <v>93</v>
+      </c>
       <c r="D15" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
+        <v>118</v>
+      </c>
+      <c r="E15" s="104" t="s">
+        <v>167</v>
+      </c>
+      <c r="F15" s="104" t="s">
+        <v>70</v>
+      </c>
       <c r="G15" s="89"/>
       <c r="H15" s="52"/>
     </row>
-    <row r="16" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+    <row r="16" spans="1:8" s="43" customFormat="1" ht="16.5" customHeight="1">
       <c r="A16" s="51">
-        <v>13</v>
-      </c>
-      <c r="B16" s="105" t="s">
-        <v>306</v>
-      </c>
-      <c r="C16" s="105" t="s">
-        <v>93</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B16" s="111"/>
+      <c r="C16" s="111"/>
       <c r="D16" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="E16" s="100" t="s">
-        <v>173</v>
-      </c>
-      <c r="F16" s="100" t="s">
-        <v>70</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
       <c r="G16" s="89"/>
       <c r="H16" s="52"/>
     </row>
-    <row r="17" spans="1:8" s="43" customFormat="1" ht="16.5" customHeight="1">
+    <row r="17" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A17" s="51">
-        <v>14</v>
-      </c>
-      <c r="B17" s="107"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="E17" s="101"/>
-      <c r="F17" s="101"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="111"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="83" t="s">
+        <v>184</v>
+      </c>
+      <c r="E17" s="105"/>
+      <c r="F17" s="105"/>
       <c r="G17" s="89"/>
       <c r="H17" s="52"/>
     </row>
     <row r="18" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A18" s="51">
-        <v>15</v>
-      </c>
-      <c r="B18" s="107"/>
-      <c r="C18" s="107"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="111"/>
+      <c r="C18" s="111"/>
       <c r="D18" s="83" t="s">
-        <v>192</v>
-      </c>
-      <c r="E18" s="101"/>
-      <c r="F18" s="101"/>
+        <v>140</v>
+      </c>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
       <c r="G18" s="89"/>
       <c r="H18" s="52"/>
     </row>
     <row r="19" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A19" s="51">
-        <v>16</v>
-      </c>
-      <c r="B19" s="107"/>
-      <c r="C19" s="107"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="111"/>
+      <c r="C19" s="111"/>
       <c r="D19" s="83" t="s">
-        <v>145</v>
-      </c>
-      <c r="E19" s="101"/>
-      <c r="F19" s="101"/>
+        <v>139</v>
+      </c>
+      <c r="E19" s="105"/>
+      <c r="F19" s="105"/>
       <c r="G19" s="89"/>
       <c r="H19" s="52"/>
     </row>
     <row r="20" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A20" s="51">
-        <v>17</v>
-      </c>
-      <c r="B20" s="107"/>
-      <c r="C20" s="107"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="110"/>
+      <c r="C20" s="111"/>
       <c r="D20" s="83" t="s">
-        <v>144</v>
-      </c>
-      <c r="E20" s="101"/>
-      <c r="F20" s="101"/>
+        <v>180</v>
+      </c>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
       <c r="G20" s="89"/>
       <c r="H20" s="52"/>
     </row>
     <row r="21" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A21" s="51">
-        <v>18</v>
-      </c>
-      <c r="B21" s="106"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="83" t="s">
-        <v>188</v>
-      </c>
-      <c r="E21" s="102"/>
-      <c r="F21" s="102"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="109" t="s">
+        <v>298</v>
+      </c>
+      <c r="C21" s="109" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" s="104" t="s">
+        <v>161</v>
+      </c>
+      <c r="F21" s="104" t="s">
+        <v>70</v>
+      </c>
       <c r="G21" s="89"/>
       <c r="H21" s="52"/>
     </row>
     <row r="22" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A22" s="51">
-        <v>19</v>
-      </c>
-      <c r="B22" s="105" t="s">
-        <v>306</v>
-      </c>
-      <c r="C22" s="105" t="s">
-        <v>94</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B22" s="110"/>
+      <c r="C22" s="110"/>
       <c r="D22" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="E22" s="100" t="s">
-        <v>166</v>
-      </c>
-      <c r="F22" s="100" t="s">
-        <v>70</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="E22" s="106"/>
+      <c r="F22" s="106"/>
       <c r="G22" s="89"/>
       <c r="H22" s="52"/>
     </row>
     <row r="23" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A23" s="51">
-        <v>20</v>
-      </c>
-      <c r="B23" s="106"/>
-      <c r="C23" s="106"/>
-      <c r="D23" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="E23" s="102"/>
-      <c r="F23" s="102"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="123" t="s">
+        <v>298</v>
+      </c>
+      <c r="C23" s="109" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="82" t="s">
+        <v>189</v>
+      </c>
+      <c r="E23" s="104" t="s">
+        <v>156</v>
+      </c>
+      <c r="F23" s="104" t="s">
+        <v>70</v>
+      </c>
       <c r="G23" s="89"/>
       <c r="H23" s="52"/>
     </row>
     <row r="24" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A24" s="51">
-        <v>21</v>
-      </c>
-      <c r="B24" s="116" t="s">
-        <v>306</v>
-      </c>
-      <c r="C24" s="105" t="s">
-        <v>100</v>
-      </c>
-      <c r="D24" s="82" t="s">
-        <v>197</v>
-      </c>
-      <c r="E24" s="100" t="s">
-        <v>161</v>
-      </c>
-      <c r="F24" s="100" t="s">
-        <v>70</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B24" s="125"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="83" t="s">
+        <v>125</v>
+      </c>
+      <c r="E24" s="106"/>
+      <c r="F24" s="106"/>
       <c r="G24" s="89"/>
       <c r="H24" s="52"/>
     </row>
     <row r="25" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A25" s="51">
-        <v>22</v>
-      </c>
-      <c r="B25" s="118"/>
-      <c r="C25" s="106"/>
-      <c r="D25" s="83" t="s">
-        <v>125</v>
-      </c>
-      <c r="E25" s="102"/>
-      <c r="F25" s="102"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="86" t="s">
+        <v>298</v>
+      </c>
+      <c r="C25" s="85" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="E25" s="88" t="s">
+        <v>157</v>
+      </c>
+      <c r="F25" s="88" t="s">
+        <v>70</v>
+      </c>
       <c r="G25" s="89"/>
       <c r="H25" s="52"/>
     </row>
     <row r="26" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A26" s="51">
-        <v>23</v>
-      </c>
-      <c r="B26" s="86" t="s">
-        <v>306</v>
-      </c>
-      <c r="C26" s="85" t="s">
-        <v>99</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="E26" s="88" t="s">
-        <v>162</v>
-      </c>
-      <c r="F26" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="109" t="s">
+        <v>299</v>
+      </c>
+      <c r="C26" s="109" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="83" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26" s="104" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="104" t="s">
         <v>70</v>
       </c>
       <c r="G26" s="89"/>
@@ -10662,2215 +10664,2209 @@
     </row>
     <row r="27" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A27" s="51">
-        <v>24</v>
-      </c>
-      <c r="B27" s="105" t="s">
-        <v>307</v>
-      </c>
-      <c r="C27" s="105" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" s="83" t="s">
-        <v>149</v>
-      </c>
-      <c r="E27" s="100" t="s">
-        <v>158</v>
-      </c>
-      <c r="F27" s="100" t="s">
-        <v>70</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B27" s="111"/>
+      <c r="C27" s="111"/>
+      <c r="D27" s="82" t="s">
+        <v>321</v>
+      </c>
+      <c r="E27" s="105"/>
+      <c r="F27" s="105"/>
       <c r="G27" s="89"/>
       <c r="H27" s="52"/>
     </row>
     <row r="28" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A28" s="51">
-        <v>25</v>
-      </c>
-      <c r="B28" s="107"/>
-      <c r="C28" s="107"/>
+        <v>29</v>
+      </c>
+      <c r="B28" s="111"/>
+      <c r="C28" s="110"/>
       <c r="D28" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="E28" s="101"/>
-      <c r="F28" s="101"/>
+        <v>142</v>
+      </c>
+      <c r="E28" s="105"/>
+      <c r="F28" s="105"/>
       <c r="G28" s="89"/>
       <c r="H28" s="52"/>
     </row>
-    <row r="29" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+    <row r="29" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A29" s="51">
-        <v>26</v>
-      </c>
-      <c r="B29" s="107"/>
-      <c r="C29" s="107"/>
-      <c r="D29" s="82" t="s">
-        <v>179</v>
-      </c>
-      <c r="E29" s="101"/>
-      <c r="F29" s="101"/>
+        <v>30</v>
+      </c>
+      <c r="B29" s="109" t="s">
+        <v>300</v>
+      </c>
+      <c r="C29" s="109" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E29" s="104" t="s">
+        <v>154</v>
+      </c>
+      <c r="F29" s="104" t="s">
+        <v>155</v>
+      </c>
       <c r="G29" s="89"/>
       <c r="H29" s="52"/>
     </row>
-    <row r="30" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+    <row r="30" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A30" s="51">
-        <v>27</v>
-      </c>
-      <c r="B30" s="107"/>
-      <c r="C30" s="107"/>
-      <c r="D30" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="E30" s="101"/>
-      <c r="F30" s="101"/>
+        <v>31</v>
+      </c>
+      <c r="B30" s="111"/>
+      <c r="C30" s="111"/>
+      <c r="D30" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="E30" s="105"/>
+      <c r="F30" s="105"/>
       <c r="G30" s="89"/>
       <c r="H30" s="52"/>
     </row>
-    <row r="31" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+    <row r="31" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A31" s="51">
-        <v>28</v>
-      </c>
-      <c r="B31" s="107"/>
-      <c r="C31" s="107"/>
-      <c r="D31" s="82" t="s">
-        <v>143</v>
-      </c>
-      <c r="E31" s="101"/>
-      <c r="F31" s="101"/>
+        <v>32</v>
+      </c>
+      <c r="B31" s="111"/>
+      <c r="C31" s="111"/>
+      <c r="D31" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="E31" s="105"/>
+      <c r="F31" s="105"/>
       <c r="G31" s="89"/>
       <c r="H31" s="52"/>
     </row>
     <row r="32" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A32" s="51">
-        <v>29</v>
-      </c>
-      <c r="B32" s="107"/>
-      <c r="C32" s="106"/>
-      <c r="D32" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="E32" s="101"/>
-      <c r="F32" s="101"/>
+        <v>35</v>
+      </c>
+      <c r="B32" s="111"/>
+      <c r="C32" s="111"/>
+      <c r="D32" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="E32" s="105"/>
+      <c r="F32" s="105"/>
       <c r="G32" s="89"/>
       <c r="H32" s="52"/>
     </row>
-    <row r="33" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+    <row r="33" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A33" s="51">
-        <v>30</v>
-      </c>
-      <c r="B33" s="105" t="s">
-        <v>308</v>
-      </c>
-      <c r="C33" s="105" t="s">
-        <v>90</v>
-      </c>
-      <c r="D33" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="E33" s="100" t="s">
-        <v>159</v>
-      </c>
-      <c r="F33" s="100" t="s">
-        <v>160</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B33" s="110"/>
+      <c r="C33" s="110"/>
+      <c r="D33" s="84" t="s">
+        <v>191</v>
+      </c>
+      <c r="E33" s="106"/>
+      <c r="F33" s="106"/>
       <c r="G33" s="89"/>
       <c r="H33" s="52"/>
     </row>
-    <row r="34" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+    <row r="34" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A34" s="51">
-        <v>31</v>
-      </c>
-      <c r="B34" s="107"/>
-      <c r="C34" s="107"/>
-      <c r="D34" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="E34" s="101"/>
-      <c r="F34" s="101"/>
+        <v>37</v>
+      </c>
+      <c r="B34" s="109" t="s">
+        <v>301</v>
+      </c>
+      <c r="C34" s="109" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="99" t="s">
+        <v>316</v>
+      </c>
+      <c r="E34" s="104" t="s">
+        <v>166</v>
+      </c>
+      <c r="F34" s="104" t="s">
+        <v>155</v>
+      </c>
       <c r="G34" s="89"/>
       <c r="H34" s="52"/>
     </row>
-    <row r="35" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+    <row r="35" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A35" s="51">
-        <v>32</v>
-      </c>
-      <c r="B35" s="107"/>
-      <c r="C35" s="107"/>
-      <c r="D35" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="E35" s="101"/>
-      <c r="F35" s="101"/>
+        <v>38</v>
+      </c>
+      <c r="B35" s="111"/>
+      <c r="C35" s="111"/>
+      <c r="D35" s="99" t="s">
+        <v>320</v>
+      </c>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
       <c r="G35" s="89"/>
       <c r="H35" s="52"/>
     </row>
     <row r="36" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A36" s="51">
-        <v>35</v>
-      </c>
-      <c r="B36" s="107"/>
-      <c r="C36" s="107"/>
-      <c r="D36" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="E36" s="101"/>
-      <c r="F36" s="101"/>
+        <v>39</v>
+      </c>
+      <c r="B36" s="111"/>
+      <c r="C36" s="111"/>
+      <c r="D36" s="99" t="s">
+        <v>319</v>
+      </c>
+      <c r="E36" s="105"/>
+      <c r="F36" s="105"/>
       <c r="G36" s="89"/>
       <c r="H36" s="52"/>
     </row>
     <row r="37" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A37" s="51">
-        <v>36</v>
-      </c>
-      <c r="B37" s="106"/>
-      <c r="C37" s="106"/>
-      <c r="D37" s="84" t="s">
-        <v>199</v>
-      </c>
-      <c r="E37" s="102"/>
-      <c r="F37" s="102"/>
+        <v>40</v>
+      </c>
+      <c r="B37" s="111"/>
+      <c r="C37" s="111"/>
+      <c r="D37" s="43" t="s">
+        <v>318</v>
+      </c>
+      <c r="E37" s="105"/>
+      <c r="F37" s="105"/>
       <c r="G37" s="89"/>
       <c r="H37" s="52"/>
     </row>
     <row r="38" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A38" s="51">
-        <v>37</v>
-      </c>
-      <c r="B38" s="105" t="s">
-        <v>309</v>
-      </c>
-      <c r="C38" s="105" t="s">
-        <v>91</v>
-      </c>
-      <c r="D38" s="130" t="s">
-        <v>324</v>
-      </c>
-      <c r="E38" s="100" t="s">
-        <v>171</v>
-      </c>
-      <c r="F38" s="100" t="s">
-        <v>160</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B38" s="110"/>
+      <c r="C38" s="111"/>
+      <c r="D38" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="E38" s="106"/>
+      <c r="F38" s="106"/>
       <c r="G38" s="89"/>
       <c r="H38" s="52"/>
     </row>
     <row r="39" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A39" s="51">
-        <v>38</v>
-      </c>
-      <c r="B39" s="107"/>
-      <c r="C39" s="107"/>
-      <c r="D39" s="130" t="s">
-        <v>328</v>
-      </c>
-      <c r="E39" s="101"/>
-      <c r="F39" s="101"/>
+        <v>42</v>
+      </c>
+      <c r="B39" s="109" t="s">
+        <v>302</v>
+      </c>
+      <c r="C39" s="109" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="E39" s="104" t="s">
+        <v>164</v>
+      </c>
+      <c r="F39" s="104" t="s">
+        <v>70</v>
+      </c>
       <c r="G39" s="89"/>
       <c r="H39" s="52"/>
     </row>
     <row r="40" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A40" s="51">
-        <v>39</v>
-      </c>
-      <c r="B40" s="107"/>
-      <c r="C40" s="107"/>
-      <c r="D40" s="130" t="s">
-        <v>327</v>
-      </c>
-      <c r="E40" s="101"/>
-      <c r="F40" s="101"/>
+        <v>43</v>
+      </c>
+      <c r="B40" s="111"/>
+      <c r="C40" s="111"/>
+      <c r="D40" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="E40" s="105"/>
+      <c r="F40" s="105"/>
       <c r="G40" s="89"/>
       <c r="H40" s="52"/>
     </row>
     <row r="41" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A41" s="51">
-        <v>40</v>
-      </c>
-      <c r="B41" s="107"/>
-      <c r="C41" s="107"/>
-      <c r="D41" s="43" t="s">
-        <v>326</v>
-      </c>
-      <c r="E41" s="101"/>
-      <c r="F41" s="101"/>
+        <v>44</v>
+      </c>
+      <c r="B41" s="111"/>
+      <c r="C41" s="111"/>
+      <c r="D41" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="E41" s="105"/>
+      <c r="F41" s="105"/>
       <c r="G41" s="89"/>
       <c r="H41" s="52"/>
     </row>
     <row r="42" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A42" s="51">
-        <v>41</v>
-      </c>
-      <c r="B42" s="106"/>
-      <c r="C42" s="107"/>
+        <v>45</v>
+      </c>
+      <c r="B42" s="111"/>
+      <c r="C42" s="111"/>
       <c r="D42" s="24" t="s">
-        <v>325</v>
-      </c>
-      <c r="E42" s="102"/>
-      <c r="F42" s="102"/>
+        <v>132</v>
+      </c>
+      <c r="E42" s="105"/>
+      <c r="F42" s="105"/>
       <c r="G42" s="89"/>
       <c r="H42" s="52"/>
     </row>
     <row r="43" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A43" s="51">
-        <v>42</v>
-      </c>
-      <c r="B43" s="105" t="s">
-        <v>310</v>
-      </c>
-      <c r="C43" s="105" t="s">
-        <v>92</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B43" s="110"/>
+      <c r="C43" s="110"/>
       <c r="D43" s="24" t="s">
-        <v>323</v>
-      </c>
-      <c r="E43" s="100" t="s">
-        <v>169</v>
-      </c>
-      <c r="F43" s="100" t="s">
-        <v>70</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="E43" s="106"/>
+      <c r="F43" s="106"/>
       <c r="G43" s="89"/>
       <c r="H43" s="52"/>
     </row>
     <row r="44" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A44" s="51">
-        <v>43</v>
-      </c>
-      <c r="B44" s="107"/>
-      <c r="C44" s="107"/>
-      <c r="D44" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="E44" s="101"/>
-      <c r="F44" s="101"/>
+        <v>47</v>
+      </c>
+      <c r="B44" s="109" t="s">
+        <v>303</v>
+      </c>
+      <c r="C44" s="109" t="s">
+        <v>164</v>
+      </c>
+      <c r="D44" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="E44" s="104" t="s">
+        <v>164</v>
+      </c>
+      <c r="F44" s="104" t="s">
+        <v>70</v>
+      </c>
       <c r="G44" s="89"/>
       <c r="H44" s="52"/>
     </row>
     <row r="45" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A45" s="51">
-        <v>44</v>
-      </c>
-      <c r="B45" s="107"/>
-      <c r="C45" s="107"/>
-      <c r="D45" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="E45" s="101"/>
-      <c r="F45" s="101"/>
+        <v>48</v>
+      </c>
+      <c r="B45" s="111"/>
+      <c r="C45" s="111"/>
+      <c r="D45" s="94" t="s">
+        <v>177</v>
+      </c>
+      <c r="E45" s="105"/>
+      <c r="F45" s="105"/>
       <c r="G45" s="89"/>
       <c r="H45" s="52"/>
     </row>
     <row r="46" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A46" s="51">
-        <v>45</v>
-      </c>
-      <c r="B46" s="107"/>
-      <c r="C46" s="107"/>
+        <v>49</v>
+      </c>
+      <c r="B46" s="111"/>
+      <c r="C46" s="111"/>
       <c r="D46" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="E46" s="101"/>
-      <c r="F46" s="101"/>
+        <v>130</v>
+      </c>
+      <c r="E46" s="105"/>
+      <c r="F46" s="105"/>
       <c r="G46" s="89"/>
       <c r="H46" s="52"/>
     </row>
     <row r="47" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A47" s="51">
-        <v>46</v>
-      </c>
-      <c r="B47" s="106"/>
-      <c r="C47" s="106"/>
+      <c r="A47" s="51"/>
+      <c r="B47" s="111"/>
+      <c r="C47" s="111"/>
       <c r="D47" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="E47" s="102"/>
-      <c r="F47" s="102"/>
-      <c r="G47" s="89"/>
+        <v>141</v>
+      </c>
+      <c r="E47" s="105"/>
+      <c r="F47" s="105"/>
+      <c r="G47" s="100"/>
       <c r="H47" s="52"/>
     </row>
     <row r="48" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A48" s="51">
-        <v>47</v>
-      </c>
-      <c r="B48" s="105" t="s">
-        <v>311</v>
-      </c>
-      <c r="C48" s="105" t="s">
-        <v>169</v>
-      </c>
-      <c r="D48" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="E48" s="100" t="s">
-        <v>169</v>
-      </c>
-      <c r="F48" s="100" t="s">
-        <v>70</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B48" s="110"/>
+      <c r="C48" s="110"/>
+      <c r="D48" s="99" t="s">
+        <v>175</v>
+      </c>
+      <c r="E48" s="106"/>
+      <c r="F48" s="106"/>
       <c r="G48" s="89"/>
       <c r="H48" s="52"/>
     </row>
     <row r="49" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A49" s="51">
-        <v>48</v>
-      </c>
-      <c r="B49" s="107"/>
-      <c r="C49" s="107"/>
+        <v>51</v>
+      </c>
+      <c r="B49" s="98" t="s">
+        <v>304</v>
+      </c>
+      <c r="C49" s="98" t="s">
+        <v>305</v>
+      </c>
       <c r="D49" s="94" t="s">
-        <v>185</v>
-      </c>
-      <c r="E49" s="101"/>
-      <c r="F49" s="101"/>
+        <v>176</v>
+      </c>
+      <c r="E49" s="97" t="s">
+        <v>162</v>
+      </c>
+      <c r="F49" s="97" t="s">
+        <v>70</v>
+      </c>
       <c r="G49" s="89"/>
       <c r="H49" s="52"/>
     </row>
     <row r="50" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A50" s="51">
-        <v>49</v>
-      </c>
-      <c r="B50" s="107"/>
-      <c r="C50" s="107"/>
-      <c r="D50" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="E50" s="101"/>
-      <c r="F50" s="101"/>
+        <v>53</v>
+      </c>
+      <c r="B50" s="109" t="s">
+        <v>306</v>
+      </c>
+      <c r="C50" s="109" t="s">
+        <v>208</v>
+      </c>
+      <c r="D50" s="99" t="s">
+        <v>193</v>
+      </c>
+      <c r="E50" s="104" t="s">
+        <v>165</v>
+      </c>
+      <c r="F50" s="104" t="s">
+        <v>163</v>
+      </c>
       <c r="G50" s="89"/>
       <c r="H50" s="52"/>
     </row>
     <row r="51" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A51" s="51">
-        <v>50</v>
-      </c>
-      <c r="B51" s="106"/>
-      <c r="C51" s="106"/>
-      <c r="D51" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="E51" s="102"/>
-      <c r="F51" s="102"/>
+        <v>54</v>
+      </c>
+      <c r="B51" s="111"/>
+      <c r="C51" s="111"/>
+      <c r="D51" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="E51" s="105"/>
+      <c r="F51" s="105"/>
       <c r="G51" s="89"/>
       <c r="H51" s="52"/>
     </row>
     <row r="52" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A52" s="51">
-        <v>51</v>
-      </c>
-      <c r="B52" s="105" t="s">
-        <v>312</v>
-      </c>
-      <c r="C52" s="105" t="s">
-        <v>313</v>
-      </c>
-      <c r="D52" s="94" t="s">
-        <v>184</v>
-      </c>
-      <c r="E52" s="100" t="s">
-        <v>167</v>
-      </c>
-      <c r="F52" s="100" t="s">
-        <v>70</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B52" s="111"/>
+      <c r="C52" s="111"/>
+      <c r="D52" s="99" t="s">
+        <v>174</v>
+      </c>
+      <c r="E52" s="105"/>
+      <c r="F52" s="105"/>
       <c r="G52" s="89"/>
       <c r="H52" s="52"/>
     </row>
     <row r="53" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A53" s="51">
-        <v>52</v>
-      </c>
-      <c r="B53" s="106"/>
-      <c r="C53" s="106"/>
-      <c r="D53" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="E53" s="102"/>
-      <c r="F53" s="102"/>
+        <v>56</v>
+      </c>
+      <c r="B53" s="111"/>
+      <c r="C53" s="111"/>
+      <c r="D53" s="99" t="s">
+        <v>182</v>
+      </c>
+      <c r="E53" s="105"/>
+      <c r="F53" s="105"/>
       <c r="G53" s="89"/>
       <c r="H53" s="52"/>
     </row>
     <row r="54" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A54" s="51">
-        <v>53</v>
-      </c>
-      <c r="B54" s="105" t="s">
-        <v>314</v>
-      </c>
-      <c r="C54" s="105" t="s">
-        <v>216</v>
-      </c>
-      <c r="D54" s="130" t="s">
-        <v>201</v>
-      </c>
-      <c r="E54" s="100" t="s">
-        <v>170</v>
-      </c>
-      <c r="F54" s="100" t="s">
-        <v>168</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B54" s="111"/>
+      <c r="C54" s="111"/>
+      <c r="D54" s="99" t="s">
+        <v>179</v>
+      </c>
+      <c r="E54" s="105"/>
+      <c r="F54" s="105"/>
       <c r="G54" s="89"/>
       <c r="H54" s="52"/>
     </row>
     <row r="55" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A55" s="51">
-        <v>54</v>
-      </c>
-      <c r="B55" s="107"/>
-      <c r="C55" s="107"/>
-      <c r="D55" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" s="111"/>
+      <c r="C55" s="111"/>
+      <c r="D55" s="99" t="s">
         <v>127</v>
       </c>
-      <c r="E55" s="101"/>
-      <c r="F55" s="101"/>
+      <c r="E55" s="105"/>
+      <c r="F55" s="105"/>
       <c r="G55" s="89"/>
       <c r="H55" s="52"/>
     </row>
     <row r="56" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A56" s="51">
-        <v>55</v>
-      </c>
-      <c r="B56" s="107"/>
-      <c r="C56" s="107"/>
-      <c r="D56" s="130" t="s">
-        <v>182</v>
-      </c>
-      <c r="E56" s="101"/>
-      <c r="F56" s="101"/>
+        <v>59</v>
+      </c>
+      <c r="B56" s="110"/>
+      <c r="C56" s="110"/>
+      <c r="D56" s="99" t="s">
+        <v>324</v>
+      </c>
+      <c r="E56" s="106"/>
+      <c r="F56" s="106"/>
       <c r="G56" s="89"/>
       <c r="H56" s="52"/>
     </row>
     <row r="57" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A57" s="51">
-        <v>56</v>
-      </c>
-      <c r="B57" s="107"/>
-      <c r="C57" s="107"/>
-      <c r="D57" s="130" t="s">
-        <v>190</v>
-      </c>
-      <c r="E57" s="101"/>
-      <c r="F57" s="101"/>
+        <v>60</v>
+      </c>
+      <c r="B57" s="109" t="s">
+        <v>307</v>
+      </c>
+      <c r="C57" s="121" t="s">
+        <v>86</v>
+      </c>
+      <c r="D57" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="E57" s="122" t="s">
+        <v>86</v>
+      </c>
+      <c r="F57" s="104" t="s">
+        <v>70</v>
+      </c>
       <c r="G57" s="89"/>
       <c r="H57" s="52"/>
     </row>
     <row r="58" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A58" s="51">
-        <v>57</v>
-      </c>
-      <c r="B58" s="107"/>
-      <c r="C58" s="107"/>
-      <c r="D58" s="130" t="s">
-        <v>187</v>
-      </c>
-      <c r="E58" s="101"/>
-      <c r="F58" s="101"/>
+        <v>61</v>
+      </c>
+      <c r="B58" s="111"/>
+      <c r="C58" s="121"/>
+      <c r="D58" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="E58" s="122"/>
+      <c r="F58" s="105"/>
       <c r="G58" s="89"/>
       <c r="H58" s="52"/>
     </row>
     <row r="59" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A59" s="51">
-        <v>58</v>
-      </c>
-      <c r="B59" s="107"/>
-      <c r="C59" s="107"/>
-      <c r="D59" s="130" t="s">
-        <v>128</v>
-      </c>
-      <c r="E59" s="101"/>
-      <c r="F59" s="101"/>
+        <v>62</v>
+      </c>
+      <c r="B59" s="111"/>
+      <c r="C59" s="121"/>
+      <c r="D59" s="71" t="s">
+        <v>105</v>
+      </c>
+      <c r="E59" s="122"/>
+      <c r="F59" s="105"/>
       <c r="G59" s="89"/>
       <c r="H59" s="52"/>
     </row>
     <row r="60" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A60" s="51">
-        <v>59</v>
-      </c>
-      <c r="B60" s="106"/>
-      <c r="C60" s="106"/>
-      <c r="D60" s="130" t="s">
-        <v>183</v>
-      </c>
-      <c r="E60" s="102"/>
-      <c r="F60" s="102"/>
+        <v>63</v>
+      </c>
+      <c r="B60" s="111"/>
+      <c r="C60" s="121"/>
+      <c r="D60" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="E60" s="122"/>
+      <c r="F60" s="105"/>
       <c r="G60" s="89"/>
       <c r="H60" s="52"/>
     </row>
     <row r="61" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A61" s="51">
-        <v>60</v>
-      </c>
-      <c r="B61" s="105" t="s">
-        <v>315</v>
-      </c>
-      <c r="C61" s="121" t="s">
-        <v>86</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="B61" s="111"/>
+      <c r="C61" s="121"/>
       <c r="D61" s="70" t="s">
-        <v>101</v>
-      </c>
-      <c r="E61" s="125" t="s">
-        <v>86</v>
-      </c>
-      <c r="F61" s="100" t="s">
-        <v>70</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="E61" s="122"/>
+      <c r="F61" s="105"/>
       <c r="G61" s="89"/>
       <c r="H61" s="52"/>
     </row>
     <row r="62" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A62" s="51">
-        <v>61</v>
-      </c>
-      <c r="B62" s="107"/>
+        <v>65</v>
+      </c>
+      <c r="B62" s="111"/>
       <c r="C62" s="121"/>
-      <c r="D62" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="E62" s="125"/>
-      <c r="F62" s="101"/>
+      <c r="D62" s="70" t="s">
+        <v>108</v>
+      </c>
+      <c r="E62" s="122"/>
+      <c r="F62" s="105"/>
       <c r="G62" s="89"/>
       <c r="H62" s="52"/>
     </row>
     <row r="63" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A63" s="51">
-        <v>62</v>
-      </c>
-      <c r="B63" s="107"/>
-      <c r="C63" s="121"/>
-      <c r="D63" s="71" t="s">
-        <v>105</v>
-      </c>
-      <c r="E63" s="125"/>
-      <c r="F63" s="101"/>
+        <v>66</v>
+      </c>
+      <c r="B63" s="111"/>
+      <c r="C63" s="118"/>
+      <c r="D63" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="E63" s="120"/>
+      <c r="F63" s="105"/>
       <c r="G63" s="89"/>
       <c r="H63" s="52"/>
     </row>
     <row r="64" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A64" s="51">
-        <v>63</v>
-      </c>
-      <c r="B64" s="107"/>
-      <c r="C64" s="121"/>
-      <c r="D64" s="70" t="s">
-        <v>106</v>
-      </c>
-      <c r="E64" s="125"/>
-      <c r="F64" s="101"/>
+        <v>67</v>
+      </c>
+      <c r="B64" s="111"/>
+      <c r="C64" s="118"/>
+      <c r="D64" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E64" s="120"/>
+      <c r="F64" s="105"/>
       <c r="G64" s="89"/>
       <c r="H64" s="52"/>
     </row>
     <row r="65" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A65" s="51">
-        <v>64</v>
-      </c>
-      <c r="B65" s="107"/>
-      <c r="C65" s="121"/>
-      <c r="D65" s="70" t="s">
-        <v>107</v>
-      </c>
-      <c r="E65" s="125"/>
-      <c r="F65" s="101"/>
+        <v>68</v>
+      </c>
+      <c r="B65" s="111"/>
+      <c r="C65" s="118"/>
+      <c r="D65" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="E65" s="120"/>
+      <c r="F65" s="105"/>
       <c r="G65" s="89"/>
       <c r="H65" s="52"/>
     </row>
     <row r="66" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A66" s="51">
-        <v>65</v>
-      </c>
-      <c r="B66" s="107"/>
-      <c r="C66" s="121"/>
-      <c r="D66" s="70" t="s">
-        <v>108</v>
-      </c>
-      <c r="E66" s="125"/>
-      <c r="F66" s="101"/>
+        <v>69</v>
+      </c>
+      <c r="B66" s="110"/>
+      <c r="C66" s="118"/>
+      <c r="D66" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="E66" s="120"/>
+      <c r="F66" s="106"/>
       <c r="G66" s="89"/>
       <c r="H66" s="52"/>
     </row>
-    <row r="67" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+    <row r="67" spans="1:8" s="64" customFormat="1" ht="18" customHeight="1">
       <c r="A67" s="51">
-        <v>66</v>
-      </c>
-      <c r="B67" s="107"/>
-      <c r="C67" s="114"/>
-      <c r="D67" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="E67" s="120"/>
-      <c r="F67" s="101"/>
-      <c r="G67" s="89"/>
-      <c r="H67" s="52"/>
+        <v>70</v>
+      </c>
+      <c r="B67" s="107" t="s">
+        <v>308</v>
+      </c>
+      <c r="C67" s="109" t="s">
+        <v>77</v>
+      </c>
+      <c r="D67" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="E67" s="107" t="s">
+        <v>147</v>
+      </c>
+      <c r="F67" s="107" t="s">
+        <v>72</v>
+      </c>
+      <c r="G67" s="51"/>
+      <c r="H67" s="51"/>
     </row>
     <row r="68" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A68" s="51">
-        <v>67</v>
-      </c>
-      <c r="B68" s="107"/>
-      <c r="C68" s="114"/>
-      <c r="D68" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="E68" s="120"/>
-      <c r="F68" s="101"/>
-      <c r="G68" s="89"/>
+        <v>71</v>
+      </c>
+      <c r="B68" s="119"/>
+      <c r="C68" s="111"/>
+      <c r="D68" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="E68" s="119"/>
+      <c r="F68" s="119"/>
+      <c r="G68" s="39"/>
       <c r="H68" s="52"/>
     </row>
     <row r="69" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A69" s="51">
-        <v>68</v>
-      </c>
-      <c r="B69" s="107"/>
-      <c r="C69" s="114"/>
-      <c r="D69" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="E69" s="120"/>
-      <c r="F69" s="101"/>
-      <c r="G69" s="89"/>
+        <v>72</v>
+      </c>
+      <c r="B69" s="119"/>
+      <c r="C69" s="111"/>
+      <c r="D69" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="E69" s="119"/>
+      <c r="F69" s="119"/>
+      <c r="G69" s="39"/>
       <c r="H69" s="52"/>
     </row>
     <row r="70" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A70" s="51">
-        <v>69</v>
-      </c>
-      <c r="B70" s="106"/>
-      <c r="C70" s="114"/>
-      <c r="D70" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="E70" s="120"/>
-      <c r="F70" s="102"/>
-      <c r="G70" s="89"/>
+        <v>73</v>
+      </c>
+      <c r="B70" s="119"/>
+      <c r="C70" s="111"/>
+      <c r="D70" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E70" s="119"/>
+      <c r="F70" s="119"/>
+      <c r="G70" s="39"/>
       <c r="H70" s="52"/>
     </row>
-    <row r="71" spans="1:8" s="64" customFormat="1" ht="18" customHeight="1">
+    <row r="71" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A71" s="51">
-        <v>70</v>
-      </c>
-      <c r="B71" s="103" t="s">
-        <v>316</v>
-      </c>
-      <c r="C71" s="105" t="s">
-        <v>77</v>
-      </c>
-      <c r="D71" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="E71" s="103" t="s">
-        <v>152</v>
-      </c>
-      <c r="F71" s="103" t="s">
-        <v>72</v>
-      </c>
-      <c r="G71" s="51"/>
-      <c r="H71" s="51"/>
+        <v>74</v>
+      </c>
+      <c r="B71" s="119"/>
+      <c r="C71" s="111"/>
+      <c r="D71" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E71" s="119"/>
+      <c r="F71" s="119"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="32"/>
     </row>
     <row r="72" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A72" s="51">
-        <v>71</v>
-      </c>
-      <c r="B72" s="115"/>
-      <c r="C72" s="107"/>
-      <c r="D72" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="E72" s="115"/>
-      <c r="F72" s="115"/>
-      <c r="G72" s="39"/>
-      <c r="H72" s="52"/>
+        <v>75</v>
+      </c>
+      <c r="B72" s="119"/>
+      <c r="C72" s="111"/>
+      <c r="D72" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="E72" s="119"/>
+      <c r="F72" s="119"/>
+      <c r="G72" s="30"/>
+      <c r="H72" s="32"/>
     </row>
     <row r="73" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A73" s="51">
-        <v>72</v>
-      </c>
-      <c r="B73" s="115"/>
-      <c r="C73" s="107"/>
-      <c r="D73" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="E73" s="115"/>
-      <c r="F73" s="115"/>
-      <c r="G73" s="39"/>
-      <c r="H73" s="52"/>
+        <v>76</v>
+      </c>
+      <c r="B73" s="119"/>
+      <c r="C73" s="111"/>
+      <c r="D73" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="E73" s="119"/>
+      <c r="F73" s="119"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="32"/>
     </row>
     <row r="74" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A74" s="51">
-        <v>73</v>
-      </c>
-      <c r="B74" s="115"/>
-      <c r="C74" s="107"/>
-      <c r="D74" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="E74" s="115"/>
-      <c r="F74" s="115"/>
-      <c r="G74" s="39"/>
+        <v>77</v>
+      </c>
+      <c r="B74" s="119"/>
+      <c r="C74" s="111"/>
+      <c r="D74" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="E74" s="119"/>
+      <c r="F74" s="119"/>
+      <c r="G74" s="75"/>
       <c r="H74" s="52"/>
     </row>
     <row r="75" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A75" s="51">
-        <v>74</v>
-      </c>
-      <c r="B75" s="115"/>
-      <c r="C75" s="107"/>
-      <c r="D75" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="E75" s="115"/>
-      <c r="F75" s="115"/>
-      <c r="G75" s="30"/>
-      <c r="H75" s="32"/>
+        <v>78</v>
+      </c>
+      <c r="B75" s="119"/>
+      <c r="C75" s="111"/>
+      <c r="D75" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="E75" s="119"/>
+      <c r="F75" s="119"/>
+      <c r="G75" s="75"/>
+      <c r="H75" s="52"/>
     </row>
     <row r="76" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A76" s="51">
-        <v>75</v>
-      </c>
-      <c r="B76" s="115"/>
-      <c r="C76" s="107"/>
-      <c r="D76" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="E76" s="115"/>
-      <c r="F76" s="115"/>
+        <v>79</v>
+      </c>
+      <c r="B76" s="119"/>
+      <c r="C76" s="111"/>
+      <c r="D76" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E76" s="119"/>
+      <c r="F76" s="119"/>
       <c r="G76" s="30"/>
       <c r="H76" s="32"/>
     </row>
     <row r="77" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A77" s="51">
-        <v>76</v>
-      </c>
-      <c r="B77" s="115"/>
-      <c r="C77" s="107"/>
-      <c r="D77" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="E77" s="115"/>
-      <c r="F77" s="115"/>
+        <v>80</v>
+      </c>
+      <c r="B77" s="119"/>
+      <c r="C77" s="111"/>
+      <c r="D77" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E77" s="119"/>
+      <c r="F77" s="119"/>
       <c r="G77" s="30"/>
       <c r="H77" s="32"/>
     </row>
     <row r="78" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A78" s="51">
-        <v>77</v>
-      </c>
-      <c r="B78" s="115"/>
-      <c r="C78" s="107"/>
-      <c r="D78" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="E78" s="115"/>
-      <c r="F78" s="115"/>
-      <c r="G78" s="75"/>
-      <c r="H78" s="52"/>
+        <v>81</v>
+      </c>
+      <c r="B78" s="119"/>
+      <c r="C78" s="110"/>
+      <c r="D78" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="E78" s="108"/>
+      <c r="F78" s="108"/>
+      <c r="G78" s="30"/>
+      <c r="H78" s="32"/>
     </row>
     <row r="79" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A79" s="51">
-        <v>78</v>
-      </c>
-      <c r="B79" s="115"/>
-      <c r="C79" s="107"/>
-      <c r="D79" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="E79" s="115"/>
-      <c r="F79" s="115"/>
-      <c r="G79" s="75"/>
+        <v>82</v>
+      </c>
+      <c r="B79" s="109" t="s">
+        <v>308</v>
+      </c>
+      <c r="C79" s="109" t="s">
+        <v>97</v>
+      </c>
+      <c r="D79" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="E79" s="104" t="s">
+        <v>158</v>
+      </c>
+      <c r="F79" s="104" t="s">
+        <v>70</v>
+      </c>
+      <c r="G79" s="89"/>
       <c r="H79" s="52"/>
     </row>
     <row r="80" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A80" s="51">
-        <v>79</v>
-      </c>
-      <c r="B80" s="115"/>
-      <c r="C80" s="107"/>
-      <c r="D80" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="E80" s="115"/>
-      <c r="F80" s="115"/>
-      <c r="G80" s="30"/>
-      <c r="H80" s="32"/>
+        <v>83</v>
+      </c>
+      <c r="B80" s="111"/>
+      <c r="C80" s="111"/>
+      <c r="D80" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="E80" s="105"/>
+      <c r="F80" s="105"/>
+      <c r="G80" s="89"/>
+      <c r="H80" s="52"/>
     </row>
     <row r="81" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A81" s="51">
-        <v>80</v>
-      </c>
-      <c r="B81" s="115"/>
-      <c r="C81" s="107"/>
+        <v>84</v>
+      </c>
+      <c r="B81" s="111"/>
+      <c r="C81" s="111"/>
       <c r="D81" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="E81" s="115"/>
-      <c r="F81" s="115"/>
-      <c r="G81" s="30"/>
-      <c r="H81" s="32"/>
+        <v>170</v>
+      </c>
+      <c r="E81" s="105"/>
+      <c r="F81" s="105"/>
+      <c r="G81" s="89"/>
+      <c r="H81" s="52"/>
     </row>
     <row r="82" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A82" s="51">
-        <v>81</v>
-      </c>
-      <c r="B82" s="115"/>
-      <c r="C82" s="106"/>
-      <c r="D82" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="E82" s="104"/>
-      <c r="F82" s="104"/>
-      <c r="G82" s="30"/>
-      <c r="H82" s="32"/>
+        <v>85</v>
+      </c>
+      <c r="B82" s="110"/>
+      <c r="C82" s="111"/>
+      <c r="D82" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="E82" s="106"/>
+      <c r="F82" s="106"/>
+      <c r="G82" s="89"/>
+      <c r="H82" s="52"/>
     </row>
     <row r="83" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A83" s="51">
-        <v>82</v>
-      </c>
-      <c r="B83" s="105" t="s">
-        <v>316</v>
-      </c>
-      <c r="C83" s="105" t="s">
-        <v>97</v>
-      </c>
-      <c r="D83" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="E83" s="100" t="s">
-        <v>163</v>
-      </c>
-      <c r="F83" s="100" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83" s="107" t="s">
+        <v>309</v>
+      </c>
+      <c r="C83" s="109" t="s">
+        <v>78</v>
+      </c>
+      <c r="D83" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E83" s="123" t="s">
+        <v>146</v>
+      </c>
+      <c r="F83" s="104" t="s">
         <v>70</v>
       </c>
-      <c r="G83" s="89"/>
-      <c r="H83" s="52"/>
+      <c r="G83" s="30"/>
+      <c r="H83" s="32"/>
     </row>
     <row r="84" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A84" s="51">
-        <v>83</v>
-      </c>
-      <c r="B84" s="107"/>
-      <c r="C84" s="107"/>
-      <c r="D84" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="E84" s="101"/>
-      <c r="F84" s="101"/>
-      <c r="G84" s="89"/>
-      <c r="H84" s="52"/>
+        <v>87</v>
+      </c>
+      <c r="B84" s="119"/>
+      <c r="C84" s="111"/>
+      <c r="D84" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E84" s="124"/>
+      <c r="F84" s="105"/>
+      <c r="G84" s="30"/>
+      <c r="H84" s="32"/>
     </row>
     <row r="85" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A85" s="51">
-        <v>84</v>
-      </c>
-      <c r="B85" s="107"/>
-      <c r="C85" s="107"/>
-      <c r="D85" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="E85" s="101"/>
-      <c r="F85" s="101"/>
-      <c r="G85" s="89"/>
-      <c r="H85" s="52"/>
+        <v>88</v>
+      </c>
+      <c r="B85" s="119"/>
+      <c r="C85" s="111"/>
+      <c r="D85" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="E85" s="124"/>
+      <c r="F85" s="105"/>
+      <c r="G85" s="30"/>
+      <c r="H85" s="32"/>
     </row>
     <row r="86" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A86" s="51">
-        <v>85</v>
-      </c>
-      <c r="B86" s="106"/>
-      <c r="C86" s="107"/>
-      <c r="D86" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="E86" s="102"/>
-      <c r="F86" s="102"/>
-      <c r="G86" s="89"/>
-      <c r="H86" s="52"/>
+        <v>89</v>
+      </c>
+      <c r="B86" s="119"/>
+      <c r="C86" s="111"/>
+      <c r="D86" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E86" s="124"/>
+      <c r="F86" s="105"/>
+      <c r="G86" s="30"/>
+      <c r="H86" s="32"/>
     </row>
     <row r="87" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A87" s="51">
-        <v>86</v>
-      </c>
-      <c r="B87" s="103" t="s">
-        <v>317</v>
-      </c>
-      <c r="C87" s="105" t="s">
-        <v>78</v>
-      </c>
-      <c r="D87" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="E87" s="116" t="s">
-        <v>151</v>
-      </c>
-      <c r="F87" s="100" t="s">
-        <v>70</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="B87" s="119"/>
+      <c r="C87" s="111"/>
+      <c r="D87" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="E87" s="124"/>
+      <c r="F87" s="105"/>
       <c r="G87" s="30"/>
       <c r="H87" s="32"/>
     </row>
     <row r="88" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A88" s="51">
-        <v>87</v>
-      </c>
-      <c r="B88" s="115"/>
-      <c r="C88" s="107"/>
+        <v>91</v>
+      </c>
+      <c r="B88" s="119"/>
+      <c r="C88" s="111"/>
       <c r="D88" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E88" s="117"/>
-      <c r="F88" s="101"/>
+        <v>55</v>
+      </c>
+      <c r="E88" s="124"/>
+      <c r="F88" s="105"/>
       <c r="G88" s="30"/>
       <c r="H88" s="32"/>
     </row>
     <row r="89" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A89" s="51">
-        <v>88</v>
-      </c>
-      <c r="B89" s="115"/>
-      <c r="C89" s="107"/>
-      <c r="D89" s="25" t="s">
-        <v>210</v>
-      </c>
-      <c r="E89" s="117"/>
-      <c r="F89" s="101"/>
+        <v>92</v>
+      </c>
+      <c r="B89" s="119"/>
+      <c r="C89" s="111"/>
+      <c r="D89" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E89" s="124"/>
+      <c r="F89" s="105"/>
       <c r="G89" s="30"/>
       <c r="H89" s="32"/>
     </row>
     <row r="90" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A90" s="51">
-        <v>89</v>
-      </c>
-      <c r="B90" s="115"/>
-      <c r="C90" s="107"/>
+        <v>93</v>
+      </c>
+      <c r="B90" s="108"/>
+      <c r="C90" s="110"/>
       <c r="D90" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="E90" s="117"/>
-      <c r="F90" s="101"/>
+        <v>102</v>
+      </c>
+      <c r="E90" s="125"/>
+      <c r="F90" s="105"/>
       <c r="G90" s="30"/>
       <c r="H90" s="32"/>
     </row>
     <row r="91" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A91" s="51">
-        <v>90</v>
-      </c>
-      <c r="B91" s="115"/>
-      <c r="C91" s="107"/>
+        <v>94</v>
+      </c>
+      <c r="B91" s="107" t="s">
+        <v>312</v>
+      </c>
+      <c r="C91" s="109" t="s">
+        <v>83</v>
+      </c>
       <c r="D91" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="E91" s="117"/>
-      <c r="F91" s="101"/>
+        <v>103</v>
+      </c>
+      <c r="E91" s="109" t="s">
+        <v>148</v>
+      </c>
+      <c r="F91" s="104" t="s">
+        <v>149</v>
+      </c>
       <c r="G91" s="30"/>
       <c r="H91" s="32"/>
     </row>
     <row r="92" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A92" s="51">
-        <v>91</v>
-      </c>
-      <c r="B92" s="115"/>
-      <c r="C92" s="107"/>
-      <c r="D92" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="E92" s="117"/>
-      <c r="F92" s="101"/>
+        <v>95</v>
+      </c>
+      <c r="B92" s="119"/>
+      <c r="C92" s="111"/>
+      <c r="D92" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E92" s="111"/>
+      <c r="F92" s="105"/>
       <c r="G92" s="30"/>
       <c r="H92" s="32"/>
     </row>
     <row r="93" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A93" s="51">
-        <v>92</v>
-      </c>
-      <c r="B93" s="115"/>
-      <c r="C93" s="107"/>
-      <c r="D93" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="E93" s="117"/>
-      <c r="F93" s="101"/>
+        <v>96</v>
+      </c>
+      <c r="B93" s="108"/>
+      <c r="C93" s="110"/>
+      <c r="D93" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="E93" s="110"/>
+      <c r="F93" s="106"/>
       <c r="G93" s="30"/>
       <c r="H93" s="32"/>
     </row>
     <row r="94" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A94" s="51">
-        <v>93</v>
-      </c>
-      <c r="B94" s="104"/>
-      <c r="C94" s="106"/>
-      <c r="D94" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="E94" s="118"/>
-      <c r="F94" s="101"/>
+        <v>97</v>
+      </c>
+      <c r="B94" s="109" t="s">
+        <v>310</v>
+      </c>
+      <c r="C94" s="109" t="s">
+        <v>87</v>
+      </c>
+      <c r="D94" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="E94" s="104" t="s">
+        <v>151</v>
+      </c>
+      <c r="F94" s="104" t="s">
+        <v>150</v>
+      </c>
       <c r="G94" s="30"/>
       <c r="H94" s="32"/>
     </row>
     <row r="95" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A95" s="51">
-        <v>94</v>
-      </c>
-      <c r="B95" s="103" t="s">
-        <v>320</v>
-      </c>
-      <c r="C95" s="105" t="s">
-        <v>83</v>
-      </c>
-      <c r="D95" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="E95" s="105" t="s">
-        <v>153</v>
-      </c>
-      <c r="F95" s="100" t="s">
-        <v>154</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="B95" s="111"/>
+      <c r="C95" s="111"/>
+      <c r="D95" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="E95" s="105"/>
+      <c r="F95" s="105"/>
       <c r="G95" s="30"/>
       <c r="H95" s="32"/>
     </row>
     <row r="96" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A96" s="51">
-        <v>95</v>
-      </c>
-      <c r="B96" s="115"/>
-      <c r="C96" s="107"/>
-      <c r="D96" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="E96" s="107"/>
-      <c r="F96" s="101"/>
+        <v>99</v>
+      </c>
+      <c r="B96" s="111"/>
+      <c r="C96" s="111"/>
+      <c r="D96" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="E96" s="105"/>
+      <c r="F96" s="105"/>
       <c r="G96" s="30"/>
       <c r="H96" s="32"/>
     </row>
     <row r="97" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A97" s="51">
-        <v>96</v>
-      </c>
-      <c r="B97" s="104"/>
-      <c r="C97" s="106"/>
-      <c r="D97" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="E97" s="106"/>
-      <c r="F97" s="102"/>
+        <v>100</v>
+      </c>
+      <c r="B97" s="111"/>
+      <c r="C97" s="111"/>
+      <c r="D97" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="E97" s="105"/>
+      <c r="F97" s="105"/>
       <c r="G97" s="30"/>
       <c r="H97" s="32"/>
     </row>
     <row r="98" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A98" s="51">
-        <v>97</v>
-      </c>
-      <c r="B98" s="105" t="s">
-        <v>318</v>
-      </c>
-      <c r="C98" s="105" t="s">
-        <v>87</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="B98" s="111"/>
+      <c r="C98" s="111"/>
       <c r="D98" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="E98" s="100" t="s">
-        <v>156</v>
-      </c>
-      <c r="F98" s="100" t="s">
-        <v>155</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="E98" s="105"/>
+      <c r="F98" s="105"/>
       <c r="G98" s="30"/>
       <c r="H98" s="32"/>
     </row>
     <row r="99" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A99" s="51">
-        <v>98</v>
-      </c>
-      <c r="B99" s="107"/>
-      <c r="C99" s="107"/>
+        <v>102</v>
+      </c>
+      <c r="B99" s="111"/>
+      <c r="C99" s="111"/>
       <c r="D99" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="E99" s="101"/>
-      <c r="F99" s="101"/>
+        <v>116</v>
+      </c>
+      <c r="E99" s="105"/>
+      <c r="F99" s="105"/>
       <c r="G99" s="30"/>
       <c r="H99" s="32"/>
     </row>
     <row r="100" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A100" s="51">
-        <v>99</v>
-      </c>
-      <c r="B100" s="107"/>
-      <c r="C100" s="107"/>
+        <v>103</v>
+      </c>
+      <c r="B100" s="111"/>
+      <c r="C100" s="111"/>
       <c r="D100" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="E100" s="101"/>
-      <c r="F100" s="101"/>
+        <v>117</v>
+      </c>
+      <c r="E100" s="105"/>
+      <c r="F100" s="105"/>
       <c r="G100" s="30"/>
       <c r="H100" s="32"/>
     </row>
     <row r="101" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A101" s="51">
-        <v>100</v>
-      </c>
-      <c r="B101" s="107"/>
-      <c r="C101" s="107"/>
+        <v>104</v>
+      </c>
+      <c r="B101" s="110"/>
+      <c r="C101" s="110"/>
       <c r="D101" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="E101" s="101"/>
-      <c r="F101" s="101"/>
-      <c r="G101" s="30"/>
-      <c r="H101" s="32"/>
+        <v>314</v>
+      </c>
+      <c r="E101" s="106"/>
+      <c r="F101" s="87"/>
+      <c r="G101" s="89"/>
+      <c r="H101" s="52"/>
     </row>
     <row r="102" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A102" s="51">
-        <v>101</v>
-      </c>
-      <c r="B102" s="107"/>
-      <c r="C102" s="107"/>
+        <v>105</v>
+      </c>
+      <c r="B102" s="109" t="s">
+        <v>311</v>
+      </c>
+      <c r="C102" s="109" t="s">
+        <v>96</v>
+      </c>
       <c r="D102" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="E102" s="101"/>
-      <c r="F102" s="101"/>
-      <c r="G102" s="30"/>
-      <c r="H102" s="32"/>
+        <v>121</v>
+      </c>
+      <c r="E102" s="104" t="s">
+        <v>159</v>
+      </c>
+      <c r="F102" s="104" t="s">
+        <v>160</v>
+      </c>
+      <c r="G102" s="69"/>
+      <c r="H102" s="52"/>
     </row>
     <row r="103" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A103" s="51">
-        <v>102</v>
-      </c>
-      <c r="B103" s="107"/>
-      <c r="C103" s="107"/>
+        <v>106</v>
+      </c>
+      <c r="B103" s="111"/>
+      <c r="C103" s="111"/>
       <c r="D103" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="E103" s="101"/>
-      <c r="F103" s="101"/>
-      <c r="G103" s="30"/>
-      <c r="H103" s="32"/>
+        <v>183</v>
+      </c>
+      <c r="E103" s="105"/>
+      <c r="F103" s="105"/>
+      <c r="G103" s="69"/>
+      <c r="H103" s="52"/>
     </row>
     <row r="104" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A104" s="51">
-        <v>103</v>
-      </c>
-      <c r="B104" s="107"/>
-      <c r="C104" s="107"/>
+        <v>107</v>
+      </c>
+      <c r="B104" s="111"/>
+      <c r="C104" s="111"/>
       <c r="D104" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="E104" s="101"/>
-      <c r="F104" s="101"/>
-      <c r="G104" s="30"/>
-      <c r="H104" s="32"/>
+        <v>122</v>
+      </c>
+      <c r="E104" s="105"/>
+      <c r="F104" s="105"/>
+      <c r="G104" s="69"/>
+      <c r="H104" s="52"/>
     </row>
     <row r="105" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A105" s="51">
-        <v>104</v>
-      </c>
-      <c r="B105" s="106"/>
-      <c r="C105" s="106"/>
+        <v>108</v>
+      </c>
+      <c r="B105" s="111"/>
+      <c r="C105" s="111"/>
       <c r="D105" s="24" t="s">
-        <v>322</v>
-      </c>
-      <c r="E105" s="102"/>
-      <c r="F105" s="87"/>
-      <c r="G105" s="89"/>
+        <v>123</v>
+      </c>
+      <c r="E105" s="105"/>
+      <c r="F105" s="105"/>
+      <c r="G105" s="69"/>
       <c r="H105" s="52"/>
     </row>
     <row r="106" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A106" s="51">
-        <v>105</v>
-      </c>
-      <c r="B106" s="105" t="s">
-        <v>319</v>
-      </c>
-      <c r="C106" s="105" t="s">
-        <v>96</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="B106" s="110"/>
+      <c r="C106" s="110"/>
       <c r="D106" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="E106" s="100" t="s">
-        <v>164</v>
-      </c>
-      <c r="F106" s="100" t="s">
-        <v>165</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="E106" s="106"/>
+      <c r="F106" s="106"/>
       <c r="G106" s="69"/>
       <c r="H106" s="52"/>
     </row>
-    <row r="107" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A107" s="51">
-        <v>106</v>
-      </c>
-      <c r="B107" s="107"/>
-      <c r="C107" s="107"/>
-      <c r="D107" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="E107" s="101"/>
-      <c r="F107" s="101"/>
-      <c r="G107" s="69"/>
-      <c r="H107" s="52"/>
-    </row>
-    <row r="108" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+    <row r="107" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A107" s="51"/>
+      <c r="B107" s="25"/>
+      <c r="C107" s="112" t="s">
+        <v>35</v>
+      </c>
+      <c r="D107" s="113"/>
+      <c r="E107" s="72"/>
+      <c r="F107" s="72"/>
+      <c r="G107" s="73"/>
+      <c r="H107" s="27"/>
+    </row>
+    <row r="108" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A108" s="51">
-        <v>107</v>
-      </c>
-      <c r="B108" s="107"/>
-      <c r="C108" s="107"/>
-      <c r="D108" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="E108" s="101"/>
-      <c r="F108" s="101"/>
-      <c r="G108" s="69"/>
-      <c r="H108" s="52"/>
-    </row>
-    <row r="109" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A109" s="51">
-        <v>108</v>
-      </c>
-      <c r="B109" s="107"/>
-      <c r="C109" s="107"/>
-      <c r="D109" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="E109" s="101"/>
-      <c r="F109" s="101"/>
-      <c r="G109" s="69"/>
-      <c r="H109" s="52"/>
-    </row>
-    <row r="110" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A110" s="51">
-        <v>109</v>
-      </c>
-      <c r="B110" s="106"/>
-      <c r="C110" s="106"/>
-      <c r="D110" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="E110" s="102"/>
-      <c r="F110" s="102"/>
-      <c r="G110" s="69"/>
-      <c r="H110" s="52"/>
+        <v>110</v>
+      </c>
+      <c r="B108" s="73" t="s">
+        <v>47</v>
+      </c>
+      <c r="C108" s="73" t="s">
+        <v>206</v>
+      </c>
+      <c r="D108" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="E108" s="72"/>
+      <c r="F108" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="G108" s="73"/>
+      <c r="H108" s="27"/>
+    </row>
+    <row r="109" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A109" s="107">
+        <v>111</v>
+      </c>
+      <c r="B109" s="109" t="s">
+        <v>48</v>
+      </c>
+      <c r="C109" s="118" t="s">
+        <v>225</v>
+      </c>
+      <c r="D109" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="E109" s="120"/>
+      <c r="F109" s="104" t="s">
+        <v>73</v>
+      </c>
+      <c r="G109" s="30"/>
+      <c r="H109" s="27"/>
+    </row>
+    <row r="110" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A110" s="108"/>
+      <c r="B110" s="110"/>
+      <c r="C110" s="118"/>
+      <c r="D110" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="E110" s="120"/>
+      <c r="F110" s="106"/>
+      <c r="G110" s="30"/>
+      <c r="H110" s="27"/>
     </row>
     <row r="111" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A111" s="51"/>
-      <c r="B111" s="25"/>
-      <c r="C111" s="108" t="s">
-        <v>35</v>
-      </c>
-      <c r="D111" s="109"/>
-      <c r="E111" s="72"/>
-      <c r="F111" s="72"/>
-      <c r="G111" s="73"/>
+      <c r="A111" s="29">
+        <v>112</v>
+      </c>
+      <c r="B111" s="109" t="s">
+        <v>232</v>
+      </c>
+      <c r="C111" s="118" t="s">
+        <v>231</v>
+      </c>
+      <c r="D111" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="E111" s="120"/>
+      <c r="F111" s="104" t="s">
+        <v>71</v>
+      </c>
+      <c r="G111" s="30"/>
       <c r="H111" s="27"/>
     </row>
     <row r="112" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A112" s="51">
-        <v>110</v>
-      </c>
-      <c r="B112" s="73" t="s">
-        <v>47</v>
-      </c>
-      <c r="C112" s="73" t="s">
-        <v>214</v>
-      </c>
+      <c r="A112" s="29">
+        <v>113</v>
+      </c>
+      <c r="B112" s="110"/>
+      <c r="C112" s="118"/>
       <c r="D112" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="E112" s="72"/>
-      <c r="F112" s="72" t="s">
+        <v>230</v>
+      </c>
+      <c r="E112" s="120"/>
+      <c r="F112" s="106"/>
+      <c r="G112" s="30"/>
+      <c r="H112" s="27"/>
+    </row>
+    <row r="113" spans="1:8" s="43" customFormat="1" ht="15" customHeight="1">
+      <c r="A113" s="51">
+        <v>114</v>
+      </c>
+      <c r="B113" s="109" t="s">
+        <v>233</v>
+      </c>
+      <c r="C113" s="118" t="s">
+        <v>228</v>
+      </c>
+      <c r="D113" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E113" s="120"/>
+      <c r="F113" s="104" t="s">
         <v>71</v>
       </c>
-      <c r="G112" s="73"/>
-      <c r="H112" s="27"/>
-    </row>
-    <row r="113" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A113" s="103">
-        <v>111</v>
-      </c>
-      <c r="B113" s="105" t="s">
-        <v>48</v>
-      </c>
-      <c r="C113" s="114" t="s">
-        <v>233</v>
-      </c>
-      <c r="D113" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="E113" s="120"/>
-      <c r="F113" s="100" t="s">
-        <v>73</v>
-      </c>
       <c r="G113" s="30"/>
-      <c r="H113" s="27"/>
-    </row>
-    <row r="114" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A114" s="104"/>
-      <c r="B114" s="106"/>
-      <c r="C114" s="114"/>
-      <c r="D114" s="33" t="s">
-        <v>235</v>
+      <c r="H113" s="32"/>
+    </row>
+    <row r="114" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A114" s="51">
+        <v>115</v>
+      </c>
+      <c r="B114" s="111"/>
+      <c r="C114" s="118"/>
+      <c r="D114" s="25" t="s">
+        <v>18</v>
       </c>
       <c r="E114" s="120"/>
-      <c r="F114" s="102"/>
+      <c r="F114" s="105"/>
       <c r="G114" s="30"/>
-      <c r="H114" s="27"/>
-    </row>
-    <row r="115" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A115" s="29">
-        <v>112</v>
-      </c>
-      <c r="B115" s="105" t="s">
-        <v>240</v>
-      </c>
-      <c r="C115" s="114" t="s">
-        <v>239</v>
-      </c>
+      <c r="H114" s="32"/>
+    </row>
+    <row r="115" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A115" s="51">
+        <v>116</v>
+      </c>
+      <c r="B115" s="110"/>
+      <c r="C115" s="118"/>
       <c r="D115" s="25" t="s">
-        <v>237</v>
+        <v>39</v>
       </c>
       <c r="E115" s="120"/>
-      <c r="F115" s="100" t="s">
-        <v>71</v>
-      </c>
+      <c r="F115" s="106"/>
       <c r="G115" s="30"/>
-      <c r="H115" s="27"/>
-    </row>
-    <row r="116" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A116" s="29">
-        <v>113</v>
-      </c>
-      <c r="B116" s="106"/>
-      <c r="C116" s="114"/>
-      <c r="D116" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="E116" s="120"/>
-      <c r="F116" s="102"/>
+      <c r="H115" s="32"/>
+    </row>
+    <row r="116" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A116" s="29"/>
+      <c r="B116" s="25"/>
+      <c r="C116" s="126" t="s">
+        <v>37</v>
+      </c>
+      <c r="D116" s="126"/>
+      <c r="E116" s="25"/>
+      <c r="F116" s="62"/>
       <c r="G116" s="30"/>
-      <c r="H116" s="27"/>
-    </row>
-    <row r="117" spans="1:8" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A117" s="51">
-        <v>114</v>
-      </c>
-      <c r="B117" s="105" t="s">
-        <v>241</v>
-      </c>
-      <c r="C117" s="114" t="s">
-        <v>236</v>
+      <c r="H116" s="32"/>
+    </row>
+    <row r="117" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A117" s="29">
+        <v>117</v>
+      </c>
+      <c r="B117" s="109" t="s">
+        <v>49</v>
+      </c>
+      <c r="C117" s="118" t="s">
+        <v>205</v>
       </c>
       <c r="D117" s="25" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E117" s="120"/>
-      <c r="F117" s="100" t="s">
-        <v>71</v>
+      <c r="F117" s="104" t="s">
+        <v>74</v>
       </c>
       <c r="G117" s="30"/>
       <c r="H117" s="32"/>
     </row>
     <row r="118" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A118" s="51">
-        <v>115</v>
-      </c>
-      <c r="B118" s="107"/>
-      <c r="C118" s="114"/>
+        <v>118</v>
+      </c>
+      <c r="B118" s="111"/>
+      <c r="C118" s="118"/>
       <c r="D118" s="25" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="E118" s="120"/>
-      <c r="F118" s="101"/>
+      <c r="F118" s="105"/>
       <c r="G118" s="30"/>
       <c r="H118" s="32"/>
     </row>
     <row r="119" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A119" s="51">
-        <v>116</v>
-      </c>
-      <c r="B119" s="106"/>
-      <c r="C119" s="114"/>
-      <c r="D119" s="25" t="s">
-        <v>39</v>
+        <v>119</v>
+      </c>
+      <c r="B119" s="111"/>
+      <c r="C119" s="118"/>
+      <c r="D119" s="38" t="s">
+        <v>65</v>
       </c>
       <c r="E119" s="120"/>
-      <c r="F119" s="102"/>
+      <c r="F119" s="105"/>
       <c r="G119" s="30"/>
       <c r="H119" s="32"/>
     </row>
     <row r="120" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A120" s="29"/>
-      <c r="B120" s="25"/>
-      <c r="C120" s="119" t="s">
-        <v>37</v>
-      </c>
-      <c r="D120" s="119"/>
-      <c r="E120" s="25"/>
-      <c r="F120" s="62"/>
+      <c r="A120" s="51">
+        <v>120</v>
+      </c>
+      <c r="B120" s="110"/>
+      <c r="C120" s="118"/>
+      <c r="D120" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E120" s="120"/>
+      <c r="F120" s="106"/>
       <c r="G120" s="30"/>
       <c r="H120" s="32"/>
     </row>
     <row r="121" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A121" s="29">
-        <v>117</v>
-      </c>
-      <c r="B121" s="105" t="s">
-        <v>49</v>
-      </c>
-      <c r="C121" s="114" t="s">
-        <v>213</v>
+      <c r="A121" s="51">
+        <v>121</v>
+      </c>
+      <c r="B121" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C121" s="30" t="s">
+        <v>36</v>
       </c>
       <c r="D121" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E121" s="120"/>
-      <c r="F121" s="100" t="s">
-        <v>74</v>
+        <v>9</v>
+      </c>
+      <c r="E121" s="25"/>
+      <c r="F121" s="62" t="s">
+        <v>73</v>
       </c>
       <c r="G121" s="30"/>
       <c r="H121" s="32"/>
     </row>
     <row r="122" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A122" s="51">
-        <v>118</v>
-      </c>
-      <c r="B122" s="107"/>
-      <c r="C122" s="114"/>
-      <c r="D122" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="E122" s="120"/>
-      <c r="F122" s="101"/>
+      <c r="A122" s="25"/>
+      <c r="B122" s="25"/>
+      <c r="C122" s="126" t="s">
+        <v>38</v>
+      </c>
+      <c r="D122" s="126"/>
+      <c r="E122" s="25"/>
+      <c r="F122" s="62"/>
       <c r="G122" s="30"/>
       <c r="H122" s="32"/>
     </row>
-    <row r="123" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A123" s="51">
-        <v>119</v>
-      </c>
-      <c r="B123" s="107"/>
-      <c r="C123" s="114"/>
-      <c r="D123" s="38" t="s">
-        <v>65</v>
+    <row r="123" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A123" s="31">
+        <v>122</v>
+      </c>
+      <c r="B123" s="109" t="s">
+        <v>248</v>
+      </c>
+      <c r="C123" s="109" t="s">
+        <v>249</v>
+      </c>
+      <c r="D123" s="94" t="s">
+        <v>263</v>
       </c>
       <c r="E123" s="120"/>
-      <c r="F123" s="101"/>
+      <c r="F123" s="104" t="s">
+        <v>74</v>
+      </c>
       <c r="G123" s="30"/>
       <c r="H123" s="32"/>
     </row>
-    <row r="124" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A124" s="51">
-        <v>120</v>
-      </c>
-      <c r="B124" s="106"/>
-      <c r="C124" s="114"/>
-      <c r="D124" s="25" t="s">
-        <v>64</v>
+    <row r="124" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A124" s="40">
+        <v>123</v>
+      </c>
+      <c r="B124" s="111"/>
+      <c r="C124" s="111"/>
+      <c r="D124" s="93" t="s">
+        <v>250</v>
       </c>
       <c r="E124" s="120"/>
-      <c r="F124" s="102"/>
+      <c r="F124" s="105"/>
       <c r="G124" s="30"/>
       <c r="H124" s="32"/>
     </row>
-    <row r="125" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A125" s="51">
-        <v>121</v>
-      </c>
-      <c r="B125" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="C125" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="D125" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E125" s="25"/>
-      <c r="F125" s="62" t="s">
-        <v>73</v>
-      </c>
+    <row r="125" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A125" s="88">
+        <v>124</v>
+      </c>
+      <c r="B125" s="110"/>
+      <c r="C125" s="110"/>
+      <c r="D125" s="93" t="s">
+        <v>251</v>
+      </c>
+      <c r="E125" s="120"/>
+      <c r="F125" s="106"/>
       <c r="G125" s="30"/>
       <c r="H125" s="32"/>
     </row>
-    <row r="126" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A126" s="25"/>
-      <c r="B126" s="25"/>
-      <c r="C126" s="119" t="s">
-        <v>38</v>
-      </c>
-      <c r="D126" s="119"/>
-      <c r="E126" s="25"/>
-      <c r="F126" s="62"/>
-      <c r="G126" s="30"/>
-      <c r="H126" s="32"/>
+    <row r="126" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A126" s="88">
+        <v>125</v>
+      </c>
+      <c r="B126" s="109" t="s">
+        <v>252</v>
+      </c>
+      <c r="C126" s="109" t="s">
+        <v>254</v>
+      </c>
+      <c r="D126" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="E126" s="104"/>
+      <c r="F126" s="104" t="s">
+        <v>279</v>
+      </c>
+      <c r="G126" s="81"/>
+      <c r="H126" s="52"/>
     </row>
     <row r="127" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A127" s="31">
-        <v>122</v>
-      </c>
-      <c r="B127" s="105" t="s">
+      <c r="A127" s="88">
+        <v>126</v>
+      </c>
+      <c r="B127" s="111"/>
+      <c r="C127" s="111"/>
+      <c r="D127" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="E127" s="105"/>
+      <c r="F127" s="105"/>
+      <c r="G127" s="81"/>
+      <c r="H127" s="52"/>
+    </row>
+    <row r="128" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A128" s="88">
+        <v>127</v>
+      </c>
+      <c r="B128" s="110"/>
+      <c r="C128" s="110"/>
+      <c r="D128" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="C127" s="105" t="s">
-        <v>257</v>
-      </c>
-      <c r="D127" s="94" t="s">
-        <v>271</v>
-      </c>
-      <c r="E127" s="120"/>
-      <c r="F127" s="100" t="s">
-        <v>74</v>
-      </c>
-      <c r="G127" s="30"/>
-      <c r="H127" s="32"/>
-    </row>
-    <row r="128" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A128" s="40">
-        <v>123</v>
-      </c>
-      <c r="B128" s="107"/>
-      <c r="C128" s="107"/>
-      <c r="D128" s="93" t="s">
-        <v>258</v>
-      </c>
-      <c r="E128" s="120"/>
-      <c r="F128" s="101"/>
-      <c r="G128" s="30"/>
-      <c r="H128" s="32"/>
+      <c r="E128" s="106"/>
+      <c r="F128" s="106"/>
+      <c r="G128" s="81"/>
+      <c r="H128" s="52"/>
     </row>
     <row r="129" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A129" s="88">
-        <v>124</v>
-      </c>
-      <c r="B129" s="106"/>
-      <c r="C129" s="106"/>
-      <c r="D129" s="93" t="s">
-        <v>259</v>
+        <v>128</v>
+      </c>
+      <c r="B129" s="109" t="s">
+        <v>264</v>
+      </c>
+      <c r="C129" s="118" t="s">
+        <v>257</v>
+      </c>
+      <c r="D129" s="66" t="s">
+        <v>258</v>
       </c>
       <c r="E129" s="120"/>
-      <c r="F129" s="102"/>
+      <c r="F129" s="104" t="s">
+        <v>71</v>
+      </c>
       <c r="G129" s="30"/>
       <c r="H129" s="32"/>
     </row>
     <row r="130" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A130" s="88">
-        <v>125</v>
-      </c>
-      <c r="B130" s="105" t="s">
-        <v>260</v>
-      </c>
-      <c r="C130" s="105" t="s">
-        <v>262</v>
-      </c>
-      <c r="D130" s="25" t="s">
-        <v>261</v>
-      </c>
-      <c r="E130" s="100"/>
-      <c r="F130" s="100" t="s">
-        <v>287</v>
-      </c>
-      <c r="G130" s="81"/>
-      <c r="H130" s="52"/>
+        <v>129</v>
+      </c>
+      <c r="B130" s="111"/>
+      <c r="C130" s="121"/>
+      <c r="D130" s="66" t="s">
+        <v>259</v>
+      </c>
+      <c r="E130" s="122"/>
+      <c r="F130" s="105"/>
+      <c r="G130" s="30"/>
+      <c r="H130" s="32"/>
     </row>
     <row r="131" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A131" s="88">
-        <v>126</v>
-      </c>
-      <c r="B131" s="107"/>
-      <c r="C131" s="107"/>
+        <v>130</v>
+      </c>
+      <c r="B131" s="111"/>
+      <c r="C131" s="121"/>
       <c r="D131" s="25" t="s">
-        <v>263</v>
-      </c>
-      <c r="E131" s="101"/>
-      <c r="F131" s="101"/>
-      <c r="G131" s="81"/>
+        <v>262</v>
+      </c>
+      <c r="E131" s="122"/>
+      <c r="F131" s="105"/>
+      <c r="G131" s="39"/>
       <c r="H131" s="52"/>
     </row>
     <row r="132" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A132" s="88">
-        <v>127</v>
-      </c>
-      <c r="B132" s="106"/>
-      <c r="C132" s="106"/>
-      <c r="D132" s="25" t="s">
-        <v>264</v>
-      </c>
-      <c r="E132" s="102"/>
-      <c r="F132" s="102"/>
-      <c r="G132" s="81"/>
-      <c r="H132" s="52"/>
+        <v>131</v>
+      </c>
+      <c r="B132" s="111"/>
+      <c r="C132" s="118"/>
+      <c r="D132" s="65" t="s">
+        <v>260</v>
+      </c>
+      <c r="E132" s="120"/>
+      <c r="F132" s="105"/>
+      <c r="G132" s="30"/>
+      <c r="H132" s="32"/>
     </row>
     <row r="133" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A133" s="88">
-        <v>128</v>
-      </c>
-      <c r="B133" s="105" t="s">
-        <v>272</v>
-      </c>
-      <c r="C133" s="114" t="s">
-        <v>265</v>
-      </c>
-      <c r="D133" s="66" t="s">
-        <v>266</v>
+        <v>132</v>
+      </c>
+      <c r="B133" s="110"/>
+      <c r="C133" s="118"/>
+      <c r="D133" s="25" t="s">
+        <v>261</v>
       </c>
       <c r="E133" s="120"/>
-      <c r="F133" s="100" t="s">
-        <v>71</v>
-      </c>
+      <c r="F133" s="106"/>
       <c r="G133" s="30"/>
       <c r="H133" s="32"/>
     </row>
     <row r="134" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A134" s="88">
-        <v>129</v>
-      </c>
-      <c r="B134" s="107"/>
-      <c r="C134" s="121"/>
-      <c r="D134" s="66" t="s">
-        <v>267</v>
-      </c>
-      <c r="E134" s="125"/>
-      <c r="F134" s="101"/>
-      <c r="G134" s="30"/>
-      <c r="H134" s="32"/>
+        <v>133</v>
+      </c>
+      <c r="B134" s="109" t="s">
+        <v>269</v>
+      </c>
+      <c r="C134" s="109" t="s">
+        <v>265</v>
+      </c>
+      <c r="D134" s="95" t="s">
+        <v>268</v>
+      </c>
+      <c r="E134" s="104"/>
+      <c r="F134" s="104" t="s">
+        <v>280</v>
+      </c>
+      <c r="G134" s="81"/>
+      <c r="H134" s="52"/>
     </row>
     <row r="135" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A135" s="88">
-        <v>130</v>
-      </c>
-      <c r="B135" s="107"/>
-      <c r="C135" s="121"/>
-      <c r="D135" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="E135" s="125"/>
-      <c r="F135" s="101"/>
-      <c r="G135" s="39"/>
+        <v>134</v>
+      </c>
+      <c r="B135" s="111"/>
+      <c r="C135" s="111"/>
+      <c r="D135" s="95" t="s">
+        <v>266</v>
+      </c>
+      <c r="E135" s="105"/>
+      <c r="F135" s="105"/>
+      <c r="G135" s="81"/>
       <c r="H135" s="52"/>
     </row>
     <row r="136" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A136" s="88">
-        <v>131</v>
-      </c>
-      <c r="B136" s="107"/>
-      <c r="C136" s="114"/>
-      <c r="D136" s="65" t="s">
-        <v>268</v>
-      </c>
-      <c r="E136" s="120"/>
-      <c r="F136" s="101"/>
-      <c r="G136" s="30"/>
-      <c r="H136" s="32"/>
+        <v>135</v>
+      </c>
+      <c r="B136" s="110"/>
+      <c r="C136" s="110"/>
+      <c r="D136" s="95" t="s">
+        <v>267</v>
+      </c>
+      <c r="E136" s="106"/>
+      <c r="F136" s="106"/>
+      <c r="G136" s="81"/>
+      <c r="H136" s="52"/>
     </row>
     <row r="137" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A137" s="88">
-        <v>132</v>
-      </c>
-      <c r="B137" s="106"/>
-      <c r="C137" s="114"/>
-      <c r="D137" s="25" t="s">
-        <v>269</v>
-      </c>
-      <c r="E137" s="120"/>
-      <c r="F137" s="102"/>
-      <c r="G137" s="30"/>
-      <c r="H137" s="32"/>
+        <v>136</v>
+      </c>
+      <c r="B137" s="109" t="s">
+        <v>271</v>
+      </c>
+      <c r="C137" s="109" t="s">
+        <v>270</v>
+      </c>
+      <c r="D137" s="95" t="s">
+        <v>272</v>
+      </c>
+      <c r="E137" s="104"/>
+      <c r="F137" s="104" t="s">
+        <v>237</v>
+      </c>
+      <c r="G137" s="81"/>
+      <c r="H137" s="52"/>
     </row>
     <row r="138" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
       <c r="A138" s="88">
-        <v>133</v>
-      </c>
-      <c r="B138" s="105" t="s">
-        <v>277</v>
-      </c>
-      <c r="C138" s="105" t="s">
+        <v>137</v>
+      </c>
+      <c r="B138" s="110"/>
+      <c r="C138" s="110"/>
+      <c r="D138" s="95" t="s">
         <v>273</v>
       </c>
-      <c r="D138" s="95" t="s">
-        <v>276</v>
-      </c>
-      <c r="E138" s="100"/>
-      <c r="F138" s="100" t="s">
-        <v>288</v>
-      </c>
+      <c r="E138" s="106"/>
+      <c r="F138" s="106"/>
       <c r="G138" s="81"/>
       <c r="H138" s="52"/>
     </row>
     <row r="139" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A139" s="88">
-        <v>134</v>
-      </c>
-      <c r="B139" s="107"/>
-      <c r="C139" s="107"/>
-      <c r="D139" s="95" t="s">
-        <v>274</v>
-      </c>
-      <c r="E139" s="101"/>
-      <c r="F139" s="101"/>
-      <c r="G139" s="81"/>
-      <c r="H139" s="52"/>
+      <c r="A139" s="25"/>
+      <c r="B139" s="25"/>
+      <c r="C139" s="112" t="s">
+        <v>13</v>
+      </c>
+      <c r="D139" s="113"/>
+      <c r="E139" s="25"/>
+      <c r="F139" s="62"/>
+      <c r="G139" s="30"/>
+      <c r="H139" s="32"/>
     </row>
     <row r="140" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A140" s="88">
-        <v>135</v>
-      </c>
-      <c r="B140" s="106"/>
-      <c r="C140" s="106"/>
-      <c r="D140" s="95" t="s">
-        <v>275</v>
-      </c>
-      <c r="E140" s="102"/>
-      <c r="F140" s="102"/>
-      <c r="G140" s="81"/>
-      <c r="H140" s="52"/>
+      <c r="A140" s="104">
+        <v>138</v>
+      </c>
+      <c r="B140" s="109" t="s">
+        <v>219</v>
+      </c>
+      <c r="C140" s="109" t="s">
+        <v>217</v>
+      </c>
+      <c r="D140" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="E140" s="25"/>
+      <c r="F140" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="G140" s="30"/>
+      <c r="H140" s="32"/>
     </row>
     <row r="141" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A141" s="88">
-        <v>136</v>
-      </c>
-      <c r="B141" s="105" t="s">
-        <v>279</v>
-      </c>
-      <c r="C141" s="105" t="s">
-        <v>278</v>
-      </c>
-      <c r="D141" s="95" t="s">
-        <v>280</v>
-      </c>
-      <c r="E141" s="100"/>
-      <c r="F141" s="100" t="s">
-        <v>245</v>
+      <c r="A141" s="106"/>
+      <c r="B141" s="110"/>
+      <c r="C141" s="110"/>
+      <c r="D141" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="E141" s="25"/>
+      <c r="F141" s="80" t="s">
+        <v>237</v>
       </c>
       <c r="G141" s="81"/>
       <c r="H141" s="52"/>
     </row>
     <row r="142" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A142" s="88">
-        <v>137</v>
-      </c>
-      <c r="B142" s="106"/>
-      <c r="C142" s="106"/>
-      <c r="D142" s="95" t="s">
-        <v>281</v>
-      </c>
-      <c r="E142" s="102"/>
-      <c r="F142" s="102"/>
+      <c r="A142" s="77">
+        <v>139</v>
+      </c>
+      <c r="B142" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="C142" s="79" t="s">
+        <v>221</v>
+      </c>
+      <c r="D142" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="E142" s="25"/>
+      <c r="F142" s="80" t="s">
+        <v>279</v>
+      </c>
       <c r="G142" s="81"/>
       <c r="H142" s="52"/>
     </row>
-    <row r="143" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A143" s="25"/>
-      <c r="B143" s="25"/>
-      <c r="C143" s="108" t="s">
-        <v>13</v>
-      </c>
-      <c r="D143" s="109"/>
+    <row r="143" spans="1:8" s="42" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A143" s="31">
+        <v>140</v>
+      </c>
+      <c r="B143" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="C143" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="D143" s="25" t="s">
+        <v>278</v>
+      </c>
       <c r="E143" s="25"/>
-      <c r="F143" s="62"/>
+      <c r="F143" s="62" t="s">
+        <v>71</v>
+      </c>
       <c r="G143" s="30"/>
       <c r="H143" s="32"/>
     </row>
-    <row r="144" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A144" s="100">
-        <v>138</v>
-      </c>
-      <c r="B144" s="105" t="s">
-        <v>227</v>
-      </c>
-      <c r="C144" s="105" t="s">
-        <v>225</v>
+    <row r="144" spans="1:8" s="42" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A144" s="76">
+        <v>141</v>
+      </c>
+      <c r="B144" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="C144" s="81" t="s">
+        <v>213</v>
       </c>
       <c r="D144" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="E144" s="25"/>
-      <c r="F144" s="62" t="s">
-        <v>74</v>
+        <v>214</v>
+      </c>
+      <c r="E144" s="80"/>
+      <c r="F144" s="76" t="s">
+        <v>71</v>
       </c>
       <c r="G144" s="30"/>
       <c r="H144" s="32"/>
     </row>
     <row r="145" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A145" s="102"/>
-      <c r="B145" s="106"/>
-      <c r="C145" s="106"/>
+      <c r="A145" s="31">
+        <v>142</v>
+      </c>
+      <c r="B145" s="109" t="s">
+        <v>52</v>
+      </c>
+      <c r="C145" s="118" t="s">
+        <v>215</v>
+      </c>
       <c r="D145" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="E145" s="25"/>
-      <c r="F145" s="80" t="s">
-        <v>245</v>
-      </c>
-      <c r="G145" s="81"/>
-      <c r="H145" s="52"/>
+        <v>216</v>
+      </c>
+      <c r="E145" s="120"/>
+      <c r="F145" s="104" t="s">
+        <v>71</v>
+      </c>
+      <c r="G145" s="30"/>
+      <c r="H145" s="32"/>
     </row>
     <row r="146" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A146" s="77">
-        <v>139</v>
-      </c>
-      <c r="B146" s="79" t="s">
-        <v>228</v>
-      </c>
-      <c r="C146" s="79" t="s">
-        <v>229</v>
-      </c>
-      <c r="D146" s="25" t="s">
-        <v>230</v>
-      </c>
-      <c r="E146" s="25"/>
-      <c r="F146" s="80" t="s">
-        <v>287</v>
-      </c>
-      <c r="G146" s="81"/>
-      <c r="H146" s="52"/>
-    </row>
-    <row r="147" spans="1:8" s="42" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A147" s="31">
-        <v>140</v>
-      </c>
-      <c r="B147" s="30" t="s">
-        <v>231</v>
-      </c>
-      <c r="C147" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="D147" s="25" t="s">
-        <v>286</v>
-      </c>
-      <c r="E147" s="25"/>
-      <c r="F147" s="62" t="s">
+      <c r="A146" s="31">
+        <v>143</v>
+      </c>
+      <c r="B146" s="110"/>
+      <c r="C146" s="118"/>
+      <c r="D146" s="66" t="s">
+        <v>238</v>
+      </c>
+      <c r="E146" s="120"/>
+      <c r="F146" s="106"/>
+      <c r="G146" s="30"/>
+      <c r="H146" s="32"/>
+    </row>
+    <row r="147" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A147" s="104">
+        <v>144</v>
+      </c>
+      <c r="B147" s="109" t="s">
+        <v>274</v>
+      </c>
+      <c r="C147" s="121" t="s">
+        <v>224</v>
+      </c>
+      <c r="D147" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="E147" s="122"/>
+      <c r="F147" s="104" t="s">
         <v>71</v>
       </c>
       <c r="G147" s="30"/>
       <c r="H147" s="32"/>
     </row>
-    <row r="148" spans="1:8" s="42" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A148" s="76">
-        <v>141</v>
-      </c>
-      <c r="B148" s="78" t="s">
-        <v>51</v>
-      </c>
-      <c r="C148" s="81" t="s">
-        <v>221</v>
-      </c>
-      <c r="D148" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="E148" s="80"/>
-      <c r="F148" s="76" t="s">
-        <v>71</v>
-      </c>
-      <c r="G148" s="30"/>
-      <c r="H148" s="32"/>
+    <row r="148" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
+      <c r="A148" s="105"/>
+      <c r="B148" s="111"/>
+      <c r="C148" s="121"/>
+      <c r="D148" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E148" s="122"/>
+      <c r="F148" s="105"/>
+      <c r="G148" s="39"/>
+      <c r="H148" s="52"/>
     </row>
     <row r="149" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A149" s="31">
-        <v>142</v>
-      </c>
-      <c r="B149" s="105" t="s">
-        <v>52</v>
-      </c>
-      <c r="C149" s="114" t="s">
-        <v>223</v>
-      </c>
-      <c r="D149" s="25" t="s">
-        <v>224</v>
+      <c r="A149" s="105"/>
+      <c r="B149" s="111"/>
+      <c r="C149" s="118"/>
+      <c r="D149" s="65" t="s">
+        <v>0</v>
       </c>
       <c r="E149" s="120"/>
-      <c r="F149" s="100" t="s">
-        <v>71</v>
-      </c>
+      <c r="F149" s="105"/>
       <c r="G149" s="30"/>
       <c r="H149" s="32"/>
     </row>
     <row r="150" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A150" s="31">
-        <v>143</v>
-      </c>
-      <c r="B150" s="106"/>
-      <c r="C150" s="114"/>
-      <c r="D150" s="66" t="s">
-        <v>246</v>
+      <c r="A150" s="105"/>
+      <c r="B150" s="111"/>
+      <c r="C150" s="118"/>
+      <c r="D150" s="25" t="s">
+        <v>56</v>
       </c>
       <c r="E150" s="120"/>
-      <c r="F150" s="102"/>
+      <c r="F150" s="105"/>
       <c r="G150" s="30"/>
       <c r="H150" s="32"/>
     </row>
     <row r="151" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A151" s="100">
-        <v>144</v>
-      </c>
-      <c r="B151" s="105" t="s">
-        <v>282</v>
-      </c>
-      <c r="C151" s="121" t="s">
-        <v>232</v>
-      </c>
-      <c r="D151" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="E151" s="125"/>
-      <c r="F151" s="100" t="s">
-        <v>71</v>
-      </c>
+      <c r="A151" s="105"/>
+      <c r="B151" s="111"/>
+      <c r="C151" s="118"/>
+      <c r="D151" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E151" s="120"/>
+      <c r="F151" s="105"/>
       <c r="G151" s="30"/>
       <c r="H151" s="32"/>
     </row>
-    <row r="152" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A152" s="101"/>
-      <c r="B152" s="107"/>
-      <c r="C152" s="121"/>
-      <c r="D152" s="65" t="s">
-        <v>69</v>
-      </c>
-      <c r="E152" s="125"/>
-      <c r="F152" s="101"/>
-      <c r="G152" s="39"/>
-      <c r="H152" s="52"/>
-    </row>
-    <row r="153" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A153" s="101"/>
-      <c r="B153" s="107"/>
-      <c r="C153" s="114"/>
-      <c r="D153" s="65" t="s">
-        <v>0</v>
+    <row r="152" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A152" s="105"/>
+      <c r="B152" s="111"/>
+      <c r="C152" s="118"/>
+      <c r="D152" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E152" s="120"/>
+      <c r="F152" s="105"/>
+      <c r="G152" s="30"/>
+      <c r="H152" s="32"/>
+    </row>
+    <row r="153" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A153" s="105"/>
+      <c r="B153" s="111"/>
+      <c r="C153" s="118"/>
+      <c r="D153" s="25" t="s">
+        <v>296</v>
       </c>
       <c r="E153" s="120"/>
-      <c r="F153" s="101"/>
+      <c r="F153" s="105"/>
       <c r="G153" s="30"/>
       <c r="H153" s="32"/>
     </row>
-    <row r="154" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A154" s="101"/>
-      <c r="B154" s="107"/>
-      <c r="C154" s="114"/>
+    <row r="154" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A154" s="106"/>
+      <c r="B154" s="110"/>
+      <c r="C154" s="118"/>
       <c r="D154" s="25" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E154" s="120"/>
-      <c r="F154" s="101"/>
+      <c r="F154" s="106"/>
       <c r="G154" s="30"/>
       <c r="H154" s="32"/>
     </row>
-    <row r="155" spans="1:8" s="42" customFormat="1" ht="18" customHeight="1">
-      <c r="A155" s="101"/>
-      <c r="B155" s="107"/>
-      <c r="C155" s="114"/>
+    <row r="155" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A155" s="104">
+        <v>145</v>
+      </c>
+      <c r="B155" s="109" t="s">
+        <v>275</v>
+      </c>
+      <c r="C155" s="118" t="s">
+        <v>276</v>
+      </c>
       <c r="D155" s="25" t="s">
-        <v>57</v>
+        <v>277</v>
       </c>
       <c r="E155" s="120"/>
-      <c r="F155" s="101"/>
+      <c r="F155" s="104" t="s">
+        <v>73</v>
+      </c>
       <c r="G155" s="30"/>
       <c r="H155" s="32"/>
     </row>
     <row r="156" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A156" s="101"/>
-      <c r="B156" s="107"/>
-      <c r="C156" s="114"/>
-      <c r="D156" s="25" t="s">
-        <v>58</v>
+      <c r="A156" s="106"/>
+      <c r="B156" s="110"/>
+      <c r="C156" s="118"/>
+      <c r="D156" s="96" t="s">
+        <v>281</v>
       </c>
       <c r="E156" s="120"/>
-      <c r="F156" s="101"/>
+      <c r="F156" s="106"/>
       <c r="G156" s="30"/>
       <c r="H156" s="32"/>
     </row>
     <row r="157" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A157" s="101"/>
-      <c r="B157" s="107"/>
-      <c r="C157" s="114"/>
-      <c r="D157" s="25" t="s">
-        <v>304</v>
-      </c>
-      <c r="E157" s="120"/>
-      <c r="F157" s="101"/>
+      <c r="A157" s="22"/>
+      <c r="B157" s="30"/>
+      <c r="C157" s="112" t="s">
+        <v>33</v>
+      </c>
+      <c r="D157" s="113"/>
+      <c r="E157" s="22"/>
+      <c r="F157" s="62"/>
       <c r="G157" s="30"/>
       <c r="H157" s="32"/>
     </row>
     <row r="158" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A158" s="102"/>
-      <c r="B158" s="106"/>
-      <c r="C158" s="114"/>
-      <c r="D158" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="E158" s="120"/>
-      <c r="F158" s="102"/>
+      <c r="A158" s="31">
+        <v>146</v>
+      </c>
+      <c r="B158" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="C158" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="D158" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="E158" s="25"/>
+      <c r="F158" s="62" t="s">
+        <v>75</v>
+      </c>
       <c r="G158" s="30"/>
       <c r="H158" s="32"/>
     </row>
     <row r="159" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A159" s="100">
-        <v>145</v>
-      </c>
-      <c r="B159" s="105" t="s">
-        <v>283</v>
-      </c>
-      <c r="C159" s="114" t="s">
+      <c r="A159" s="31">
+        <v>147</v>
+      </c>
+      <c r="B159" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="C159" s="30" t="s">
         <v>284</v>
       </c>
       <c r="D159" s="25" t="s">
-        <v>285</v>
-      </c>
-      <c r="E159" s="120"/>
-      <c r="F159" s="100" t="s">
-        <v>73</v>
+        <v>287</v>
+      </c>
+      <c r="E159" s="25"/>
+      <c r="F159" s="62" t="s">
+        <v>71</v>
       </c>
       <c r="G159" s="30"/>
       <c r="H159" s="32"/>
     </row>
-    <row r="160" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A160" s="102"/>
-      <c r="B160" s="106"/>
-      <c r="C160" s="114"/>
-      <c r="D160" s="96" t="s">
+    <row r="160" spans="1:8" s="43" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A160" s="74">
+        <v>148</v>
+      </c>
+      <c r="B160" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="C160" s="30" t="s">
         <v>289</v>
       </c>
-      <c r="E160" s="120"/>
-      <c r="F160" s="102"/>
+      <c r="D160" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="E160" s="25"/>
+      <c r="F160" s="62" t="s">
+        <v>71</v>
+      </c>
       <c r="G160" s="30"/>
       <c r="H160" s="32"/>
     </row>
     <row r="161" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A161" s="22"/>
-      <c r="B161" s="30"/>
-      <c r="C161" s="108" t="s">
-        <v>33</v>
-      </c>
-      <c r="D161" s="109"/>
-      <c r="E161" s="22"/>
-      <c r="F161" s="62"/>
+      <c r="A161" s="74">
+        <v>149</v>
+      </c>
+      <c r="B161" s="109" t="s">
+        <v>293</v>
+      </c>
+      <c r="C161" s="118" t="s">
+        <v>291</v>
+      </c>
+      <c r="D161" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="E161" s="120"/>
+      <c r="F161" s="104" t="s">
+        <v>76</v>
+      </c>
       <c r="G161" s="30"/>
       <c r="H161" s="32"/>
     </row>
     <row r="162" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A162" s="31">
-        <v>146</v>
-      </c>
-      <c r="B162" s="30" t="s">
-        <v>294</v>
-      </c>
-      <c r="C162" s="30" t="s">
-        <v>290</v>
-      </c>
-      <c r="D162" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="E162" s="25"/>
-      <c r="F162" s="62" t="s">
-        <v>75</v>
-      </c>
+      <c r="A162" s="74">
+        <v>150</v>
+      </c>
+      <c r="B162" s="111"/>
+      <c r="C162" s="118"/>
+      <c r="D162" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="E162" s="120"/>
+      <c r="F162" s="105"/>
       <c r="G162" s="30"/>
       <c r="H162" s="32"/>
     </row>
     <row r="163" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A163" s="31">
-        <v>147</v>
-      </c>
-      <c r="B163" s="30" t="s">
-        <v>293</v>
-      </c>
-      <c r="C163" s="30" t="s">
-        <v>292</v>
-      </c>
+      <c r="A163" s="88">
+        <v>151</v>
+      </c>
+      <c r="B163" s="111"/>
+      <c r="C163" s="118"/>
       <c r="D163" s="25" t="s">
-        <v>295</v>
-      </c>
-      <c r="E163" s="25"/>
-      <c r="F163" s="62" t="s">
-        <v>71</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="E163" s="120"/>
+      <c r="F163" s="105"/>
       <c r="G163" s="30"/>
       <c r="H163" s="32"/>
     </row>
-    <row r="164" spans="1:8" s="43" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A164" s="74">
-        <v>148</v>
-      </c>
-      <c r="B164" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="C164" s="30" t="s">
-        <v>297</v>
-      </c>
+    <row r="164" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
+      <c r="A164" s="88">
+        <v>152</v>
+      </c>
+      <c r="B164" s="110"/>
+      <c r="C164" s="118"/>
       <c r="D164" s="25" t="s">
-        <v>298</v>
-      </c>
-      <c r="E164" s="25"/>
-      <c r="F164" s="62" t="s">
-        <v>71</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="E164" s="120"/>
+      <c r="F164" s="106"/>
       <c r="G164" s="30"/>
       <c r="H164" s="32"/>
     </row>
     <row r="165" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A165" s="74">
-        <v>149</v>
-      </c>
-      <c r="B165" s="105" t="s">
-        <v>301</v>
-      </c>
-      <c r="C165" s="114" t="s">
-        <v>299</v>
-      </c>
-      <c r="D165" s="25" t="s">
-        <v>302</v>
-      </c>
-      <c r="E165" s="120"/>
-      <c r="F165" s="100" t="s">
-        <v>76</v>
-      </c>
-      <c r="G165" s="30"/>
-      <c r="H165" s="32"/>
+      <c r="A165" s="80"/>
+      <c r="B165" s="81"/>
+      <c r="C165" s="112" t="s">
+        <v>292</v>
+      </c>
+      <c r="D165" s="113"/>
+      <c r="E165" s="80"/>
+      <c r="F165" s="80"/>
+      <c r="G165" s="81"/>
+      <c r="H165" s="52"/>
     </row>
     <row r="166" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A166" s="74">
-        <v>150</v>
-      </c>
-      <c r="B166" s="107"/>
-      <c r="C166" s="114"/>
+      <c r="A166" s="80">
+        <v>153</v>
+      </c>
+      <c r="B166" s="109" t="s">
+        <v>234</v>
+      </c>
+      <c r="C166" s="109" t="s">
+        <v>235</v>
+      </c>
       <c r="D166" s="25" t="s">
-        <v>303</v>
-      </c>
-      <c r="E166" s="120"/>
-      <c r="F166" s="101"/>
-      <c r="G166" s="30"/>
-      <c r="H166" s="32"/>
+        <v>236</v>
+      </c>
+      <c r="E166" s="104"/>
+      <c r="F166" s="104" t="s">
+        <v>237</v>
+      </c>
+      <c r="G166" s="81"/>
+      <c r="H166" s="52"/>
     </row>
     <row r="167" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A167" s="88">
-        <v>151</v>
-      </c>
-      <c r="B167" s="107"/>
-      <c r="C167" s="114"/>
+      <c r="A167" s="51">
+        <v>154</v>
+      </c>
+      <c r="B167" s="111"/>
+      <c r="C167" s="111"/>
       <c r="D167" s="25" t="s">
-        <v>305</v>
-      </c>
-      <c r="E167" s="120"/>
-      <c r="F167" s="101"/>
-      <c r="G167" s="30"/>
-      <c r="H167" s="32"/>
+        <v>18</v>
+      </c>
+      <c r="E167" s="105"/>
+      <c r="F167" s="105"/>
+      <c r="G167" s="81"/>
+      <c r="H167" s="52"/>
     </row>
     <row r="168" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A168" s="88">
-        <v>152</v>
-      </c>
-      <c r="B168" s="106"/>
-      <c r="C168" s="114"/>
+      <c r="A168" s="51">
+        <v>155</v>
+      </c>
+      <c r="B168" s="110"/>
+      <c r="C168" s="110"/>
       <c r="D168" s="25" t="s">
-        <v>321</v>
-      </c>
-      <c r="E168" s="120"/>
-      <c r="F168" s="102"/>
-      <c r="G168" s="30"/>
-      <c r="H168" s="32"/>
+        <v>39</v>
+      </c>
+      <c r="E168" s="106"/>
+      <c r="F168" s="106"/>
+      <c r="G168" s="81"/>
+      <c r="H168" s="52"/>
     </row>
     <row r="169" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A169" s="80"/>
       <c r="B169" s="81"/>
-      <c r="C169" s="108" t="s">
-        <v>300</v>
-      </c>
-      <c r="D169" s="109"/>
+      <c r="C169" s="112" t="s">
+        <v>239</v>
+      </c>
+      <c r="D169" s="113"/>
       <c r="E169" s="80"/>
       <c r="F169" s="80"/>
       <c r="G169" s="81"/>
@@ -12878,125 +12874,105 @@
     </row>
     <row r="170" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
       <c r="A170" s="80">
-        <v>153</v>
-      </c>
-      <c r="B170" s="105" t="s">
-        <v>242</v>
-      </c>
-      <c r="C170" s="105" t="s">
-        <v>243</v>
+        <v>156</v>
+      </c>
+      <c r="B170" s="81" t="s">
+        <v>240</v>
+      </c>
+      <c r="C170" s="81" t="s">
+        <v>241</v>
       </c>
       <c r="D170" s="25" t="s">
-        <v>244</v>
-      </c>
-      <c r="E170" s="100"/>
-      <c r="F170" s="100" t="s">
-        <v>245</v>
+        <v>247</v>
+      </c>
+      <c r="E170" s="104"/>
+      <c r="F170" s="80" t="s">
+        <v>237</v>
       </c>
       <c r="G170" s="81"/>
       <c r="H170" s="52"/>
     </row>
-    <row r="171" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A171" s="51">
-        <v>154</v>
-      </c>
-      <c r="B171" s="107"/>
-      <c r="C171" s="107"/>
-      <c r="D171" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E171" s="101"/>
-      <c r="F171" s="101"/>
-      <c r="G171" s="81"/>
-      <c r="H171" s="52"/>
-    </row>
-    <row r="172" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A172" s="51">
-        <v>155</v>
-      </c>
-      <c r="B172" s="106"/>
-      <c r="C172" s="106"/>
-      <c r="D172" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E172" s="102"/>
-      <c r="F172" s="102"/>
-      <c r="G172" s="81"/>
-      <c r="H172" s="52"/>
-    </row>
-    <row r="173" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A173" s="80"/>
-      <c r="B173" s="81"/>
-      <c r="C173" s="108" t="s">
-        <v>247</v>
-      </c>
-      <c r="D173" s="109"/>
-      <c r="E173" s="80"/>
-      <c r="F173" s="80"/>
-      <c r="G173" s="81"/>
-      <c r="H173" s="52"/>
-    </row>
-    <row r="174" spans="1:8" s="43" customFormat="1" ht="18" customHeight="1">
-      <c r="A174" s="80">
-        <v>156</v>
-      </c>
-      <c r="B174" s="81" t="s">
-        <v>248</v>
-      </c>
-      <c r="C174" s="81" t="s">
-        <v>249</v>
-      </c>
-      <c r="D174" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="E174" s="100"/>
-      <c r="F174" s="80" t="s">
+    <row r="171" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="A171" s="90">
+        <v>157</v>
+      </c>
+      <c r="B171" s="116" t="s">
+        <v>243</v>
+      </c>
+      <c r="C171" s="114" t="s">
+        <v>242</v>
+      </c>
+      <c r="D171" s="92" t="s">
+        <v>244</v>
+      </c>
+      <c r="E171" s="105"/>
+      <c r="F171" s="90" t="s">
+        <v>237</v>
+      </c>
+      <c r="G171" s="91"/>
+      <c r="H171" s="91"/>
+    </row>
+    <row r="172" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="A172" s="80">
+        <v>158</v>
+      </c>
+      <c r="B172" s="117"/>
+      <c r="C172" s="115"/>
+      <c r="D172" s="92" t="s">
         <v>245</v>
       </c>
-      <c r="G174" s="81"/>
-      <c r="H174" s="52"/>
+      <c r="E172" s="106"/>
+      <c r="F172" s="90" t="s">
+        <v>246</v>
+      </c>
+      <c r="G172" s="91"/>
+      <c r="H172" s="91"/>
+    </row>
+    <row r="173" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="A173" s="53"/>
+      <c r="B173" s="54"/>
+      <c r="C173" s="55"/>
+      <c r="D173" s="57"/>
+      <c r="E173" s="56"/>
+      <c r="F173" s="53"/>
+      <c r="G173" s="54"/>
+      <c r="H173" s="54"/>
+    </row>
+    <row r="174" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+      <c r="A174" s="53"/>
+      <c r="B174" s="54"/>
+      <c r="C174" s="55"/>
+      <c r="D174" s="56"/>
+      <c r="E174" s="56"/>
+      <c r="F174" s="53"/>
+      <c r="G174" s="54"/>
+      <c r="H174" s="54"/>
     </row>
     <row r="175" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A175" s="90">
-        <v>157</v>
-      </c>
-      <c r="B175" s="112" t="s">
-        <v>251</v>
-      </c>
-      <c r="C175" s="110" t="s">
-        <v>250</v>
-      </c>
-      <c r="D175" s="92" t="s">
-        <v>252</v>
-      </c>
-      <c r="E175" s="101"/>
-      <c r="F175" s="90" t="s">
-        <v>245</v>
-      </c>
-      <c r="G175" s="91"/>
-      <c r="H175" s="91"/>
+      <c r="A175" s="53"/>
+      <c r="B175" s="54"/>
+      <c r="C175" s="55"/>
+      <c r="D175" s="59"/>
+      <c r="E175" s="56"/>
+      <c r="F175" s="53"/>
+      <c r="G175" s="54"/>
+      <c r="H175" s="54"/>
     </row>
     <row r="176" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A176" s="80">
-        <v>158</v>
-      </c>
-      <c r="B176" s="113"/>
-      <c r="C176" s="111"/>
-      <c r="D176" s="92" t="s">
-        <v>253</v>
-      </c>
-      <c r="E176" s="102"/>
-      <c r="F176" s="90" t="s">
-        <v>254</v>
-      </c>
-      <c r="G176" s="91"/>
-      <c r="H176" s="91"/>
+      <c r="A176" s="53"/>
+      <c r="B176" s="54"/>
+      <c r="C176" s="55"/>
+      <c r="D176" s="60"/>
+      <c r="E176" s="56"/>
+      <c r="F176" s="53"/>
+      <c r="G176" s="54"/>
+      <c r="H176" s="54"/>
     </row>
     <row r="177" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
       <c r="A177" s="53"/>
       <c r="B177" s="54"/>
       <c r="C177" s="55"/>
-      <c r="D177" s="57"/>
+      <c r="D177" s="55"/>
       <c r="E177" s="56"/>
       <c r="F177" s="53"/>
       <c r="G177" s="54"/>
@@ -13016,7 +12992,7 @@
       <c r="A179" s="53"/>
       <c r="B179" s="54"/>
       <c r="C179" s="55"/>
-      <c r="D179" s="59"/>
+      <c r="D179" s="55"/>
       <c r="E179" s="56"/>
       <c r="F179" s="53"/>
       <c r="G179" s="54"/>
@@ -13026,7 +13002,7 @@
       <c r="A180" s="53"/>
       <c r="B180" s="54"/>
       <c r="C180" s="55"/>
-      <c r="D180" s="60"/>
+      <c r="D180" s="55"/>
       <c r="E180" s="56"/>
       <c r="F180" s="53"/>
       <c r="G180" s="54"/>
@@ -13035,92 +13011,68 @@
     <row r="181" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
       <c r="A181" s="53"/>
       <c r="B181" s="54"/>
-      <c r="C181" s="55"/>
-      <c r="D181" s="55"/>
-      <c r="E181" s="56"/>
+      <c r="C181" s="58"/>
+      <c r="D181" s="56"/>
+      <c r="E181" s="53"/>
       <c r="F181" s="53"/>
       <c r="G181" s="54"/>
       <c r="H181" s="54"/>
     </row>
     <row r="182" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A182" s="53"/>
-      <c r="B182" s="54"/>
+      <c r="A182" s="55"/>
+      <c r="B182" s="55"/>
       <c r="C182" s="55"/>
-      <c r="D182" s="56"/>
-      <c r="E182" s="56"/>
-      <c r="F182" s="53"/>
-      <c r="G182" s="54"/>
-      <c r="H182" s="54"/>
+      <c r="D182" s="61"/>
+      <c r="E182" s="55"/>
+      <c r="F182" s="58"/>
+      <c r="G182" s="55"/>
+      <c r="H182" s="55"/>
     </row>
     <row r="183" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A183" s="53"/>
-      <c r="B183" s="54"/>
       <c r="C183" s="55"/>
-      <c r="D183" s="55"/>
-      <c r="E183" s="56"/>
-      <c r="F183" s="53"/>
-      <c r="G183" s="54"/>
-      <c r="H183" s="54"/>
+      <c r="D183" s="45"/>
+      <c r="F183" s="67"/>
     </row>
     <row r="184" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A184" s="53"/>
-      <c r="B184" s="54"/>
       <c r="C184" s="55"/>
-      <c r="D184" s="55"/>
-      <c r="E184" s="56"/>
-      <c r="F184" s="53"/>
-      <c r="G184" s="54"/>
-      <c r="H184" s="54"/>
+      <c r="D184" s="45"/>
+      <c r="F184" s="67"/>
     </row>
     <row r="185" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A185" s="53"/>
-      <c r="B185" s="54"/>
-      <c r="C185" s="58"/>
-      <c r="D185" s="56"/>
-      <c r="E185" s="53"/>
-      <c r="F185" s="53"/>
-      <c r="G185" s="54"/>
-      <c r="H185" s="54"/>
+      <c r="C185" s="55"/>
+      <c r="D185" s="45"/>
+      <c r="F185" s="67"/>
     </row>
     <row r="186" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="A186" s="55"/>
-      <c r="B186" s="55"/>
       <c r="C186" s="55"/>
-      <c r="D186" s="61"/>
-      <c r="E186" s="55"/>
-      <c r="F186" s="58"/>
-      <c r="G186" s="55"/>
-      <c r="H186" s="55"/>
+      <c r="D186" s="45"/>
+      <c r="F186" s="67"/>
     </row>
     <row r="187" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="C187" s="55"/>
       <c r="D187" s="45"/>
       <c r="F187" s="67"/>
     </row>
     <row r="188" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="C188" s="55"/>
       <c r="D188" s="45"/>
       <c r="F188" s="67"/>
     </row>
     <row r="189" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="C189" s="55"/>
       <c r="D189" s="45"/>
       <c r="F189" s="67"/>
     </row>
-    <row r="190" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
-      <c r="C190" s="55"/>
+    <row r="190" spans="1:8" s="44" customFormat="1" ht="26.25" customHeight="1">
       <c r="D190" s="45"/>
       <c r="F190" s="67"/>
     </row>
-    <row r="191" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+    <row r="191" spans="1:8" s="44" customFormat="1" ht="26.25" customHeight="1">
       <c r="D191" s="45"/>
       <c r="F191" s="67"/>
     </row>
-    <row r="192" spans="1:8" s="44" customFormat="1" ht="18" customHeight="1">
+    <row r="192" spans="1:8" s="44" customFormat="1" ht="26.25" customHeight="1">
       <c r="D192" s="45"/>
       <c r="F192" s="67"/>
     </row>
-    <row r="193" spans="4:6" s="44" customFormat="1" ht="18" customHeight="1">
+    <row r="193" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
       <c r="D193" s="45"/>
       <c r="F193" s="67"/>
     </row>
@@ -13132,9 +13084,9 @@
       <c r="D195" s="45"/>
       <c r="F195" s="67"/>
     </row>
-    <row r="196" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
-      <c r="D196" s="45"/>
-      <c r="F196" s="67"/>
+    <row r="196" spans="4:6" s="46" customFormat="1" ht="26.25" customHeight="1">
+      <c r="D196" s="47"/>
+      <c r="F196" s="68"/>
     </row>
     <row r="197" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
       <c r="D197" s="45"/>
@@ -13148,179 +13100,159 @@
       <c r="D199" s="45"/>
       <c r="F199" s="67"/>
     </row>
-    <row r="200" spans="4:6" s="46" customFormat="1" ht="26.25" customHeight="1">
-      <c r="D200" s="47"/>
-      <c r="F200" s="68"/>
-    </row>
-    <row r="201" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
-      <c r="D201" s="45"/>
-      <c r="F201" s="67"/>
-    </row>
-    <row r="202" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
-      <c r="D202" s="45"/>
-      <c r="F202" s="67"/>
-    </row>
-    <row r="203" spans="4:6" s="44" customFormat="1" ht="26.25" customHeight="1">
-      <c r="D203" s="45"/>
-      <c r="F203" s="67"/>
-    </row>
   </sheetData>
-  <mergeCells count="155">
-    <mergeCell ref="B54:B60"/>
-    <mergeCell ref="C54:C60"/>
-    <mergeCell ref="E54:E60"/>
-    <mergeCell ref="F54:F60"/>
-    <mergeCell ref="B61:B70"/>
-    <mergeCell ref="C61:C70"/>
-    <mergeCell ref="E61:E70"/>
-    <mergeCell ref="F61:F70"/>
-    <mergeCell ref="B83:B86"/>
-    <mergeCell ref="C83:C86"/>
-    <mergeCell ref="E83:E86"/>
-    <mergeCell ref="F83:F86"/>
-    <mergeCell ref="C71:C82"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="C43:C47"/>
-    <mergeCell ref="E43:E47"/>
-    <mergeCell ref="F43:F47"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="E48:E51"/>
-    <mergeCell ref="F48:F51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="C27:C32"/>
-    <mergeCell ref="E27:E32"/>
-    <mergeCell ref="F27:F32"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="C33:C37"/>
-    <mergeCell ref="E33:E37"/>
-    <mergeCell ref="F33:F37"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="E38:E42"/>
-    <mergeCell ref="F38:F42"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="F9:F11"/>
+  <mergeCells count="151">
+    <mergeCell ref="B57:B66"/>
+    <mergeCell ref="C57:C66"/>
+    <mergeCell ref="E57:E66"/>
+    <mergeCell ref="F57:F66"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="C79:C82"/>
+    <mergeCell ref="E79:E82"/>
+    <mergeCell ref="F79:F82"/>
+    <mergeCell ref="C67:C78"/>
+    <mergeCell ref="F67:F78"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="E39:E43"/>
+    <mergeCell ref="F39:F43"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="C44:C48"/>
+    <mergeCell ref="E44:E48"/>
+    <mergeCell ref="F44:F48"/>
+    <mergeCell ref="B50:B56"/>
+    <mergeCell ref="C50:C56"/>
+    <mergeCell ref="E50:E56"/>
+    <mergeCell ref="F50:F56"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="F29:F33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="F34:F38"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="C4:C8"/>
     <mergeCell ref="E4:E8"/>
     <mergeCell ref="F4:F8"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="C16:C21"/>
-    <mergeCell ref="E16:E21"/>
-    <mergeCell ref="F16:F21"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="E15:E20"/>
+    <mergeCell ref="F15:F20"/>
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="E109:E110"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F98:F104"/>
-    <mergeCell ref="B71:B82"/>
-    <mergeCell ref="B87:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="C149:C150"/>
-    <mergeCell ref="E117:E119"/>
-    <mergeCell ref="E121:E124"/>
-    <mergeCell ref="E127:E129"/>
-    <mergeCell ref="E133:E137"/>
-    <mergeCell ref="E149:E150"/>
-    <mergeCell ref="B98:B105"/>
-    <mergeCell ref="F127:F129"/>
-    <mergeCell ref="F133:F137"/>
-    <mergeCell ref="F149:F150"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="F115:F116"/>
-    <mergeCell ref="F117:F119"/>
-    <mergeCell ref="F121:F124"/>
-    <mergeCell ref="F138:F140"/>
-    <mergeCell ref="F141:F142"/>
-    <mergeCell ref="F71:F82"/>
-    <mergeCell ref="E87:E94"/>
-    <mergeCell ref="F87:F94"/>
-    <mergeCell ref="E95:E97"/>
-    <mergeCell ref="F95:F97"/>
-    <mergeCell ref="C127:C129"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="C161:D161"/>
-    <mergeCell ref="C143:D143"/>
-    <mergeCell ref="C144:C145"/>
-    <mergeCell ref="C130:C132"/>
-    <mergeCell ref="C138:C140"/>
-    <mergeCell ref="C141:C142"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="C117:C119"/>
-    <mergeCell ref="C121:C124"/>
-    <mergeCell ref="E159:E160"/>
-    <mergeCell ref="C159:C160"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="C133:C137"/>
-    <mergeCell ref="C98:C105"/>
-    <mergeCell ref="C173:D173"/>
-    <mergeCell ref="C175:C176"/>
-    <mergeCell ref="B175:B176"/>
-    <mergeCell ref="C165:C168"/>
-    <mergeCell ref="E174:E176"/>
-    <mergeCell ref="C95:C97"/>
-    <mergeCell ref="C87:C94"/>
-    <mergeCell ref="C106:C110"/>
-    <mergeCell ref="E71:E82"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="B151:B158"/>
-    <mergeCell ref="B130:B132"/>
-    <mergeCell ref="B138:B140"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B106:B110"/>
-    <mergeCell ref="E165:E168"/>
-    <mergeCell ref="E98:E105"/>
-    <mergeCell ref="C151:C158"/>
-    <mergeCell ref="E151:E158"/>
-    <mergeCell ref="B165:B168"/>
-    <mergeCell ref="B121:B124"/>
-    <mergeCell ref="B127:B129"/>
-    <mergeCell ref="B133:B137"/>
-    <mergeCell ref="B170:B172"/>
-    <mergeCell ref="C170:C172"/>
+    <mergeCell ref="F94:F100"/>
+    <mergeCell ref="B67:B78"/>
+    <mergeCell ref="B83:B90"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="E113:E115"/>
+    <mergeCell ref="E117:E120"/>
+    <mergeCell ref="E123:E125"/>
+    <mergeCell ref="E129:E133"/>
+    <mergeCell ref="E145:E146"/>
+    <mergeCell ref="B94:B101"/>
+    <mergeCell ref="F123:F125"/>
+    <mergeCell ref="F129:F133"/>
+    <mergeCell ref="F145:F146"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="F113:F115"/>
+    <mergeCell ref="F117:F120"/>
+    <mergeCell ref="F134:F136"/>
+    <mergeCell ref="F137:F138"/>
+    <mergeCell ref="E83:E90"/>
+    <mergeCell ref="F83:F90"/>
+    <mergeCell ref="E91:E93"/>
+    <mergeCell ref="F91:F93"/>
+    <mergeCell ref="C123:C125"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="C126:C128"/>
+    <mergeCell ref="C134:C136"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="C113:C115"/>
+    <mergeCell ref="C117:C120"/>
+    <mergeCell ref="E155:E156"/>
+    <mergeCell ref="C155:C156"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="C129:C133"/>
+    <mergeCell ref="C94:C101"/>
+    <mergeCell ref="E102:E106"/>
+    <mergeCell ref="C169:D169"/>
+    <mergeCell ref="C171:C172"/>
+    <mergeCell ref="B171:B172"/>
+    <mergeCell ref="C161:C164"/>
     <mergeCell ref="E170:E172"/>
-    <mergeCell ref="F170:F172"/>
-    <mergeCell ref="A151:A158"/>
-    <mergeCell ref="C169:D169"/>
-    <mergeCell ref="F159:F160"/>
-    <mergeCell ref="F165:F168"/>
-    <mergeCell ref="F151:F158"/>
-    <mergeCell ref="F130:F132"/>
-    <mergeCell ref="E130:E132"/>
-    <mergeCell ref="E138:E140"/>
-    <mergeCell ref="E141:E142"/>
-    <mergeCell ref="E106:E110"/>
-    <mergeCell ref="F106:F110"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="A159:A160"/>
-    <mergeCell ref="A144:A145"/>
-    <mergeCell ref="B144:B145"/>
-    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="C91:C93"/>
+    <mergeCell ref="C83:C90"/>
+    <mergeCell ref="C102:C106"/>
+    <mergeCell ref="E67:E78"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="B147:B154"/>
+    <mergeCell ref="B126:B128"/>
+    <mergeCell ref="B134:B136"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="B113:B115"/>
+    <mergeCell ref="B102:B106"/>
+    <mergeCell ref="E161:E164"/>
+    <mergeCell ref="E94:E101"/>
+    <mergeCell ref="C147:C154"/>
+    <mergeCell ref="E147:E154"/>
+    <mergeCell ref="B161:B164"/>
+    <mergeCell ref="B117:B120"/>
+    <mergeCell ref="F102:F106"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="A155:A156"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="B123:B125"/>
+    <mergeCell ref="B129:B133"/>
+    <mergeCell ref="B166:B168"/>
+    <mergeCell ref="C166:C168"/>
+    <mergeCell ref="E166:E168"/>
+    <mergeCell ref="F166:F168"/>
+    <mergeCell ref="A147:A154"/>
+    <mergeCell ref="C165:D165"/>
+    <mergeCell ref="F155:F156"/>
+    <mergeCell ref="F161:F164"/>
+    <mergeCell ref="F147:F154"/>
+    <mergeCell ref="F126:F128"/>
+    <mergeCell ref="E126:E128"/>
+    <mergeCell ref="E134:E136"/>
+    <mergeCell ref="E137:E138"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -13365,7 +13297,7 @@
       <c r="D8" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="128" t="s">
+      <c r="E8" s="132" t="s">
         <v>45</v>
       </c>
     </row>
@@ -13373,13 +13305,13 @@
       <c r="D9" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="128"/>
+      <c r="E9" s="132"/>
     </row>
     <row r="10" spans="4:5">
       <c r="D10" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="129"/>
+      <c r="E10" s="133"/>
     </row>
     <row r="14" spans="4:5" ht="12.75" thickBot="1">
       <c r="D14" s="35" t="s">
@@ -13393,7 +13325,7 @@
       <c r="D15" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="128" t="s">
+      <c r="E15" s="132" t="s">
         <v>45</v>
       </c>
     </row>
@@ -13401,13 +13333,13 @@
       <c r="D16" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="128"/>
+      <c r="E16" s="132"/>
     </row>
     <row r="17" spans="4:5">
       <c r="D17" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="129"/>
+      <c r="E17" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/문서 관리/01. 요구사항명세서.xlsx
+++ b/문서 관리/01. 요구사항명세서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BIG603-04\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BIG603-11\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,38 +26,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="310">
-  <si>
-    <t>시스템 운영상 교육이 필요하다고 판단되어 발주기관이 교육요구 시 협의를 통해 교육 시행</t>
-  </si>
-  <si>
-    <t>사용자 인증 정보, 주민등록번호, 계좌번호, 패스워드 등은 소스코드에 직접 하드코딩하지 않음</t>
-  </si>
-  <si>
-    <t>계약상대자가 사업 수행 과정에서 취득 또는 작성하는 성과물 및 산출물 일체에 대한 소유권은 센터에 있음</t>
-  </si>
-  <si>
-    <t>아래의 사항에 대하여 계약을 해지할 수 있으면 계약을 해지함에 있어 수행업체는 이의를 제기할 수 없음</t>
-  </si>
-  <si>
-    <t>계약상대자는 용역에 참여하는 모든 인력에 대하여 보안각서와 제반서류를 제출하고, 사업 수행 대표자는 용역에 투입되는 인력 전체에 대한 보안상 총괄책임을 져야 함</t>
-  </si>
-  <si>
-    <t>발주기관은 본 사업의 공기 준수 및 품질 수준 극대화를 위해 사업 진행 상황에 대한 감리 및 검사를 시행할 수 있으며, 이 경우 감리 및 검사 요원은 발주기관이 지정하는 기관과 직원으로 함</t>
-  </si>
-  <si>
-    <t>실시간으로 처리 시 오류가 발생한 즉시 사용자에게 관련 메세지를 알려주도록 설계/구현 하여야 함</t>
-  </si>
-  <si>
-    <t>정보보호 관련 법령을 시스템 개발에 참여하는 인력 전원이 숙지하고 준수하여야 함</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="323">
   <si>
     <t>계약 상대자는 제반 프로그램이 고품질을 유지할 수 있도록 최선의 노력을 다하여야 함</t>
   </si>
   <si>
-    <t>개발 단계별 추진 일정 및 세부 활동내용 등이 포함된 개발 일정 계획을 제시할 것</t>
-  </si>
-  <si>
     <t>날짜</t>
   </si>
   <si>
@@ -88,36 +61,18 @@
     <t>사용자 정보 접근성 향상을 위한 UI를 지원하도록 설계/구현하여야 함</t>
   </si>
   <si>
-    <t>장애 발생에 대한 처리 및 기타 시스템의 정상적인 운영을 위한 지원</t>
-  </si>
-  <si>
     <t>요구사항 내용</t>
   </si>
   <si>
-    <t>업무 모듈화</t>
-  </si>
-  <si>
-    <t>검사 및 검수</t>
-  </si>
-  <si>
-    <t>교육지원 요건</t>
-  </si>
-  <si>
     <t>요구사항 목록</t>
   </si>
   <si>
     <t>사. 제약사항</t>
   </si>
   <si>
-    <t>해지요건</t>
-  </si>
-  <si>
     <t>요구사항 이름</t>
   </si>
   <si>
-    <t>시험운영</t>
-  </si>
-  <si>
     <t>작     성     자</t>
   </si>
   <si>
@@ -172,52 +127,15 @@
     <t>요구사항 ID</t>
   </si>
   <si>
-    <t>개인정보보호에 관한 법률에 의거 개인정보보호지침을 준수해야 함</t>
-  </si>
-  <si>
-    <t>유연성, 확장성을 확보할 수 있도록 기능을 모듈화 하여야 함</t>
-  </si>
-  <si>
-    <t>사용자 편의성을 고려한
-UI 설계</t>
-  </si>
-  <si>
-    <t>교육일정 및 장소, 교재 등 기타 제반사항은 발주기관과 협의하여 결정하여야 하며, 아래의 사항을 포함하여야 함</t>
-  </si>
-  <si>
-    <t>일정 계획 및 세부 활동내용</t>
-  </si>
-  <si>
-    <t>장애 관리 및 백업 요건</t>
-  </si>
-  <si>
-    <t>데이터 형식 오류 응답시간</t>
-  </si>
-  <si>
     <t>아. 프로젝트관리 요구사항</t>
   </si>
   <si>
-    <t>본 과업의 수행에 있어서 제3자의 지적재산권을 침해하여 발주기관을 상대로 손해배상 청구 소송 등이 제기되면 계약상대자는 피해자 측에 합의 배상하여야 함</t>
-  </si>
-  <si>
-    <t>계약상대가 제3자로부터 구매하여 공급한 제품과 자체 개발한 SW를 포함한 전시스템의 하자보증 기간은 최종 검수 완료일로부터 3개월로 함</t>
-  </si>
-  <si>
-    <t>※오류 메세지에 중요정보(서버 설정정보, 세션정보, SQL정보) 등이 노출되지 않도록 적당한 에러 처리 로직 및 에러 화면을 구성</t>
-  </si>
-  <si>
     <t>DB 구조의 설계는 관련 업무 처리 절차를 반영하여 유기적으로 구조화하고, 향후 업무 변동에 따른 확장성을 충분히 고려하여 설계해야 함</t>
   </si>
   <si>
-    <t>본 사업의 수행과정에서 발생하는 제반 안전사고의 책임 및 행적적, 기술적 제반 비용과 문제처리는 계약상대자가 부담하는 것을 원칙으로 함</t>
-  </si>
-  <si>
     <t>다. 성능 요구사항</t>
   </si>
   <si>
-    <t>확인 메세지 제공</t>
-  </si>
-  <si>
     <t>데이터 정합성 검증</t>
   </si>
   <si>
@@ -227,37 +145,10 @@
     <t>바. 보안 요구사항</t>
   </si>
   <si>
-    <t>성과물의 소유권</t>
-  </si>
-  <si>
-    <t>응용 및 DB보안</t>
-  </si>
-  <si>
-    <t>지적재산권 보호</t>
-  </si>
-  <si>
-    <t>인적 및 물리적 보안</t>
-  </si>
-  <si>
-    <t>하자보증 요건 정의</t>
-  </si>
-  <si>
     <t>사용자가 진행 상태와 결과를 쉽게 볼 수 있고, 향후 수행 활동들을 쉽게 할 수 있도록 목록에서 제공할 정보를 설계해야 함</t>
   </si>
   <si>
-    <t>삭제, 입력정보 완료 또는 미완료 후 저장 등과 같이 사용자의 수행 활동에 관한 확인 메세지를 제공하도록 설계/구현 하여야 함</t>
-  </si>
-  <si>
     <t>권한</t>
-  </si>
-  <si>
-    <t>사업 진행에 대한 감리 및 검사는 제반 작업진척 사항 등을 기준으로 실시하며, 감리 및 검사결과 지적사항에 대해 발주기관의 시정요구가 있을 때 계약상대자는 성실히 이행하여야 함</t>
-  </si>
-  <si>
-    <t>일반 사용자는 직접적으로 DB접근을 할 수 없음</t>
-  </si>
-  <si>
-    <t>시스템의 운영, 사용자 및 관리자 사용법 교육</t>
   </si>
   <si>
     <t>미인증 회원일 시 마이페이지에서 내 정보 수정만 가능</t>
@@ -284,22 +175,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>FUR-001</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUR-005</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUR-006</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUR-009</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>PER-001</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -308,13 +183,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>SIR-001</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>SIR-002</t>
-  </si>
-  <si>
     <t>DAR-001</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -322,21 +190,6 @@
     <t>DAR-002</t>
   </si>
   <si>
-    <t>SER-001</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>SER-002</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>COR-001</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>COR-002</t>
-  </si>
-  <si>
     <t>COR-004</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -353,10 +206,6 @@
   </si>
   <si>
     <t>ID(고유번호), PW 등을 통한 웹사이트 형태의 보안 로그인 구현</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자가 입력한 데이터 형식의 모든 오류는 사용자가 시스템에 정보를 입력한지 5초 이내에 적당한 오류 메세지를 사용자에게 제시함</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -447,53 +296,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve"> 최종 이용자에 대한 최대의 이용 편의성 제공</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <rFont val="굴림체"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>•</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림체"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
       <t xml:space="preserve"> 기타 업무 처리 시 발견된 제반 문제점 보완</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <rFont val="굴림체"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>•</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림체"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 정당한 사유 없이 계약 내용을 성실히 이행하지 아니한 경우</t>
     </r>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -624,33 +427,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>시스템 검수 후 3개월 이내에 집체교육 최소 1회 이상 시행 (업무 담당자들이 완전히 이해하여 활용할 수 있도록 충분히 이우어져야 함)</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>COR-006</t>
-  </si>
-  <si>
-    <t>COR-007</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>PMR-001</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>PSR-001</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>PSR-002</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>PSR-003</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -674,14 +450,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>FUR-004</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>계약상대자는 공공기관의 개인정보보호에 관한 법률 등 기관의 정보보안 정책 및 규정을 준수하고,본 사업과 관련하여 취득한 일체의 정보를 유출 또는 누설하여서는 안되며,</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>시험운영은 발주기관이 정한 기간 내에 수행하여야 하고 정한 기간 내에 보완이 완료되지 못하면 서로가 정한 계약조건에 따른 조치와 보완 완료 시까지 책임을 져야함.</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -690,10 +458,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>이의 위반으로 인한 문제 발생 시 민∙형사상의 모든 책임을 짐</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>공통</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -783,14 +547,6 @@
   </si>
   <si>
     <t>마음건강검사</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>마음건강정보</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wee-Network</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -842,10 +598,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>고객지원</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>회원탈퇴</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -894,10 +646,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>상담 완료 건에 한해 상담 만족도 검사 실시</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>본인이 작성한 게시글 및 답변글 확인 및 수정 기능</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -962,10 +710,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>서울 위(Wee) 센터 교육·연수·행사·기타 등록/접수/현황 관리 기능</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>학교 업무 공유 게시판, 상담 전문성 공유 게시판, 서식 공유 게시판, 자유 게시판의 하위 메뉴로 구성</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -974,18 +718,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>공지사항에 기관별, 제목, 내용 검색 기능 제공</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>FAQ, 자주찾는질문에 대한 답변 제공</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>서비스 이용 불만사항 건의 및 불량 사용자에 대한 신고 기능 제공</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>통계 항목에 대한 엑셀 및 그래프, 파일 다운로드 기능</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -998,10 +730,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>맞춤형 검사는 사용자가 원하는 검사 선택 시 관련 검사 제공</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>초등〮중고등〮성인 선택 시 해당 연령별 관련 검사 제공</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1014,14 +742,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>내담자가 14세 미만인 경우 보호자 상담동의서 선택 기능</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>상담 희망일시 등록 시 수업시간일 경우 '수업시간 내 상담 희망' 체크 기능</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>퀵 메뉴 및 바로가기 아이콘 제공</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1034,13 +754,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>금칙어 포함시, 센터별관리자에게 게시글 삭제와 메시지 표시 기능 권한 부여</t>
-  </si>
-  <si>
-    <t>신청자가 지정한 위(Wee) 센터(24개소) 변경 권한을 센터별 관리자에게 부여</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>레이아웃에 따라 개별적으로 콘텐츠 관리 기능</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1049,22 +762,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>게시판별 연계가 가능하여 모든 게시판에서 확인 가능</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>위(Wee) 센터별(23개소) 게시판 상담 관리 기능</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지사항에 전체·26개소에 따른 교육·연수·행사·기타 등록 및 신청자 접수 기능 구현</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>접수 신청시 기한 및 인원수 제한을 두어 공고 마감 기능</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>마음건강검사 페이지 이동</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1093,23 +790,15 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>각 상담별 게시판마다 신청자가 직접 비밀번호를 설정하여 비밀번호 입력 후 게시판 조회 가능</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUR-003</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUR-003</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUR-003</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUR-007</t>
+    <t>로그인 페이지</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 페이지</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID/PW 찾기 페이지</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -1117,15 +806,43 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>로그인 페이지</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입 페이지</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID/PW 찾기 페이지</t>
+    <t>관리자</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인페이지</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 위(Wee) 페이지</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>상담신청 페이지</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원(신청자)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸터</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤더</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원탈퇴 페이지</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>통계현황 페이지</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -1133,82 +850,10 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>마이페이지</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자페이지</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인페이지</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>서울 위(Wee) 페이지</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>상담신청 페이지</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원(신청자)</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>푸터</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>헤더</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>사이드바</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원탈퇴 페이지</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객지원 페이지</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>통계현황 페이지</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울 위(Wee) 페이지</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>Wee-Net 페이지</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1225,42 +870,14 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>공통</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>마음건강정보</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지사항</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>상담게시판</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>회원(신청자)</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>퀵 메뉴는 챗봇, SNS, 유관기관으로 연결</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>챗봇</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>공통</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>비밀번호는 특수문자, 숫자 등을 포함하여 8자리 이상, 15자의 이하로 구성되고, 양식에 맞지 않을 경우 입력창 아래 '비밀번호가 맞지 않습니다' 붉은색 문구 출력</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1281,17 +898,10 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>서울 위(Wee) 센터 위치를 지도화하여 지도 선택시 위(Wee)센터 26개소의 소개 및 내용 제공</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>센터별 교육〮연수 일정 정보 제공</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>위(Wee), 위네트워크(Wee-Network)를 탭으로 구성</t>
-  </si>
-  <si>
     <t>전문상담(교)사 회원은 닉네임 등록·수정 기능 제공</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1368,83 +978,590 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
+    <t>없는 계정으로 로그인 시 '등록되지 않은 계정입니다. 회원가입 후 이용해주세요.' 팝업 창 출력</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이드 바는 화면 스크롤 위치에 따라 페이지 측면에 항상 위치하도록 구현</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색결과로 나타난 기관의 위치 클릭 시 기관 상세 정보를 해당 위치에서 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>제시된 상황 선택 시 관련 상황별 검사 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>심리검사 결과에 따라 관련 '마음건강정보' 콘텐츠 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>일러스트 형식을 적용하여 페이지 구성</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 시도 5 회 실패 시 본인인증 후 로그인 가능</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.05.03</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 실패시 로그인창 하단에 실패 원인 메세지 출력</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 입력 시 '@' 를 포함하지 않으면 '이메일 형태가 올바르지 않습니다.' 붉은색 문구 출력</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>상담 신청 현황에 따라 '예약 완료', '예약 취소', '상담 확정', '상담 진행', '상담 중단', '상담 완료'로 구분하여 상담 상태 정보 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터베이스 구축</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템의 평균 응답 및 처리 시간</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템이 정상 상태에서 사용자의 건별 요청에 대한 처리를 로딩속도(3초 이내) 규정 준수</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>스윗(SWeeT)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 위(Wee) 프로젝트 통합 플랫폼</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>최제윤</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>유연성, 확장성을 확보할 수 있도록 기능을 모듈화 하여야 함</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>저작권, 특허권 및 성과물 보호</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>지식재산권의 소유 및 양도</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약목적물의 지식재산권은 주관기관과 사업자가 공동으로 소유하지만, 다만 개발의 기여도 및 계약목적물의 특수성(국가안전보장, 외교관계, 보안 및 정보보호 등)을 고려하여 
+주관기관, 사업자 및 전문기관간의 협의를 통해 저작권의 귀속주체 등에 대해 공동소유와 달리 정할 수 있음</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로그래밍 언어</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로그래밍 환경은 플랫폼에 독립적인 개방형 언어와 기술을 사용하는 것을 원칙으로 함</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>모듈화 설계 및 개발 표준화</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트웨어 개발은 기능 공통성, 재사용성, 확장성과 유지관리 효율성을 높일 수 있도록 특화된 방법론과 표준화된 절차에 따라 이루어져야 함</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>COR-001</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>COR-002</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SW 개발 보안 가이드 준수</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 페이지는 국내·외 표준을 준수하여 구축</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>COR-003</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>시험운영</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 성능 최적화</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스 응답속도를 보장하기 위해 플랫폼 서버, 개발 아키텍처, 응용프로그램, DB쿼리문 등의 성능점검을 실시하여, 보완 사항을 조치하여야 함</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>시범운영과 안정화 기간에 CPU 사용률을 평가하며, 자원 사용률은 어느 조건 하에서도 평균 70% 이하여야 함</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 편의성을 고려한
+UI 설계</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>플랫폼의 성능이 최적화될 수 있도록 구현 단계부터 지속적으로 검증하여야 함</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인정보보호 및 시스템 보안을 위한 암호화 적용 등에 따른 성능 저하에 대비한 방안을 수립하여 적용하여야 함</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>응용 프로그램 검증</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>PER-003</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIR-001</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIR-001</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>콘텐츠 및 디자인 구성 기본요건</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴 및 디자인은 현 실정에 맞게 구성, 접근성, 편리성 등을 최대한 고려한 사용자 인테페이스(UI) 지원하여야 함</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발 프레임워크는 전자정부 표준프레임워크를 기반으로 자바(JAVA)를 기본 사용, 자바(JAVA)의 언어적 특성과 기능을 완벽하게 지원할 수 있어야 함</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>차. 품질 요구사항</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUR-001</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>품질관리 일반사항</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>이해 및 사용 용이성</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUR-002</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>이해 및 사용 용이성, 사용자가 쉽게 시스템을 쉽게 운영하고 제어할 수 있는 직관적인 인터페이스 제공해야 함</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 시스템 기능을 배우는데 필요한 관리자 및 서브 관리자 절차별 상세 매뉴얼을 제공해야 함</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로그램 개발 및 유지 관리, 데이터 관리, 서식 등에 대해 정기적인 표준화 수행, 검수완료(인수)일부터 1년까지 서비스 제공에 결함이 없음을 보증하여야 함</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SER-001</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보화사업 용역업체 
+정보보호 및 보안준수</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용하는 PC는 인터넷 연결을 금지하되, 사업수행 상 연결이 필요한 경우에는 ‘발주기관’의 보안 통제 하에 제한적 허용 함</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업 관련 보안준수사항을 위반하여 발생하는 모든 민·형사상 책임 및 그에 따른 유·무형의 손해배상에 대해 책임소재를 구분하여, 그에 따라 책임을 져야 함</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SER-002</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기 개발 단계부터 ‘소프트웨어 개발보안 가이드(행정안전부)’를 적용하여 모든 응용소프트웨어 개발해야 함</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>응용프로그램 보안 코딩 및
+ 웹 보안</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>OWASP 10대 보안 취약점 및 국가정보원 홈페이지 보안 8대 취약점 등 웹 보안 취약점 사전 점검 및 제거해야 함</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로그램 개발 시 보안을 고려한 소스 코딩으로 어플리케이션 취약점으로 인한 보안문제점이 발생치 않도록 하고, 서비스 오픈 전(前) 전반적인 취약점 진단 후 서비스가 개시될 수 있도록 함</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인정보보호 및 구간 암호화</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인정보보호법에 관한 법률 준수 및 서울특별시교육청 내부관리계획 준수해야 함</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>제대로 된 관리체제를 갖추고 전문 서비스 및 기술지원을 해주는 신뢰할 수 있는 인증기관의 SSL 인증서 적용</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인정보 노출 및 민감정보 노출 가능성 발견 시 즉시 원인분석 후 수정·보완 해야 함</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인정보 및 인증정보 입력 시 사용자 단말기에 노출 방지대책 마련</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 인증 정보, 패스워드 등은 소스코드에 하드코딩 금지</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>보안, 일정지연, 품질저하, 장비 변경에 따르는 예산초과 등 리스크 발생 사전 예방하고, 발생 시 사후 대처방안 제시</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SER-003</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>원격지 개발 장소 보안요구사항</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 계정과 일반 사용자 계정을 분리하고 계정별 권한 부여시 구별하여 접근통제 수행</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>원격지 개발과 관련한 수행내역 및 정보시스템 접속 이력 등 로그를 1년 이상 저장 유지</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>원격지 개발은 용역업체가 자체 구축한 환경을 사용</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SER-004</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>용역수행 관련 보안 관리</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SER-005</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>자체보안점검, 비인가자의 출입관리, PC 보안프로그램 설치(백신, 저장매체 통제 등), 인터넷 통제, 시건장치 설치 등 서울특별시교육청의 보안업무지침 준용하여 관리해야 함</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>노트북 및 PC에 전원기동(CMOS) 패스워드, 윈도우 로그인 패스워드, 화면 보호기(10분 간격) 패스워드를 영문자, 숫자, 특수문자가 조합된 9글자 이상으로 설정하여야 함</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>TER-001</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>TER-003</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>장애관리 및 백업</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템에 이상 발생 시 장애접수 후 4시간 이내에 장애 처리하여야 함</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트웨어 개발 시 사용된 언어 및 개발도구 등을 명확히 제시, 다른 소프트웨어의 컴퓨터 프로그램 저작권 침해하지 않아야 함
+본 사업에 제시하는 솔루션은 라이선스에 대해 구체적인 내용(종류 및 건수, 사용범위, 사용방법 등)을 상세하게 제시하여야 함</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>목표시스템에서 생성·관리되는 응용프로그램과 자료에 대한 백업 및 복구 방안을 문서화하여 결과물로 제시하여야 함</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업수행 기본방침</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>본 용역을 수행함에 있어 최신 기술지식을 사용하여 일반적으로 통용되는 전문적인 기준과 신의와 성실의 원칙에 따라 계약의무 완수하여야 함</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업수행계획서 작성</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMR-002</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMR-001</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업수행 계획은 수행공정간 연계가 보일 수 있도록 하며 품질 보증할 수 있도록 조직, 방법, 절차, 내용 등을 고려하여 상세하게 기술해야 함</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMR-003</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무보고 및 검토계획</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약일로부터 사업완료일까지 착수일 기준 매주·매월 착수계획서에 제시된 사업수행 절차에 따른 현재의 구체적인 공정 및 진행사항, 업무 추진상 문제점 및 대안방안 등에 대한 
+진도 보고서를 작성·제출하여야 함</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업수행 환경 및 작업 장소</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>자. 인터페이스 요구사항</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMR-004</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 전산설비는 자체 설비를 이용하여야 하며, 필요시 ‘발주기관’ 및 직속기관의 승인 하에 관련 설비 이용 가능함</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업의 수행을 위하여 필요한 작업 장소는 상호 협의하여 결정</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <rFont val="굴림체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 최종 이용자에 대한 최대의 이용 편의성 제공</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="굴림체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 필요한 물품, 비품 등 기타 작업환경에 필요한 사항은 사업자가 구비</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFR–004</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFR–005</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFR–006</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFR–007</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFR–008</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFR–009</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFR–010</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wee-Network</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFR–011</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFR–012</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFR–013</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFR–014</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFR–015</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFR–019</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFR–014</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="굴림체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 보안 및 현장조사 등과 관련한 작업 시 발주기관’의 의견을 적극 수렴</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>신고 누적 횟수가 5회 이상에 해당하는 사용자 계정 이용 제한 설정</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판상담은 사용자로부터 단순질의를 받으므로 상담예약신청을 위해 '상담 신청 1'로 연계</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>금칙어 포함시, 관리자에게 게시글 삭제와 메시지 표시 기능 권한 부여</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 상담은 비대면 상담 신청과 별도로 분리하여 신청할 수 있도록 구현</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>상담게시판의 모든 게시글은 작성 시 신청자가 직접 비밀번호를 설정하여 비밀번호 입력 후 게시판 조회 가능</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판상담은 사용자로부터 단순질의를 받고 답변 글 업로드 시 답변 완료 상태로 전환</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자 이름, 비밀번호, 상담 주제, 상담 내용 등록·수정·취소 기능 구현</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>전 기관 통합 공지사항</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>기관별, 기간별, 제목 검색 기능 제공</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀵 메뉴는 챗봇, SNS으로 연결</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
     <t>전문상담(교)사 권한으로 로그인된 계정만 이용할 수 있도록 구현</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시판 상담은 비대면 상담 신청과 별도로 분리하여 신청할 수 있도록 구현</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>없는 계정으로 로그인 시 '등록되지 않은 계정입니다. 회원가입 후 이용해주세